--- a/app/static/Flu09/all_results.xlsx
+++ b/app/static/Flu09/all_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>index</t>
   </si>
@@ -106,58 +106,61 @@
     <t>module</t>
   </si>
   <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAACDQAAA3UCAYAAAAIKIDsAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdeZjVdd0//tfMsA6IMIAggoIKLoAiIKaQSso2mClY3ZqXZpmpt6bWXVpZd1mKmZdKgWmUlqWGCyLFpiIuBBbgwq3ihgvKqgwDDNusvz/82s9l5pwzMGdh5vG4rv7ovF/n834e0eMZz3M+77yampqaAAAAAAAAAADIIfnZDgAAAAAAAAAA8GkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOUWgAAAAAAAAAAHKOQgMAAAAAAAAAkHMUGgAAAAAAAACAnKPQAAAAAAAAAADkHIUGAAAAAAAAACDnKDQAAAAAAAAAADlHoQEAAAAAAAAAyDkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOUWgAAAAAAAAAAHKOQgMAAAAAAAAAkHMUGgAAAAAAAACAnKPQAAAAAAAAAADkHIUGAAAAAAAAACDnKDQAAAAAAAAAADlHoQEAAAAAAAAAyDkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOUWgAAAAAAAAAAHKOQgMAAAAAAAAAkHMUGgAAAAAAAACAnKPQAAAAAAAAAADkHIUGAAAAAAAAACDnKDQAAAAAAAAAADlHoQEAAAAAAAAAyDkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOUWgAAAAAAAAAAHKOQgMAAAAAAAAAkHMUGgAAAAAAAACAnKPQAAAAAAAAAADkHIUGAAAAAAAAACDnKDQAAAAAAAAAADlHoQEAAAAAAAAAyDkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOScZtkOAACwJ9i4cWtUV9dkOwZAzsrLy4uiojafeKykZGvU1HjvBKjLpk2b4stfPvUTj91//4zYe++9s5QIYM/gsydA/eXn50eHDoXZjgH1ptAAAJCC6uoahQaABPLyPvtYdXWN/6gMkEBlZVWsXbv2M4/53AmQmM+eAPWXl+c9kj2TIycAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOUWgAAAAAAAAAAHKOQgMAAAAAAAAAkHMUGgAAAAAAAACAnKPQAAAAAAAAAADkHIUGAAAAAAAAACDnKDQAAAAAAAAAADlHoQEAAAAAAAAAyDkKDQAAAAAAAABAzlFoAAAAAAAAAAByjkIDAAAAAAAAAJBzFBoAAAAAAAAAgJyj0AAAAAAAAAAA5ByFBgAAAAAAAAAg5yg0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOQchQYAAAAAAAAAIOcoNAAAAAAAAAAAOUehAQAAAAAAAADIOQoNAAAAAAAAAEDOaZbtAADkvvLy8njjjTfilVdeieXLl8cbb7wRpaWlsWXLltiyZUuUlZVFfn5+tGzZMtq1axf77LNPdOvWLfr06ROHHXZYDBo0KNq2bZvtlwEAAAAAAMAeRKEBgFpt2rQpHn/88Zg7d24sXLgwdu7cmfQ55eXlsWXLlli1alU899xzMXPmzIiIaNasWfTv3z9Gjx4dX/ziF6Njx47pjk+KysrKYvny5fHaa6/F6tWro6SkJHbu3BkFBQXRtm3baNeuXfTq1Sv69OkTvXv3jubNm2c7MgAANGp5eRF5eXnZjgGQ02p7m/zwMe+fsKtqamqyHQGgVnk13qGAPcC//vWvOOecc+r1nMLCwli0aFG0atUqTal2za233hoTJ05MeX7ChAkxbty4NCb6pMWLF8cf//jHWLBgQVRUVDT49Zs1axbFxcVx/vnnxyGHHNLg1/+43/72tzFp0qS07pGXlxcFBQVRUFAQzZo1i8LCwmjdunXstdde0alTp+jcuXMccMABcdBBB8URRxwRnTt3TmueVGzevDlmzJgRc+fOjWeffTYqKytTel7btm3j85//fIwYMSJGjhzZ5MoNGzaURXW1j00AdcnLy4tOnT55R6YPPijzH8UAEigt3RgnnnjsJx5btmyZEjgAkHF+fmv8Cgryo6ioTbZjQL25QwPQaG3bti2efPLJGDVqVLajfMKsWbOyHaFWTzzxRNx2223x3HPPpXWfysrKmDFjRvz973+P008/Pb73ve9Fp06d0rpnOtXU1ERlZWVUVlbGzp07Y+vWrQnn99tvvxg+fHiMHDkyhgwZktHfvCopKYkpU6bEPffcEzt27Kj388vKymL27Nkxe/bs2GeffeJrX/tanHPOOVFYWJiGtAAAAAAAQFOXn+0AAOk0Z86cbEf4hNdffz1ef/31bMf4hHfeeSfOPvvs+Pa3v532MsPH1dTUxLRp06K4uDhnSx7psGrVqvjrX/8a55xzTpxyyinx4IMPRnV1ddr3nT59eowZMybuuOOOXSozfNr69evj5ptvjjFjxsTs2bMbICEAAAAAAMAnKTQAjdoTTzzRIF/eNpSZM2dmO8J/VFdXx5133hmnnnpqLF68OGs5Nm3aFFdccUX89Kc/Tfnog8bijTfeiB/96EdxxhlnxIsvvpiWPcrLy+Oqq66KK6+8MkpLSxv8+mvXro3LL788rrrqqti5c2eDXx8AAAAAAGi6HDkBNGrbtm2Lp556KkaOHJntKBEROfOb7KWlpXHJJZdktcjwaVOnTo2VK1fG5MmTo02bpnWO10svvRRnnnlm/PSnP40vf/nLDXbdioqKuPTSS+OJJ55osGvW5aGHHorXX3897rjjjth7773Tvh8AADRaxx0XUVKS7RQAQGPWqVPE8uXZTgGQEoUGoNGbM2dOThQaXnrppXj77bezHSPWrFkT559/frzxxhvZjvIZixYtigsuuCCmTJkShYWF2Y6TUeXl5XH11VfH1q1b4+tf//puX6+qqiq+973vZaTM8JEXX3wxLrjggrjjjjuaXCkFAAAaTElJxAcfZDsFAABATlBoABq9+fPnx86dO6Nly5ZZzTFr1qys7h8RsWLFivjmN78Za9asqfdzCwsLo3///tG/f/844ogjonv37tGuXbvYa6+9om3btrFt27bYtGlTbNq0KV599dV44YUX4rnnnovXXnutXvssWbIkLr300vj9738fBQUF9c65p5swYUJ06NAhvvSlL+32debOnZvS7L777hsjRoyIoUOHxoEHHhhFRUXRokWLKCkpidWrV8e//vWvePzxx2PZsmVJr/X888/HD3/4w/jNb36zW/kBAAAAAAAUGoBG76NjJ0aMGJHVHNk+bmLdunVx7rnnxvvvv5/yc/Ly8mLIkCExfvz4GDVqVLRq1arO2Xbt2kW7du2iR48e0a9fvxg/fnxEfHhniqlTp8aMGTNi+/btKe27YMGCuP766+PHP/5xylkbk5/97Gdx5JFHRs+ePXfp+YsXL46//vWvSec6dOgQl112WYwfPz5atGjxmfWuXbtG165dY+DAgXHRRRfFP//5z7jhhhvilVdeSXjduXPnxvTp0+O0007bpfwAAAAAAAARCg1AEzFnzpysFhqef/75WLVqVdb2Ly8vj0suuaReZYYhQ4bET37yk+jTp89u7d23b9+45ppr4sILL4xrrrkm5s+fn9Lz7rrrrjj22GPjC1/4wm7tn8y8efOie/fuu3WN6urqqKqqiqqqqti+fXts3749Nm7cGOvXr4833ngjFi1aFIsWLYrq6uqUrrdt27b48Y9/HHfffXe9s+zYsSOuvvrqqKmpSTh3xBFHxG9+85vYd999U7720KFDY+rUqfGTn/wkZsyYkXB2woQJcfLJJ0fbtm1Tvj4AAAAAAMDH5Wc7AEBDycvLq3Pto2MnsmXmzJlZ2zsi4n//939TOi4gIqJ9+/Zx4403xl/+8pfdLjN8XLdu3eK2226LX/3qV9G8efOUnnP11VfHxo0bGyxDuuTn50fz5s2jVatW0aFDh+jWrVv07ds3hg8fHt/61rfijjvuiPnz58e4ceMS/n36cUuWLIlHH3203ln+/Oc/x9tvv51wpm/fvnHXXXfVq8zwkVatWsWvf/3rOOWUUxLOlZaWxp/+9Kd6Xx8AAAAAAOAjCg1AozFgwIA617Zu3RpPP/10BtP8/6qrq2POnDm1ruXnp/9t+OGHH45p06alNNurV6+4//7744tf/GLa8px22mkxefLkhMdXfGTDhg3xm9/8Jm1ZMqlr164xYcKEuPXWW6OwsDCl50yaNKlee1RWVsY999yTcKZTp07xu9/9Llq3bl2va3/addddF4ccckjCmb/85S9RUVGxW/sAAAAAAABNl0ID0GgUFxcnXJ89e3aGknzSkiVLYv369bWuHX300Wndu6ysLH7961+nNDt48OCYOnVq7L///mnNFBFxwgknxG9/+9uU7lYwderUWLFiRdozZcoXvvCFmDJlSrRo0SLp7CuvvBJLly5N+dqPPfZYrF27NuHM5ZdfHl26dEn5mnVp2bJl/OAHP0g4U1pamrUiEQAAAAAAsOdTaAAajWHDhsVee+1V53q2jp1IdNzE2LFj07r3pEmT4v333086d9BBB8Vtt90We++9d1rzfNzxxx8f3/rWt5LOVVVVxe23356BRJkzePDguPrqq1OanT59esrXvffeexOu9+7dO8aPH5/y9ZIZNmxYHH744Qln5s2b12D7AQAAAAAATYtCA9BotGjRIk466aQ617Nx7ERVVVU88sgjta41b948Ro4cmba9V6xYEX/961+TzhUVFcXtt9+esAySLpdddlnCo0I+MnPmzFi9enUGEmXOV77ylTjqqKOSzj311FMpXW/btm1J7+bw5S9/ucGPOTnhhBMSri9btqxB9wMAAAAAAJoOhQagURkzZkzC9UwfO7Fo0aIoKSmpde24446LDh06pG3vP/zhD1FRUZF07he/+EX06NEjbTkSadasWVx55ZVJ5yorK+OBBx7IQKLMycvLS+kOFWvXro2333476dzSpUsT/nkXFBTEKaecUp+IKUlWylixYkVUVVU1+L4AAAAAAEDjp9AANCpDhw5NeGxCpo+dmDVrVp1rxcXFadt348aNCY+6+MgJJ5wQJ598ctpypGLgwIExfPjwpHMPPvhg1NTUZCBR5px44olRVFSUdO6NN95IOvOvf/0r4Xr//v2jY8eOKWdLVbJrVlVVxaZNmxp8XwAAAAAAoPFTaAAalebNm+fMsRPl5eXx2GOP1brWsmXLtBYJ7r///qTFjebNm8fVV1+dtgz1cdlllyWdWbt2bTz//PMZSJM5BQUFKR078eabbyadOfjgg2P06NHRq1evKCgo+Mx6//79dyljMqkcVVJWVpaWvQEAAAAAgMatWbYDADS04uLimDZtWp3rc+bMychdCf75z3/W+ZvpJ554YrRt2zYt+1ZXV8e9996bdO6kk06K/fffPy0Z6uuwww6Lfv36xYsvvphw7oknnkipALAnOfTQQ2PevHkJZzZu3Jj0OqeddlqcdtppERGxc+fOeP311+PVV1/9z/+OOeaYBsn7adu2bUs607p167TsDQAAAAAANG4KDUCjc+yxx0b79u2jtLS01vX58+dHeXl5tGjRIq05Eh35kM7jJp5//vlYvXp10rmzzjorbRl2xbhx4z5TaOjcuXMMGjQoBg8eHIMHD45DDjkkS+nSp3379klntm7dWq9rtmzZMvr16xf9+vXb1Vgpe++99xKu5+XlJTwGBgAAAAAAoC4KDUCj06xZsxg5cmTcd999ta6XlZXF008/nfBoit21c+fOePzxx2tda9OmTZx44olp23vBggVJZ3r27Jm239jfVWPHjo2//vWvceSRR/6nwNCzZ89sx0q7li1bJp2pqanJQJJdk+wYkJ49e6a9PAQAAAAAADROCg1AozRmzJg6Cw0RHx47kc5CwxNPPFHnb9WfdNJJ0apVq7Tt/fTTTyedSedr31Xt27eP2bNnZztGxpWUlCSdydUjG2pqauLRRx9NODNgwIAMpQEAAAAAABqb/GwHAEiHY445Jjp27Fjn+uOPPx7l5eVp23/WrFl1ro0dOzZt+5aWln7m2IbaHH/88WnLQP2kUmjo0KFDBpLU39y5c+Odd95JODN69OgMpQEAAAAAABobhQagUSooKIgRI0bUuV5WVpbS0Qy7Ytu2bfHkk0/Wuta+ffsYOnRoWvaNiFi6dGlUV1cnnCksLIxBgwalLQP1k0oBZb/99stAkvopKSmJCRMmJJzZZ599YtiwYRlKBAAAAAAANDYKDUCjVVxcnHB9zpw5adn38ccfj+3bt9e6NnLkyGjevHla9o2IWLFiRdKZfv36pTUDqdu0aVO88MILSef69OmTgTSp27x5c3z729+OtWvXJpy79NJLo1kzp1sBAAAAAAC7RqEBaLSOPvro6Ny5c53r6Tp2YubMmXWuJStZ7K4333wz6Uy/fv3SmoHU/eMf/4iqqqqEM4WFhdG7d+8MJUru2WefjfHjx8eyZcsSzvXt2zfGjx+foVQAAAAAAEBjpNAANFr5+fkxatSoOte3bNkS//znPxt0zy1btsTTTz9d61rnzp3jmGOOadD9Pk2hYc9RVlYWkydPTjp37LHHRkFBQQYSJfbWW2/FZZddFmeeeWasXLky4exee+0VEydOzIncAAAAAADAnkuhAWjUxowZk3B99uzZDbrfo48+GhUVFbWujR49OvLz0/u2+9ZbbyWd6dWrV1ozkJrrrrsuNmzYkHRu5MiRGUjzWTU1NbFixYqYOnVqfO1rX4vRo0endExLYWFhTJ48OXr06JGBlAAAAAAAQGPmYGugURs0aFB06dIl1q1bV+v6R8dOtGjRokH2S3TcxNixYxtkj7rs2LEjNm/enHSuW7duac1BcjfddFM8+OCDSefat28fo0ePzkCiiB/96EexadOm2Lp1a2zevDlWrlwZW7Zsqdc1ioqKYvLkyTFw4MA0pQQAAAAAAJoShQagUcvLy4tRo0bFXXfdVev6R8dODB8+fLf32rhxYzzzzDO1ru23335x1FFH7fYeiWzbti3pTGFhYbRv3z6tOajbpk2b4rrrrovp06enNH/WWWdFq1at0pzqQ3Pnzo2ysrJdfv7QoUPjV7/6VXTu3LkBUwEAAAAAAE2ZIyeARq+4uDjheiq30U/F3Llzo7KycpcyNIStW7cmnenUqVPac/BZ7733XkycODFGjBiRcpmhqKgovvnNb6Y52Yc2b968y2WGnj17xsSJE+OOO+5QZgAAAAAAABqUOzQAjd6AAQOiW7dusXr16lrX582b1yDHTsyaNavOtXQfNxGRWqEhU7/t39RUV1dHRUVFbN++PTZu3Bjr1q2LlStXxssvvxxLly6N1157rd7XvPLKK6Nt27ZpSPtZdf2zkYrWrVvHm2++Ga+//nr07t27AVPlnry8vMjLy3YKgNxV23vkh4958wSoi8+XAECu8PNb4+ezJ3sqhQag0cvLy4vRo0fHHXfcUev6li1bYuHChXHiiSfu8h7vv/9+LF68uNa1Aw88MA477LBdvnaqUjlyQqHhs0466aRsR/iMUaNGxWmnnZax/dauXbvLz12+fHksX748Jk6cGMcdd1xccsklMWjQoAZMlzuKitpkOwLAHqdjx8yU8wD2VHl5O7MdAQAgIvz8BuQuR04ATcKYMWMSru/usRNz5syJ6urqWtcycXeGVO3uXShIvz59+sSECRMyuufu3KHh4xYuXBhnnXVWXHbZZbt8hAUAAAAAAMBHFBqAJuGII46I7t2717n+0bETu2rmzJl1rhUXF+/ydeujsLAw6czuvEbSr1evXjFlypRo0yazdwJYs2ZNg15vzpw5cfrpp8crr7zSoNcFAAAAAACaFkdOAE3G6NGj4w9/+EOta5s3b45FixbFCSecUO/rrlmzJp5//vla1w4//PA48MAD633NXZFKoWHHjh0ZSMKuGDRoUEyaNCmKiooyvndBQUGcccYZ0b9//zjkkEOie/fusffee0dlZWVs2LAhNmzYEEuXLo0FCxbE4sWLo6KiIuk1V65cGeedd17cc8890atXrwy8CgAAAAAAoLFRaACajOLi4joLDREf/lb5rhQaZs2aFTU1NXXumSkKDXumwsLCuOSSS+K8886L/Pzs3Djp8ssvr/XxFi1aRGFhYfTo0SMGDBgQ3/zmN2PVqlUxadKkePjhh6OqqirhdUtKSuKb3/xm3HfffdGpU6d0RM+okpKtUV1d+z/rAETk5X32zNUNG8qijo9JAEREaenWbEcAAIgIP781BQUFedGhQ2bvDgwNQaEBaDL69u0bBxxwQLzzzju1rs+bNy8qKiqiefPm9brurFmzan08Ly8vo4WGVI4p2L59ewaSkIr27dvHV7/61TjvvPOiQ4cO2Y6Tsv322y8mTJgQX/3qV+OSSy6J999/P+H8qlWr4tprr42bb745QwnTp6amps7yEgAREXmfeaSmJrx3AiTgLRIAyBV+fmv8amo++3M77Amy86ugAFkyZsyYOtc2bdoUCxcurNf1Vq5cGS+++GKtawMGDIj99tuvXtfbHa1bt4727dsnnNmwYUNUVlZmKBGftt9++8W4cePid7/7XSxYsCC++93v7lFlho8bMGBAPPjgg3HooYcmnZ01a1Y89dRTGUgFAAAAAAA0Ju7QADQpY8aMidtuu63O9foeOzFz5sw618aOHVuvbA2hZ8+e8fzzz9e5Xl1dHWvXro3u3btnMFXjl5+fHy1atIgWLVpE69ato0OHDtGpU6fYZ599olevXnHggQfGYYcdltGCSyZ06dIlbr/99jjjjDOS3qlh0qRJcfzxx2coGQAAAAAA0BgoNABNyqGHHhq9evWKt956q9b1+h47UddxE/n5+TF69Ohdzrmr9t9//4SFhoiI1atXKzR8zLx58/z12A1du3aN3/72t3HmmWcmvCXdCy+8EK+88kpKd3QAAAAAAACIcOQE0AQ11LETK1asiNdee63WtWOOOSY6d+68S/l2xwEHHJB05t13381AEpqSo446KqU7kkyfPj0DaQAAAAAAgMZCoQFocoqLixOuz5kzJ6Xr5NpxExERffr0STrz4osvZiAJTc13vvOdyMvLSzizdOnSDKUBAAAAAAAaA4UGoMnp3bt3HHzwwXWuf3TsRDJ1HTfRvHnzGDly5C7n2x2DBw9OOrNs2bIMJKGpOeCAA+Lwww9POLN8+fIoLy/PUCIAAAAAAGBPp9AANEnJjp1YtGhRwucvX7483nrrrVrXhg0bFnvvvfdu5dtVRUVFCcsaERGvvvpqzn6pvGPHjhgxYkRceeWV8dBDD8Xq1auzHYl6OP744xOuV1RUxJtvvpmhNAAAAAAAwJ5OoQFokhIVGiKSHzuR6LiJZEdapNvRRx+dcL2ioiIWL16coTT189xzz8XKlStj+vTpcdVVV8Xw4cPj5JNPjh//+McxY8aMWLduXbYjkkDfvn2TzmzatCkDSQAAAAAAgMZAoQFokg466KA45JBD6lyfN29eVFZW1rk+e/bsWh9v1apVnHTSSbudb3ccc8wxSWceeeSRDCSpvwULFnzmsXfffTceeOCB+P73vx/HH398/PSnP81CMlJRVFSUdGbz5s0ZSAIAAAAAADQGCg1Ak5XoLg2lpaV1HjuxbNmyeO+992pdO/HEE6NNmzYNkm9XnXDCCVFYWJhwZt68eVFdXZ2hRKl77LHHks4cfvjhGUjCrkil0LBt27YMJAEAAAAAABoDhQagyUp2NMTcuXNrfXzWrFl1Pmfs2LG7leCHnT4AACAASURBVKkhFBYWJr1LxPvvvx/PPPNMhhKlZtmyZfH2228nnTvhhBPSH2YPV1NTE+vWrYslS5bE9OnTM/ZnvXXr1qQzyco2AAAAAAAAH2mW7QAA2XLAAQfE4YcfHi+//HKt64899lj8/Oc/j4KCgv88VlNTE3PmzKl1vm3btjnzZfupp54af//73xPO/PGPf4zjjjsuQ4mSmzp1atKZgQMHxr777puBNHuWRYsWxaOPPhrvvvtuvPfee7Fq1arYuXPnf9aPPfbY+NznPpf2HBs2bEg6s9dee6U9BwAAAAAA0Di4QwPQpCU6dmLjxo2xePHiTzz2/PPPx5o1a2qdP/nkk6Nly5YNmm9XDR06NDp16pRwZsGCBbF8+fIMJUps/fr1MWPGjKRzX/rSlzKQZs+zfPnyuPvuu+Opp56KN9988xNlhoiI5557LsrLy9OeY+3atUlnevTokfYcAAAAAABA46DQADRpiQoNERGPPPLIJ/7/7Nmz65xNdoRFJhUUFMTXvva1pHMTJ07MQJrkbr/99qRfuBcWFubEkR65qGfPngnXd+zYEc8++2zac/zzn/9MuN66dWt32AAAAAAAAFKm0AA0aT169Ij+/fvXuf7oo49GTU1NRHx43MTcuXNrnevQoUMMHTo0LRl31TnnnBPt2rVLODN//vx4+OGHM5Sodq+++mrce++9See+8pWvOK6gDkceeWTSmXT/OVdWVsbChQsTzhx11FGRn++jBwAAAAAAkBrfKgBNXqK7NKxfvz6ee+65iPjwuIm6bqk/cuTIaNasWVry7aq2bdvGueeem3Tu2muvjfXr12cg0WeVl5fHVVddFVVVVQnnWrRokdJraao6duwYvXr1SjgzZ86cKCsrS1uGWbNmxZYtWxLOHHfccWnbHwAAAAAAaHwUGoAmb8yYMZGXl1fn+qOPPhoRUefdGSIiZ49CSOUuDZs2bYoLL7ww6ZfR6fDLX/4yXn755aRzZ599dnTr1i0DifZcJ598csL1bdu2xQMPPJCWvSsqKuI3v/lNwpm8vLyc/ecEAAAAAADITQoNQJPXrVu3hLfsf+yxxyIi4pFHHql1fZ999omjjz46Ldl2V7t27eLKK69MOvfSSy/FBRdcENu3b89Aqg/97ne/i6lTpyad69ChQ1x44YUZSLRnO+WUU5LOTJ48OUpKShp87z/+8Y/x7rvvJpwZNmyYUgoAAAAAAFAvCg0AkfjYiZUrV8ZDDz0Uq1atqvO5+fm5+3Z6xhlnxPDhw5POPfvss3H22Wcn/WJ6d9XU1MTNN98ct9xyS0rzP/3pT2PvvfdOa6bG4NBDD40hQ4YknNm8eXPccMMNDbrvE088ERMnTkw6d/HFFzfovgAAAAAAQOOXu9/AAWRQsmMnrr/++jrX9oTb6P/iF7+I9u3bJ5178cUX4/TTT49Zs2alJcfGjRvjoosuittuuy2l+TFjxkRxcXFasjRGqZQGHnroofj973/fIPstXbo0vve970V1dXXCuREjRsTAgQMbZE8AAAAAAKDpUGgAiIguXbok/MK1tLS01sd79OiR8LiKXNG5c+e44YYbolmzZklnt2zZEldccUWcffbZsXTp0gbZv7q6Oh566KEoLi6O+fPnp/Sc3r17x7XXXtsg+zcVxx57bEp347jpppvij3/8427t9eCDD8a5554bZWVlCefatm0bP/nJT3ZrLwAAAAAAoGlSaAD4fxIdO1GXPenuASeccEJMmDAh4Z0oPm7x4sVx1llnxbnnnhvTp0+PrVu31nvPLVu2xD333BNjx46Nq666KkpKSlJ6XufOnePWW2+NNm3a1HvPpu7nP/950iM6ampq4oYbbogLL7wwVq9eXa/rv/XWW3HZZZfFj370o6ioqEg6P2HChOjSpUu99gAAAAAAAIiISP6rugBNxKhRo+K6665Levv8j9uTCg0REaeeemps2bIlrrnmmpSf88wzz8QzzzwTP/vZz2LIkCFxxBFHRP/+/aN79+6x9957R7t27SIvLy927NgR69evj/feey9efvnlWLx4cfz73/9O6Uvvj+vQoUPceeedsf/++9f35REf3m3kV7/6VVx88cVJ/16eP39+LFiwIL74xS/GqaeeGgMHDoyWLVt+Zq6srCwWLFgQjz32WMyePTsqKytTynLRRRfFyJEjd+l1AAAAAAAAKDQA/D/77LNPDB48OP7973+nNH/wwQfHoYcemuZUDe9rX/taNG/ePH7xi19EeXl5ys/bvn17PPnkk/Hkk0+mLVuPHj3i9ttvj4MOOihtezQFw4cPj6uuuiquu+66pLMVFRUxbdq0mDZtWrRs2TJ69uwZHTp0iMLCwti4cWNs2LAhVq9enXKJ4SNnnXVWXH755bv6EgAAAAAAABQaAD5uzJgxKRca9rS7M3zcV77ylTj00EPjO9/5TqxZsybbcSIi4thjj42bbropioqKsh2lUTj33HOjuro6rr/++pSfs3Pnznj11Vd3e+8LLrggvvvd7+72dQAAoEnyMxEAkG6dOmU7AUDKFBoAPmbUqFHxy1/+MqqqqpLOjh07NgOJ0ueII46IadOmxY9+9KOYP39+1nK0bNkyLr300jj//PMjLy8vazkao/POOy+6dOkSP/zhD2PHjh1p36+wsDB+8pOfxLhx49K+FwAANFoLF0Z07JjtFAAAADkhP9sBAHJJx44dY8iQIUnn+vbtGz179kx/oDQrKiqK2267LSZPnhy9evXK+P4nnXRSzJw5M771rW8pM6RJcXFxPPDAA9GvX7+07nPUUUfFtGnTlBkAAAAAAIAGo9AA8CljxoxJOrOn353h004++eSYNWtW3HzzzTFo0KC07lVQUBCjRo2KBx98MG699dbo0aNHWvcjonfv3nHffffFz3/+89hnn30a9Nq9evWKm2++Of72t79lpRQDAAAAAAA0Xo6cAPiUESNGxDXXXBOVlZW1rufl5UVxcXGGU6Vffn5+FBcXR3Fxcbz99tsxd+7cePLJJ+OFF16o869Fqpo1axZHHnlkjBgxIk455ZTo3LlzA6UmVQUFBfFf//VfMW7cuJg9e3Y88MADsXTp0pSOV/m0wsLC+PznPx/jx4+P448/3t01AAAAAACAtMirqampyXYIAHLXjh074sUXX4yXX3453nnnnVi5cmW8//77UVJSEmVlZVFeXh6VlZXRvHnzaNmyZbRr1y66dOkS3bp1iz59+sRhhx0WAwcOjLZt22b7pfApJSUl8cwzz8SyZcvi9ddfj1WrVsWGDRti+/btUVVVFa1atYo2bdrEPvvsE927d49DDz00jjrqqDjqqKOiVatW2Y6fcRs2lEV1tY9NAHXJy8uLTp0++e/7Dz4oCz9yAtRt48aNMXz4sZ947IknFkWHDkVZSgSwZ8jLi+jY8ZOfPTdsKAsfPWHX+dmt8SsoyI+iojbZjgH1ptAAAJAChQaAxBQaAOqvtkLD/PmLokOHDllKBLBn8NkToP4UGthT5Wc7AAAAAAAAAADApyk0AAAAAAAAAAA5R6EBAAAAAAAAAMg5Cg0AAAAAAAAAQM5RaAAAAAAAAAAAco5CAwAAAAAAAACQcxQaAAAAAAAAAICco9AAAAAAAAAAAOScZtkOAEDqqqqq4vXXX4+XXnop3nzzzVi5cmWsXbs2SkpKYvPmzbFz586oqKiIFi1aROvWraOwsDDat28fPXr0iP333z969uwZAwcOjF69emX7pQAAAAAAAEBCCg0AOW7dunXxyCOPxIIFC+Lf//53bNu2LelzduzYETt27IiNGzfGqlWr4qWXXvrEeqdOneLoo4+O0aNHx/Dhw6Nly5bpik+OW79+fSxfvjzefffdWLt2bZSWlsaOHTuisrIyWrVqFa1bt47OnTvHvvvuG717944+ffpEixYtsh0bAAAarby8iLy8vGzHAMhptb1NfviY908at5qammxHAMg4hQYgq37729/GpEmTsh0jZUOGDIm//OUvad+nvLw85s6dG1OnTo0lS5Y0+AfVDz74IGbPnh2zZ8+Otm3bxujRo+Mb3/hGHHTQQQ26T13+9a9/xTnnnJORvRrKq6++mu0IDaK6ujoWLlz4n5LMqlWr6vX8Fi1axODBg2P48OFxyimnRFFRUZqSAgBA41fbF3JFRW2iY8e2mQ8DsIfz3klT8MEHZUoNQJOj0ACQQ3bs2BH33ntv/OEPf4gPPvggI3uWlZXFAw88ENOmTYsRI0bEpZdeGr17987I3mTOzp07429/+1vceeedsWbNml2+Tnl5eSxcuDAWLlwYv/71r6O4uDguueSS6NGjRwOmBQAAAAAAiMjPdgAAPjRjxow4+eST4/rrr89YmeHjqqurY+7cuXH66afHLbfcEuXl5RnPQHo89thjMXLkyLjuuut2q8zwaeXl5TF9+vQYM2ZM3Hjjjf6eAQAAAAAAGpRCA0CWrVu3Lr7+9a/H97///Xj//fezHScqKirid7/7XZx++umxcuXKbMdhN5SXl8ePf/zj+O///u9Yu3Zt2vapqKiIKVOmxBlnnBHvvvtu2vYBAAAAAACaFkdOAGTRU089Fd///vejtLQ021E+44033ogvf/nLMXny5Bg8eHC241BPZWVlcf7558dzzz2XsT1fffXV+OpXvxq333579O/fP2P7AgBAo3LccRElJdlOAQBkW6dOEcuXZzsFQNYpNABkyd133x3XXnttVFVVZTtKnUpLS+Mb3/hG3HnnnTFo0KBsxyFF27dvj2984xvxwgsvZHzvDRs2xPnnnx933XVXHHLIIRnfHwAA9nglJRFZOIYQAAAgFyk0AGTBlClT4sYbb9zl5++///4xaNCg6NevX+y3337RvXv3aN++fbRu3Tpat24dFRUVsW3btti4cWOsXLky3n777ViyZEksWbKk3neD2LlzZ1x88cVxzz33xEEHHbTLmcmcH/7whymXGZo3bx5DhgyJ4447LgYOHBidO3eODh06RIsWLaKkpCQ2bNgQy5Yti0WLFsXTTz8d27ZtS3rN0tLS+Pa3vx3Tpk2LoqKi3X05AAAAAABAE6XQAJBhd9999y6VGQ4++OA49dRTY+zYsdG9e/eEswUFBdGqVasoKir6TwnhvPPOi+rq6li0aFE8/PDDMWvWrKioqEhp79LS0rj00kvjoYceipYtW9Y7O5lz//33x+zZs5PONW/ePMaNGxcXXXRR7LvvvrXOdO3aNbp27Rp9+/aNM888M0pLS+POO++Mu+66K2mxYc2aNfGDH/wg/vCHP+zS6wAAAAAAAFBoAHLevHnzkn6Bv6d46qmn4tprr63XcwYMGBAXXnhhDB8+fLf3z8/Pj6FDh8bQoUPjiiuuiNtvvz3uu+++lI69WLFiRUycODF+8IMf7HaOVEyYMCHGjRuXkb0ai5KSkrjhhhuSznXt2jUmTZoU/fv3r9f127dvH1dccUV86UtfiksuuSRWrFiRcP7pp5+OGTNmxKmnnlqvfQAAAAAAACIi8rMdAKCpWLNmTfzP//xPSuWBiIiOHTvG9ddfH1OnTm2QMsOn7bvvvvGzn/0s/va3v0Xv3r1Tes6dd94Zr7zySoNnoWFMmTIlNm/enHCmT58+8eCDD9a7zPBxBx54YNx3330xaNCgpLM333xzyncCAQAAAAAA+DiFBoAMqKmpiR/84AexadOmlOaHDBkSM2bMiNNPPz3NySKOOOKImDp1apx44olJZ6urq+OWW25Jeybqb8uWLXHvvfcmnNl7773j1ltvjU6dOu32fm3bto1JkybF/vvvn3Bu9erV8Y9//GO39wMAAAAAAJoehQaADLjvvvvi3//+d0qz48aNiz/96U8N8qVzqtq0aROTJ0+O448/Puns/PnzY9myZRlIRX3MmDEjtm/fnnDm2muvjR49ejTYnkVFRXHjjTcmnZs2bVqD7QkAAAAAADQdCg0AaVZaWho33XRTSrOnnXZaXHvttVFQUJDmVJ/VrFmzuOWWW+LAAw9MOvvnP/85A4moj2R3Qejbt2+MGDGiwfc98sgjY8yYMQlnFi9eHCUlJQ2+NwAAAAAA0LgpNACk2ZQpU6K0tDTp3ODBg+OXv/xl5Odn7625TZs2MWHChKQZHn300ZSPzyD9SktL44UXXkg4861vfStt+5977rkJ12tqamLJkiVp2x8AAAAAAGicFBoA0mjDhg1x9913J50rKiqKiRMnRvPmzTOQKrEBAwbEqaeemnBm586d8fDDD2coEcksWbIkqqqq6lxv3rx5nHDCCWnb/8gjj4yioqKEMy+//HLa9gcAAAAAABonhQaANLr//vtj+/btSeeuueaa6NSpUwYSpebSSy9NWq545JFHMpSGZP7v//4v4Xq/fv2isLAwbfvn5+fHgAEDEs68++67adsfAAAAAABonBQaANKkuro67rvvvqRzxx9/fIwYMSIDiVLXvXv3OOmkkxLOPPfcc7F58+YMJSKR1157LeH6kUcemfYMnTt3TrieyrErAAAAAAAAH6fQAJAmTz/9dKxatSrhTF5eXlx55ZUZSlQ/Z555ZsL1ysrKWLBgQYbSkMh7772XcD3ZcRANoX379gnXt23blvYMAAAAAABA49Is2wEAGqt777036cxJJ50UBx98cAbS1N8xxxwTXbt2jbVr137i8fbt28fQoUNj2LBh8bnPfS5L6fi48ePHx9tvvx3r1q2LdevWxfr162PDhg1RXV0dEcnLBg0h2R0YWrRokfYMAAAAAABA46LQAJAGZWVlKd294Oyzz85Aml2Tl5cXI0aMiHvvvTeOPPLIGDZsWAwbNiz69esX+flu8JNLvv71r3/msaqqqvjggw9i3bp10bVr17RnWL9+fcL1tm3bpj0DAAAAAADQuCg0AKTBM888ExUVFQlnOnfuHMccc0yGEu2aiy++OC6//HJfRu+BCgoKokuXLtGlS5e071VTUxPLli1LONO9e/e05wAAAID/j737DpCyPtcG/Ay79BWXXbCBWLDHEBUsET2KGmPUHEtijVFjAxWMYFDAGAWliQUFFQUiCGJMjIKJNaJiLMHgsWIviKIiVelt5/sjh/PFADOzMG13r+u/zNzz/u6NyTDjPrwPAAC1i4EGgBx47rnn0maOPvroor/TQUVFRaErUAO8+eabMW/evJSZtm3b5qkNAAAAAABQWxT3b9IAaqhM1k0ceeSReWgCuffYY4+lzbRv3z4PTQAAAAAAgNrEQANAln322Wcxa9aslJmGDRtGu3bt8tQIcmfRokXxxz/+MWVmyy23dIcGAAAAAACg2gw0AGTZ+++/nzbTrl27aNCgQR7aQG6NHz8+Fi9enDJzzDHH5KkNAAAAAABQmxhoAMiyjz76KG1mn332yUMTyK0vvvgi7rrrrrS5E044IQ9tAAAAAACA2sZAA0CWZTLQsOOOO+ahCeTWNddcE0uXLk2ZOfTQQ2OXXXbJUyMAAAAAAKA2MdAAkGWZDDRsu+22eWgCufPnP/85pkyZkjKTSCTi4osvzlMjAAAAAACgtiktdAGAdA4//PCCnLvZZpvFtGnTqv26r776Km1mu+2225hKdUrv3r2jd+/eBTl74sSJsfvuuxfk7Jrg3XffjX79+qXN/exnP4t27drloREAAAAAAFAbuUMDQJYtWbIkbaaioiIPTSD7vv766+jSpUssX748Za6ysjIuu+yyPLUCAAAAAABqI3doAMiiqqqqWLp0acpMo0aNol4982TUPIsWLYrOnTvHl19+mTY7cODAWje4k0gkIpEodAuA4rW+98h/PebNE2BDfL4EAKrDdyw2hc+e1FQGGgCyKJO7MzRp0iQPTSC7li1bFl26dIm33347bfbss8+OQw45JA+t8quiommhKwDUOJWVZYWuAFDUEokVha4AANQgvmMBdZGBBoAsSnd3hoiIhg0b5rTDtGnT4he/+EVOz/h3Xbt2jW7duuXtPPJv+fLl0aVLl5g2bVrabMeOHePyyy/PQysAAAAAAKC2c89zgCwqKSlJm1m+fHkemkB2LF26NDp37hz/+Mc/0mZ32GGHGDp0aEb/PwAAAAAAAEjHHRoAsqhp0/S3pF+2bFkemsCmW7RoUVxwwQXxP//zP2mzW265ZYwePTqaNWuWh2YAAAAAAEBdYKABIIsaN24cJSUlsWbNmg1mli9fHlVVVVGvnpvkULzmzZsX559/fkyfPj1ttrKyMu6+++5o1apVHpoVzvz5S6KqKlnoGgBFK5FYd5/rvHmLI+mtE2CDFi5cUugKAEAN4jsWm6KkJBHNm6f/S5lQbAw0AEVv8uTJ0bp160LXyFjTpk3j22+/TZlZunRplJWVpczUdQMHDowTTzyx0DXqpM8++yzOPffc+PTTT9NmKysrY+zYsdG2bds8NCusZDIZSd8YAVJIrPNIMhneOwFS8BYJAFSH71hsimRy3e/tUBP468EAWbbZZpulzcyaNSsPTaD6pk+fHqeddlpGwwxbbLFFjBs3Lnbeeec8NAMAAAAAAOoad2gAyLLtttsu7cDCp59+GrvuumueGpFrhx12WE6HVFq1ahVPP/10zq6/1pQpU+LSSy+NpUuXZtRpzJgx0aZNm5z3AgAAAAAA6iZ3aADIskxuvT9jxozcF4FqmDBhQlx44YUZDTPstNNOcd999xlmAAAAAAAAcsodGgCybKeddkqb+eSTT3J2focOHeK9997L2vXcSaJ2W7NmTQwcODDGjRuXUX7vvfeOESNGRHl5eY6bAQAAAAAAdZ2BBoAsy2Sg4eWXX85DE0ht8eLF0aNHj5gyZUpG+U6dOsXQoUOjUaNGOW4GAAAAAABg5QRA1u22225Rv379lJnPP/88Zs6cmadGsK4vv/wyTj/99IyHGU455ZS47bbbDDMAAAAAAAB5Y6ABIMvKyspin332SZt74YUX8tAG1jV9+vQ46aSTMlpNkkgkokePHtGvX78oKSnJQzsAAAAAAIB/MdAAkAOHHHJI2syTTz6ZhybwXX//+9/jjDPOiDlz5qTNNmzYMG666abo3LlzHpoBAAAAAAB8l4EGgBzIZKDhpZdeio8//jgPbeBfHnnkkbjwwgtj6dKlabMVFRUxZsyYOProo/PQDAAAAAAAYF2lhS4AUBvttNNOsd1228Wnn366wUwymYwJEybEb3/72zw2IxeefvrpQldI6957741rr702kslk2uyOO+4Yd911V2y77bZ5aAYAAAAAALB+7tAAkCOnnnpq2syDDz4Yc+fOzUMb6rIxY8ZEv379Mhpm2H///eP+++83zAAAAAAAABScgQaAHPn5z38eTZo0SZlZsmRJXH/99XlqRF00duzYGDhwYEbZ//7v/45Ro0ZFs2bNctwKAAAAAAAgPQMNADnSrFmz+OlPf5o2N2nSpJg2bVoeGlHX/OEPf4gBAwZklO3SpUsMGTIkGjRokONWAAAAAAAAmTHQAJBDZ511VtSrl/6ttlevXrFgwYI8NKKueOqpp6Jfv35pcyUlJdG3b9/o3r17HloBAAAAAABkzkADQA61bds2TjnllLS5zz77LLp27RorV67MQytquzfeeCMuu+yyWLNmTcpcgwYNYujQoXHqqafmqRkAAAAAAEDmDDQA5Fj37t2joqIibW7atGnRq1evWLVqVR5aZeYPf/hDoStQTfPnz49LLrkkli9fnjLXuHHjuPPOO+PII4/MUzMAAAAAAIDqMdAAkGObb755XHbZZRllH3nkkTj33HPj22+/zXGr1L755pu44oor4uqrry5oD6onmUxGz54948svv0yZa9CgQYwYMSIOPPDAPDUDAAAAAACoPgMNAHnws5/9LDp27JhRdurUqXHyySfHm2++meNW66qqqoqJEyfGT37yk5g4cWLez2fTTJgwIZ5//vm0uQEDBsQBBxyQh0YAAAAAAAAbz0ADQB4kEokYOnRo7LDDDhnlP/nkkzj55JPjmmuuiW+++SbH7f41yPDkk0/GcccdF1dccUXMmzcv52eSXV988UXccMMNaXPdunWLn/70p3loBAAAAAAAsGkMNADkSbNmzWLEiBFRXl6eUb6qqiruu+++OPLII+Omm26Kr776KuudFi9eHPfcc08cddRR0a1bt3j//ferfY2tt946672oviFDhsTSpUtTZvbff/+4+OKL89QIAAAAAABg05QWugBAXbL99tvHrbfeGhdccEEsX748o9csXLgw7rzzzhg9enQcfvjhceSRR8bBBx8cm2+++UZ1WLx4cbzwwgvxyCOPxLPPPhsrVqzYqOuUlZXFddddFz/5yU826vVkz5tvvhmPPfZYykxZWVkMGjQoEolEnloBAAAAAABsGgMNAHm2//77x9ixY+PCCy+M+fPnZ/y61atXxxNPPBFPPPFElJaWxl577RV77LFH7LLLLrHzzjtHZWVllJWVRVlZWSSTyViyZEksWbIkZs2aFTNmzIiPPvoopk2bFu+++26sWbNmk36G3XffPW655ZbYbrvtNuk6ZMftt98eyWQyZWbx4sXRqVOnPDVaV6tWreLpp58u2PkAAAAAAEDNY6ABoAD22muvuP/+++P888+PGTNmVPv1q1evjmnTpsW0adOyXy6F+vXrx7nnnhsXX3xxNGjQIK9ns36fffZZPPvss4WuAQAAAAAAkHX1Cl0AoK5q06ZN/OEPf4hDDz200FUysueee8YDDzwQ3bt3N8xQRB544IGoqqoqdA0AAAAAAICsc4cGgAJq3rx53HnnnfHoo4/GgAEDYs6cOYWutI4tttgiunbtGj//+c+jpKSk0HX4D48//nihKwAAANlUUVHoBgBAMWjRotANAIqCgQaAInD00UfHQQcdFDfccEM88MADsWbNmkJXis022yzOO++8OOuss6Jx48aFrsN6zJ49e6NWlgAAAEXsxRcjKisL3QIAAKAoWDkBUCSaNWsW/fr1i0ceeSSOP/74qF+/fkF6tGnTOtGKBQAAIABJREFUJvr06RPPPvtsdOnSxTBDEXvnnXcKXQEAAAAAACBn3KEBoMjssMMOMXjw4PjNb34Tf/rTn2LSpEk5/1v4TZo0if/6r/+K4447Lg499NCoV8+8W03w+eefF7oCAAAAAABAzhhoAChSLVu2jIsuuiguuuiimD59ekyePDlefPHFePPNN2P16tWbfP1tt902OnToEIccckgceuih7sRQAy1atKjQFQAAAAAAAHImkUwmk4UuAUDmli1bFtOnT4+33347ZsyYETNnzow5c+bE/PnzY/HixbFq1apYs2ZNNGrUKJo0aRJNmzaNli1bRps2baJNmzbRtm3b2HvvvaNly5aF/lGgRpk3b3FUVfnYBLAhiUQiWrQo+85jc+cuDl85ATZswYIF0anTD7/z2LPPvhTNm1cUqBFAzZBIRFRWfvez57x5i8NHT2o736/YFCUl9aKiommha0C1uUMDQA3TuHHj6NChQ3To0KHQVQAAAMiyZNIvKwDSS6zziPdPAKidLEkHAAAAAAAAAIqOgQYAAAAAAAAAoOgYaAAAAAAAAAAAio6BBgAAAAAAAACg6BhoAAAAAAAAAACKjoEGAAAAAAAAAKDoGGgAAAAAAAAAAIqOgQYAAAAAAAAAoOgYaAAAAAAAAAAAik5poQsAAAAAAP+SSEQkEolC1wAoaut7m/zXY94/qZ2SyWShKwAUjIEGgFpg2LBhMXz48ELXyNh+++0X48aNS5ubOnVqnHnmmSkzAwcOjBNPPDFb1apt8ODB8fvf/z6jbJMmTWLEiBGx//77p8wddthhMWvWrJSZ2267LY444oiMe+ZKuv/t/eAHP4g//vGPeWwEAAA1x/p+IVdR0TQqK8vyXwaghvPeSW02d+5iQw1AnWXlBABspOuvvz7jYYaysrIYNWpU2mGGTF199dWxYMGCrFwLAAAAAACgGBloAICNMGTIkBg9enRG2c033zzuvvvuaN++fdbOnzt3blx33XVZux4AAAAAAECxMdAAANV0ww03xKhRozLKlpeXx5gxY6Jdu3ZZ7/HXv/41nnrqqaxfFwAAAAAAoBiUFroAANQkN910U4wcOTKjbGVlZdx9992x66675qzP1VdfHR06dIjy8vKcnQEAAOTRgQdGzJ9f6BYAQKG0aBHxzjuFbgFQNAw0AECGbr755rjzzjszyrZs2TLGjh0bbdu2zWmnuXPnxrXXXhs33nhjTs8BAADyZP78iLlzC90CAACgKFg5AQAZuPnmm2PEiBEZZbfeeuu49957cz7MsJbVEwAAAAAAQG1koAEA0hg6dGjGwwytWrWK8ePHx3bbbZfjVt91zTXXxMKFC/N6JgAAAAAAQC5ZOQFQR0yePDlat25d6Bo1zi233BJ33HFHRtntttsuxo4dG1tvvXWOW61rzpw5Vk8AAAAAAAC1ijs0AMAG3HrrrXH77bdnlG3btm2MHz++IMMMa1k9AQAAAAAA1CYGGgBgPYYPHx633XZbRtlddtklxo0bF1tssUWOW6Vn9QQAAAAAAFBbGGgAgP8wfPjwGDZsWEbZPfbYI+65556orKzMcavMzJkzJ6677rpC1wAAAAAAANhkBhoA4N/cdtttGQ8ztGvXLsaOHRvNmzfPcavq+ctf/hKTJ08udA0AAAAAAIBNYqABAP7XHXfcEbfeemtG2X322SfuvvvuaNasWY5bbZyrr77a6gkAAAAAAKBGM9AAABExYsSIGDp0aEbZ/fbbL0aPHh1lZWU5brV+++67b9qM1RMAAAAAAEBNZ6ABgDrvzjvvjJtvvjmjbMeOHWPkyJHRpEmTHLfasGOOOSYOO+ywtDmrJwAAAAAAgJrMQAMAddpdd90VN910U0bZQw89NEaMGBGNGjXKcav0+vXrF+Xl5WlzVk8AAAAAAAA1lYEGAOqsu+66K2688caMsj/60Y9i2LBh0aBBgxy3ykzLli2jT58+aXNWTwAAAAAAADWVgQYA6qRRo0ZlPMxw9NFHx9ChQ4tmmGGt4447Ljp16pQ2Z/UEAAAAAABQExloAKDOGT16dAwZMiSj7HHHHRc33HBDlJaW5rjVxunXr19svvnmaXNXX311fPPNN3loBAAAAAAAkB0GGgCoU37/+9/H9ddfn1H2pJNOikGDBkVJSUmOW228LbbYwuoJAAAAAACgVjLQAECdcffdd8fgwYMzyp5++ulx7bXXRr16xf9H5fHHH5/R6omHH344nn766Tw0AgAAAAAA2HTF/1saAMiCMWPGxKBBgzLKnn322XH11VdHIpHIcavsyXT1xO9+9zurJwAAAAAAgBrBQAMAtd7YsWNj4MCBGWUvuOCC6N27d44bZZ/VEwAAAAAAQG1joAGAWu2ee+6JAQMGZJTt2rVrXHbZZTlulDtWTwAAAAAAALWJgQYAaq1x48ZF//79M8r26NEjunXrluNGude3b99o1qxZ2pzVEwAAAAAAQLEz0ABArTR+/PiMVytcfPHF0blz5xw3yo8tt9wyrrzyyrS5OXPmZDzsAQAAAAAAUAgGGgCode6999649tprM87/85//jKqqqhw2yq9MV09MmjTJ6gkAAAAAAKBolRa6AAD5cfjhhxfk3M022yymTZuWt/Puvffe6NevX7Ve8/LLL8ftt98eXbt2zVGr/Ovbt2+88sor8e2336bM/e53v4v27dvH5ptvnqdmAAAAAAAAmXGHBgBqjQkTJlTrzgz/7vbbb8/r4EWubbnlltGnT5+0OasnAAAAAACAYuUODQDUCvfdd1/069cvksnkRr1+zZo18Zvf/CYmTZpUa+5WcMIJJ8Rjjz0WU6ZMSZmbNGlS/OQnP8loTUVdlkgkIpEodAuA4rW+98h/PebNE2BDfL4EADLhuxXZ4LMnNZWBBgBqvPvvvz/69u270cMMa3355Zdx5ZVXxvDhw7PUrPCuvfbaOPbYY9OunrjqqqvikUceqTXDHLlQUdG00BUAapzKyrJCVwAoaonEikJXAABqAN+tgLrMygkAarSHH344rr766rTDDE2aNImWLVumvd7f/va3uPfee7NVr+C23HLL6N27d9qc1RMAAAAAAECxMdAAQI320ksvpR1maNq0aYwcOTKuv/76SGRwX63BgwfHu+++m62KBXfiiSfGIYcckjY3adKkeOaZZ/LQCAAAAAAAID0DDQDUamVlZTF69Ojo0KFDHHjggXHmmWemfc2KFSuiR48esWzZsjw0zI9rr702Nttss7S53/3ud2nXUwAAAAAAAORDaaELAECuNGvWLEaPHh3t2rX7v8cuu+yyePHFF+ODDz5I+dqPPvoorrvuulqzhmHt6ok+ffqkzH399dfRv3//GDx4cJ6a1Rzz5y+JqqrUdwMBqMsSiXX3us6btzjS3EgJoE5buHBJoSsAADWA71ZkQ0lJIpo3b1roGlBtBhoA6ojJkydH69atC10jb8rLy+P3v/99fO973/vO4w0bNowhQ4bESSedFKtWrUp5jQceeCA6duwYRx99dC6r5s3PfvazePzxx+O5555LmZs4cWIcddRR0alTpzw1qxmSyWTa9SYAddu6a52SyfDeCZCCt0gAIBO+W5ENyWT6dcxQjKycAKDWad68eYwdO3adYYa1dt999/j1r3+d0bWuuuqq+Oyzz7JZr6CsngAAAAAAAGoKAw0A1CqVlZUxduzY2G233VLmzj333Nh3333TXm/x4sXRo0ePtHdzqCm22mqr6NWrV9rc2tUTAAAAAAAAhWKgAYBao2XLlnHPPffErrvumjZbr169GDx4cJSVlaXNvvHGGzF06NBsVCwKP//5z+Pggw9Om5s4cWI8++yzuS8EAAAAAACwHgYaAKgVtthii7jnnntip512yvg1rVq1iquuuiqj7OjRo+P555/f2HpF57rrrsto9cRVV11l9QQAAAAAAFAQBhoAqPG22mqrGD9+fOy4447Vfu3xxx8fRx11VNpcMpmMK664IubOnbsxFYvOVlttFVdccUXanNUTAAAAAABAoRhoAKBGa9WqVYwfPz622267jb5G3759Y4sttkibmzt3blxxxRWRTCY3+qxictJJJ1k9AQAAAAAAFC0DDQDUaBdddFFsu+22m3SN8vLyGDRoUCQSibTZ559/PkaNGrVJ5xWTa6+9NsrKytLmrJ4AAAAAAADyzUADADVavXrZ+aOsY8eOccYZZ2SUveWWW+L111/PyrmFtvXWW0evXr3S5r7++usYMGBAHhoBAAAAAAD8i4EGAPhfPXv2jJ122iltbtWqVdGjR49YvHhxHlrl3kknnRQHHXRQ2txDDz1k9QQAAAAAAJA3BhoA4H81bNgwhgwZEvXr10+b/fzzz+Oqq67KQ6v8uO6666yeAAAAAAAAioqBBgD4N3vssUdccsklGWUfffTR+NOf/pTjRvlh9QQAAAAAAFBsDDQAwH8477zzon379hll+/fvHx999FGOG+VHdVZPTJkyJQ+NAAAAAACAusxAAwD8h3r16sX111+f0QqGZcuWRffu3WPFihV5aJZ71157bTRt2jRtzuoJAAAAAAAg1ww0AMB6tG7dOn77299mlH3vvfdi0KBBOW6UH9tss01Gqydmz54dAwcOzEMjAAAAAACgrjLQAAAbcMIJJ8SPf/zjjLITJkyIp556KseN8uPkk0+Ojh07ps09+OCD8fzzz+ehEQAAAAAAUBcZaACAFPr27RstW7bMKHvllVfGl19+meNG+XHddddltHritddey0MbAAAAAACgLjLQAAApNG/ePAYOHBiJRCJtduHChXHZZZfFmjVr8tAst7bZZpu44oorCl0DAAAAAACowww0AEAaBx98cPziF7/IKPvKK6/E8OHDc9woP0455ZQ48MADC10DAAAAAACooww0AEAGevbsGTvuuGNG2REjRsTUqVNz3Cg/Ml09AQAAAAAAkG0GGgAgA40aNYohQ4ZE/fr102arqqqiZ8+esWDBgjw0y61WrVrF5ZdfXugaAAAAAABAHWSgAQAytOeee0bXrl0zys6ePTt69+6d40b5ceqpp8YPf/jDQtcAAAAAAADqGAMNAFAN559/fuyzzz4ZZZ955pkYO3ZsjhvlR//+/a2eAAAAAAAA8spAAwBUQ0lJSVx//fUZ/3J/yJAh8fbbb+e4Ve61atUqevbsWegaAAAAAABAHWKgAQCqadttt40rr7wyo+yqVauie/fusXTp0hy3yj2rJwAAAAAAgHwqLXQBAKiJfvazn8UzzzwTf/vb39JmZ8yYEX379o3BgwfnoVnuJBKJ6N+/fxx77LG1YkADAACKUkVFoRsAAIXUokWhGwAUFQMNALCR+vXrF6+99lrMmTMnbXbixIlx4IEHxnHHHZeHZrmzdvVE3759C10FAABqpxdfjKisLHQLAACAomDlBABspIqKiujfv3/G+b59+8ann36aw0b5cdppp8UBBxxQ6BoAAAAAAEAtZ6ABADbBIYccEqeffnpG2SVLlkT37t1j5cqVOW6VW2tXTzRp0qTQVQAAAAAAgFrMQAMAbKLLL788dthhh4yy06dPjxtvvDHHjXKvdevW0bNnz0LXAAAAAAAAarFEMplMFroEAECxmzdvcVRV+dgEsCGJRCJatCj7zmNz5y4OXzkBNmzBggXRqdMPv/PYs8++FM2bVxSoEUDNkEhEVFZ+97PnvHmLw0dPaivfq8iGkpJ6UVHRtNA1oNpKC10AAAAAAPiXZNIvLQDSS6zziPdPAKidrJwAAAAAAAAAAIqOgQYAAAAAAAAAoOgYaAAAAAAAAAAAio6BBgAAAAAAAACg6BhoAAAAAAAAAACKjoEGAAAAAAAAAKDoGGgAAAAAAAAAAIqOgQYAAAAAAAAAoOgYaAAAAAAAAAAAik5poQsAAIWRTCbj008/jXfffTe++OKLmD17dixatChWrFgRyWQyGjZsGE2bNo2tttoqttlmm9h9991j++23j0QiUejqAABQayUS4TM3QBrre5v812PeP6mdkslkoSsAFIyBBqBGGjZsWAwfPjxlZvLkydG6detqX/vzzz+Pww8/fGOrFUR1ftZevXrFQw89lDLzy1/+Mn77299mo9ommTp1apx55pkpM2+88UY0bNgwT41qvmXLlsUTTzwRTz/9dLz00kvx7bffVuv1m2++eXTs2DEOP/zwOPLII6NBgwY5agoAALXf+n4hV1HRNCory/JfBqCG895JbTZ37mJDDUCdZaABgHWMHz8+jjrqqOjQoUOhq5Alc+bMiZEjR8YDDzwQS5Ys2ejrfPPNN/Hoo4/Go48+GuXl5XHaaafFeeedF2Vl/qUBAAAAAACQXfUKXQCA4pNMJqNPnz6xbNmyQldhE61evTruuuuuOOKII2Ls2LGbNMzwnxYuXBh33HFHHHHEETFx4sSsXRcAAAAAACDCQAMAG/Dpp5/GTTfdVOgabILZs2fH6aefHjfeeGMsX748Z+csWLAgrrjiirj00ksNwQAAAAAAAFlj5QQAGzR+/Pj48Y9/bPVEDfT+++/HOeecE3PmzMnbmY899lh8/vnnMXLkyGjevHnezgUAgFrlwAMj5s8vdAsAoFBatIh4551CtwAoGgYaANigqqqq6NOnT0yaNCkaN25c6Dpk6KOPPoqzzjor5hfgX4K++eabce6558Y999wTZWVleT8fAABqvPnzI+bOLXQLAACAomCgAYCU1q6euPLKKwtdhQx8++23cdFFF2U8zLD55pvHgQceGB07dow99tgjKioqoqKiIlatWhULFiyIr7/+OqZNmxYvvfRSTJ06NaqqqtJec/r06dGjR4+48847I5FIbOqPBAAAAAAA1FEGGgBIy+qJmuPaa6+NGTNmpM2Vl5fHueeeG2eccUY0adJknecbNmwYZWVlse2220b79u2jc+fO8fHHH8ftt98ef/3rXyOZTKa8/pQpU2LkyJFxwQUXbOyPAgAAAAAA1HEGGgA2QteuXaNbt26FrpE3a1dPPPzww9GoUaNC12EDXnjhhXj44YfT5jp06BDDhg2LioqKal1/xx13jBtuuCGOPvrouPzyy2PRokUp88OHD4+jjjoq2rRpU61zAAAAAAAAIiLqFboAADXD2tUTFK9M/vn89Kc/jTFjxlR7mOHfHXbYYfGnP/0pKisrU+ZWrFgRQ4cO3ehzAAAAAACAus1AAwAZGzduXEybNq3QNViPF154Id56662UmXbt2sWAAQOifv36m3zeDjvsELfddls0bNgwZe6xxx6Lzz77bJPPAwAAAAAA6h4DDQBkrKqqKq688spYvnx5oavwH+6///6Uzzdp0iSGDRsWDRo0yNqZe++9d9rVK1VVVTFx4sSsnQkAAAAAANQdBhoAqJYZM2ZYPVFkli5dGs8880zKzMknnxxbbbVV1s8+88wzY5tttkmZefLJJ7N+LgAAAAAAUPsZaACg2saNGxevvPJKoWvwv1588cVYuXLlBp8vLS2Nc845JydnN2zYME499dSUmQ8++CAWLFiQk/MBAAAAAIDay0ADAN+x5557RqNGjVJmqqqqok+fPlZPFImXX3455fPf//73Y8stt8zZ+YceemjK55PJZLz77rs5Ox8AAAAAAKidDDQA8B1t2rSJ7t27p81ZPVE83nzzzZTP77///jk9f9ddd42ysrKUmZkzZ+a0AwAAAAAAUPsYaABgHWeeeWbss88+aXNWTxSH999/P+Xz7dq1y3mHFi1apHx+4cKFOe8AAAAAAADULqWFLgBA8alXr14MHDgwjjvuuJRrJdaunpg0aVLaNRU11bx58+If//hHTJs2LT7++OP47LPP4ttvv41ly5ZF/fr1o6ysLMrLy6Nt27axyy67xMEHH5yXAYK1Fi5cGIsXL06ZqaioyHmP5s2bx4wZMzb4/NKlS3PeAQAAAAAAqF0MNACwXttvv31ceumlMWjQoJS5GTNmxM033xy9e/fOU7P8ePrpp+O+++6LF154IdasWbPezOrVq2PZsmUxZ86c+OCDD+Lxxx+PW2+9NVq1ahVnnHFG/OIXv4iGDRumPOfxxx+PX//61xt8vmXLlvH3v/89EonEBjMXXXRRzJ49O2bPnh1ff/11fP3119+5I0J5eXman3bTLViwIOXzDRo0yHkHAAAAAACgdjHQAMAGnXXWWfHEE0/Eq6++mjJ3zz33xJFHHhnt27fPU7PcefXVV2PAgAHxxhtvbPQ1Zs2aFYMHD44xY8ZE//794+CDD95gdvLkySmv1alTp5TDDOXl5esdiFixYkV8/fXXMXv27GjVqlXm5TfSnDlzUj5fVlaW8w4AAAAAAEDtUq/QBQAoXmtXT6RbJ7F29USq9RTFbvXq1XHDDTfE6aefvknDDP9u9uzZcf7558fNN98cyWRynefXrFkTzz33XMprdOrUaaPObtiwYWy77bbRoUOHnN8d4YMPPoglS5akzLRu3TqnHQAAAAAAgNrHQAMAKe2www5x6aWXps2tXT1REy1evDi6dOkSI0eOjKqqqqxeO5lMxogRI+LKK69cZ3XFK6+88p3VEP+pQYMGccABB2S1Ty5MmTIlbaZt27Z5aAIAAAAAANQmBhoASOuss86KvffeO23unnvuif/5n//JQ6PsWbp0aZx33nnx97//Pafn/PnPf46rrrrqO48988wzKV/ToUOHaNKkSS5rZcVjjz2W8vkWLVrE9ttvn58yAAAAAABArWGgAYC06tWrFwMGDIiGDRumzFVVVUXv3r1rzOqJqqqquOSSS+LVV1+t1uvKysriBz/4QRx66KFx2GGHRfv27aOioiLt6/785z/HiBEj/u8/p7uzwUEHHVStXoXw0ksvxVtvvZUy88Mf/jBPbQAAAAAAgNqktNAFAKgZdtxxx7j00ktj8ODBKXMzZsyIoUOHRq9evfLUbOMNGzYs4zszNGzYMI4//vg48cQTo127dlGv3rozgR988EH85S9/ifvvv3+DqySGDh0a7dq1izZt2sRHH32U8swDDzwwo26FdNddd6XNHHPMMXloAgAAAAAA1Dbu0ABAxs4+++yMVk+MHTu26FdPvPbaa9+5W0Iq+++/fzzyyCPRr1+/2GuvvdY7zBARsfPOO0ePHj3iiSeeiOOPP369mWQyGZdffnk8+uijKc+sqKiI3XbbLaN+hfLkk0/Giy++mDLTsmXLOPjgg/PUCAAAAAAAqE0MNACQsdqyeqKqqir69esXVVVVabMnn3xy3H333bHttttmfP3y8vIYPHhwXHXVVZFIJNZ5fs6cOXHzzTenvMZ+++233tcWi0WLFkW/fv3S5n71q19FaakbQgEAAAAAANVnoAGAatlxxx3j17/+ddrc2tUTxejRRx+N6dOnp80dc8wx0a9fvygpKdmoc84444zo3bv3ep9LN0yx3377bdSZ+dK/f/+YM2dOykyLFi3itNNOy1MjAAAAAACgtvFXJgE2wvDhw2P48OEFOfu2226LI444oiBnr/WrX/0qnnzyyXjttddS5saOHRtHHnlk7LPPPnlqlplRo0alzWy//fbRv3//Tb5LwllnnRVvvfVWPPzww9V6XTEPNPzxj3+Mhx56KG3u8ssvjyZNmuShEQAAAAAAUBu5QwMA1VaTV0+88sor8c4776TN9e3bNxo3bpyVM6+66qpo3rx5xvny8vLYaaedsnJ2tv3jH//IaNXEAQccEMcdd1weGgEAAAAAALWVOzQAsFHatm0bl1xySQwZMiRlbu3qiV69euWpWWp//etf02YOPPDAOOCAA7J2ZrNmzaJz584xaNCgjPJ77733Jt8ZIhfefffd6NatW6xatSplrry8PAYPHpynVvmTSCSiCP+xABSN9b1H/usxb54AG+LzJQCQCd+tyAafPampDDQAsNHWrp54/fXXU+aKafXE3/72t7SZM888M+vnnnTSSXHrrbfG0qVL02bbt2+f9fM31aeffhrnnXdefPvttylziUQi+vfvH1tttVWemuVPRUXTQlcAqHEqK8sKXQGgqCUSKwpdAQCoAXy3AuoyKycA2GglJSUxcODAjFZP9OnTJ1asKOy/rPvwww9jzpw5KTOVlZXxX//1X1k/u6ysLI444oiMsnvvvXfWz98UM2fOjDPPPDPtf3cREV27ds345wQAAAAAAEjFQAMAm6Rt27bRrVu3tLlPPvkkhg4dmodGGzZ16tS0mYMPPjhKSkpycv7hhx+eNlO/fv3Yc889c3L+xpgxY0b88pe/jK+++ipt9uijj46uXbvmoRUAAAAAAFAXGGgAYJOdc8458YMf/CBtbsyYMfHqq6/modH6vfPOO2kzBxxwQM7O33fffdNmdtlll2jUqFHOOlTH+++/H2eccUZGwwwHHHBADB48OA+tAAAAAACAuqK00AUAqPnWrp44/vjjY+XKlRvMVVVVRe/evWPSpElp11Tkwocffpg28/3vfz9n51dWVsY222wTX3zxxQYzmQyG5MPrr78eF1xwQSxcuDBtdu+994477rgjGjRokIdmhTN//pKoqkoWugZA0Uok1t3rOm/e4kh66wTYoIULlxS6AgBQA/huRTaUlCSiefOmha4B1WagAWAjdO3aNaM1C3XJ2tUTN954Y8rc2tUTV1xxRZ6afffsVEpLS2P77bfPaYcdd9wx5UBDLgcqMvXcc8/Fr3/961i6dGna7N577x2jRo2KJk2a5KFZYSWTyUj65giQQmKdR5LJ8N4JkIK3SAAgE75bkQ3J5</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAC7gAAAcICAYAAACsf4x4AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzde/yW8+E/8NeVToSSSFlDfVk5zVmOkeThXC2/tjE2Z2Zm5jCH4avNYVkOw9cYhgljCnMYKmdFM0KlEItO0knp3P37w6PPNErx+Xzuu3o+Hw+P3d3X+3p73dc+Pl33fb+u91WUSqVSAAAAAAAAAAAAAACgzOqUOwAAAAAAAAAAAAAAACQK7gAAAAAAAAAAAAAAVAgFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUBAV3AAAAAAAAAAAAAAAqgoI7AAAAAAAAAAAAAAAVQcEdAAAAAAAAAAAAAICKoOAOAAAAAAAAAAAAAEBFUHAHAAAAAAAAAAAAAKAiKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCIouAMAAAAAAAAAAAAAUBEU3AEAAAAAAAAAAAAAqAgK7gAAAAAAAAAAAAAAVAQFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUBAV3AAAAAAAAAAAAAAAqgoI7AAAAAAAAAAAAAAAVQcEdAAAAAAAAAAAAAICKoOAOAAAAAAAAAAAAAEBFUHAHAAAAAAAAAAAAAKAiKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCIouAMAAAAAAAAAAAAAUBEU3AEAAAAAAAAAAAAAqAgK7gAAAAAAAAAAAAAAVAQFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUBAV3AAAAAAAAAAAAAAAqgoI7AAAAAAAAAAAAAAAVQcEdAAAAAAAAAAAAAICKoOAOAAAAAAAAAAAAAEBFUHAHAAAAAAAAAAAAAKAiKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIpQt9wBAAAAAAAAAABYdUybNi1jx47NggUL0qJFi6y77rrLPcczzzyToUOHJklOOeWU6o4IAACUUVEqlUrlDgEAAAAAAAAAwMrt2WefzXXXXZehQ4fm83WV//mf/8kRRxyR7t27Z7XVVlumuXr27Jk777wzRVFk+PDhNRUZAAAogzrlDgAAAAAAAAAAwMrtyiuvzPHHH5/XXnstCxcuTKlUqvrn7bffzkUXXZQuXbpk1KhR5Y4KAACUmYI7AAAAAAAAAAA15q677sof//jHqkL7f1v03KhRo9K9e/f069evtiMCAAAVRMEdAAAAAAAAAIAaMW3atPzud79LURRJkq222io33nhjhgwZkn/+85+56667cthhh6VOnTopiiJz5szJOeeck1tuuaXMyQEAgHKpW+4AAAAAAAAAAACsnO6///7MmjUrRVFk1113zQ033JD69etXbd92222z7bbb5oc//GHOOuusjBo1KqVSKb169cq0adPyi1/8oozpAQCAcrCCOwAAAAAAAAAANeKFF15IktStWzeXXHLJYuX2z2vXrl3++te/Zr/99kuSlEql3HjjjenZs2etZQUAACqDgjsAAAAAAAAAADVi5MiRKYoi22yzTTbYYIOljl199dVz9dVX55hjjql6rk+fPjnnnHNSKpVqOioAAFAhFNwBAAAAAAAAAKgRU6dOTZJsvPHGy7zPmWeemV/+8pdVpfZ+/frltNNOy/z582siIgAAUGEU3AEAAAAAAAAAqFHz5s1brvHHHXdcLrrooqo/P/744znllFMyd+7cak4GAABUGgV3AAAAAAAAAABqxDrrrJMkmTBhwnLv+/3vfz+XXXZZ6tT5rN7y9NNP57jjjsusWbOqNSMAAFBZFNwBAAAAAAAAAKgRrVu3TqlUymuvvZaFCxcu9/6HHnpoevfundVWWy1J8tJLL+UnP/lJpk+fXt1RAQCACqHgDgAAAAAAAABAjdhyyy2TJLNmzcrgwYO/1hz77bdfrr322tSvXz9J8tprr+Xvf/97tWUEAAAqi4I7AAAAAAAAAAA1Ypdddql6fN99933tefbaa6/ccMMNadiwYZKkVCp942wAAEBlUnAHAAAAAAAAAKBG7LDDDll77bVTKpXyj3/8Ix988MHXnmuXXXbJzTffnDXXXDNFUVRjSgAAoJIouAMAAAAAAAAAUCPq1auX7t27Z5NNNkmrVq3Sr1+/bzTfdtttl9tuuy1NmjSppoQAAEClKUru2QQAAAAAAAAAAAAAQAWwgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCLULXcAAAAAvpkpU6Zk2rRp+fTTTzN79uw0bNgwa6yxRho3bpx11lmn3PFWCo4xAAAAANSsUqmUt99+O8OHD8+UKVMyc+bMLFy4cJn2PeWUU2o4HQAAUJuKUqlUKncIAAAAlt2IESPyxBNPZNCgQXnnnXcybdq0JY5t3Lhx2rRpk/bt26dTp05p165dLSZdcTnGAAAAAFA75s2bl5tvvjl9+vTJRx999LXmGD58eDWnAgAAyknBHQAAYAUxZMiQ/P73v8+rr75a9dyyvKUriqLq8bbbbpvTTz89O+ywQ41kXNE5xgCw8nvzzTfz6aefJkl23HHHMqcBAIBV29SpU3P00Udn+PDhy/w53H+PK4pCwR0AAFYyCu4AAAArgOuvvz7XXnttSqXSMn3RszRFUeTUU0/NSSedVE3pVg6OMQCsGrp06ZK33norRVFk2LBh5Y4DAACrtB//+McZNGhQkqRZs2bZd99988Ybb+T1119PURT56U9/mpkzZ+bDDz/MK6+8kkmTJqUoiqy++uo5/PDD06BBgyTJKaecUs6XAQAAVLO65Q4AAADA0t1444255pprqlYnqlOnTtq3b5+dd945m2++eVq2bJlmzZqlYcOGqV+/fubOnZvZs2dn0qRJGTt2bIYNG5aXXnopgwYNyoIFC1IqlXLNNddktdVWy/HHH1/ul1cRHGMAWLVY9wUAAMrvueeey6BBg1IURbbccsvceuutWXPNNdOzZ8+8/vrrSRYvri9cuDBPPPFELrvssowfPz7PPfdc/vjHP2b99dcv10sAAABqiBXcAQAAKti7776bQw45JPPnz0+SHHDAATnzzDPTokWL5Z5r/Pjx6dWrVx5++OEkSb169fLAAw+kdevW1Zp5ReMYA8CqpUuXLhkxYkSKosjw4cPLHQcAAFZZ55xzTvr27ZuiKPLAAw9ks802S5L07Nkzd9555xLP2SdPnpwjjjgio0ePzvbbb5877rgjRVHUdnwAAKAG1Sl3AAAAAJbsvvvuy/z581MURY499tj07t37axWvk2SDDTbI73//+xx77LFJkvnz5+e+++6rzrgrJMcYAAAAAGrfq6++miT5n//5n6py+7Jo2rRpevXqlVKplH/+85959NFHayoiAABQJgruAAAAFey5555Lkqy33no57bTTqmXO0047Leutt95i86/KHGMAAAAAqH2TJk1KURRfKLd/fjX2uXPnfum+W2yxRbbccsskyUMPPVRzIQEAgLJQcAcAAKhgEyZMSFEU2WGHHVK3bt1qmbNu3brZcccdUyqVMn78+GqZc0XmGAMAAABA7Zs1a1aSZO21117s+dVXX73q8fTp05e4/6abbppSqZSRI0fWTEAAAKBsFNwBAAAq2KIViho0aFCt8y6ab968edU674rIMQYAAACA2teoUaMkyZw5cxZ7/vOF9zFjxixx/0Wf602aNKkG0gEAAOWk4A4AAFDB1l9//ZRKpbz55pvVOu+i+dZff/1qnXdF5BgDAAAAQO1r2bJlkmTy5MmLPd+mTZuqx0OGDFni/iNGjEiS1KtXrwbSAQAA5aTgDgAAUMG22WabJMmoUaPy6KOPVsucjz76aEaOHJmiKKrmX5U5xgAAAABQ+77zne+kVCrl3XffXez5bbbZJquttlqS5O67787MmTO/sO+DDz6Yd955J0VRZJNNNqmVvAAAQO1RcAcAAKhgXbp0qXp8zjnn5N577/1G8913330599xzv3T+VZVjDAAAAAC1b6eddkqSjBkzJhMnTqx6vmnTptljjz1SKpUyduzYHHHEEXn88cfz3nvvZcSIEbnuuuvy61//umr8vvvuW+vZAQCAmlWUSqVSuUMAAACwZL/4xS/y6KOPpiiKJMnGG2+crl27Zuedd067du1Sv379Je47d+7cjBgxIoMHD07fvn0zevTolEqlFEWR/fffP717966tl1HRHGMAWHV06dIlI0aMSFEUGT58eLnjsJLr169fkqR169bZeuuty5wGAKCyTJ48OXvssUcWLlyY888/P4cffnjVtrfffjvdunXLvHnzlrh/qVTKt7/97fTt2zeNGjWqjcgAAEAtUXAHAACocDNmzMhPf/rTDB48uKqAvUhRFGnatGmaNWuWhg0bpl69epk3b15mz56dSZMmZfLkyfn8275Fj9u3b59rr702a665Zq2+lkrlGANA5VlUDK5uV199dcaNG6fgTq1o27ZtiqLI4YcfnvPPP3+J40aOHJkxY8YkSfbZZ5/aigcAUHZ33HFHJk6cmE022STdunVbbNuzzz6b008/PZ988smX7rvxxhvnhhtuyMYbb1wLSQEAgNqk4A4AALACmD9/fq677rr8+c9/zqxZs76w/b9L2UnyZW/3Vl999fzkJz/JySefnLp169ZI1hWVYwwAlWVRMbgmLLrbioI7NW1ZC+49e/ZMnz59UhRFhg0bVosJAQAq2+TJk3PvvffmxRdfzMSJE1OnTp1861vfSseOHdOlS5el3nkRAABYcSm4AwAArEAmT56cvn375sknn8xrr72WhQsXfuU+derUyXe/+9106tQpXbt2TdOmTWsh6YrLMQaAyrCoGFzdH2EvmlPBndqwPAX3O++8088lAAAAAEASS8kBAACsQJo2bZpjjjkmxxxzTObOnZt33303o0ePztSpU/Ppp59mzpw5adCgQdZYY400adIkm2yySVq3bm0lo+XgGANAZWjZsmW5IwAAAAAAAGWg4A4AALCCql+/ftq2bZu2bduWO8pKyzEGgPIZMGBAuSMAAAAV7v33388NN9yQSy+9tNxRAACAalSn3AEAAAAAAAAAAGBZvfPOOznjjDNywAEHpF+/fuWOAwAAVDMruAMAAAAAAAAAUPHeeuut/N///V8ef/zxlEqllEqlFEVR7lgAAEA1U3AHAABYiT399NOZMmVKkqRLly5lTgNApZo5c2bGjh2bGTNmZP78+cu834477liDqQAAAFgZvfrqq3n55ZczceLEzJkzJ82aNct3v/vd7L777llttdW+dJ9Ro0bl6quvzoABA75QbG/evHltxgcAAGqBgjsAAMBK7Prrr8/QoUOTKLgvSb9+/dKsWbPsuuuuqVOnTrnjANSaGTNm5Pbbb8/DDz+c0aNHp1QqLdf+RVFk2LBhNZQOvr5///vfmTBhQhIXYQAAQCUZOnRoLrjggrz11ltfun3DDTfMFVdckW222abquenTp+eyyy7LAw88kIULFy723nWDDTbIcccdl+7du9d4dgAAoHYpuAMAAKzk3KZ36X71q1+lKIqsu+66OeSQQ9KlS5dsttlm5Y4FUKPefPPNnHTSSfnoo4+SZLnL7VDJbrvttvTp08dFGAAAUEGGDBmS4447LrNnz/7SzytLpVI++OCDHHPMMbn11luz9dZb5/XXX8/PfvazTJgwYbH3rS1btswJJ5yQbt26pV69erX9UgAAgFqg4A4AAABJJk2alFtvvTW33npr2rVrl27duuXAAw/MOuusU+5oANVqypQpOeaYYzJ16tSq5+rWrZtWrVqlSZMmqVvXR4as+Fy0QaV58cUXc8455yxx+6K7LiVZ6rj/VhRFLrnkkm+UDQCgps2bNy9nn312Zs2aVVVsL5VKady4cRo0aJApU6Zk3rx5SZKZM2fmN7/5TXr16pWjjz46M2bMqJrnW9/6Vk444YR07drVe1cAAFjJFSWf9AMAAFSsffbZ5xvt/9FHH2Xu3LkpiiItW7b8wvaiKPLkk09+o3/Hiq5t27YpimKxItyiL9rq1q2bDh06pEuXLtlrr718cQasFHr37p0bb7wxRVGkUaNG+cUvfpEuXbqkUaNG5Y4G1aJnz5658847UxRFhg8fXu44rOIWnWvWJD/nAECle+SRR3L66adXnRcdddRROfLII6s+r5w/f34GDRqUK664IiNGjEhRFNl4440zevToJMkaa6yRU089NYcffrgV2wEAYBXhm3kAAIAK9uGHHy5Wvl7ecsyi/UqlUsaOHfuFbTVdtlmRbLTRRpk5c2YmTZpUdWzmzZuX/v37p3///mnSpEkOPvjgdOnSJZtvvnm54wJ8bU8//XSSz/5OueGGG7LDDjuUORHAyq0m1xlyPg8ArAgGDBhQ9fiXv/xljj322MW2161bN7vvvnu23377fO9738u7776b9957L0my4YYb5k9/+lM22WST2owMAACUmYI7AADACmBRyf2blGPcwGvp9thjj5x77rl59tln069fvwwYMCBz5sypOm5TpkzJHXfckTvuuCObbrppunXrloMOOijNmjUrc3KA5fPBBx+kKIpst912yu0ANaxr167ljgAAUHaL7jjTtGnT/PjHP17iuNVXXz0nnHBCzj777KoFKH73u98ptwMAwCpIwR0AAGAFcfDBB2fXXXddrn2uv/76jBkzJkVR5JJLLqmhZCuPOnXqpEOHDunQoUM++eSTPPLII+nXr1/+9a9/JfnPRQKjRo3K5ZdfniuuuCK77bZbunXrlr333jv169cvZ3yAZbJw4cIkSevWrcucBGDld+mll5Y7AgBA2U2aNKnqQuu6dZdeU9lll12SfLbgx6abbprtt9++NiICAAAVRsEdAACggh111FG54447snDhwvz9739PnTp1cvbZZ6dp06bLtP/dd9+dMWPGJLF65PJaa6210qNHj/To0SPvv/9++vbtm4ceeigffvhh1QpS8+fPzzPPPJNnnnkma6+9dg444IB07do1W2+9dbnjAyxRixYtMnr06MyePbvcUQAAAFgFzJgxI0my7rrrfuXYz98t0YXZAACw6qpT7gAAAAAs2TnnnJO77747m266aUqlUh588MHsv//+uf/++8sdbZWy0UYb5bTTTkv//v1z++23p2vXrlljjTWS/GdV92nTpuXuu+9Ojx49sv/+++fGG2/MhAkTyhkb4EvttttuKZVKeeONN8odBQAAgFXAggULkuQrV29PPrvD4iLLUogHAABWTgruAAAAFW7rrbdO3759c+qpp6ZevXqZNm1azjvvvPzoRz/K6NGjyx1vlbPTTjvl0ksvzfPPP5/LL788u+66a4qiSPJZ2b1UKuW9997LlVdemY4dO+aYY44pc2KAxf3whz9M/fr1M3r06Dz//PPljgPVbs8998wpp5ySn/70p+WOAgAAfAOLPnMDAABWPQruAAAAK4C6devm5JNPTt++fbPtttumVCplyJAhOfTQQ3Pttddm3rx55Y64ymnYsGEOPfTQ3HLLLRk4cGBOP/30qtsmL1rVfcGCBXnhhRfKGRPgCzbZZJOcc845KZVKOeusszJq1KhyR4Jq1aFDh5xyyik55ZRTyh0FvrHx48dn6NChGTFiRKZOnVruOAAAAAAAteKr7/8EAABAxWjTpk3uuuuu3Hnnnendu3dmzpyZ6667Lo888kj+93//NzvuuGO5I66SmjdvnuOPPz7HH398hg4dmr59++aRRx7JtGnTyh0N4Ev94Ac/SMOGDXPhhReme/fu6dGjR/bbb7985zvfyZprrlnueACrtIULF+b222/P7bffnnHjxlU9XxRFttpqqxx//PHZZ599ypgQAODrmTlzZsaOHVsj41u2bPl1YwEAABWoKC1aVg4AAIAVyvjx43PRRRflqaeeqrpdb9euXXPWWWelSZMmSZIePXrktddeS1EUGT58eDnjVqy2bdumKIocfvjhOf/886tt3nnz5mXgwIHp169frr/++mqbF+Cbateu3WJ/LpVKX+u270VRZNiwYdUVC2CldeKJJ+aTTz5Jklx22WVp1arVEsfOnTs3J5xwQgYNGpQlfX1TFEV+9KMf5dxzz62RvAAA1W3R52/LatF50LLu4/0pAACsfKzgDgAAsILaYIMNcsMNN+Thhx/Ob3/720yePDl9+/bNwIED86tf/SqHHnpouSOu0urVq5fOnTunc+fO5Y4CsJhFhfZF//v5woC1MFhRjBkzJu+8807efffdTJs2LTNnzsycOXPSoEGDNGrUKI0bN07r1q3Tpk2bpZaJoaa9/fbbVRektmvX7it/Hi+++OK8+OKLSVL1u/rzFj13xx13pE2bNunRo0eNZQcAqAnL8r7T+1QAAEDBHQAAYAV34IEHZrfddssll1ySBx98MFOmTMmvfvWr9O3bN1OmTCl3PAAq0KKCgKIAK5J33303d999d5588smMGzdumfdr0aJFOnXqlB49eqRNmzY1mBC+6KWXXqp63K1bt6WOHTZsWP72t79VFbpWW221dOvWLXvuuWfq16+fESNG5Pbbb8/HH3+cUqmU3r1759BDD03Dhg1r9DUAAFSH5Xn/6b0qAACg4A4AALASaNKkSX73u9/lkEMOyYUXXpgPP/wwgwcPLnesFYYvzYBVyYgRI8odAZbLrFmz8pvf/CYPPPBAFixYkGT5/u4eN25c7rjjjvTp0yddunTJueeemzXWWKOm4sJiXn/99arH++6771LH9unTp+pnu06dOrnqqqvSqVOnqu177rlnvve97+WHP/xh3n///UyfPj1PPvlkDjrooJoJDwBQTfr371/uCAAAwAqmKPkWHwAAYKUya9as9O7dO3feeWcWLlyY5LPb+g4fPrzMySrTolU1mzdvno022qjMaQCAz5s0aVKOPfbYvPXWW18otTdr1iwtWrRIs2bN0rBhw9SvXz9z587N7NmzM2nSpIwbNy6TJk1abJ+iKNK2bdvcdNNNadasWW2+FFZRPXr0yGuvvZYNN9xwqcWuUqmU9u3bZ/r06UmSzp075+qrr/7Ssc8991yOPfbYFEWRLl265NJLL62R7AAAAAAA5WIFdwAAgJXM6quvnvPOOy9du3bNW2+9Ve44FW+nnXYqdwQAYAnOOuusxe46sOuuu6Zr167Zeeeds/7663/l/hMnTszLL7+c+++/P88//3ySz+5icPbZZ+fmm2+usdywyIcfflh1YcXSjBw5MtOmTUvy2YUYPXr0WOLY3XffPeuvv34++ugj5/sAAAAAwEpJwR0AAGAltfnmm2fzzTcvdwwAgK/lySefzAsvvJCiKLL22munV69e2XPPPZdrjvXXXz8HHnhgDjzwwDz33HM544wzMnXq1Lzwwgvp379/9tlnnxpKD5+ZMWNGkmSdddZZ6rhXX3216nGDBg2y4447LnX8FltskYEDB2b8+PHfPCQAQA278cYbs88++6RNmzbljgIAAKwg6pQ7AAAAAAAA/LcHH3yw6vE111yz3OX2/7b77rvnqquuqvrzAw888I3mg2Uxf/78JEmdOkv/OuaNN95IkqrV3uvVq7fU8c2aNUvynwI9AEAl6927dw466KB07tw5l156aQYPHpwFCxaUOxYAAFDBrOAOAACwgpg9e3YeeuihvPDCCxkzZkxmzJiRtdZaK9/61reyyy675OCDD87qq69e7pgrNMcYACrH8OHDUxRFttpqq+y8887VMmf79u3z3e9+N6+99lqGDRtWLXPC0jRq1CjTp0/P5MmTlzpu6NChVY+32GKLZZ6/VCp97WwAALWpVCrl3//+d26//fbcfvvtWXvttbP77runY8eO6dChQ9Zcc81yRwQAACqIgjsAAMAK4Jlnnsm5556bjz/+uOq5UqmUoijyxhtv5LHHHsvVV1+dSy65JB06dChj0hWXYwysTPbZZ5+qx0VR5Mknn/zSbd/Ef88L1W3ixIlJkk033bRa523Tpk1ee+21fPTRR9U6b00bOXJkxowZk6T6/jum5jVv3jzTpk1b6gUVU6dOzahRo1IURZLku9/97lfOO3Xq1CRRBAMAVgjXXXddBg4cmKeeeiqTJk1KkkybNi2PPPJIHnnkkay22mrZYYcdsvfee6djx45p1apVmRMDAADlpuAOAABQ4Z599tmcfPLJmT9/fpLPCoWLVmpcVMBOko8//jgnn3xy/u///i977rln2fKuiBxjYGXz4YcfVv0uW/Q77L+3fRNfNi9UtzXWWCNz587NJ598Uq3zzpgxo2r+2nTdddelc+fOX7uwf88996RPnz4pisLq8yuQLbfcMiNHjsy4ceMyZD2u/JkAACAASURBVMiQ7LDDDl8Y849//CMLFy5M8tl56LLcsWD06NFJkg022KB6AwMA1IB99tmn6iLNoUOHpn///hk4cGBGjhyZJJk/f34GDx6cwYMH57LLLkubNm3SsWPH7L333tl2223LGR0AACiTouT+lQAAABVrzpw52WeffTJp0qSqouI666yTrbbaKmuvvXamT5+eoUOHZurUqVXb11tvvfTv3z/169cvd/wVgmMMrIzatm1b9bgoigwfPvxLt30T/z0vVLdu3bpl2LBhady4cZ5++uk0bNjwG885a9as7LXXXpk+fXratWuX+++/vxqSLpu2bdumKIp8+9vfTqdOndK5c+dlWql7kR//+McZNGhQ6tatmzfeeKMGk1KdBg4cmJNOOilFUaRNmza5884707hx46rtkydPTvfu3TNu3Lgkn63efvfddy91zk8++SQ77bRTkmT//fdP7969a+4FALDCmjBhQvr27Zs333wzn376adZaa620atUqO+64Y/bYYw8XrFIRxo4dmwEDBmTgwIF56aWXMm/evCRZ7OezadOm6dChQzp27Jjddtstq6++erniAgAAtcgK7gAAABXs4Ycfripe16tXL2effXa+//3vZ7XVVqsaM3/+/Nxzzz25/PLLM3fu3EyaNCl///vf061btzImX3E4xsDKqH///l9rG1SSvffeO8OGDcv06dNz4YUX5vLLL//Gc1500UWZNm1aiqJIx44dqyHl8imVSnn//fdzyy235JZbbsl6662XffbZJ/vuu2923nnnxc4/Fpk0aVJ+//vfZ9CgQSmK4muvAE95dOjQIZtssknee++9vPPOOznwwAPzve99Ly1btswHH3yQvn375uOPP666M8aRRx75lXP279+/avzWW29dC68CgBXN3/72t/Ts2TNz5sz5wrY//elPadWqVS6++OK0b9++DOngP1q2bJkjjjgiRxxxRGbMmJHnnnsuAwYMyNNPP51p06Yl+eyOin379k3fvn1Tv3797LzzzlWruzdv3rzMrwAAAKgpVnAHAACoYKeddloee+yxFEWRiy++OIcddtgSx/71r3/NBRdckKIost9+++Wqq66qxaQrLscYACrTuHHjcsABB2T27NlJku233z5nnnnmcq16vsjQoUPTq1evDBkyJKVSKWussUYeeeSRbLDBBtUde4lGjBiRxx57LI899ljee++9qucXrU659tprZ6+99spOO+2UcePGZeTIkXnrrbcyZsyYlEqlqkLzH/7wh3Tq1KnWcvPN/etf/8pRRx2VefPmVf3/uMiiP5dKpeywww75y1/+8pXzHXXUURk8eHCKosi9996bLbfcsibjA1ABPvnkk/zlL3/JU089lffeey+ffvppmjRpkhYtWmS33XZLt27d0qpVqyTJgAEDcvLJJ1f9/bIkdevWzbXXXpu99tqrll4FLLuFCxfmlVdeqVrdffTo0VXbPn8u1a5du3Ts2DEdO3bM5ptvXo6oAABADVFwBwAAqGCdO3fOv//977Ro0SIDBw5c6thSqZSOHTtm3Lhx2WijjfKPf/yjllKu2BxjAKhc9957b379618vVmLZeOONs9NOO2WLLbZIy5Yt06xZszRo0CD16tXLvHnzMmfOnEyaNCljx47NsGHD8tJLL1UVYhZ9HP6b3/wm3bt3L8trSj4r3P/mN7/J0KFDF3v+868zyWKltNVXXz1nnXVWfvCDH9RKRqrXs88+m7POOitTpkz50u2bb755/vSnP6Vp06ZLneeNN96o+tldb7318uyzz1Z7VgAqy4gRI3LCCSdk4sSJSf5zfvD584b69evnzDPPzPe///107tw5Y8eOTZJsu+226d69e1q0aJFPPvkkb7zxRvr27ZtJkyYlSRo3bpz+/ftnzTXXrOVXBcvn/fffz4ABAzJgwIC88sorWbBgQZLF/zto3rx59tprr3Ts2DF77rlnuaICAADVpG65AwAAALBkkydPTlEU2Xbbbb9y7KJx48aNy+TJk2sh3crBMQaAynXYYYelKIpcdNFFmT9/fpLkvffeW2wF9GWxqAhWt27dXHTRRWUrt5dKpdx00025+eabM3369C+s5P35QntRFFXbW7VqlZtvvrlqZVZWPHvssUcee+yx3HvvvXnhhRcyYcKE1KlTJ61atUqnTp1yyCGHpG7dr/7KZuDAgVV3MejQoUNNxwagzGbNmpWf/exnmTBhQtVz9evXz9prr52pU6dWnR/NmTMnv/3tb/Ovf/0rY8eOTVEU6dq1a377298udr6x33775YQTTshJJ52Ul19+OdOnT8/999+fI488stZfGzVj+vTpWbBgQdZZZ52vtf/QoUPz7rvvJkm6dOlSndG+kY022ig/+clP8pOf/CTTpk3LM888kwEDBuTZZ5/NjBkzkiTjx4/PPffck7/+9a8ZNmxYmRMDAADflII7AABABZs5c2aSpEmTJss0ftG4RfutLD766KPMmzcvSdKyZctqndsxBlY1n3zySdZaa61vPM9TTz2Vvfba65sHgq/QvXv3bL/99rnqqqvyxBNPZOHChcs9R506dbLvvvvm5z//eVq3bl0DKZfNGWeckUceeSTJf0r39erVy6abbprNN988m2++eebNm5dHHnkkr732WpLPiu5jxoxJ9+7dc+WVV2bXXXctW36+mcaNG+fYY4/Nscce+7Xn+NnPfpaf/exn1ZgKgEr24IMPZsyYMSmKIptttlkuvvjibL311imKInPnzs0LL7yQq666KiNGjEipVKo6z2jatGkuuuiiL9wdJknWXHPNXHHFFenUqVPmz5+f5557rsYL7s8//3yeeuqpfPjhh1m4cGE22GCD7Lrrrtl7771Tr169ZZ6nZ8+e6dOnT4qiUGD+nFGjRuWGG27IM888U1X2btiwYdq3b5/DDz88u++++zLP9cADD+TOO+9MnTp1Kqrg/nmNGzfOwQcfnIMPPjjz58/Pyy+/nAEDBmTgwIH54IMPyh0PAACoJgruAAAAFaxUKqUoitSpU2eZxi/64vLzq3+uDI477ri89dZbNfIFpmMMrGoOOeSQ9OrVKzvssMPX2n/u3Lm59NJLc/fdd2f48OHVnA6+3CabbJKrr746H3/8cQYMGJBBgwbl3XffzejRozN79uwvjG/YsGE22WSTtG7dOu3bt0/Hjh2z7rrrliH5fzzxxBN5+OGHq/7cuXPndO/ePe3bt0/9+vUXG3vUUUflww8/zH333Zd77rknkydPzrRp03LSSSflhhtuyC677FLb8QGAMhgwYECSzy6Iu+666/Ktb32ralv9+vWz1157pX379vnRj36UN954o+ozjkMOOeQL5xef17x582y33XYZPHhw3nrrrRrL/8EHH+SMM86ounDv8+655560aNEiZ5xxRg444IBlntPnMYu755570rNnzyxYsGCxYzNr1qw89dRTeeqpp7Lbbrvl0ksvzXrrrbfM864ox7lu3brZZZddsssuu+S8887LqFGjMnDgwHLHAgAAqoGCOwAAACuEFeWLNYBKN27cuBx11FE59thjc+qpp2a11VZb5n1HjBiRM844I2+//faXrgYJNW3dddfNYYcdlsMOO6zquTlz5mTmzJmZO3du6tevn0aNGqVBgwZlTPnl7rvvviSfXSx33nnn5Ygjjljq+A033DA///nPc/TRR+fMM8/MU089lTlz5uQPf/iDgjsArCJGjBiRoiiy3XbbLVZu/7yGDRvmggsuWOz8aOedd/7Kub/97W9n8ODBmTZtWrXl/bxx48bl8MMPz8SJE7/0M52iKDJ27Nj88pe/zMCBA3PRRRelUaNGNZJlZfXEE0/kwgsvXOL2Rcf9+eefzyGHHJLevXuv9OeRm266aTbddNNyxwAAAKqBgjsAAAAArGIWLlyYG2+8MS+++GKuuOKKfPvb3/7KfW699dZceeWVmTdvXpIs850vWH5vvvlmPv300yTJjjvuWOY0la9BgwYVWWj/b2+++WaKokjbtm2/stz+eWuttVauvvrq7L///hk7dmxGjRpVgykr19ixY5Mka665ZtZee+0yp1l+H330UdXvz0aNGqVx48bLPce0adMyc+bMJJ+t2tusWbNqzQhA5Zk6dWqSLLHcvshWW22VjTbaKO+//36Sz+5+81Xmzp2bJFmwYME3TPnlzj777EyYMKHqwtitt9462223XYqiyMiRIzNo0KCqVcf//ve/5+23385NN91UMX+/zZo1KzNnzkzTpk2X+N5n5syZ6devX1555ZVMnTo1TZo0SevWrdO5c+caL1nPmjUrF1xwQZLPLhZo0aJFjjvuuMWOcd++ffP8888nSaZMmZLjjz8+l19++XKtmA8AAFAuCu4AAAArgHfffTf9+vVbpnGLLMv4JOnSpcvXzrUycYyBVcUPf/jD9OnTJ0VRZOjQoenSpUvOO++8fO973/vS8R999FHOPvvsvPjii1UrALZs2TK/+93vajP2KuW8887LW2+9laIoMmzYsHLHoZosKqi1a9duufdt0KBBdt555/Tt27fq4odVTceOHVMURQ4//PCcf/75Sxw3d+7cqsLemmuuWVvxlurdd9/NIYcckgULFqRBgwa56667vlbB/cMPP8wPfvCDqrsVPPzww19ZeAQ+M27cuLRo0eJr79+rV6/ce++9KYoigwcPrsZkNac2fh+ec845SZJdd901Bx98cI38O/jM7Nmzv3JM27Ztqwru66233leOHz16dJLUyIVjL7/8cl566aUURZGGDRumV69e6dSp02Jjxo0bl0svvTSPP/54kmT48OE5/PDDc+utt6Zly5bVnmlZLFy4MLfddlvuvvvu/Pvf/07y2Qr5++67b375y1+mefPmVWNffPHFnHHGGZk8efIX5rn22mtz6KGH5oILLsgaa6xRI1kffPDBTJkyJUVRpF27dvnzn/+82P+Xm222WQ466KAMHDgwF1xwQSZNmpR58+blzDPPzIwZM/L//t//q5Fc1WHmzJkZMWJEpkyZkpkzZy7zXR19/gYAACsXBXcAAIAVwIsvvpgXX3xxmcYuWhlr0RfNX8WXP59xjIFVxQUXXJA999wz5557biZPnpxPP/00559/fp555pn07NlzsVJE//79c/7552fq1KlVpYIDDjgg//u//5u11lqrXC9hlbCsJQ5WHI0bN87kyZPzySeffK39p02blqRyStuV6vLLL6+6iKdSLhC58sorM3/+/BRFkXPPPfdrXeSQJJtvvnnOO++8XHDBBZk7d26uueYaFxvBMurYsWO22GKLdOrUKfvuu2/atGmzXPtPnjw506dPr3ovWBuGDBmS7bff/mv/O2vj92Hfvn1TFEUaNWq01IL7E088kSFDhqQoivzqV7+qkSwrq6ZNm2bcuHF55ZVXUiqVlvrzsOmmm1ZdlL/66qsvdd733nsvQ4cOTVEUNbLS+EMPPVT1+Ne//vUXyu1J0qJFi1xzzTXp27dvLrroosydOzfvv/9+fvCDH+TWW29N69atqz3X0sydOzcnnnhi1WdDi87HZ82alYceeiiDBg3Kvffem+bNm+f111/PiSeemLlz5y7xvP2BBx7IBx98kFtuuSX169ev9rzPPPNMks8+o+rVq9cSL1TYe++987e//S2nnnpqXn311SxYsCAXXnhhZsyYkaOPPrrac30TDz30UP7yl7/k9ddfX+73Q0VR+PwNAABWMu4jDAAAsAIolUrL/M/y7MN/OMaV45VXXskdd9yRP/7xj+nTp0+effbZzJgxo9yxYKWy11575cEHH8xuu+1W9dzjjz+eQw45JC+99FJmz56dCy64IKecckpVub1Ro0a57LLL0rt3b+V2VggXX3xxjjzyyBx11FHljpLks9JZqVTK888//6UrfS7N+PHj8/zzz6coimy44YY1lHDlUUnnYR999FEGDBiQoiiy2WabfePVUv/f//t/+c53vpNSqZRHH3206sIHYOlKpVLefPPNXH311TnooIOy//77p3fv3hk6dOhX7vviiy/mscceS1EUWXfddWsh7WeOOOKI7L777vn1r3+dp59+OvPmzVuu/Redw1XC78NBgwbltttuy2233VbuKCucrbbaKslnq53/6U9/WurYU045JQ899FAeeuihpRbhFy5cmF//+tdVf+7YsWP1hP2cV199NUmywQYbpFu3bksd27Vr1/zlL3/Juuuum6IoMmHChBxxxBEZPnx4tedamssvvzwvvPBCki9ebFoqlTJx4sT8/Oc/T5JceOGFmTNnTkqlUjbaaKN8//vfzwknnJCuXbtm/fXXr9rnn//8Z66//voayTt8+PAURZGtt976Ky/aWX/99XPHHXfkgAMOqMrWq1ev/OEPf6iRbMtr9uzZOfHEE3PWWWdl6NChWbhw4VI/Z/MZHAAArBqs4A4AAFDBynVL5lWJY1w5RowYkbPOOiujRo36wrbVVlstBx98cE4//fRlutU68NWaNWuWm2++OX/+85/Tu3fvzJ07N+PHj8+Pf/zjrLfeepk4cWJVSWCbbbZJr1690qpVqzKnhmX35ptv5rXXXqvV1XaXZv/998+gQYMya9asnHjiibnyyiuXqaz+8ccf56c//WnmzJmToiiyxx571EJaqstjjz2WBQsWpCiKnHjiidUy5wknnJDTTz898+fPz2OPPZYePXpUy7ywMjvyyCPz+OOPZ/z48UmS0aNH56abbspNN92U5s2bp1OnTunUqVN23HHHjB8/PiNHjszIkSMzZMiQPP/881XnRIceemit5v74449z33335b777kujRo3SoUOHdOrUKR06dMgaa6yxxP3uv//+qlJ+ixYtajEx1e3AAw/M448/niTp3bt3hg8fnsMOOyzt2rVLkyZNlnu+Tz/9NGeddVZefvnlFEWRjTfeOIcddlh1x86ECRNSFEW23XbbZRq/1VZb5a677srRRx+dDz74IJMnT85RRx2VG2+8Mdtss83/Z+/O42O63geOf24QSYREqC2ksZUSIbQRWrRKUYpW1S5UqariS9VOFFHVLda2SlG0pZqoiojaa000sY2QiCUkElu2yZ7M74/85japrMxMJH3er1dfHTPnnjz3znbm3uc8x+Dx/dv169f56aefUBQFnU7Hm2++Sb9+/bCzsyMsLIwVK1Zw6dIlzpw5w6ZNm9BoNJiZmfHxxx/j7u6ea7yZnp7O119/zdq1a9HpdKxbt46RI0diY2Nj0JgfPHgAUORK9xUqVODLL7/ExsaGn376CZ1Ox6pVq9BqtSW+ssKsWbM4ePAgABUrVqRt27bcvHmT8PBwtTK7Vqvl1q1bXLp0SV0Zx9LSkldfffWJGe8LIYQQQgghDEsS3IUQQgghhBDiCbZ///6SDqHMk2NsXKdPn+bgwYNcv34drVaLra0ttWvX5oUXXsDV1ZVy5coBcOXKFYYOHYpWq82z6lZGRgY+Pj4cPXqUjRs34ujoaOI9EaLsGjFiBG5ubnz00UeEhYWRlZVFdHQ0AOXLl2fs2LGMGzcOMzNZDFKIx9GvXz/Wr1/PtWvXOHfuHN27d6dnz550794dZ2dn7Ozs1LYpKSlcvnyZffv28dNPP5GQkACAhYUFgwYNKqldEI8gKCgIyE4q69Spk0H6fOmll6hQoQIZGRkEBgZKgrsQRTBz5kxmzpxJcHAwfn5+7Nmzh6ioKCB7lYzNmzezefNmzMzMyMrKyrWt/vdJ69atmTBhgslinjFjBnv27CEoKAidTkdiYiK+vr74+vpibm5Ou3bt6Nq1K66urkRFReVKyr969So6nQ5FURg4cKDJYhaG161bN9q2bcvJkydRFIXdu3eze/dug/St0+m4du0arVu3zreNoihoNJpi963VagGKtfJTvXr12Lx5M++88w5hYWHEx8czcuRIVq9ejZubW7FjKA5vb2+ysrJQFIWRI0cybdo09bH69evTrl073njjDW7evMkXX3yBoiiMGjWKESNGPNRXhQoVmDp1KjExMezcuZP09HR8fX0NPobLyMgAKHZy97x587C2tmbNmjUAbNiwgaSkJD755BODxldUZ86cYdeuXSiKgoODA+vWrcPe3p4FCxYQHh4OwOLFi9X2iYmJbN26lZUrV5KUlMS9e/f46quvsLa2LpH4hRBCCCGEEMYjCe5CCCGEEEIIIYQwuMTERKZMmcLhw4fzfHzt2rU0bNgQT09PnJ2dmTVrFomJiUD2BfDOnTtTq1YtEhMTOX/+PGfOnFGXBJ8wYQI+Pj6SbCuEAdnZ2VGtWjXCwsLUBAmdToe9vT09e/aU91s+XnnlFaP0GxMTY5R+S5uAgIDH2l7/vQIQGBiY5wSq559//rH+RnGUL1+e5cuXM2TIEOLj40lPT2fHjh3s2LEDyE5et7KyIiUlheTkZDVe/f8VRWHu3LnUqlXLZDGLx3fx4kUURcHJyanAasvFYWVlRYsWLfj777+5ePGiQfoU4r+iWrVqJCcnk56e/lBSqE6nIzMz86FtHBwcGDduHK+//ro6QdcU3N3dcXd3Jzo6Gn9/f7y9vdVE49TUVA4dOsShQ4ce2i7n912PHj0YPXq0yWIWxrFixQo++uijPJ/vR6EoSq7Xf15jpMdlZWVFQkKCWmW8qGrUqMGmTZt455130Gg0JCcn89577+Hl5cVLL71k8Dj1Tp8+DWRXDx8/fvxDj1tbWzNq1Cg8PDxITk7GwsKi0PfWhAkT2LlzJ5A9rjV0gruNjQ337t17pN8OU6ZMwcrKCi8vLxRFYdu2bSQnJ7NkyRKDxlgU3t7e6m1PT89CVziytrbmnXfeoXPnzgwfPpy//vqLmTNnsmzZMmOHKoQQQgghhDAxSXAXQgghhBBCCCGEwX344YccP368wDZhYWGMGDGCKVOmEBwcrCZ/ffvtt7mq2EJ2Ra+JEydy+/ZtQkND2bNnDz169DDmLgjxn/Hnn38ye/Zs4uLiUBQlVzLtjRs3ePPNN5k+fbpUCM7DrVu3HjpmwnCGDRtmkGOq0+kYNmzYQ/c/akXSx9GoUSM2bNjA5MmTCQ8Pz5VQlpycTHJycp7bPfXUU8ybN48uXbqYKlRhIPfv3wegZs2aBu1X39/du3cN2q8QZdnevXv5+OOPSUlJAXIn9VasWJFnnnmG9PR0QkJCgH++1yMiIjhy5AivvPJKsapRG8qtW7c4fPgwoaGhRU5KdnBwYMGCBbRt29YUIQojq1y5Mt9++y0nTpzg999/5+zZs0RHR6PVah9acaAojJHQ/m+1a9cmPj6e0NDQYm9ra2vLxo0bGT16NEFBQaSmpjJ+/Hg+++wzI0Sa7erVqyiKQsuWLalUqVKebdq3bw9kfza0aNGCKlWqFNhnvXr1aNy4MaGhoerniiHVr1+fu3fvcvbs2Ufa/v3338fS0pJPP/0URVH4448/SE5Ofuh8jLHpJxc4ODjQpk2bIm/n6OjIkiVLGDlyJHv37uXgwYNGnQQhhBBCCCGEMD1JcBdCCCGEEEIIIYRBHThwgOPHj6MoCpaWlowdO5bnnnuOqlWrEh0dzaFDh/jll19ITk4mKSmJhQsXAmBubs7y5cvzvJjasmVLvv76awYOHAhkJ+RKgrsQjyclJQVPT0+2bdsGZCe6WFtbM2/ePOzs7Jg2bRp3794lOTkZDw8PDh8+zMKFC6latWoJR/7k0Se5myJZ6L8o53E11CSCknyumjZtio+PD7t27WLHjh2cPXuWpKSkh9pZWlri5OTEa6+9Ru/evfNNthJPNq1WC1BoElxx6ZNsc65UIITI3/Xr1/noo49ITU0FsqtLd+rUiY4dO9K8eXMaNmyoVmcPDw/H19cXb29vdTKbr68v165dY+3atdja2pos7k2bNuHp6Znnqh4ODg40a9aM9PR0jhw5QlpamvpYREQEX3/9NV9//bXBJ9iIkuPm5oabm1tJh1EkzzzzDJcuXeLatWvExMRQo0aNYm1vbW3NunXrGDt2LCdPniQjI4OpU6dSr149o8QbHx8PQN26dfNtk3MVnYLa5dSoUSNCQ0O5d+/e4wWYh2bNmhEQEEB8fDzBwcG0atWq2H2MGDECS0tLPDw8ANi3b59JV6qA7NWrFEXh2WefzXV/znF/Wloa5ubmD23brl07GjduTFhYGL///rskuAshhBBCCFHGSIK7EEIIIYQQQpRBN27cIDo6GoDnn3/eZH83ICDAKP3mlfRV0krqGJcGf/zxh3r722+/zXV86tevj5ubG2+//TbDhw/n7t276HQ6FEWhW7duuS4Y/1urVq1o1qwZGo2G8+fPG3UfhCjrNBoNU6ZM4dq1a2qilIuLC0uXLlWTNXbu3MmsWbPYv38/APv376d37958+umnvPDCCyUW+5PEwsJCTZSbMmUK1atXN0i/y5YtIyoqyiB9lQU5q+Q/amL6kzb5wNzcnDfeeIM33ngDnU5HZGQk8fHxJCUlYWlpSZUqVbC3t5dVAcqASpUqER8fT1xcnEH71SfiycQHIYpm/fr1pKamoigKbm5uLFmyJN+E2wYNGjB+/HjGjRvHH3/8waJFi4iLi0Oj0eDp6WnUKtI5XbhwAU9PT7VCd+3atenZsycdO3akWbNmWFtbq20TExPZu3cv27dvJzAwEEVRCAoKYvDgwWzYsKHIybhCGIqrqys7d+4Esn9XjBo1qth9WFpasmbNGsaPH8/hw4fJzMzk+vXrhg4VQH2fVahQId82OROsi/r9q5/gpp/wZkjt2rVjw4YNAPz222+PlOAOMGDAACwsLJg5cyZZWVlkZGQYMsxC6Y/NvycPVaxYUb2dmJiYb2X5Zs2aERoayoULF4wXpBBCCCGEEKJESIK7EEIIIYQQQpRBGzZsYMuWLSiKgkajMdnfHTZs2H8mEaukjnFpcP78eRRFwcnJKd/k//r16zN79mwmTpyovmY6duxYaN9NmjRBo9Fw9+5dg8YsxH/J999/j5eXJ0kvUgAAIABJREFUFxkZGeh0OsqVK8fYsWP54IMPMDMzU9tVrVqVVatW8fPPP7NkyRJSUlK4c+cOo0ePZtiwYUyZMiXPKnr/JU2bNiU4OBhFUWjQoAGvvPKKQfrdsGGDJLgDZmZmamL666+/zowZM/JNbMnLgAEDOHPmDIqicPHiRWOF+dgURcHe3h57e/uSDkUYgZ2dHfHx8QZ/T+v7k1U1hCia48ePA9nvyWXLlqmrIBTEzMyM3r1706RJE/r3709aWhonTpwwdqiqH3/8kaysLBRFoVevXnzyySdYWlrm2dba2lqdOHX69GmmT59OREQEkZGRLF68mJUrV5osbiEA2rdvr97eunUr77zzziOdLzI3N2fVqlVMnjwZf39/Q4aYi35CmqFXRtEnixujKnrbtm2xtLQkJSWFnTt3MmnSpGKNlXPq06cPlpaWTJkyRf2daCoWFhZotdqHEutzrn4TGRmZ777pY42JiTFekEIIIYQQQogSIQnuQgghhBBCCFFGPWmVSssiOcZ5u3PnDpCdxF6Qrl27Uq1aNe7du4eiKDzzzDOF9q2/KKyvmCyEKL7PP/9crYhdp04dli5dSps2bfJtP3DgQFxdXfnoo4/QaDRkZWWxceNGTpw4wY4dO0wY+ZOnRYsWBAcHA3Du3DmDJbiLbNu2bWP27NlcvHiRP/74gyNHjjB16lT69etX0qGJEhQeHo6Pj0+Bj+sV1C4vffv2feS48uPg4MDVq1e5cOECCQkJRUqqLUxCQoI6odDBwcEAUQpR9t2+fRtFUWjTpk2x34dNmjShY8eO/Pnnn9y/f99IET5Mv0Ja7dq1WbRoUZEnFrZp04YNGzbQu3dvEhMT1bGKEKZkb29PixYtOHfuHDdu3GDHjh2P/D1bvnx5vv76a2bOnFns7/aiqlWrFnFxcdy8ebPQtsU5F6RfwcUQ3///ZmlpySuvvIK/vz+ZmZmsXbuWqVOnPnJ/r776KitXrmTChAmkpKQYMNKC1a5dm7CwMGJjY3Pd7+joqN4ODg7Gyckpz+3DwsKMGZ4QQgghhBCiBEmCuxBCCCGEEEIIg5Kkb5GWlgZkX4QuiJmZGS1atODgwYNA9kXNwkRGRgJFXw5cCJE3nU5Hz549mT9/PtbW1oW2b9CgAb/88gtfffUV69evJysri8uXL5sg0idbixYt1Nvnzp0rwUjKpubNm/Prr7+ydu1aVq5cSWxsLLNnz8bHx4dPPvmk0IlUomw6fvy4Wok5P/oKsTNmzChW38ZIcG/Xrh2HDh0iMzMTb29vhg8f/th9ent7k5mZiaIouSrkCiHyp1+l5lF/R+jHSxUqVDBYTIW5c+cOiqLg4uJS7FVz6tSpQ4cOHdi9e7eaYGtMPj4+HDhwIN/Hc8ZQnAmBiqLw559/PlZsouR88sknXL16FYCnnnrqsfoyMzPj008/xdnZ2SgTTZ5++mkuXbqUa6JcXg4dOgSAlZVVkfoNCwtDURTq1q372DHm5fPPPzdofx07duTAgQMkJSUZtN+CPPPMM4SGhqqvFT1nZ2d1TPfLL78wcODAh84z/fXXX2g0GhRFoV69eiaLWQghhBBCCGEakuAuhBBCCCGEEMJgQkJCSjoE8QSwtbXl3r17RXo9VK9eXb1taWlZYNu4uDgCAwPlwqUQj6lSpUrMmzeP3r17F2u7ChUq8PHHH9OhQwemTZumrtbwX5Yzwf38+fMlGEnZVa5cOcaMGcOrr77KnDlzCAgIIDAwkD59+jBmzBjee+89kyYbipJXlMmU+mSo4ky81G9jaJ06dWLJkiUArF69ml69emFnZ/fI/d2/f59vvvkmV/9CiMLZ29sTGhrK33//Xexts7KyOHXqFADVqlUzdGj5qlixIunp6WpyfnHpV7+qWLGiIcPKk1arRavVFthG/zmrn7RcGJ1OZ7TPZmEazz77LM8++6xB+xw8eLBB+9N75pln8Pf3JyEhgStXrtCwYcM829WsWbPIfd6/f58bN26o/ZcWVatWpWrVqib7e8899xy7du3i6tWrxMbGYmtrC2QXQWjTpg2BgYGEhYUxbtw4Jk2aROPGjUlJSWHfvn18+umnaj8vv/yyyWIWQgghhBBCmIYkuAshhBBCCCGEEMKgGjVqxN27d7l48SJ//fUXL774Yr5tZ82axZQpU4DCK74vW7aMtLQ0FEWhXbt2Bo1ZiP8SHx+fx5ok0q5dO37//Xfmzp1rwKhKp/r161OpUiW0Wi3x8fFEREQYZAKOk5MTlStXNkCEZYejoyM//vgjv/zyC59//jkJCQmsXLmSXbt2MX/+fFxdXUs6RKObM2cO169fR1EUNmzYUNLhmFydOnVKOoRHUr9+fbp27Yq/vz+xsbG8++67bNy4sUirZ/xbYmIio0eP5v79+yiKQteuXWUlAyGKqEOHDoSGhnLjxg1WrFjB+PHji7ytl5cXkZGRajV1U6lXrx4ajYZTp06RmZmpJqwXRWpqKsePH0dRlFyTio1BVnErvf7rY4ucWrZsqd7+66+/8k1wL449e/aQlZWFoii0atXqsfsrqzp16oSiKOh0Og4ePJhrRZ0pU6aokxqOHDnCkSNH8uyjatWquLu7myReIYQQQgghhOlIgrsQQgghhBBCCCEM6uWXX+bEiRMATJw4kalTp9K3b18sLCweamtpaVlo5XaAdevWsXnzZgCsra0ZMmSIYYMW4j/EEAnYtra2LFu2zADRlH4bNmwgKSkJQK02+LgWLlxokH7yEx0dTffu3UlJScHMzIw1a9bQvn37Yvdz9OhRRo8ejU6no1KlSvj7+z9WZeqiGDBgAC+//DLz589n3759XL16FXd3d/r27cu0adMM9hw8ic6dO0dISMh/tprt/v37SzqERzZx4kQOHTpEWloaGo2GXr16MX/+/GJVXz906BAeHh7cvn0bAHNzcyZOnGiskMuc9PR0zp8/z61bt4iLiyMxMRFra2tsbGywt7fHyclJVoMo44YOHcqWLVtITU1l5cqVBAUFMWbMGNq2bZvvNtevX8fLy4vdu3er9/Xp08cU4QLQuXNnNBoNMTExeHh44OHhUaQkd51Oh4eHB/fu3UNRlAL38XEtXrzYaH0L4/uvjy1ycnFxUc8zGGKiaVZWFhs3blT//cILLzx2n2VVnTp1GDFiBNHR0dy/fz/XYy4uLixYsAAPDw8yMjLy3N7Ozo5Vq1YZ/XeIEEIIIYQQwvQUnUyrF0IIIYQQQogyZ8GCBWzevBlFUbh48WJJh1MmyTHOX0pKCj169FATsCC7OrujoyO2trbFvniu1WrRaDTqEvXVq1cvsFqpVJ8TQoiCzZw5k99++w1FUZgwYQLvv//+I/e1evVqvLy8UBSFIUOGMHv2bANGWjA/Pz8WLlzI3bt3URQFW1tbpk2bplZ9HDBgAGfOnCkz39V9+/ZVk9DKwv781+zatYspU6aoFUoVRcHR0ZGePXvi7OxM48aNqVy5sroqREJCAmFhYZw5cwZfX1+uXr2qVklWFIWlS5fSq1evEt6rJ5tOp2PPnj389NNPBAcHk5aWlm9bc3NzXFxcGDRoEK+++qoke5ZRmzdvZsGCBbmeXzs7O5ycnKhbty6WlpakpKRw7949Ll26xNWrV4F/KpS/+uqrJp3g9+DBA7p37058fDwADRo0YNSoUXTt2jXPBNysrCxOnDjB8uXLCQ4OVj9rfvnlF5ydnU0Wtyg9SuPYIiAgQI11+PDhJRxN/hITE9WJ/+bm5nTs2LGEI/rHxo0b+fPPP0vVuZMrV66wfv16Tpw4QUxMDGZmZtStW5fOnTvj7u4uye1CCCGEEEKUUZLgLoQQQgghhBBlkCRfG58c44JdunSJMWPGEB0drd5nikQhfRKHPCdCCJG3+Ph4XnzxRdLT06lbty5+fn5Fqgabn4yMDLp3787NmzextLTk2LFjRVqZw1ASEhJYvHgxv/32G5D9XePm5oaHhwcff/yxJLiLJ8qWLVvw9PQkMzMzV7J6YXJexilfvjwzZsyQ1WwKERgYyIwZM7h58yZAgcf73485ODjg6elJmzZtTBStMKVVq1axYsUKsrKy1Pvyex/mfO916dKFL7/8EnNzc6PHmNOePXv43//+lyuWcuXK4ejo+FBS/pUrV9RVZfTtBw8ezNy5c00asyg9SmJsMXPmTLp160a7du0e6f0k52IenxxDIYQQQgghRGlhVtIBCCGEEEIIIYQwvI4dOzJ+/Hg++OCDkg6lWNLS0rhz506B1RWfFKX1GJtKkyZN2LlzJ++//z5169YFspMsjP2fEEKIgu3Zs0f9nn3vvfceK7kdspNt33vvPSB7BQ9/f//HjrE4KleujKenJz/88AMODg7odDpOnDhB7969CQ8PN2ksZZGnpydXrlwp6TDKjMGDB7Np0yYcHBxy3V/Usc3TTz/Njz/+KMnthVizZg0jRozg5s2bDx3Dwo6xTqfj+vXruLu7s2bNGlOGLUxk3LhxrF+/nueff169r6D3n7OzM15eXqxYscLkye0A3bp1w9PTk4oVK6oxZWRkcOXKFQ4dOoSfnx8HDx7k3LlzaLVaNXZFUXB3d2fOnDkmj1mIgvz222+MHTsWNzc3Jk2ahK+vL1qttkjbZmRkcObMGSB7DCqEEEIIIYQQomyTCu5CCCGEEEIIIYwmKCgIjUaDVqulbt26dOjQIc+l1H19fVm3bh0XL15UK+nZ29vTrVs33n33XapWrWrq0IWB3b9/n5iYGBITE3NVSzQWV1dXo/8NIcqC5ORkduzYwbFjxwgJCeHBgwdqclRhFEVBo9GYIEphSNOnT8fHx4fy5ctz9OhRbGxsHrvPuLg42rdvT1ZWFm+++SaLFi0yQKTFl5qaytdff83GjRvJzMxEUZQSWdnDx8fHKP16eXkRFRVl0v1p2rQpiqLQsmVL3n77bXr06GHSCv1llU6nY8+ePfz8888EBQWRmpqab1tzc3NcXFwYNGgQ3bp1M8mKOKXZjz/+qH4G6T8D6tWrR8+ePWnZsiWNGzfGxsYGKysrkpKSiIuLIzQ0lDNnzrBr1y4iIiJyfXbMmjWLoUOHlvBeCWOJiooiODiYK1euEBcXR3JyMhYWFtjY2NCwYUNatmyJvb19SYcJwNWrV/nuu+/YvXs3KSkp+barWLEinTt3ZuTIkTg7O5swQmFMZWls0bx5czIzM4F/Vk+oUKECbm5udO3alVdeeQU7O7tc2+h0Os6dO8dXX33FiRMnAHBxcWHLli0mibmsKYsV3BMSEtiwYQPjx48v6VCEEEIIIYQQBiQJ7kIIIYQQQgghDC4kJIRp06Zx+fLlXPdbWloyY8YM+vfvr943Z84cfv31V4CHEioVRcHGxoZVq1bRunVr4wcuhBD/Ibt378bDw4P4+Hjg4c/gwpRkQkR6ejpJSUmkpKRgYWGBlZUVFSpUKJFY9KKjo9myZQvHjx8nIiKCxMREKleuTN26dWnXrh2DBw+mZs2aJRojwOuvv05oaCjOzs5s3brVYP3279+fc+fO0bRpU6MlYRXV+fPnmT17NiEhIYDpX6v6pHBjMHXC/r/3xcrKil69evHWW2/RokULk8TwKOLj40lMTCxSW1tbW6ysrIwcUf7S0tI4d+4ct27dIi4uDq1WS6VKlbCxscHe3p4WLVqUSNXo0uj06dMMGzZMrWBdq1YtZs+eTZcuXYrcx969e1m0aBHR0dHodDrMzMzYtGmT/BYRT4y0tDRCQkJyJeVbWlpSpUoVGjVqRJMmTahYsWJJh1kkt27dIjAwkDt37mBubk6dOnVwc3PD2tq6pEN74pSlsUVsbCx79+7Fz8+PkydPkpGRAfyT7G5mZoaLiwuurq5ERUVx6dIlwsPD1clgOp2O8uXLs379ep577jmjxFhaxvWPqiwluMfGxvLDDz+wefNmtFptqd8fIYQQQgghRG6S4C6EEEIIIcQTLioqitq1az/y9kuXLmXbtm0oisLJkycNGJkQebt8+TLDhg0jPj4+z2RJMzMzvvrqK7p168YPP/zAkiVL1CqJ/6a/v1KlSmzfvh1HR0cT7IEQQpR9v//+O9OmTQNyJ7brE0vymnCUV1tTJBDExsayf/9+Tpw4wZUrVwgPD8+zcqmFhQUNGjSgYcOGuLm58fLLL5tsBZBt27axcOFC0tLSgLyPqbm5OTNmzGDgwIEmiSk/7dq1IzY2lq5du7Js2TKD9TthwgT8/f2xs7Pj2LFjBuu3NNInoRn61HtJVKSfMWMGfn5+JCcn54oDoEmTJrz99tv07t3bpMmIGzZsUOPp2rUrDRs2fKjNggULilzV1c3NjR9++MGgMYqS8fbbb3P27FkURaFVq1asWbPmkV6biYmJvPvuuwQHBwPQsmVLfvnlF0OHK0SZoZ9UAtm/9wsTExODh4cHBw4ceOix8uXLM3jwYCZNmiQrhuRQlsYWOYWEhDB37lz1s1u/fzmT+f+9z/b29syePZuXX37ZKDGVpnH9oyoLCe73799n7dq1/PTTTyQnJ5fo61gIIYQQQghhPOVLOgAhhBBCCCFMLT09nWvXrhEeHk5cXNxD1T9tbGxo0KABjo6OJV4JFKBz5840b96cLl265JvAUZD79+8THx8vS9kLk9DpdEyfPp24uDj1Nefg4ICdnR3Xrl0jNjaWrKws5s6di6urK6tXr0ZRFCpXrszIkSN54YUXqFKlCnfu3GH//v1s2bKFtLQ0tFotHh4erF+/vmR3UIgiiI6O5sKFCyQlJVG5cmXq1atHgwYNSjosUcLS0tKIi4vDxsamxCvxPnjwgHnz5qnVDydNmsSbb77JypUr1USHkJAQtFotkZGRBAQEsHXrVkJCQrCysmLBggX07NnT6HFGRETg5eWFn58fmZmZ6v35JfYkJyej0WjQaDTs3LmTcuXK0b17dyZOnEi9evWMFqePjw9z5swByDPxSJ9skZqayvz587GwsKBv375Gi6cwCQkJAAZP/re1tc3Vv8h+PdSqVctg4/CYmBi1yqmpLF68mNmzZ7Nz505+/fVXzp8/r77GL126xIIFC/jss8/o3r07b731ltEqqeodOnSIxYsXoygKzzzzDO+++26+bYuaBHjixAkOHDhgtEQ5YRqnTp1SEyTr1q3L2rVrH7kyv7W1NevWraNPnz5ERERw9uxZTp06haurq4GjFqL0y8zMpF27diQkJFCuXDn8/PyoW7duvu2joqIYMGAAd+7ceSiZWafTkZ6ezsaNGzl//jxr167FwsLCJPtRWpSFsQVASkoKnp6e/Pbbb2RmZj60P3kllQPUq1ePlStX0rhxY6PEVdrG9aXdnTt3CAgIICYmhrS0NKpVq0arVq0KPPd9//59vv32W7Zu3UpKSor6nADyeSGEEEIIIUQZJAnuQgghhBDiPyE2NpYdO3bw559/EhQUlCtJKj/lypXDxcWFLl260KdPHzVpx9R0Oh0XLlzgwoULeHl54ejoSNeuXenSpQvOzs4Fbnv8+HH8/PxQFIVq1aqZKOK86XQ6/vzzTw4fPsyVK1d48OABlpaW1KhRg7Zt29K9e/fHqlT/XxIXF0dkZCSZmZnUrl37kZ7bw4cPc/bsWQDGjx9vsNgOHz6MRqNBURRsbW1Zvny5muiUmZnJqlWrWLlyJfHx8cyZM4f4+Hhq1qzJpk2bciUfOjo68vzzz9OrVy9GjBhBQkICJ0+eJCQkhKZNmxos3vw8ycdYPLlu376Nh4cHhw8ffuhCeLVq1Rg4cCCjRo2SSoRlRFBQEBqNBq1WS926denQoQOVK1d+qJ2vry/r1q3j4sWLZGVlAdlVB7t168a7775rsgrjOf3yyy8kJyejKAqTJ0/mnXfeybNdpUqVaNy4MY0bN2bQoEGsWbOGL7/8ko8++oikpCT69+9vtBh37NjBnDlzSE9PL1alypxtMzIy2LVrF/7+/ixYsIA+ffoYPM7ExEQWLlwI/JME07RpU1xcXKhSpQrx8fH8/fffXLp0SX184cKFdOnSxaQVr3OysrIiISGBxMREg/ar1WoBSSwBqFOnDpGRkSiKwvLly3FycjJIv3379iUkJMQgfRVHpUqVGDhwIAMHDiQkJIStW7fyxx9/EB8fD2Qnqe3YsYMdO3bg6OhI//796du3L3Z2dgaP5ZtvvlFvL1y4kPLlC77EUdRqt+vWrZME91Lu4MGD6u2ZM2c+cnK7npWVFTNmzGDcuHEAHDhwQBLcS4kVK1YA4OzsTMeOHUs4mrIvKChI/T548cUXC0xuB5g8eTIxMTEoiqJ+RueVRPz333/z9ddfM336dKPFXpqUpbGFTqfjvffe49SpU7me+zp16uDk5MSzzz5Ls2bNSE9Px9fXlwMHDqi/XSIiInjjjTdYuHChwRPLS+O4vrSKiIjA09Mz13d3Tq1bt2bRokW5VnHMyMjg22+/Zd26dSQlJT2U2D548GBGjRplguiFEEIIIYQQpiQJ7kIIIYQQokzLysrim2++Yd26dWrSTVGTpDIyMggMDCQwMJDly5czatQo3nvvvSItt2xIw4cPx9/fn9u3bwNw9epV1qxZw5o1a6hZsyZdunShS5cuPP/889y+fZvLly9z+fJlAgMDOXr0qLq/hk7qio6OBrITXgq7kBMUFMSsWbO4evXqQ49dvHiRQ4cO8dVXXzFy5EgmTZok1ebzceTIEVauXMnZs2dzvY4bNWrE0KFDeeuttyhXrlyR+jp06JBapdeQydd+fn7q7UWLFuWq4lmuXDk+/PBDQkJC2LdvH/v27UNRFObMmZNvZd3mzZszadIkFixYAMDu3buNmuBeGo5xaTFjxgwA2rdvz+uvv17C0Ty6W7duceTIEa5fv45Wq6Vq1arUqlWLF198MdfrNjo6moEDBxIdHZ3n98zdu3dZuXIl/v7+rF27lqeeesqUuyEMKCQkhGnTpnH58uVc91taWjJjxoxcSd9z5szh119/BXKPP27evMm6devYvn07q1atonXr1qYJ/v8dP34cyK5QO2zYsCJtoygKY8aMITk5mdWrV7No0SLatm2Lg4ODwePz9vZm5syZwD/H7emnn6Zt27Y0a9aM2rVr89RTT1GxYkXMzc1JS0sjNTWVO3fuEBUVhUaj4dSpU1y7dg2dTkdaWhrTp09Hp9MZPBHGx8eHxMREdTWSpUuX0qlTp4faHTx4kI8//pj4+Hi0Wi0+Pj4MHTrUoLEUVdWqVUlISFDHcoai78/UkzauX7/O3bt31WNrbW2NjY0N1atXN2rl/oK0aNGCyMhIAM6dO2ewJLQnQdOmTZk7dy7Tp09n9+7d/PrrrwQEBKjv1WvXrrF06VK++uorXnnlFd566y1efPFFg/ztqKgogoKCUBSFdu3a0aJFiyJtt2/fvnwfmzt3LkePHuX06dPcvHmz0MRMU1qwYAFbtmxBURQ0Gk1Jh/PECwgIAMDOzo6XXnrJIH2+9NJLVKtWjfv37xMYGGiQPoXxrVixAkVRGDJkSIEJ7gEBAVy8eBHIPu9Skkrzb6e///4byB4rFha7vuiE/pxP9erVmT59Oh06dKBixYpcvHiR5cuXq+eyNm3axLvvvkv16tWNvh9PurI0tvD29ubkyZMoikK5cuUYPnw4b731Vp5Vu7t06UJKSgp//PEH69evJywsjIyMDGbOnIm5uTmvvfaaweIqjeP60igsLAx3d3fu37//0CoOkP377/Tp0wwfPpyNGzfi6OjIzZs31fOJORPbraysGDJkCCNHjiyRieNCCCGEEEII45MEdyGEEEIIUWZptVomTpyYK8k7Jzs7O6pXr46FhYWaHJWSksLdu3e5f/8+8E9SVWJiIsuWLeP06dN4eXlRqVIlk+3HzJkzmTlzJsHBwfj5+bFnzx6ioqKA7GrBmzdvZvPmzZiZmamVYfX08bdu3ZoJEyYYNK5OnTqpF41nz56db7sDBw4wadIk0tLS8p1coCgKaWlpfPfdd1y5ckWtuCb+8dVXX/Hdd98BD0/SCAsLw8PDg02bNvHll18abanmojh//jwANWvWpHPnznm2GTBgAPv27UOn01GjRg26dOlSYJ/9+vXj888/JyUlRe3fGErLMS4tvL29URSFSpUqFZjosHfvXgIDA1EU5YmqzpeRkYGnpydbt27Nd9WP9u3b4+HhQb169Zg3b546EcnMzIzWrVtTq1YtEhMTuXDhAnfu3EGn03H58mUmT57Mjz/+aMrdEQZy+fJl3N3diY+Pf+hzIikpiXnz5lGlShW6devGDz/8wLZt2wqsHhwbG8vo0aPZvn17rup0xnblyhUURaFly5ZUqFAhzzaZmZl5Tuh5//332bJlC/Hx8Wzfvp3//e9/Bo0tKiqKBQsWqMfMxcWFqVOnPtIkgKCgIJYuXcrff/+NTqdjwYIFuLm5UatWLYPFe+zYMfW2p6dnnkkwkJ0k6enpqU54OnbsWIklwtSpU4fr169z9uxZUlJSDFJxPSUlhbNnz6IoCnXq1DFAlPnT6XTs3r2bXbt2cfr0aeLi4vJta2dnR5s2bejVqxevvvqqUePKycnJiT179gDZSWiDBg0y2d82FXNzc/r06UOfPn24fv06W7duZceOHdy9exeA9PR09uzZw549e6hduzZvvvlmgcnjRZl8kjNRfciQIUWO1d7ePt/HxowZo/5ePHjw4BOXoFacFSz+6+7cuYOiKDg7OxtswrSZmRnOzs4cOHCAmJgYg/Qpnhx+fn7qhOSSTnAvzb+dLly4AGRPa</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAC7gAAAcICAYAAACsf4x4AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdebSd46EG8OeLjIJEhEhUkVyamFrzLETEMidp3LSltGaqqmqo2ZXW0GgMxVWKi5pKJaihSGKWkCpBRhIamYhMEpmz7x9WTqWIJM7J3if5/day7Ozv/d7zbHbevc85z36/olQqlQIAAAAAAAAAAAAAAGVWp9wBAAAAAAAAAAAAAAAgUXAHAAAAAAAAAAAAAKBCKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCIouAMAAAAAAAAAAAAAUBEU3AEAAAAAAAAAAAAAqAgK7gAAAAAAAAAAAAAAVAQFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUBAV3AAAAAAAAAAAAAAAqgoI7AAAAAAAAAAAAAAAVQcEdAAAAAAAAAAAAAICKoOAOAAAAAAAAAAAAAEBFUHAHAAAAAAAAAAAAAKAiKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCIouAMAAAAAAAAAAAAAUBEU3AEAAAAAAAAAAAAAqAgK7gAAAAAAAAAAAAAAVAQFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUBAV3AAAAAAAAAAAAAAAqgoI7AAAAAAAAAAAAAAAVQcEdAAAAAAAAAAAAAICKoOAOAAAAAAAAAAAAAEBFUHAHAAAAAAAAAAAAAKAiKLgDAAAAAAAAAAAAAFARFNwBAAAAAAAAAAAAAKgICu4AAAAAAAAAAAAAAFQEBXcAAAAAAAAAAAAAACqCgjsAAAAAAAAAAAAAABVBwR0AAAAAAAAAAAAAgIqg4A4AAAAAAAAAAAAAQEVQcAcAAAAAAAAAAAAAoCIouAMAAAAAAAAAAAAAUBEU3AEAAAAAAAAAAAAAqAgK7gAAAAAAAAAAAAAAVAQFdwAAAAAAAAAAAAAAKoKCOwAAAAAAAAAAAAAAFUHBHQAAAAAAAAAAAACAiqDgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCAruAAAAAAAAAAAAAABUhLrlDgAAAADAymXatGkZN25cFixYkJYtW2adddZZ5jmee+65DB48OElyyimnVHdEAAAAAAAAoEIVpVKpVO4QAAAAANR+zz//fK6//voMHjw4n/+R03/913/liCOOSLdu3bLaaqst1Vw9evTIXXfdlaIoMnTo0JqKDAAAAAAAAFSYOuUOAAAAAEDtd9VVV+X444/PG2+8kYULF6ZUKlX988477+Tiiy9O586dM3LkyHJHBQAAAAAAACqYgjsAAAAA38g999yTP/7xj1WF9v+06L6RI0emW7du6dOnz4qOCAAAAAAAANQSCu4AAAAALLdp06bld7/7XYqiSJJstdVWuemmmzJo0KD84x//yD333JPDDjssderUSVEUmTNnTs4555zceuutZU4OAAAAAAAAVKK65Q4AAAAAQO314IMPZtasWSmKIrvuumtuvPHG1K9fv+r4Nttsk2222SY/+tGPctZZZ2XkyJEplUrp2bNnpk2bll/+8pdlTA8AAAAAAABUGju4AwAAALDcXnrppSRJ3bp1c+mlly5Wbv+8du3a5S9/+Uv222+/JEmpVMpNN92UHj16rLCsAAAAAAAAQOVTcAcAAABguY0YMSJFUeR73/te1l9//SWObdSoUa655pocc8wxVffdfffdOeecc1IqlWo6KgAAAAAAAFALKLgDAAAAsNymTp2aJNl4442X+pwzzzwzv/rVr6pK7X369Mlpp52W+fPn10REAAAAAAAAoBZRcAcAAADgG5s3b94yjT/uuONy8cUXV/35ySefzCmnnJK5c+dWczIAAAAAAACgNlFwBwAAAGC5rb322kmSiRMnLvO5P/jBD3L55ZenTp3PfkT17LPP5rjjjsusWbOqNSMAAAAAAABQeyi4AwAAALDcWrdunVKplDfeeCMLFy5c5vMPPfTQ9OrVK6uttlqS5JVXXslPf/rTTJ8+vbqjAgAAAAAAALWAgjsAAAAAy23LLbdMksyaNSsDBw5crjn222+/XHfddalfv36S5I033sjf/va3assIAAAAAAAA1B4K7gAAAAAst1122aXq9gMPPLDc8+y111658cYb07BhwyRJqVT6xtkAAAAAAACA2kfBHQAAAIDltv3222ettdZKqVTK3//+93zwwQfLPdcuu+ySW265JWussUaKoqjGlAAAAAAAAEBtoeAOAAAAwHKrV69eunXrlk022SQbbrhh+vTp843m23bbbXP77benadOm1ZQQAAAAAAAAqE2Kkus9AwAAAAAAAAAAAABQAezgDgAAAAAAAAAAAABARVBwBwAAAAAAAAAAAACgIii4AwAAAAAAAAAAAABQERTcAQAAAAAAAAAAAACoCHXLHQAAAACAlV+pVMo777yToUOHZsqUKZk5c2YWLly4VOeecsopNZwOAGqPKVOmZNq0afn0008ze/bsNGzYMKuvvnqaNGmStddeu9zxgJWAdQYAAAAot6JUKpXKHQIAAACAldO8efNyyy235O67785HH320XHMMHTq0mlMBQO0xbNiwPPXUUxkwYEDefffdTJs27SvHNmnSJG3atMnOO++cjh07pl27diswKVBbWWcAAACASqPgDgAAAECNmDp1ao4++ugMHTo0S/MjqKIovjCuKAoFd6Bavf322/n000+TJDvssEOZ08BXGzRoUH7/+9/n9ddfr7pvaV9PF9lmm21y+umnZ/vtt6+RjEDtZp0BAAAAKpWCOwAAAAA14ic/+UkGDBiQJGnevHn23XffvPXWW3nzzTdTFEV+9rOfZebMmRk7dmxee+21TJo0KUVRpFGjRjn88MPToEGDJMkpp5xSzocBrGQ6d+6c4cOHpyiKDBkypNxx4EvdcMMNue6661IqlZaqbLokRVHk1FNPzUknnVRN6YCVgXUGAAAAqGR1yx0AAAAAgJXPCy+8kAEDBqQoimy55Za57bbbssYaa6RHjx558803kyxeXF+4cGGeeuqpXH755ZkwYUJeeOGF/PGPf8x6661XrocArMTs+0Ilu+mmm3LttddWXdmkTp062XnnnbPTTjtl8803T6tWrdK8efM0bNgw9evXz9y5czN79uxMmjQp48aNy5AhQ/LKK69kwIABWbBgQUqlUq699tqsttpqOf7448v98IAKYJ0BAAAAKp0d3AEAAACoduecc0569+6doijy0EMPZbPNNkuS9OjRI3fddVeKosjQoUO/cN7kyZNzxBFHZPTo0dluu+1y5513piiKFR0fWIl17tw5w4YN+8p1CMpp1KhROeSQQzJ//vwkyQEHHJAzzzwzLVu2XOa5JkyYkJ49e+bRRx9NktSrVy8PPfRQWrduXa2ZgdrFOgMAAADUBnXKHQAAAACAlc/rr7+eJPmv//qvqnL70mjWrFl69uyZUqmUf/zjH3n88cdrKiIAVJwHHngg8+fPT1EUOfbYY9OrV6/lKp0myfrrr5/f//73OfbYY5Mk8+fPzwMPPFCdcYFayDoDAAAA1AYK7gAAAABUu0mTJqUoii+U2z+/G/vcuXO/9NwtttgiW265ZZLkkUceqbmQAFBhXnjhhSTJuuuum9NOO61a5jzttNOy7rrrLjY/sOqyzgAAAAC1gYI7AAAAANVu1qxZSZK11lprsfsbNWpUdXv69Olfef6mm26aUqmUESNG1ExAAKhAEydOTFEU2X777VO3bt1qmbNu3brZYYcdUiqVMmHChGqZE6i9rDMAAABAbaDgDgAAAEC1a9y4cZJkzpw5i93/+cL7mDFjvvL8Rbu7T5o0qQbSAUBlWvT616BBg2qdd9F88+bNq9Z5gdrHOgMAAADUBgruAAAAAFS7Vq1aJUkmT5682P1t2rSpuj1o0KCvPH/YsGFJknr16tVAOgCoTOutt15KpVLefvvtap130Xzrrbdetc4L1D7WGQAAAKA2UHAHAAAAoNp95zvfSalUyqhRoxa7/3vf+15WW221JMm9996bmTNnfuHchx9+OO+++26Kosgmm2yyQvICQCX43ve+lyQZOXJkHn/88WqZ8/HHH8+IESNSFEXV/MCqyzoDAAAA1AYK7gAAAABUux133DFJMmbMmHz44YdV9zdr1ix77LFHSqVSxo0blyOOOCJPPvlk3nvvvQwbNizXX399Lrjggqrx++677wrPDgDl0rlz56rb55xzTu6///5vNN8DDzyQc88990vnB1ZN1hkAAACgNihKpVKp3CEAAACoXn369EmStG7dOltvvXWZ0wCrosmTJ2ePPfbIwoULc/755+fwww+vOvbOO++ka9eumTdv3leeXyqV8u1vfzu9e/dO48aNV0RkYBXRuXPnDBs2LEVRZOjQoeWOA1/wy1/+Mo8//niKokiSbLzxxunSpUt22mmntGvXLvXr1//Kc+fOnZthw4Zl4MCB6d27d0aPHp1SqZSiKLL//vunV69eK+phABXMOgMAAABUOgV3AACAlVDbtm1TFEUOP/zwnH/++V85bsSIERkzZkySZJ999llR8YBVxJ133pkPP/wwm2yySbp27brYseeffz6nn356Pvnkky89d+ONN86NN96YjTfeeAUkBSrRog/sVbdrrrkm48ePV3CnYs2YMSM/+9nPMnDgwKry6SJFUaRZs2Zp3rx5GjZsmHr16mXevHmZPXt2Jk2alMmTJ+fzv/ZZdHvnnXfOddddlzXWWGOFPhagMllnAAAAgEqn4A4AALASWtqCe48ePXL33XenKIoMGTJkBSYE+GyX9/vvvz8vv/xyPvzww9SpUyff+ta30qFDh3Tu3HmJO0cCK79F72dqwqKdZhXcqVTz58/P9ddfn//7v//LrFmzvnD8y/5ufNmvexo1apSf/vSnOfnkk1O3bt0ayQrUTtYZAAAAoJIpuAMAAKyElqXgftdddyl4AQAVZ9H7mer+EfaiOb3/oTaYPHlyevfunaeffjpvvPFGFi5c+LXn1KlTJ9/97nfTsWPHdOnSJc2aNVsBSYHayjoDAAAAVCIfowcAAAAAoOK0atWq3BGg7Jo1a5ZjjjkmxxxzTObOnZtRo0Zl9OjRmTp1aj799NPMmTMnDRo0yOqrr56mTZtmk002SevWrV0FBVhq1hkAAACgEim4AwAAAFCR3n///dx444257LLLyh0FKIN+/fqVOwJUlPr166dt27Zp27ZtuaMAKynrDAAAAFAp6pQ7AAAAAAB83rvvvpszzjgjBxxwQPr06VPuOAAAAAAAAMAKZAd3AAAAACrC8OHD87//+7958sknUyqVUiqVUhRFuWMBAAAAAAAAK5CCOwAAAADV5vXXX8+rr76aDz/8MHPmzEnz5s3z3e9+N7vvvntWW221Lz1n5MiRueaaa9KvX78vFNtbtGixIuNTYWbOnJlx48ZlxowZmT9//lKft8MOO9RgKgCAVdezzz6bKVOmJEk6d+5c5jQAAADAykrBHQAAAIBvbPDgwbnwwgszfPjwLz2+wQYb5Morr8z3vve9qvumT5+eyy+/PA899FAWLlyYUqlUdWz99dfPcccdl27dutV4dirLjBkzcscdd+TRRx/N6NGjF3teLI2iKDJkyJAaSkdt8K9//SsTJ05M4sMO1D59+vRJ8+bNs+uuu6ZOnTrljgPwBTfccEMGDx6cRMEdAAAAqDkK7gAAAAB8I4MGDcpxxx2X2bNnL7b7+iKlUikffPBBjjnmmNx2223Zeuut8+abb+bnP/95Jk6cuFiBuVWrVjnhhBPStWvX1KtXb0U/FMrs7bffzkknnZSPPvooSZa53A5Jcvvtt+fuu+/2YQdqpV//+tcpiiLrrLNODjnkkHTu3DmbbbZZuWMBLObL3vMDAAAAVCcFdwAAgJXYyy+/nHPOOecrjy/adS3JEsf9p6Iocumll36jbMDKYd68eTn77LMza9asqpJLqVRKkyZN0qBBg0yZMiXz5s1LksycOTO/+c1v0rNnzxx99NGZMWNG1Tzf+ta3csIJJ6RLly6pW9ePrFZFU6ZMyTHHHJOpU6dW3Ve3bt1suOGGadq0qecFy8SHI6jtJk2alNtuuy233XZb2rVrl65du+bAAw/M2muvXe5oAAAAAAA1rij5ST8AAMBKp23btjW+m9rQoUNrdH6gdnjsscdy+umnV605Rx11VI488si0atUqSTJ//vwMGDAgV155ZYYNG5aiKLLxxhtn9OjRSZLVV189p556ag4//HA7tq/ievXqlZtuuilFUaRx48b55S9/mc6dO6dx48bljkYt06NHj9x1110pisL7FWqdRe/jP/+rm0WvsXXr1k379u3TuXPn7LXXXj74AyyXffbZ5xud/9FHH2Xu3LkpiqLqPf/nFUWRp59++ht9DQAAAAA//QQAAFhJ1eTnmV2KHFikX79+Vbd/9atf5dhjj13seN26dbP77rtnu+22y/e///2MGjUq7733XpJkgw02yJ/+9KdssskmKzIyFerZZ59N8tlrzI033pjtt9++zIkAymejjTbKzJkzM2nSpJRKpRRFkXnz5qVv377p27dvmjZtmoMPPjidO3fO5ptvXu64QC0yduzYxT5Is6zf3y86r1QqZdy4cV845ucFAAAAQHVQcAcAAFgJdenSpdwRgFXEot2RmzVrlp/85CdfOa5Ro0Y54YQTcvbZZ1cVX373u98pt1Plgw8+SFEU2XbbbZXbgVXeHnvskXPPPTfPP/98+vTpk379+mXOnDlVxdIpU6bkzjvvzJ133plNN900Xbt2zUEHHZTmzZuXOTlQWywquX+TD8e7UDgAAABQUxTcAQAAVkKXXXZZuSMAq4hJkyZVlZLr1l3yj5p22WWXJJ+VaTbddNNst912KyIitcTChQuTJK1bty5zEoDKUKdOnbRv3z7t27fPJ598ksceeyx9+vTJP//5zyT/LpaOHDkyV1xxRa688srstttu6dq1a/bee+/Ur1+/nPGBWuDggw/Orrvuukzn3HDDDRkzZkyKosill15aQ8kAAACAVZ2COwAAAADLbcaMGUmSddZZ52vHfn5XWSVm/lPLli0zevTozJ49u9xRACrOmmuume7du6d79+55//3307t37zzyyCMZO3Zs1ZVR5s+fn+eeey7PPfdc1lprrRxwwAHp0qVLtt5663LHByrIUUcdlTvvvDMLFy7M3/72t9SpUydnn312mjVrtlTn33vvvRkzZkwSV48DAAAAak6dcgcAAAAAoPZasGBBknzt7u3JZzvRLrI0hXhWLbvttltKpVLeeuutckcBqGgbbbRRTjvttPTt2zd33HFHunTpktVXXz3Jv3d1nzZtWu6999507949+++/f2666aZMnDixnLGBCnHOOefk3nvvzaabbppSqZSHH344+++/fx588MFyRwMAAACoouAOAAAAwApXFEW5I1BhfvSjH6V+/foZPXp0XnzxxXLHoRbbc889c8opp+RnP/tZuaNAjdtxxx1z2WWX5cUXX8wVV1yRXXfdteo1tlQqpVQq5b333stVV12VDh065JhjjilzYqASbL311undu3dOPfXU1KtXL9OmTct5552XH//4xxk9enS54wEAAAAouAMAAPBFEyZMyODBgzNs2LBMnTq13HEAWAVssskmOeecc1IqlXLWWWdl5MiR5Y5ELdW+ffuccsopOeWUU8odBVaYhg0b5tBDD82tt96a/v375/TTT0/r1q2T/HtX9wULFuSll14qZ0yggtStWzcnn3xyevfunW222SalUimDBg3KoYcemuuuuy7z5s0rd0QAAABgFfb1144GAABglbBw4cLccccdueOOOzJ+/Piq+4uiyFZbbZXjjz8+++yzTxkTApVs5syZGTduXI2Mb9Wq1fLGopb54Q9/mIYNG+aiiy5Kt27d0r179+y33375zne+kzXWWKPc8QBqhRYtWuT444/P8ccfn8GDB6d379557LHHMm3atHJHAypQmzZtcs899+Suu+5Kr169MnPmzFx//fV57LHH8j//8z/ZYYcdyh0RAAAAWAUVpUVbdwAAALBSOfHEE/PJJ58kSS6//PJsuOGGXzl27ty5OeGEEzJgwIB81beJRVHkxz/+cc4999wayQvUTm3btk1RFEs9ftEas7TnFEWRIUOGLFc2apd27dot9udSqbRMz61FPGeA2mzR6+rhhx+e888/v9rmnTdvXvr3758+ffrkhhtuqLZ5gZXLhAkTcvHFF+eZZ56peh/WpUuXnHXWWWnatGmSpHv37nnjjTdSFEWGDh1azrgAAADASswO7gAAACuhd955p+oX0u3atVtiuT1JLrnkkrz88stJPisG/mfJfdF9d955Z9q0aZPu3bvXWHag9lqafRQ+X1i27wKft6jQvujfnissyZgxY/Luu+9m1KhRmTZtWmbOnJk5c+akQYMGady4cZo0aZLWrVunTZs2X/s+CFYF9erVS6dOndKpU6dyRwEq2Prrr58bb7wxjz76aH77299m8uTJ6d27d/r3759f//rXOfTQQ8sdEQAAAFhFKLgDAACshF555ZWq2127dl3i2CFDhuSvf/1rVZFwtdVWS9euXbPnnnumfv36GTZsWO644458/PHHKZVK6dWrVw499NA0bNiwRh8DUHssS/lYUZklWfT88Dzhy4waNSr33ntvnn766YwfP36pz2vZsmU6duyY7t27p02bNjWYEABWDgceeGB22223XHrppXn44YczZcqU/PrXv07v3r0zZcqUcscDAAAAVgEK7gAAACuhN998s+r2vvvuu8Sxd999d1WRsE6dOrn66qvTsWPHquN77rlnvv/97+dHP/pR3n///UyfPj1PP/10DjrooJoJD9Qqffv2LXcEVhLDhg0rdwQq1KxZs/Kb3/wmDz30UBYsWJBk2T4EMX78+Nx55525++6707lz55x77rlZffXVayoufGM+5ANUgqZNm+Z3v/tdDjnkkFx00UUZO3ZsBg4cWO5YAAAAwCqiKPlJKQAAwEqne/fueeONN7LBBhsssXxaKpWy8847Z/r06UmSTp065ZprrvnSsS+88EKOPfbYFEWRzp0757LLLquR7AAAi0yaNCnHHntshg8f/oXSb/PmzdOyZcs0b948DRs2TP369TN37tzMnj07kyZNyvjx4zNp0qTFzimKIm3bts3NN9+c5s2br8iHAktl0ZWYWrRokY022qjMaQA+M2vWrPTq1St33XVXFi5cmOSz19ShQ4eWORkAAACwsrKDOwAAwEpo7NixVQWuJRkxYkSmTZuW5LNfTnfv3v0rx+6+++5Zb7318tFHH2X48OHVmhcA4MucddZZi+3uv+uuu6ZLly7Zaaedst56633t+R9++GFeffXVPPjgg3nxxReTfHa1gLPPPju33HJLjeWG5bXjjjuWOwLAFzRq1CjnnXdeunTp4ucBAAAAwAqh4A4AALASmjFjRpJk7bXXXuK4119/vep2gwYNssMOOyxx/BZbbJH+/ftnwoQJ3zwksFK46aabss8++6RNmzbljgKsZJ5++um89NJLKYoia621Vnr27Jk999xzmeZYb731cuCBB+bAAw/MCy+8kDPOOCNTp07NSy+9lL59+2afffapofQAsPLZfPPNs/nmm5c7BgAAALAKqFPuAAAAAFS/+fPnJ0nq1Fnyt31vvfVWklTt9l6vXr0ljm/evHmSfxfoAXr16pWDDjoonTp1ymWXXZaBAwdmwYIF5Y4FrAQefvjhqtvXXnvtMpfb/9Puu++eq6++uurPDz300DeaDwAAAAAAqBl2cAcAAFgJNW7cONOnT8/kyZOXOG7w4MFVt7fYYoulnr9UKi13NmDlUyqV8q9//St33HFH7rjjjqy11lrZfffd06FDh7Rv3z5rrLFGuSMCtdDQoUNTFEW22mqr7LTTTtUy584775zvfve7eeONNzJkyJBqmRNqyuzZs/PII4/kpZdeypgxYzJjxoysueaa+da3vpVddtklBx98cBo1alTumEAtZp0BAAAAKpWCOwAAFWPEiBEZM2ZMkmSfffYpcxqo3Vq0aJFp06Ytsbg1derUjBw5MkVRJEm++93vfu28U6dOTRJlVaDK9ddfn/79++eZZ57JpEmTkiTTpk3LY489lsceeyyrrbZatt9+++y9997p0KFDNtxwwzInppw+/x6vKIo8/fTTX3rsm/jPeam9PvzwwyTJpptuWq3ztmnTJm+88UY++uijap0XqtNzzz2Xc889Nx9//HHVfaVSKUVR5K233soTTzyRa665Jpdeemnat29fxqRAbWWdAQAAACqZgjsAANXm+uuvT6dOnZa7gHLffffl7rvvTlEUdlOEb2jLLbfMiBEjMn78+AwaNCjbb7/9F8b8/e9/z8KFC5N8VgZcmp1RR48enSRZf/31qzcwUGvts88+VcXkwYMHp2/fvunfv39GjBiRJJk/f34GDhyYgQMH5vLLLxhexwcAACAASURBVE+bNm3SoUOH7L333tlmm23KGZ0yGDt2bIqiqCpPfdmxb+LL5qX2Wn311TN37tx88skn1TrvjBkzquaHSvT888/n5JNPzvz585Okat1MFl/nPv7445x88sn53//93+y5555lywvUPtYZAAAAoNIVJdeVBwCgmrRt2zZFUeTb3/52OnbsmE6dOi3VjtCL/OQnP8mAAQNSt27dvPXWWzWYFFZ+/fv3z0knnZSiKNKmTZvcddddadKkSdXxyZMnp1u3bhk/fnySz3Zvv/fee5c45yeffJIdd9wxSbL//vunV69eNfcAgKUyceLE9O7dO2+//XY+/fTTrLnmmtlwww2zww47ZI899ihr0XfcuHHp169f+vfvn1deeSXz5s1LksUyNWvWLO3bt0+HDh2y2267pVGjRuWKywrStm3bqttFUWTo0KFfeuyb+M95qb26du2aIUOGpEmTJnn22WfTsGHDbzznrFmzstdee2X69Olp165dHnzwwWpICtVnzpw52WeffTJp0qSqwunaa6+drbbaKmuttVamT5+ewYMHZ+rUqVXH11133fTt2zf169cvd3ygFrDOAAAAALWBHdwBAKhWpVIp77//fm699dbceuutWXfddbPPPvtk3333zU477ZTVVlvtC+dMmjQpv//97zNgwIAURbHcO8AD/9a+fftssskmee+99/Luu+/mwAMPzPe///20atUqH3zwQXr37p2PP/64ame2I4888mvn7Nu3b9X4rbfeegU8CmBJ/vrXv6ZHjx6ZM2fOF4796U9/yoYbbphLLrkkO++8cxnSJa1atcoRRxyRI444IjNmzMgLL7yQfv365dlnn820adOSfLYjZO/evdO7d+/Ur18/O+20U9Xu7i1atChLbmpW3759l+sYq6a99947Q4YMyfTp03PRRRfliiuu+MZzXnzxxZk2bVqKokiHDh2qISVUr0cffbSqdFqvXr2cffbZ+cEPfrDY99Lz58/PfffdlyuuuCJz587NpEmT8re//S1du3YtY3KgtrDOAAAAALWBHdwBAKg2w4YNyxNPPJEnnngi7733XtX9i3ZqXWuttbLXXntlxx13zPjx4zNixIgMHz48Y8aMSalUqirO/uEPf0jHjh3L9Chg5fHPf/4zRx11VObNm7fYJcaTf19yvFQqZfvtt8+f//znr53vqKOOysCBA1MURe6///5sueWWNRkfVjmffPJJ/vznP+eZZ57Je++9l08//TRNmzZNy5Yts9tuu6Vr167ZcMMNkyT9+vXLySefXPX3+KvUrVs31113Xfbaa68V9Ci+3sKFC/Paa69V7e4+evToqmOfX6fatWuXDh06pEOHDtl8883LERUos/Hjx+eAAw7I7NmzkyTbbbddzjzzzGW6StQigwcPTs+ePTNo0KCUSqWsvvrqeeyxx7L++utXd2z4Rk477bQ88cQTKYoil1xySQ477LCvHPuXv/wlF154YYqiyH777Zerr756BSYFaivrDAAAAFAbKLgDAFAjBg8enN/85jcZPHjwYvd/vriWZLFSXqNGjXLWWWflhz/84QrJCKuC559/PmeddVamTJnypcc333zz/OlPf0qzZs2WOM9bb72Vbt26JUnWXXfdPP/889WeFVZlw4YNywknnJAPP/wwyb9fHz//ulm/fv2ceeaZ+cEPfpBOnTpl3LhxSZJtttkm3bp1S8uWLfPJJ5/krbfeSu/evTNp0qQkSZMmTdK3b9+sscYaK/hRLZ33338//fr1S79+/fLaa69lwYIFSRZ/7C1atMhee+2VDh06ZM899yxXVKAM7r///lxwwQWLrQkbb7xxdtxxx2yxxRZp1apVmjdvngYNGqRevXqZN29e5syZk0mTJmXcuHEZMmRIXnnllaoP0yxaX3/zm99UvbeBStKpU6f861//SsuWLdO/f/8lji2VSunQoUPGjx+fjTbaKH//+99XUEqgNrPOAAAAALVB3XIHAABg5VIqlXLzzTfnlltuyfTp07+wY/TnC+1FUVQd33DDDXPLLbdU7UwLVI899tgjTzzxRO6///689NJLmThxYurUqZMNN9wwHTt2zCGHHJK6db/+W8P+/ftX7Zbavn37mo5NBZo+fXoWLFiQtddee7nOHzx4cEaNGpUk6dy5c3VGq/VmzZqVn//855k4cWLVffXr189aa62VqVOnZv78+UmSOXPm5Le//W3++c9/Zty4cSmKIl26dMlvf/vbxV5v99tvv5xwwgk56aST8uqrr2b69Ol58MEHc+SRR67wx7Y0Ntpoo/z0pz/NT3/600ybNi3PPfdc+vXrl+effz4zZsxIkkyYMCH33Xdf/vKXv2TIkCFlTgysSIcddliKosjFF19ctR6+9957i10xamks+j6kbt26ufjii5XbqViTJ09OURTZZpttvnbsonHjx4/P5MmTV0A6YGVgnQEAAABqAwV3AACq1RlnnJHHHnssyb9LJPXq1cumm26azTffPJtvvnnmzZuXxx57LG+88UaSz35ZNmbMmHTr1i1XXXVVdt1117Llh5VRkyZNcuyxx+bYY49d7jl+/vOf5+c//3k1pqI2GDlyZG688cY899xzVUXjhg0bZuedd87hhx+e3Xfffanneuihh3LXXXelTp06Cu7/4eGHH86YMWNSFEU222yzXHLJJdl6661TFEXmzp2bl156KVdffXWGDRuWUqlU9TrbrFmzXHzxxV+4OkqSrLHGGrnyyivTsWPHzJ8/Py+88ELFFtw/r0mTJjn44INz8MEHZ/78+Xn11VfTr1+/9O/fPx988EGNf/0XX3wxzzzzTMaOHZuFCxdm/fXXz6677pq999479erVW+p5evTokbvvvjtFUSjkL4NPPvkka6655jee55lnnslee+31zQNRMbp165btttsuV199dZ566qksXLhwmeeoU6dO9t133/ziF79I69atayAlVI+ZM2cmSZo2bbpU4xeNW3Teyuijjz7KvHnzkiStWrUqcxqo/awzAAAAQG2g4A4AQLV56qmn8uijj1b9uVOnTunWrVt23nnn1K9ff7GxRx11VMaOHZsHHngg9913XyZPnpxp06blpJNOyo033phddtllRccH4HPuu+++9OjRIwsWLFjs6huzZs3KM888k2eeeSa77bZbLrvssqy77rpLPe/n5+Iz/fr1S/LZB8Kuv/76fOtb36o6Vr9+/ey1117Zeeed8+Mf/zhvvfVWSqVSiqLIIYcc8oXX189r0aJFtt122wwcODDDhw+v8cdR3erWrZtddtklu+yyS84777yMHDky/fv3r5Gv9cEHH+SMM86o+vDd5913331p2bJlzjjjjBxwwAFLPafn+rI75JBD0rNnz2y//fbLdf7cuXNz2WWX5d57783QoUOrOR3ltskmm+Saa67Jxx9/nH79+mXAgAEZNWpURo8endmzZ39hfMOGDbPJJpukdevW2XnnndOhQ4ess846ZUgOy2bR63ydOnWWavyiD7qtzK87xx13XIYPH+6DY1BNrDMAAABAbaDgDgBAtXnggQeSfPaLr/POOy9HHHHEEsdvsMEG+cUvfpGjjz46Z555Zp555pnMmTMnf/jDHxTcAcroqaeeykUXXfSVxxcVG1588cUccsgh6dWrl3X7Gxg2bFiKosi22267WLn98xo2bJgLL7wwhx12WNV9O+2009fO/e1vfzsDBw7MtGnTqi1vuWy66abZdNNNq33e8ePH5/DDD8+HH374paWdoigybty4/OpXv0r//v1z8cUXp3HjxtWeg8/+Xxx11FE59thjc+qpp2a11VZb6nOHDRuWM844I++8886XXtWAlcc666yTww47bLH1cM6cOZk5c2bmzp2b+vXrp3HjxmnQoEEZUwLVTbEWAAAAAFYtCu4AAFSbt99+O0VRpG3btl9bbv+8NddcM9dcc03233//jBs3LiNHjqzBlLBq+eijjzJv3rwkSePGjdOkSZNlnmPatGlVlyKvX79+mjdvXq0ZVwbjxo1LkqyxxhpZa621ypzmm5k1a1YuvPDCJJ8Ve1u2bJnjjjsu2267bYqiyIgRI9K7d++8+OKLSZIpU6bk+OOPzxVXXLFMu1vzb1OnTk2Sryy3L7LVVltlo402yvvvv5/ks92Mv87cuXOTJAsWLPiGKVdeZ599diZOnFhVit56660Xe74PGDCg6koGf/vb3/LOO+/k5ptvrsi1cNasWZk5c2aaNWv2lTtyzpw5M3369Mlrr72WqVOnpmnTpmndunU6depUIx8gWFYLFy7MTTfdlJdffjlXXnllvv3tb3/tObfddluuuuqqqte7pd2NtJK8/fbb+fTTT5MkO+ywQ5nT1D4NGjRQaAcAAAAAgJWIgjsAANVmUUGvXbt2y3xugwYNstNOO6V3795V5Z7qds455yRJdt111xx88ME18jX4euPHj0/Lli2X+/yePXvm/vvvT1EUGThwYDUmq3lz586tKpuuscYaNf71Ro0alUMOOSQLFixIgwYNcs899yxXwX3s2LH54Q9/WLUr6qOPPvq1RdxVTYcOHVIURQ4//PCcf/75XzluRT8HlsfDDz+cKVOmpCiKtGvXLv/3f/+3WGl/s802y0EHHZT+/fvnwgsvzKRJkzJv3ryceeaZmTFjRv77v/+7jOlrt9mzZ3/tmLZt21YV3Nddd92vHT969OgkqZgPXsycOTPDhg3LlClTMnPmzKXejbVz5841kufVV1/NK6+8kqIo0rBhw/Ts2TMdO3ZcbMz48eNz2WWX5cknn0ySDB06NIcffnhuu+22tGrVqkZyLYuFCxfm9ttvz7333pt//etfST7b8X/ffffNr371q7Ro0aJq7Msvv5wzzjgjkydP/sI81113XQ499NBceOGFWX311VdY/s/70Y9+lLvvvjtFUWTw4MHp3LlzzjvvvHz/+9//0vEfffRRzj777Lz88stVz6VWrVrld7/73YqMXS3OO++8DB8+PEVRZMiQIeWOA1SAUaNGpU+fPks1bpGlGZ/U3OsqULtYZwAAAIBKpuAOAEC1adKkSSZPnpxPPvlkuc6fNm1akporffbu3TtFUaRx48ZLLLg/9dRTGTRoUIqiyK9//esaybIq69ChQ7bYYot07Ngx++67b9q0abNM50+ePDnTp0+v2ml3RRo0aFC222675f7aV1xxRVVxb0WU16666qrMnz8/RVHk3HPPXa4PnyTJ5ptvnvPOOy8XXnhh5s6dm2uvvbZWlgcrwYp+DiyP5557Lslnu7f37NnzK4vRe++9d/7617/m1FNPzeuvv54FCxbkoosuyowZM3L00UevyMi1XrNmzTJ+/Pi89tprKZVKS1xjNt1006qCSaNGjZY473vvvZfBgwenKIqy78z9yCOP5M9//nPefPPNpS61L1IURY0VZB555JGq2xdccMEXyu1J0rJly1x77bXp3bt3Lr744sydOzfvv/9+fvjDH+a2225L69atayTb0pg7d25OPPHEvPzyy0lS9d921qxZeeSRRzJgwIDcf//9adGiRd58882ceOKJmTt37lf+P3jooYfywQcf5NZbb039+vVX2ONY5MILL8yee+6Zc889N5MnT86nn36a888/P88991x69Oix2HrUt2/fnH/++Zk6dWrV4znggAPyP//zP1lzzTVXePbqsKx/N4CV28svv1y1vn+dRe8dFn2o++songKJdQYAAACobLXver0AAFSsTTfdNKVSKS+++OKX7gy6JBMmTMiLL76YoiiywQYb1FDCpTNgwIDcfvvtuf3228uaY2VVKpXy9ttv55prrslBBx2U/fffP7169crgwYO/9tyXX345TzzxRIqiyDrrrLMC0i7uiCOOyO67754LLrggzz77bObNm7dM5y8q4a2IAttHH32Ufv36pSiKbLbZZt94V+3//u//zne+852USqU8/vjjVR9IYdmtqOfA8ho6dGiKosjWW2/9tR9AWW+99XLnnXfmgAMOSPLZY+vZs2f+8Ic/rIioK42tttoqyWc7hf/pT39a4thTTjkljzzySB555JElFuEXLlyYCy64oOrPHTp0qJ6wy2j27Nk58cQTc9ZZZ2Xw4MFZuHBh1d+B//wnyRKP1YTXX389SbL++uuna9euSxzbpUuX/PnPf84666yToigyceLEHHHEERk6dGiN5fs6V1xxRV566aUkXyxHl0qlfPjhh/nFL36RJLnooosyZ86clEqlbLTRRvnBD36QE044IV26dMl6661Xdc4//vGP3HDDDSv2gXzOXnvtlYcffji77bZb1X1PPvlkDjnkkLzyyiuZPXt2LrzwwpxyyilVr6uNGzfO5Zdfnl69etXacjs145JLLsmRRx6Zo446qtxRYJl91Wvikl4nl2UsgHUGvui1117LnXfemT/+8Y+5++678/zzz2fGjBnljgUAALBKsoM7AADVZv/998+AAQMya9asnHjiibnqqquWqqz+8ccf52c/+1nmzJmToiiyxx57rIC0lMuRRx6ZJ598MhMmTEiSjB49OjfffHNuvvnmtGjRIh07dkzHjh2zww47ZMKECRkxYkRGjBiRQYMG5cUXX6z6Zemhhx5alvwff/xxHnjggTzwwANp3Lhx2rdvn44dO6Z9+/ZZffXVv/K8Bx98sKqc37JlyxrP+cQTT2TBggUpiiInnnhitcx5wgkn5PTTT8/8+fPzxBNPpHv37tUyL5VlypQpSbLUu1LXq1cvvXr1SpMmTXLPPfekVCrlhhtuyMyZM10FYykdeOCBefLJJ5MkvXr1ytChQ3PYYYelXbt2adq06TLP9+mnn+ass87Kq6++mqIosvHGG+ewww6r7thL5bzzzsszzzyTJGnQoEF22mmnfPDBBxk1alTVzuwzZ87M2LFjM3z48KqrTjRq1CidOnWq8at1TJw4MUVRZJtttlmq8VtttVXuueeeHH300fnggw8yefLkHHXUUfl/9u48LKqyjeP496AiqyDuooRbmiKKGqKllmlqrmXmlqKZZr6mprnmgqGY2YZrZZqaWmkKZiJi7rmCiRui4IqC4MYOss37B9ecIHaZGUDvz3V1Nc6c83DPMHPOMPN77ueHH36gZcuWeq31v27evMkvv/yCoihoNBreeust+vfvj42NDaGhoSxfvpzLly9z9uxZNm7cSFBQEEZGRkybNg1XV9dsj21qairffvsta9asQaPRsHbtWkaOHImVlZVB75NW1apVWbNmDevWrePrr78mJSWFu3fvMmLECKpVq0ZUVJT6fqBly5YsWbKEunXrlkitonS7ePEiZ8+eLZGVf4R4UrVr1y7pEoQQTzk5zgiRU3BwMNOmTSMkJCTHbeXKlaN3795MnjyZatWqlUB1QgghhBBCCPFskoC7EEIIIYTQmf79+7Nu3Tpu3LjB+fPn6d69Oz179qR79+44OjpiY2OjbpucnMyVK1fYt28fv/zyC3FxcQCYmJgwePDgkroLwgBmzZrFrFmzCAwMxNfXlz179hAREQFkdvLftGkTmzZtwsjIiIyMjGz7asNsrVq1YsKECQavfebMmezZs4czZ86g0WiIj4/Hx8cHHx8fjI2NadeuHV27dsXZ2ZmIiIhs4fzr16+j0WhQFIVBgwbpvdYzZ84AmeHjTp066WTMV155hQoVKpCWlkZAQIAE3J9SaWlpAEUOA86bNw8LCwtWr14NwPr160lMTOSzzz7TeY1Pm27dutG2bVtOnjyJoijs3r2b3bt362RsjUbDjRs3aNWqVZ7bKIpCUFCQTn5eVmfPnmXXrl0oioKdnR1r167F1tYWd3d3rl27BsCiRYvU7ePj49myZQsrVqwgMTGRBw8e8M0332BhYaHz2rQSEhIAitT1u27dumzatIn33nuP0NBQYmNjGTlyJKtWrcLFxUVfpebg5eVFRkYGiqIwcuRIpk+frt5Wr1492rVrx5tvvsnt27f56quvUBSFUaNGMWLEiBxjVahQgalTpxIVFcXOnTtJTU3Fx8enxN+TjRgxAhcXFz755BNCQ0PJyMggMjISgPLlyzN27FjGjRuHkZEsUimEeHrs37+/pEsQQjzl5DgjnhWnT5/m4MGD3Lx5k4SEBKytralVqxYvvfQSzs7OlCtXDoCrV6/y7rvvkpCQkOsqBGlpaXh7e3P06FE2bNiAvb29ge+JEEIIIYQQQjybJOAuhBBCCCF0pnz58ixbtoyhQ4cSGxtLamoqO3bsYMeOHUBmeN3MzIzk5GSSkpLULwy0/1cUhblz51KzZs0Suw/CcKpUqUJSUhKpqak5grQajYb09PQc+9jZ2TFu3Dh69+6tfgllSK6urri6uhIZGYmfnx9eXl5qKPTx48ccOnSIQ4cO5dgv65djPXr0YPTo0Xqv9dKlSyiKgoODQ76d5YvCzMyM5s2b888//3Dp0iWdjClKHysrKx48eEBUVFSR950yZQpmZmZ4enqiKApbt24lKSmJxYsX66HSp8vy5cv55JNPcj2GPAlFUbIdW3P7kl7fvLy81MseHh4FrupiYWHBe++9R+fOnRk+fDh///03s2bNYunSpXqr0czMjLi4OHXlgsKqXr06Gzdu5L333iMoKIikpCQ++OADPD09eeWVV/RT7H+cPn0ayOyMP378+By3W1hYMGrUKNzc3EhKSsLExKTA88+ECRPYuXMnAP7+/iUecAewsbGhSpUqhIaGqs9pjUaDra0tPXv2NHi4/bXXXtPLuE9yzH0W+Pv7F2v/+Ph49XJAQECux8IXX3yxWD9DCCGEEEKULvHx8UyZMoXDhw/nevuaNWto0KABHh4eODo68umnn6rvGy0tLencuTM1a9YkPj6eCxcucPbsWTQaDVFRUUyYMAFvb2+ZZCuEEEIIIYQQBiABdyGEEEIIoVMNGzZk/fr1TJ48mWvXrmULkSQlJZGUlJTrftWqVWPevHl06dLFUKWKErR3716mTZtGcnIykD14WbFiRZ5//nlSU1MJDg4G/u0kHRYWxpEjR3jttdeK1G1X1+7cucPhw4cJCQkpdIDUzs4Od3d32rZta4gSefjwIQA1atTQ6bja8e7fv6/TcUXpUa9ePe7fv8+5c+eeaP8PP/wQU1NTPv/8cxRF4c8//yQpKSnbKh4iJ0tLS77//ntOnDjBH3/8wblz54iMjCQhISHHahaFURKB9v/SBrDt7Oxo3bp1ofezt7dn8eLFjBw5kr1793Lw4EG9hcZr1apFbGxsrsvQF8Ta2poNGzYwevRozpw5w+PHjxk/fjxffPGFHirN6fr16yiKQosWLTA3N891m/bt2wOZ59HmzZtTqVKlfMesW7cujRo1IiQkRD0Hl6S//vqL2bNnExMTg6Io2SZF3rp1i7feeosZM2YYdEWRO3fu5KhF6M+wYcN08hhrNBqGDRuW43p9rWAhhBBCCCFKzkcffcTx48fz3SY0NJQRI0YwZcoUAgMD1SYR33//fY7PL86ePcvEiRO5e/cuISEh7Nmzhx49eujzLgghhBBCCCGEQALuQgghhBBCD5o0aYK3tze7du1ix44dnDt3jsTExBzbmZqa4uDgwBtvvEGfPn3yDGeJp8vNmzf55JNPePz4MZDZPbdTp0507NiRZs2a0aBBA7U7+7Vr1/Dx8cHLy0sNlPn4+HDjxg3WrFmDtbW1wevfuHEjHh4eua5AYGdnR9OmTUlNTeXIkSOkpKSot4WFhfHtt9/y7bff6jx0npuEhASAAsOMRaWdWJC1I6p4ujRt2hR/f39iY2MJDAykZcuWRR5jxIgRmJqa4ubmBsC+fftKZNWFssjFxQUXF5eSLkMnoqKiUBSFF154Idv1WcOqKSkpGBsb59i3Xbt2NGrUiNDQUP744w+9Bdyff/55Ll++zI0bN4iKiqJ69epF2t/CwoK1a9cyduxYTp48SVpaGlOnTqVu3bp6qTer2NhYAOrUqZPnNllXxclvu6waNmxISEgIDx48KF6BxZCcnIyHhwdbt24FMs+1FhYWzJs3DxsbG6ZPn879+/dJSkrCzc2Nw4cPs2DBAipXrmywGrUh99IwmeRZkPVx1tWkAvndCSGEEEI8fQ4cOMDx48dRFAVTU1PGjh1LmzZtqFy5MpGRkRw6dIjffvuNpKQkEhMTWbBgAQDGxsYsW7Ys18n5LVq04Ntvv2XQoEFA5kRcCbgLIYQQQgghhP5JwF0IIYQQQuiFsbExb775Jm+++SYajYbw8HBiY2NJTEzE1NSUSpUqYWtrK10vn0Hr1q3j8ePHKIqCi4sLixcvzjNQWL9+fcaPH8+4ceP4888/WbhwITExMQQFBeHh4WGwLrlaFy9exMPDQ+2mXKtWLXr27EnHjh1p2rQpFhYW6rbx8fHs3buXbdu2ERAQgKIonDlzhiFDhrB+/fpCBw2flLm5ObGxscTExOh0XG2gUiakPL3atWvH+vXrAdi+ffsTBdwBBg4ciImJCbNmzSIjI4O0tDRdlinKAO1Em/9ORqpYsaJ6OT4+Ps/u/k2bNiUkJISLFy/qrUZnZ2d27twJwM6dOxk1alSRxzA1NWX16tWMHz+ew4cPk56ezs2bN3Vdag7ac1GFChXy3Cbr5IHCHre1E6O0vz9DCwoKYsqUKdy4cUMNIDs5ObFkyRL13Llz504+/fRT9u/fD8D+/fvp06cPn3/+OS+99JJe6zMxMVEn6U2ZMoWqVavqZNylS5cSERGhk7GeRlm75j9pMF0C7eJpd+vWLSIjIwF48cUXS6QGf39/vYyb24R5IYThlYbjjBAF+fPPP9XL33//fbbnar169XBxceGdd95h+PDh3L9/H41Gg6IodOvWLdsE4f9q2bIlTZs2JSgoiAsXLuj1PgghhBBCCCGEyCQBdyGEEEIIoXeKomBra4utrW1JlyJKAe0SwTY2NixdulTtCJ4fIyMj+vTpQ+PGjRkwYAApKSmcOHFC36Xm8PPPP5ORkYGi/r6B8AAAIABJREFUKPTq1YvPPvsMU1PTXLe1sLBQJ3mcPn2aGTNmEBYWRnh4OIsWLWLFihV6rdXGxobY2Fidh+W04xmyS64wrLZt22JqakpycjI7d+5k0qRJeQaQC9K3b19MTU2ZMmUKaWlpEi58xpiYmJCQkJBjckPWlSXCw8PzfH5pny9RUVF6q7F9+/bq5S1btvDee+890eQ7Y2NjVq5cyeTJk/Hz89NliXnSTmTS9Yoa2t9XSay68OOPP+Lp6akeL8qVK8fYsWP53//+h5GRkbpd5cqVWblyJb/++iuLFy8mOTmZe/fuMXr0aIYNG8aUKVNyXRlAF5o0aUJgYCCKolC/fn1ee+01nYy7fv16CbjnwsjISD0W9O7dm5kzZxbpnDRw4EDOnj2LoihcunRJX2UKUSqsX7+ezZs3oygKQUFBJVLDsGHDZBK7EE+x0nCcEaIgFy5cQFEUHBwc8pyIUa9ePWbPns3EiRPV81bHjh0LHLtx48YEBQVx//59ndYshBBCCCGEECJ3EnAXQgghhBBCGNTdu3dRFIXWrVsXKtyeVePGjenYsSN//fUXDx8+1FOFedN2JKxVqxYLFy4sdHiudevWrF+/nj59+hAfH09gYKA+ywTAzs6O69evc/HiReLi4or8WOcmLi5O/aLQzs5OB1U+fa5du4a3t3e+t2vlt11u+vXr98R1FYWpqSmvvfYafn5+pKens2bNGqZOnfrE473++uusWLGCCRMmkJycrMNKRWlXq1YtQkNDiY6Ozna9vb29ejkwMBAHB4dc9w8NDdVneQDY2trSvHlzzp8/z61bt9ixY8cTv9bKly/Pt99+y6xZs4r8+n4SNWvWJCYmhtu3bxe4bVEml2hX/tDFeaOovvzyS7VTd+3atVmyZAmtW7fOc/tBgwbh7OzMJ598QlBQEBkZGWzYsIETJ06wY8cOvdTYvHlz9Tx+/vx5nQXcRe62bt3K7NmzuXTpEn/++SdHjhxh6tSp9O/fv6RLE6JUksmEQgh9k+OMKO3u3bsHZIbY89O1a1eqVKnCgwcPUBSF559/vsCxtZOAtSs6CSGEEEIIIYTQLwm4CyGEEEKIZ463tzcHDhzI83ZtsAsoUmhJURT++uuvYtX2LNB2YDU3N3+i/S0sLACoUKGCzmoqrHv37qEoCk5OTkXuDFu7dm06dOjA7t27sz3H9KVdu3YcOnSI9PR0vLy8GD58eLHH9PLyIj09HUVRsnU9Fv86fvy4ukpBXrTdwWbOnFmksQ0VcIfMkKkudezYkQMHDpCYmKjTcUXp9vzzzxMSEsL169ezXe/o6Ki+Dn777TcGDRpE+fLZP6L6+++/CQoKQlEU6tatq9c6P/vsM7XGatWqFWssIyMjPv/8cxwdHfU+Eeu5557j8uXL2SbO5ObQoUMAmJmZFWrc0NBQFEWhTp06xa7xSWg0Gnr27Mn8+fPVc35+6tevz2+//cY333zDunXryMjI4MqVK3qrr3nz5url8+fP6+3niEzNmjXj999/Z82aNaxYsYLo6Ghmz56Nt7c3n332WYHBJSGE4Un4VQghRElKSUkByPE35n8ZGRnRvHlzDh48CGRO0C5IeHg48OSfaQohhBBCCCGEKBoJuAshhBBCiGdOQkICCQkJ+W6jDd5pv7goiEajkaXYC8nW1paQkBD++eefIu+bkZHBqVOnAKhSpYquSytQxYoVSU1NVUP6RaXt9FSxYkVdlpWrTp06sXjxYgBWrVpFr169sLGxeeLxHj58yHfffZdtfJFTYQI92mNFUcI/T8PxpXLlylSuXLmkyxAG1KZNG3bt2sX169eJjo7G2toayAwOtG7dmoCAAEJDQxk3bhyTJk2iUaNGJCcns2/fPj7//HN1nFdffVWvdb7wwgu88MILOh1zyJAhOh0vN88//zx+fn7ExcVx9epVGjRokOt2NWrUKPSYDx8+5NatW+r4hmZubs68efPo06dPkfarUKEC06ZNo0OHDkyfPl3t2qgPWQPuFy5c0NvPEf8qV64cY8aM4fXXX2fOnDn4+/sTEBBA3759GTNmDB988EGJTHwUQuQUHBxc0iUIIYR4xllbW/PgwYNCnZOqVq2qXjY1Nc1325iYGAICAgwyCVsIIYQQQgghRCYJuAshhBBCiFJjzpw53Lx5E0VRWL9+vV5+hnSTK3kdOnQgJCSEW7dusXz5csaPH1/ofT09PQkPD1e7qBta3bp1CQoK4tSpU6Snp6uB9cJ4/Pgxx48fR1GUbF+g6Uu9evXo2rUrfn5+REdH8/7777Nhw4ZCdcP9r/j4eEaPHs3Dhw9RFIWuXbtKx9T/qF27dkmXIESuDHFuzUunTp1QFAWNRsPBgwezrUIwZcoUNQR+5MgRjhw5kusYlStXxtXV1SD1ljUtWrRQL//99995BtyLYs+ePWRkZKAoCi1btiz2eEXl7e1drLBIu3bt+OOPP5g7d64Oq8quXr16mJubk5CQQGxsLGFhYToJuDg4OGBpaamDCp9e9vb2/Pzzz/z22298+eWXxMXFsWLFCnbt2sX8+fNxdnYu6RKFEEIIIUQJa9iwIffv3+fSpUv8/fffvPzyy3lu++mnnzJlyhSg4I7vS5cuJSUlBUVRaNeunU5rFkIIIYQQQgiROwm4CyGEEEKIUuP8+fMEBwfrrVPxokWL9DKuKJp3332XzZs38/jxY1asWMGZM2cYM2YMbdu2zXOfmzdv4unpye7du9Xr+vbta4hys+ncuTNBQUFERUXh5uaGm5tboULuGo0GNzc3Hjx4gKIo+d5XXZo4cSKHDh0iJSWFoKAgevXqxfz584vUff3QoUO4ublx9+5dAIyNjZk4caK+Si6z9u/fX9IlCJErfZ9b81O7dm1GjBhBZGQkDx8+zHabk5MT7u7uuLm5kZaWluv+NjY2rFy5slirTzzNnJycGDp0KIBOgtEZGRls2LBB/fdLL71U7DGLShdBcWtra5YuXaqDavK2fv16EhMT1Z+nCwsWLNDJOAWJjIyke/fuJCcnY2RkxOrVq2nfvn2Rxzl69CijR49Go9Fgbm6On5+fwV6rAwcO5NVXX2X+/Pns27eP69ev4+rqSr9+/Zg+fbrOfifi6ZSamsqFCxe4c+cOMTExxMfHY2FhgZWVFba2tjg4OMiKAEIIIUQZ9uqrr3LixAkg83OxqVOn0q9fP0xMTHJsa2pqWmDndoC1a9eyadMmACwsLNS/w4QQQgghhBBC6JeikRaWQgghhBCilOjXr58awrt06VJJlyP0aNOmTbi7u2cLXNrY2ODg4ECdOnUwNTUlOTmZBw8ecPnyZa5fvw7824H/9ddf13t4LTePHj2ie/fuxMbGAlC/fn1GjRpF165dcw0XZmRkcOLECZYtW0ZgYCAajQZFUfjtt99wdHQ0SM27du1iypQpahdlRVGwt7enZ8+eODo60qhRIywtLdVutHFxcYSGhnL27Fl8fHy4fv26+rgrisKSJUvo1auXQWoXZcuGDRv466+/SqRTuMhbaT+3Xr16lXXr1nHixAmioqIwMjKiTp06dO7cGVdX1zIbbvf391cf7+HDh5dwNYUTHx+vBkGMjY3p2LFjCVck9GHWrFls374dRVGYMGECH3744ROPtWrVKjw9PVEUhaFDhzJ79mwdVlo4vr6+LFiwgPv376MoCtbW1kyfPl1dMWLgwIGcPXu21B4DhWFoNBr27NnDL7/8QmBgICkpKXlua2xsjJOTE4MHD+b1118vkQliT8rd3Z1NmzbJ810IoTdynBFlQXJyMj169FAbNUBmd3Z7e3usra2LfG5PSEggKChI/UytatWq+a5qKJ+JCCGEEEIIIYTuSMBdCCGEEEKUGqU9hCd0a+XKlSxfvpyMjAz1ury+ZMr6Z0uXLl34+uuvMTY21nuNudmzZw8ff/xxtprKlSuHvb19jnD+1atX1Q6v2u2HDBnC3LlzDVrz5s2b8fDwID09PVtYvSBZ72P58uWZOXOmdKkSeZKwQ+kk59YnM2vWLLp160a7du2e6HwjrwdRGsXGxvLyyy+TmppKnTp18PX1LdRKNHlJS0uje/fu3L59G1NTU44dO1aoDpi6FhcXx6JFi9i+fTuQ+R7HxcUFNzc3pk2bJgH3Z1xAQAAzZ87k9u3bAPm+F/7vbXZ2dnh4eNC6dWsDVVs8cu4RQuibHGdEWXH58mXGjBlDZGSkep0hJq1pQ/Dy+hBCCCGEEEII3TAq6QKEEEIIIYQQz6Zx48axbt06XnzxRfU6jUaT638Ajo6OeHp6snz58hILtwN069YNDw8PKlasqNaWlpbG1atXOXToEL6+vhw8eJDz58+TkJCg3gdFUXB1dWXOnDkGr3nIkCFs3LgROzu7bNfn9Xj/dx70c889x88//1wqwu0eHh5cvXq1pMsQQjzltm/fztixY3FxcWHSpEn4+PiQkJBQqH3T0tI4e/YskDk5SIjSYs+ePWrn6g8++KBY4XbIfH5/8MEHQGanTD8/v2LX+CQsLS3x8PDgp59+ws7ODo1Gw4kTJ+jTpw/Xrl0rkZpE6bB69WpGjBjB7du3c7y/Lej9r0aj4ebNm7i6urJ69WpDlv3EOnbsyPjx4/nf//5X0qU8sZSUFO7du5dvl30hRMl5Go4z4tnQuHFjdu7cyYcffkidOnWA/D8D09V/QgghhBBCCCF0Szq4CyGEEEKIIvP29tbLuJ6enkREREinm2dQREQEgYGBXL16lZiYGJKSkjAxMcHKyooGDRrQokULbG1tS7rMbK5fv84PP/zA7t27SU5OznO7ihUr0rlzZ0aOHImjo6MBK8xJo9GwZ88efv31V86cOcPjx4/z3NbY2BgnJycGDx5Mt27dDNLpqjCaNGmCoii0aNGCd955hx49epRIt1iRk3TzKx45t+YuLi6O9evXM378eIP+3GbNmpGeng782+mvQoUKuLi40LVrV1577TVsbGyy7aPRaDh//jzffPMNJ06cAMDJyYnNmzcbtPanRVJSEjt27ODYsWMEBwfz6NEjdeJYQRRFISgoyABVli0zZszA29ub8uXLc/ToUaysrIo9ZkxMDO3btycjI4O33nqLhQsX6qDSJ/f48WO+/fZbNmzYQHp6OoqiSCfNZ9TPP/+sPh+1z4O6devSs2dPWrRoQaNGjbCyssLMzIzExERiYmIICQnh7Nmz7Nq1i7CwsGzPn08//ZR33323hO9V2XPmzBmCgoJISEigTp06dOjQAUtLyxzb+fj4sHbtWi5duqSu8GVra0u3bt14//33qVy5sqFLF0II8RR5+PAhUVFRxMfHZ1tJUl+cnZ31/jOEEEIIIYQQ4lkgAXchhBBCCFFk2oCpPpTWAMqdO3cICAjg3r17GBsbU7t2bVxcXLCwsCjp0kQJS0lJITg4OFs439TUlEqVKtGwYUMaN25MxYoVS7rMHFJSUjh//jx37twhJiaGhIQEzM3NsbKywtbWlubNm5dop/y8/Pf4Y2ZmRq9evXj77bdp3rx5CVZWeLGxscTHxxdqW2tra8zMzPRckW5IwL14nsVza36io6P56aef2LRpEwkJCQavPTo6mr179+Lr68vJkydJS0sD/g27GxkZ4eTkhLOzMxEREVy+fJlr166pE4c0Gg3ly5dn3bp1tGnTRu/1RkZGsnnzZo4fP05YWBjx8fFYWlpSp04d2rVrx5AhQ6hRo4be69CV3bt34+bmRmxsLECRuyEa6vle1h733r17ExISgqOjI1u2bNHZuAMGDOD8+fM0adJEb5N1iurChQvMnj2b4OBgwHDPieJITU0lMTGR5ORkTExMMDMzo0KFCiVdVpl0+vRphg0bpnZTrVmzJrNnz6ZLly6FHmPv3r0sXLiQyMhINBoNRkZGbNy4kVatWumx8qdHcHAw06dP58qVK9muNzU1ZebMmQwYMEC9bs6cOfz+++9AzuO9oihYWVmxcuVKeeyFEEIIIYQQQgghhHjGSMBdCCGEEEIUmTaEp+u3kobosJh1yVgjI6MCt4+KisLNzY0DBw7kuK18+fIMGTKESZMmSQdpIQxk5syZ+Pr6kpSUpF6nDZw2btyYd955hz59+pTY5JP169ertXXt2pUGDRrk2Mbd3b3QHZ1dXFz46aefdFqjvkjAvXjK8rlVlx4+fMiaNWv45ZdfSEpKKhW1BwcHM3fuXM6dO5ftd5R1QsJ/f2+2trbMnj2bV199Ve/1bd26lQULFpCSkpKjFm2NxsbGzJw5k0GDBum9nuL6448/mD59OpD7fckt/Jjbtvp+zpTFx71du3ZER0fTtWtXli5dqrNxJ0yYgJ+fHzY2Nhw7dkxn4z7NoqOj2b9/PydOnODq1atcu3Yt1xWBTExMqF+/Pg0aNMDFxYVXX31VOlkXwjvvvKMes1u2bMnq1auf6L1hfHw877//PoGBgQC0aNGC3377TdflPnWuXLnCsGHDiI2NzfV9jZGREd988w3dunXjp59+YvHixXm+B9Jeb25uzrZt27C3tzfAPRClQUREBLVq1Xri/ZcsWcLWrVtRFIWTJ0/qsDIhhBBCCCGEEEIIYSjlS7oAIYQQQghRdimKQs2aNXXWcTYqKkrtkKoP6enptGvXjri4OMqVK4evry916tTJc/uIiAgGDhzIvXv3coTZNBoNqampbNiwgQsXLrBmzRpMTEz0VrsQItOiRYuYPXs2O3fu5Pfff+fChQvq6/Py5cu4u7vzxRdf0L17d95++22DdE7WOnToEIsWLUJRFJ5//nnef//9PLctbIj5xIkTHDhwwCAhWVE6lLVza27u3buHv78/UVFRpKSkUKVKFVq2bJnrhA+thw8f8v3337NlyxaSk5PVYDtQYufX5ORkPDw82L59O+np6Tl+J7kFmgHq1q3LihUraNSokd5r9Pb2Zs6cOWoN/z22aB/Hx48fM3/+fExMTOjXr5/e63pSjx49Yt68eWoH/EmTJvHWW2+xYsUKdQJNcHAwCQkJhIeH4+/vz5YtWwgODsbMzAx3d3d69uyp9zrL6uMeFxcHoPOAtLW1dbbxRd7CwsLw9PTE19eX9PR09fq83hckJSURFBREUFAQO3fupFy5cnTv3p2JEydSt25dQ5Vdppw6dUoNt9epU4c1a9Y88Wo4FhYWrF27lr59+xIWFsa5c+c4deoUzs7OOq766aHRaJgxYwYxMTHqudHOzg4bGxtu3LhBdHQ0GRkZzJ07F2dnZ1atWoWiKFhaWjJy5EheeuklKlWqxL1799i/fz+bN28mJSWFhIQE3NzcWLduXcnewadUSkoKMTExWFlZlZpVvDp37kyzZs3o0qVLnhOH8/Pw4UNiY2P1tkKSKJsiIyO5ePEiiYmJWFpaUrduXerXr1/SZQkhypDU1FRu3LjBtWvXiImJybECk5WVFfXr18fe3l5WYxJCCCGEEEIHJOAuhBBCCCGKrHbt2oSHh6MoCsuWLcPBwUEn4/br14/g4GCdjJWbM2fOEBsbC8DLL7+cb7gdYPLkyURFRaEoihpeyi3A9M8///Dtt98yY8YMvdVeFi1fvhwAR0dHOnbsWMLViKeJubk5gwYNYtCgQQQHB7Nlyxb+/PNP9fWdnJzMjh072LFjB/b29gwYMIB+/fphY2Oj17q+++479fKCBQsoXz7/P7kL26177dq1EnB/BpTVc2tWYWFheHh4cPDgwVxvb9WqFQsXLszWfTUtLY3vv/+etWvXkpiYmCPYPmTIEEaNGmWA6rPTaDR88MEHnDp1KtvrtHbt2jg4OPDCCy/QtGlTUlNT8fHx4cCBAyQlJaEoCmFhYbz55pssWLBAr6Hm+Ph4FixYAPx7PGnSpAlOTk5UqlSJ2NhY/vnnHy5fvqzevmDBArp06VJiq1wU5LffflMfx8mTJ/Pee+/lup25uTmNGjWiUaNGDB48mNWrV/P111/zySefkJiYyIABA/RWY1l+3M3MzIiLiyM+Pl6n4yYkJAAlNxmlrNixYwdz5swhNTW1SKt1ZN02LS2NXbt24efnh7u7O3379tVHqWVa1nPQrFmznjjcrmVmZsbMmTMZN24cAAcOHCiRgHtMTAzh4eGkp6dTq1YtqlSpUuQxDh8+zLlz5wAYP368rktUf0ZQUBCKomBtbc2yZcvUCafp6emsXLmSFStWEBsby5w5c4iNjaVGjRps3Lgx26QNe3t7XnzxRXr16sWIESOIi4vj5MmTBAcH06RJE73U/jQ5c+YMQUFBJCQkUKdOHTp06IClpWWO7Xx8fFi7di2XLl0iIyMDyFyFplu3brz//vslumKERqPh4sWLXLx4EU9PT+zt7enatStdunTB0dEx332PHz+Or68viqI80WvlWVVWjjNP4u7du7i5uXH48OEc5+AqVaowaNAgRo0aJaszCiFyFR0dzY4dO/jrr784c+ZMtomqeSlXrhxOTk506dKFvn37qpOCSxuNRsNff/3F4cOHuXr1Ko8ePcLU1JTq1avTtm1bunfvXqwVVYQQQgghhCguCbgLIYQQQogia968OeHh4QCcP39eZyE8ffvnn3+AzDBS7969891W+4G1NmRXtWpVZsyYQYcOHahYsSKXLl1i2bJlHD16FI1Gw8aNG3n//fepWrWq3u9HWbF8+XIURWHo0KH5Btz9/f25dOkSAMOHDzdUefmaOXMmAO3bty/wufK0cXd3Z/PmzSiKQlBQUEmXU6AmTZowd+5cZsyYwe7du/n999/x9/dXv7S+ceMGS5Ys4ZtvvuG1117j7bff5uWXX9Z5HREREeoxo127djRv3rxQ++3bty/P2+bOncvRo0c5ffo0t2/fLnBSjijbyuq5VSs0NBRXV1cePnyYY9UTyPzS9PTp0wwfPpwNGzZgb2/P7du3+eijjwgODs4WbDczM2Po0KGMHDmyxIJVXl5enDx5EkVRKFeuHMOHD+ftt9/OtXtoly5dSE5O5s8//2TdunWEhoaSlpbGrFmzMDY25o033tBLjd7e3sTHx6udb5csWUKnTp1ybHfw4EGmTZtGbGwsCQkJeHt78+677+qlpuI6fvw4kNk1ediwYYXaR1EUxowZQ1JSEqtWrWLhwoW0bdsWOzs7vdRYlh/3ypUrExcXR2RkpE7H1Y5XUq/Xmzdvcv/+ffWxtrCwwMrKiqpVq5aaLudeXl7MmjUL+Dew/txzz9G2bVuaNm1KrVq1qFatGhUrVsTY2JiUlBQeP37MvXv3iIiIICgoiFOnTnHjxg00Gg0pKSnMmDEDjUZTKlYHKE38/f0BsLGx4ZVXXtHJmK+88gpVqlTh4cOHBAQE6GTMwjpy5AgrVqzg3Llz2UKZDRs25N133+Xtt9+mXLlyhRrr0KFD6moY+gqe+vr6qpcXLlyYbTWlcuXKqef9ffv2sW/fPhRFYc6cOXm+Vps1a8akSZNwd3cHYPfu3RJwz0dwcDDTp0/nypUr2a43NTVl5syZ2SaAzZkzh99//x3IPpHm9u3brF27lm3btrFy5UpatWplmOL/Y/jw4fj5+XH37l0Arl+/zurVq1m9ejU1atSgS5cudOnShRdffJG7d+9y5coVrly5QkBAgPo5DSATgQqhrB1ntO7cucORI0e4efMmCQkJVK5cmZo1a/Lyyy9nO6ZERkYyaNAgIiMjc51gdv/+fVasWIGfnx9r1qyhWrVqeq1bGMaz/Lme0J2MjAy+++471q5dq07qLexE1bS0NAICAggICGDZsmWMGjWKDz74ACMjI32WrP5tZm5uXuAE6zNnzvDpp59y/fr1HLddunSJQ4cO8c033zBy5EgmTZokq6IIIYQQQogSIQF3IYQQQghRZA4ODuzZswfIDOENHjy4hCsqnIsXLwKZX6wXFHbI+kWvqakpP//8c7aOsy1btmT16tWMHj2ao0ePkp6ezq5du3B1ddVX+U8tX19f9QvQ0hJw9/LyQlEUzM3N8/0ibO/evQQEBKAoylPVwb8oXUVLC2NjY/r27Uvfvn25efMmW7ZsYceOHdy/fx/IXEJ4z5497Nmzh1q1avHWW2/lGxgvalgsa1B96NChhd7P1tY2z9vGjBmjhjMOHjxY4sHIgsyZM4c5c+aUdBllVlk9t0LmMeOTTz7hwYMHOULt/xUVFYW7uzuff/45w4YNU0NLkPkF7LvvvsvIkSOxsrIySO15+eOPP9TLnp6edOnSJd/tTUxMePvtt+nXrx+fffYZW7ZsISMjgx9//FFvAfdjx46plz08PHINWUNmMNPDw0MNGR07dqzUHk+uXr2Koii0aNEiz+Xc09PTcw1Zffjhh2zevJnY2Fi2bdvGxx9/rJcay/LjXrt2bW7evMm5c+dITk7WScf15ORkzp07h6Io1K5dWwdVFkyj0bB792527drF6dOniYmJyXNbGxsbWrduTa9evXj99dcNUt9/RURE4O7urh4TnZycmDp16hOFRs+cOcOSJUv4559/0Gg0uLu74+LiQs2aNXVddpl17949FEXB0dFRZyEcIyMjHB0dOXDgAFFRUToZszC++eYbfvjhByDnOTU0NBQ3Nzc2btzI119/TaNGjQxWV34uXLgAQI0aNejcuXOu2wwcOJB9+/ah0WioXr16gefY/v378+WXX5KcnKyOL3K6cuUKrq6uxMbG5ni+JCYmMm/ePCpVqkS3bt346aef2Lp1a74rSkVHRzN69Gi2bduW7bMQQ5k1axazZs0iMDAQX19f9uzZQ0REBJDZjXvTpk1s2rQJIyMjtfu8lvY+t</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAA4QAAAOECAYAAAD5Tv87AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdeVxVdf7H8TdcdgQFXEBxwS0zGxfcKjW1PTOtcX41jk6Wlo5p6YzmUk5TzVSjpZmmlTXpVGZjqbi0L665a6aiuSGKqCCibApcLr8/zDKDe+6Vu8A9r+fj4aMens893w/6pc6bc87361daWloqAAAAAIDp+Hu7AQAAAACAdxAIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMiEAIAAACASREIAQAAAMCkCIQAAAAAYFIEQgAAAAAwKQIhAAAAAJgUgRAAAAAATIpACAAAAAAmRSAEAAAAAJMK8HYDqHxKS0t/9QsAAAC4nJ+f369+oWoiEJqc1WpVXl6eioqKVFhYqKKiIhUXFxMEAQAA4LDAwEAFBQX9/CssLEzBwcEExSrAr5Qrf9Ox2WzKzc1VTk6O8vLyvN0OAAAAfFBQUJAiIiIUGRmpkJAQb7eDchAITaS0tFS5ubk6ceKESkpKfvX7F2bBxX9e/H2PtwgAAIAq5uJNwAv/9JOfn35zZ7BatWqqU6eOgoKCPN4f7CMQmkRxcbFOnDjx8x3BiyHwlzAIAAAAuMbFPOjv/8v7hX5+foqJiVFMTIz8/VnbsrIgEJrA+fPndeTIkZ/vCtpspbLZfvlr9/PzU3BwiAIDAxUQcOGXxWL56ZuX574BAABQlgsLENpsNlmtxbJarbJai1VUdF5W6y9Po/n5/ToYhoWFqX79+oTCSoJA6OOKiop0+PBhlZSU/PQN+8sdweDgEIWHV1NISBjfkAAAAHCJ0tJSFRcX6dy5fBUU5KmkxCbpQjC0WC5ccxIKKw8CoQ8rLi7W4cOHZbVafxUGLRaLatSIVkhIGCs/AQAAwG1sthLl5JxRfn6uSksJhZURf/o+7OTJk78Jg8HBwapTp65CQ8MJgwAAAHArf3+LatSIUa1acfL391dpqX6+Y1hQUKDTp097uUMQCH1UQUGBcnNzJennMBgUFKSYmDry97d4uTsAAACYSVBQsGrViv1NKDx16pSKioq83J25EQh9UGlpqU6ePCnplzDo7+//UxjkrxwAAACeFxgYpJo168jPT5esdl+qjIwMb7dmaqQDH5Sfn6/z589LuvCNJkmRkTVksXBnEAAAAN4TFBSs8PAISfp51fvc3Nyfr13heQRCH3T5o6IBAQE/f+MBAAAA3nThRoX/z3cJpV+uX+F5BEIfU1pa+qvN5yUpPDyCBWQAAABQKfj7WxQWVk3SL9erOTk5YvMD7yAQ+phz5879tLKoft5vMDQ0zLtNAQAAAJcIDQ2X9Mv1alFRkQoLC73YkXkRCH3MuXPnfvq3C99dgYGBCggI9F5DAAAAwGUCA4MUEGD51WOjBQUFXu7KnAiEPubisr0Xf9oSFBTsxW4AAACA3/Lz81NQUIikX98lhOcRCH3ML99IF76zAgICvNcMAAAAUI5fnmK7cN1KIPQOAqGPKS4ulvTLT1osFh4XBQAAQOVz8cYFdwi9i0DoQ0pLS38OhBdxhxAAAACV0eXrXBQXF7PSqBcQCH3Ipd9AF//V35+/YgAAAFQ+ZV2nEgg9j7TgQ8r6BmL/QQAAAFRGF69TL72EJRB6HoHQh5T9DUQgBAAAQGX02+tUAqHnEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJBXi7Afg2m82m06ezvN0G4BHR0THy9+fnbAAAoOogEMKtTp/OUvPmCd5uA/CIfftSVLNmLW+3UeX07dtLJ04cd+sY/v7+8vf3l8USoODgIIWEhCo0NFQ1atRQVFS0YmPjVL9+AzVr1lxXXdVCwcHBbunD6GtdtGi56tat65axAVQdY8aM0tq1q3/1e23bJmr27Dle6gi+jEAIAPB5NptNNptNVqtVhYXnlZOTI0lKTf1trcUSoJYtr1H37j3Us+fNiosjoAHwnI0bN/wmDALuxLNNAABcoqTEqp07d2jGjFfUr18fTZgwVj/+uNfbbQEwgYKCAr300ovebgMmQyAEAKAcJSUl+vbbr/XggwM0efILKigo8HZLAHzY5MnP6+jRI95uAybDI6PwuCeSPlB4jerebgOokPwzZzW5zx+93QY8xGazadGihdq+fav+/e+patCggbdbAuBjPv54oT777BNvtwETIhDC48JrVFe16ChvtwEATktJOaShQx/S66+/pYYNG3m7HQA+YvXqlZo6dbK324BJ8cgoAABOyM4+rREjhikriy11AFTc999v06RJE1VSUuLtVmBSBEIAAJyUmZmh5577u0pLS73dCoAqbOPGDRo1aoQKC897uxWYGI+MAgAqNVftvVVSUqKSkhJZrVadO1eg/PwCnT6dpZMnT2jfvh+1atU3SktLc/h8Gzas1/LlSerdu2+FewNgPmvWrNKTT45TUVGRt1uByREIAQCmYLFYZLFYFBQUpLCwMMXE6OfFYW677Q6NHDlKGzeu16uvTtPBgwccOucbb8zSzTffptDQUHe2DsDHfPDBe5o5czqPiaJS4JFRAAB+0qnTdZo373316XOPQ/WnTp1SUtIiN3cFwFcUFxfrX/96RtOnTyUMotIgEAIAcImAgEBNmDBJ/fr9n0P1H3+8kHcJARg6fDhFQ4Y8oGXLkrzdCvArBEIAAMowevRYtW7dxrDu6NEj2rnzBw90BKCqWrToIw0a9Cf9+ONeb7cC/AaBEACAMlgsFj3xxERZLMav269fv84DHQGoalJSDmn48Ec0efLzOn+elURROREIAQAoR5MmTdWlS1fDui1bNnugGwBVRX5+vmbMeEUDB96vbdu2OPSZmjVrurkroGwEQgAA7OjV627DmpSUgx7oBEBld/78Ob333jz9/ve99f77/5XVanXocz163KQnn3zazd0BZWPbCQAA7GjTpq38/PzsLhyTl5enrKxTionhJ/yAWe3cuUPjxo3R6dNZDn/G399fDz30sAYPfkTbtm11Y3dA+QiEAADYERkZqTp16ujEiRN2686ePVvpA+Hp06e1d2+y9u7do9TUw8rIOKmMjAzl5+epsLBQhYWFP+3VGKyQkBBFR0erZs1aqlevnpo3b6Grr26pZs2ae63/M2eylZy8W7t27VRy8m5lZZ1Sbm6OcnJyVVh4XsHBwQoODlaNGlGKjY1TvXr11KJFS11zTSslJDT2Wt9GjhxJ1Y8/7lVKyiFlZ2crPz9ffn5SeHg1RUREKCGhsZo2baYmTZrKz8+vwuNlZWUpOXmXDh48oFOnMpWXlydJql69uqpXr6FatWqpdet2P+/T6U1Vac6mpqY6FQZr1aqlp556Rp06dXZjV4AxAiEAAAYiI2sYBsKCgnwPdeOc1NTD+uKLz7R27WqHVji02WwqLi5Wfv6Fu5779+/71fE6dWLVrVt33XtvP4+ErPz8fH366Qp9/vmn2rXrB7t3agsKClRQUKDs7GylpBz61bHY2Dh1795TvXr1dmlAePbZp/XJJ8vKPDZw4CA9+uhjZR47efKEFi78UCtXfq20tDSHxqpVq7Z69LhJ9933R9WrF+9Un+fPn9fy5Usd+nP8Zbxa6tq1uwYM+LPq1q3n1HgVUdXnrCNuvfV2jRkzXpGRkd5uBSAQAgBgJDg4yLDGZqtcexFu2bJJ7747V5s2bXTpPokXgswCLVy4QDfc0EUjRoxyy0V2YWGh3ntvnubPf0/5+XkVPt+JE8e1YMH7WrDgfXXs2FmPPPIXtWp1rQs6dU52drZmzXpVn366wuH3yy7KzMzQ//73gT7+eKH69r1HI0aMUmhoqN3P2Gw2ffTR//Sf/7ypM2fOODlephYtWqikpMW644479fjjf1NERIRT53BGVZ+zjqhXL15jx45X587Xe2V8oCwEQgAADGRnZxvWGF2Ye8qJE8c1deoUrV690u1jrVu3Vhs2rNeQIUM1aNBglzzOKEkHDuzXxIlP6MiRVJec73KbNm3Q5s0bdffdfTV69FiFhIS4ZZzLffnl55oy5UXl5Jyt0HlKSqz6+OOF2rJls6ZMmaYGDRqWWZeefkxPPTVBycm7Kjze8uVLtWPH95o8earLw5QvzFkjoaGhGjhwkP70pz8rODjYI2MCjmKVUQAADJw5YxwIq1ev4YFO7Nu4cYMeeOBPHrmwvqikpERvvDFLzz33tGw2W4XPt2nTRj388CC3hcGLSktLlZS0WMOGDVZW1im3j/Xqq9M0adKECofBS6WmHtajjw7VsWO/feR027atevDBgRUOg5c6evSIhgwZ5NLN1X1hztpjsQSoT597tHDhEj300MOEQVRKBEIAAOw4evTIz4tulCcwMFC1atXyUEdlW7XqW/31ryN19qxzjwW6yiefLNfbb79ZoXPs3r1LY8eO1rlz51zUlbG9e/do9OjHVFBQ4Jbzl5aW6sUX/6n58991y/kzMzM0fvwYWa3FP//e1q2bNXr0CLfMhfz8PI0dO1q5ubkVPpcvzNnyBAQE6M47e+vDDz/WhAmTVLOmd//7ANjDI6MAANixfv13hjUJCY099uhZWXbu3KFJkyaopKTE4c/4+/srLq6uoqNjFBYWqpCQUBUUFCg/P0/Z2dk6fjzd6T7mzn1b3bv3vKJFW3JzczVx4hMqLDzv8Geio2MUFxen0NAwhYWFqaioSPn5eTp+PF2nTjl+12/fvr2aNu0lPfnk353u28icOa8rKWmxy897qf3792nevHc0ePAj2rMnWWPGjFJhYaHbxsvIOKlZs17VuHFPXvE5fGHOlqVGjRrq1au37ruvv2rXruOScwLuRiAEAMCOzz77xLDmmms8vzjJRefOndMzz0xSUVGRYW3t2nV0yy23qXv3HmrW7Cq7786dPXtWe/cm65tvvtKXX37u0B20kpISvfnmbE2ZMs2pr0GS3njjNZ08aX8lV4vFoptuukU9e96sxMQOdhc4yco6pbVr1ygpaZGSk3cbjr98eZL69LnHpQvNbN26RXv3Jpd7PCIiQjfddIs6duysq65qoaioaAUEBOjMmWylpaVp48bvtGLFMofC7YIF7+uOO+7ShAljyr3DGhUVrS5duun6629QQkJjRUVFKzw8TLm5eTp06IDWrVurFSuWOXTHbunSJA0cOOiKVh/1lTl7uRtu6KrbbrtDgYGBFT4X4EkEQgAAyvHVV1849A5W587XeaCbss2d+7bhtgUWi0WDBz/i1IIW1atXV6dO16lTp+v02GN/1Zw5r+vDD+cbrv64bt0aZWScdOruSEbGSS1ZsshuTdOmzfT00885fCcnJqam+vS5R3363KMVK5Zp6tQpdlcrLS0t1bvvztW///2yw30bKW/uhIWF689/HqT77++vkJDfLkZUu3Yd1a5dR+3aJeqBBwZrxoxXtHjxR3bHys3N1UMPDShzJdFq1appwIAHyh0vKipKiYkdlJjYQYMHP6yZM6dr8eKP7Y5XUmJVUtJi/eUvI+zWlcUX5mxZoqKiKvR5wFt4hxAAgDJkZGTo1VeN7xqEhoaqUyfvBMKzZ89o4cIFdmsCAwP1/POTK7SgRXh4uEaN+pumT5+loCD7W3DYbDatXPmtU+dfsmSR3S0Ymje/SrNnv3XFj/X16tVbM2bMNtwyYc2aVTp1KvOKxnBUs2bNNW/e+xo0aHCZ4exyYWFhGjduou699w+GtWWFwYYNG+mdd95zeLzw8GoaN+7JcvdPvNTXX39hWHM5X5mzgC8hEAIAcJmcnByNGvWoMjJOGtbeccddHtu24HJLliwyfCxu6NDhuvHGHi4Zr2PHThozZrxh3ZYtm5w676pV5V+M+/v765ln/lXh/e9atrxGEyZMsltjs9m0evWqCo1jT7NmzTVr1hzVr9/A6c8+9thoxcbGOj3eW2/Nu6LxBg4cZDhv0tLSlJ7u3Ht7vjJnAV9CIAQA4BK7dv2ghx4aqEOHDhrWWiwW3X9/fw90VbZPPllu9/jVV7dU//4DXTrmXXfdbRgwDh9Ocfh8586dU0rKoXKPd+jQ0WX73vXsebM6duxst2bDBuNFhK5EWFi4pkyZdsXBNiQkRAMGDHJqvH/9a3KFgvSwYY8a1th7R7IsvjBnAV9DIAQAmJ7NZtOWLZs0fvwYPfzwg0pLO+rQ5+6+u2+5m4K724ED+5WaethuzaBBg+Xv79r/1fv7++uOO3rZrXFmhc/09GN294Jr2rSZw+dyRL9+99k9vmeP8QI0V2LYsEcVGxtXoXP07HmzLBaLQ7XDh49QgwbO3xm8VEJCY8Mw7sgPTi7ylTkL+BoWlQEAmILVapXVWqzc3DydOZOt48ePKzU1RXv2JGvbti1lvn9lT3R0jIYOHe6mbo1t3rzR7vG6deupW7fubhm7Vavf2T1eUJAvq7VYAQHGqy0a7fGYm2v/uLM6duwoiyVAJSW/vLMYFRWlevXiVa9evOLj4x3u3VFRUdHq0+eeCp8nOjpaTZo007599jeGj4iIUK9ed1d4PElq1epau3dwMzMzHD6Xr8xZwNcQCAEAldr27VvVuXM7b7fxK35+fpo4cZJq1PDeqoKlpRcerzt2LE05OTm/Od69e0+37Y3YsKHxXdHCwkKHLq6NFvzYsWO7bDaby+4ahYSEavz4iQoPj1B8/IUQGB4e7pJzl+f22++84sVRLte4cWPDQHjnnXcpNNR4ARlH1K9v/+86Ozvb4XP5ypwFfA2BEAAAJw0ZMlRdunTzag/9+w9Q//4DJF1YBOfYsTSlpR3VsWNpOnYsTbfeervbxq5WrZphzfnzhQoPN66rUaOG3eOpqYe1dOkS9e17r8P9Gendu6/LzuWILl26uuxc8fH1DWuM3pN0RnS0/R96FBaed/hcvjJnAV9DIAQAwAn9+t2nwYMf8XYbvxIZGanIyJa6+uqWHhnPkYvmkpISh84VF1dXERERys3NLbdm6tTJP2/iXtVYLBbDxxWd4cjdzJYtW7lsvMjI6naPFxeXv12I/fNW3TkL+BoWlQEAwAEWi0WPPDJcY8aM83YrVYLN5vjFdbt27e0eLyoq0pNPjtO4cX9zelVLb4uPr++yx0WlC6uH2hMbG+vSDdIDA+0/Qmm06XtV4sycBXwJdwgBADDQpElTTZgwSa1aXevtVrwuIyNDq1evNKxzJijcdtuddvcivGjVqm+1atW3atCgobp06abrr79Bbdq0rdTvfTVs2Mil5zNaZTQmpqZLxzN6x7MqcMecBXwJgRAAgHJcdVULDRjwgG666RaXL4VfFZSWliot7aiSk3frhx++1/bt2xzeZsCZa+vu3XuoUaMEh/eCO3IkVfPnv6v5899VWFiYEhM7qFOnzurY8boKb7Xgaq4OaEYqsu9g2dyzyIu7eGrOAr6EQAgAwE8slgC1aNFCHTt21q233u6yDdErO6vVquPH03X06FEdPZqqlJRDOnTokA4c2K+Cgny3j+/v76/Ro8do1KgRTt+lKSgo0Jo1q7RmzSpJF95J7Nixkzp3vl4dO3by+iIh0dHRHh3P21+vp3h7zgK+hEAIADCFgIAABQUFKTAwSOHh4YqOjlZUVLRiY+PUqFGCEhIaq0WLqxUWFubtVt3Cai1WSkqKUlMP68iRVKWnH1N6errS048pMzPD6wtqdOp0nQYOHKT//vedCp3n+PF0JSUtVlLSYlksAWrduo1uuKGruna90St3D11/x86+4OAQj47nTpV9zgK+gkAIAKjU2rZN1OzZc7zdRpW0Z0+yvvzyc23fvlUHDuxXcXGxt1uya/jwkSooKNBHH33okvOVlFi1bdsWbdu2RTNmTFPjxk3Us+fNuuWW21z+bl95KvP7jZVRVZuzgC8gEAIA4EPOnz+nhQs/1IoVyxx+J68yGTNmnJo2bapp0152ao87Rxw6dFCHDh3UW2+9oZYtW+nee/vp9tvvVECA+y6HfGFRFner6nMWqOoIhAAA+IDS0lJ99tkKzZo1U5mZGW4dKyamprKyTrnt/H37/l7XXXeDXn/9NX3xxWdueTQwOXmXkpN36Z133tLIkaPUvXtPl48hyZSLETnKl+YsUJURCAEAqOKysrI0adIEbdu2xW1j1KkTq+uuu17du/dU+/Yd1aVLR7eNdXG8p59+TkOHDteyZUv0yScrdPx4usvHOXYsTePHj1Hv3n00btxEHvH0EF+cs0BVRSAEAKAKS08/puHDH9GJE8ddds6AgAAlJDTW1Vdfo2uvvVatW7fz2nYOsbFxevjhv2jIkGHavXunvv32G61evVJHjx5x6TjLliUpKytLkye/TCh0M1+fs0BVQyAEAKCKOnv2rEaMGHbFF9ZBQUFq0KChGjZspAYNGqpRowQ1btxEjRolKDCwcoUiPz8/tWr1O7Vq9TuNHDlKqamHtX79Om3Y8J22b9/ukvcNv/turaZNe0ljx05wQccoi5nmLFBVEAgBAKiinn12ktLTjzlc37RpM7Vv30EtW7ZSixYtFR8ff0XvuBUVFTn9GVdr2LCRGjZspPvv/5OKioq0c+cObdmyWVu2bFJycrJKSqxXdN6PP16oHj1uUvv2PF7oDmaes0BlRSAEAKAK+uqrL7Ru3VrDOovFonvu6af77++v+Pj6Lhm7sLDQJedxlaCgICUmdlBiYgcNHTpc+fn52rp1s777bq3WrVvr9IIlM2dO19y577upW/NizgKVE4EQAIAqxmazac6c1w3r6tWL14svvqRmzZq7dPz8/DyXns/VwsPD1a1bd3Xr1l2lpaXavXunPv10hT777FOHet+7d4/279/n8j83M2POApUXayEDAFDFbNiwXqmph+3WREVF6ZVXZrol1Jw8edKBqlKXj3slLr57OHbsBCUlrdBdd93t0Oe++874ThYcx5wFKi8CIQAAVczKld8Y1owZM17167tnlcX09DTDGnfsHVhR1apF6Kmn/qH/+78/Gtbu3bvHAx2ZB3MWqLwIhAAAVDE7dmy3e7xOnVj17Hmz28bfvXuXYU1pqfN3W4qKinTw4AF9881X+s9/5mjbtq1X0p6hkSNHqVat2nZrTp484ZaxzcpX5yzgC3iHEACAKsRqLVZa2lG7NYmJ7eXn5+e2HjZv3mRY48jdlu+/36a1a9fo8OEUpaYeVnr6sV997ve//4PatUusUK9lCQwMVI8eN+l///ug3Jq8PN45cxVfmrOALyIQAgBQheTk5BpeuBrd/aqInTt3GL4LJklWq/G2DwcOHNB7782zM9ZOZ1pzSt26de0eZ0871/GlOQv4Ih4ZBQCgCrFaiw1rzp8/57bxZ89+zaE6Ry6uExPb2z2+b99epaQccmg8ZxndAYyMrO6Wcc3Il+Ys4IsIhAAAVCEhIaGGNUeP2n8870otX75U27ZtcajWkX3fEhIaKyoq2m7NokUfOTSes/bt+9Hu8caNG7tlXDPypTkL+CICIQAAVUhkZKTCwsLs1mzdutnl+64lJ+/WlCkvOFzv6MV116432j2+ePFHOnBgv8PjOiIr65TWr19nt6Z167YuHdPMfG3OAr6GQAgAQBXTpEkzu8cLCwv1n/+85bLxvv9+u0aNetSpC2ZHHwH8wx/us3vcarXq2Wf/7tKwMGXKiyouLv8xxtDQUN1wQ1eXjQffmrOAryEQAgBQxbRv38GwZsGC+Vq9elWFxrHZbPrgg/f0+OPDlZOT49RnHV2ls1mz5mrbtp3dmn37ftSoUSOVm5vrVA9lmTlzuuGeeLfccrvCw8MrPBZ+4UtzFvA1BEIAAKqY2267w7CmpMSqp54ap4ULF1zR/mrffbdOQ4YM0vTpU6/oUbqzZ886XDto0BDDmp07d6h//z9o7drVTvciSVlZWZowYU/7XiMAACAASURBVKzdVU0lKTg4RA89ZNwPnONrcxbwJWw7AQBAFdOoUYK6dOlmGI6Kior08suTtXz5Uv3+9/+nG27oqpiYmDJrrdZiHThwQGvXrtY333ylQ4cOVqjHU6cyHa7t1Kmzevfuq2XLltity8zM0Jgxo9S0aTP16XOPOnTopIYNG5W7f11+fr727Nmtzz//TF9//aUKCvINe3nggQcVGxvncO9wjK/NWcCXEAgBAKiCRox4XJs2bVBRUZFh7Y8/7tXzzz8rSYqNjVXt2rGKiKgmf3+L8vPzdeZMto4cSXV42f2GDRupf/+BeuGF58qtMVrF83KjRv1VmzZt0MmTJwxrDxzYr5dfnixJCg+vpnr14hURUU3h4dVUVFSk/Px8ZWdn6dixY07daerQoZMGDRrsVN9wnK/NWcBXEAgBAKiCGjVK0GOPjdZLL/3bqc+dOHFCJ04Yh67ydO16o/7xj+ck+enFF/9ZbuDaufMHFRUVKSgoyKHzhodX07RpM/Too0OVnX3a4X7y8/O0b99eh+vL07x5C/3zny/I35+3adzF1+Ys4Cv4rx4AAFVUv3736Y9/HOCRscLCwjR+/JOaMmWawsOrKTw8XHXr1iu3vrDwvHbu3OHUGI0bN9GsWW+qZs2aFW3XKW3bJmrWrDdUvXoNj45rRr42ZwFfwB1CeFz+GV7aRtXHPEZl8fjjf1WtWrU1e/YMu1spVMSNN/bQ44//9TcX04mJHXTsWFq5n/vyy8+VmGi8uuSlEhIaa86cuXr66af0ww/fX1G/jrJYAjR48CN64IEHZbFY3DoWfuFrcxao6giE8LjJff7o7RYAwKf07z9A7dol6h//eEqHD6e47Lzt2rXX4MGPKDGxfZnH77zzLi1durjcz3/66QoNHfqooqKinBo3Lq6uXn/9LS1blqS3335TGRknnfq8EX9/f918860aMmSYGjRo4NJzwzG+NmeBqoxACACAD2jR4mrNn79Q69at0YcffqAtWzZd0XliYmqqe/ce6t27r1q0uNpubZs2bXXtta2VmZlRbs3XX3+pfv3+z+k+/P391afPPerVq7e+/fZrffbZCm3evMmhBUnKExdXV7fffqd69eqt+Pj6V3weuIavzVmgqvIrvZKNXlApWa1W7d+//6d/t0mS4uLqe/UxmFOnMtW8eYLXxgc8ad++FNWsWcvbbQCSLvz394cfdmjnzh+0d+8enTmTrby8XOXk5MpqtSo4OFjVqlVTnTqxql+/vq666mq1bt1azZu3qLQLq5w/f067d+/S7t27dPhwitLS0nT69CmdPXtWhYWFKi4uVlBQkEJCQhURUU1168YrPr6+rrqqhdq1S1T9+twNrMx8cc7CvpKSEh0/flSSFBBw4e+wWbNmCgjgnpUnEQh9CIEQ8C4CIQAAjiMQVg78acOtoqNjtG+f694NACqz6OiyN08GAACorAiEcCt/f3/umAAAAACVFA9cAwAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgRCAAAAADApAiEAAAAAmBSBEAAAAABMikAIAAAAACZFIAQAAAAAkyIQAgAAAIBJEQgBAAAAwKQIhAAAAABgUgHebgC+zWaz6fTpLG+3AXhEdHSM/P35ORsAoHzHj6dr//79Sk9PU2ZmhnJyclVYWCibrUTBwcEKDQ1TrVq1VKdOrJo1a65GjRJksVi83TZ8GIEQbnX6dJaaN0/wdhuAR+zbl6KaNWt5u40qp2/fXjpx4rhbx/D395e/v78slgAFBwcpJCRUoaGhqlGjhqKiohUbG6f69RuoWbPmuuqqFgoODnZLH0Zf66JFy1W3bl23jA3AO6zWYq1Zs1qrV6/Uxo0bnP5BeWhoqBITO6hr1xt18823Kjw83E2dwqwIhAAAn2ez2WSz2WS1WlVYeF45OTmSpNTU39ZaLAFq2fIade/eQz173qy4OAIaAOfl5eVqwYL5+uijD3XmzJkrPs+5c+e0du1qrV27WtOnv6xeve7WoEGDFRMT48JuYWY82wQAwCVKSqzauXOHZsx4Rf369dGECWP14497vd0WgCqitLRUS5cu0b333q233nqjQmHwcgUFBVq4cIH69btb77//rmw2m8vODfMiEAIAUI6SkhJ9++3XevDBAZo8+QUVFBR4uyUAlVheXq7GjBml559/Vjk5Z902zrlz5zRjxjSNGDFMZ85ku20cmAOPjMLjkpNnqWbNSG+3AVTIqVM5atlyuLfbgIfYbDYtWrRQ27dv1b//PVUNGjTwdksAKpmMjAyNHDlMqamHPTbmtm1bNGTIA5o+fZbq1Yv32LjwLQRCeFzNmpGqVau6t9sAAKelpBzS0KEP6fXX31LDho283Q6ASuL06dMaPnyI0tLSPD52WlqaRowYpjfeeFu1a9fx+Pio+giEAAA4ITv7tEaMGKa5c99nUQcAslqLNWHCGIfDYGhoqNq376gOHTqpVatrFRUVpRo1ouTnJ2VnZ+v06dPauXOHNm/eqM2bN6moqMjwnMePp2vMmNGaM+cdt62SDN9FIAQAwEmZmRl67rm/a9q0mfLz8/N2OwC86O2352jHju8N60JDQ9Wv330aMODPql69Rpk1cXGhiourq2uuaaX77/+TMjJOat68/2jp0iUqLi62e/59+/bqlVde0rhxT17R1wHzIhACACq1tm0TNXv2nAqfp6SkRCUlJbJarTp3rkD5+QU6fTpLJ0+e0L59P2rVqm+cetxrw4b1Wr48Sb17961wbwCqppSUQ3r33bmGdY0bN9HkyVMVH1/fqfPXrl1HY8dO0B139NKECWOVmZlpt37JkkW67bY71aZNW6fGgbmxyigAwBQsFouCgoIUFhammJiaatCggdq0aavbbrtDI0eO0kcfLdX06a+pSZOmDp/zjTdm6dy5c27sGkBl9uabs2W1Wu3WtG/fUXPmzHU6DF6qVavfae7c+WrQoKHdutLSUr322vQrHgfmRCAEAOAnnTpdp3nz3lefPvc4VH/q1CklJS1yc1cAKqMjR1K1cuU3dmvq1q2n55+frPDw8AqPFxMTo5dfnl7u46YX7dz5g7Zt21rh8WAeBEIAAC4REBCoCRMmqV+//3Oo/uOPF6q0tNTNXQGobJKSFtn93vfz89Pzz/9bkZGu22qrfv0GGjt2vGHd8uVLXTYmfB+BEACAMowePVatW7cxrDt69Ih27vzBAx0BqEy+/PILu8e7deuuFi1aunzcm2++Vddc08puzerV38pms7l8bPgmAiEAAGWwWCx64omJsliM119bv36dBzoCUFns379PGRkn7dY88MBDbhv/vvv62z2el5enfft+dNv48C0EQgAAytGkSVN16dLVsG7Lls0e6AZAZbFt2xa7x2vVqqWWLa9x2/idO19v+MMqAiEcRSAEAMCOXr3uNqxJSTnogU4AVBbJybvtHm/btr1bx4+MjFRCQoLdmmPHjrq1B/gOAiEAAHa0adPWcPP5vLw8ZWWd8lBHALzt4MEDdo8bvePnCjExMXaPnz171u09wDewMT0AAHZERkaqTp06OnHihN26s2fPKiampoe6ujKnT5/W3r3J2rt3j1JTDysj46QyMjKUn5+nwsJCFRYW/rRfY7BCQkIUHR2tmjVrqV69emrevIWuvrqlmjVr7rX+z5zJVnLybu3atVPJybuVlXVKubk5ysnJVWHheQUHBys4OFg1akQpNjZO9erVU4sWLXXNNa2UkNDYa30bOXIkVT/+uFcpKYeUnZ2t/Px8+flJ4eHVFBERoYSExmratJmaNGlq+MMJR2RlZSk5eZcOHjygU6cylZeXJ0mqXr26qlevoVq1aql163Zq0KBBhceqqMo6Z48fP273eFRUlMvHvJzR9hPskQpHEQgBADAQGVnDMBAWFOR7qBvnpKYe1hdffKa1a1frxx/3GtbbbDYVFxcrP//CXc/9+/f96nidOrHq1q277r23n0dCVn5+vj79dIU+//xT7dr1g91l/gsKClRQUKDs7GylpBz61bHY2Dh1795TvXr1dmlAePbZp/XJJ8vKPDZw4CA9+uhjZR47efKEFi78UCtXfq20tDSHxqpVq7Z69LhJ9933R9WrF+9Un+fPn9fy5Usd+nP8Zbxa6tq1uwYM+LPq1q3n1HgVUdnnrNVq1R//+CdlZmbo1KlMZWZe+HXmTPbPf67Vq1ev8DhGzp49Y/d4UFCQ23uAbyAQAgBgIDjY+MLKZqtcexFu2bJJ7747V5s2bXTpPokXgswCLVy4QDfc0EUjRoxySzAsLCzUe+/N0/z57yk/P6/C5ztx4rgWLHhfCxa8r44dO+uRR/6iVq2udUGnzsnOztasWa/q009XyGq1OvXZzMwM/e9/H+jjjxeqb997NGLEKIWGhtr9jM1m00cf/U//+c+bOnPGfoD47XiZWrRooZKSFuuOO+7U44//TREREU6dwxlVZc4GBARoyJChv/l9q7VYmZmZOnUqU40auf+HJadO2X9MPTw83O09wDcQCAEAMJCdnW1YY3Rh7iknThzX1KlTtHr1SrePtW7dWm3YsF5DhgzVoEGDXfI4oyQdOLBfEyc+oSNHUl1yvstt2rRBmzdv1N1399Xo0WMVEhLilnEu9+WXn2vKlBeVk1Oxd7tKSqz6+OOF2rJls6ZMmaYGDRqWWZeefkxPPTVBycm7Kjze8uVLtWPH95o8earLfwDgC3NWkgICAhUXV1dxcXVdds7y5OXl6vDhw3Zr4uI8d1cXVRuLygAAYODMGeNAaPQ+jyds3LhBDzzwJ49cWF9UUlKiN96Ypeeee9olG2Fv2rRRDz88yG1h8KLS0lIlJS3WsGGD3b4gUGlpqV59dZomTZpQ4TB4qdTUw3r00aE6duy3j5xu27ZVDz44sMJh8FJHjx7RkCGDHHqM01G+MGe9YePGDSopsX+HuVEj+6uQAhcRCAEAsOPo0SM/L7pRnsDAQNWqVctDHZVt1apv9de/jjR8r8hdPvlkud5++80KnWP37l0aO3a0RxfD2Lt3j0aPfkwFBQVuOX9paalefPGfmj//XbecPzMzQ+PHj5HVWvzz723dulmjR49wy1zIz8/T2LGjlZubW+Fz+cKc9Zavv/7S7nGLJcArj0SjauKRUQAA7Fi//jvDmoSExi599MxZO3fu0KRJE1RSUuLwZ/z9/RUXV1fR0TEKCwtVSEioCgoKlJ+fp+zsbB0/nu50H3Pnvq3u3Xte0aItubm5mjjxCRUWnnf4M9HRMYqLi1NoaJjCwsJUVFSk/Pw8HT+ebvh+1aX27duradNe0pNP/t3pvo3MmfO6kpIWu/y8l9q/f5/mzXtHgwc/oj17kjVmzCgVFha6bbyMjJOaNetVjRv35BWfwxfmrLccPXpEK1d+Y7fmmmta8Q4hHEYgBADAjs8++8Sw5pprvPeT+HPnzumZZyapqKjIsLZ27Tq65Zbb1L17DzVrdpXdd+fOnj2rvXuT9c03X+nLLz936A5aSUmJ3nxztqZMmebU1yBJb7zxmk6etL+Sq8Vi0U033aKePW9WYmIHuwucZGWd0tq1a5SUtMhwE3FJWr48SX363OPSuypbt27R3r3J5R6PiIjQTTfdoo4dO+uqq1ooKipaAQEBOnMmW2lpadq48TutWLHMoXC7YMH7uuOOuzRhwphy77BGRUWrS5duuv76G5SQ0FhRUdEKDw9Tbm6eDh06oHXr1mrFimUO3bFbujRJAwcOuqLVR31lznrLu+/OM3zU9ZZbbvVQN/AFBEIAAMrx1VdfOPQOVufO13mgm7LNnfu24bYFFotFgwc/oj/96c8KDg526LzVq1dXp07XqVOn6/TYY3/VnDmv68MP5xuu/rhu3RplZJxU7dp1HP4aMjJOasmSRXZrmjZtpqeffs7hOzkxMTXVp8896tPnHq1YsUxTp06xu1ppaWmp3n13rv7975cd7ttIeXMnLCxcf/7zIN1/f3+FhPx2MaLateuodu06atcuUQ88MFgzZryixYs/sjtWbm6uHnpoQJkriVarVk0DBjxQ7nhRUVFKTOygxMQOGjz4Yc2cOV2LF39sd7ySEquSkhbrL38ZYbeuLL4wZ70lOXm3VqxYarcmODhYt956u4c6gi/gHUIAAMqQkZGhV181vmsQGhqqTp28EwjPnj2jhQsX2K0JDAzU889P1kMPPezwhfXlwsPDNWrU3zR9+izDvc1sNptWrvzWqfMvWbLI7hYMzZtfpdmz37rix/p69eqtGTNmG26ZsGbNKp06lXlFYziqWbPmmjfvfQ0aNLjMcHa5sLAwjRs3Uffe+wfD2rLCYMOGjfTOO+85PF54eDWNG/dkufsnXurrr78wrLmcr8xZb7BarXr++WcNH7Pt3btPpVjkClUHgRAAgMvk5ORo1KhHlZFx0rD2jjvu8ti2BZdbsmSR4WNxQ4cO14039nDJeB07dtKYMeMN67Zs2eTUeVetKv9i3N/fX888868K73/XsuU1mjBhkt0am82m1atXVWgce5o1a65Zs+aofv0GTn/2scdGKzY21unx3npr3hWNN3DgIMN5k5aWpvR0597b85U56w3vvDNHBw7st1sTHByigQMHeaYh+AwCIQAAl9i16wc99NBAHTp00LDWYrHo/vv7e6Crsn3yyXK7x6++uqX69x/o0jHvuutuw4Bx+HCKw+c7d+6cUlIOlXu8Q4eOLtv3rmfPm9WxY2e7NRs2GC8idCXCwsI1Zcq0Kw62ISEhGjBgkFPj/etfkysUpIcNe9Swxt47kmXxhTnrDRs2fKd33nnbsO6BBx5SnTrO/eAAIBACAEzPZrNpy5ZNGj9+jB5++EGlpR116HN339233E3B3e3Agf1KTT1st2bQoMHy93ft/+r9/f11xx297NY4s8JnevoxuwtkNG3azOFzOaJfv/vsHt+zx3gBmisxbNijio2Nq9A5eva8WRaLxaHa4cNHqEED5+8MXiohobFhGHfkBycX+cqc9bRDhw7qqafGGy4k06hRggYM+LOHuoIvYVEZAIApWK1WWa3Fys3N05kz2Tp+/LhSU1O0Z0+ytm3bUub7V/ZER8do6NDhburW2ObNG+0er1u3nrp16+6WsVu1+p3d4wUF+bJaixUQEGh4LqM9HnNz7R93VseOHWWxBPxqU++oqCjVqxevevXiFR8f73DvjoqKilafPvdU+DzR0dFq0qSZ9u2zvzF8RESEevW6u8LjSVKrVtfavYObmZnh8Ll8Zc56UkbGSf31ryMd2gv12WefN3xfEigLgRAAUKlt375VnTu383Ybv+Ln56eJEyepRo0or/VQWnrh8bpjx9KUk5Pzm+Pdu/d0296IDRsa3xUtLCx06OLa6AJ2x47tstlsLrtrFBISqvHjJyo8PELx8RdCoLv3a7v99juveHGUyzVu3NgwEN55510KDTVeQMYR9evb/7vOzs52+Fy+Mmc9JTs7WyNH/kUnTtjfjkWSRowYpebNr/JAV/BFBEIAAJw0ZMhQdenSzas99O8/QP37D5B0YRGcY8fSlJZ2VMeOpenYsTS3LjtfrVo1w5rz5wsVHm5cV6OG/dUQU1MPa+nSJerb916H+zPSu3dfl53LEV26dHXZueLj6xvWGL0n6YzoaPs/9CgsPO/wuXxlznrCmTPZGjFiqOEjttKFVUXvu++P7m8KPotACACAE/r1u0+DBz/i7TZ+JTIyUpGRLXX11S09Mp4jF81GS+NfFBdXVxEREcrNzS23ZurUyT9v4l7VWCwWw8cVneHI3cyWLVu5bLzIyOp2jxcXl79diP3zVt05626nT5/WyJHDdPDgAcPaNm3a6oknJnqgK/gyFpUBAMABFotFjzwyXGPGjPN2K1WCzeb4xXW7du3tHi8qKtKTT47TuHF/c3pVS2+Lj6/vssdFpQurh9oTGxurqCjXPcocGGj/EUqjTd+rEmfmrLtkZJzUX/4yxKEw2KRJU02ePM3w7wgwwh1CAAAMNGnSVBMmTFKrVtd6uxWvy8jI0OrVKw3rnAkKt912p929CC9atepbrVr1rRo0aKguXbrp+utvUJs2bSvVe1+Xa9iwkUvPZ7TKaExMTZeO5wuLlLhjzrrDkSNH9Pjjw3X8uPHejg0aNNSrr85WZGSkBzqDryMQAgBQjquuaqEBAx7QTTfd4vKl8KuC0tJSpaUdVXLybv3ww/favn2bw9sMOHNt3b17DzVqlODwXnBHjqRq/vx3NX/+uwoLC1NiYgd16tRZHTteV+GtFlzN1QHNSEX2HSybexZ5cRdPzVlX27s3WaNHP6bs7NOGtQ0aNNRrr72pmJgYD3QGMyAQAgDwE4slQC1atFDHjp116623u2xD9MrOarXq+PF0HT16VEePpiol5ZAOHTqkAwf2q6Ag3+3j+/v7a/ToMRo1aoTTd2kKCgq0Zs0qrVmzStKFdxI7duykzp2vV8eOnby+SEh0dLRHx/P21+sp3p6zrrRx43pNmPCEQ30nJDTWjBmzVbNmLQ90BrMgEAIATCEgIEBBQUEKDAxSeHi4oqOjFRUVrdjYODVqlKCEhMZq0eJqhYWFebtVt7Bai5WSkqLU1MM6ciRV6enHlJ6ervT0Y8rMzPD6ghqdOl2ngQMH6b//fadC5zl+PF1JSYuVlLRYFkuAWrduoxtu6KquXW/0yt1D19+xsy84OMSj47lTZZ+zrrBs2RK9+OLzv9oXszzNm7fQq6++5tXtbuCbCIQAgEqtbdtEzZ49x9ttVEl79iTryy8/1/btW3XgwH4VFxd7uyW7hg8fqYKCAn300YcuOV9JiVXbtm3Rtm1bNGPGNDVu3EQ9e96sW265zeXv9pWnMr/fWBlVtTl7pUpLS/XGG7M0d+7bDtW3bdtOL730imnuAMOzCIQAAPiQ8+fPaeHCD7VixTKH38mrTMaMGaemTZtq2rSXndrjzhGHDh3UoUMH9dZbb6hly1a6995+uv32OxUQ4L7LIV9YlMXdqvqcddb58+f13HNP6+uvv3Sovlu37nruuRdculotcCkCIQAAPqC0tFSffbZCs2bNVGZmhlvHiompqaysU247f9++v9d1192g119/TV988ZlbHg1MTt6l5ORdeuedtzRy5Ch1797T5WNIMuViRI7ypTnrqKysUxo7drSSk3c7VN+3770aO3aC4eqyQEUQCAEAqOKysrI0adIEbdu2xW1j1KkTq+uuu17du/dU+/Yd1aVLR7eNdXG8p59+TkOHDteyZUv0yScrHFqO31nHjqVp/Pgx6t27j8aNm8gjnh7ii3PWyMGDB/S3vz2mEydOOFT/yCPD9dBDQ9zcFUAgBACgSktPP6bhwx/RiRPHXXbOgIAAJSQ01tVXX6Nrr71WrVu389p2DrGxcXr44b9oyJBh2r17p7799hutXr1SR48ecek4y5YlKSsrS5Mnv0wodDNfn7Nl2bhxvSZOHKf8/DzD2oCAAE2c+HfdeeddHugMIBACAFBlnT17ViNGDLviC+ugoCA1aNBQDRs2UoMGDdWoUYIaN26iRo0SFBhYuUKRn5+fWrX6nVq1+p1Gjhyl1NTDWr9+nTZs+E7bt293yfuG3323VtOmvaSxYye4oGOUxUxz9qLly5fqhRf+6dBKopGRkXrhhZeUmNjeA50BFxAIAQCoop59dpLS0485XN+0aTO1b99BLVu2UosWLRUfH39F77gVFRU5/RlXa9iwkRo2bKT77/+TioqKtHPnDm3ZsllbtmxScnKyQxffZfn444Xq0eMmtW/v3ccLfZXZ5uz77/9XM2dOd2h/zXr14vXyy9PVqFGCBzoDfkEgBACgCvrqqy+0bt1awzqLxaJ77umn++/vr/j4+i4Zu7Cw0CXncZWgoCAlJnZQYmIHDR06XPn5+dq6dbO++26t1q1b6/SCJTNnTtfcue+7qVvzMtucfe21V/Xuu3Mdqr322taaMmUqewzCKwiEAABUMTabTXPmvG5YV69evF588SU1a9bcpeM78h6UN4WHh6tbt+7q1q27SktLtXv3Tn366Qp99tmnDvW+d+8e7d+/z+V/bmZmtjn7yisvacGC+Q7V3nLLbZo06Rm2KIHXsBYyAABVzIYN65WaethuTVRUlF55ZaZbQs3JkycdqDJ+RM4TLr57OHbsBCUlrdBdd93t0Oe++874ThYcZ6Y560wYHDhwkJ599nnCILyKO4QAAFQxK1d+Y1gzZsx41a/vnlUW09PTDGvcsXdgRVWrFqGnnvqHwsLC9b//fWC3du/ePR7qyhzMMmdnz57hUBi0WCwaM2ac7rmnX4XHBCqKQAgAQBWzY8d2u8fr1IlVz543u2383bt3GdY4sojG5YqKinT06BGlph7W4cMpatOmndq1S7ySFu0aOXKUvv32a7vvFp486dhecXCMr87ZS3300YeaN+8dw7rg4BA999wL6tbtxgqNB7gKgRAAgCrEai1WWtpRuzWJie3l5+fnth42b95k6I3X+wAAIABJREFUWOPI3Zbvv9+mtWvX6PDhFKWmHlZ6+rFffe73v/+DWwJhYGCgevS4ye5dwry8yv2eZFXiS3O2PKtXr9LUqVMM6yIiIvTSS9PVunWbKx4LcDUCIQAAVUhOTq7hhWutWrXdNv7OnTsM3wWTJKvVeNuHAwcO6L335tkZa6czrTmlbt26do9X1j3tqiJfmrNlOXLkiJ55ZpJsNpvduqioKL366mwWK0Klw6IyAABUIVZrsWHN+fPn3Db+7NmvOVTnyMW10ebb+/btVUrKIYfGc5bRHcDIyOpuGdeMfGnOXq6wsFATJowxXMU0MrK6Zs58gzCISolACABAFRISEmpYc/So/cfzrtTy5Uu1bdsWh2od2fctIaGxoqKi7dYsWvSRQ+M5a9++H+0eb9y4sVvGNSNfmrOXe/PNWTp48IDdmsDAQL344ktq0qSp0+cHPIFACABAFRIZGamwsDC7NVu3bnb5vmvJybs1ZcoLDtc7enHdtav9hTUWL/5IBw7sd3hcR2RlndL69evs1rRu3dalY5qZr83ZS8/vyIqi48c/5ZZ3YQFXIRACAFDFNGnSzO7xwsJC/ec/b7lsvO+/365Rox516oLZ0UcA//CH++wet1qtevbZv7s0LEyZ8qKKi8t/jDE0NFQ33NDVZePBt+bsRVOnTjZ8N/LOO3urV6/eTp0X8DQCIQAAVUz79h0MaxYsmK/Vq1dVaBybzaYPPnhPjz8+XDk5OU591tFVOps1a662bdvZrdm370eNGjVSubm5TvVQlpkzpxvuiXfLLbcrPDy8wmPhF740ZyXpm2++1q5d9hc9io2N1d/+NtapHgBvYJVRAMD/s3fn0TWd+xvAHzmZJ5IISUQiIURKDSGhhgZVc9Hq8FNqHmrWcs2laKtUKS1V2tLB1RpDDK2aZ2IMERGSyCgRmZzIcE7y+8N1r2rO3vskZ8g5+/msddfq6v6e9/2Gd/WeJ3vv9yUT061bD/z4o/DdFLVahblzZ2DixCkYMOBtrbf0P336FDZsWIfoaPHz28qTm5sruXbo0JG4fHmcYE1U1FUMHPgmZsyYjfbtO2rdT1ZWFr74YgmOHDkkWGdjY4vhw0dqPT4JM7c1++OP60Vr0tPT0aWL9mtVV1q0CMbateJ9EjEQEhERmZh69fzQvn1HnDx5XLCuuLgYy5cvRUTEbrzxxlto164D3Nzcyq1VqUoQFxeHkyeP4/Dhv3D37p1K9fjgQabk2tDQNujTpx/27NklWJeZmYFp06agQYMA9O3bH61bh8LXt57G4KBUKnHz5g388ccBHDp0EAUFStFehgwZBg8PT8m9kzTmtGYvX76I27djKzUXUVXCQEhERGSCJkyYjPPnz6K4uFi09tatGHz66UIATx5jq1XLA05OjrCwUECpVCInJxv37iVK3nbf17ceBg4cjM8+W6SxRmwXz+dNmfIBzp8/i/v300Vr4+JuY/nypQAABwdH1KnjDScnRzg4OKK4uBhKpRLZ2VlISUlBWVmZ5B5atw7F0KEjtOqbpDOXNbtz5w5JdUSmgoGQiIjIBNWr54dJk6biiy8+1+pz6enpSE8XD12adOjwMhYsWASgGpYsWawxcEVFXUNxcTGsra0ljevg4IgVK1Zj/PgxyM5+KLkfpfIRYmNjJNdr0rBhIBYv/gwWFtxeQV/MYc0WFxeL3uUkMjX8rx4REZGJGjDgbfzf/w0yyFz29vaYOXMOli1bAQcHRzg4OMDLq47G+qKiQkRFXdVqDn//+liz5jvUrFmzsu1qpUWLYKxZsw7Vq9cw6LxyZOpr9ubNaEmPHhOZEt4hJIN78EC7Xb+IqiKuY6oqJk/+AO7utbB27WrBoxQq4+WXO2Hy5A/+8WU6OLg1UlKSNX7u4ME/EBwsvrvks/z8/LF+/UbMnz8X165dqVC/UikUlhgxYjSGDBkGhUKh17nof0x5zd6+rd2j0ESmgIGQDC4oSHgnOSIi0s7AgYPQsmUwFiyYi4SEeJ2N27JlK4wYMRrBwa3Kvd6zZ2/s3r1T4+f379+LMWPGw8XFRat5PT298O23G7BnTzi+//47ZGTc1+rzYiwsLPDKK69i5Mix8PHx0enYJI2prtnU1FSd9ElUlTAQEhERmYHAwMbYvHkrTp06gd9++zciI89XaBw3t5oIC+uEPn36ITCwsWBt8+Yt0LRpM2RmZmisOXToIAYMeEvrPiwsLNC3b3/06tUHR44cwoEDe3HhwnlJG5Jo4unphe7de6JXrz7w9q5b4XFIN0xxzWpzViGRqahWps32W1SlqVQq3L59+z//XAoA8PSsa9THYB48yETDhn5Gm5/IkGJj41Gzprux2yAC8OS/v9euXUVU1DXExNxETk42Hj3KR15ePlQqFWxsbODo6IjatT1Qt25dNGrUGM2aNUPDhoFVdmOVwsLHuHHjOm7cuI6EhHgkJyfj4cMHyM3NRVFREUpKSmBtbQ1bWzs4OTnCy8sb3t510ahRIFq2DEbdurwbWJWZ45olYWq1GmlpSQAAS8snf4cBAQGwtOQ9K0NiIDQjDIRExsVASEREJB0DYdXAP23SK1dXN8TG6u7dAKKqzNW1/MOTiYiIiKoqBkLSKwsLC94xISIiIiKqovjANRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJlKWxGyDzVlpaiocPs4zdBpFBuLq6wcKCv2cjIiIi08FASHr18GEWGjb0M3YbRAYRGxuPmjXdjd0GERFVUUqlErGxMbhzJw7p6enIyclGUVERFAoFHBwc4OTkDF9fX/j7N0D9+vVhaWll7JZJBhgIiYjIqPr164X09DS9zmFhYQELCwsoFJawsbGGra0d7OzsUKNGDbi4uMLDwxN16/ogIKAhGjUKhI2NjV76EPtZd+yIgJeXl17mJiLjyM/Px4EDe3H48CFcu3YVarVK0uccHBzRpk1bhIV1RqdOnRkOSW8YCImIyOyVlpaitLQUKpUKRUWFyMvLAwAkJv6zVqGwRFDQCwgL64TOnV+BpycDGhFpLycnGz/9tBHbt29FUVGh1p9XKh/h0KGDOHToINzd3fHGG2/h7bcHws7OTg/dkpzxZRciIqJnqNUqREVdxerVKzFgQF/MmjUdt27FGLstIjIh+/ZF4K23XsfmzT9XKAw+LzMzE99++w3efvt1HDp0UAcdEv0P7xCSwf24YR+qO7sauw2iSsnNe4hhI3sauw3SM7VajSNHDuHYsSPo1+8NTJgwGfb29sZui4iqqOLiYixZ8gn27dujl/EzMu5jzpwZOHXqJGbMmK23x9tJXhgIyeCqO7uiRg0GQiIyHaWlpdixYysuX76Izz//Ej4+PsZuiYiqGJWqBLNmTcOpUyf1Pte+fXsQH38HX321Bs7Oznqfj8wbHxklIiKSKD7+LsaMGY7ExARjt0JEVYharca8ebMNEgafunkzGh98MBEFBQUGm5PME+8QEhERaSE7+yEmTBiLjRt/hZubm7HbIaIqYOXK5Thy5JCk2tq1PRAW1gkhIW3g61sPLi4usLKyRk5ONtLT03Hx4gWcOHEc0dHXRce6fj0KixbNx2efLavsj0AyxkBIRESkpczMDCxa9BFWrPga1apVM3Y7RGREly9fxLZtv4nW1ahRA6NHj0OfPn1hZfXPIyRq1aqNWrVq48UXm2HYsJE4d+4svv56JW7fjhUc98iRQ9i3LwI9e/au8M9A8sZASEREVVqLFsFYu3Z9pcdRq9VQq9VQqVR4/LgASmUBHj7Mwv376YiNvYVjxw4jOTlZ8nhnz55BREQ4+vTpV+neiMg0FRYW4tNPF6GsrEywLiioCT77bClq1/aQPHZoaBs0a7YRS5YsxoED+wRrV65cjpdfDoODg6Pk8Yme4juEREQkCwqFAtbW1rC3t4ebW034+PigefMW6NatByZOnIJt23bjq6++Qf36DSSPuW7dGjx+/FiPXRNRVfbbb5uRlHRPsCYwsDHWrFmnVRh8ytbWFgsWLMarr3YXrMvLy8WWLZu1Hp8IYCAkIiL6r9DQtti06Vf07dtfUv2DBw8QHr5Dz10RUVWkUqmwfftWwRpXVzcsW7YStraVO0x+zpz5aNAgQLDm99+3QKUqqdQ8JE8MhERERM+wtLTCrFnzMGDAW5Lqt2/fKvq4GBGZn+PHjyIj475gzdix4+Hu7l7puWxsbDBx4hTBmtzcHJw5c7rSc5H8MBASERGVY+rU6WjWrLloXVLSPURFXTNAR0RUlezYIXx30N+/Pnr3fk1n84WGtkXDhoGCNcePH9PZfCQfDIRERETlUCgU+Ne/ZkOhEN9/7cyZUwboiIiqisePH+PKlcuCNX379oeFhW6/ardr117wupSjKoiex0BIRESkQf36DdC+fQfRusjICwbohoiqiqtXL0OlUmm8rlAo0LWr8EYwFdG0aTPB6wkJ8VCr1Tqfl8wbAyEREZGAXr3EH/mKj79jgE6IqKq4eDFS8HrjxkFwdXXV+byuri6C19VqNfLz83Q+L5k3BkIiIiIBzZu3ED18/tGjR8jKemCgjojI2Pz9/dGlS1f4+taDQqH4x/WgoCZ6mVfKOYOPHj3Sy9xkvngwPRERkQBnZ2fUrl0b6enpgnW5ublwc6tpoK4q5uHDh4iJiUZMzE0kJiYgI+M+MjIyoFQ+QlFREYqKiv5zXqMNbG1t4erqipo13VGnTh00bBiIxo2DEBDQ0Gj95+RkIzr6Bq5fj0J09A1kZT1Afn4e8vLyUVRUCBsbG9jY2KBGDRd4eHiiTp06CAwMwgsvNIGfn7/R+hZz714ibt2KQXz8XWRnZ0OpVKJatSdf/p2cnODn548GDQJQv34D0V9OSJGVlYXo6Ou4cycODx5k/jdAVK9eHdWr14C7uzuaNWsJHx+fSs9VWVV1zfbo0Rs9evQGABQVFSE+/g7i4m7/938tWwbrfE4Aks49tbOr3BEXJD8MhERERCKcnWuIBsKCAqWButFOYmIC/vzzAE6ePI5bt2JE60tLS1FSUgKl8sldz9u3Y/92vXZtD3TsGIbXXx9gkJClVCqxf/9e/PHHfly/fk3wiI+CggIUFBQgOzsb8fF3/3bNw8MTYWGd0atXH50GhIUL52Pfvj3lXhs8eCjGj59U7rX799OxdetvOHr0EJKTkyXN5e5eC506dcHbb/8f6tTx1qrPwsJCRETslvTn+L/53NGhQxgGDXoPXl51tJqvMkxtzdrY2CAwMAiBgUE6H/t5qakpgterVasGZ+fqeu+DzAsDIRERkQgbG2vRmtLSqnUWYWTkefz880acP39Op+ckPgkyW7B16xa0a9ceEyZM0cuX7KKiIvzyyyZs3vwLlMrKPwKXnp6GLVt+xZYtvyIkpA1Gj34fTZo01UGn2snOzsaaNauwf/9ewU1JypOZmYHff/83tm/fin79+mPChCmid4NKS0uxbdvv+OGH75CTk6PlfJnYsWMrwsN3okePnpg8+UM4OTlpNYY2TH3NGsL161GC1318fGFlZWWgbshcMBASERGJyM7OFq2pKo9ppaen4csvl+H48aN6n+vUqZM4e/YMRo4cg6FDR+jkcUYAiIu7jdmz/4V79xJ1Mt7zzp8/iwsXzuG11/ph6tTpsLW11cs8zzt48A8sW7YEeXm5lRpHrVZh+/atiIy8gGXLVsDHx7fcutTUFMydO6vSRxGo1SpEROzG1atXsHTplzoPU+awZg2hrKwMR48eFqx54QXD/5KDTB83lSEiIhKRkyMeCKtXr2GAToSdO3cWQ4a8a5Av1k+p1WqsW7cGixbNR2lpaaXHO3/+HEaNGqq3MPhUWVkZwsN3YuzYEXrfEKisrAyrVq3AvHmzKh0Gn5WYmIDx48cgJeWfj5xeunQRw4YN1um5dElJ9zBy5FBJj3FKZQ5r1lCOHDmE5OQkwZouXV4xUDdkThgIiYiIBCQl3RPdtc/Kygru7u4G6qh8x44dwQcfTERurnaPBerKvn0R+P777yo1xo0b1zF9+lRJG2foSkzMTUydOgkFBQV6Gb+srAxLlizG5s0/62X8zMwMzJw5DSpVyX//3cWLFzB16gS9rAWl8hGmT5+K/Pz8So9lDmvWULKzs7Fy5XLBGnd3d4SGtjVQR2RO+MgoERGRgDNnTovW+Pn5G/XRs6ioq5g3b5ZWB1JbWFjA09MLrq5usLe3g62tHQoKCqBUPkJ2djbS0lK17mPjxu8RFta5Qpu25OfnY/bsf6GoqFDyZ1xd3eDp6Qk7O3vY29ujuLgYSuUjpKWl4sED6Xf9YmNjsGLFF5gz5yOt+xazfv23CA/fqfNxn3X7diw2bfoRI0aMxs2b0Zg2bQqKior0Nl9Gxn2sWbMKM2bMqfAY5rBmDSU/Px8ffjgZGRn3BetGjBgDS0t+tSftcdUQEREJOHBgn2iNMd/befz4MT7+eB6Ki4tFa2vVqo2uXbshLKwTAgIaCb47l5ubi5iYaBw+/BcOHvxD0h00tVqN775bi2XLVmj1MwDAunXf4P594Z1cFQoFunTpis6dX0FwcGvBDU6ysh7g5MkTCA/fgejoG6LzR0SEo2/f/jrdaObixUjExERrvO7k5IQuXboiJKQNGjUKhIuLKywtLZGTk43k5GScO3cae/fukRRut2z5FT169MasWdM03mF1cXFF+/Yd8dJL7eDn5w8XF1c4ONgjP/8R7t6Nw6lTJ7F37x5Jd+x27w7H4MFDK7T7qLmsWUO4du0qFi6cJ7oTbaNGgejTp6+BuiJzw0BIRESkwV9//SnpHaw2bYz3mNbGjd+LfllUKBQYMWI03n33PdjY2Egat3r16ggNbYvQ0LaYNOkDrF//LX77bbPo7o+nTp1ARsZ91KpVW/LPkJFxH7t27RCsadAgAPPnL5J8J8fNrSb69u2Pvn37Y+/ePfjyy2WCu5WWlZXh55834vPPhR/L04amtWNv74D33huKd94ZCFvbf25GVKtWbdSqVRstWwZjyJARWL16JXbu3CY4V35+PoYPH1TuTqKOjo4YNGiIxvlcXFwQHNwawcGtMWLEKHz99VfYuXO74HxqtQrh4Tvx/vsTBOvKYw5rVt/u3UvEunVrcOjQQdFaR0dHfPrpUigUCgN0RuaI7xASERGVIyMjA6tWid81sLOzM9p7O7m5Odi6dYtgjZWVFT79dCmGDx8l+Yv18xwcHDBlyof46qs1sLYWPoKjtLQUR48e0Wr8Xbt2CB7B0LBhI6xdu6HCj/X16tUHq1evFT0y4cSJY3jwILNCc0gVENAQmzb9iqFDR5Qbzp5nb2+PGTNm4/XX3xStLS8M+vrWw48//iJ5PgcHR8yYMUfj+YnPOnToT9Ga55nLmtW1srIyJCTEY9eu7Rg7dgTeequ/pDBoZ2eHzz//UutzKYmexUBIRET0nLy8PEyZMl70nR0A6NGjt8GOLXjerl07RB+LGzNmHF5+uZNO5gsJCcW0aTNF6yIjz2s17rFjmr+MW1hY4OOPP6n0+XdBQS9g1qx5gjWlpaU4fvxYpeYREhDQEGvWrEfduj5af3bSpKnw8PDQer4NGzZVaL7Bg4eKrpvk5GSkpmr33p65rNnK+uSTjzFjxoeYMGEshgwZiK5dX8Y777yBJUs+wZUrlyWN4eLigq++WoPg4FZ67pbMHQMhERHRM65fv4bhwwfj7t07orUKhQLvvDPQAF2Vb9++CMHrjRsHYeDAwTqds3fv10QDRkJCvOTxHj9+jPj4uxqvt24dorNz7zp3fgUhIW0Ea86eFd9EqCLs7R2wbNmKCgdbW1tbDBo0VKv5PvlkaaWC9Nix40VrhN6RLI85rFldOHz4EI4dO4LIyPO4dStGdCfj54WEtMEvv/yGF19spqcOSU4YCImISPZKS0sRGXkeM2dOw6hRw0TP+nrqtdf6aTwUXN/i4m4jMTFBsGbo0BGwsNDt/9VbWFigR49egjXa7PCZmpoieBZcgwYBkseSYsCAtwWv37wpvgFNRYwdOx4eHp6VGqNz51ckvyc2btwE+Phof2fwWX5+/qJhXMovTp4ylzVbWfn5+YLvswrx8fHFp58uxapVa+DmVlPHnZFccVMZIiKSBZVKBZWqBPn5j5CTk420tDQkJsbj5s1oXLoUWe77V0JcXd0wZsw4PXUr7sKFc4LXvbzqoGPHML3M3aTJi4LXCwqUUKlKYGlpJTqW2J2R/PyKfXHWJCQkBAqFJdTq/72z6OLigjp1vFGnjje8vb0l9y6Vi4sr+vbtX+lxXF1dUb9+AGJjhQ+Gd3JyQq9er1V6PgBo0qSp4B3czMwMyWOZy5qtrPT0tAp/1tbWFgkJCbh79w78/evrsCuSMwZCIiKq0i5fvog2bVoau42/qVatGmbPnocaNVyM1kNZ2ZPH61JSkpGXl/eP62FhnfV2NqKvr/hd0aKiIklfrsU2/Lh69TJKS0t1dtfI1tYOM2fOhoODE7y9n4RABwcHnYytSffuPSu8Ocrz/P39RQNhz569YWcnvoGMFHXrCv9dZ2dnSx7LXNZsZUl5N1mT2NhbiI29he++W4PWrUMxcuQYNGvWXIfdkRwxEBIREWlp5MgxaN++o1F7GDhwEAYOHATgySY4KSnJSE5OQkpKMlJSkvHqq931Nrejo6NoTWFhERwcxOtq1KgheD0xMQG7d+9Cv36vS+5PTJ8+/XQ2lhTt23fQ2Vje3nVFa8Tek9SGq6vwLz2Kigolj2Uua7ay0tOFz9uU6sKFc7hw4Ry6dOmK2bPnGaR3Mk8MhERERFoYMOBtjBgx2tht/I2zszOcnYPQuHGQQeaT8sVTrVZLGsvT0wtOTk7Iz8/XWPPll0v/e4i7qVEoFKKPK2pDyt3MoKAmOpvP2bm64PWSEs3HhQiPa7prtrLu39dNIHzq0KGDuHXrJj777IsKH81C8sZASEREJMGTg7LHYPjwkcZuxSSUlkr/ct2yZSvBoyeKi4sxZ84M/PnnAQwbNgKBgYYJEbrg7V1XZ4+LAk92DxXi4eEBFxfdPcpsZSX8CKXYoe+mRJs1WxkKhQJ9+vRDUFAQGjQIgJdXHTg7V4dKpUJ29kM8fJiFq1ev4OzZM7h8+aLgGZ1PJScnY9Kk97Fu3Q9G2+iKTBcDIRERkYj69Rtg1qx5aNKkqbFbMbqMjAwcP35UtE6boNCtW0/BQPjUsWNHcOzYEfj4+KJ9+4546aV2aN68hUHe+6ooX996Oh1PbJdRXe88KfaOpynQx5qtDE2bUVlZWcHOrg68vOqgSZMX8e677yEtLRXff/8d9u/fK3oHMzs7G5MmjcP33/8ENzc3fbROZoqBkIiISINGjQIxaNAQdOnSVedb4ZuCsrIyJCcnITr6Bq5du4LLly9JPmZAm+/WYWGdUK+en+Sz4O7dS8TmzT9j8+afYW9vj+Dg1ggNbYOQkLaVPmpB1wx9NEBlzh0sn342edEXQ61ZQ/H09MLcuQvQr9/rmDlzmujxGOnpaVixYhkWL15ioA7JHDAQEhER/YdCYYnAwECEhLTBq69219mB6FWdSqVCWloqkpKSkJSUiPj4u7h79y7i4m6joECp9/ktLCwwdeo0TJkyQeu7NAUFBThx4hhOnDgG4MkX6JCQULRp8xJCQkKNvtGGq6urQecz9s9rKMZes4bWpMmL+PHHX/HBBxNx+3asYO1ff/2JXr36oG3bdgbqjkwdAyEREcmCpaUlrK2tYWVlDQcHB7i6usLFxRUeHp6oV88Pfn7+CAxsDHt7e2O3qhcqVQni4+ORmJiAe/cSkZqagtTUVKSmpiAzM8NgG2poEhraFoMHD8VPP/1YqXHS0lIRHr4T4eE7oVBYolmz5mjXrgM6dHjZKHcPdX/HTpiNja1B59Onqr5mDc3d3R3Ll3+FYcMGIytL+E7hhg3rGAhJMgZCIiKq0lq0CMbateuN3YZJunkzGgcP/oHLly8iLu42SkpKjN2SoHHjJqKgoADbtv2mk/HUahUuXYrEpUuRWL16Bfz966Nz51fQtWs3nb/bp0lVfr+xKjK1NWtotWrVxpIly</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzOu2qUaxTH4XdW9kVEKy9AQS30Ejw2QgpbwaBg7C3ETrSwMxcg1gG7yReMokHBQjCJIMRKhahpIiEhIRGZXe2DxBk8znozeZ7y+7+L79fqdDqdAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPANkR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1Ouv7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIBaXblypdy7d++H7w4cOFAmJib+QNHvMzMzU0ZHR3/o5syZM+XmzZt/qOjn3b17t1y/fn3b97GxsXL58uWEIgAAAAAAAAAAAAAAAAAAAAAAAAAAgMES2QEAAAAAAAAAAAAAAAAAAAAAAAAAAACD5uXLl2VxcTE7o6d2u52d8Ft8+vSpjI+PZ2cAAAAAAAAAAAAAAAAAAAAAAAAAAAAMtMgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGERTU1PZCV1tbW2V6enp7Izf4tatW2VlZSU7AwAAAAAAAAAAAAAAAAAAAAAAAAAAYKBFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMAgapomO6GrmZmZsrq6mp3xy9rtdpmYmMjOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGHiRHQAAAAAAAAAAAAAAAAAAAAAAAAAAADCI5ufny/v377MzvmlycjI74Ze9e/euXLt2LTsDAAAAAAAAAAAAAAAAAAAAAAAAAABgV4jsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEHU6XTK1NRUdsY2Gxsb5eHDh9kZv2R5ebmMjo6W1dXV7BQAAAAAAAAAAAAAAAAAAAAAAAAAAIBdIbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAABlXTNNkJ2zx69Kisr69nZ/y0jY2NcvHixfLmzZvsFAAAAAAAAAAAAAAAAAAAAAAAAAAAgF0jsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAG1dzcXPnw4UN2xlfa7XZ2wk/b2Ngoly5dKnNzc9kpAAAAAAAAAAAAAAAAAAAAAAAAAAAAu0pkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyqTqdTpqamsjP+tba2Vh4/fpyd8VPW1tbK+fPny9OnT7NTAAAAAAAAAAAAAAAAAAAAAAAAAAAAdp3IDgAAAAAAAAAAAAAAAAAAAAAAAAAAABhkTdNkJ/zrwYMHZXNzMzvjhy0vL5dz586V58+fZ6cAAAAAAAAAAAAAAAAAAAAAAAAAAADsSpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAsJMNDQ313GdnZ8vHjx/7VNPb5ORkdsIPW1hYKCMjI2V+fj47BQAAAAAAAAAAAAAAAAAAAAAAAAAAYNeK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICd7OjRoz33TqdTmqbpU013Kysr5cmTJ133oaGhPtZ8n+np6XL27NmyuLiYnQIAAAAAAAAAAAAAAAAAAAAAAAAAALCrRXYAAAAAAAAAAAAAAAAAAAAAAAAAAADATnbo0KEyPDzc803TNH2q6e7+/fvl8+fPXfcjR470saa3ra2tcuPGjTI2NlbW19ezcwAAAAAAAAAAAAAAAAAAAAAAAAAAAHa9yA4AAAAAAAAAAAAAAAAAAAAAAAAAAADYyVqtVjl27FjPN7Ozs2VpaalPRd/Wbre7bnv27CmHDx/uY013r1+/LiMjI+XOnTul0+lk5wAAAAAAAAAAAAAAAAAAAAAAAAAAAFBKiewAAAAAAAAAAAAAAAAAAAAAAAAAAACAne7kyZM9906nU5qm6VPNdsvLy+XZs2dd9xMnTpRWq9XHou22trbK+Ph4GRkZKQsLC6ktAAAAAAAAAAAAAAAAAAAAAAAAAAAAfC2yAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHa6gwcPlr179/Z80zRNn2q+/e8vX7503U+dOtXHmu1mZmbK6dOny+3bt8vm5uZ33bRarT9cBQAAAAAAAAAAAAAAAAAAAAAAAAAAwD8iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGAQHD9+vOf+4sWLsrS01Kear01OTnbd9u3bV/bv39/Hmv+8evWqXLhwoYyOjpa3b99+993w8HC5evXqHywDAAAAAAAAAAAAAAAAAAAAAAAAAADg/yI74G927qY3qvL/4/iX01KhYAigKQQbIQLRQNAIiWCQm4amnDlxo4krH4JsjFtXJq5cGROfgq5Nh+kwaSCCIAK6YcWGDQsgFpGAgd79F/y9+SlnaMtMr8nM67WCfq5zXe9HMAAAAAAAAAAAAAAAAAAAAAAAAAAAAN0gz/Om+/z8fExMTCxTzd9u3rwZly5dKt0rlcoy1jx27dq1OHHiRLz33ntx+vTpRX27a9eu+Pbbb2PHjh3tiQMAAAAAAAAAAAAAAAAAAAAAAAAAAOA/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAA3WDPnj3x0ksvNT1Tq9WWqeZ/35ybmyvdi6JYxprHPvnkk6jX6zE/P7+o7z744IP45ptvYtOmTW0qAwAAAAAAAAAAAAAAAAAAAAAAAAAA4Emy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAADdIs/zpvuVK1fi5s2by1TzWLVaLd127twZ27dvX8aapVm/fn18+eWX8dlnn8XAwEDqHAAAAAAAAAAAAAAAAAAAAAAAAAAAgJ6TpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoFnmeN93n5+ejXq8vU03EjRs34pdffindi6JYtpalGh0dje+++y7GxsZSpwAAAAAAAAAAAAAAAAAAAAAAAAAAAPSsLHUAAAAAAAAAAAAAAAAAAAAAAAAAAABAt9i1a1e8/PLLTc/UarVlqomoVqtN96Iolqlk8bZs2RJff/11fPXVV/Hiiy+mzgEAAAAAAAAAAAAAAAAAAAAAAAAAAOhpWeoAAAAAAAAAAAAAAAAAAAAAAAAAAACAbpLnedP9ypUrcevWrWVpOXnyZOm2Z8+eGB4eXpaOxRgcHIwTJ05EtVqNkZGR1DkAAAAAAAAAAAAAAAAAAAAAAAAAAABERJY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJvked50n5ubi3q93vaO69evx9WrV0v3oija3rAYfX198f7770etVouPPvooVq1alToJAAAAAAAAAAAAAAAAAAAAAAAAAACA/5elDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOgmr776amzbtq3pmVqt1vaOarVaumVZFnmet71hIfr6+uLdd9+N8fHx+Pzzz2NoaCh1EgAAAAAAAAAAAAAAAAAAAAAAAAAAAP+SpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoNnmeN90vX74ct2/fbmtDtVot3fbt2xdDQ0Ntff9p1qxZEx9++GFMTEzEF198Edu2bUvaAwAAAAAAAAAAAAAAAAAAAAAAAAAAQLksdQAAAAAAAAAAAAAAAAAAAAAAAAAAAEC3qVQqTfe5ubmo1+tte//atWtx7dq10v1pfe328ccfx9mzZ+PTTz+N4eHhpC0AAAAAAAAAAAAAAAAAAAAAAAAAAAA8XZY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoNvs2LEjtm/f3vRMrVZr2/vj4+OlW39/f4yNjbXt7YU4fPhwDA4OJm0AAAAAAAAAAAAAAAAAAAAAAAAAAABg4bLUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAN0oz/Om+6VLl+L27dttefvkyZOl24EDB2LDhg1teRcAAAAAAAAAAAAAAAAAAAAAAAAAAIDulKUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6EZ5njfd5+bmol6vt/zdq1evxvXr10v3oiha/iYAAAAAAAAAAAAAAAAAAAAAAAAAAADdLUsdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0I1eeeWV2LlzZ9MztVqt5e9Wq9XSbWBgIEZHR1v+JgAAAAAAAAAAAAAAAAAAAAAAAAAAAN0tSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQrSqVStP98uXL8euvv7b0zZMnT5Zuhw4dirVr17b0PQAAAAAAAAAAAAAAAAAAAAAAAAAAALpfljoAAAAAAAAAAAAAAAAAAAAAAAAAAACgW+V53nSfnZ2Ner3esvd+/vnnuHHjRuleFEXL3gIAAAAAAAAAAAAAAAAAAAAAAAAAAKB3ZKkDAAAAAAAAAAAAAAAAAAAAAAAAAAAAutXWrVvjtddea3qmVqu17L1qtVq6DQ4OxtGjR1v2FgAAAAAAAAAAAAAAAAAAAAAAAAAAAL0jSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQzSqVStP9p59+iqmpqWd+Z25uLmq1Wuk+MjISq1evfuZ3AAAAAAAAAAAAAAAAAAAAAAAAAAAA6D1Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAIBulud50312djbq9fozv3Pp0qW4detW6V4UxTO/AQAAAAAAAAAAAAAAAAAAAAAAAAAAQG/KUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAB0s+Hh4di9e3fTM7Va7ZnfGR8fL93WrVsXBw8efOY3AAAAAAAAAAAAAAAAAAAAAAAAAAAA6E1Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAIBul+d50/3ixYsxNTW15PtnZ2ejXq+X7seOHYuBgYEl3w8AAAAAAAAAAAAAAAAAAAAAAAAAAEBvy1IHAAAAAAAAAAAAAAAAAAAAAAAAAAAAdLs8z5vus7OzcerUqSXff/78+Ziamirdi6JY8t0AAAAAAAAAAAAAAAAAAAAAAAAAAACQpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADodlu2bInXX3+96Zlarbbk+6vVaum2cePG2L9//5LvBgAAAAAAAAAAAAAAAAAAAAAAAAAAgCx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQC/I87zpfvHixZiamlr0vY8ePYpGo1G6Hz9+PPr6+hZ9LwAAAAAAAAAAAAAAAAAAAAAAAAAAAPwpSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQC/I8jxUrVpTuMzMz0Wg0Fn3vuXPn4u7du6V7pVJZ9J0AAAAAAAAAAAAAAAAAAAAAAAAAAADwT1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF6wadOmeOONN5qeqdVqi753fHy8dNu8eXPs3bt30XcCAAAAAAAAAAAAAAAAAAAAAAAAAADAP2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHpFnudN9x9//DHu3Lmz4PsePnwYk5OTTd9bsWLFgu8DAAAAAAAAAAAAAAAAAAAAAAAAAACAJ8lSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAPSK48ePR5aV/yzszMxMNBqNBd93+vTpuH//fuleFMWi+gAAAAAAAAAAAAAAAAAAAAAAAAAAAOBJyn9ZFwAAAAAAAAAAAAAAAAAAAAAAAAAAgJYaGhqKN998s+mZWq224Puq1WrptnXr1ti9e/eC7wIAAAAAAAAAAAAAAAAAAAAAAAAAAIAyWeoAAAAAAAAAAAAAAAAAAAAAAAAAAACAXlKpVJruFy5ciDt37jz1ngcPHsSZM2eW/A4AAAAAAAAAAAAAAAAAAAAAAAAAAAAsVJY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJeMjY1FlpX/NOzMzEw0Go2n3jM5ORl//PFH6V4UxZL6AAAAAAAAAAAAAAAAAAAAAAAAAAAA4N/Kf1UXAAAAAAAAAAAAAAAAAAAAAAAAAACAlnvhhRdi3759Tc/UarWn3jM+Pl667dy5M7Zv377oNgAAAAAAAAAAAAAAAAAAAAAAAAAAAHiSLHUAAAAAAAAAAAAAAAAAAAAAAAAAAABAr6lUKk33CxcuxG+//Va637t3L86ePVu6F0Wx5DYAAAAAAAAAAAAAAAAAAAAAAAAAAAD4tyx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQK8ZGxuLvr6+0n1mZiYajUbp3mg04tGjR6V7URTP1AcAAAAAAAAAAAAAAAAAAAAAAAAAAAD/lKUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6DUbNmyIt956q+mZiYmJ0q1arZZue/bsieHh4SW3AQAAAAAAAAAAAAAAAAAAAAAAAAAAwL9lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAB6UZ7nTffz58/H77///p+/3717N86fP1/6XVEUz9wGAAAAAAAAAAAAAAAAAAAAAAAAAAAA/5SlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhFo6Oj0d/fX7pPT0/H5OTkf/5+6tSpmJ6efuI3WZZFnuctawQAAAAAAAAAAAAAAAAAAAAAAAAAAICIiCx1AAAAAAAAAAAAAAAAAAAAALBb+acAACAASURBVAAAAAAAQC9av3597N+/v+mZiYmJ//ytVquVnt+3b18MDQ09cxsAAAAAAAAAAAAAAAAAAAAAAAAAAAD8U5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoFfled50P3fuXNy/f/+v/9+9ezcuXLhQer5SqbSsDQAAAAAAAAAAAAAAAAAAAAAAAAAAAP6UpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoVaOjo7Fy5crS/eHDh3HmzJm//t9oNGJ6evqJZ/v7+2NsbKzljQAAAAAAAAAAAAAAAAAAAAAAAAAAAJClDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhV69ati7fffrvpmXq9/te/JyYmSs8dOHAgNmzY0LI2AAAAAAAAAAAAAAAAAAAAAAAAAAAA+FOWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKCX5XnedD9z5kw8evQo7t27Fz/88EPpuaIoWp0GAAAAAAAAAAAAAAAAAAAAAAAAAAAAERHRnzoAAAAAAAAAAAAAAAAAAAAAAAAAAACglx07dixWrlwZ09PTT9wfPHgQ586di3v37pWeGRgYiNHR0XZmAgAAAAAAAAAAAAAAAAAAAAAAAAAA0MOy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAC97Pnnn4+DBw82PdNoNKLRaJTuhw4dirVr17Y6DQAAAAAAAAAAAAAAAAAAAAAAAAAAACIiIksdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0OsqlUrTfXJyMr7//vvSvSiKVicBAAAAAAAAAAAAAAAAAAAAAAAAAADAX/pTBwAAAAAAAAAAAAAAAAAAAAAAAAAAAPS6kZGReO655+Lhw4dP3Kempkq/HRwcjKNHj7YrDQAAAAAAAAAAAAAAAAAAAAAAAAAAACJLHQAAAAAAAAAAAAAAAAAAAAAAAAAAANDr1q5dG++8886Svh0ZGYnVq1e3uAgAAAAAAAAAAAAAAAAAAAAAAAAAAAD+lqUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAIKJSqSzpu6IoWlwCAAAAAAAAAAAAAAAAAAAAAAAAAAAA/ytLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAEDE0aNHY9WqVYv6Zt26dXHw4ME2FQEAAAAAAAAAAAAAAAAAAAAAAAAAAMBjWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIgYHB+Pw4cOL+ubYsWMxMDDQpiIAAAAAAAAAAAAAAAAAAAAAAAAAAAB4LEsdAAAAAAAAAAAAAAAAAAAAAAAAAAAAwGN5ni/qfFEUbSoBAAAAAAAAAAAAAAAAAAAAAAAAAACAv2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHjsyJEjMTg4uKCzGzdujP3797e5CAAAAAAAAAAAAAAAAAAAAAAAAAAAACKy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAA8tnr16jhy5MiCzh4/fjz6+vraGwQAAAAAAAAAAAAAAAAAAAAAAAAAAAARkaUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA4G95ni/oXKVSaXMJAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJalDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOBvhw8fjjVr1jQ9s3nz5ti7d+8yFQEAAAAAAAAAAAAAAAAAAAAAAAAAANDrVszPz8+njgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6U5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPg/dueYBgAAAAHQZv/QxtADEgAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlD16C+26/h84/trHw+aBfoqUisMFHvBKMDJZXVRmYrogOzjISKxFBFZIFl1EKB2lLEkC8SJMO1FY6kwyXZKdF6iZkZqVpNEgy2Zjptv8/q7+F/9+7buDm+9P+nhc+n59X6/nZwIAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwdpvmQAAIABJREFUAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/OqbOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDe09zcHF999VXs378/jh07Fo2NjXH8+PHo379/DB48OIYNGxbjxo2L8ePHx+jRo1PnFnX8+PHYtWtXHDx4MBobG+OPP/6IpqamKC0tjcGDB8dFF10U48aNiwkTJsSIESNS5wIAAJwz+qYOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6Envv/9+3Hvvvf/z73V1dVFeXp6g6Oz7888/Y926dVFbWxv79u2L1tbWTv2uoqIipk6dGrfcckuMGTOmlys75+jRo/HGG2/Eli1b4uDBg3H69OlO/W78+PExbdq0mDNnTowcObKXKwEAAM5tJYVCoZA6AgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoCecOnUqZs6cGYcPH/6ft7q6uigvL09QdfY0NjbGihUrYt26ddHc3NztPSUlJXHVVVfFokWLYuzYsT1Y2HkNDQ3x3HPPxebNm6OlpaXbe/r27RszZ86MBx54IEaMGNGDhQAAAOePLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAT1mxYkUcPnw4dUYSH374YVRVVcXatWujubn5jHYVCoXYvn173HDDDbF8+fJobW3tocrOeeedd6Kqqio2bNgQLS0tZ7SrtbU1Nm7cGNddd12sXbu2hwoBAADOLyWFQqGQOgIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOBMffLJJ3HnnXdGoVD4x/e6urooLy8/y1Vnx7Jly2LVqlW9tr+ysjKWL18eQ4YM6bUbERFtbW3x8MMPx8aNG3vtRlVVVTz55JNRWlraazcAAADONVnqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgDN15MiReOihh6JQKKROOeueeOKJWLVqVa/e+Oyzz2Lu3Llx7NixXrvR0tISCxcujI0bN/bajYiITZs2RU1NTZw8ebJX7wAAAJxLstQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZ+LYsWNRU1MTR48eTZ1y1i1dujTWrFlzVm4dPHgw7rrrrmhubu6V/YsWLYotW7b0yu6/q6+vj/vvvz/a2trOyj0AAIB/u76pAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALqrqakp7rnnnvjxxx9Tp5x127Zti5deeqlTs5MmTYpZs2bFpEmTYvTo0TFw4MA4ceJE/PTTT7Fz58549913Y9euXR3u+frrr2PJkiWxdOnSM83/f1avXh3vvfdeh3MlJSVxxRVXxIwZM2LixIkxatSoKCsri6ampjh06FDU19dHbW1tHDhwoMNd27dvjxdffDHuu+++nvgEAACAc1pJoVAopI4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADoqsbGxqipqYk9e/Z0ar6uri7Ky8t7uersOHLkSMyePTuOHz9edG7MmDGxZMmSmDx5coc76+vrY/HixfH99993OLts2bKoqqrqdG8xe/bsiVtvvTVaWlqKzk2aNCkWL14cEyZM6HDntm3b4rHHHouGhoaic3369Ik1a9bEpZde2qVmAACA802WOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKCrfvvtt5g3b17s2bMndUoSjz/+eBw/frzozPTp02PdunUxefLkTu287LLLYv369XH99dd3OPv0009HU1NTp/YWc/r06XjkkUeipaWl6NzcuXPjlVdeiQkTJnRq77Rp06K2tjYuv/zyonNtbW2xZMmSaGtr63QzAADA+ShLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANAV+/bti1tuuSW+/fbb1ClJfPHFF7F9+/aiM9dcc00sX748BgwY0KXd/fv3j2effTaqq6uLzv3666+xcuXKLu3+J+vXr4/9+/cXnZk7d248+uij0bdv3y7tvuCCC2LVqlVx5ZVXFp07cOBAvPnmm13aDQAAcL4pKRQKhdQRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAnbFt27Z48MEHo7m5ucu/rauri/Ly8l6oOnsKhULcfPPNsXfv3nZnLr744nj77bdj0KBB3b5z+vTpuPvuu2PHjh3tzgwYMCC2b98eQ4cO7daNkydPxvTp06OhoaHdmcmTJ8fLL78cffr06daNiIi//vorqqurY9++fe3OjBw5MrZu3Rr9+vXr9h0AAIBzWZY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoCOnTp2Kp556KhYsWBDNzc2pc5L5/PPPY+/evUVnFi9eHIMGDTqjO1mWxTPPPBPDhg1rd+bEiRPx6quvdvtGbW1tNDQ0tPver1+/WLJkSfTp06fbNyIiysrK4oUXXojS0tJ2Z3755ZfYtGnTGd0BAAA4l2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIo5cOBA3HTTTbF69eooFAqpc5J66623ir5fffXVUVlZ2SO3hgwZEgsXLiw68/rrr0dra2u39nf0LdXV1TFmzJhu7f67ioqKuOOOO4rOrF27tkduAQAAnIuy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/5MSJE/H888/HjTfeGAcOHEidk9zvv/8eW7duLTozb968Hr05e/bsGD58eLvvR48ejY8//rjLe/fv3x+7d+9u972kpCRuv/32Lu8tZv78+VFWVtbu+zfffBPfffddj94EAAA4V2SpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP5u69atMWvWrFi5cmW0tLR0OD9o0KAYOHDgWShLZ/PmzXHq1Kl23ysqKqKysrJHb/bt2zfmzJlTdGbDhg1d3rt+/fqi75WVlVFRUdHlvcX85z//iZkzZxad6c63AAAAnA+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/59NPP43q6upYsGBB/Pzzz536zYUXXhivvfZaDB06tJfr0vrggw+Kvl977bW9cnfGjBlF33fs2BEtLS1d2pnXb6mrq+uVuwAAAP92WeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAiIjbbrst5s+fH7t37+70by655JJYt25dTJgwoRfL0jt58mTU19cXnZk6dWqv3B47dmyMGjWq3fempqbYuXNnp/cdPnw4Dh06VHSmt75lypQpUVZW1u77Dz/8EEeOHOmV2wAAAP9mWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAiIgvv/yy07NZlkVNTU2sWbMmhg8f3otV+bB79+5oaWlp9720tDQmTpzYa/enTJlS9P2jjz7q9K6O/p9Hjx4dI0aM6PS+rigrK+vw79SVbwEAADhfZKkDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP7L3t3FWH2XeQB/5n/ODGVeygydKS+hjAwsYIBiyzZqI0aMF2arQVuig0Z2m5I2jbImayp0b7yoLt0mVlNfwmqgYGM3QIo2pk00FTW9qBdrAyKN2jR0WhjeZngrM4XhzDl75cbozv+cGebM/zDn80m44fs7z/N95oLkkBAAAMaju7s7nnnmmXjkkUeisbEx6zpT4tChQ6n5ihUrqvqzWLlyZWp++PDhimeVu2X16tUVz5qIVatWpea///3vq7ofAADgRpTPugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAlGhsbY/PmzfHwww/HjBkzsq4zpY4ePZqar1q1qqr7y81/7bXXolQqRUNDQ9lZtX7LH/7wh6ruBwAAuBHlsy4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQzrp162Lr1q2xaNGirKtk4k9/+lNqvnjx4qruL/dzv3z5chw7dix6enpS3xWLxXj99ddT32R9yxtvvBHvvvtuzJw5s6o9AAAAbiRJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADGsnLlyti9e3fs2LEjFi1alHWdTBQKhTh+/Hjqm56enqp2aGtri46OjtQ3fX19ZeecPHkyrl69mvqm2rcsXLgwNR8dHY233367qh0AAABuNEnWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP7WihUr4nvf+14899xz8cEPfjDrOpnq7++PQqGQ+mbhwoVV71Fux/Hjx8vOeOutt1LzpqammDdv3rh6jVdzc3N0dnamvqnkFgAAgHqSz7oAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAREQul4sPf/jDsWnTprj77ruzrlMz+vv7U/NcLhddXV1V79HZ2ZmanzhxouyMcrd0dXVFQ0PDuHpNRGdnZwwMDIyZV3ILAABAPclnXQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAi4uDBgzF37tysa9ScU6dOpeazZ8+OJEmq3qOzszM1P3nyZNkZ5W659dZbx9VpoibjFgAAgHpS/W+dAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFZg7d27WFWrSuXPnUvOurq4p6dHZ2ZmaX7x4seyMcreU2zFZJuMWAACAepJkXQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICxXbhwITW/+eabp6RHa2tran7p0qWyM6bTLQAAAPUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY7t48WJq3tLSMiU9yu0p17OSNzfSLQAAAPUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYxsaGkrNW1tbp6RHS0tLav7OO++UnTGdbgEAAKgn+awLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA129oaCiGh4cjIqJYLFZlR0tLS7S2tlZlNmO7cuVKat7c3DwlPW666abU/Nq1a2VnTKdbAAAA6kk+6wIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMD1a2lpiZaWloiIWLt2bZw5c2bSd3zpS1+KLVu2TPpc0l25ciU1z+fzU9Kj3J5r166VnTGdbgEAAKgnSdYFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGNvo6GhqnsvlpqRHuT2FQqHsjOl0CwAAQD1Jsi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA2EZHR1PzXC43JT3y+XxqXiqVolAopL6plVvK7bl27dqU9AAAALhRJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOIaGhpqZk+xWKz6jsmQJElqfr13AAAATDfp36IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIVGNjY2o+Ojo6JT0KhULZN7lcLjXP5/Opea3cUu4OAACAepP+bQ4AoIacPz8UxWIp6xoAAAAAcMNKkobo6GjJZPf5/34ySsPvZLIbAAAAAKaDhua26Nj4b5nsHvrZf0XpyuVMdgMAAADAdNBwU2u0fPKhTHYPv/iDKF0ZymQ3AAAAAEwXDTe1RPM/PZjJ7sE9/xnFIf9GFwAAAAAmKmlpi1v+eWsmu19/9F+jcPF8JrsBAAAAYDrIz+qIf9j+VCa7X/2X++PauXOZ7AYAAACA6aBx9uy4c/fTWdcA6sB//OMn49LJM1nXAKgpN8+7Nf79f372d79/4MCBKBaLk76vpaVl0mdSXmNjY2o+Ojo6JT0q2ZPL5VLzpqam694xGQqFQmpe7g4AAIB6k8+6AABApYrFUhSLpaxrAAAAAAATUBp+J4pDl7KuAQAAAAA3rCTD3aUrl6P07jsZNgAAAAAAJqp0Zcjf7wEAAADADaw49E4UL1/MugYAAAAAMAGFi+ejcH4w6xoAAAAAwARcO3cuRs4OZF0DAAAAAAAo49LJM3Gh/3TWNQBuCF1dXVlXYBLl8/nUfHR0dEp6FAqF1LyxsbHsjFq5pdyeSm4BAACoJ1n+n+sAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACU0dTUlJpfvXp1SnqMjIyk5s3NzWVnTKdbAAAA6kmSdQEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADG1trampoPDw9PSY+hoaHUfObMmWVnTKdbAAAA6kmSdQEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADG1tHRkZoPDQ1NSY9ye26++eayM9rb269rx2SZjFsAAADqSZJ1AQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMY2a9as1HxoaGhKepTb097eXnZGuTc30i0AAAD1JMm6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGNrb29Pzc+dOzclPcrt6ejoKDujVm4ZHBxMzSu5BQAAoJ4kWRcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABgbHPnzk3NBwcHp6THwMBAaj5nzpyyM2rllnJ7KrkFAACgniRZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGBsCxYsSM0vXrwYIyMjVe8xODiYms+ZM6fsjHK3DAwMjKvTRE3GLQAAAPUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY5s/f37kcrnUN/39/VXvceLEidR84cKFZWcsWLAgNR8YGIiRkZFx9RqvQqEQp0+fTn1TyS0AAAD1JMm6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGPL5/Mxb9681Dd9fX1V7TAyMhInT55MfdPd3V12zvz586OxsXHMvFgsxltvvTXufuNx/PjxKBQKqW8quQUAAKCeJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIN2yZctS8zfffLOq+99+++0oFotj5o2NjbFo0aKyc3K5XCxevDj1TbVv6evrS83nz58fra2tVe0AAABwo0myLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC6lStXpuZ//OMfq7r/6NGjqXlPT080NTVVNCvrW1577bXUfPny5VXdDwAAcCNKsi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAupUrV6bmR44cqer+cvNXrVpV8azpdAsAAEC9SLIuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQLrVq1dHkiRj5m+88UZcvHixavtfffXV1Pyuu+6qe</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzRX2jV9R/H8ff5KEjDiwoJx7pITChCLC/ywrtglIWQFxJdBBJYRJYX3QRddaGEoEJh4UUXRVeZiEXbGZnVEIqgsEKRPFldlC5iIeqWtu387oQfuj/Wtvdnx8fj9vP+ntdzrNFut9sBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcB0lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACo1+LsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFq9/PLLcejQoRv+bvXq1fHBBx/MQdHsGRwcjK1bt97QN5s2bYrXXnttjor+3/DwcHz77bdx8uTJaLVace7cuRgaGopLly7F33//HRMTE7FkyZLo6uqKZcuWRXd3d6xYsSLuu+++uP/+++POO++cl04AAAAAAAAAAAAAAAAAAAAAAAAAAICbweLsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgE7zww8/xG+//RY9PT3ZKZPq6+vLTrjGH3/8EYcPH45msxknTpyIdrs95f3IyEiMjIzEn3/+GadOnYrPPvvs6tvdd98dvb29sXnz5qr/DwAAAAAAAAAAAAAAAAAAAAAAAAAAAAvB4uwAAAAAAAAAAAAAAAAAAAAAAAAAAACATjQwMBBPP/10dsZ1XblyJY4cOZKdcdUvv/wSb775Znz88ccxNjY2K7/ZarWi1WrF/v37o7e3N7Zv3x4rV66cld8GAAAAAAAAAAAAAAAAAAAAAAAAAAC42ZTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgE7UbDazEyY1ODgYFy5cyM6I0dHR2LVrVzz22GNx+PDhGBsbm/WNiYmJGBgYiI0bN8bOnTvj8uXLs74BAAAAAAAAAAAAAAAAAAAAAAAAAADQ6Up2AAAAAAAAAAAAAAAAAAAAAAAAAAAAQCf6/vvv4/fff8/OuK7+/v7shGi1WrFp06Z4++23Y2xsbM73xsfH45133onHH388fvrppznfAwAAAAAAAAAAAAAAAAAAAAAAAAAA6CQlOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKATtdvtGBgYyM64xujoaBw9ejS14dixY7F58+b4+eef5337zJkz8eSTT8bXX38979sAAAAAAAAAAAAAAAAAAAAAAAAAAAALVckOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6FTNZjM74Rqff/55jIyMpO0PDg7Gc889l9pw/vz5eOaZZ+Kbb75JawAAAAAAAAAAAAAAAAAAAAAAAAAAAFhIFmcHAAAAAAAAAAAAAAAAAAAAAAAAAAAAdKrvvvsuzp49G93d3dkpV/X19aVt//jjj7F9+/a4cuXKDX131113xfr162PlypVx2223xe233x7tdjv++uuvGB4ejhMnTsSXX34ZZ8+enfFvjo6OxrPPPhsHDhyIFStW3OifAgAAAAAAAAAAAAAAAAAAAAAAAAAAcFNZnB0AAAAAAAAAAAAAAAAAAAAAAAAAAADQqdrtdgwMDMSWLVuyUyIi4uLFi/HFF1+kbI+Ojsa2bdtiZGRkRvdLliyJJ554IrZs2RI9PT0z+ubUqVOxf//+aDabMTExMe39hQsX4oUXXogDBw7ELbfcMqMNAAAAAAAAAAAAAAAAAAAAAAAAAACAm1HJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhkzWYzO+GqTz/9NC5fvpyyvXfv3vj1119ndNvb2xtHjhyJV155JXp6ema8cc8998TevXvjww8/jFWrVs3om9OnT8frr78+4w0AAAAAAAAAAAAAAAAAAAAAAAAAAICbUckOAAAAAAAAAAAAAAAAAAAAAAAAAAAAWMgWLVo05fvx48fj3Llz81Qztf7+/pTdM2fOxHvvvTftXaPRiOeffz7eeOONuOOOO/713qpVq+L999+PDRs2zOj+3XffjVar9a/3AAAAAAAAAAAAAAAAAAAAAAAAAAAAOl3JDgAAAAAAAAAAAAAAAAAAAAAAAAAAAFjI1q1bN+V7u92OZrM5TzWTO3/+fBw7dmzS90WLFs3Z9r59+2J8fHzau5deeilefPHFaDQa/3mzq6sr9uzZEw899NC0t2NjY/HWW2/9500AAAAAAAAAAAAAAAAAAAAAAAAAAIBOVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAFrIHHnggli9fPuVNs9mcp5rJffLJJ/HPP/9M+v7ggw/Oye7Q0FD09/dPe/fII4/E1q1bZ3W7lBK7d++Oe++9d9rb/v7+GBoamtV9AAAAAAAAAAAAAAAAAAAAAAAAAACATlGyAwAAAAAAAAAAAAAAAAAAAAAAAAAAABayRqMRDz/88JQ3x48fj6GhoXkqur6+vr5J37q7u2Pt2rVzsnvw4MEYHx+f8ubWW2+NHTt2zMl+V1dXvPrqq9PejY+Px0cffTQnDQAAAAAAAAAAAAAAAAAAAAAAAAAAAAtdyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAABY6B599NEp39vtdjSbzXmqudbw8HB89dVXk75v2LAhGo3GnGzP5O9+6qmnYunSpXOyHxGxZs2aaf9HERFHjx6dswYAAAAAAAAAAAAAAAAAAAAA+B87dxcj5V02cPjmYaEsUKhLZYuVuA0fbQNFQmmlFaEQCMxMDzSm2qSpSWMTQaNooonVRE8a1DQeEL/aRFNaqpXExJ6wzC4TIikURApa0wO6HEArIiAUinws+/UeNK/W2pkdlnn2mZ29rhMK9/1/7l/S8wEAAACAkSzJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAGCkW7hwYXzkIx+puFMsFoep5oNv9/X1lZ0XCoVU7p44cSIOHz5ccae5uTkeffTRVO6/10MPPTTozmuvvRZXrlxJvQUAAAAAAAAAAAAAAAAAAAAAAAAAAGCkSbIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAaARr166tOD906FCcPHlymGr+2/bt28vO2traYv78+anc3b9//6A7ixYtiqlTp6Zy/73uueeemDx5csWdnp6eOHLkSOotAAAAAAAAAAAAAAAAAAAAAAAAAAAAI02SdQAAAAAAAAAAAAAAAAAAAAAAAAAAAEAjyOVyFecDAwPR0dExTDX/cfLkyThw4EDZeT6fT+32X//610F37r333tTuv9e4cePirrvuGnTvzTffHIYaAAAAAAAAAAAAAAAAAAAAAAAAAACAkSXJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKARLFiwID760Y9W3CkWi8NU8983+/v7y84LhUJqtw8fPjzozqJFi1K7/34333zzoDtnzpwZhhIAAAAAAAAAAAAAAAAAAAAAAAAAAICRJck6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoFHkcrmK84MHD8bJkyeHqeZd7e3tZWdz586N2bNnp3b7rbfeGnRn+vTpqd1/v2nTpg26c+nSpWEoAQAAAAAAAAAAAAAAAAAAAAAAAAAAGFmSrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAaRS6XqzgfGBiIzs7OYaqJOH78ePz5z38uOy8UCqnd7u/vjwkTJkRzc3PFvZtuuim1hvfr7e0dtlsAAAAAAAAAAAAAAAAAAAAAAAAAAACNpCnrAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEYxb968+NjHPhbHjh0ru1MsFuPRRx8dlp729vaK80KhkNrtJEmiWCxGRMQ777wTJ0+ejFOnTv3Xn6dPn44pU6ak1vB+J06cGHRn0qRJw1ACAAAAAAAAAAAAAAAAAAAAAAAAAAAwsjRlHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBIcrlcPP3002XnBw8ejFOnTsX06dNTb9m+fXvZ2YIFC2LmzJmpN0RETJkyJaZMmRJz5swZlnvlvPHGG4PutLS0DEMJAAAAAAAAAAAAAAAAAAAAAAAAAADAyJJkHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBIcrlcxXl/f390dnam3nH06NF4/fXXy84LhULqDfXk+PHj8dZbbw26d9tttw1DDQAAAAAAAAAAAAAAAAAAAAAAAAAAwMiSZB0AAAAAAAAAAAAAAAAAAAAAAAAAAADQSO6444647bbbKu4Ui8XUO9rb28vOkiSJXC6XekM96ejoGHRn3Lhxg/6/AwAAAAAAAAAAAAAAAAAAAAAAAAAAGI2SrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAaTS6Xqzh/9dVX4/Tp06k2tLe3l50tXrw4WltbU71fTwYGBmLr1q2D7i1cuDAmTJgwDEUAAAAAAAAAAAAAAAAAAAAAAAAAAAAjS5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQKPJ5/MV5/39/dHZ2Zna/a6urujq6io7H6yv0ZRKpTh69Oige5/85CfTjwEAAAAAAAAAAAAAAAAAAAAAAAAAABiBkqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAGs2cOXNi9uzZFXeKxWJq97dt21Z21tTUFGvWrEntdr3p7e2NTZs2Dbo3ZsyYePDBB4ehCAAAAAAAAAAAAAAAAAAAAAAAAAAAYORJsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoRLlcruL8wIEDcfr06VRub9++vezsvvvui5aWllTu1qMXXnghurq6Bt275557YubMmcNQBAAAAAAAAAAAAAAAAAAAAAAAAAAAMPIkWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAA0olwuV3He398fnZ2dNb/7+uuvx9GjR8vOC4VCzW/Wq2PHjsWmTZuq2n388cdTrgEAAAAAAAAAAAAAAAAAAAAAAAAAABi5kqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAGtGsWbNi7ty5FXeKxWLN77a3t5edjR8/PlavXl3zm/Xo6tWr8c1vfjMuXbo06O68efNi+fLlw1AFAAAAAAAAAAAAAAAAAAAAAAAAAAAwMiVZBwAAAAAAAAAAAAAAAAAAAAAAAAAAADSqfD5fcf7qq6/GmTNnanpz+/btZWfLli2LyZMn1/RevXryySfjtddeG3RvzJgx8Z3vfGcYigAAAAAAAAAAAAAAAAAAAAAAAAAAAEauJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACARpXL5SrO+/r6orOzs2b3Dh06FMePHy87LxQKNbtVzzZv3hxbt26tavfTn/50LF68OOUiAAAAAAAAAAAAAAAAAAAAAAAAAACAkS3JOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKBRtbW1xZ133llxp1gs1uxee3t72dnEiRNjxYoVNbtVr7Zv3x4/+tGPqtq95ZZb4oknnki5CAAAAAAAAAAAAAAAAAAAAAAAAAAAYORLsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoZPl8vuL8T3/6U5w9e/a67/T390exWCw7X7lyZTQ3N1/3nXq2a9eu+Na3vhX9/f2D7iZJEk899VRMnTp1GMoAAAAAAAAAAAAAAAAAAAAAAAAAAABGtiTrAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEaWy+Uqzvv6+qKzs/O67xw4cCBOnTpVdl4oFK77Rj3bvXt3fPWrX42enp6q9jds2BD33ntvylUAAAAAAAAAAAAAAAAAAAAAAAAAAACNIck6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJHNnDkz5s+fX3GnWCxe951t27aVnU2dOjWWLl163Tfq1csvvxxf/vKXo7u7u6r9Bx98MNatW5dyFQAAAAAAAAAAAAAAAAAAAAAAAAAAQONIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABodLlcruJ8//79cfbs2SF/v6+vLzo7O8vOV61aFePHjx/y9+vZjh07Yv369dHd3V3V/sKFC2Pjxo0pVwEAAAAAAAAAAAAAAAAAAAAAAAAAADSWJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACARpfL5SrO+/r6YseOHUP+/t69e+Ps2bNl54VCYcjfrme///3vY8OGDdHT01PV/pw5c+KZZ56JG264IeUyAAAAAAAAAAAAAAAAAAAAAAAAAACAxpJkHQAAAAAAAAAAAAAAAAAAAAAAAAAAANDobr311vj4xz9ecadYLA75++3t7WVn06ZNiyVLlgz52/Xql7/8ZTzxxBPR19dX1X5bW1s8++yzcdNNN6VcBgAAAAAAAAAAAAAAAAAAAAAAAAAA0HiSrAMAAAAAAAAAAAAAAAAAAAAAAAAAAABGg1wuV3G+f//+OHv27DV/9+rVq1EqlcrO165dG2PHjr3m79argYGB2LhxYzz11FMxMDBQ1Zu2trZ4/vnn48Mf/nDKdQAAAAAAAAAAAAAAAAAAAAAAAAAAAI0pyToAAAAAAAAAAAAAAAAAAAAAAAAAAABgNMjlcjFmzAriR70AACAASURBVJiy897e3iiVStf83T179sT58+fLzvP5/DV/s15duXIlNmzYEM8991zVb2bNmhVbtmyJ1tbWFMsAAAAAAAAAAAAAAAAAAAAAAAAAAAAaW5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGhwyy23xMKFCyvuFIvFa/7utm3bys5mzJgRd9999zV/sx6dOXMmvvCFL0RHR0fVb+6888544YUXYvr06SmWAQAAAAAAAAAAAAAAAAAAAAAAAAAANL4k6wAAAAAAAAAAAAAAAAAAAAAAAAAAAIDRIpfLVZz/8Y9/jLfffrvq73V3d8fOnTsr3hszZkzV36tXXV1d8bnPfS7+8pe/VP1m8eLFsWXLlmhpaUmxDAAAAAAAAAAAAAAAAAAAAAAAAAAAYHRIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYLdauXRtJUv5nYXt7e6NUKlX9vT/84Q9x8eLFsvNCoXBNffVo165d8fnPfz7+9re/Vf1mxYoV8atf/SpuvPHGFMsAAAAAAAAAAAAAAAAAAAAAAAAAAABGj/K/rAsAAAAAAAAAAAAAAAAAAAAAAAAAAEBNtba2xqJFiyruFIvFqr/X3t5edtbW1hbz58+v+lv1aPPmzbFu3bq4ePFi1W8++9nPxs9+9rOYMGFCimUAAAAAAAAAAAAAAAAAAAAAAAAAAACjS5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiSz+crzvft2xdvv/32oN+5dOlS7Nq1a8h36llvb298//vfjx/84AfR399f9bv169fHxo0bY+zYsSnWAQAAAAAAAAAAAAAAAAAAAAAAAAAAjD5J1gEAAAAAAAAAAAAAAAAAAAAAAAAAAACjyZo1ayJJyv80bG9vb5RKpUG/s3Pnzrh8+XLZeaFQGFJf1v71r3/Fl770pfjtb39b9ZumpqZ48skn4+tf/3qKZQAAAAAAAAAAAAAAAAAAAAAAAAAAAKNX+V/VBQAAAAAAAAAAAAAAAAAAAAAAAAAAoOZuvvnmWLx4ccWdYrE46He2bdtWdjZ37tyYPXv2Nbdl7cSJE/Hwww/H7t27q34zadKk+MUvfhEPPfRQimUAAAAAAAAAAAAAAAAAAAAAAAAAAACjW5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiTz+crzvft2xfnzp0rO79w4ULs3r277LxQKAy5LStHjhyJhx9+OLq6uqp+M2PGjPjNb34Ty5YtS7EMAAAAAAAAAAAAAAAAAAAAAAAAAACAJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACA0WbNmjUxduzYsvPe3t4olUpl56VSKa5evVp2XigUrqtvuB06dCgeeeSR+Mc//lH1m3nz5sXWrVvjjjvuSLEMAAAAAAAAAAAAAAAAAAAAAAAAAACAiIgk6wAAAAAAAAAAAAAAAAAAAAAAAAAAAIDRpqWlJT7xiU9U3Ono6Cg7a29vLztbsGBBzJw5c8htw+2VV16Jxx57LM6dO1f1m1WrVsWvf/3raG1tTbEMAAAAAAAAAAAAAAAAAAAAAAAAAACA/5dkHQAAAAAAAAAAAAAAAAAAAAAAAAAAADAa5XK5ivO9e/fGO++88z//fv78+di7d2/Zd4VC4brbhsuePXti/fr1cfny5arfPPbYY/GTn/wkmpubUywDAAAAAAAAAAAAAAAAAAAAAAAAAADgvZKsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAEaj1atXR1NTU9l5T09P7Ny583/+fceOHdHT0/OBb5IkiVwuV7PGNO3evTvWr18fV65cqWp/7Nix8b3vfS++/e1vR5L4aV0AAAAAAAAAAAAAAAAAAAAAAAAAAIDh5FdhAQAAAAAAAAAAAAAAAAAAAAAAAAAAMvChD30olixZUnGno6Pjf/6tWCyW3V+8eHG0trZed1vaDh48GF/5yleiu7u7qv3m5ub46U9/Go888kjKZQAAAAAAAAAAAAAAAAAAAAAAAAAAAHyQJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACA0SqXy1Wc79mzJy5evPjvv58/fz727dtXdj+fz9esLS1HjhyJdevWxZUrV6rab2lpieeffz5WrlyZchkAAAAAAAAAAAAAAAAAAAAAAAAAAADlJFkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAjFarV6+OcePGlZ13d3fHrl27/v33UqkUPT09H7jb1NQUa9asqXljLf3zn/+Mxx9/PM6fP1/V/q233hovvvhiLFiwIOUyAAAAAAAAAAAAAAAAAAAAAAAAAAAAKkmyDgAAAAAAAAAAAAAAAAAAAAAAAAAAABitpk6dGvfff3/Fnc7Ozn//d0dHR9m9++67L1paWmrWVmu9vb3xjW98I06cOFHV/uzZs+PFF1+Mtra2dMMAAAAAAAAAAAAAAAAAAAAAAAAAAAAYVJJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiWy+Uqznft2hVXr16NCxcuxCuvvFJ2r1Ao1Dqtpn784x/H/v37q9q9/fbbY8uWLdHa2ppyFQAAAAAAAAAAAAAAAAAAAAAAAAAAANVoyjoAAAAAAAAAAAAAAAAAAAAAAAAAAABgNFu1alWMGzcuenp6PnB+6dKl2LNnT1y4cKHszvjx42P16tVpZl6X/fv3x7PPPlvV7syZM2Pz5s3R0tKSchUAAAAAAAAAAAAAAAAAAAAAAAAAAADVSrIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGM1uvPHGWLp0acWdUqkUpVKp7HzZsmUxefLkWqfVxOXLl+O73/1uDAwMDLo7ZcqUeOaZZ6KlpWUYygAAAAAAAAAAAAAAAAAAAAAAAAAAAKhWknUAAAAAAAAAAAAAAAAAAAAAAAAAAADAaJfP5yvOd+7cGS+//HLZeaFQqHVSzTz99NPx5ptvDrqXJEls2rQpZs2aNQxVAAAAAAAAAAAAAAAAAAAAAAAAAAAAXIumrAMAAAAAAAAAAAAAAAAAAAAAAAAAAABGu5UrV8YNN9wQ3d3dHzg/e/Zs2bcTJ06MFStWpJV2XU6ePBnPPfdcVbtf/OIX4/7770+5CAAAAAAAAAAAAAAAAAAAAAAAAAAAgKFIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAY7SZPnhyf+tSnhvR25cqV0dzcXOOi2vj5z38ely9fHnTv9ttvj6997WvDUAQAAAAAAAAAAAAAAAAAAAAAAAAAAMBQNGUdAAAAAAAAAAAAAAAAAAAAAAAAAAAAQEQ+n49SqXTN7wqFQgo11+/cuXPx0ksvVbV7+PDhuOuuu1Iuqs5nPvOZ+OEPf5h1BgAAAAAAAAAAAAAAAAAAAAAAAAAAQF1Jsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAgYsWKFTFhwoRrejN16tRYunRpSkXX53e/+11cuXIl6wwAAAAAAAAAAAAAAAAAAAAAAAAAAABqIMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgIiJEyfG8uXLr+nNqlWrYvz48SkVXZ+XXnop6wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqJMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgHflcrlr2i8UCimVXJ9jx45FV1dX1hkAAAAAAAAAAAAAAAAAAAAAAAAAAADUSJJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAO964IEHYuLEiVXtTps2LZYsWZJy0dAcOHAg6wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqKMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgHc1NzfHAw88UNXu2rVrY+zYsekGDdEbb7yRdQIAAAAAAAAAAAAAAAAAAAAAAAAAAAA1lGQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAwH/kcrmq9vL5fMolQ/f3v/896wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqKMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgP9Yvnx5TJo0qeLOjBkz4u677x6momt38eLFrBMAAAAAAAAAAAAAAAAAAAAAAAAAAACooTEDAwMDWUcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9SnJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoX0nWAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAED9SrIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpXknUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUL+SrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA+pVkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUryTrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKB+JVkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPUryToAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqF9J1gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA/UqyDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqV5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFC/kqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPqVZB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1K8k6wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgfiVZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1K8k6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhfSdYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQP1Ksg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6leSdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQv5KsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID6lWQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANSvJOsAAAAAAAAAAACA/2N3jmkAAAAQAG32D20MPSABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sLGRm+gAAIABJREFUAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAEDZn7vQrss2gOPX7s23lDCEUBoamLKjQMjAOuhNpGxBUSa0g6CMCHpBsuggYqNXKWMkQewgTIuisMxZZDlGQVQ7SFpCcyyKFBpkrK0x0738n+PnxW3Obff96Odz+L+v33V9/wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOWqyR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAzBkaGooffvghjh49Gn19fdHf3x8DAwMxd+7cWLRoUSxZsiRWrVoVq1evjuXLl+fOHdfAwEAcPnw4enp6or+/P/76668YHByMefPmxaJFi+LSSy+NVatWRV1dXSxdujR3LgAAwHmjJncAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAdPr888/jkUce+a/f29raora2NkPR7Pv7779j79690draGl1dXTEyMjKp71asWBE33nhjbNq0KVauXDnDlZNz4sSJeO+99+LgwYPR09MTY2Njk/pu9erVsX79+rj77rtj2bJlM1wJAABwfquqVCqV3BEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADT4fTp07Fx48Y4duzYf721tbVFbW1thqrZ09/fHzt37oy9e/fG0NDQlPdUVVXF9ddfH9u2bYsrrrhiGgsnr7e3N1599dX49NNPY3h4eMp7ampqYuPGjfH444/H0qVLp7EQAADgwpFyBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEyXnTt3xrFjx3JnZPHll19GfX197NmzJ4aGhs5pV6VSifb29rj99tujubk5RkZGpqlycj766KOor6+Pjz/+OIaHh89p18jISOzfvz9uueWW2LNnzzQVAgAAXFiqKpVKJXcEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAufr666/j/vvvj0ql8j/f29raora2dparZseOHTuipaVlxvavW7cumpubY/HixTN2IyJidHQ0nnrqqdi/f/+M3aivr48XXngh5s2bN2M3AAAAzjcpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMC5On78eDz55JNRqVRyp8y6559/PlpaWmb0xjfffBMNDQ3R19c3YzeGh4dj69atsX///hm7ERFx4MCB2LJlS5w6dWpG7wAAAJxPUu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAc9HX1xdbtmyJEydO5E6Zddu3b4/du3fPyq2enp544IEHYmhoaEb2b9u2LQ4ePDgju/9TR0dHPPbYYzE6Ojor9wAAAP7f1eQOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAmKrBwcF46KGH4pdffsmdMusOHToUb7755qRm16xZE7feemusWbMmli9fHhdddFGcPHkyfvvtt/j+++/jk08+icOHD0+458cff4ympqbYvn37ueb/m127dsVnn3024VxVVVVce+21cfPNN8eVV14Zl112WcyfPz8GBwfj119/jY6OjmhtbY3u7u4Jd7W3t8frr78ejz766HT8BQAAgPNaVaVSqeSOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOFv9/f2xZcuW6OzsnNR8W1tb1NbWznDV7Dh+/HjccccdMTAwMO7cypUro6mpKdauXTvhzo6OjmhsbIyff/55wtkdO3ZEfX39pHvH09nZGffcc08MDw+PO7dmzZpobGyMurq6CXceOnQonn322ejt7R13rrq6Onbv3h1XXXXVWTUDAABcaFLuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgLP1559/xr333hudnZ25U7J47rnnYmBgYNyZDRs2xN69e2Pt2rWT2nn11VfHvn374rbbbptw9qWXXorBwcFJ7R3P2NhYPP300zE8PDzuXENDQ7z99ttRV1c3qb3r16+P1tbWuOaaa8adGx0djaamphgdHZ10MwAAwIUo5Q4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4G11dXbFp06b46aefcqdk8d1330V7e/u4MzfddFM0NzfHggULzmr33Llz45VXXonNmzePO/fHH3/EG2+8cVa7/5d9+/bF0aNHx51paGiIZ555Jmpqas5q98UXXxwtLS1x3XXXjTvX3d0d77///lntBgAAuNBUVSqVSu4IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAyTh06FA88cQTMTQ0dNbftrW1RW1t7QxUzZ5KpRJ33XVXHDly5Iwzl19+eXz44YexcOHCKd8ZGxuLBx98ML766qszzixYsCDa29vjkksumdKNU6dOxYYNG6K3t/eMM2vXro233norqqurp3QjIuKff/6JzZs3R1dX1xlnli1bFl988UXMmTNnyncAAADOZyl3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwEROnz4dL774Yjz88MMxNDSUOyebb7/9No4cOTLuTGNjYyxcuPCc7qSU4uWXX44lS5accebkyZPxzjvvTPlGa2tr9Pb2nvF9zpw50dTUFNXV1VO+ERExf/78eO2112LevHlnnPn999/jwIED53QHAADgfJZyBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIynu7s77rzzzti1a1dUKpXcOVl98MEH477fcMMNsW7dumm5tXjx4ti6deu4M++++26MjIxMaf9E/2Xz5s2xcuXKKe3+TytWrIj77rtv3Jk9e/ZMyy0AAIDzUcodAAAAAAAAAAAAAAAAAPyLnbuPsbq+9wT+md+cGXBmgBk6IwNVpgxEaHiqsMZqSlO8beLWbqhIFPtAQ2TbeJXbZBurvf+YG9uL8aba2Npl24WipibCaiUb3bQqfbCpTbs1UIqpGgujMDwNw4PMAPO4f3Vzb+35nTPDnPkd5rxeif/4/p7P5/0ZE5KTMAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8PecO3cuHnnkkVi9enW8+eabWdfJXHd3d7z44oupb770pS+N6c6bb745ZsyYkTfv6uqKX//61yOe+8Ybb8Tu3bvz5lVVVbFu3boRz02zfv36mDx5ct5837598dZbb43pTgAAgIkiyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA33rxxRfjpptuis2bN0d/f3/B9/X19VFXVzcOzbLzwgsvRF9fX968ra0trrvuujHdmcvl4tZbb019s3PnzhHPfe6551Lz6667Ltra2kY8N820adPi05/+dOqb0dwCAABQCZKsCwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzVb37zm7jtttvi7rvvjkOHDhX1mZaWlnjqqaeiqampxO2ytWvXrtT8U5/6VEn23njjjan5r371q+jv7x/RzHK95eWXXy7JXgAAgEtdknUBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAiIgvfOELsX79+ti9e3fRn1m2bFk888wzsWDBghI2y96FCxfid7/7XeqbG264oSS7582bFx/84Afz5mfPno3XXnut6HnvvvtuHDhwIPVNqW659tprY/LkyXnzv/zlL3Hw4MGS7AYAALiUJVkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiIj4/e9/X/TbJEliw4YN8cQTT8SMGTNK2Ko87N69O/r7+/PmkyZNiiVLlpRs/7XXXpuav/LKK0XPKvTfefbs2dHa2lr0vJGYPHlywZ/TSG4BAACoFEnWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEaira0tnnzyybjnnnuipqYm6zrjYvfu3an5woULS/qzWLRoUWq+Z8+eomcVumXp0qVFzxqNxYsXp+Z//OMfS7ofAADgUpTLugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAxampqYsOGDXHnnXfGpEmTsq4zrvbt25eaL168uKT7C81//fXXY3h4OKqqqgrOKvdb/vSnP5V0PwAAwKUol3UBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAQlauXBn33ntvzJkzJ+sqmXjjjTdS87lz55Z0f6Gf+9mzZ2P//v3R3t6e+m5oaCjeeuut1DdZ3/L222/HuXPn4rLLLitpDwAAgEtJknUBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAfBYtWhTbtm2LzZs3x5w5c7Kuk4mBgYE4ePBg6pv29vaSdpgyZUo0NTWlvuno6Cg45/Dhw3HhwoXUN6W+Zfbs2an54OBgvPvuuyXtAAAAcKlJsi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADwtxYuXBiPPfZYPPPMM3HddddlXSdTnZ2dMTAwkPpm9uzZJe9RaMfBgwcLznjnnXdS89ra2pg5c+aIeo1UXV1dNDc3p74p5hYAAIBKksu6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQEREdXV1fPzjH49169bF9ddfn3WdstHZ2ZmaV1dXR0tLS8l7NDc3p+aHDh0qOKPQLS0tLVFVVTWiXqPR3NwcXV1defNibgEAAKgkuawLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARETs2rUrWltbs65Rdo4cOZKaT58+PZIkKXmP5ubm1Pzw4cMFZxS65fLLLx9Rp9Eai1sAAAAqSem/dQIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABShtbU16wplqbu7OzVvaWkZlx7Nzc2p+enTpwvOKHRLoR1jZSxuAQAAqCRJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADI79SpU6n51KlTx6VHQ0NDan7mzJmCMybSLQAAAJUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Z0+fTo1r6+vH5cehfYU6lnMm0vpFgAAgEqSZF0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/Hp6elLzhoaGcelRX1+fmr/33nsFZ0ykWwAAACpJLusCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAxevp6Yne3t6IiBgaGirJjvr6+mhoaCjJbPI7f/58al5XVzcuPSZPnpya9/f3F5wxkW4BAACoJLmsCwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABevvr4+6uvrIyJixYoVcezYsTHfcffdd8fGjRvHfC7pzp8/n5rncrlx6VFoT39/f8EZE+kWAACASpJkXQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzPX2jV9R/H8fc+GynolVeOLroJBCGkIIsguhSlQHGIkNAutou6CsSISKKgSC/sPvBGwQstFJHtzMxSCypCZzLCrhr2x4XMP0dyK9n53fm7sP2xtr0/nj0et5/3+b6ep6PVarUCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4B+U7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXl3ZAQAAAAAAAAAAAAAAAAAAAAAAAAAAALV688034+jRow/8uyeeeCI++eSTBSiaP2fPno3+/v4H+s2WLVviww8/XKCi/5uamopLly7F+fPnY2RkJK5cuRJXr16NZrMZk5OT0dXVFStXroyVK1fGY489Fo8//nisXbs2nnvuuVi1atWC9wEAAAAAAAAAAAAAAAAAAAAAAAAAACw1XdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAA7ebSpUvx66+/xqOPPpqdMq2BgYHshPv8+OOPcfjw4RgcHIzr169Pe3f37t2YmJiIa9euxc8//xxnzpyJiIhSSqxbty5eeuml2Lx5c6xYsWKx0gEAAAAAAAAAAAAAAAAAAAAAAAAAANpayQ4AAAAAAAAAAAAAAAAAAAAAAAAAAABoR0NDQ9kJ0/rrr7/i1KlT2Rn3jIyMRF9fX2zevDkOHToU169f/1ffmZqaigsXLsR7770XL7zwQuzduzdu3bo1z7UAAAAAAAAAAAAAAAAAAAAAAAAAAABLT8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAaEeNRiM7YVpnz56NZrOZnRETExPx/vvvR09PT5w7d25ev91sNmP//v2xYcOGOHLkSLRarXn9PgAAAAAAAAAAAAAAAAAAAAAAAAAAwFJSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAADa0Q8//BC//fZbdsY/GhwczE6I0dHR2LZtWxw4cCCmpqYWbGd8fDzefvvteO2116LZbC7YDgAAAAAAAAAAAAAAAAAAAAAAAAAAQDsr2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADtqNVqxdDQUHbGfe7cuROnT59ObRgZGYnt27fH5cuXF23z9OnTsXXr1vjll18WbRMAAAAAAAAAAAAAAAAAAAAAAAAAAKBdlOwAAAAAAAAAAAAAAAAAAAAAAAAAAACAdtVoNLIT7vPll1/Gn3/+mbZ/+fLleOWVV2J8fHzRt0dHR6O3tzfGxsYWfRsAAAAAAAAAAAAAAAAAAAAAAAAAAOBh1pUdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0K4uXrwYv//+e3R3d2en3DMwMJC2fe3atejv749msznn36xYsSKefvrpWL9+faxevTpWrVoVHR0dMT4+Hn/88Ud8//338d1338XNmzfn9L0rV65EX19fHDlyJJYvX/5v/woAAAAAAAAAAAAAAAAAAAAAAAAAAMCS0pUdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0K5arVYMDQ1Fb29vdkpERNy+fTvOnDmTst1qteKNN96IsbGxOd13d3dHf39/9PT0xLJly6a96+3tjbt378axY8fi448/jtHR0Vm//dNPP8WePXvinXfemXM/AAAAAAAAAAAAAAAAAAAAAAAAAADAUlayAwAAAAAAAAAAAAAAAAAAAAAAAAAAANpZo9HITrjn888/j8nJyZTtw4cPx9dffz2n261bt0aj0YiXX345li1bNut9V1dX9PT0xIkTJ2L79u1z2jh06FB8++23c7oFAAAAAAAAAAAAAAAAAAAAAAAAAABY6kp2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwMOss7Nzxvfh4eG4evXqItXMbHBwMGX31q1bsW/fvjnd7t69Oz744INYvnz5A+888sgj8e6778bu3bvndP/RRx898AYAAAAAAAAAAAAAAAAAAAAAAAAAAMBSVLIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAHmbPPPPMjO+tVisajcYi1Uzv5s2b8dVXX0373tnZuWDbBw4ciBs3bsx69+qrr8aOHTv+896OHTuir69v1rsLFy7EuXPn/vMeAAAAAAAAAAAAAAAAAAAAAAAAAABAuyvZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA+zJ598MlavXj3jTaPRWKSa6X322Wfx999/T/u+fv36BdmdnJyMgwcPznr37LPPxuuvvz5vuzt37ow1a9bMevfpp5/O2yYAAAAAAAAAAAAAAAAAAAAAAAAAAEC7KtkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAD7OOjo7YsGHDjDfDw8MxNja2SEX/bGBgYNq37u7ueOqppxZk9+TJk3Hjxo0Zbzo7O+Ott96a191SSuzatWvWuy+++CJu3749r9sAAAAAAAAAAAAAAAAAAAAAAAAAAADtpmQHAAAAAAAAAAAAAAAAAAAAAAAAAAAAPOw2bdo043ur1YpGo7FINfcbHx+Pb775Ztr3jRs3RkdHx4JsHz9+fNabF198MdasWTPv288//3x0d3fPeDMxMRHDw8Pzvg0AAAAAAAAAAAAAAAAAAAAAAAAAAPyPnbuNrbo+Hz9+9WtbSnGChQUUEZxAZJICihE3BTXcnZ5I0N3FmUUzF7fEJYvL5pIl2zQxJob5wJDFTXeT7cEMZCzLWMuhNKiZoAiCQ4kElg2ngIhWuSlyU9r/g2Xuv/w855Ryzvn2nL5ej4Dr+n6uN/C81JIk7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIBqN3v27Lj00ksL7uRyuQrVfPLts2fP5p1ns9my3D1x4kRs2bKl6N4dd9xRlvsREQsWLCi6s3PnzrLdBwAAAAAAAAAAAAAAAAAAAAAAAAAAqAVJ2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1YOnSpQXnO3bsiEOHDlWo5n+tW7cu72zKlCkxc+bMstzdunVrnDp1quDOpZdeGtdff31Z7kdEXHXVVUV3/vGPf5TtPgAAAAAAAAAAAAAAAAAAAAAAAAAAQC1I0g4AAAAAAAAAAAAAAAAAAAAAAAAAAACoBZlMpuC8v78/1q9fX6Ga/zp06FBs27Yt77ytra1st3fs2FF05/Of/3zU1dWVrWHcuHFFd44ePVq2+wAAAAAAAAAAAAAAAAAAAAAAAAAAALUgSTsAAAAAAAAAAAAAAAAAAAAAAAAAAACgFrS2tsZll11WcCeXy1Wo5n9v9vX15Z1ns9my3Z4zZ07ceeedMXfu3Bg9evQn7syaNats9yMiRo0aVXTn+PHjZW0AAAAAAAAAAAAAAAAAAAAAAAAAAACodvVpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSKTCYTTz/9dN759u3b49ChQzF+/PiKNXV0dOSdTZ8+PaZOnVq22wsWLIgFCxZ8/Pt33nkn9uzZE3v27Im9e/fGnj17Yvbs2WW7HxHR09NTdGfUqFFlbQAAAAAAAAAAAAAAAAAAAAAAAAAAAKh29WkHAAAAAAAAAAAAAAAAAAAAAAAAAAAA1IpMJhNPP/103nl/f390dnbG1772tYr07N+/P1599dW882w2W5GO/5gwYUJMmDAh5s+fX7Gbb731VtGdMWPGVKAEAAAAAAAAAAAAAAAAAAAAAAAAAACgeiVpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSKq6++OiZPnlxwJ5fLVagmoqOjo+A8m81WqCQ9O3fuLLozbdq0CpQAAAAAAAAAAAAAAAAAAAAAAAAAAABUryTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFqSyWQKzrdv3x7vvvtuRVrWrVuXd9ba2hqTJk2qSEdaTp48GZs2bSq6N2vWrArUAAAAAAAAAAAAAAAAAAAAAAAAAAAAVK8k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIBakslkCs77+vqis7Oz7B379u2LXbt25Z1ns9myN6RtzZo1cfTo0YI7F198cVxzzTUVKgIAAAAAAAAAAAAAAAAAAAAAAAAAAKhOSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAteSqq66KK664ouBOLpcre0dHR0feWZIkkclkyt6Qpvfeey9WrlxZdG/ZsmXR0NBQgSIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqlaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAUGsymUzB+SuvvBKHDx8ua0NHR0fe2dy5c2P8+PFlvZ+mnp6e+Pa3vx0ffPBBwb0RI0bEPffcU5koAAAAAAAAAAAAAAAAAAAAAAAAAACAKpakHQAAAAAAAAAAAAAAAAAAAAAAAAAAAFBr2traCs77+vqis7OzbPf37t0be/fuzTsv1lfNDhw4EHfffXfs2LGj6O4999wTl156aQWqAAAAAAAAAAAAAAAAAAAAAAAAAAAAqluSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAECtmTZtWkydOrXgTi6XK9v99vb2vLP6+vpYsmRJ2W6n5dSpU/HUU0/FsmXL4rXXXiu6P2PGjLj//vsrUAYAAAAAAAAAAAAAAAAAAAAAAAAAAFD9krQDAAAAAAAAAAAAAAAAAAAAAAAAAAAAalEmkyk437ZtWxw+fLgst9etW5d3dsMNN0RLS0tZ7qbh0KFD8ctf/jIWL14cjz/+eBw7dqzoN2PGjImVK1fGiBEjKlAIAAAAAAAAAAAAAAAAAAAAAAAAAABQ/erTDgAAAAAAAAAAAAAAAAAAAAAAAAAAAKhFmUwmVq5cmXfe19cXnZ2dcdddd5X07q5du2Lfvn1559lstqT3yu3MmTPR398fdXV1cfTo0Thy5Ej885//jNdeey22b98eW7dujb6+vgG/N27cuPj1r38dkyZNKmM1AAAAAAAAAAAAAAAAAAAAAAAAAABAbalPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKAWXXnllTF9+vTYs2dP3p1cLhd33XVXSe92dHTknTU2NsaiRYtKeq/cNmzYEA888EBJ3poxY0Y88cQTMXny5JK8BwAAAAAAAAAAAAAAAAAAAAAAAAAAMFwkaQcAAAAAAAAAAAAAAAAAAAAAAAAAAADUqra2toLzV155Jd5///2S3ly3bl3e2fz58+PCCy8s6b1yO3jw4Hm/UV9fH/fee2+sXr06Jk+eXIIqAAAAAAAAAAAAAAAAAAAAAAAAAACA4SVJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKBWZTKZgvOzZ89GZ2dnye7t2LEj9u/fn3eezWZLdqtSDh48eF7fL126NNrb2+PBBx+MxsbGElUBAAAAAAAAAAAAAAAAAAAAAAAAAAAML0naAQAAAAAAAAAAAAAAAAAAAAAAAAAAALVqypQpMWPGjII7uVyuZPc6Ojryzpqbm+OWW24p2a1KOXDgwHl9v3v37li9enVs3749+vv7S1QFAAAAAAAAAAAAAAAAAAAAAAAAAAAwvCRpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSytra2gvOtW7dGd3f3ed/p6+uLXC6Xd37rrbfGyJEjz/tOpR08ePC8vt+3b1/86le/ijvvvDNuv/326Orqiv7+/hLVAQAAAAAAAAAAAAAAAAAAAAAAAAAADA9J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1LJPJFJyfPXs2Ojs7z/vOtm3b4t133807z2az530jDQcOHCjZW2+88Ubcf//98cUvfjHefPPNkr0LAAAAAAAAAAAAAAAAAAAAAAAAAABQ65K0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAGrZpEmTYubMmQV3crnced9pb2/POxs9enTceOON532j0j766KP48MMPS/7u66+/Hrfffnt0dHSU/G0AAAAAAAAAAAAAAAAAAAAAAAAAAIBaVJ92AAAAAAAAAAAAAAAAAAAAAAAAAAAAQK3LZDLx+uuv552//PLL0d3dHS0tLYN6/+zZs9HZ2Zl3vnDhwmhsbBzU22k6cOBANDQ0xNVXXx0zZsyIqVOnxiWXXBKjR4+O06dPR3d3d7z//vuxa9eu2Lx5cxw+fHjAb/f09MQDDzwQx48fjy9/+ctl/FsAAAAAAAAAAAAAAAAAAAAAAAAAAABUv/q0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAGpdJpOJFStW5J2fPXs2NmzYEF/5ylcG9f6LL74Y3d3deefZbHZQ76Zt4sSJsW3btmhqahrQ/s6dO+MXv/hFdHV1DfjGT37yk7joooti6dKlg80EAAAAAAAAAAAAAAAAAAAAAAAAAACoeUnaAQAAAAAAAAAAAAAAAAAAAAAAAAAAALVu4sSJMWvWrII7uVxu0O93dHTknY0dOzbmzZs36LfT1NTUFE1NTQPeb21tjZ/97GexZs2amDZt2oC+6evriwcffDD27ds3yEoAANXR5CwAACAASURBVAAAAAAAAAAAAAAAAAAAAAAAAIDal6QdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBxkMpmC85dffjm6u7vP+d3Tp09HV1dX3vnSpUvjggsuOOd3q9nMmTNj1apVsWjRogHtnzp1Kn784x+XuQoAAAAAAAAAAAAAAAAAAAAAAAAAAKB6JWkHAAAAAAAAAAAAAAAAAAAAAAAAAAAADAeZTCbq6uryznt7e6Orq+uc3920aVMcOXIk77ytre2c36wFo0aNipUrV8Ztt902oP0tW7bEX/7ylzJXAQAAAAAAAAAAAAAAAAAAAAAAAAAAVKck7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDhYMKECTF79uyCO7lc7pzfbW9vzzu75JJL4tprrz3nN2tFXV1dPProo0X/3f/jd7/7XZmLAAAAAAAAAAAAAAAAAAAAAAAAAAAAqlOSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBwkclkCs63bNkSH3zwwYDfO3XqVGzcuLHgvbq6ugG/V4saGxvjiSeeiKampqK7f/vb3+KNN96oQBUAAAAAAAAAAAAAAAAAAAAAAAAAAEB1SdIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGC6WLl0aSZL/x8L29vZGV1fXgN977rnnoqenJ+88m82eU1+tmjBhQtx1110D2l27dm2ZawAAAAAAAAAAAAAAAAAAAAAAAAAAAKpP/p+sCwAAAAAAAAAAAAAAAAAAAAAAAAAAQEmNHz8+rrnmmoI7uVxuwO91dHTknU2ZMiVmzpw54Ldq3Te/+c1oamoquvfqq69WoAYAAAAAAAAAAAAAAAAAAAAAAAAAAKC6JGkHAAAAAAAAAAAAAAAAAAAAAAAAAAAADCdtbW0F5y+99FJ88MEHRd85ceJEPP/884O+M9yMHj06rrvuuqJ7u3btit7e3goUAQAAAAAAAAAAAAAAAAAAAAAAAAAAVI8k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDhZMmSJZEk+X80bG9vb3R1dRV9Z+PGjfHRRx/lnWez2UH11bL58+cX3Tl58mS8+eabFagBAAAAAAAAAAAAAAAAAAAAAAAAAACoHvl/qi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAlN27cuJg7d27BnVwuV/Sd9vb2vLPp06fH1KlTz7mt1rW2tg5o78MPPyxzCQAAAAAAAAAAAAAAAAAAAAAAAAAAQHVJ0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYbtra2grOX3rppfjwww/zzo8dOxYvvPBC3nk2mx10Wy0bO3bsgPaOHj1a5hIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkqQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMNwsWbIkLrjggrzz3t7e6Orqyjvv6uqK06dP551ns9nz6qtVY8eOHdDesWPHylwCAAAAAAAAAAAAAAAAAAAAAAAAAABQXZK0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAIablpaWuP766wvurF+/Pu+so6Mj76y1tTUmTZo06LZKOXHiRJw+fbqiN+vr6we019jYWOYSAAAAAAAAAAAAAAAAAAAAAAAAAACA6jKwn+4KAAAAAAAAAAAAAAAAAAAAAAAAAABASWUymdi8eXPe+YsvvhhHjx6Niy666H/+/MiRI/Hiiy/m/S6bzZas8XycPXs2Dh48GG+//Xa89dZb8fbbb3/867feeiu6u7vjsccei+XLl1es6fjx4wPaa25uLnMJAAAAAAAAAAAAAAAAAAAAAAAAAABAdalPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGA4WrRoUTz88MPR29v7ifMzZ87Exo0bY/ny5f/z5xs2bIgzZ8584jdJkkQmkyl562CsXLkynnzyyYI727dv/z9/v3Lav3//gPbGjx9f5hIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkqQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBxdfPHFMW/evII769ev/z9/lsvl8u7PnTs3xo8ff95tpXD55ZcX3XnhhRcqUPJfu3fvLrpTV1cXkydPrkANAAAAAAAAAAAAAAAAAAAAAAAAAABA9UjSDgAAAAAAAAAAAAAAAAAAAAAAAAAAABiuMplMwfmmTZuip6fn498fOXIkXnrppbz7bW1tJWs7X9OmTSu6s3///ti9e3cFav6t0L/df1xxxRXR1NRUgRoAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMFwtWrQoGhoa8s5PnToVzz///Me/7+rqijNnznzibn19fSxZsqTkjYM1Y8aMaGpqKrq3du3aCtREnDx5Mp599tmie9dff30FagAAAAAAAAAAAAAAAAAAAAAAAAAAAKpLknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAcDV69Oj43Oc+V3Cns7Pz41+vX78+794NN9wQLS0tJWs7X/X19TF37tyie3/84x/j1KlTZe9Zs2ZN9PT0FN2bP39+2VsAAAAAAAAAAAAAAAAAAAAAAAAAAACqTZJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwHCWyWQKzp9//vk4ffp0HDt2LDZv3px3L5vNljrtvC1evLjoTnd3d/zhD38oa0dPT0/8/Oc/L7rX0tISN910U1lbAAAAAAAAAAAAAAAAAAAAAAAAAAAAqlGSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBwtnDhwmhoaMg7P3HiRGzatCmeffbZOHPmzCfuNDY2xqJFi8qVOGiLFy+OpqamontPPvlkHD9+vGwdK1asiHfffbfo3he+8IWC/xcAAAAAAAAAAAAAAAAAAAAAAAAAAADDVZJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwHD2qU99Km688caCO11dXdHV1ZV3Pn/+/LjwwgtLnXbeLr744rjtttuK7h0+fDgeffTRsjT8+c9/jmeeeaboXnNzc3z9618vSwMAAAAAAAAAAAAAAAAAAAAAAAAAAEC1S9IOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGO7a2toKzjdu3Bh//etf886z2Wypk0rmvvvui4aGhqJ7a9asiVWrVpX09nPPPRc//OEPB7R77733RktLS0nvAwAAAAAAAAAAAAAAAAAAAAAAAAAA1Iok7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDh7tZbb40RI0bknXd3d8eJEyc+cdbc3By33HJLudLO2+WXXx5f/epXB7T70EMPxTPPPFOSu6tXr477778/zpw5U3T3yiuvjPvuu68kdwEAAAAAAAAAAAAAAAAAAAAAAAAAAGpRknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAcHfhhRfGTTfdNKhvb7311hg5cmSJi0rrO9/5TkyaNKnoXl9fXzz00EPxve99L3p6egZ167333ovvfve78aMf/Sh6e3uL7jc1NcVPf/rTaGxsHNQ9AAAAAAAAAAAAAAAAAAAAAAAAAACA4SBJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAICItra2QX2XzWZLXFJ6o0aNihUrVkRDQ8OA9teuXRsLFy6Mp556Ko4fPz6gb/bv3x+PP/54LFmyJNrb2wfc9vDDD8dnP/vZAe8DAAAAAAAAAAAAAAAAAAAAAAAAAAAMR/VpBwAAAAAAAAAAAAAAAAAAAAAAAAAAABBxyy23RFNTU5w8eXLA34wePTpuvPHGMlaVzpw5c+KRRx6JH/zgBwPa7+7ujscffzxWrlwZc+bMiXnz5sVll10WLS0tMXLkyPjoo4/inXfeib///e+xdevW2LVrV/T3959T0/e///1Yvnz5YP46AAAAAAAAAAAAAAAAAAAAAAAAAAAAw0p92gEAAAAAAAAAAAAAAAAAAAAAAAAAAABENDc3x4IFC2L9+vUD/mbhwoXR2NhYxqrSWr58eRw5ciQeffTRAX9z+vTp2LJlS2zZsqWkLQ888EB84xvfKOmbAAAAAAAAAAAAAAAAAAAAAAAAAAAAtSpJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAIB/y2Qy57SfzWbLVFI+d999dzzyyCPR0NCQyv2GhoZ47LHH4lvf+lYq9wEAAAAAAAAAAAAAAAAAAAAAAAAAAKpRknYAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/3bzzTdHc3PzgHbHjh0b8+bNK3NReXzpS1+K3/zmNzFu3LiK3p0yZUr8/ve/j+XLl1f0LgAAAAAAAAAAAAAAAAAAAAAAAAAAQLVL0g4AAAAAAAAAAAAAAAAAAAAAAAAAAADg30aOHBk333zzgHaXLl0aF1xwQXmDyui6666L9vb2WLZsWdlvNTY2xr333ht/+tOforW1tez3AAAAAAAAAAAAAAAAAAAAAAAAAAAAak2SdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/lclkBrTX1tZW5pLyGzNmTKxYsSJWrVoV8+bNK/n7I0aMiDvuuCM6OjriwQcfjJEjR5b8BgAAAAAAAAAAAAAAAAAAAAAAAAAAwHBQn3YAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/7VgwYIYNWpU9PT05N255JJL4tprr61gVXnNnj07fvvb38aePXti9erV0dnZGYcOHRrUW3V1dTFr1qxYvHhx3H777dHS0lLiWgAAAAAAAAAAAAAAAAAAAAAAAAAAgOGnrr+/vz/tCAAAAAAAAAAAAAAAAAAAAAAAAAAAAPj/vfHGG7Fjx47YtWtX/Otf/4oDBw7EkSNH4uTJk9HX1xcjRoyI5ubm+PSnPx0TJ06Mz3zmM9Ha2hpz5syJcePGpZ0PAAAAAAAAAAAAAAAAAAAAAAAAAABQU+r6+/v7044AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhqYk7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAADg/7E7xzQAAAAIgDb7hzaGHpAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyYwkbAAAIABJREFUAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKDsz19o1fUbwPFnH5dmSRRBKB0sMGVXwaAF1UVRImULCjKhXXTRIrqoiCy6iHD0h4SMgQSxiyjtIoKVbRVZO4yCiHaRtIKmLIr0YpCxtsYpO9vO7/r3K+emO/t8fvp6XZ7v83me9wEAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlKs1dwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADNU6vV4ttvv40jR47E5ORkTE1NxfT0dKxevTrWrVsXl19+eWzevDm2bNkSGzduzJ27oOnp6Th8+HCMj4/H1NRU/P777zEzMxNr1qyJdevWxRVXXBGbN2+Otra2WL9+fe5cAACAc0Zr7gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDl9Omnn8ajjz76j9+r1WpUKpUMRSvvjz/+iP7+/hgcHIyxsbGYnZ1d1Lurrroqbr311tixY0ds2rSpyZWLc+LEiXjnnXfi0KFDMT4+HvPz84t6t2XLlti6dWvcd999sWHDhiZXAgAAnNtaGo1GI3cEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAcvj7779j+/btcezYsX98q1arUalUMlStnKmpqdi3b1/09/dHrVY74z0tLS1xyy23xK5du+Kaa65ZxsLFm5iYiFdffTU+/vjjqNfrZ7yntbU1tm/fHk8++WSsX79+GQsBAADOHyl3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwHLZt29fHDt2LHdGFp9//nl0dnbGgQMHolarndWuRqMRw8PDcffdd0dvb2/Mzs4uU+XivP/++9HZ2RkffPBB1Ov1s9o1OzsbAwMDcccdd8SBAweWqRAAAOD80tJoNBq5IwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAM7Wl19+GQ8++GA0Go1//V6tVqNSqaxw1crYu3dv9PX1NW3/DTfcEL29vXHppZc27UZExNzcXDzzzDMxMDDQtBudnZ3x0ksvxZo1a5p2AwAA4FyTcgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACcrePHj8fTTz8djUYjd8qKe/HFF6Ovr6+pN7766qvo6uqKycnJpt2o1+vxxBNPxMDAQNNuRER8+OGH0d3dHSdPnmzqHQAAgHNJyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABwNiYnJ6O7uztOnDiRO2XF7dmzJ/bv378it8bHx+Ohhx6KWq3WlP27du2KQ4cONWX3/xoZGYnHH3885ubmVuQeAADA/7vW3AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABnamZmJh555JH46aefcqesuKGhoXjjjTcWNdve3h533nlntLe3x8aNG+Oiiy6KP//8M3755Zf45ptv4qOPPorDhw+fds93330XPT09sWfPnrPN/y9vvvlmfPLJJ6eda2lpiZtuuiluv/32uPbaa+PKK6+MCy+8MGZmZuLnn3+OkZGRGBwcjKNHj5521/DwcLz22mvx2GOPLcdfAAAAOKe1NBqNRu4IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACApZqamoru7u4YHR1d1Hy1Wo1KpdLkqpVx/PjxuOeee2J6enrBuU2bNkVPT090dHScdufIyEjs3r07fvzxx9PO7t27Nzo7Oxfdu5DR0dG4//77o16vLzjX3t4eu3fvjra2ttPuHBoaiueffz4mJiYWnFu1alXs378/rrvuuiU1AwAAnG9S7gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICl+u233+KBBx6I0dHR3ClZvPDCCzE9Pb3gzLZt26K/vz86OjoWtfP666+PgwcPxl133XXa2ZdffjlmZmYWtXch8/Pz8eyzz0a9Xl9wrqurK95+++1oa2tb1N6tW7fG4OBg3HjjjQvOzc3NRU9PT8zNzS26GQAA4HyUcgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAsxdjYWOzYsSN++OGH3ClZfP311zE8PLzgzG233Ra9vb2xdu3aJe1evXp1vPLKK7Fz584F53799dd4/fXXl7T73xw8eDCOHDmy4ExXV1c899xz0drauqTdl1xySfT19cXNN9+84NzRo0fj3XffXdJuAACA801Lo9Fo5I4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABYjKGhoXjqqaeiVqst+W21Wo1KpdKEqpXTaDTi3nvvje+///6UM1dffXW89957cfHFF5/xnfn5+Xj44Yfjiy++OOXM2rVrY3h4OC677LIzunHy5MnYtm1bTExMnHKmo6Mj3nrrrVi1atUZ3YiI+Ouvv2Lnzp0xNjZ2ypkNGzbEZ599FhdccMEZ3wEAADiXpdwBAAAAAAAAAAAAAAAAAAAAAAAAAP9h7+5jq67vvoF/+utpC22RFukoTOkoRFhAnXoZhxnLMFti5u4wHyK4BxYm2S4zya5lcbg7ua9tl9uNt8vUuIeQLTLUyAJEp9k02VT2wDLNds/gEDM1TqtQQMqjtND2tL3+2pUr7jq/c1p6zu/Qvl6J//j+ns/n/akJSf/wAAAAAAAAAAAAAAAAAAAAAAAAAABQzMDAQGzYsCFuvfXW6Ovry7pOZp577rl48cUXU99885vfjKampjPakyRJfPe7341zzz234JtTp07Fww8/POYdv/jFL+LAgQMF87q6uvjWt74VtbW1Y94RETFlypS47777oqGhoeCb/fv3xy9/+csz2gMAADCRJVkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASPPKK6/E9ddfH5s3b46RkZGs62Rq+/btqfny5ctj6dKl47KrpaUlvvKVr6S++dnPfhb5fH5M84vdsnLlypg/f/6YZr9bR0dHfP7zn09989BDD43LLgAAgIkoyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA/+TUqVNxzz33xHXXXRevvPJK1nUyd+TIkXjqqadS33zuc58b153XXnttzJo1q2De09MTf/jDH0Y99+WXX45du3YVzGtqamL16tWjnptmzZo1MWXKlIL5nj174tVXXx3XnQAAABNFknUBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAd3vqqafimmuuiY0bN8bg4GDR901NTdHY2FiBZtl58sknY2BgoGDe0dERS5cuHdeduVwubrzxxtQ3jz/++KjnPvbYY6n50qVLo6OjY9Rz00yfPj0+/vGPp74Zyy0AAACTQZJ1AQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgH/44x//GCtXroxbb7019u3bV9Jn2traYsuWLdHa2lrmdtnasWNHav6xj32sLHuvvvrq1Pz3v/99DA4Ojmpmtd7yzDPPlGUvAADA2S7JugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBExGc+85lYs2ZN7Nq1q+TPXHrppfHII4/EokWLytgse/39/fGnP/0p9c1VV11Vlt0LFiyI9773vQXzkydPxvPPP1/yvLfeeiveeOON1DfluuWKK66IKVOmFMz//ve/x969e8uyGwAA4GyWZF0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgIuLPf/5zyW+TJIm1a9fGgw8+GLNmzSpjq+qwa9euGBwcLJg3NDTERRddVLb9V1xxRWq+c+fOkmcV++88d+7caG9vL3neaEyZMqXoz2k0twAAAEwWSdYFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARqOjoyMeeuihuO2226Kuri7rOhWxa9eu1Hzx4sVl/VksWbIkNX/hhRdKnlXslosvvrjkWWNx4YUXpuZ//etfy7ofAADgbJTLugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAp6urqYu3atXHLLbdEQ0ND1nUqas+ePan5hRdeWNb9xea/9NJLMTIyEjU1NUVnVfstL774Yln3AwAAnI1yWRcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoZvny5bF+/fqYN29e1lUy8fLLL6fm8+fPL+v+Yj/3kydPxuuvvx6dnZ2p74aHh+PVV19NfZP1La+99lqcOnUqpk6dWtYeAAAAZ5Mk6wIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACFLFmyJDZv3hwbN26MefPmZV0nE/l8Pvbu3Zv6prOzs6wdpk2bFq2tralvurq6is7Zv39/9Pf3p74p9y1z585NzYeGhuKtt94qawcAAICzTZJ1AQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHdbvHhx/PCHP4xHHnkkli5dmnWdTHV3d0c+n099M3fu3LL3KLZj7969RWe8+eabqXl9fX3Mnj17VL1Gq7GxMWbOnJn6ppRbAAAAJpNc1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiImpra+PDH/5wrF69Oq688sqs61SN7u7u1Ly2tjba2trK3mPmzJmp+b59+4rOKHZLW1tb1NTUjKrXWMycOTN6enoK5qXcAgAAMJnksi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQEbFjx45ob2/PukbVOXDgQ</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzOu2rUWxjG4ZVvduMdqJWNneKh0EvwVJkbsPISEgSx1Qh2YiGWVkLALvMPRolB0ErHA1YiiHgISEDUhBjj7G7DxkwgOs63MvM87fst1m+s2+12CwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAGIjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqNc/2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1OnfuXLl9+/aW3+3fv79MT0//haL+WVhYKGfPnt3Sm9OnT5epqam/VPTnXr9+XcbHx8vKysqG+6VLl8r4+PiAqwAAAAAAAAAAAAAAAAAAAAAAAAAAALa/yA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYNs+fPy/v3r3LztjUzMxMdkJf/fjxo0xMTJSVlZXsFAAAAAAAAAAAAAAAAAAAAAAAAAAAgKET2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADDaHZ2Njuhp+/fv5e5ubnsjL66du1aefHiRXYGAAAAAAAAAAAAAAAAAAAAAAAAAADAUIrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgGHUNE12Qk8LCwvly5cv2Rl90+l0yvXr17MzAAAAAAAAAAAAAAAAAAAAAAAAAAAAhlZkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyjZ8+elffv32dnbKjdbmcn9M3y8nKZnJws6+vr2SkAAAAAAAAAAAAAAAAAAAAAAAAAAABDK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAhlG32y2zs7PZGb9YWVkp9+7dy87om6mpqfLmzZvsDAAAAAAAAAAAAAAAAAAAAAAAAAAAgKEW2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADDqmma7IRfzM/Pl+Xl5eyMvpifny+3bt3KzgAAAAAAAAAAAAAAAAAAAAAAAAAAABh6kR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAwrJ4+fVo+fPiQnfE/MzMz2Ql9sbS0VM6fP5+dAQAAAAAAAAAAAAAAAAAAAAAAAAAAMBIiOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGBYdbvdMjs7m53xn69fv5b79+9nZ/TFhQsXyqdPn7IzAAAAAAAAAAAAAAAAAAAAAAAAAAAARkJkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyzpmmyE/5z9+7dsrq6mp3xx6anp8vc3Fx2BgAAAAAAAAAAAAAAAAAAAAAAAAAAwMiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIDtrNVqbbp3Op3y8ePHAdVsrt1uZyf8sbdv35aLFy9mZwAAAAAAAAAAAAAAAAAAAAAAAAAAAIyUyA4AAAAAAAAAAAAAAAAAAAAAAAAAAADYzo4ePbrp3u12S9M0A6rp7fPnz+XBgwc991arNcCa3/Pz588yOTlZvn37lp0CAAAAAAAAAAAAAAAAAAAAAAAAAAAwUiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAYDs7dOhQ2blz56Y3TdMMqKa3O3fulLW1tZ77kSNHBljze27cuFEeP36cnQEAAAAAAAAAAAAAAAAAAAAAAAAAADByIjsAAAAAAAAAAAAAAAAAAAAAAAAAAABgOxsbGyvHjh3b9KbT6ZTFxcUBFW1sZmam57Zr165y+PDhAdZs3cuXL8vVq1ezMwAAAAAAAAAAAAAAAAAAAAAAAAAAAEZSZAcAAAAAAAAAAAAAAAAAAAAAAAAAAABsdydPntx073a7pWmaAdX8amlpqTx69KjnfuLEiTI2NjbAoq1ZXV0tExMTZW1trefN3r17B1gEAAAAAAAAAAAAAAAAAAAAAAAAAAAwWiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAYLs7ePBg2b1796Y3TdMMqGbjv9fX13vup06dGmDN1l25cqW8evWq537gwIFy5syZARYBAAAAAAAAAAAAAAAAAAAAAAAAAACMlsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGAbHjx/fdH/y5ElZXFwcUM3/tdvtntuePXvKvn37BlizNQ8fPiw3b97sue/YsaNcvny5tFqtAVYBAAAAAAAAAAAAAAAAAAAAAAAAAACMlsgOAAAAAAAAAAAAAIB/2bmbFyvr/4/j77kcNW36SmNgYtKdSZFZlJSG3SiaXudaFEWrqLa1aBHdaTeE3WC5CKpFmwjaRKto0RzPjAdJyjSzW4iKggoSKmtssgydu99Cuu+6dGbOnOv85jweq5rX+1yf518gAAAAAAAAAAAAAEwFaZoW7qOjo9Hb29ukmj999913sXfv3ty9Uqk0sWZsBgYGYsOGDTE6Opp7c/fdd8eZZ57ZxCoAAAAAAAAAAAAAAAAAAAAAAAAAAID2k5QdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUsXbo0TjvttMKbWq3WpJq/vzkyMpK7Z1nWxJqx2bRpU3z77be5++WXXx433XRTE4sAAAAAAAAAAAAAAAAAAAAAAAAAAADaU1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFSRpmnh/t5778V3333XpJqjqtVq7rZ48eJYtGhRE2uO32uvvRY9PT25+//+97/YvHlzdHR0NLEKAAAAAAAAAAAAAAAAAAAAAAAAAACgPSVlBwAAAAAAAAAAAAAAAAAAAAAAAAAAAEwVaZoW7qOjo9HX19ekmoh9+/bFBx98kLtnWda0lrH49ttv45FHHim8efDBB+PUU09tUhEAAAAAAAAAAAAAAAAAAAAAAAAAAEB7S8oOAAAAAAAAAAAAAAAAAAAAAAAAAAAAmCrOP//8OP300wtvarVak2oiqtVq4Z5lWZNKjt/o6Ghs2LAhBgYGcm+uueaauPbaa5tYBQAAAAAAAAAAAAAAAAAAAAAAAAAA0N6SsgMAAAAAAAAAAAAAAAAAAAAAAAAAAACmkjRNC/f33nsvvv/++6a0bN26NXdbunRpLFy4sCkdY/Hiiy/Grl27cvdTTjklNm3a1MQiAAAAAAAAAAAAAAAAAAAAAAAAAAAAkrIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAppI0TQv3kZGR6Ovrm/SOr776Kj7++OPcPcuySW8Yqy+++CKeeuqpwptHH300uru7m1QEAAAAAAAAAAAAAAAAAAAAAAAAAABARERSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUcu6558aZZ55ZeFOr1Sa9o1qt5m5JkkSappPeMBaDg4Nx9913x+HDh3Nvbrjhhli9enUTqwAAAAAAAAAAAAAAAAAAAAAAAAAAAIiISMoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAmGrSNC3c33333di/f/+kNlSr1dxt2bJlMW/evEl9f6yeeeaZ+OSTT3L3BQsWxP3339/EIgAAAAAAAAAAAAAAAAAAAAAAAAAAAH6XlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAw1VQqlcJ9ZGQk+vr6Ju39zz//PD7//PPc/Vh9zbZ37954/vnnc/ckSeKJJ56Irq6uJlYBAAAAAAAAAAAAAAAAAAAAAAAAAADwu6TsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgKnmnHPOiUWLFhXe1Gq1SXu/p6cnd+vs7Ix169ZN2ttj9csvv8R9990XIyMjuTe33nprXHrppU2sAgAAAAAAAAAAAAAAAAAAAAAAAAAA4K+SsgMAAAAAAAAAAAAAAAAAAAAAAAAAAACmojRNC/e9e/fG/v37J+XtrVu35m4rVqyI7u7uSXl3PB5//PH45ptvcvdFixbFnXfe2cQiAAAAAAAAAAAAAAAAAAAAAAAAAAAA/ikpOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGAqStO0cB8ZGYm+vr6Gv/vxxx/HV199lbtnWdbwN8erXq/HK6+8krtPnz49tmzZEjNnzmxiFQAAAAAAAAAAAAAAAAAAAAAAAAAAAP+UlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFZ199tmxePHiwptardbwd6vVau42Y8aMWLt2bcPfHI8ffvghHnroocKb2267Lc4///wmFQEAAAAAAAAAAAAAAAAAAAAAAAAAAJAnKTsAAAAAAAAAAAAAAAAAAAAAAAAAAABgqqpUKoX7u+++Gz/++GND39y6dWvuduWVV0ZXV1dD3xuvBx54IPr7+3P3Cy64IG677bYmFgEAAAAAAAAAAAAAAAAAAAAAAAAAAJAnKTsAAAAAAAAAAAAAAAAAAAAAAAAAAABgqkrTtHAfHh6Ovr6+hr33/vvvx759+3L3LMsa9tZEvPzyy/H666/n7ieccEJs2bIlOjs7mxcFAAAAAAAAAAAAAAAAAAAAAAAAAABArqTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgKnqjDPOiPPOO6/wplarNey9arWau82ePTtWrVrVsLfG6+uvv44nn3yy8Oauu+6Ks846q0lFAAAAAAAAAAAAAAAAAAAAAAAAAAAAHEtSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUVqlUCvd33nkn+vv7J/zOyMhI1Gq13H316tUxa9asCb8zEcPDw3HPPffEoUOHcm9WrFgRN998cxOrAAAAAAAAAAAAAAAAAAAAAAAAAAAAOJak7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICpLE3Twn14eDj6+vom/M7evXvj+++/z92zLJvwGxP13HPPxYcffpi7n3TSSbF58+bo6OhoYhUAAAAAAAAAAAAAAAAAAAAAAAAAAADHkpQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMJUtXLgwlixZUnhTq9Um/E5PT0/uNmfOnFi5cuWE35iIjz76KJ577rnCmwcffDDmz5/fpCIAAAAAAAAAAAAAAAAAAAAAAAAAAACOV1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFSXpmnhvmfPnujv7x/394eHh6Ovry93X7NmTcyYMWPc35+o3377Le69994YGhrKvbnmmmviuuuua2IVAAAAAAAAAAAAAAAAAAAAAAAAAAAAxyspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGCqS9O0cB8eHo5t27aN+/u7du2K/v7+3D3LsnF/uxG2bNkSX375Ze4+d+7c2LRpUxOLAAAAAAAAAAAAAAAAAAAAAAAAAAAAGIuk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICpbsGCBXHhhRcW3tRqtXF/v1qt5m5z586N5cuXj/vbE/XGG2/ESy+9VHjzyCOPRHd3d5OKAAAAAAAAAAAAAAAAAAAAAAAAAAAAGKuk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIB2kKZp4b5nz57o7+8f83ePHDkS9Xo9d1+/fn1MmzZtzN9thAMHDsTGjRsLb66//vpYs2ZNk4oAAAAAAAAAAAAAAAAAAAAAAAAAAAAYj6TsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHaQpml0dHTk7kNDQ1Gv18f83Z07d8bAwEDuXqlUxvzNRnn44Ydj//79ufuCBQvigQceaGIRAAAAAAAAAAAAAAAAAAAAAAAAAAAA45GUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANAOTj311LjooosKb2q12pi/29PTk7vNnz8/LrnkkjF/sxFeffXV6O3tzd07Ojpi8+bN0dXV1cQqAAAAAAAAAAAAAAAAAAAAAAAAAAAAxiMpOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKBdpGlauL/99ttx4MCB4/7e4cOHY/v27YXvdXR0HPf3GmXfvn3x6KOPFt7ccsstcdlllzWpCAAAAAAAAAAAAAAAAAAAAAAAAAAAgIlIyg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoF+vXr48kyf9nYYeGhqJerx/3915//fX49ddfc/csy8bU1wgjIyOxYcOG+OWXX3Jvzj777LjrrruaWAUAAAAAAAAAAAAAAAAAAAAAAAAAAMBE5P/LugAAAAAAAAAAAAAAAAAAAAAAAAAAADTUvHnz4uKLLy68qdVqx/29arWau51xxhmxZMmS4/5Wo7zwwguxZ8+e3L2zszO2bNkSM2fObGIVAAAAAAAAAAAAAAAAAAAAAAAAAAAAE5GUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBOKpVK4b579+44cODAMb9z6NCh2LFjx7jfmQyffvppPP3004U3t99+eyxZsqRJRQAAAAAAAAAAAAAAAAAAAAAAAAAAADRCZ9kBAAAAAAAAAAAAAAAAAAAAAAAAAAAA7WTdunXx2GOPxcjIyH/uQ0NDUa/X48Ybbyz8zvbt2+O3337L3bMsm1DneGzbti2OHDlSePPss8/Gs88+26Siv9u4cWNs3LjxmHefffZZE2oAAAAAAAAAAAAAAAAAAAAAAFC+iE0AACAASURBVAAAAAD+/0jKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAGgnp5xySixbtqzwplarHfM7PT09udvixYtj0aJFY24DAAAAAAAAAAAAAAAAAAAAAAAAAACA/5KUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBuKpVK4b579+746aefcveDBw/Gm2++mbtnWTbuNgAAAAAAAAAAAAAAAAAAAAAAAAAAAPinpOwAAAAAAAAAAAAAAAAAAAAAAAAAAACAdrNu3bqYNm1a7j40NBT1ej13r9frceTIkdw9y7IJ9QEAAAAAAAAAAAAAAAAAAAAAAAAAAMBfJWUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAtJvu7u647LLLCm96e3tzt2q1mrstXbo0Fi5cOO42AAAAAAAAAAAAAAAAAAAAAAAAAAAA+Kek7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIB2lKZp4b5r1674+eef//X3gYGB2LVrV+7vsiybcBsAAAAAAAAAAAAAAAAAAAAAAAAAAAD8VVJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAQDtau3ZtdHZ25u6Dg4Oxffv2f/1927ZtMTg4+J+/SZIk0jRtWCMAAAAAAAAAAAAAAAAAAAAAAAAAAABERCRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSjk08+OZYvX15409vb+6+/1Wq13Ptly5bFvHnzJtwGAAAAAAAAAAAAAAAAAAAAAAAAAAAAf9VZdgAAAAAAAAAAAAAAAAAAAAAAAAAAAEC7StM03nzzzdx9586d8euvv8aJJ54YEREDAwOxe/fu3PtKpdLwxrG444474o477ijl7VdeeSU2btxYeLN58+a4/vrrm1QEAAAAAAAAAAAAAAAAAAAAAAAAAAAwdSRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSrtWvXxvTp03P3w4cPx44dO/74/3q9HoODg/9529nZGevWrWt4IwAAAAAAAAAAAAAAAAAAAAAAAAAAACRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSrOXPmxOWXX15409fX98d/9/b25t6tWLEiuru7G9YGAAAAAAAAAAAAAAAAAAAAAAAAAAAAv0vKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAGhnaZoW7jt27IgjR47EwYMH46233sq9y7Ks0WkAAAAAAAAAAAAAAAAAAAAAAAAAAAAQERGdZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAC0szVr1sT06dNjcHDwP/dDhw7Fzp074+DBg7k3M2bMiLVr105mJgAAAAAAAAAAAAAAAAAAAAAAAAAAAG0sKTsAAAAAAAAAAAAAAAAAAAAAAAAAAACgnZ100kmxcuXKwpt6vR71ej13v/LKK6Orq6vRaQAAAAAAAAAAAAAAAAAAAAAAAAAAABAREUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAO2uUqkU7tu3b4833ngjd8+yrNFJAAAAAAAAAAAAAAAAAAAAAAAAAAAA8IfOsgMAAAAAAAAAAAAAAAAAAAAAAAAAAADa3erVq2PmzJlx+PDh/9z7+/tzfzt79uxYtWrVZKUBAAAAAAAAAAAAAAAAAAAAAAAAAABAJGUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAtLuurq644oorxvXb1atXx6xZsxpcBAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9Kyg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAgolKpjOt3WZY1uAQAAAAAAAAAAAAAAAAAAAAAAAAAAAD+Lik7AAAAAAAAAAAAAAAAAAAAAAAAAAAAgIhVq1bFCSecMKbfzJkzJ1auXDlJRQAAAAAAAAAAAAAAAAAAAAAAAAAAAHBUUnYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEbNnz46rrrpqTL9Zs2ZNzJgxY5KKAAAAAAAAAAAAAAAAAAAAAAAAAAAA4Kik7AAAAAAAAAAAAAAAAAAAAAAAAAAAAACOStN0TPdZlk1SCQAAAAAAAAAAAAAAAAAAAAAAAAAAAPwpKTsAAAAAAAAAAAAAAAAAAAAAAAAAAACAo66++uqYPXv2cd3OnTs3li9fPslFAAAAAAAAAAAAAAAAAAAAAAAAAAAAEJGUHQAAAAAAAAAAAAAAAAAAAAAAAAAAAMBRs2bNiquvvvq4btevXx/Tpk2b3CAAAAAAAAAAAAAAAAAAAAAAAAAAAACIiKTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP6Upulx3VUqlUkuAQAAAAAAAAAAAAAAAAAAAAAAAAAAgKOSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAD401VXXRUnnnhi4c38+fPjkksuaVIRAAAAAAAAAAAAAAAAAAAAAAAAAAAA7a5jdHR0tOwIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoDUlZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAArSspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABoXUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEDrSsoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFpXUnYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0LqSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA1pWUHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAC0rqTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKB1JWUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAK0rKTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaF1J2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA60rKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABaV1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANC6krIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgNaVlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAtK6k7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgdSVlBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACtKyk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGhdSdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQOtKyg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWldSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADQupKyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDWlZQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALSupOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHUlZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAArSspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABoXUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEDrSsoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD+j905pgEAAEAAtNk/tDH0gAQAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGV/7kKzrt8Hjl/7OnU+0E+RSnG4wAd2FBhZrA4qMzFdkJUKGYllRGCFZNFBhKNHKUuSQDwI054oVj4lma6R9LgDNTPSZSVpNMiyrTHTbd6/o//Bv1+73XTb55u+Xof357qv6/0FAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAeUcbiQAAIABJREFUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5VZo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgL7T1tYWX331VRw4cCCOHTsWzc3N0dLSEoMGDYrhw4fHqFGjYuLEiTFp0qQYN25c6tyiWlpaYvfu3XHw4MFobm6OP/74I1pbW2Pw4MExfPjwuOiii2LixIlRWVkZo0ePTp0LAABwzihNHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANCbPvzww7j//vv/5/e6urooLy9PUNT//vzzz6itrY3NmzfH/v37o6Ojo1v/q6ioiKlTp8acOXNi/PjxfVzZPUePHo233nortm3bFgcPHoxTp05163+TJk2KadOmxdy5c2PMmDF9XAkAAHBuKykUCoXUEQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAL3h5MmTMXPmzDh8+PD/vNXV1UV5eXmCqv7T3Nwcq1atitra2mhrazvjPSUlJXHttdfG0qVLY8KECb1Y2H1NTU3xwgsvxNatW6O9vf2M95SWlsbMmTPjoYceitGjR/diIQAAwPkjSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADQW1atWhWHDx9OnZHExx9/HNXV1bF+/fpoa2s7q12FQiHq6+vj5ptvjpUrV0ZHR0cvVXbPe++9F9XV1bFx48Zob28/q10dHR2xadOmuPHGG2P9+vW9VAgAAHB+KSkUCoXUEQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGfr008/jbvvvjsKhcI/vtfV1UV5eXk/V/WPFStWxJo1a/psf1VVVaxcuTJGjBjRZzciIjo7O+PRRx+NTZs29dmN6urqePrpp2Pw4MF9dgMAAOBck6UOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOFtHjhyJRx55JAqFQuqUfvfUU0/FmjVr+vTG559/HvPnz49jx4712Y329vZYsmRJbNq0qc9uRERs2bIlFi1aFCdOnOjTOwAAAOeSLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA2Th27FgsWrQojh49mjql3y1fvjzWrVvXL7cOHjwY99xzT7S1tfXJ/qVLl8a2bdv6ZPffNTQ0xIMPPhidnZ39cg8AAODfrjR1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwJlqbW2N++67L3788cfUKf1ux44d8corr3RrdvLkyTFr1qyYPHlyjBs3LoYOHRrHjx+Pn376KXbt2hXvv/9+7N69+7R7vv7666ipqYnly5efbf7/s3bt2vjggw9OO1dSUhJXX311zJgxIy699NIYO3ZslJWVRWtraxw6dCgaGhpi8+bN0djYeNpd9fX18fLLL8cDDzzQG58AAABwTispFAqF1BEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA91dzcHIsWLYq9e/d2a76uri7Ky8v7uKp/HDlyJGbPnh0tLS1F58aPHx81NTUxZcqU0+5saGiIZcuWxffff3/a2RUrVkR1dXW3e4vZu3dv3H777dHe3l50bvLkybFs2bKorKw87c4dO3bEE088EU1NTUXnBgwYEOvWrYvLL7+8R80AAADnmyx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQE/99ttvsWDBgti7d2/qlCSefPLJaGlpKTozffr0qK2tjSlTpnRr5xVXXBEbNmyIm2666bSzzz77bLS2tnZrbzGnTp2Kxx57LNrb24vOzZ8/P1577bWorKzs1t5p06bF5s2b46qrrio619nZGTU1NdHZ2dntZgAAgPNRljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgJ/bv3x9z5syJb7/9NnVKEl9++WXU19cXnbn++utj5cqVMWTIkB7tHjRoUDz//PMxb968onO//vprrF69uke7/8mGDRviwIEDRWfmz58fjz/+eJSWlvZo9wUXXBBr1qyJa665puhcY2NjvP322z3aDQAAcL4pKRQKhdQRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA3bFjx454+OGHo62trcf/rauri/Ly8j6o6j+FQiFuu+222LdvX5czl1xySbz77rsxbNiwM75z6tSpuPfee2Pnzp1dzgwZMiTq6+tj5MiRZ3TjxIkTMX369GhqaupyZsqUKfHqq6/GgAEDzuhGRMRff/0V8+bNi/3793c5M2bMmNi+fXsMHDjwjO8AAACcy7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKdz8uTJeOaZZ2Lx4sXR1taWOieZL774Ivbt21d0ZtmyZTFs2LCzupNlWTz33HMxatSoLmeOHz8er7/++hnf2Lx5czQ1NXX5PnDgwKipqYkBAwac8Y2IiLKysnjppZdi8ODBXc788ssvsWXLlrO6AwAAcC7LUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU09jYGLfeemusXbs2CoVC6pyk3nnnnaLv1113XVRVVfXKrREjRsSSJUuKzrz55pvR0dFxRvtP9y3z5s2L8ePHn9Huv6uoqIi77rqr6Mz69et75RYAAMC5KEsdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8E+OHz8eL774Ytxyyy3R2NiYOie533//PbZv3150ZsGCBb16c/bs2XHxxRd3+X706NH45JNPerz3wIEDsWfPni7fS0pK4s477+zx3mIWLlwYZWVlXb5/88038d133/XqTQAAgHNFljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg77Zv3x6zZs2K1atXR3t7+2nnhw0bFkOHDu2HsnS2bt0aJ0+e7PK9oqIiqqqqevVmaWlpzJ07t+jMxo0be7x3w4YNRd+rqqqioqKix3uL+c9//hMzZ84sOnMm3wIAAHA+yFIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/J/PPvss5s2bF4sXL46ff/65W/+58MIL44033oiRI0f2cV1aH330UdH3G264oU/uzpgxo+j7zp07o729vUc78/otdXV1fXIXAADg3y5LHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABARcccdd8TChQtjz5493f7PZZddFrW1tVFZWdmHZemdOHEiGhoais5MnTq1T25PmDAhxo4d2+V7a2tr7Nq1q9v7Dh8+HIcOHSo601ffcuWVV0ZZWVmX7z/88EMcOXKkT24DAAD8m2WpA/7L3t3FWH2XeQB/5n/ODGVeygydKQOhMzIQwPBmyzbVphgxXpi0G7QlOmjKpinRNEq8MBXcGy+qS7cbq6kvIRoQ2tgskKLNbk00FTVsUhNXAyKNL2notDC8zfBWZgrDzJm9crPRPf9zZpgz/8OczyfpDd/feZ7vc5qQnCsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiIn7zm9+U/TZJktiyZUs8//zzMW/evAq2qg5HjhyJGzduFM1nzZoVq1evrtj+++67LzU/fPhw2bNK/X/u6uqKzs7OsudNxG233Vbye5rILQAAALUiyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADARHR3d8cLL7wQTz75ZNTX12ddZ1ocOXIkNV+xYkVFv4uVK1em5kePHi17Vqlb1qxZU/asyVi1alVq/vvf/76i+wEAAG5F+awLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlKO+vj62bNkSTzzxRMyaNSvrOtPq+PHjqfmqVasqur/U/Ndffz3Gx8ejrq6u5Kxqv+UPf/hDRfcDAADcivJZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChl/fr1sW3btli0aFHWVTLxpz/9KTVfvHhxRfeX+t6vXr0aJ06ciJ6entR3hUIh/vKXv6S+yfqWN954I959992YPXt2RXsAAADcSpKsCwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABSzcuXK2LNnT+zcuTMWLVqUdZ1MjI6OxsmTJ1Pf9PT0VLRDS0tLtLW1pb7p6+srOef06dNx/fr11DeVvqWrqys1Hxsbi7fffruiHQAAAG41SdYFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/taKFSviO9/5Trz00kvxgQ98IOs6merv74/R0dHUN11dXRXvUWrHyZMnS8546623UvOGhoaYP3/+hHpNVGNjY7S3t6e+KecWAACAWpLPugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBERC6Xiw9+8IOxefPmuP/++7OuUzX6+/tT81wuFx0dHRXv0d7enpqfOnWq5IxSt3R0dERdXd2Eek1Ge3t7DAwMFM3LuQUAAKCW5LMuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBFx6NCh6OzszLpG1Tlz5kxqPnfu3EiSpOI92tvbU/PTp0+XnFHqljvvvHNCnSZrKm4BAACoJZX/1QkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCGzs7OrCtUpQsXLqTmHR0d09Kjvb09Nb98+XLJGaVuKbVjqkzFLQAAALUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAxV26dCk1v/3226elR3Nzc2p+5cqVkjNm0i0AAAC1JMm6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMVdvnw5NW9qapqWHqX2lOpZzptb6RYAAIBakmRdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgOKGhoZS8+bm5mnp0dTUlJq/8847JWfMpFsAAABqST7rAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwM0bGhqK4eHhiIgoFAoV2dHU1BTNzc0VmU1x165dS80bGxunpcdtt92Wmt+4caPkjJl0CwAAQC3JZ10AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAC4eU1NTdHU1BQREevWrYtz585N+Y7Pf/7zsXXr1imfS7pr166l5vl8flp6lNpz48aNkjNm0i0AAAC1JMm6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMWNjY2l5rlcblp6lNozOjpacsZMugUAAKCWJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoLixsbHUPJfLTUuPfD6fmo+Pj8fo6Gjqm2q5pdSeGzduTEsPAACAW0WSdQEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAmr66urmr2FAqFiu+YCkmSpOY3ewcAAMBMk/4rCgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEzV19en5mNjY9PSY3R0tOSbXC6Xmufz+dS8Wm4pdQcAAECtSf81BwBQRS5eHIpCYTzrGgAAAAAAAJCpJKmLtramrGukGtz7r1EYeifrGgAAAAAAAJCppKkl7vinbVnXSPX2v22PsXcuZ10DAAAAAAAAMpVrmRN3Pfl01jVSvfvqCxHXh7KuAQAAAAAAANma1RSzP/Jo1i1S/ddDvTFyfjDrGgAAAAAAAJCpho474oH//PesawA14F/+4R/jyulzWdcAqCq3z78z/vm//+Pv/vzgwYNRKBSmfF9TU3X/O8szVX19fWo+NjY2LT3K2ZPL5VLzhoaGm94xFUZHR1PzUncAAADUmnzWBQAAylUojEehMJ51DQAAAAAAAKCEwtA7Ubh6OesaAAAAAAAAQAlj71yOscsXs64BAAAAAAAAlHJ9KMavXc26BQAAAAAAAGSqLusCZRg5PxjXz57LugYAAAAAAAAA1IQrp8/Fpf6zWdcAuCV0dHRkXYEplM/nU/OxsbFp6TE6Opqa19fXl5xRLbeU2lPOLQAAALUkyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAxTU0NKTm169fn5YeIyMjqXljY2PJGTPpFgAAgFqSZF0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA4pqbm1Pz4eHhaekxNDSUms+ePbvkjJl0CwAAQC1Jsi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAcW1tban50NDQtPQotef2228vOaO1tfWmdkyVqbgFAACgliRZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKC4OXPmpOZDQ0PT0qPUntbW1pIzSr25lW4BAACoJUnWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACiutbU1Nb9w4cK09Ci1p62treSMarllcHAwNS/nFgAAgFqSZF0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA4jo7O1PzwcHBaekxMDCQms+bN6/kjGq5pdSecm4BAACoJUnWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChu4cKFqfnly5djZGSk4j0GBwdT83nz5pWcUeqWgYGBCXWarKm4BQAAoJYkWRcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACguAULFkQul0t90</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzOPY+NaxTH4XvWTOIreGlEI8ZIUPARvFVqjUaj0foIPgzRzTwTL2GiUEgMioeIcoZphIwQg+zTnRxh77Ml5zxrzc51tf915/7NjUajUQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD4jcgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOqK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgrsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpayA4AAAAAAAAAAAAAAAAAAAAAAAAAAACo6vr16+327dt//O7YsWPt5s2b/0PRf2dtba1duXLlj95cvHix3bhx438qAgAAAAAAAAAAAAAAAAAAAAAAAAAAoKqF7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIBZ8+LFi7axsdEOHDiQnTLW8vJy6v9Pnjxply5dSm34p2vXrrWrV69mZwAAAAAAAAAAAAAAAAAAAAAAAAAAAJQU2QEAAAAAAAAAAAAAAAAAAAAAAAAAAACzaHV1NTthrJ2dnXb37t3Uhr7vU/8HAAAAAAAAAAAAAAAAAAAAAAAAAABgepEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMIu6rstOGGttba1tb2+nNvR9n/o/AAAAAAAAAAAAAAAAAAAAAAAAAAAA04vsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFn0/Pnztrm5mZ3xWysrK9kJ7eXLl9kJAAAAAAAAAAAAAAAAAAAAAAAAAAAATCmyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAGbRaDRqq6ur2Rm/+PLlS7t//35qw/fv39vr169TGwAAAAAAAAAAAAAAAAAAAAAAAAAAAJheZAcAAAAAAAAAAAAAAAAAAAAAAAAAAADMqq7rshN+8eDBg/b58+fUhjdv3rSdnZ3UBgAAAAAAAAAAAAAAAAAAAAAAAAAAAKYX2QEAAAAAAAAAAAAAAAAAAAAAAAAAAACz6tmzZ+3t27fZGT9ZXl7OTmh932cnAAAAAAAAAAAAAAAAAAAAAAAAAAAA8AciOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGBWjUajtrq6mp3xt0+fPrWHDx9mZ7S+77MTAAAAAAAAAAAAAAAAAAAAAAAAAAAA+AML2QEAAAAAAAAAAAAAAAAAAAAAAAAAAACzrOu6dvny5eyM1lpr9+7da1+/fs3OaH3fT9yXlpbarVu3BqoBAAAAAAAAAAAAAAAAAAAAAAAAAADg30R2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwG42Pz8/cV9fX2/v3r0bqGaylZWV7ITWWmuvXr2auB89enSgEgAAAAAAAAAAAAAAAAAAAAAAAAAAAKYR2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAC72enTpyfuo9GodV03UM14Hz9+bI8ePRq7z8/PD9KxubnZPnz4MPFmcXFxkBYAAAAAAAAAAAAAAAAAAAAAAAAAAACmE9kBAAAAAAAAAAAAAAAAAAAAAAAAAAAAu9mJEyfa3r17J950XTdQzXh37txp3759G7ufOnVqkI6+7//1ZnFxcYASAAAAAAAAAAAAAAAAAAAAAAAAAAAAphXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAALvZ3NxcO3PmzMSb9fX1trW1NVDR7y0vL4/d9u3b106ePDlIR9/3E/eFhYV2+PDhQVoAAAAAAAAAAAAAAAAAAAAAAAAAAACYTmQHAAAAAAAAAAAAAAAAAAAAAAAAAAAA7Hbnz5+fuI9Go9Z13UA1v3r//n17/Pjx2P3cuXNtbm5ukJa+7yfuhw4danv27BmkBQAAAAAAAAAAAAAAAAAAAAAAAAAAgOlEdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBud/z48bZ///6JN13XDVTz+79//Pgxdr9w4cJgLX3fT9wXFxcHKgEAAAAAAAAAAAAAAAAAAAAAAAAAAGBakR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAwC86ePTtxf/r0adva2hqo5mcrKytjt4MHD7alpaVBOra3t9vGxsbEmyNHjgzSAgAAAAAAAAAAAAAAAAAAAAAAAAAAwPQiOwAAAAAAAAAAAAAAAAAAAAAAAIC/2LnXH6nrs/Hj135ZFsF1rYuW0gqKBxBWl0axnqighcLM1GpqG2Ntapq0Ju0TTZr2idrEeKjRtpiItk2qxoQ+MKk2tWEZli0WTyiieCgu1hoPgMgaFihBWNjD/aD5tXd/tzOzh5n57s6+XokR9rq+n+vNP7AAAEAtyGQyRecDAwOxdu3aKtX8x+7du2Pz5s0F59lstmotnZ2dJXdaWlqqUAIAAAAAAAAAAAAAAAAAAAAAAAAAAMBQJGkHAAAAAAAAAAAAAAAAAAAAAAAAAAAA1ILW1tY4+eSTi+7k8/kq1fz3zf7+/oLzXC5XtZbOzs6i87q6upg7d26VagAAAAAAAAAAAAAAAAAAAAAAAAAAABisJO0AAAAAAAAAAAAAAAAAAAAAAAAAAACAWpHJZIrOX3nlldi9e3eVav6lra2t4Gz27NlxxhlnVK1l27ZtReczZ86MxsbGKtUAAAAAAAAAAAAAAAAAAAAAAAAAAAAwWEnaAQAAAAAAAAAAAAAAAAAAAAAAAAAAALUik8kUnQ8MDER7e3uVaiJ27twZr776asF5LperWktExJtvvll0Pnfu3CqVAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBRJ2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1oqWlJU455ZSiO/l8vko1EW1tbUXnuVyuSiURR44ciXfeeafoTktLS5VqAAAAAAAAAAAAAAAAAAAAAAAAAAAAGIok7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIBakslkis5feeWV6OrqqkrLmjVrCs5aW1tjxowZVemIiHjnnXfi6NGjRXfmzp1bpRoAAAAAAAAAAAAAAAAAAAAAAAAAAACGIkk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJZkMpmi8/7+/mhvb694x3vvvRdbt24tOM/lchVv+N86OztL7rS0tFShBAAAAAAAAAAAAAAAAAAAAAAAAAAAgKFK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAACoJWeddVbMmjWr6E4+n694R1tbW8FZkiSRyWQq3vC/dXZ2Fp1PmzYtmpubS77T29sbu3btirfeeitef/31eOutt2L79u1x+PDhcqUCAAAAAAAAAAAAAAAAAAAAAAAAAADw/6lPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKDWZDKZePDBBwvOX3755fj444/jpJNOqlhDW1tbwdmCBQti2rRpFbv9abZt21Z0Pm/evE/9+c6dO+OZZ56JTZs2xZtvvhkffPBB9PX1/Z+9urq6OOmkk2LOnDmxYMGCuPjii6O1tbUs7QAAAAAAAAAAAAAAAAAAAAAAAAAAAONdfdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAtSabzcaDDz5YcN7f3x/t7e1x3XXXVeT+22+/HW+//XbBeTabrcjdYjo7O4vO582b9+8/9/T0xJNPPhmPP/54bNmyZVDvDwwMRFdXV3R1dcUzzzwTK1asiJkzZ8bVV18d3/72t6OpqWlE/QAAAAAAAAAAAAAAAAAAAAAAAAAAAONZknYAAAAAAAAAAAAAAAAAAAAAAAAAAABArTnzzDPjjDPOKLqTz+crdn/16tUFZ/X19bFs2bKK3f4027dvjwMHDhTdmTdvXhw6dCh+97vfxaJFi+KWW26JLVu2jOjuBx98ECtWrIjFixfH/fffHz09PSN6DwAAAAAAAAAAAAAAAAAAAAAAAAAAYLxK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAACoRZlMpuh88+bN8fHHH1fk9po1awrOLrroomhubq7I3UK2bdtWcmf79u2RyWTi3nvvjb1795b1/sGDB2PlypWRzWbjpZdeKuvbAAAAAAAAAAAAAAAAAAAAAAAAAAAA40GSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAEAtymQyRef9/f3R3t5e9rtbt26N9957r+A8l8uV/WYpnZ2dJXfuvvvu2LVrV0U7duzYEddff3385je/qegdAAAAAAAAAAAAAAAAAAAAAAAAAACAWpOkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAFCLTj/99Jg9e3bRnXw+X/a7bW1tBWcNDQ2xdOnSst8spbOzs+o3C+nr64sVK1bEzTffHH19fWnnAAAAAAAAAAAAAAAAAAAAAAAAAAAAjAlJ2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1KpvNFp2//PLLsWfPnrLeXLNmTcHZpZdeGo2NjWW9Nxjbtm2r+s1S/vCHP8SPf/zj6O/vTzsFAAAAAAAAAAAAAAAAAAAAAAAAAABg1KtPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKBWZTKZuO+++wrO+/r6or29Pa699tqy3NuyZUvs3Lmz4DyXy5XlzlDs27cvPvzww2F929DQEBdffHEsXLgwzjrrrJg5c2Ycd9xxMWnSpDh06FB8/PHH8cEHH8Srr74aTz/9dPztb38b0vtr1qyJqVOnxq233jqsPgAAAAAAAAAAAAAAAAAAAAAAAAAAgPGiPu0AAAAAAAAAAAAAAAAAAAAAAAAAAACAWnXqqafG3Llzo7Ozs+BOPp+Pa6+9tiz32traCs6mTJkSl112WVnuDEWxf3shJ5xwQlx//fVx3XXXRVNT06fuNDY2RmNjY8yaNSsWLVoUN954Y7z77rvx0EMPxRNPPBF9fX2DurVq1aqYN29eXH311UPuBAAAAAAAAAAAAAAAAAAAAAAAAAAAGC+StAMAAAAAAAAAAAAAAAAAAAAAAAAAAABqWTabLTp/6aWXoru7e8R3+vv7I5/PF5xffvnlMXny5BHfGapt27YNaf/qq6+O9vb2+OEPfxhNTU1D+nbWrFlxxx13xB//+MeYN2/eoL+7/fbb49133x3SLQAAAAAAAAAAAAAAAAAAAAAAAAAAgPEkSTsAAAAAAAAAAAAAAAAAAAAAAAAAAACglmUymaLzvr6+aG9vH/GdzZs3R1dXV8F5Lpcb8Y3h6OzsHNTe5MmTY8WKFXHXXXdFU1PTiG7OmTMnHnvssfja1742qP1Dhw7FHXfcMaKbAAAAAAAAAAAAAAAAAAAAAAAAAAAAtSxJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKCWzZgxI84+++yiO/l8fsR3Vq9eXXB2/PHHx8KFC0d8Yzg6OztL7kyZMiUefvjhyGazZbvb0NAQv/jFL+Ib3/jGoPafffbZeOqpp8p2HwAAAAAAAAAAAAAAAAAAAAAAAAAAoJYkaQcAAAAAAAAAAAAAAAAAAAAAAAAAAADUukwmU3S+adOm6O7uHvb7fX190d7eXnC+ZMmSaGhoGPb7w9Xb2xu7d+8uupMkSaxcuTLOPffcst+vq6uL22+/Pb70pS8Nav+3v/1t2RsAAAAAAAAAAAAAAAAAAAAAAAAAAABqQX3aAQAAAAAAAAAAAAAAAAAAAAAAAAAAALUuk8nEvffeW3De19cX69ati2uuuWZY72/cuDG6u7sLznO53LDeHan6+vrYtGlTdHd3x44dO/7rv507d8aOHTviiiuuiEsuuaSiDffcc09cccUVceDAgaK7W7Zsiddeey3mz59fsR4AAAAAAAAAAAAAAAAAAAAAAAAAAICxqD7tAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFr3hS98IebPnx+vvfZawZ18Ph/XXHPNsN5va2srOJs6dWpceOGFw3q3XJqbm6O5uTlaW1tTuT99+vS44YYb4pe//GXJ3T//+c8xf/78KlQBAAAAAAAAAAAAAAAAAAAAAAAAAACMHUnaAQAAAAAAAAAAAAAAAAAAAAAAAAAAAONBJpMpOt+0aVN0d3cP+d0jR45ER0dHwfny5ctjwoQJQ3631nznO9+J4447ruTeunXrqlADAAAAAAAAAAAAAAAAAAAAAAAAAAAwtiRpBwAAAAAAAAAAAAAAAAAAAAAAAAAAAIwHmUwm6urqCs57e3ujo6NjyO8+99xzsX///oLzbDY75Ddr0ZQpU+LrX/96yb2PPvoo3n///SoUAQAAAAAAAAAAAAAAAAAAAAAAAAAAjB1J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAADjwec+97n44he/WHQnn88P+d3Vq1cXnE2fPj3OO++8Ib9Zq5YuXTqovS1btlS4BAAAAAAAAAAAAAAAAAAAAAAAAAAAYGxJ0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYLzKZTNH5iy++GHv37h30ez09PbF+/fqi9+rq6gb9Xq0777zzYuLEiSX3/v73v1ehBgAAAAAAAAAAAAAAAAAAAAAAAAAAYOxI0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYL5YvXx5JUvjXwvb29kZHR8e7mQ4AACAASURBVMeg3/vrX/8aBw8eLDjP5XJD6qt1DQ0NceaZZ5bc27FjRxVqAAAAAAAAAAAAAAAAAAAAAAAAAAAAxo7Cv1kXAAAAAAAAAAAAAAAAAAAAAAAAAACAspo2bVqce+65RXfy+fyg32trays4O/XUU+Pss88e9FvjxYwZM0rudHV1VaEEAAAAAAAAAAAAAAAAAAAAAAAAAABg7EjSDgAAAAAAAAAAAAAAAAAAAAAAAAAAABhPstls0fkLL7wQe/fuLfnOJ598Ehs2bBj2nfHqs5/9bMmdgwcPVqEEAAAAAAAAAAAAAAAAAAAAAAAAAABg7EjSDgAAAAAAAAAAAAAAAAAAAAAAAAAAABhPli1bFklS+FfD9vb2RkdHR8l31q9fH4cOHSo4z+Vyw+qrdZMnTy65c/jw4SqUAAAAAAAAAAAAAAAAAAAAAAAAAAAAjB2Ff6suAAAAAAAAAAAAAAAAAAAAAAAAAAAAZXfiiSfGggULiu7k8/mS76xevbrgbPbs2XHGGWcMuW08mDBhQll2AAAAAAAAAAAAAAAAAAAAAAAAAAAAxpMk7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDxJpvNFp2/8MILsW/fvoLzAwcOxLPPPltwnsvlht1W63p6ekruTJ48uQolAAAAAAAAAAAAAAAAAAAAAAAAAAAAY0eSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMB4s2zZspgwYULBeW9vb3R0dBScd3R0xJEjRwrOc7nciPpq2YEDB0ruNDU1VaEEAAAAAAAAAAAAAAAAAAAAAAAAAABg7EjSDgAAAAAAAAAAAAAAAAAAAAAAAAAAABhvmpub44ILLii6s3bt2oKztra2grPW1taYMWPGsNtq3a5du0ruTJ8+vQolAAAAAAAAAAAAAAAAAAAAAAAAAAAAY0d92gEAAAAAAAAAAAAAAAAAAAAAAAAAAADjUSaTieeff77gfOPGjfHPf/4zmpqa/uvn+/fvj40bNxb8LpfLla1xJHp7e2Pv3r2xZ8+ef/9/z5490d3dHd3d3bFnz56YPXt23HTTTVXtevfdd0vunHzyyVUoAQAAAAAAAAAAAAAAAAAAAAAAAAAAGDvq0w4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYj5YuXRq33XZb9Pb2fur86NGjsX79+rjqqqv+6+fr1q2Lo0ePfuo3SZJEJpMpe+tw/PznP49Vq1YV3XnrrbfipptuqlJRxN69e2Pnzp0l91paWqpQAwAAAAAAAAAAAAAAAAAAAAAAAAAAMHYkaQcAAAAAAAAAAAAAAAAAAAAAAAAAAACMRyeccEJceOGFRXfWrl37f36Wz+cL7i9YsCCmTZs24rZymDFjRsmdHTt2RHd3dxVq/mXjxo2D2jvnnHMqXAIAAAAAAAAAAAAAAAAAAAAAAAAAADC2JGkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAjFeZTKbo/LnnnouDBw/+++/79++PF154oeB+NpstW9tInXnmmYPa27RpU4VL/uMvf/lLyZ2zzjorTjzxxCrUAAAAAAAAAAAAAAAAAAAAAAAAAAAAjB1J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAADj1dKlS2PixIkF5z09PbFhw4Z//72joyOOHj36qbv19fWxbNmysjcO1/z58yNJSv8K3CeffLIKNRH79u2LdevWldxbvHhx5WMAAAAAAAAAAAAAAAAAAAAAAAAAAADGmNK/bRYAAAAAAAAAAAAAAAAAAAAAAAAAAICKOP744+Piiy8uutPe3v7vP69du7bg3kUXXRTNzc1laxupxsbGmDt3bsm9p59+Orq7uyve8+ijj0ZPT0/JvSuvvLLiLQAAAAAAAAAAAAAAAAAAAAAAAAAAAGNNknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAeJbJZIrON2zYEEeOHIkDBw7E888/X3Avl8uVO23Eli5dWnLn6NGj8eijj1a0Y/fu3YO6cf7558dpp51W0RYAAAAAAAAAAAAAAAAAAAAAAAAAAICxKEk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAYDxbsmRJTJw4seD8k08+ieeeey6eeuqpOHr06KfuNDQ0xNKlSyuVOGy5XC7q6upK7j3yyCOxY8eOijQMDAzErbfeGgcPHiy5+4Mf/KAiDQAAAAAAAAAAAAAAAAAAAAAAAAAAAGNdknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAeHbcccfFwoULi+50dHRER0dHwfmll14ajY2N5U4bsZkzZ8all15acq+npyduu+226O/vL3vDAw88EBs2bCi519raGosWLSr7fQAAAAAAAAAAAAAAAAAAAAAAAAAAgFqQpB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAw3mWz2aLz9evXxzPPPFNwnsvlyp1UNjfccMOg9p5++um48847y3r797//faxcubLkXpIkceutt5b1NgAAAAAAAAAAAAAAAAAAAAAAAAAAQC1J0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAY7y6//PKYNGlSwXl3d3d88sknnzqbMmVKXHbZZZVKG7EFCxbEV77ylUHtrlq1Ku65557o6+sb0c2BgYFYuXJl3H777TEwMFBy/9prr43W1tYR3QQAAAAAAAAAAAAAAAAAAAAAAAAAAKhlSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAA411jY2N8+ctfHta3l19+eUyePLnMReV1yy23RGNj46B2H3roofje974XXV1dw7r14Ycfxve///24//77Y2BgoOT+7Nmz46c//emwbgEAAAAAAAAAAAAAAAAAAAAAAAAAAIwXSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAARGSz2WF9l8vlylxSfp///OfjZz/72aD3X3zxxfjqV78ad999d3R1dQ3qm/fffz/uuuuuWL58eTz77LOD+qapqSnuu+++OOaYYwbdBgAAAAAAAAAAAAAAAAAAAAAAAAAAMB7Vpx0AAAAAAAAAAAAAAAAAAAAAAAAAAABAxGWXXRbHHHNMHD58eNDfHH/88bFw4cIKVpXPlVdeGdu2bYuHH354UPuHDh2KRx55JB599NFoaWmJSy65JE499dRobm6OxsbGOHz4cHz00Ufxj3/8I1588cXYunXrkHomTZoUv/71r+P0008fzj8HAAAAAAAAAAAAAAAAAAAAAAAAAABgXKlPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAICIKVOmxKJFi2Lt2rWD/mbJkiXR0NBQwary+slPfhL79++Pxx9/fNDf9Pf3xxtvvBFvvPFG2ToaGhriV7/6VSxYsKBsbwIAAAAAAAAAAAAAAAAAAAAAAAAAANSyJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAA/iWTyQxpP5fLVaikMpIkiTvvvDO++93vptbQ1NQUDz/8cCxZsiS1BgAAAAAAAAAAAAAAAAAAAAAAAAAAgLEmSTsAAAAAAAAAAAAAAAAAAAAAAAAAAACAf1m8eHFMmTJlULtTp06NCy+8sMJF5VdXVxc333xz3HnnnTFp0qSq3m5paYnHHnsszj///KreBQAAAAAAAAAAAAAAAAAAAAAAAAAAGOuStAMAAAAAAAAAAAAAAAAAAAAAAAAAAAD4l8mTJ8fixYsHtbt8+fKYMGFCZYMq6Jvf/Gb86U9/ivPPP7/ityZNmhQ/+tGP4rHHHovTTjut4vcAAAAAAAAAAAAAAAAAAAAAAAAAAABqTZJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAP+RyWQGtZfNZitcUnmzZs2KVatWxQMPPBBz5swp+/sTJ06Mb33rW9He3h433nhjTJw4sew3AAAAAAAAAAAAAAAAAAAAAAAAAAAAxoP6tAMAAAAAAAAAAAAAAAAAAAAAAAAAAAD4j0WLFsWxxx4bBw8eLLgzffr0OO+886pYVVlLliyJJUuWxObNm+OJJ56Ip556Krq7u4f1Vl1dXcyZMyeuvPLKuOqqq6K5ubnMtQAAAAAAAAAAAAAAAAAAAAAAAAAAAONP3cDAwEDaEQAAAAAAAAAAAAAAAAAAAAAAAAAAAPD/9Pf3x9atW+P111+PrVu3xvbt22PXrl2xb9++6Onpid7e3jjmmGPi2GOPjc985jMxc+bMOOWUU+Kcc86JCy64IKZOnZr2PwEAAAAAAAAAAAAAAAAAAAAAAAAAAKCm1A0MDAykHQEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACMTknaAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDolaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIxeSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwOiVpB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAjF5J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA6JWkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACMXknaAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDolaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIxeSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwOiVpB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAjF5J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA6JWkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACMXknaAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDolaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIxeSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwOiVpB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAjF5J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA6JWkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACMXknaAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDolaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIxeSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/w+4c0wAAACAA2uwf2hh6QAIAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAA4QGW2wAAIABJREFUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgLI/d6Fdl+8Dx6/dm05TohBCaVhgikfBoAXWQU8iZQuKMiEPOsiIoAciiw4iNnqUMkYSxA7CtCCKlW0WWRujIKodJC2hKUaRQoOMtTW+pnv4/o///9/PuU23+/7r63X4va/Pdb2/AAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACActXlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDuVCqV+PHHH+PQoUMxNDQUw8PDMTIyEgsXLoylS5fGsmXLYvXq1bFmzZpYuXJl7twpjYyMxIEDB+LIkSMxPDwcf//9d4yOjkZ9fX0sXbo0Lrvssli9enWsXbs2li9fnjsXAADgvFGXOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOBc+uKLL+LRRx/9j997enqioaEhQ9H8++eff6KjoyO6urpiYGAgxsfHp/XdFVdcETfffHNs2rQpVq1aNceV03P8+PF4//33Y//+/XHkyJGYnJyc1ndr1qyJ9evXx7333hsrVqyY40oAAIDzW021Wq3mjgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADgXTp06FRs3boyjR4/+x1tPT080NDRkqJo/w8PDsXPnzujo6IhKpTLrPTU1NXHjjTfGtm3b4qqrrjqHhdM3ODgYr7/+enz22WcxNjY26z11dXWxcePGePLJJ2P58uXnsBAAAODCkXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAnCs7d+6Mo0eP5s7I4quvvorm5ubYs2dPVCqVs9pVrVajt7c37rzzzmhra4vx8fFzVDk9H3/8cTQ3N8cnn3wSY2NjZ7VrfHw8Ojs747bbbos9e/aco0IAAIALS021Wq3mjgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADhb33zzTTzwwANRrVb/63tPT080NDTMc9X82LFjR7S3t8/Z/nXr1kVbW1tccsklc3YjImJiYiKeeeaZ6OzsnLMbzc3N8dJLL0V9ff2c3QAAADjfpNwBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZ+vYsWPx9NNPR7VazZ0y71588cVob2+f0xvffvttbNmyJYaGhubsxtjYWDzxxBPR2dk5ZzciIvbt2xdbt26NkydPzukdAACA80nKHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHA2hoaGYuvWrXH8+PHcKfNu+/btsXv37nm5deTIkXjwwQejUqnMyf5t27bF/v3752T3/9XX1xePP/54TExMzMs9AACA/+/qcgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADM1ujoaDz88MPx66+/5k6Zd93d3fH2229Pa7axsTFuv/32aGxsjJUrV8ZFF10UJ06ciN9//z1++OGH+PTTT+PAgQNn3PPTTz9Fa2trbN++/Wzz/5ddu3bF559/fsa5mpqauP766+PWW2+Nq6++Oi6//PJYtGhRjI6Oxm+//RZ9fX3R1dUVhw8fPuOu3t7eePPNN+Oxxx47F38BAADgvFZTrVaruSMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABmanh4OLZu3Rr9/f3Tmu/p6YmGhoY5rpofx44di7vuuitGRkamnFu1alW0trZGU1PTGXf29fVFS0tL/PLLL2ec3bFjRzQ3N0+7dyr9/f1x3333xdjY2JRzjY2N0dLSEmvXrj3jzu7u7nj++edjcHBwyrna2trYvXt3XHPNNTNqBgAAuNCk3AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAz9ddff8X9998f/f39uVOyeOGFF2JkZGTKmQ0bNkRHR0c0NTVNa+e1114be/fujTvuuOOMs6+88kqMjo5Oa+9UJicn49lnn42xsbEp57Zs2RLvvvturF27dlp7169fH11dXXHddddNOTcxMRGtra0xMTEx7WYAAIALUcodAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBMDAwOxadOm+Pnnn3OnZPH9999Hb2/vlDO33HJLtLW1xeLFi2e0e+HChfHaa6/F5s2bp5z7888/46233prR7v9m7969cejQoSlntmzZEs8991zU1dXNaPfFF18c7e3tccMNN0w5d/jw4fjggw9mtBsAAOBCU1OtVqu5IwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKaju7s7nnrqqahUKjP+tqenJxoaGuagav5Uq9W455574uDBg6edufLKK+Ojjz6KJUuWzPrO5ORkPPTQQ/H111+fdmbx4sXR29sbl1566axunDx5MjZs2BCDg4OnnWlqaop33nknamtrZ3UjIuLff/+NzZs3x8DAwGlnVqxYEV9++WUsWLBg1ncAAADOZyl3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwJmcOnUqXn755XjkkUeiUqnkzsnmu+++i4MHD04509LSEkuWLDmrOymlePXVV2PZsmWnnTlx4kS89957s77R1dUVg4ODp31fsGBBtLa2Rm1t7axvREQsWrQo3njjjaivrz/tzB9//BH79u07qzsAAADns5Q7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYCqHDx+Ou+++O3bt2hXVajV3TlYffvjhlO833XRTrFv3P+zdfYyV9dkn8GvuOTPAzCAzONMBqkwZiNAFseoaiindatqNqd1YX1agLzRUnjamkrbpWu3uk7SJ7WLMVo19WbaNVCTVINFqNpq0Kn2xqd32qcFSTNVYGYVBZIY3mQHm5czzVzdP7HPuc2Y4Z+7DnM8n8R+v3/le3+uYkEwywZVl2dXa2hpf/epXU988/PDDMTIyMqH8YresXr06Fi5cOKHsd+vq6orPf/7zqW+2bdtWll0AAABTUZJ1AQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgH/PyZMn45577onrrrsuXnnllazrZO7w4cPx9NNPp7753Oc+V9ad1157bXR2dhac9/X1xW9/+9tx57788suxa9eugvO6urpYt27duHPTrF+/PqZPn15wvmfPnnj11VfLuhMAAGCqSLIuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8G5PP/10XH311bF58+YYHh4u+r65uTmampomoVl2nnrqqRgaGio47+rqipUrV5Z1Zy6XixtvvDH1zRNPPDHu3Mcffzx1vnLlyujq6hp3bppZs2bFxz/+8dQ3E7kFAACgFiRZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPi73/3ud7F69eq45ZZbYv/+/SV9pqOjIx566KFoa2urcLts7dy5M3X+sY99rCJ7r7rqqtT5b37zmxgeHh5XZrXe8uyzz1ZkLwAAwNkuyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABARMRnPvOZWL9+fezatavkz1xyySXx6KOPxpIlSyrYLHunT5+OP/zhD6lvrrzyyorsXrRoUbz3ve8tOD9x4kS88MILJee9+eabsXfv3tQ3lbplxYoVMX369ILzv/3tb7Fv376K7AYAADibJVkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiIj44x//WPLbJEliw4YN8eCDD0ZnZ2cFW1WHXbt2xfDwcMH5tGnTYvny5RXbv2LFitT5c889V3JWsf/O8+fPjzlz5pScNx7Tp08v+j2N5xYAAIBakWRdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYDy6urpi27Ztceutt0ZDQ0PWdSbFrl27UudLly6t6HexbNmy1PmLL75YclaxWy666KKSsybiwgsvTJ3/+c9/ruh+AACAs1Eu6wIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAClaGhoiA0bNsTNN98c06ZNy7rOpNqzZ0/q/MILL6zo/mL5L730UoyNjUVdXV3RrGq/5S9/+UtF9wMAAJyNclkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKOaKK66I2267LRYsWJB1lUy8/PLLqfOFCxdWdH+x7/3EiRPx+uuvR3d3d+q7fD4fr776auqbrG957bXX4uTJkzFjxoyK9gAAADibJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKGTZsmXxwAMPxObNm2PBggVZ18nEyMhI7Nu3L/VNd3d3RTvMnDkz2traUt/09PQUzTlw4ECcPn069U2lb5k/f37qfHR0NN58882KdgAAADjbJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeLelS5fGD37wg3j00Udj5cqVWdfJVG9vb4yMjKS+mT9/fsV7FNuxb9++ohlvvPFG6ryxsTHmzp07rl7j1dTUFO3t7alvSrkFAACgluSyLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABARUV9fHx/+8Idj3bp1cfnll2ddp2r09vamzuvr66Ojo6PiPdrb21Pn+/fvL5pR7JaOjo6oq6sbV6+JaG9vj76+voLzUm4BAACoJbmsCwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAERE7Ny5M+bMmZN1jarz1ltvpc5nz54dSZJUvEd7e3vq/MCBA0Uzit3ynve8Z1ydJqoctwAAANSSyv/UCQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUII5c+ZkXaEqHT58OHXe0dExKT3a29tT58eOHSuaUeyWYjvKpRy3AAAA1JIk6wIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUdvTo0dT5OeecMyk9WlpaUufHjx8vmjGVbgEAAKglSdYFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKOzYsWOp8+bm5knpUWxPsZ6lvDmbbgEAAKglSdYFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKGxgYCB13tLSMik9mpubU+fvvPNO0YypdAsAAEAtyWVdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOHMDAwMxODgYERH5fL4iO5qbm6OlpaUi2RR26tSp1HlTU9Ok9Jg+fXrqfHh4uGjGVLoFAACgluSyLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJy55ubmaG5uj</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAAlgAAAOECAYAAAB97U88AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAPYQAAD2EBqD+naQAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdd3xUVf7/8ddMCiEkBAIJnSCooQVMIDQLbFwUUJGiKEiQhVAUEFyKoRNAmlJDpEbpSm+CIBJXpKwooiAKCgSWEGogYMD0+f3Bj/luNtQw5M5k3s/Hg8dj5tz2uVk2vjn33HNMFovFgoiIiIjYjNnoAkREREQKGgUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMQUsERERERtTwBIRERGxMVejC8hv2VmZ/HXxlNFl5IvCJStgdsn7/8SffPIJq1evBiAoKIioqCjc3d2t27/99lsGDBhA6dKlAahevTrjx49/sKJFREQKAJPFYrEYXUR+un4+nm/+Wc3oMvJF4ym/4en/SJ6OPXDgAEOHDmX58uUULlyYQYMGUaNGDTp37mzdJyYmhiJFiuRoExERESfswQJwdTUZXYLdK1q0KMOHD8fT0xOAqlWrkpiYmGOfgwcPkpqayrp16yhTpgwjR4609maJiIg4M6cLWCYTuJidI2CZTJCYmEh4ePht99m+ffst2ytVqkSlSpUASEpKYunSpbke//n4+NChQweeeeYZli1bRv/+/Vm6dKnN6hcREXFUThewQD1Y9yMhIYEePXrw6quvUr9+/RzbJk6caP3coUMHpkyZwp9//om3t3d+lykiImJXnC5gmUzg4uIcActkgrJly962l+pufvvtN7p370737t1z9YKlpaWxYMECevToYW2zWCy4ujrdXykREZFcnPK/hq6ump3ibi5dukRERAQjR47kueeey7W9UKFCrFmzhscee4ywsDBWr17NE088QeHChQ2oVkRExL443VuEaUkn+GVsbaPLyBc1h/1MoRKV8nTs1KlTWbBggXUcFkCTJk24ePEiYWFhPPvssxw6dIhRo0Zx/fp1SpQowcSJEylTpoxtihcREXFgThmwfhv3hNFl5ItqQ37Kc8ASERGRvHO6R4QmnGeQu3PcpYiIiP1xuoCFEw1yV8ISERExhtMFLBPgph6se3K3pXJERETk1pwuYGFyorcIHyBhHThwgDVr1rBixQrrUjnLli3TsjgiIiL3wOkClgkTZhcXo8vIF6YHSFj3slSOiIiI3JrTBSxMJlzcChldRf4wmR7qUjkiIiJya84XsACzi5vRJTiMOy2VIyIiIrfmfAHLZMLs5mF0FfnDZHpoS+WIiIjI7TldwDJhwuzqHD1YDzIG625L5YiIiMjtOV3AcrYxWHm1cOFCUlJSiImJISYmBrixVM67775rq+pEREQKLKdbKif7z0T+XN3e6DLyhXfbTzF7lzW6jDyzWCxcunSJokWL4ubmHL2OIiJSMDhfDxYmTE4zyN0xJ1S9du0aY8eO5fPPPycjIwM3NzeaNm3K6NGj8fLyMro8ERGRu3K+gGUy4eJEg9wd0cSJE7l8+TIbNmygXLlynDp1ig8++IBx48Yxbtw4o8sTERG5K+cLWOA0g9wdVVxcHFu2bLH2VlWpUoVJkybRtGlTgysTERG5N04XsExONMjd5KA9WCaTibS0tByPA9PS0rQOooiIOAynC1jONg+WI3rppZfo1asXffv2pUyZMiQmJjJjxgxefPFFo0sTERG5J073FqHl+gUs3w4xuox8YXp6HCZPvzwfn5KSQvv27Zk1axbly5fPse2zzz5j5syZlChRArDtFA4ZGRlMmzaNzz//nEuXLlG6dGlatmxJjx491IslIiIOwSl7sHB1jkeED9KDtX//fkaMGEF8fPwttx84cICRI0c+lHFRbm5uDBw4kIEDB9r83CIiIvnB+QIWJnBxll6QvAesFStWMHLkSAYNGnTL7QcPHuTixYtER0dTtWpVhg0bRtGiRfN8PYDu3bszd+5cwsPDbzt+bNGiRQ90DRERkfzgpAHLSXqwMJGYmHjHdQRvt07h+PHjb3tMdnY2ZcqUoW/fvlSvXp3JkyczduxYJk2a9EDVvvTSSwC0adPmgc4jIiJiNOcLWCacpwfrIY1xN5vNzJ071/q9W7duNnlUeDNgXbp0ia5du+baPn369Ae+hoiISH5wvoCFCVyd5C1CTJQtW/a2vVR5lZSUxJYtW3jjjTeAGz1aLi4uD3TO8+fPs3v3bgBmzJhhHTx/U0pKCgsXLqRv374PdB0REZH84HwBy2TC5CyPCB/SNA2enp5ER0cTEhJCtWrVWLx48QP3YPn6+hIXF8fly5fJyMhg9erVOba7u7szfPjwB7qGiIhIfnG+gKVB7nnWrVs33nnnHYKCgpg8eTKRkZGkpaVRuXJlJk6c+EDndnV1ZcaMGQBMnTrVZlM+iIiIGMH55sFKvwq/Lze6jPzx+GuY3B/szT4jZGdns2fPHi5cuGBty8jI4Pjx47z33nsGViYiAt988w3z588nPj6e5cuXs2bNGipWrMjLL79sdGliR5yzB8usHix7NmzYML7++mt8fHzIyMjA29ubI0eO0Lx5c6NLExEnt2vXLnr37s0LL7zAzz//THZ2NpmZmQwePBiLxUKrVq2MLlHshHMGLGeZaNRBA9a2bdtYu3YtFy9e5OOPP2bGjBmsXLmSuLg4o0sTEScXHR1N//796dy5M1u3bgXg3XffxcvLi9jYWAUssXK+gGVyorcIHXQtQldXV8qXL0+xYsX45ZdfgBtzY02ZMsXgykTE2R05cuSWc/41a9aMmTNnGlCR2CvnC1iYwOxmdBH5xDED1qOPPsrGjRt56aWXcHFx4dixY7i7u5OdnW10aSLi5Ly9vTl//jwVK1bM0X706FF8fHwMqkrskfMFLBNYnGSaBgftwGLgwIG8++67PPHEE/Tq1Ys2bdpgNpvp1KmT0aWJiJN76aWXGDduHOPGjcNkMnHt2jV27NjBmDFjaNGihdHliR1xvrcIM//CcvY7o8vIF6bS9TG5Fja6jAd27tw5UlJSqFKlitGliIiTy8jIIDIykk2bNgFgMpmwWCw0adKE6dOnU6iQc/wDXu7OCQNWKtnnfzS6jHxh9g/B5GDjzY4dO8bRo0d54oknKFWqVI72oUOH8tlnnxlYnYjIDSdPnuS3334jOzubxx9/nEcffdToksTOON8jQk3TYLc+/fRTRo8ejbe3NxkZGSxcuJBatWoxe/ZsZs6cSaNGjYwuUUSc3BtvvEGbNm1o1qwZzZo1M7ocsWPO14OVlUZW0m9Gl5EvXEpUc6hlgZo2bcq7775LixYtWLp0KTt37qRo0aLs3LmTYcOGaR4sETHc4MGD2bZtG1lZWTRt2pQ2bdrQoEEDo8sSO+SEASudrMtHjS4jX7gUfxSTAy0LFBwczP79+wHIzMzkiSeeIDg4mOnTp+Pr62twdSIiN6Snp7N9+3Y2btzIjh078Pf3p1WrVrRu3ZoKFSoYXZ7YCacMWJlXThhdRr5w9ankUAErJCSEH3/8v/FxTzzxBHFxcQpXImK3rly5wtq1a4mOjub69ev89ptzPCGRu3PSMViO89jswTjWGKz/5e7urnAlInYpLS2N7du3s2HDBnbt2kWZMmWIiIgwuiyxI84XsEwmLCYnue0HnAgrJSWF9u3bM2vWLMqXL2+jom4vMzOTdevWWb9nZGTk+A5oGQoRMdS3337L559/zldffYXFYqFZs2Z88skn1K1b1+jSxM443yPC7CzSr10yuox84V7EF5PZJU/H7t+/nxEjRhAfH8+WLVvyJWCFh4ffcbvJZGLRokUPvQ4RkdupVq0aoaGhtGnThueff57ChR1/rkF5OJwwYGWT/tefRpeRL9wLe2Mym/N07ODBg2nbti2DBg1i0aJF+RKwRETsXUJCgn4fyj1xkmdl/8cCWMzOcdsW4Exi4h17hrZv337L9vHjxz+kqkREHMvMmTPp2rUrhQsXzjVs4X/17t07n6oSe+ccSeN/WMhbr46IiDifNWvW8MYbb1C4cGHWrFlz2/1MJpMCllg53SPC7Oxs/vorzegy8kXhwoUw5/ER4U1hYWF6RCgicg+ys7Mf+HeuFBxO+TchK8viFH8Kij/++INz584ZXYaICM8++yzJycm52s+dO0fDhg0NqEjsldM9IrRYICsr2+gy8oWj9k3u2rWL0aNHs3XrVubPn090dDRms5lRo0bx8ssvG12eiDiZzZs38+233wJw+vRpRo8eTaFCOedTPH36NKYHnBpHChanC1gA2Q4aPIwQFxeX79ecPHkyvXr1Iisri3nz5jFr1ixKlCjB22+/rYAlIvkuODiYzz77jJsjahITE3Fzc7NuN5lMeHp6MnHiRKNKFDvklAGrID0+K4gSEhJo2bIlP/zwAwCNGjUC4PLly0aWJSJOqkyZMtY5+MLDw5k5cyY+Pj4GVyX2zukClsUC2U7SheWojwhLly5NXFwcn3/+OY0bNwZg5cqVVKpUydjCRMTpLV682OgSxEE4XcAC9WDZu+HDhxMVFYWXlxfTpk1jz549xMTEMG3aNKNLExEnVK1aNXbu3EmJEiWoWrXqHcdaabFnucnppmnIzMzizFnnmMm9TGlvXF3ztlSOPdGrzyJipLVr1/LCCy/g7u7OmjVr7hiwWrdunY+ViT1zuoCVkZnF6cSrRpeRL8qVLYqbAwWswYMH33UfzTAvIiKOwPm6BSxONA+Wg0XncuXKUa5cOTIyMoiLi8PHx4dq1apRsmRJvv32W1xdnfKJtojYkfT0dGbPns3JkycBGDp0KMHBwXTt2lUv4kgOzteDlZHFif/kniSuIKpUsRhubo7Tg3VTq1atmDhxIoGBgda2Y8eO0adPHzZv3mxgZSLi7MaNG8f69ev5+OOPSUpKomfPnrzzzjv861//4pFHHlEvu1g5XZeAxeI8g9wdNTqfOnWKChUq5Gjz8/Pj/PnzBlUkInLDli1bmDJlCjVq1GDkyJHUq1ePnj178tRTT9GtWzejyxM74nQBCyDbSWZyd1RNmjShT58+9OzZE39/fxITE/noo49o1qyZ0aWJiJNLTk6mSpUqwI1VJ1577TUAihUrRmpqqpGliZ1xuoBlwUJmpnMELIujDcL6/8aOHcvkyZMZOHAgFy9exM/PjxdffJE+ffoYXZqIOLmKFSty8OBBkpKSSEhI4Omnnwbgq6++onz58gZXJ/bE6cZgpaVl8ush51g4uHqNUhQq5HQZWkTkoVm3bh3Dhw/HbDYTHBzMggULiImJISYmhnHjxtGqVSujSxQ74XwBKzWTgwfPGl1GvggKKk0hj7wHrJSUFNq3b8+sWbOs/zLr2bMn48aNw9fXF4DIyEjq1atHmzZtch1//PhxXnnlFet4qpIlSxIbG3vb64WHh991sdSby1WIiBjl8OHDJCQk8Mwzz+Du7s6OHTtwc3OjYcOGRpcmdsTpujcsWMjKzDK6jHzxII8I9+/fz4gRI4iPj7e2paWlce3aNXx9fTl37hwjR45kz5491KtX75bnOHDgAG3atGHYsGH3dM2bIe3nn39m9+7dhIeHU7ZsWc6fP8+SJUt48skn83w/IiK2UrVqVcqXL8/hw4dxc3MjJCQELy8vo8sSO+N0AQuc5y3CB7FixQpGjhzJoEGDrG3//ve/qV+/PgDr16/n2WefpVixYrc9xy+//MKvv/5KmzZt8Pb2ZtiwYTz22GO33f/mDMizZs1i4cKFlClTxrotLCyM9u3bM2TIkAe9NRGRPMvOzmbixIksW7aMzMxMLBYL7u7uvPbaawwZMuSuvfDiPJwuYFksOE8PlgUSExMJDw+/7T7bt2+/Zfut5nLZsWMHL7/8MgDdu3cHYN++fbc9t4eHB6+88gpt2rThm2++4e2332bz5s24ubndse7Lly9TqFChXO3Xrl2743EiIg/bnDlzWL16NQMHDqRevXpkZ2fz/fffExMTQ6lSpYiIiDC6RLETThewsEBmhnO8RWjrlwgPHTp0z4/7AAYMGGD93LhxYyZPnsyxY8eoWrXqHY97+eWX6dKlC2+++SalSpUiMTGRTz75hNdffz3PtYuI2MLKlSsZOXIkL730krWtevXq+Pr6Eh0drYAlVs4XsLA40TxYFsqWLXvbXqr7cfz4cQICAu6r+3v+/Pm8/vrr1rEJFovlnpa7GTx4MIsXL2bVqlXWaRrCw8Ot882IiBglKSmJ2rVr52qvXbs2Z86cMaAisVdOF7AsFpxnHiwb9mDt2LGDxo0b39cxe/bsoVChQoSHh7Nnzx6ysrKoXLnyXY9zcXHhueeeIyQkBF9fX80tIyJ2o1KlSuzevZuKFSvmaN+1axflypUzqCqxR04XsACyNcj9vu3cuZMpU6bcdb/p06fj7+9P+/btGTVqFEOGDGH58uV4eHgwdepUzOY7ry/+ww8/EBUVxdGjR61tjz76KCNGjCA0NPSB70NE5EH84x//YMSIEZw6dYqQkBDgxljUpUuX5ngpSMTp5sG6lpJO3JYjRpeRL8KaBVLEy93oMu7ZoUOH6NSpExEREbRs2RI/Pz8SExNZv349CxcuZNGiRdSsWdPoMkXEyS1YsID58+dz8eJF4MYcf127duUf//iHwZWJPXHCgJXGtk2HjS4jXzR9oSpFvHK/jWev3n77bZ588kneeOONXNsWLlzInj17mD17tgGViYjkdunSJSwWCyVKlDC6FLFDTveI0GKBzIxMo8vIF44Wnffv38/UqVNvua1t27Z89NFH+VyRiMgNX375JRs3bsTd3Z3mzZvz97//3bqihcitOF3AAgsZ6c4xD5bN52l4yFJTU7ldh6qLiwvZ2c7xcoKI2JeVK1cyfPhwAgICcHV1ZfPmzQwcOJAuXboYXZrYMacLWBYLZGU5R8BytB6satWq8dVXX/Hiiy/m2rZ9+/a7zp8lIvIwLFq0iLfeeou+ffsCMHfuXD7++GMFLLkjpwtYWCAjwzkCloN1YNGjRw8iIyPx9PSkSZMmmM1msrKy2Lx5M2PHjr2ntxhFRGzt1KlTtG3b1vr9jTfeYMqUKVy6dEmPCeW2nC5gabHne5eSkkL79u2ZNWuWdS6qnj17Mm7cOH777TcmT55MZmYmxYsXZ9y4cQ88B0zjxo0ZNGgQgwcPJi0tDR8fH5KSkihSpAhDhw7VYs8iYojU1FQKFy5s/V6kSBEKFy7M9evXFbDktpwuYKkH697s37+fESNGEB8fb21LS0vj2rVreHl5MWjQIJYsWcIjjzzCihUrGDt2LLNmzXrgklu3bk3z5s3Zv38/SUlJlChRgjp16uDu7jjTTYiIc3Cyl/DlPjldwLJgIcNZ3iJ8gIS1YsUKRo4cmWPivH//+9/Ur1+f9PR0hg4dyiOPPALcGDu1bNmyB673Jg8PDxo2bGiz84mIPAiTyXRfy4SJgBMGLCyQ5SRL5WCBxMREwsPDb7vL7dYpHD9+fK62HTt28PLLL+Pl5UWLFi2AGy8MzJw5k7///e+2qVlExM5YLBZ69eqFm5ubtS0tLY0BAwZQqFDOuQYXLVqU3+WJnXK6gGWxWJxoHizbdl8fOnSIYcOGWb+npqYycOBAsrOz6dGjh02vJSJiL1q3bp2rTesOyt04X8DCiRZ7BsqWLXvbXqr7cfz4cQICAqzd5FeuXKFHjx6UL1+eKVOm5PiXnYhIQXKrHn2Ru3G6gIUTzeRuy2kaduzYQePGjW+c1mKhd+/e1KpViyFDhtjuIiIidi4xMfGO28uWLZtPlYi9c76AhcV5xmDZMGHt3LnTOg/V7t272bt3L8nJybz88svAjcVOY2NjbXY9ERF7FBYWdscB77/99ls+ViP2zOkClsUCmWnOMU2DLYZgxcXFATB//nxr25NPPsmRI0ce/OQiIg7mfwexZ2VlER8fz4IFC4iMjDSoKrFHThiwLGSmOccjQs3RIiJiW/Xq1cvV1rBhQypUqEB0dDRhYWEGVCX2yOkCFhbIynCSR4TKVyIi+aJSpUocPnzY6DLEjjhlwHKWR4QPGrAedKmcv/76i0aNGlGxYkVr25o1a3BxcXmwwkREDHKrQe4pKSnMmTPH+ntSBJwwYFmwkOUkS+U8yEzutlgq59ChQzRo0MAmS+iIiNiDWw1yt1gseHp68sEHHxhUldgjpwtY6sG6N7ZYKufgwYOcO3eOV199FRcXFwYMGEDdunXzXpSIiMEWLlyYK2C5ubnx+OOPU6RIEYOqEnvkdAHL2d4iNHKpHJPJRLNmzejWrRu//vorPXr0YOPGjRQvXjyPdyQiYqz69esbXYI4CKcLWFic5xGhTeZp+C/3u1RO586drZ9r1KhBUFAQP/74I88++6xN6xIReZgGDx58z/tq1ne5yekClrP1YJUtZ9xSOStXruSpp56iTJky/78eC66uTvdXTkQcXEJCgtEliANyvv/aaZqGPMnLUjkHDx7k+PHjvPfeexw9epRff/2VOnXq2K4oEZF8EBQURK9evTTGSu6LyeJks1FmZWZz8exVo8vIFyVLF8XF1fxA5wgLC2PRokWMGjWKKVOmULRoUXbt2kWXLl14/PHHMZtvnP/mUjmffvop58+fp2/fvly+fJnBgwdz6tQpzGYzQ4cOpUGDBra4NRGRfFOtWjV27txJiRIlrG3du3dn7Nix+Pv7G1iZ2DOnC1giIiL3o2rVquzatStHwAoODmbDhg1UqFDBwMrEnj1Y94aIiIiI5KKAJSIiImJjClgiIiJ38b+Ti4rcjfO9RSgiInKfxo4dS6FChazfMzIy+OCDD3K9Wah5sOQmBSwREZE7CA0N5cKFCznagoODuXz5MpcvXzaoKrF3eotQRERExMY0BktERETExhSwRERERGxMAUtERETExhSwRERE8uDZZ5/l2WefNboMsVMKWCIiIiI2poAlIiIiYmMKWCIiIiI2poAlIiIiYmMKWCIiIiI2poAlIiIiYmNaKkdERCQPEhMTAShbtqzBlYg9UsASEYeRmZnJxYsXjS7DpkqWLImrq+stt1mysyD9z3yuSKQAcffGZHYx5NK3/n+1iIgdunjxIt26dTO6DJuaN28epUuXvvXG9D+xHJyTvwWJFCCmoB7gUcyQa2sMloiIiIiNKWCJ2JGwsDACAwOtf6pWrUpISAgdO3bk+++/t+4THR1tcKX3bs6cOYSHhxtdhohIvlLAErEzXbp0YefOnezcuZMdO3bw2Wef4eXlRUREhHVQraNYunQp06ZNM7oMEZF8pzFYInbG09MTPz8/63d/f3+ioqJ45pln2LZtm4GV3btz584xcuRIvvvuOypVqmR0OSIi+U49WCIO4OZbZu7u7rm2rVy5kpdeeolatWrxxBNP0KFDBw4ePGjdfuDAATp06EBwcDChoaH06dPH2hOWkJBAYGAgmzZtolWrVgQFBdGmTRuOHTtGTEwMjRo1ol69ekRFRXHzhePs7GzmzJnD888/T82aNQkJCSEiIoL//Oc/1mseOnQINzc3NmzYQO3atR/mj0ZExC4pYInYuXPnzjF69Gg8PT1p3Lhxjm3btm1j9OjRRERE8MUXX7BgwQLS0tIYNmwYAFlZWfTo0YPQ0FA2bNjAggULSExMZMiQITnOM3XqVIYMGcLKlSu5evUq7du358SJEyxevJh3332XZcuW8fXXXwOwaNEiYmNjiYyMZOvWrcTExHDixAkmTJhgPd/NcWIVKlR4yD8dERH7pEeEInZmzpw5fPzxx8CNeZ/S09OpUqUK06ZNyzWhYbFixXj//fdp2bIlAOXKleOVV15h9OjRAKSkpHD58mX8/f0pV64cFSpUYNq0aSQlJeU4T5cuXahXrx4ATZs2ZfHixYwePZrChQtTpUoVoqOj+eOPPwgLC6NixYpMnDiRv/3tb9ZrNmvWjC1btjzUn4uIiCNRwBKxM6+//rr1rTuz2UyxYsXw9va+5b6hoaHWx3nHjx/n5MmTHDlyhOzsbAB8fHyIiIhgzJgxzJgxgwYNGtC4cWOaN2+e4zwBAQHWz56enpQsWZLChQtb2zw8PEhPTwdu9E79/PPPTJ8+nfj4eOLj4zl69CilSpWy6c9BRMSR6RGhiJ3x8fEhICCAgIAAKlSocNtwBbBx40ZatmzJqVOnCAkJ4b333iMyMjLHPgMGDCAuLo5+/fphsVgYM2YMbdu2tQYmINdM4mbz7X81zJ07l06dOnH58mUaNmxIVFQUXbp0yePdiogUTOrBEnFgc+fO5ZVXXiEqKsratn37dgAsFgvx8fEsXLiQIUOG0L59e9q3b8++ffvo0KEDhw8fxtfX976vOXv2bHr16kX37t2tbbGxsWjVLRGR/6OAJeLAypQpw48//sihQ4fw9vYmLi6OJUuWAJCenk7x4sXZtGkTqampdO/eHbPZzNq1a/Hx8aFy5cokJyfn6Zq7du0iLCwMs9nM+vXr+fLLLylZsqStb09ExGHpEaGIAxs+fDglS5akY8eOvPrqq3z99ddMmjQJgIMHD1K8eHHmzZvH6dOnadeuHa1btyYhIYFPPvkELy+vPF1z0qRJpKam0rZtWzp27Mjvv/9OVFQUSUlJDjcRqojIw2KyqF9fRBzE2bNnnWqxZ0tqshZ7FnkApqAemLTYs4iIiEjBoIAlIiIiYmMa5C4iYqey0v4kac9io8sQcVglHu+Aqx4RioiIiBQMClgiIiIiNqZHhCIFlMViYe3ataxdu5Y//viDlJQUypQpQ5MmTejevTt+fn7Wfa9fv84nn3zCF198QUJCAl5eXtSuXZu3336bGjVq5Djn4sWLWb16NfHx8bi5uVG1alXCw8Np1qyZdb/w8HD27t17y7q6dOnCe++99/BuXETEDihgiRRA2dnZ9O7dmx9++IGePXsyYsQIihQpwh9//MGsWbNo27Yta9eupUSJEly6dIk33ngDV1dX+vTpQ7Vq1bhy5QoLFiygQ4cOzJ07l/r16wMwY8YMVq5cyTR40f4AACAASURBVJAhQwgKCiI1NZUvvviCfv36MWHCBFq1amWtoXnz5gwdOjRXbf+9xqGII7l4zUKbBZm0rGFmQBOXHNu++j2b0duyGPmcC88+podDooAlUiAtWLCAb775hhUrVuTogSpbtiz169fnhRdeIDY2lkGDBhEVFUVaWhrLly+naNGi1n0//PBDOnfuzKhRo9i0aRNms5lly5bx1ltv0aJFC+t+jz32mHVJnv8OWB4eHjl6yUQc1alkC7+es/BMZRNmE/h5QUqahe/+Y8G7ELi5QPH//+8GvyKQeMXC6asWQisoaDkzBSyRAsZisbBkyRJatmyZI1zd5OHhwaJFi/Dz8+PixYts27aNQYMG5QhXACaTidGjR5OamorJZAJuLAL973//m9dffx0PDw/rvsOGDeOvv/56uDcmYpAth7NZvC+bBUXB1Qw7jmWzdF826VlQsRicuAyVit/Yd/aebH49ZyGgOCxsr4DlzBSwRAqYhIQETp8+TaNGjW67T7ly5QD47bffyMrKIiQk5Jb7BQQE5Pjeo0cPxo8fz5NPPkmjRo2oW7cuDRo0IDAw0HY3IGJnOoSYqVnaxOqD2Zy+auH4Jehc10y1UiYe8TXxU6KFj/dmAXAuxcI7T5t5rKTJ4KrFaApYIgXMxYsXAfD19c3R3rNnT7777jvr97Jly/LWW28B4OPjc0/n7ty5M5UrV+bTTz9l586dfPnllwAEBQUxYcIEHn30Ueu+GzduZOvWrTmOr1OnDvPnz7//m3pI3n//fe5ntbBhw4Y9xGrEXhVxN1HI1cKBRAv1Kpr4McHC8SQL4XXNmE0mLqRkc/oKNKpkYvcJCxYLBJVR75WzU8ASKWCKF7/xrOLKlSs52qOiokhNTQVg8eLFxMXFWUNYcnJyrt6q23nmmWd45plnyMjI4ODBg3z99dcsXbqUiIgIvvzyS9zd3QEICwtjwIABOY7978eK9uDYsWO8/PLLXLt2jfj4eKPLETv22U/ZeLrByKYurPw5m+U/3XgUWN4H1h7MJrSCifEtXOi7LouVP2fzfKAZr0LqxXJmClgiBUyFChXw8/Pju+++yzEYvVSpUtbPN3usatasiZubGz/++CO1a9fOda49e/awcOFCxowZQ1JSEsuWLWPo0KEUKlQINzc3QkJCCAkJoU6dOvTo0YMjR44QFBQEQJEiRe45tBnl448/5tKlS3Tq1ImlS5fy66+/Gl2S2KnxLVw4lQzeHibC65p5obqZUt43AtTHr7mSmnlj3OKI51wo4g6F3RSunJ36MEUKGBcXFzp16sS6des4fPjwLfc5c+YMAEWLFuX5559n0aJFpKSk5NgnOzub2bNnEx8fT8mSJQFYvnw527dvz3U+b29vTCYTJUqUsPHdPHzr1q3j+++/p2fPnkaXInbMxWyiku+N0OTmYrKGK7gRuvy8bnwvWcSkcCWAApZIgRQREcHf/vY3OnTowOzZszl8+DAJCQnExcXRpUsXVq9eTYMGDQB47733cHFxoX379mzbto1Tp07xww8/8Pbbb/PTTz8xbtw4TCYTVatWpWXLlgwdOpR58+Zx9OhRTpw4wZYtWxgyZAitW7embNmyBt953sTGxnL27FkqVKhgdCkiUkDoEaFIAWQ2m5k2bRpffPEFq1evZtGiRVy9epWSJUtSt25dlixZQmhoKAD+/v6sWLGCuXPn8sEHH3D27FmKFi1KSEgIy5cvp2rVqtbzjh8/npo1a7J+/XpmzZpFRkYGAQEBvPrqq7z55ptG3e4DO3/+POPGjTO6DBEpQEyW+3mFRkTEQGfPnqVbt25Gl2FT8+bNo3Tp0rfclnnlFEkLm+dzRSIFR4k3v8DVx5ieafVgiYj8f76+vlSvXh03Nzdrm9lsplChQtSoUYMPPvjAwOpExJEoYImIAI0aNWLAgAG4uLhY58YymUzWz6dPnzayPBFxMApYIiJAu3btOHbsGLNmzeKFF17AxcWFVatWUbduXTp16sS8efPyvSazdzl8un+f79cVKSjM7oWMu7ZhVxYRsSPly5dn9erVHD9+nAMHDlCpUiUSEhJYt24dGzZsoF27dkaXKCIORAFLRIQb8379+eefwI15wsqXL29d5Hrfvn2awkFE7osClojck8jISMLDwwEIDw8nMjLyjvufP3+ef/7zn9StW5f69evTv39/Ll26lB+l5klCQgLVqlWzfnZzc+ORRx4BwMvLK8fAdxGRu1HAEhGbS09Pp0uXLiQmJrJo0SLmzp3L4cOHee+994wu7ba2bNlCx44dCQ8P5/r16xw4cIC+ffvy4osv0qlTJ44ePWp0iSLiQBSwRMTmPv/8c06fPs3MmTOpXr06tWvXJjIykvj4+FxL8tiLL7/8krlz51p7qmJiYnB3d6dbt264uroaMshdRByX3iIUEZvbuXMnDRo0sK5hCPD000/z1VdfGVjV3W3evNn6+ezZs7z11lsULVqUq1evGliViDgiBSwRsbn4+Hjq1q1LTEwM69atIzMzk6eeeoqBAwdStGhRo8u7o8KFC+Pl5ZWjzc/PD4ALFy4YUZKIOCAFLBGxuZSUFNatW0fDhg2ZPHkyV65cYfz48bz99tssXrzY+naePalUqRL9+/e/49uCrVq1yseKRMSRKWCJiM25urri6enJ5MmTrWOafHx8ePXVVzl48CC1atUyuMLcevXqhbe3N5988ol1ugYRkbxSwBIRmytdujQWiyXH1AaPPfYYcGMKBHsMWJUqVWLSpEl8/71mTheRB6e3CEXE5kJDQzl8+DCpqanWtt9//x2AgIAAo8q6ozNnzlCokHHLaohIwaIeLBHJk3PnzrFjx45c7c888wyvv/46S5cupX///vTr14+rV68yatQo6tevT40aNQyo9u4WL15Mly5dSE5O5vfffyc9Pd3okkTEgSlgiUie7N69m927d+dqP3LkCL6+vixdupTx48fz6quv4u7uzt///ve7zv5upISEBMxmM2PHjr3tPhrkLiL3SgFLRO7JhAkTrJ8XL1581/0rVarEnDlzHmZJNtWvXz+8vb3ZunUrly9fNrocEXFwClgiIkCVKlWYNm0aO3fuNLoUESkANMhdRARISkoiLS3N6DJEpIBQwBIRAVavXk3Hjh0pU6aM0aWISAGgR4QiIkCjRo0oVaoUs2bN4tq1a1y/fj3HdovFQvfu3Q2qTkQcjQKWiAhw+fJl9uzZY3QZIlJAKGCJiADTp083ugQRKUA0BktE7klkZCTh4eEAhIeH33VOq0OHDhEeHk5wcDBNmjThww8/tPvJOwsXLoyvry8ALi4utGrViu7du9vt5KgiYr8UsETE5i5fvkyXLl2oXLky69atY8yYMaxZs4Zp06YZXdptPf7443z88ce8+OKLAHTv3p1//OMfNGnShPfff5969eoZXKGIOBIFLBGxuX379pGcnMzAgQMJCAjg6aef5qWXXuLbb781urTb6tixI6dOnWLr1q0UKlSIsLAwNm/eTIcOHdi2bRvt2rUzukQRcSAKWCJiczcfs3366adkZWWRkJDAN998Q+3atQ2u7PYCAwNZvnw5586dIzg4GDc3N77++msAduzYYbeLVIuIfVLAEhGbCwkJ4a233mL69OkEBQXx7LPPUqpUKUaMGGF0abeVnZ1tHSMWHBzMtWvX+P333wHw9PTUJKQicl8UsETE5lJSUjh+/DhvvPEGK1euZPr06Zw4cYLhw4cbXdptHT16lOeff57AwECeeuopvv/+ewB8fHx45ZVXOHr0qMEViogj0TQNImJzH3zwAVeuXGHGjBkA1KhRAx8fHzp37kznzp2pVq2awRXmtmDBAkaNGsXTTz/NlStXWL58OQAzZ87EbDbbde+biNgfBSwRsbl9+/bRpEmTHG03x1+dOHHCLgPWsWPH6N69OxUqVODkyZPWR4KzZs3i119/JTk52eAKRcSR6BGhiNhcqVKlOHLkSI62m98feeQRI0q6J3/99Re///57jvFWu3fvJjk5mXLlyhlYmYg4GvVgiUienDt3jh07duRqf+aZZ+jcuTPdunVj2rRptGnThtOnTxMVFUWTJk2oWrWqAdXeXZEiRejUqRM1a9bEzc0Nk8kEgMlkwsPDAy8vL1q1amVwlSLiKBSwRCRPdu/eze7du3O1HzlyhKeffpo5c+YQExPDwoULKV68OE2bNqVv374GVHpvunXrxjPPPMO+ffuoUKECqampJCYmUr16dby8vIiJiTG6RBFxIApYInJPJkyYYP28ePHiu+7fuHFjGjdu/DBLsqmQkBCWLVvGqlWraNWqFTVr1mTSpEl4eHgwYcIEKlasaHSJIuJANAZLRATw8vLi8OHDAJw6dYpHH30UgNTUVNauXUtoaKiR5YmIg1HAEhEBrl69iqenJwCJiYkUK1YMLy8vAJKSkihRooSR5YmIg1HAEhEBfv75Z9q1a4efnx9nzpwhJSWFZ599FoB69epx9epVgysUEUeigCUiAixZsoRixYrxz3/+E4CVK1fSpUsXli5dSsuWLdm2bZvBFYqII9EgdxER4MKFC7z99tuULVsWgPXr15OcnEy1atX4/fffiYuLM7hCEXEk6sESKUDCwsIIDAzkk08+ueX2ESNGEBgYSHR0NACBgYGsWbMGgISEBAIDA3P8qV69Og0bNqRfv34kJibe9pyRkZEP54byWXp6OidOnLB+/+abb5g9e7bClYjcN/VgiRQwbm5ubN26lX/84x852jMzM/nyyy+tE2jeTnR0NMHBwQBkZ2dz6tQphg4dSo8ePdiwYYP1+OzsbKZNm8by5ctp3br1w7mZh+ydd965530tFos1mIqI3I0ClkgB07BhQ7799lvOnj1L6dKlre3//ve/8fT0pHDhwnc83sfHBz8/P+v3UqVK0bt3bwYMGMCRI0eoWrUqx44dY+jQoZw8edL6SM0R1apV6573tVgsD7ESESloFLBECphatWpx7NgxtmzZQufOna3tmzdvpnnz5nzxxRf3fU4XFxfgRu8Y3AhrVapUISYmhn79+uXaPysrixkzZrBq1SpSUlJo1KgRo0eP5sUXX6R3796Eh4fn7eZsLCIiAoDHH38cPz8/zp49y7FjxwyuSkQKAgUskQKoefPmOQJWeno6X331FQsWLLivgJWdnc2RI0eYNWsWVatWtS7U/MYbb9zxuNjYWGJjYxk6dCgNGjRg8+bNvPbaayQnJ/Pkk0/m+b5szdPTk5EjRxIYGGhtO3z4MB988AFJSUkGViYijk4BS6QAat68ObGxsZw7d45SpUqxa9cufH19qV69+l2P7datm7XHKj09HYvFQt26dRkzZgxm8729F7Nw4UJatGhB+/btAejVqxe7d+/m+vXrVK5cOe83ZmPh4eFUqVKFZcuWcfToUcqXL0+7du3o3bs3UVFRRpcnIg5MAUukAKpZsyYVKlRg69atdOrUic2bN/PCCy/c07Fjx46ldu3aALi6ulKiRAk8PDzu+dp//vknFy9eJCgoKEd7UFCQdaZ0e1GvXj0WLlzIxo0bAfjxxx9JSkpiwIABFCpUiLS0NIMrFBFHpWkaRAqom48J09LS2L59Oy1atLin40qVKkVAQAABAQGUK1fuvsIVcNu3FDMzM609Y/aiePHiucZcHTx4ELPZnGOgv4jI/VLAEimgmjdvzo8//sjq1aupUKECVapUyZfrenl54e/vz8GDB3O079u3j0OHDuVLDffKxcWFjIyMHG0pKSkAuLu7G1GSiBQQClgiBVS1atUICAhg8uTJ9/x40Fa6du3K5s2bWblyJcePH2fChAlcv36d8+fP33bCUntzt/nCRETuRAFLpABr3rw5KSkp9/x40FY6depEREQEU6dOpXXr1hw9epRFixZRokQJdu7cma+15JXmvRKRB2Gy6LeIiDiIs2fP0q1bN5udb/369Rw7dozr169b20wmEzVr1szVDjBs2DCbXfumefPm5ZgQ9r9lZ2eTnq6B9iJ55e5e6J7ffrY1vUUoIk7r0KFDWCyWXI8Df/nlF0CPCUUk7xSwRMRpDRkyxOgSRKSA0hgsERERERtTwBIRERGxMQUsERERERvTGCyRAiwyMpK1a9fecZ8jR44AsHfvXpYsWcJPP/3EpUuXKFasGKGhoURERFCjRo17Oufzzz/PjBkzbHcDIiIOSgFLpAAbOnQo/fv3t35/6qmnGDJkSK55sWJjY5kyZQodOnQgOjoaf39/zp49y4oVK3jttdeYP38+DRo0sO4fHBxMdHR0rusVKlTo4d2MiIgDUcASKcC8vb3x9vbO1fbf6+wdOHCAyZMnM3jwYMLDw63tZcqUITg4mLS0ND788ENWrVpl3ebm5qa1+kRE7kBjsESc3JIlSyhXrhwdO3a85fZhw4YRGxt7X+fMyspi6tSpPPnkk9SuXZu33nqLCxcuUL9+fRYvXmyLskVE7JoCloiT27t3Lw0aNLjtpJq+vr74+Pjc1zljY2OJjY2ld+/erFu3jpo1a/Laa6+RnJzMk08+aYuyRUTsmh4Riji5ixcv4uvrm6Nt3rx5fPTRRznaNm3aRNmyZQH44YcfCA4OzrG9bNmybNq0CYCFCxfSokUL2rdvD0CvXr3YvXs3169fp3Llyg/rVkRE7IYCloiTK168OMnJyTna2rVrx3PPPQfAzz//zMCBA8nOzrZur1mzJh9++GGOY1xdb/w6+fPPP7l48SJBQUE5tgcFBeHp6fkwbkFExO4oYIk4uTp16rB3794cbT4+PtbHgmfPns11jIeHBwEBAbc83+0eNWZmZuLi4vKA1YqIOAaNwRJxcp06deLEiROsWLHiltvPnDlzX+fz8vLC39+fgwcP5mjft28fhw4dynOdIiKORD1YIk4uJCSEyMhIRo8ezS+//ELLli0pU6YMZ86cYcOGDaxatYrq1atTrFixez5n165d+fDDDwkNDaVOnTqsWLGC69evc/78eRITE61juURECioFLBHhzTffJDg4mCVLljBw4EAuXLiAl5cXNWvWZMKECbRo0cI6xupedOrUieTkZKZOncq1a9cIDQ1l0aJFtG7dmp07d9KuXbuHeDciIsYzWSwWi9FFiIjci7Nnz9KtWzejy7CpefPmUbp06Vtuy87OJj09LZ8rEik43N0LYTYbMxpKY7BEREREbEyPCEVE7JQp9SKu/xpkdBkiDsvUZBJ4+htybfVgiYiIiNiYApaIiIiIjSlgiYiIiNiYxmCJFHCRkZGsXbv2jvu0bt2ajRs3smLFCmrUqJFj25o1axg8eDBHjhwBIDo6mpkzZ97yPDVq1GDNmjW2KVxExIEpYIkUcEOHDqV///7W70899RRDhgyhRYsW1rbJkyeTmZlJZGQkq1evxt3d/Y7nLF26NKtWrcrVfj9zZYmIFGT6bShSwHl7e+Pt7Z2rzc/PL0db6dKliY+P56OPPqJfv353PKeLi0uu40VE5P9oDJaIAFCxYkXeeust5s2bxy+//PLA51uwYAFNmjShVq1ahIeH85///IdWrVoxYcIEG1QrImLfFLBExKpHjx4EBgYyePBg0tPT83yezZs3M378eNq1a8f69etp0aIFXbt25fDhwzz55JM2rFhExD7pEaGIWLm6ujJ+/Hjatm1LTEwM77777i33S0xMJDg4OFf7/v37gRu9V3Xr1uXtt98G4JFHHmH//v0kJCTc8jgRkYJGAUtEcggMDKRXr17MnDmTv//977fcx9/fn8WLF9/2HPHx8bRt2zZHW1BQEL/88gteXl42rVdExB4pYIlILt26deOrr75i8ODBdOzYMdd2V1dXAgICbnu8yWTK1ZaZmYmLi4tN6xQRsVcagyUiubi6ujJhwgROnDhBbGzsfR9fuXJlDh48mKNt3759HD9+nNTUVFuVKSJitxSwROSWHnvsMfr06cN//vOf+z62a9eu/PDDD8ydO5f4+Hjmz5/P0aNHycrKyhW8REQKIgUsEbmtiIgIgoKC7vu4pk2bMmzYMJYtW0bLli356quviImJoUaNGuzcufMhVCoiYl9MFovFYnQRIiL34uzZs3Tr1s3oMmxq3rx5lC5d+pbbLNfPk/WvQflckUjB4dJkEiZPf0OurR4sERERERtTwBIRERGxMU3TICIOw9vbm+7duxtdhk397zqROZjMmAtp3jCRPDMZ14+kHiwRERERG1PAEhEREbExPSIUsTNhYWGcPn3a+t1kMuHp6Un16tXp27cvoaGhhIWF0bp1a/r06WNgpXeWnJzMlClT+Ne//kVKSgqBgYH079+funXrGl2aiMhDpx4sETvUpUsXdu7cyc6dO9mxYwefffYZXl5eREREkJiYaHR59+Sf//wn+/fvZ8qUKaxevZpq1arRtWtXjh8/bnRpIiIPnQKWiB3y9PTEz88PPz8//P39efzxx4mKiiI1NZVt27YZXd5dnTx5kl27djFq1Cjq1q3LI488wvDhw/H392fjxo1Glyci8tApYIk4CFfXG0/03d3dc21buXIlL730ErVq1eKJJ56gQ4cOOZakOXDgAB06dCA4OJjQ0FD69Olj7QlLSEggMDCQTZs20apVK4KCgmjTpg3Hjh0jJiaGRo0aUa9ePaKiorg5L3F2djZz5szh+eefp2bNmoSEhBAREWFdVqd48eLMnTs3xyzwJpMJk8nE1atXH9rPSETEXihgiTiAc+fOMXr0aDw9PWncuHGObdu2bWP06NFERETwxRdfsGDBAtLS0hg2bBgAWVlZ9OjRg9DQUDZs2MCCBQtITExkyJAhOc4zdepUhgwZwsqVK7l69Srt27fnxIkTLF68mHfffZdly5bx9ddfA7Bo0SJiY2OJjIxk69atxMTEcOLECSZMmABA0aJFady4cY4wuHXrVk6ePMnTTz/9MH9UIiJ2QYPcRezQnDlz+PjjjwHIzMwkPT2dKlWqMG3aNMqWLZtj32LFivH+++/TsmVLAMqVK8crr7zC6NGjAUhJSeHy5cv4+/tTrlw5KlSowLRp00hKSspxni5dulCvXj3gxlqCixcvZvTo0RQuXJgqVaoQHR3NH3/8QVhYGBUrVmTixIn87W9/s16zWbNmbNmy5Zb38+OPPzJ48GCee+45mjRpYrOfk4iIvVLAErFDr7/+OuHh4QCYzWaKFSt22wkpQ0NDrY/zjh8/zsmTJzly5AjZ2dkA+Pj4EBERwZgxY5gxYwYNGjSgcePGNG/ePMd5AgICrJ89PT0pWbIkhQsXtrZ5eHiQnp4O3HjT8eeff2b69OnEx8cTHx/P0aNHKVWqVK76vvrqKwYMGEBISAgffvjhg/1gREQchB4RitghHx8fAgICCAgIoEKFCnec7Xvjxo20bNmSU6dOERISwnvvvUdkZGSOfQYMGEBcXBz9+vXDYrEwZswY2rZtaw1M8H9jvG4ym2//62Hu3Ll06tSJy5cv07BhQ6KioujSpUuu/ZYsWUKfPn3429/+xuzZsylUqNC9/ghERByaerBEHNzcuXN55ZVXiIqKsrZt374dAIvFQnx8PAsXLmTIkCG0b9+e9u3bs2/fPjp06MDhw4fx9fW972vOnj2bXr165Vi2JjY21joIHmDZsmWMGTOG8PBwhg4dislkeoC7FBFxLApYIg6uTJky/Pjjjxw6dAhvb2/i4uJYsmQJAOnp6RQvXpxNmzaRmppK9+7dMZvNrF27Fh8fHypXrkxycnKerrlr1y7CwsIwm82sX7+eL7/8kpIlSwIQHx/PuHHjaNq0KT169ODixYvWYz08PO68/p6ISAGgR4QiDm748OGULFmSjh078uqrr/L1118zadIkAA4ePEjx4sWZN28ep0+fpl27drRu3ZqEhAQ++eQTvLzytpDwpEmTSE1NpW3btnTs2JHff/+dqKgokpKSSExMZOvWrWRkZLBt2zaeeuqpHH/ef/99W96+iIhdMln+u09fRMSOXbt2jbi4OKPLsKmwsDCKFClyy22Wvy5i2T0qfwsSKUBMjUZhKlzSkGurB0tERETExhSwRERERGxMg9xFROyVyRWKVjC6ChHHZTIu5qgHS0RERMTGFLBEREREbEyPCEUKkPDwcPbu3XvLbV26dOG9994DYO/evSxZsoSffvqJS5cuUaxYMUJDQ4mIiKBGjRrWYyIjI1m7du0tz/f8888zY8aM29YSFxdnXb6nePHiPP/88/Tt2xcPD48HuEMREceggCVSwDRv3pyhQ4fmar+5rmBsbCxTpkyhQ4cOREdH4+/vz9mzZ1mxYgWvvfYa8+fPp0GDBtbjgoODiY6OznW+Oy1788MPP9C7d2/eeecdmjVrxsmTJxkxYgTJycmMHz/eBncpImLfFLBEChgPDw/8/Pxuue3AgQNMnjyZwYMHWxeThhszswcHB5OWlsaHH37IqlWrrNvc3Nxue77b+eyzz6hfvz49e/YEoFKlSrz77rsMGzaMqKgo3N3d83BnIiKOQwFLxIksWbKEcuXK0bFjx1tuHzZsGC4uLg98nS5duuRaLNpsNpORkUFKSkqe1j8UEXEkClgiTmTv3r08/fTTt1142VbBp3r16jm+Z2RksGDBAmrWrKlwJSJOQQFLpIDZuHEjW7duzdFWp04d5s+fz8WLF3MFnHnz5vHRRx/laNu0aRNly5YFboynCg4OzrG9bNmybNq06Z7qyczMZNCgQfzxxx8sXbr0fm9HRMQhKWCJFDBhYWEMGDAgR9vNN/eKFy9OcnJyjm3t2rXjueeeA+Dnn39m4MCBZGdnW7fXrFmTDz/8MMcxrq43fnUkJibywgsv5Ni2f/9+6+eUlBT69evH3r17mTlzJrVq1XrAuxMRcQwKWCIFTJEiRQgICLjltjp16uSaxsHHxwcfHx8Azp49m+sYDw+P257P39+fdevW3XLb+fPn6datG6dPnyY2NpbQ0ND7uQ0REYemiUZFnEinTp04ceIEK1asuOX2M2fO3Nf5XF1dx604tgAAIABJREFUCQgIyPEH4MqVK7z55ptcunSJpUuXKlyJiNNRD5aIEwkJCSEyMpLRo0fzyy+/0LJlS8qUKcOZM2fYsGEDq1atonr16hQrVuyBrjN+/HhOnTrF/Pnz8fX15cKFC9Ztvr6+NnlTUUTEnilgiTiZN998k+DgYJYsWcLAgQO5cOECXl5e1KxZkwkTJtCiRQvrGKu8yMrKYvPmzWRkZPDmm2/m2r59+3bKly//ILcgImL3TBaLxWJ0ESIi9+LatWvExcUZXYZNhYWFUaRIkVtus6QmYzk4J58rEik4TEE9MHk8WI98XmkMloiIiIiNKWCJiIiI2JjGYImI2KvsDLh01OgqRBxXdoZhl1YPloiIiIiNKWCJiIiI2JgClogQHh5OYGDgLf9MnDiRyMhIwsPDcx23efNmqlevzvDhw8nOziY6OprAwMBbvun33XffERgYSEJCQn7ckoiIoTQGS0QAaN68OUOHDs3VXrhwYcaOHZurffPmzQwcOJD27dszbNgwTCaTdduIESOoU6eOdQkeERFnox4sEQFurDno5+eX64+Xl1eufbds2cLAgQMJDw9n+PDhOcKVj48P6enptwxlIiLOQgFLRO7L1q1b6d+/P127diUyMjLXdi8vL4YMGcKGDRvYvn27ARWKiBhPAUtE7tmXX375/9i787Aqq/3//09ABgEFwS2iEk6FA6KYA6g5bCtDy0zNcgA9pmZqljmmpSGaVloazubRHPpoambOpvi1sFLRyiknLMN5BGIW2L8/+LlPO9AckA34elzXvi72Wute9/ve1zme91lr3Wvx1ltvUa9ePd56661btuvQoQNGo5Fx48YRHx9fgBGKiBQOSrBEBIB169YRGBho8enTp4+5/sSJE7z11ls0btyYmJgYtm3bdtv+xo8fz40bN4iIiHjQoYuIFDpa5C4iQM6ZeMOGDbMoc3JyMv99/fp1hg8fTp8+fejbty9jxozB39+f8uXL59mfwWBgzJgxDB8+nJCQEEqVKvVA4xcRKUw0giUiALi4uODr62vx8fLyMtfXr1/fPKL1/vvvAzBs2DCysrJu2Wf79u158sknNVUoIg8dJVgickdKlPjfgLfBYCAiIoK9e/cya9as214XHh5OZmYmU6ZMedAhiogUGkqwROSePP3007zwwgvMnj2bvXv33rJd2bJleffdd/nzzz8LMDoREetSgiUi9+ydd96hfPnyDBs27LZTgM8++yxPP/10AUYmImJdNiaTyWTtIERE7kRycnKex/AUZUajERcXlzzrTCmXMX0/uoAjEik+bJ54Hxtng1XurbcIReSh5uHhQbVq1XBxcSExMZHY2FgSEhIs2pQuXZoGDRoUu+RORB4cTRGKyEPL09OT4OBgnJ2dSUpKwmAw0KxZM3x9fS3a2dra4uzsbKUoRaQo0giWiDy0/Pz8uHDhAvv27QNy3pSsW7cuderUAeD06dPWDA+TkycZLT61agwiRZmDgyM2/97sgdAIlog8tEqXLm3xdmNmZib79u3j7Nmzt91EVUTk3yjBEpGHVmZmpsX+Xjf98ssvXLt2jfr161OmTBkrRCYiRZ0SLBF5aF2/fp1HH30UR0dHi3KTycTevXtJSUmhUaNGGAzWeQtJRIouJVgihZDJZOKrr74iNDSUoKAg/P39eeqpp5g4cSKXL182t/Pz88PPz4+tW7fm2c8rr7yCn58fX3311b/eMy4ujnHjxmE0GqlTpw5Go5GIiAiL+wEkJiYyefJkjEYj/v7+BAUFMWjQII4cOWLR7mZseX127NhxD79K/vvtt99wcHCgdevW1KhRw6IuMzOTn376iYyMDPz8/KwUoYgUVVrkLlLIZGdnM2jQIGJiYujfvz9jx47FxcWFEydOMHv2bDp16sSaNWvw9PQEwN7eni1btuTayPP69evs3r37ju65b98+Xn31VRo2bMikSZOoWLEip0+fZurUqXTt2pUvvviCcuXKAfDaa6+RmZnJ+++/j4+PD1evXmX+/Pl0796dVatWUa1aNXO/o0ePpm3btrnu5+bmdq8/T75KSUlh586d+Pj4kJqamqs+LS2N7777jho1amg9lojcFSVYIoXMokWL2LlzJ19++SW1a9c2l1eoUIHGjRvTrl07FixYwIgRIwAIDg5mx44dpKenW0x1bd26lXr16t32GBuAjIwMhg4dSlBQEJGRkdjY5LxzU6lSJfz9/Xn66aeZMWMG48eP5/jx48TExLBmzRpq1aoFQMWKFfn444958skn+fLLL3n77bfNfZcqVarQT6/duHGDU6dO3bI+KyuLw4cPc/jw4QKMSkSKOiVYIoWIyWRi6dKltG/f3iK5usnJyYnFixdbJC0tW7Zk7969fP/99zz55JPm8o0bN9K2bdt/TbB27NjB+fPnmT17tjm5usnNzY358+eb72drm7OqYOfOndSsWdPc3t7enqVLlxb5vaIcHR3x8PDAzs7OorxEiRJ4eHiwf/9+K0UmIkWNEiyRQuTMmTOcPXuWJk2a3LJNxYoVLb6XLFmSli1bsmnTJnOCdeXKFfbv388nn3xCeHj4be956NAhnJ2dc61BuikgIMD8d/Xq1TEajUybNo0VK1bQpEkTGjRoQNOmTfHx8bnTxyyUvL29CQwMNCeR/5SUlFTAEYlIUaYES6QQuXLlCpBzfMvf9e/f32I9VYUKFdiwYYP5e0hICG+//TYZGRk4ODiwefNmGjVqlKufvCQkJFCqVKlco1e3MmPGDFasWMG6detYu3Ytq1evxsbGhpCQECIiInB1dTW3HTduHBERERbXv/rqq/Tv3/+O7lWQHn30URISEjh48CCVK1fG1taWkydPUq5cOWrUqMGhQ4esHaKIFCFKsEQKkZt7Lv3zLLzw8HDS0tIAWLJkSa4z8Vq0aIHJZOL777+ndevWbNy4kc6dO+fqPzAw0OL7hg0bKFOmDAkJCZhMpjtKsuzs7OjWrRvdunUjKSmJmJgYNm3axNq1azGZTEybNs3cdvDgwbkW3xeWBe7/5Orqyv79+0lMTOTq1atUq1aNpKQkkpKScHR05NFHHzUnwCIi/0YJlkgh4uPjg8FgYPfu3RZv33l5eZn/zitBcXJywmg0snnzZmrXrs3hw4eZO3durnZff/21xfdy5cpRv3595syZw5EjR/Jc9zV//nzOnDlDeHg4W7du5eTJkwwYMADISUpatmxJy5Yt8fDwYPny5RbXenp65jrXr7AymUxkZGQAkJycbDESd+nSpSI/BSoiBUv7YIkUInZ2doSFhfH1119z9OjRPNucP38+z/KQkBCioqJYt24dTZs2pVSpUrna+Pr6WnxKlChBcHAwlSpVYvbs2ZhMJov2V69eZdGiRWRlZQFw4cIFZs2alWcMpUuXNm8dURQlJSWZp1STkpKwtbWldOnSQM4i/lutzRIRyYv+xRApZPr06UOrVq3o1q0bc+bM4ejRo5w5c4aoqCh69+7N6tWrCQoKynXdE088gclkYs6cObRr1+6O7+fg4MDEiROJjo5m4MCB7N27l7i4OLZt20ZYWBguLi4MGTIEgI4dO/LII48QGhrKN998Q1xcHEePHmXZsmXMmzePgQMH5tvvUNBOnz6Nn58fNWrUIDMzkytXrlCvXj0qV65MzZo1c03biojcjqYIRQoZW1tbpk2bxqZNm1i9ejWLFy8mMTGRsmXL0qBBA5YuXUrDhg1zXefo6Ejr1q359ttvadWq1V3dMygoiOXLlzNv3jyGDh3K9evX8fLyolWrVvTv3988MuXq6soXX3zB7NmzmTlzJufPn8fOzo6aNWvy0UcfWWwTUdT8+eef2NramreaOHDgAI0bN8bf35+UlBQtcheRu2Jj+uecgIhIIZWcnJxrgf+D5uDgYF6b9SAYjUZcXFzyrMvOziYjI/2B3VukuHNwcLTa9L5GsERE/qZEiRLY29tblJUsWRIgz+N0RETyogRLRIScRfqBgYF5vhxw0/r16wswIiD1MmwZULD3FClO2swCF69/b/cAKMESESFnx3oHBweOHDnyQKcEReThoARLRIScg6n37dvHpUuXrB2KiBQD2qZBRARISUnJdciziMi9UoIlUkyNGjWK0NBQ899+fn55fgYPHgxAZGQkfn5+eb6lt3v3bvz8/Dhz5swd3z8tLY2pU6diNBoJDAykY8eObN++PX8e7gH47bffqFGjBp6entpUVETum6YIRR4SgYGBREZG5ip3dHS0+D527Fgef/zx+z4zcMKECURHRxMeHk7lypXZsGEDgwYNYtGiRTRu3Pi++n4QkpOTAQgODs6z3mQyWRywLSJyO0qwRB4S9vb2GAyG27Zxc3MjIyODCRMm8NFHH93zvVJTU/n66695//33adGiBQADBgxg9+7drF69ulAmWPXq1cPBwYHTp0+Tnq69p0Tk/mgcXETMXF1dGT16NN98881tp/OysrL45JNPaNq0KXXr1uW1117j8uXLNG7cmCVLlmBjY8OcOXNo3ry5xXW2trYkJiY+6Me4J25ubhw4cICDBw9y/PjxPD8iIndKCZaIWOjQoQNGo5Fx48YRHx+fZ5sFCxawYMECBg0axNdff42/vz8vvfQS8fHxNG3aFCcnJ5o1a4a7u7v5mgMHDvDTTz/xxBNPFNSj3JW0tDTzodYiIvdLCZbIQyImJobAwECLz60OhR4/fjw3btwgIiIiz/rPP/+ctm3b0rVrV6pUqcLAgQPx9vamTJkyVK1aNVf7U6dOMXDgQAICAujSpUu+Pld+OXnyJDVq1LjlsTUiIndDa7BEHhL+/v5MmTLFoqxEibz/CTAYDIwZM4bhw4cTEhJisbv5X3/9xZUrV6hTp47FNXXq1DEflPx3+/fvZ8CAAZQvX545c+bkOoamsPD29sbZ2ZlWrVpx48YNbty4katNQZ+DKCJFlxIskYeEk5MTvr6+d9y+ffv2bNmyhXHjxjF27FhzuY2NTZ7tMzMzc+0jtXXrVoYNG0bdunWZNWvWbY+hsba0tDTOnz9v7TBEpJhQgiUitxQeHk67du0sRr5cXV0pV64cBw8etGi7b98+rly5Yv4eFRXFkCFDaN26NVOmTMHBwaHA4r4Xv/76q7VDEJFiRGuwROSWypYty7vvvsuff/5pUf7KK6+wceNGVq5cyalTp5g8eTIpKSlcunSJc+fOkZCQwMiRI6lduzZjxowhISGBy5cvc/ny5VsunC8M7OzszPuC2djYULVqVWrXro2Hh4eVIxORokYjWCJyW88++yxbtmxh69at5rKwsDDi4+P55JNPSE5OpmHDhixevJgXXniB6OhoSpYsSWJiIr/++muurRoaNWrEkiVLCvox/pW7uzuNGzfm9OnTHD16FH9/f3x9fblx4waVK1cmJiaGixcvWjtMESkibEwmk8naQYiI3Ink5OQHttA8KCgIOzs79u/fT0ZGBk8//TRxcXEcOnSIgIAASpcuTXR0dL7f12g03vLNxezki2RsGZDv9xR5WDi0mYWti5dV7q0pQhERckawTpw4QWpqKgaDATs7O/PZi2fPni3UC/RFpPDRFKGIyP/v5kajBoOBGzdumNeLlShRwjqbkJY0QNulBX9fkeLCwfHf2zwgSrBERID4+HgeeeQRsrKyqFChgnm9lYODA9WrVychIcHKEYpIUaIpQhER4LfffsNgMNCsWTNMJhMnTpwAoGXLlri6unL06FErRygiRYlGsEREgISEBLZv306pUqX466+/zFOCBw8e5Nq1a6Snp1s5QhEpSjSCJfIQGzVqFKGhoea//fz88vwMHjwYgMjISPz8/PJ8k2/37t34+fmZF4YXRVlZWcTHx1ustzp//jzp6ek6o1BE7opGsETELDAwkMjIyFzlNzffvGns2LE8/vjjuLm5FVRoD5y9vT01atTA09MTW9v//X9PGxsb7OzscHBwYP369VaMUESKEo1giYiZvb09BoMh16d06dLmNm5ubmRkZDBhwgQrRpr/ateuzSOPPEJycjImk4nMzEzi4+OxsbHB3t5eR+mIyF1RgiUid8XV1ZXRo0fzzTffsH379jzb/PTTT/j5+fHHH39YlPfp04dhw4YVQJR3r1y5chw7doy9e/dy+vRpUlNT2b9/Pzt27OCvv/7SPlgicleUYInIXevQoQNGo5Fx48blebZg48aNqVixosWU2uXLl/nhhx/o2LFjQYZ6x+zt7bl+/ToASUlJuLu7AznrsmJjY/Hyss5u0CJSNCnBEhGzmJgYAgMDLT7t2rXLs+348eO5ceMGERERuepsbGx47rnnWLdunblsw4YNGAwGgoKCHlj89yM9PZ0SJXKWpSYlJeHo6Ii9vT0AaWlpODk5WTM8ESlitMhdRMz8/f2ZMmWKRdnNpOOfDAYDY8aMYfjw4YSEhOSaQuvQoQNz5szh4MGD1KlTh7Vr1/L8889bLCAvTK5cucKjjz5KYmIiKSkpZGRk4OPjw6lTp/Dy8iIjI8PaIYpIEVI4/6UTEatwcnLC19fX4lOxYsVbtm/fvj1PPvlknlOFVapUoV69eqxbt44TJ05w5MgROnTo8KAf4Z4dO3YMR0dHAgMDATh58iS1atWiTZs2VK1albi4OCtHKCJFiUawROS+hIeH065du1wjX5AzijVz5kzs7OyoW7cuVatWtUKEdyY1NZUdO3bg6uoKwKlTp0hPT6dMmTLEx8cX6f29RKTgaQRLRO5L2bJleffdd/nzzz9z1bVt25aEhASWLFlSqEevbsrOziYxMdH8/ezZsxw6dEjJlYjcNY1gich9e/bZZ9myZQtbt261KHdzc6NVq1ZERUXdcrG8NdWtW/eu2msvLBG5UzYmk8lk7SBEpPiKjIxkzZo1eR6vc7eSk5PzpZ+bWrdufcdtTSZTvt77JqPReMtjeLKzs8nI0BmIIvfKwcHRai/WaARLRB5aNzdKdXd3p2TJkqSkpJCQkGDlqESkOFCCJSIPrRIlStC4cWPKlCljLrt27Rr79+8nLS3NipGJSFGnKUIRKTLye4rQ39+fRx55hBMnThAfH4+rqyuPPvoo8fHx7NmzJ9/uczuaIhR5cDRFKCJiBV5eXvz222/8/vvvQM5xPmlpadSvXx87OzuysrKsHKGIFFXapkFEHlqOjo651lxdvXoVGxsbSpYsaaWoRKQ4UIIl8oCMGjWK0NBQAEJDQxk1atQdXXf9+nWaNWvG7t27LcpDQ0Px8/Oz+Pj7+9OyZUvGjx9PamrqXce4fv16+vTpA+RMVf2z/4CAAJ566immTZtGdnb2XfUdFRVFp06dCAwMxGg08sEHHxS6dU22tra5nuvmkTiF9UgfESkaNEUoUohcvHiR1157jcuXL+dZHxISwpgxY8zfU1JSiI6OZtKkSWRnZ/Pee+/d1f127txJixYtzN979+5N7969zd8TExPZtGkTkZGRuLi40Ldv3zvqNyYmhkGDBjF48GCeeeYZTp8+zdixY4mPj2fSpEl3FaO12NjYWDsEESnC9H/RRAqJVatW0b59+9u2cXJywmAwmD++vr50796d5557jo0bN97V/bKzs4mOjqZ58+bmMmdnZ4v+q1WrxqBBg2jcuPFd9b98+XIaN25M//79qVy5Mi1atGDIkCGsW7eu0B2afKv3fPT+j4jcD41giRQS3377LUOGDKFp06Y8+eSTd3Wto6MjJUr877/O586d46OPPuKnn34iMTERT09PnnvuOYYOHWqe+jp48CClS5fG19f3jvr/+xTk8ePHmTp1Kvv37yc1NRUvLy+6d+9uHv3q3bt3rik2W1tbbty4QVJSEh4eHnf1fA9SQEAAmZmZucrr1q1rUW4ymfjpp58KMjQRKcKUYIkUEnPnzgW4q3PvMjMziY6OZu3atbz88svm8tdeew2DwcDChQtxcXFh+/btTJo0icDAQHPytnPnTp544onb9p+RkcHGjRvZtWsXo0ePBnIORe7duzdNmzZl+fLl2NnZsXLlSj744AOCg4OpWbMmtWrVsujnxo0bLFq0CH9//0KVXF29evWOyzVlKCJ3QwmWSBGybt06tmzZYv6elpZGhQoVeOWVV+jfv7+57PnnnyckJARvb28AevXqxfz58zl27Jg5wfruu+944403LPqfO3cu//3vf83fU1NTqVKlCmPGjKFbt27msrCwMLp3727ev2nw4MF89tlnHDt2jJo1a1r0mZmZyYgRIzhx4gTLli3L51/k/vz444/WDkFEiiklWCJFiNFoZNiwYZhMJg4cOMDEiRNp0qQJ/fv3N08ROjk50aNHDzZv3syBAwc4ffo0x44d48qVK+Y35q5du0ZsbCyNGjWy6P/ll18mNDSUrKwsfvzxR6ZOncozzzxD9+7dzW08PDzo1q0b69ev58iRI/z5558cPXoUINcbeUlJSbz55pvs2bOHGTNmEBAQ8CB/HhGRQkMJlkgR4uLiYl4zVblyZcqVK8d//vMf7OzszG8QpqSk0KNHD9LS0njmmWd44YUXCAgIsEiSvvvuOxo1aoSjo6NF/25ubub+q1atiouLCyNHjsTZ2dn8BuHly5d56aWX8PDwwGg00qxZM+rUqWPxNiLApUuX6Nu3L2fPnmXBggU0bNjwQf0sIiKFjhIskSIsKCiI//znPyxYsACj0Ujz5s2Jjo7m8OHD7Nq1i7JlywIQHx/P1atXzW/G7dy50+LtwVvp0KEDO3bsYPr06TRv3hw/Pz/Wr19PfHw8W7Zswd7eHoBjx44B/3vzLiEhgZ49e5KUlMSyZcvw8/N7EI8vIlJoaZsGkQJy8eJFvvvuu1yf+/XGG29QuXJl3nvvPZKTkylfvjwA33zzDWfPniUmJoYBAwZw48YNMjIyyMrKYteuXXeUYAGMHTsWFxcX3nnnHbKzsylfvjypqals3ryZc+fOER0dzVtvvQX8b5POSZMmERcXx0cffYSHhweXL182f3T8jIg8DDSCJVJAfvjhB3744Ydc5TdHf+6Vo6MjERERhIWF8cknn/DOO+/w9ttvs2jRIqZNm4aXlxdt27bF29ubgwcP8ssvv+Dh4YGPj88d9e/p6cnbb7/NyJEjWbx4MT179uTw4cNMnjyZpKQkKlasyIsvvsj27ds5ePAgXbp0YePGjdy4cYOePXvm6m/79u1UqlTpvp5ZRKSwszFpNz0RKSKSk5OJioqydhj5ymg0mt/G/Kfs7GwyMtILOCKR4sPBwdFqx15pilBEREQknynBEhEREclnSrBERERE8pkSLBEREZF8pgRLREREJJ8pwRIphoxGI35+fixcuDDP+rFjx+Ln50dkZKS5LC4ujnHjxmE0GqlTpw5Go5GIiAguX75sbrN79278/PwsPrVr1+aJJ55gzJgxJCQkmNsePnyYnj17EhgYSFBQEGPHjuWvv/56cA8tIlKIKMESKabs7e0tDoa+KTMzk61bt2JjY2Mu27dvHy+88AKXLl1i0qRJbNq0iYiICH7++We6du3KpUuXLPpYuXIl0dHRREdHs337diZMmEBUVBQjRowA4MqVK/znP/+hYsWKfPXVV8yaNYt9+/YxatSoB/vQIiKFhBIskWIqODiYX375hQsXLliU//TTTzg7O+Pt7Q3k7L4+dOhQgoKCmDVrFo0bN6ZSpUo0bdqUhQsX8tdffzFjxgyLPjw8PDAYDBgMBsqXL0+LFi3o2bMnO3fuJDExkbNnz9KsWTPGjx9PlSpVqF+/Pl26dGHXrl0F9vwiItakBEukmAoICKBChQps3rzZonzjxo2EhISYR7B27NjB+fPnGThwoMWoFuQc/jx//nxee+21f72fnZ0dNjY22NvbU7duXT7++GNKlMg5LCI2Npa1a9fStGnTfHo6EZHCTQmWSDEWEhJikWBlZGSwbds22rVrZy47dOgQzs7O1KhRI88+AgICzKNdecnMzCQmJobFixfTokULSpYsaVHfpk0b2rZtS3x8PGPGjLnPJxIRKRp0FqFIMRYSEsKCBQu4ePEiXl5e7Nq1Cw8PD2rVqmVuk5CQQKlSpXKNXt3Os88+a26flpaGnZ0dLVq0YPz48bnaTpkyhdTUVD766CPCwsJYu3btLY+GEREpLpRgiRRj/v7++Pj4sGXLFsLCwti4caPF6BVAmTJlSEhIwGQy3XGSNW/ePLy8vABwcHDA09MTBweHPNvWqVMHgBkzZtCiRQu+/fZbOnTocB9PJSJS+GmKUKSYuzlNmJ6ezvbt22nbtq1Fff369UlLS+PIkSN5Xj9//nzGjRtnUVahQgV8fX3x9fXF29s7V3J16tQp/t//+38WZV5eXri7u3Px4sX7fygRkUJOCZZIMRcSEsL+/ftZvXo1Pj4+VKtWzaI+ODiYSpUqMXv2bEwmk0Xd1atXWbRoEVlZWXd1zx9++IHBgweTmJhoLvvzzz+5fv16rvuLiBRHSrBEirmaNWvi6+vL1KlTc00PQs4U38SJE4mOjmbgwIHs3buXuLg4tm3bRlhYGC4uLgwZMuSu7vnss8/i7u7O8OHDOXHiBDExMQwePJiAgABatWqVX48mIlJoKcESeQiEhISQlJSUa3rwpqCgIJYvX46TkxNDhw6lbdu2TJ48mSZNmvB///d/eHp63tX93N3d+fzzzwHo2rUrAwcOpFatWixYsAA7O7v7fh4RkcLOxvTPOQERkUIqOTmZqKgoa4eRr4xG4y3fqszOziYjI72AIxIpPhwcHLG1tc5YkkawRERERPKZE</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAC7gAAAcICAYAAACsf4x4AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzde9yX88EH8M/VOaEkhzJDPZmcNucco5KXcyVP29jMnM3MjMzZo81hWQ7DYzY8TmFMYQ5D5awwU+hIsVQinZQOd/V7/vDqnkap3Kfu3u/Xq5fffV3f63t/frr6He778/teRalUKgUAAAAAAAAAAAAAAKpZneoOAAAAAAAAAAAAAAAAiYI7AAAAAAAAAAAAAAA1hII7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1goI7AAAAAAAAAAAAAAA1Qr3qDgAAAAAAVI2ZM2dm0qRJWbRoUVq2bJn1119/ped47rnnMnz48CTJaaedVtERAQAAAAAAWMMVpVKpVN0hAAAAAIDK8/zzz+eGG27I8OHD88UfB/7Xf/1Xjj766PTo0SN169Zdobl69+6du+++O0VRZOTIkZUVGQAAAAAAgDVUneoOAAAAAABUnquvvjonnnhihg0blsWLF6dUKpX/eeedd3LJJZeka9euGTt2bHVHBQAAAAAAAAV3AAAAAKit7rnnnvzxj38sL7T/pyXbxo4dmx49emTAgAFVHREAAAAAAACWouAOAAAAALXQzJkz87vf/S5FUSRJtttuu9x888157bXX8o9//CP33HNPjjzyyNSpUydFUWT+/Pk599xzc+utt1ZzcgAAAAAAANZk9ao7AAAAAABQ8R588MHMnTs3RVFkjz32yE033ZQGDRqU799hhx2yww475Ic//GF69eqVsWPHplQqpU+fPpk5c2Z++ctfVmN6AAAAAAAA1lRWcAcAAACAWuill15KktSrVy+XXXbZUuX2L2rXrl3+8pe/5IADDkiSlEql3Hzzzendu3eVZQUAAAAAAIAlFNwBAAAAoBYaM2ZMiqLI9773vWy88cbLHdu4ceNce+21Oe6448q39evXL+eee25KpVJlRwUAAAAAAIByCu4AAAAAUAvNmDEjSbL55puv8DFnn312fvWrX5WX2gcMGJAzzjgjCxcurIyIAAAAAAAA8CUK7gAAAABQi5WVla3U+BNOOCGXXHJJ+ddPPvlkTjvttCxYsKCCkwEAAAAAAMCXKbgDAAAAQC203nrrJUmmTJmy0sd+//vfzxVXXJE6dT7/8eGzzz6bE044IXPnzq3QjAAAAAAAAPCfFNwBAAAAoBZq3bp1SqVShg0blsWLF6/08Ycffnj69u2bunXrJkleeeWVHHvssZk1a1ZFRwUAAAAAAIByCu4AAAAAUAttu+22SZK5c+dm6NChqzTHAQcckOuvvz4NGjRIkgwbNix/+9vfKiwjAAAAAAAA/CcFdwAAAACohXbffffy2w888MAqz7PvvvvmpptuSqNGjZIkpVLpG2cDAAAAAACAZVFwBwAAAIBaaOedd866666bUqmUv//97/nggw9Wea7dd989t9xyS9Zee+0URVGBKQEAAAAAAGBpCu4AAAAAUAvVr18/PXr0yBZbbJFNN900AwYM+Ebz7bjjjrn99tvTrFmzCkoIAAAAAAAAX1aUXFMYAAAAAAAAAAAAAIAawAruAAAAAAAAAAAAAADUCAruAAAAAAAAAAAAAADUCAruAAAAAAAAAAAAAADUCAruAAAAAAAAAAAAAADUCPWqOwAAAADA9OnTM3PmzHz22WeZN29eGjVqlLXWWitNmzbNeuutV93xYIWsrudxqVTKO++8k5EjR2b69OmZM2dOFi9evELHnnbaaZWcDgAAAAAAgDVNUSqVStUdAgAAAFizjBo1Kk899VSGDBmSd999NzNnzlzm2KZNm6ZNmzZp3759OnfunHbt2lVhUli21f08Lisryy233JJ+/frl448/XqU5Ro4cWcGpAAAAAAAAWNMpuAMAAABV5rXXXsvvf//7vPHGG+XbVuRHE0VRlN/eYYcdcuaZZ2bnnXeulIzwdWrDeTxjxoz89Kc/zciRI1c4+3+OK4pCwR0AoIZ7++2389lnnyVJdtlll2pOAwAAALBiFNwBAACAKnHjjTfm+uuvT6lUWqFC7fIURZHTTz89p5xySgWlgxVTW87jn/zkJxkyZEiSpEWLFtl///3z1ltv5c0330xRFPnZz36WOXPmZOLEiXn99dczderUFEWRxo0b56ijjkrDhg2TJKeddlqVZwcAYMV17do1o0ePTlEUGTFiRHXHAQAAAFgh9ao7AAAAAFD73XzzzbnuuuvKV4GuU6dO2rdvn9122y1bb711WrVqlRYtWqRRo0Zp0KBBFixYkHnz5mXq1KmZNGlSRowYkVdeeSVDhgzJokWLUiqVct1116Vu3bo58cQTq/vusYaoLefxCy+8kCFDhqQoimy77ba57bbbsvbaa6d379558803kyxdXF+8eHGeeuqpXHHFFfnwww/zwgsv5I9//GM23HDDKssMAMCqs94ZAAAAsLqxgjsAAABQqcaNG5fDDjssCxcuTJIcdNBBOfvss9OyZcuVnuvDDz9Mnz598uijjyZJ6tevn4ceeiitW7eu0Mzwn2rTeXzuueemf//+KYoiDz30ULbccsskSe/evXP33XenKIqMHDnyS8dNmzYtRx99dMaPH5+ddtopd955Z4qiqJLMAACsmq5du2bUqFHLfI0HAAAAUBPVqe4AAAAAQO32wAMPZOHChSmKIscff3z69u27SqXgJNl4443z+9//Pscff3ySZOHChXnggQcqMi58pdp0Hr/xxhtJkv/6r/8qL7eviObNm6dPnz4plUr5xz/+kccff7yyIgIAAAAAALAGU3AHAAAAKtULL7yQJNlggw1yxhlnVMicZ5xxRjbYYIOl5ofKVJvO46lTp6Yoii+V27+4GvuCBQu+8thtttkm2267bZLkkUceqbyQAAAAAAAArLEU3AEAAIBKNWXKlBRFkZ133jn16tWrkDnr1auXXXbZJaVSKR9++GGFzAnLU5vO47lz5yZJ1l133aW2N27cuPz2rFmzlnl827ZtUyqVMmbMmMoJCAAAAAAAwBpNwR0AAACoVEtWgm7YsGGFzrtkvrKysgqdF75KbTqPmzRpkiSZP3/+Utu/WHifMGHCMo9f8v9i6tSplZAOAAAAAACANZ2COwAAAFCpNtxww5RKpbz99tsVOu+S+TbccMMKnRe+Sm06j1u1apUkmTZt2lLb27RpU377tddeW+bxo0aNSpLUr1+/EtIBAAAAAACwplNwBwAAACrV9773vSTJ2LFj8/jjj1fInI8//njGjBmToijK54fKVJvO4+985zsplUoZN27cUtu/973vpW7dukmSe++9N3PmzPnSsQ8//HDefffdFEWRLbbYokryAgAAAAAAsGZRcAcAAAAqVdeuXctvn3vuubn//vu/0XwPPPBAzjvvvK+cHypLbTqPd9111yTJhAkT8tFHH5Vvb968efbee++USqVMmjQpRx99dJ588sm89957GTVqVG644YZceOGF5eP333//KssMAAAAAADAmqMolUql6g4BAAAA1G6//OUv8/jjj6coiiTJ5ptvnm7dumW33XZLu3bt0qBBg2Ueu2DBgowaNSpDhw5N//79M378+JRKpRRFkQMPPDB9+/atqrvBGq62nMfTpk3L3nvvncWLF+eCCy7IUUcdVb7vnXfeSffu3VNWVrbM40ulUr797W+nf//+adKkSVVEBlhtDRgwIEnSunXrbL/99tWcBlgTde3aNaNGjUpRFBk5cmR1xwEAAABYIQruAAAAQKWbPXt2fvazn2Xo0KHl5eAliqJI8+bN06JFizRq1Cj169dPWVlZ5s2bl6lTp2batGn54o8vltxu3759rr/++qy99tpVel9Yc9Wm8/jOO+/MRx99lC222CLdu3dfat/zzz+fM888M59++ulXHrv55pvnpptuyuabb14FSQFWb1tttVWKoshRRx2VCy64YJnjxowZkwkTJiRJOnXqVFXxgBpkyQdiKtq1116byZMnK7gDAAAAqxUFdwAAAKBKLFy4MDfccEP+7//+L3Pnzv3S/v8sDCfJV/3YonHjxjn22GNz6qmnpl69epWSFZZlTTmPp02blvvvvz8vv/xyPvroo9SpUyff+ta30rFjx3Tt2nW5q9UD8G8rWnDv3bt3+vXrl6IoMmLEiCpMCNQUSx4vKsOSKwcpuAMAAACrCwV3AAAAoEpNmzYt/fv3z9NPP51hw4Zl8eLFX3tMnTp18t3vfjedO3dOt27d0rx58ypICsvmPAZgRaxMwf3uu+9WQIU12JLHi4r+1e2SOT2+AAAAAKuTmrc8FAAAAFCrNW/ePMcdd1yOO+64LFiwIOPGjcv48eMzY8aMfPbZZ5k/f34aNmyYtdZaK82aNcsWW2yR1q1bWzGaGsV5DABARWrVqlV1RwAAAACoMRTcAQAAgGrToEGDbLXVVtlqq62qOwqssjXxPH7//fdz00035fLLL6/uKAAAtcKgQYOqOwIAAABAjVGnugMAAAAAAKuHd999N2eddVYOOuigDBgwoLrjAAAAAAAAUAtZwR0AAAAAWK7Ro0fnf//3f/Pkk0+mVCqlVCqlKIrqjgUAAAAAAEAtpOAOAAAA1GjPPvtspk+fniTp2rVrNaeB1dcbb7yRV199NR999FHmz5+fFi1a5Lvf/W722muv1K1b9yuPGTt2bK699toMGjToS8X2jTbaqCrjAwAAsArmzJmTSZMmZfbs2Vm4cOEKH7fLLrtUYioAAIDlU3AHAAAAarQbb7wxw4cPT6LgTvUZMGBAWrRokT322CN16tSp7jgrZfjw4bnooosyevTor9y/ySab5Kqrrsr3vve98m2zZs3KFVdckYceeiiLFy9OqVQq37fxxhvnhBNOSI8ePSo9OwAAy/evf/0rU6ZMSaKMCvzb7Nmzc8cdd+TRRx/N+PHjl3pPtyKKosiIESMqKR0AAMDXU3AHAAAAarwvrhoN1eHXv/51iqLI+uuvn8MOOyxdu3bNlltuWd2xvtZrr72WE044IfPmzfvKf0elUikffPBBjjvuuNx2223Zfvvt8+abb+bnP/95pkyZslQJolWrVjnppJPSvXv31K9fv6rvCgAAX+H2229Pv379lFGBcm+//XZOOeWUfPzxx0my0uV2AACAmkDBHQAAAABW0NSpU3PbbbfltttuS7t27dK9e/ccfPDBWW+99ao72peUlZXlnHPOydy5c8uL7aVSKU2bNk3Dhg0zffr0lJWVJfn8kvW/+c1v0qdPn/z0pz/N7Nmzy+f51re+lZNOOindunVLvXp+nAiwKl5++eWce+65y9y/5Go1SZY77j8VRZHLLrvsG2UDVn/Kq8AS06dPz3HHHZcZM2aUb6tXr1423XTTNGvWzHs6AABgtVGU/MQDAAAAqESdOnX6Rsd//PHHWbBgQYqiSKtWrb60vyiKPP3009/oe8DX2WqrrVIUxVLloSWl8Xr16qVDhw7p2rVr9t133xpTGHjsscdy5plnluc85phj8uMf/7j839HChQszZMiQXHXVVRk1alSKosjmm2+e8ePHJ0nWWmutnH766TnqqKOs2A6wipY8f1SmkSNHVur8QM3Wu3fv3H333SmKwuMBkL59++bmm29OURRp0qRJfvnLX6Zr165p0qRJdUcDAABYKTXjt20AAABArTVx4sSlisErW/JaclypVMqkSZO+tK+yS2PwRZtttlnmzJmTqVOnlp9/ZWVlGThwYAYOHJhmzZrl0EMPTdeuXbP11ltXa9ZBgwaV3/7Vr36V448/fqn99erVy1577ZWddtopRxxxRMaNG5f33nsvSbLJJpvkz3/+c7bYYouqjAxQK1XmOkNeBwEAX/Tss88m+fw1wk033ZSdd965mhMBAACsGgV3AAAAoEosKbl/k5KXC9FR3fbee++cd955ef755zNgwIAMGjQo8+fPLz83p0+fnjvvvDN33nln2rZtm+7du+eQQw5JixYtqjzrkhU8mzdvnp/85CfLHNe4ceOcdNJJOeecc8pL+7/73e+U2wEqQLdu3ao7AgCwBvnggw9SFEV23HFH5XYAAGC1puAOAAAAVJlDDz00e+yxx0odc+ONN2bChAkpiiKXXXZZJSWDFVenTp106NAhHTp0yKeffprHHnssAwYMyD//+c8k//4gxtixY3PllVfmqquuyp577pnu3btnv/32S4MGDaok59SpU8uLDfXqLf/HgLvvvnuSzz+I0rZt2+y0005VERGg1rv88surOwIAsAZZvHhxkqR169bVnAQAAOCbUXAHAAAAKtUxxxyTO++8M4sXL87f/va31KlTJ+ecc06aN2++Qsffe++9mTBhQhKroFLzrLPOOunZs2d69uyZ999/P/37988jjzySiRMnlq+GvnDhwjz33HN57rnnsu666+aggw5Kt27dsv3221dqttmzZydJ1l9//a8d+8UV5hUhAAAAVk8tW7bM+PHjM2/evOqOAgAA8I3Uqe4AAAAAQO127rnn5t57703btm1TKpXy8MMP58ADD8yDDz5Y3dGgQm222WY544wzMnDgwNxxxx3p1q1b1lprrST/XtV95syZuffee9OzZ88ceOCBufnmmzNlypRKybNo0aIk+drV25PPV6VfYkUK8QAAANQ8e+65Z0qlUt56663qjgIAAPCNKLgDAAAAlW777bdP//79c/rpp6d+/fqZOXNmzj///PzoRz/K+PHjqzseVLhdd901l19+eV588cVceeWV2WOPPVIURZLPy+6lUinvvfderr766nTs2DHHHXdcNSf+tyU5AQCo+fbZZ5+cdtpp+dnPflbdUYAa4Ic//GEaNGiQ8ePH58UXX6zuOAAAAKtMwR0AAACoEvXq1cupp56a/v37Z4cddkipVMprr72Www8/PNdff33KysqqOyJUuEaNGuXwww/PrbfemsGDB+fMM89M69atk/x7VfdFixblpZdeqs6YANRQH374YYYPH55Ro0ZlxowZ1R0HqIE6dOiQ0047Laeddlp1RwFqgC222CLnnntuSqVSevXqlbFjx1Z3JAAAgFXy9dcnBgAAAKhAbdq0yT333JO77747ffv2zZw5c3LDDTfksccey//8z/9kl112qe6IUCk22mijnHjiiTnxxBMzfPjw9O/fP4899lhmzpxZqd93zpw5mTRpUqWMb9Wq1arGAmAZFi9enDvuuCN33HFHJk+eXL69KIpst912OfHEE9OpU6dqTAgA1GQ/+MEP0qhRo1x88cXp0aNHevbsmQMOOCDf+c53svbaa1d3PAAAgBVSlJYsFQUAAABQxT788MNccskleeaZZ1IURZKkW7du6dWrV5o1a5Yk6dmzZ4YNG5aiKDJy5MjqjMsabKuttkpRFDnqqKNywQUXVNi8ZWVlGTx4cAYMGJAbb7yxwuZN/p15RS35MeGKHlMURUaMGLFK2QDWJCeffHI+/fTTJMkVV1yRTTfddJljFyxYkJNOOilDhgzJsn59UxRFfvSjH+W8886rlLwAwOqrXbt2S31dKpVW6n3hEt7vAQAA1c0K7gAAAEC12XjjjXPTTTfl0UcfzW9/+9tMmzYt/fv3z+DBg/PrX/86hx9+eHVHhEpVv379dOnSJV26dKnU77Mia1x8sfRgTQyAivHOO++Uf5CvXbt2yy23J8mll16al19+Ocnnj8v/+Xi8ZNudd96ZNm3apGfPnpWWHag5JkyYkHfffTfjxo3LzJkzM2fOnMyfPz8NGzZMkyZN0rRp07Ru3Tpt2rT52scZoHZbUmhf8l/v8wAAgNWVgjsAAABQ7Q4++ODsueeeueyyy/Lwww9n+vTp+fWvf53+/ftn+vTp1R0PVlsrU2BQdgCoeK+88kr57e7duy937IgRI/LXv/61vIhWt27ddO/ePfvss08aNGiQUaNG5Y477sgnn3ySUqmUvn375vDDD0+jRo0q9T4A1WPcuHG599578/TTT2fy5MkrfFzLli3TuXPn9OzZM23atKnEhEBNteS9nfd4AADA6kzBHQAAAKgRmjVrlt/97nc57LDDcvHFF2fixIkZOnRodceCcqtbOWDgwIHVHQFgjffmm2+W395///2XO7Zfv37lzzV16tTJNddck86dO5fv32effXLEEUfkhz/8Yd5///3MmjUrTz/9dA455JDKCQ9Ui7lz5+Y3v/lNHnrooSxatCjJyr0OnTx5cu68887069cvXbt2zXnnnZe11lqrsuICNcyoUaOqOwIAAECFKEqr22/mAAAAgFpv7ty56du3b+6+++4sXrw4SVIURUaOHFnNyVhTLVmBd6ONNspmm21WzWkAWF307Nkzw4YNyyabbLLcDx6VSqW0b98+s2bNSpJ06dIl11577VeOfeGFF3L88cenKIp07do1l19+eaVkB6re1KlTc/zxx2f06NFfKrW3aNEiLVu2TIsWLdKoUaM0aNAgCxYsyLx58zJ16tRMnjw5U6dOXeqYoiiy1VZb5U9/+lNatGhRlXcFAAAA4BuxgjsAAABQ4zRu3Djnn39+unXrltGjR1d3HMiuu+5a3REAWA1NnDixvGC6PGPGjMnMmTOTfF5I7dmz5zLH7rXXXtlwww3z8ccfe50EtUyvXr2WWn15jz32SLdu3bLbbrtlww03/NrjP/roo7z66qt58MEH8+KLLyb5fDXnc845J7fcckul5QYAAACoaAruAAAAQI219dZbZ+utt67uGLBauvnmm9OpU6e0adOmuqMArLFmz56dJFlvvfWWO+6NN94ov92wYcPssssuyx2/zTbbZPDgwfnwww+/eUigRnj66afz0ksvpSiKrLvuuunTp0/22WeflZpjww03zMEHH5yDDz44L7zwQs4666zMmDEjL730UgYOHJhOnTpVUnoAAACAilWnugMAAAAAABWvb9++OeSQQ9KlS5dcfvnlGTp0aBYtWlTdsQDWKAsXLkyS1Kmz/F/HvPXWW0lSvtp7/fr1lzu+RYsWSf5doAdWfw8//HD57euuu26ly+3/aa+99so111xT/vVDDz30jeYDAAAAqEpWcAcAAACqzLx58/LII4/kpZdeyoQJEzJ79uyss846+da3vpXdd989hx56aBo3blzdMWG5VqfzuFQq5V//+lfuuOOO3HHHHVl33XWz1157pWPHjunQoUPWXnvt6o4IUKs1adIks2bNyrRp05Y7bvjw4eW3t9lmmxWev1QqrXI2oGYZOXJkiqLIdtttl912261C5mzfvn2++93vZtiwYRkxYkSFzAkAAABQFRTcAQAAgCrx3HPP5bzzzssnn3xSvq1UKqUoirz11lt54okncu211+ayyy5Lhw4dqjEpLNvqdB7fcMMNGTx4cJ555plMnTo1STJz5sw89thjeeyxx1K3bt3svPPO2W+//dKxY8dsuumm1ZoXoDbaaKONMnPmzOUWS2fMmJGxY8emKIokyXe/+92vnXfGjBlJ4oNKUIt89NFHSZK2bdtW6Lxt2rTJsGHD8vHHH1fovMDXGzNmTCZMmJAk6dSpU4XN+8W5iqLI008//ZX7von/nBcAAKCqKbgDAAAAle7555/PqaeemoULFyb5/BelS1YcXVIOTpJPPvkkp556av73f/83++yzT7Xlha+yup3HnTp1Ki83DB8+PAMHDszgwYMzZsyYJMnChQszdOjQDB06NFdccUXatGmTjh07Zr/99ssOO+xQbbkBapNtt902Y8aMyeTJk/Paa69l5ytZbSIAACAASURBVJ13/tKYv//971m8eHGSz59bVmTl5vHjxydJNt5444oNDFSbtdZaKwsWLMinn35aofPOnj27fH5g5dxwww3p0qXLKn/w5L777ku/fv1SFEWFXkVh4sSJ5e9Hl7wP/c9938RXzQsAAFDVipLrVwIAAACVaP78+enUqVOmTp1a/gvY9dZbL9ttt13WXXfdzJo1K8OHD8+MGTPK92+wwQYZOHBgGjRoUN3xIUntOo8nTZqUQYMGZfDgwXnllVdSVlaWJEsVGJo3b54OHTqkY8eO2XPPPdO4cePqiksNMWXKlPTv3z9vv/12Pvvss6yzzjrZdNNNs8suu2TvvfdWgIFlGDx4cE455ZQURZE2bdrk7rvvTtOmTcv3T5s2LT169MjkyZOTfL56+7333rvcOT/99NPsuuuuSZIDDzwwffv2rbw7AFSZ7t27Z8SIEWnatGmeffbZNGrU6BvPOXfu3Oy7776ZNWtW2rVrlwcffLACksKaY6uttkpRFPn2t7+dzp07p0uXLit0pZUlfvKTn2TIkCGpV69e3nrrrQrNtURRFBk5cuRX7vsm/nNeAACAqmYFdwAAAKBSPfroo+Wl4Pr16+ecc87J97///dStW7d8zMKFC3PfffflyiuvzIIFCzJ16tT87W9/S/fu3asxOfxbbTqPW7VqlaOPPjpHH310Zs+enRdeeCGDBg3Ks88+m5kzZyb5fBX6/v37p3///mnQoEF222238tXdN9poo2q+B1S1v/71r+ndu3fmz5//pX1//vOfs+mmm+bSSy9N+/btqyEd1GwdOnTIFltskffeey/vvvtuDj744BxxxBFp1apVPvjgg/Tv3z+ffPJJ+UqpP/7xj792zoEDB5aP33777avgXgBVYb/99suIESMya9asXHzxxbnyyiu/8ZyXXHJJZs6cmaIo0rFjxwpICWueUqmU999/P7feemtuvfXWbLDBBunUqVP233//7Lbbbku9J1xi6tSp+f3vf58hQ4akKIpVXgF+WQYOHLhK+wAAAFYnVnAHAAAAKtUZZ5yRJ554IkVR5NJLL82RRx65zLF/+ctfctFFF6UoihxwwAG55pprqjApLNuacB4vXrw4r7/+evnq7uPHjy/f98XVudu1a5eOHTumY8eO2XrrrasjKt/Qp59+mrvuuivPPPNM3nvvvXz22Wdp1qxZWrZsmT333DPdu3fPpptumiQZNGhQTj311PIrEyxLvXr1cv3112ffffetonsBq49//vOfOeaYY1JWVlZeTF9iydelUik777xz7rrrrq+d75hjjsnQoUNTFEXuv//+bLvttpUZH6gikydPzkEHHZR58+YlSXbaaaecffbZK7Va9BLDhw9Pnz598tprr6VUKmWttdbKY489lo033riiY0OtNmrUqDzxxBN54okn8t5775VvX/Jcvu6662bffffNrrvumsmTJ2fMmDEZPXp0JkyYkFKpVP48/4c//CGdO3eupnsBAACwelJwBwAAACpVly5d8q9//SstW7bM4MGDlzu2VCqlY8eOmTx5cjbbbLP8/e9/r6KUsHxr4nn8/vvvZ9CgQRk0aFBef/31LFq0KMnSZfeNNtoo++67bzp27Jh99tmnuqKyEkaNGpWTTjopH330UZKUl9a/+PfaoEGDnH322fn+97+fLl26ZNKkSUmSHXbYIT169EjLli3z6aef5q233kr//v0zderUJEnTpk0zcODArL322lV8r6Dme/7559OrV69Mnz79K/dvvfXW+fOf/5zmzZsvd5633norPXr0SJJssMEGef755ys8K1B97r///lx44YVLPS9vvvnm2XXXXbPNNtukVatWadGiRRo2bJj69eunrKws8+fPz9SpUzNp0qSMGDEir7zySvkHFZc8z//mN78pf+wAVs3w4cPzm9/8JsOHD19q+xf/vSZZ6kOhjRs3Tq9evfKDH/ygSjICAADUJvWqOwAAAABQu02bNi1FUWSHHXb42rFLxk2ePDnTpk2rgnSwYtbE83izzTbLsccem2OPPTYzZ87Mc889l0GDBuX555/P7NmzkyQffvhh7rvvvvzlL3/JiBEjKi3LrFmzsmjRoqy33nqrdPzw4cMzbty4JEnXrl0rMtpqZe7cufn5z3+eKVOmlG9r0KBB1l133cyYMSMLFy5MksyfPz+//e1v889//jOTJk1KURTp1q1bfvvb3y5V4DnggANy0kkn5ZRTTsmrr76aWbNm5cEHH8yPf/zjKr9vUNPtvffeeeKJJ3L//ffnpZdeypQpU1KnTp1suumm6dy5cw477LDUq/f1v7IZPHhw+WrOHTp0qOzYQBU78sgjUxRFLrnkkvLn5ffee2+plaNXxJKCbb169XLJJZcot8M3UCqV8qc//Sm33HJLZs2a9aUrsXyx0F4URfn+TTfdNLfcckv5lZEAAABYOQruAAAAQKWaM2dOkqRZs2YrNH7JuCXHwcr4+OOPU1ZWliRp1apVhc27pp/HTZs2zaGHHppDDz00CxcuzKuvvppBgwZl8ODB+eCDDyrle44dOzY33XRTnnvuufJCfaNGjdK+ffscddRR2WuvvVZ4roceeih333136tSps0YX3B9++OFMmDAhRVFkyy23zKWXXprtt98+RVFkwYIFeemll3LNNddk1KhRKZVKeeyxx5IkzZs3zyWXXPKl1SmTZO21185VV12Vzp07Z+HChXnhhRcU3GEZmjZtmuOPPz7HH3/8Ks/x85//PD//+c8rMNWKefHFF/PMM89k4sSJWbx4cTbeeOPsscce2W+//VK/fv0Vnqd3797p169fiqKo1A9GweqsR48e2WmnnXLNNdfkqaeeyuLFi1d6jjp16mT//ffPL37xi7Ru3boSUsKa46yzzip/XbykzF6/fv20bds2W2+9dbbeeuuUlZXlsccey7Bhw5J8XnSfMGFCevTokauvvjp77LFHleX99NNPs84663zjeZ555pnsu+++3zwQAADAKlJwBwAAACpVqVRKURSpU6fOCo1fUqD84iposKJOOOGEjB49usKLc87jf6tXr15233337L777jn//PMzduzYDB48uEK/x3333ZfevXtn0aJFS/0/nDt3bp555pk888wz2XPPPXP55Zdngw02WOF5a+Pfx8oYNGhQks8LOTfccEO+9a1vle9r0KBB9t1337Rv3z4/+tGP8tZbb5Wf94cddlgaNGiwzHk32mij7Ljjjhk6dGhGjx5d6fcDqDoffPBBzjrrrPLC3hfdd999admyZc4666wcdNBBKzznmv5YDCtiiy22yLXXXptPPvkkgwYNypAhQzJu3LiMHz8+8+bN+9L4Ro0aZYsttkjr1q3Tvn37dOzYMeuvv341JIfa5amnnsqjjz5a/nWXLl3So0ePtG/f/kuvj4855phMnDgxDzzwQO67775MmzYtM2fOzCmnnJKbbropu+++e5VkPuyww9KnT5/svPPOq3T8ggULcvnll+fee+/NyJEjKzgdAADAilNwBwAAAKBWUZyrWm3btk3btm0rbL6nnnoqF1988TL3L/n7ffHFF3PYYYelb9++VVYWWd2NGjUqRVFkxx13XKrc/kWNGjXKRRddlCOPPLJ822677fa1c3/729/O0KFDM3PmzArLC1SvyZMn56ijjspHH330lc+tRVFk0qRJ+dWvfpXBgwfnkksuSZMmTaohKdRe66+/fo488silnpfnz5+fOXPmZMGCBWnQoEGaNGmShg0bVmNKqL0eeOCBJJ8/551//vk5+uijlzt+k002yS9+8Yv89Kc/zdlnn51nnnkm8+fPzx/+8Icqe88yefLkHHPMMTn++ONz+umnp27duit87KhRo3LWWWflnXfe+cqrNwEAAFQlBXcAAAAAoEaYO3duLrrooiSfl0hatmyZE044ITvuuGOKosiYMWPSv3//vPjii0mS6dOn58QTT8yVV165UqsHr6lmzJiRJMssty+x3XbbZbPNNsv777+f5PNVZL/OggULkiSLFi36hilh1cydOzdz5sxJ8+bNl3m1jTlz5mTAgAF5/fXXM2PGjDRr1iytW7dOly5dKvSDOl/l448/TllZWZKkSZMmadq06UrPMXPmzMyZMyfJ51ddaNGiRYVm/E/nnHNOpkyZUl5w23777Zd6PB4yZEj5lTb+9re/5Z133smf/vSnSs+1ups0aVKSZO211866665bzWlYHTVs2FChnQrx9ttv57PPPkuS7LLLLtWcpmZ6++23UxRFttpqq68tt3/ROuusk2uvvTYHHnhgJk2alLFjx1Ziyi9bvHhxbr755rz88su56qqr8u1vf/trj7ntttty9dVXl79eWdGrlwEAAFQWBXcAAACgSowbNy4DBgxYoXFLrMj4JOnatesq54KVUVvP4zlz5mTUqFGZPn165syZs8Kr4Fd05ocffjjTp09PURRp165d/u///m+p8t+WW26ZQw45JIMHD85FF12UqVOnpqysLGeffXZmz56d//7v/67QPLXVvHnzvnbMVlttVV5w32CDDb52/Pjx45NkjS9rnnvuuUmSPfbYI4ceemg1p6l6CxYsKP+ww9prr13p32/x4sW5/fbbc++99+Zf//pXks+vQrD//vvnV7/6VTbaaKPysS+//HLOOuusTJs27UvzXH/99Tn88MNz0UUXZa211qrwnOPGjcthhx2WRYsWpWHDhrnnnntWqeA+ceLE/OAHPyhftfnRRx/92g+srKpXX301r7zySoqiSKNGjdKnT5907tx5qTGTJ0/O5ZdfnieffDJJMnLkyBx11FG57bbb0qpVq0rJVRt07NgxRVHkqKOOygUXXLDMcVX97wlY85x//vkZPXp0iqLIiBEjKuV7TJ48OS1btlzl4/v06ZP7778/RVFk6NChFZhsxSz5gGi7du1W+tiGDRtmt912S//+/cs/SFAVfvjDH6Zfv34piiLDhw9P165dc/755+eII474yvEff/xxzjnnnLz88svl7wNbtWqV3/3ud1WWGQAA4KsouAMAAABV4uWXX87LL7+8QmOXrBS6pCj4dRTcqSq17Tx+5JFHctddd+XNN99c4VL7EkVRVHjm5557rnzuPn36LLMsvd9+++Wvf/1rTj/99LzxxhtZtGhRLr744syePTs//elPKzRTbdK8efNMnjw5r7/+ekqlUvk5+lXatm1b/kGNxo0bL3fe9957L8OHD09RFJW+CnZN179//xRFkSZNmiy34P7UU0/ltddeS1EU+fWvf12FCZfvtddey0477bTcc2N5rrzyyvJCVWUV5ZZYsGBBTj755PLH5CWPYXPnzs0jjzySIUOG5P77789GG22UN998MyeffHIWLFiwzMe6hx56KB988EFuvfXWNGjQoEKzXn311Vm4cGGKosh55523SiW5JNl6661z/vnn56KLLsqCBQty3XXXVVr57JFHHim/feGFF36p3J4kLVu2zHXXXZf+/fvnkksuyYIFC/L+++/nBz/4QW677ba0bt26UrKtKary3xOw5lrZ9wArq2PHjtlmm23SuXPn7L///mnTps1KHT9t2rTMmjVrlV+bfFNNmzbNtGnT8umnn67S8TNnzkxStR9Uuuiii7LPPvvkvPPOy7Rp0/LZZ5/lggsuyHPPPZfevXsv9R5r4MCBueCCCzJjxozyc+Gggw7K//zP/2SdddapsswAAABfxXWlAACocK+//nruvPPO/PGPf0y/fv3y/PPPZ/bs2dUdC4BqViqVVvjPyhwDVam2nMfz5s3LySefnF69emX48OFZvHjxcrNVVe6RI0emKIpsv/32X1t+2XDDDXPnnXfmoIMOKs/Yp0+f/OEPf6jwXLXFdtttl+TzlTT//Oc/L3fsaaedlkceeSSPPPLIcgtFixcvzoUXXlj+dceOHSsmbC03ZMiQ3H777bn99turO8pSjj766Oy111658MIL8+yzz6asrGyljl9SjqqKx7Urr7wyL730UpIvl/NKpVI++uij/OIXv0iSXHzxxZk/f35KpVI222yzfP/7389JJ52Ubt26ZcMNNyw/5h//+EduvPHGCs358ccfZ9CgQSmKIltuueU3vtLEf//3f+c73/lOSqVSHn/88fLiXEV74403kiQbb7xxunfvvtyx3bp1y1133ZX1118/RVFkypQpOfroozNy5MhKybYm8XqXlXHppZfmxz/+cY455pjqjgLlSqVS3n777Vx77bU55JBDcuCBB6Zv374ZPnz41x778ssv54knnkhRFFl//fWrIO2XtW3bNqVSKS+++OJXXgVmeT788MO8+OKLKYoim2yySSUl/Gr77rtvHn744ey5557l25588skcdthheeWVVzJv3rxcdNFFOe2008pfvzVp0iRXXHFF+vbtq9wOAADUCFZwBwCgwowaNSq9evXK2LFjv7Svbt26OfTQQ3PmmWdmgw02qIZ0AFSXVq1aVXcE+MZq23l8/vnn55lnnkmSNGzYMLvttls++OCDjBs3rnxl9jlz5mTixIkZPXp0+crDjRs3TpcuXSptBcXp06cnyQqv+lu/fv307ds3TZs2zT333JNSqZQbb7wxc+bMqVGrYtcUBx98cJ588skkSd++fTNy5MgceeSRadeuXZo1a7bS83322Wfp1atXXn311RRFkc033zxHHnlkRcemin3yySd54IEH8sADD6RJkybp0KFDOnfunA4dOmSttdZa5nEPPvhgeQmtZcuWlZrx/fffzz333JOiKFIqldK9e/ccccQRad68ed55551cf/31GT16dIYNG5a77rorI0aMSJ06ddKrV68cc8wxSz2GlZWV5Zprrsktt9ySUqmUW2+9Nccee2yaNm1aIVmfeOKJLFq0KEVR5OSTT66QOU866aSceeaZWbhwYZ544on07NmzQub9ov9n787joqreB45/LioCgiCaG0q4pSmiqClaarmkpqkt5paimWZm6lczl1xww8zKcK1MU1MrzcBMRNw1VzBxQwRcURAQZN9hfn/wmxvELjNsPe/Xq1fjzLmHZ2bu3Htm7nOeExoaiqIo2NvbF6p969at+fnnn3nvvfd48OABkZGRODo68v3339O2bVudxyeEyOn69etcvny51CpdC5Gb0aNH4+npyaNHjwC4c+cOGzduZOPGjdSpU4devXrRq1cvXnjhBR49eoS/vz/+/v54e3tz+vRpdZLPoEGDSiX+fv36ce7cORITE5k4cSKrVq0qVLJ6REQEH330EcnJySiKQteuXUsg2uxq1arFpk2b2LJlC19//TUpKSk8evSIMWPG8MwzzxAWFqa+vm3btmXlypU0bNiwxOMUQgghhBBCiLxIgrsQQgghhMjXxYsXOX78OPfu3SM+Ph4LCwvq1avHiy++SMeOHalUqRIAt27d4t133yU+Pj7X6mJpaWm4ublx+vRptm3bho2NTQk/EyGEEKXl6NGjpR2CEMVWkfbjy5cvs3//fhRFwdrams2bN2NlZcWSJUu4ffs2AMuXL1fbx8XFsWvXLtatW0dCQgIRERGsWrUKU1NTnceWlpYGUOTErIULF2JqasrGjRsB2Lp1KwkJCSxevFjnMZZnffr0oVOnTpw/fx5FUThw4AAHDhzQSd8ajYa7d+/Srl27PNsoioKvr69O/p7Qjzlz5nDw4EEuXbqERqMhLi4Od3d33N3dMTQ0pHPnzvTu3ZuOHTsSEhKSLQntzp07aDQaFEVh2LBheo3T1dWVjIwMFEVh7NixzJo1S32sUaNGdO7cmTfeeIMHDx7w1VdfoSgK48aNY8yYMTn6qlKlCjNnziQsLIx9+/aRmpqKu7s7w4cP10msly5dUv9O9+7dddLnyy+/TJUqVUhLS8Pb21svCe7x8fEARarg2rBhQ3bs2MF7771HYGAgMTExjB07lg0bNuDg4KDzGIUQQpR9c+fOZe7cufj4+ODh4cHBgwcJCQkBMiuc79ixgx07dmBgYEBGRka2bbW/Mbdr144pU6aUeOwAb731Flu2bOHu3btcvXqVvn370r9/f/r27YudnR2WlpZq26SkJPz9/Tly5Ag///wzsbGxABgZGelsXPE0xowZg4ODA5988gmBgYFkZGQQGhoKQOXKlZk4cSKTJk3CwMCg1GIUQgghhBBCiNxIgrsQQgghhMhVXFwcM2bM4OTJk7k+vmnTJpo0aYKzszN2dnZ89tlnxMXFAZkXwHv06EHdunWJi4vj2rVrXL58WV0mfsqUKbi5ucmP5kIIIYQQpcDV1VW97ezsXGAFQlNTU9577z169OjB6NGj+euvv5g7dy6rV6/WeWzm5uZEREQQFhZW5G1nzJiBiYkJLi4uKIrC7t27SUxMZMWKFTqPszxbu3Ytn3zyCSdOnNBJf4qiZJuQkNtkV1F+ODo64ujoSGhoKJ6enri6uqqTEpKTkzlx4kSu+07W971fv36MHz9er3FevHgRyFyBYvLkyTkeNzU1Zdy4cTg5OZGYmIiRkVGBMU2ZMoV9+/YB4OXlpbNEtBs3bqAoCra2tvlWwC8KExMTWrduzd9//82NGzd00mdufyM2NlZdWaOwateuzfbt23nvvffw9fUlMTGRDz74ABcXF15++WW9xCpEReHl5VWs7bW/ywF4e3vnek5+4YUXivU3ROno2bOnXvp9mjH306pZsyaJiYmkpqbmmMyq0WhIT0/PsY21tTWTJk3i9ddfV4uslLTKlSuzZs0aRo4cSUxMDKmpqezdu5e9e/cCmcnrJiYmJCUlkZiYqH7utP9XFIUFCxZQt27dUolfy9LSkpo1axIYGKi+/hqNBisrK/r37y+/0wshhBBCCCHKJElwF0IIIYQQufr44485e/Zsvm0CAwMZM2YMM2bMwMfHR71o/91332WrXgOZlUKnTp3Ko0ePCAgI4ODBg/Tr10+fT0EIIYQQQuRCmxhqbW1N+/btC72djY0NK1asYOzYsRw6dIjjx4/rPFmxUaNGPH78mCtXrjzV9h9++CHGxsZ8/vnnKIrCn3/+SWJiYo6x6X+ZmZkZ3333HefOneOPP/7gypUrhIaGEh8fn6NqZmFIQnvF9PDhQ06ePElAQEChJzBYW1uzZMkSOnXqpPf47ty5g6IotGnThmrVquXapkuXLkBmYlnr1q2pXr16vn02bNiQZs2aERAQgJ+fn85ijYyMBKBOnTo66zNrf48fP9Zpv1r16tUjJiaGgICAIm9rYWHBtm3bGD9+PJcuXSI5OZnJkyfzxRdf6CFSISqOUaNGFXkVm9xoNBpGjRqV435ZSaX8evjwIYqiZEuaLk8OHTrEp59+SlJSEpB9PFG1alWee+45UlNT1fOv9vkFBQVx6tQpevbsWaQVRXStadOmbN26lenTp3P79u1s8ScmJpKYmJjrds888wwLFy6kV69eJRVqrg4fPsy8efOIjo7OsR/dv3+fN998k9mzZ+tlRRghhBBCCCGEKA5JcBdCCCGEEDkcO3aMs2fPoigKxsbGTJw4kQ4dOlCjRg1CQ0M5ceIEv/76K4mJiSQkJLB06VIADA0NWbNmTa4JRG3atOGbb75Rl6o/fPiwJLgLIYQQQpSCsLAwFEXh+eefz3Z/1kSZlJQUDA0Nc2zbuXNnmjVrRmBgIH/88YfOE9xbtmyJl5cXMTEx+Pj40LZt2yL3MWbMGIyNjXFycgLgyJEjpVbxsSxzcHDAwcGhtMMQZdD27dtxdnbOtQKptbU1LVu2JDU1lVOnTpGSkqI+FhQUxDfffMM333yj82Tuf4uJiQGgQYMGebbJWik1v3ZZNW3alICAACIiIooXYBbx8fEABSbYF5U20S9rxWZdeu6557h58yZ3794lLCyM2rVrF2l7U1NTNm/ezMSJEzl//jxpaWnMnDmThg0b6iVeISqSrMmzukpklglpFYM2Obk8vZ/37t3jk08+ITk5GchcIaR79+5069aNVq1a0aRJE3Wsfvv2bdzd3XF1dVWT+t3d3bl79y6bNm3CwsKi1J5HixYtcHNzY//+/ezdu5crV66QkJCQo52xsTG2tra89tprDBw4MM+JeCUhKSkJZ2dndu/eDWQeB0xNTVm4cCGWlpbMmjWLx48fk5iYiJOTEydPnmTp0qXUqFGj1GIWQgghhBBCiKwkwV0IIYQQQuTw559/qre/++67bMsXN2rUCAcHB9555x1Gjx7N48eP0Wg0KIpCnz598l1utW3btrRs2RJfX1+uXbum1+cghBCi/Lt//z6hoaEA2c5FomLw8vLSS7+5JRmUprK4H2uTLf+dIFK1alX1dlxcXJ5Vz1u2bElAQADXr1/XeWydO3dm69atAPz+++9PleAOMHToUIyMjJg7dy4ZGRmkpaXpMkwhKqzr16/j7OysVvOvV68e/fv3p1u3brRs2RJTU1O1bVxcHIcOHWLPnj14e3ujKAqXLl1ixIgRbN26tdBJ5U9DG1+VKlXybJN1kk5hk8u0Seja46QuVKtWjZiYGKKjo3XWJ/yT5K+vxLmOHTuyb98+APbt28e4ceOK3IexsTEbN25k8uTJnDx5kvT0dO7du6frUIWocLJWWH7aRObylAAtCmZkZKQmiM+YMYNatWrppN/Vq1cTEhKik77ysmXLFpKTk1EUBQcHB1asWJHnpKnGjRszefJkJk2axJ9//smyZcuIjo7G19cXZ2fnUl8JxNDQkDfeeIM33ngDjUZDcHAwMTExJCQkYGxsTPXq1bGysioTFfZ9fX2ZMWMGd+/eVY8H9vb2rFy5Uh2j7du3j88++4yjR48CcPToUQYOHMjnn3/Oiy++WGqxCyGEEEIIIYSWJLgLIYQQQogcrl27hqIo2Nra5pmI1ahRI+bNm8fUqVPVH+27detWYN/NmzfH19dXb8uoCyGEqDi2bt3Kzp07URQFX1/f0g5H6NioUaPKxIV/fSuL+7GRkRHx8fE5kr6zVhcODg7OM8FdmyARFham89g6zEqFEwAAIABJREFUdeqEsbExSUlJ7Nu3j2nTpuUZR0EGDRqEsbExM2bMIC0tTRK9hCiEn376iYyMDBRFYcCAASxevBhjY+Nc25qamqpJXhcvXmT27NkEBQURHBzM8uXLWbdund7i1CaN67p6ufa4qMtVHywtLYmJidF5AqG2P31VWe3SpYt6e9euXbz33ntPdd42NDRk/fr1TJ8+HU9PT12GKESFY2BgoI5XXn/9debMmVOkcdDQoUO5fPkyiqJw48YNfYUpSkGLFi3w8fFBURQaN25Mz549ddLv1q1b9Z7gfvbsWSDzfLh69Wp1BZL8GBgYMHDgQJo3b86QIUNISUnh3Llzeo2zqBRFwcrKCisrq9IOJYcffvgBFxcX9TtQpUqVmDhxIh999BEGBgZquxo1arB+/Xp++eUXVqxYQVJSEuHh4YwfP55Ro0YxY8aMXFf1EkIIIYQQQoiSIgnuQgghhBAih/DwcCAziT0/vXv3pmbNmkRERKAoCs8991yBfWsTBbRVh4QQQoj8SEKqqAjK2n5cr149AgMDiYqKyna/jY2NetvHxwdbW9tctw8MDNRbbMbGxvTs2RNPT0/S09PZtGkTM2fOfOr+Xn31VdatW8eUKVNISkrSYaRCVEza1TXq1avHsmXLCp3U1L59e7Zu3crAgQOJi4vDx8dHn2FSt25doqOjefDgQYFti3IM1lZZL0zyXWFZW1tz584drl+/TmxsrE76jo2NVSemW1tb6yDKnKysrGjdujVXr17l/v377N27l8GDBz9VX5UrV+abb75h7ty5uLm56TjS8uv27dv5vh63b99Wbxf1dXva90qUrt27dzNv3jxu3LjBn3/+yalTp5g5cyZvvfVWaYcmSlnr1q3Vc+vVq1d1luBeEh49eoSiKLRv377I58DmzZvTrVs3Dh8+TGRkpJ4irHi+/PJLdSWI+vXrs3LlStq3b59n+2HDhtGxY0c++eQTfH19ycjIYNu2bZw7d469e/eWYORCCCGEEEIIkZ0kuAshhBBCiBxSUlKAzIvQ+TEwMKB169YcP34cyEyCKEhwcDCgv2XUhRBCCFF+lLXE7/+K5557joCAAO7cuZPtfjs7O7U676+//sqwYcNyjAf/+usvfH19URSFhg0b6iW+L7/8Uqf9devWjWPHjpGQkKDTfoXIj5ubG8eOHcvzcW0iNVCkJDVFUTh8+HCxYstPeHg4iqJgb29f5Iqd9evXp2vXrhw4cCDb89OHZ599lps3b2ZLAM7NiRMnADAxMSlUv4GBgSiKQoMGDYodo1bnzp05ceIE6enpuLq6Mnr06GL36erqSnp6OoqiZKu0rmuLFy9WzxXPPPNMsfoyMDDg888/x87OTpIU/9/Zs2fVysZ50Z6X58yZU6S+JcG9fGrVqhW//fYbmzZtYt26dURFRTFv3jzc3NxYvHhxgYUoRMXVunVr9fbVq1dLMZKi01YMf9rfgk1NTQGoUqWKzmL6L9BoNPTv359Fixapr2F+GjduzK+//sqqVavYsmULGRkZ+Pv7l0CkQgghhBBCCJE3SXAXQgghhBA5WFhYEBERgZ+fX4Fta9Wqpd7Oa+l6rejoaLy9vfWaECWEEEKI8qEw4wyhHx06dGD//v3cuXOHqKgoLCwsgMzJiu3bt8fb25vAwEAmTZrEtGnTaNasGUlJSRw5coTPP/9c7eeVV14pradQZDVq1KBGjRqlHYb4D4mPjyc+Pj7fNtrEVe0k4IJoNBp1G32pWrUqqampajJaUWlX7Kpataouw8rhueeew9PTk9jYWG7dukWTJk1ybVenTp1C9xkZGcn9+/fV/nWle/furFixAoANGzYwYMAALC0tn7q/yMhIvv3222z968vzzz/P888/r9M+R4wYodP+yrPCTPTTfuaLMilQ38cJoV+VKlViwoQJvPrqq8yfPx8vLy+8vb0ZNGgQEyZM4IMPPpBE3/+grAnu165dK8VIis7KyoqAgAD+/vvvIm+bkZHBhQsXAKhZs6auQ6uwqlWrxsKFCxk4cGCRtqtSpQqffvopXbt2ZdasWeoqr0IIIYQQQghRWiTBXQghhBBC5NC0aVMeP37MjRs3+Ouvv3jppZfybPvZZ58xY8YMoOCK76tXryYlJQVFUejcubNOYxZCCCGEEIXTvXt3dcn648ePZ6vyOmPGDDX58NSpU5w6dSrXPmrUqIGjo2OJxCvKh/nz53Pv3j0URWHr1q2lHU6pKs+rUzRs2BBfX18uXLhAenq6mrBeGMnJyZw9exZFUbJNhNaHNm3aqLf/+uuvPBPci+LgwYNkZGSgKApt27Ytdn9ajRo1onfv3nh6ehIVFcX777/Ptm3bClVN9d/i4uIYP348kZGRKIpC7969paJzOVS/fv3SDkGUAzY2Nvz000/8+uuvfPnll8TGxrJu3Tr279/PokWL6NixY2mHKEpQo0aNqFatGvHx8cTExBAUFKST4iG2traYmZnpIMK8de3alYCAAO7fv8/atWuZPHlyobd1cXEhODhYXV2mPCqNMbKbm1ux9o/OnTvzxx9/sGDBAh1GJYQQQgghhBBFJwnuQgghhBAih1deeYVz584BMHXqVGbOnMngwYMxMjLK0dbY2LjAyu0AmzdvZseOHUDm0rIjR47UbdBCCCGEEKJQ6tevz5gxYwgNDSUyMjLbY/b29ixZsgQnJyfS0tJy3d7S0pL169cXqwKxqHiuXr2Kn5/ff75y8PLly0s7hGLp0aMHvr6+hIWF4eTkhJOTU6GS3DUaDU5OTkRERKAoCp06ddJrnPb29up3Sl0k5mVkZLBt2zb13y+++GKx+8xq6tSpnDhxgpSUFHx9fRkwYACLFi0qUvX1EydO4OTkxKNHjwAwNDRk6tSpOo1TlIyjR4+WdggCSE1N5dq1azx8+JDo6Gji4uIwNTXF3NwcKysrbG1ty0Sl9KFDh/LKK6+waNEijhw5wp07d3B0dGTw4MHMmjVLXYmntIWGhtK3b1+SkpIwMDBg48aNdOnSpcj9nD59mvHjx6PRaKhWrRqenp4y5vx/W7duJSEhAUBn7/vSpUt10k9+3n33XXbu3ElycjLr1q3j0qVLTJgwId+xwr1793BxceHAgQPqfYMGDdJ7rPpQGmNkXUx+sLCwYPXq1TqIRgghhBBCCCGenqIpz+VkhBBCCCGEXiQlJdGvXz/1wjlkVme3sbHBwsKiyD/Ix8fH4+vri0ajUav55VdlTqo+CiGEAFiyZAk7duxAURRu3LhR2uEI8VTK635869YttmzZwrlz5wgLC8PAwIAGDRrQo0cPHB0dy1yi0bZt2zh8+LCMI0vR4MGD1eSd8rSvi+yePHlC3759iYmJAaBx48aMGzeO3r1755pInpGRwblz51izZg0+Pj7qd75ff/0VOzu7kg7/qcXFxamTvA0NDenWrZvO/8b+/fuZMWOGuoKGoijY2NjQv39/7OzsaNasGWZmZmqF3tjYWAIDA7l8+TLu7u7cuXNHXR1AURRWrlzJgAEDdB6nvnl5eanHiNGjR5dyNOK/RqPRcPDgQX7++Wd8fHxISUnJs62hoSH29vYMHz6cV199tUxM4PLw8GDp0qU8fvwYRVGwsLBg1qxZ6mo8Q4cO5fLly6VyLp47dy6///47iqIwZcoUPvzww6fua8OGDbi4uKAoCiNHjmTevHk6jFSUhh07drBkyZJsnyNLS0tsbW1p0KABxsbGJCUlERERwc2bN7lz5w7wz6o4r776arlNtpYxshBCCCGEEEI8PUlwF0IIIYQQubp58yYTJkwgNDRUva8kLuZpL/TLD/5CCCHKa2KwEFnJflwy5HUufZK8U3EcPHiQ//3vf2S9dFCpUiVsbGxyJKHdunVLrSarbT9ixAgWLFhQKrGXdTt37sTZ2Zn09PRsyeoFyfpeVK5cmTlz5pTaqmhz586lT58+dO7cGUNDwyJvL8drUVq8vb2ZM2cODx48AMj3M/jvx6ytrXF2dqZ9+/YlFG3eYmNjWb58Ob///juQGaODgwNOTk58+umnpZLgHhMTw0svvURqaioNGjTAw8OjUKt/5CUtLY2+ffvy4MEDjI2NOXPmTKFWjxRl2/r161m7di0ZGRnqfXmdA7Oe93r16sXXX3/9VOecskDGyEIIIYQQQgjx9AxKOwAhhBBCCFE2NW/enH379vHhhx/SoEEDIPPigr7/E0IIIbS6devG5MmT+eijj0o7FFEGpaSkEB4enm/lzbJA9mMhRHnTp08fnJ2dqVq1qvodLS0tjVu3bnHixAk8PDw4fvw4V69eJT4+Xv0upygKjo6OzJ8/v5SfQdk1YsQItm/fjrW1dbb7C/sd+dlnn+Wnn34qteR2gN9//52JEyfi4ODAtGnTcHd3Jz4+vlDbpqWlcfnyZSAzUb+kODs7c+vWrRL7e6Ls2bhxI2PGjOHBgwc5PlcFfe40Gg337t3D0dGRjRs3lmTYuTIzM8PZ2Zkff/wRa2trNBoN586dY+DAgdy+fbtUYjp48KA6Jv/ggw+KldwOmceHDz74AMhcZdLT07PYMYrSN2nSJLZs2cILL7yg3pffuc/Ozg4XFxfWrl1bbpPbhRBCCCGEEEIUj1RwF0IIIYQQhRIZGUlYWBhxcXHZKu3oS8eOHfX+N4QQQghRdly6dAlfX1/i4+Np0KABXbt2xczMLEc7d3d3Nm/ezI0bN9QxiZWVFX369OH999+nRo0aJR36f1JsbCxbt25l8uTJpR0KIBWBi8LNzU0v/bq4uBASEiLvQQVy584dvv/+ew4cOEBSUlKe7apWrUqPHj0YO3YsdnZ2JRhh+aXRaDh48CC//PILly5dIjk5Oc+2hoaG2NvbM3z4cPr06VMiK6vlp1WrVqSnpwP/VN6tUqUKDg4O9O7dm549e2JpaZltG41Gw9WrV1m1ahXnzp0DwN7enp07d5ZIzC1atEBRFNq0acM777xDv379pBr0f8hPP/3EsmXLgMx9VqPR0LBhQ/r370+bNm1o1qwZ5ubmmJiYkJCQQHR0NAEBAVy+fJn9+/cTFBSkbqcoCp999hnvvvtuKT+rTMnJyXzzzTds27aN9PT0bHGW5Ll49uzZuLm5UblyZU6fPo25uXmx+4yOjqZLly5kZGTw5ptvqu+hqBhCQkLw8fHh1q1bREdHk5iYiJGREebm5jRp0oQ2bdpgZWVVojFV1DFyYmIie/fu5cyZM/j5+fHkyRN1gmJBFEXB19e3BKIUQgghhBBCiNxJgrsQQgghhBBCCCGEKDV+fn7MmjULf3//bPcbGxszZ84chgwZot43f/58fvvtN4AcF+QVRcHc3Jz169fTrl07/Qf+HxUVFcWPP/7Ijh07iI+PLzOJzJLgXnjaRE99KI2kuork4cOHeHt7Ex4ejqGhIfXr18fBwQFTU9NSjSslJQU/P79sSWjGxsZUr16dpk2b0rx5c6pWrVpq8YWGhrJz507Onj1LUFAQcXFxmJmZ0aBBAzp37syIESOoU6dOqcVXkJSUFK5evcrDhw+Jjo4mPj6eatWqYW5ujpWVFa1bty5TlWujoqI4dOgQHh4enD9/nrS0NOCfZHcDAwPs7e3p2LEjISEh3Lx5k9u3b6tJ/BqNhsqVK7NlyxY6dOhQIjH/+7hnYmLCgAEDePvtt2ndunWJxPC0YmJiiIuLK1RbCwsLTExM9BxR+XLx4kVGjRqlVoWuW7cu8+bNo1evXoXu49ChQyxbtozQ0FA0Gg0GBgZs3769TI03r127xrx58/Dz8wMo8XPx66+/TkBAAHZ2duzatUtn/Q4ZMoSrV6/SokULvSUf5yc1NZWEhASSkpIwMjLCxMSEKlWqlHgc/1bez3tlVUUcIx84cAAnJydiYmLUOIpCxvVCCCGEEEKI0iYJ7kIIIYQQQgghRC5CQkKoV6/eU2+/cuVKdu/ejaIonD9/XoeRCVFx+Pv7M2rUKGJiYnK92G5gYMCqVavo06cPP/74IytWrFArU/6b9v5q1aqxZ88ebGxsSuAZ/HdERkayadMmfv75ZxITE8tcIrMkuBeeNnlH1z8Ll1bV2LJIm0gJmcexgoSFheHk5MSxY8dyPFa5cmVGjBjBtGnTpOJ0Lnbv3s3SpUtJSUkBsiduaZPUDA0NmTNnDsOGDSuVGCsyPz8/FixYwJUrV7IdV7ImCP77WGNlZcW8efN45ZVXSizOOXPm4OHhQWJionqfNsbmzZvzzjvvMHDgwBKfTLJ161Y1pt69e9OkSZMcbZYsWVLoSvcODg78+OOPOo2xvHvnnXfU/bNt27Zs3Ljxqd7nuLg43n//fXx8fABo06YNv/76q67DLbc6d+5MVFQUvXv3ZvXq1Trrd8qUKXh6emJpacmZM2d01m9uoqKiOHr0KOfOnePWrVvcvn0719VLjIyMaNy4MU2aNMHBwYFXXnmlRFeQkvOe/lS0MfIff/zBrFmzgNz3k9wmjOfW9r8+rhdCCCGEEEKUrsqlHYAQQgghhBBlTWhoKNevXychIQEzMzMaNmxI48aNSzssIXJITU3l7t273L59m+jo6ByVxczNzWncuDE2NjZlospYedOjRw9atWpFr1698kw4yU9kZCQxMTF6qwAmhC6lpKQQHR2Nubl5iVWJ1Wg0zJ49m+joaPVzYm1tjaWlJXfv3iUqKoqMjAwWLFhAx44d2bBhA4qiYGZmxtixY3nxxRepXr064eHhHD16lJ07d5KSkkJ8fDxOTk5s2bKlRJ5HeRIeHo6XlxdhYWGkpKRQs2ZN2rZtm+/xLTIyku+++45du3aRlJSkJmdAZoKPKL8URaFu3bo6O0+FhYWplZz/y9LT0+ncuTOxsbFUqlQJDw8PGjRokGf7kJAQhg4dSnh4eI7kYI1GQ2pqKtu2bePatWts2rRJPndZuLm5MX/+fIBcE9K0x6vk5GQWLVqEkZERgwcPLo1QK5ykpCScnZ35/fffSU9Pz3EcyS2RDqBhw4asW7eOZs2alVisAMuXL2fevHns27eP3377jWvXrqkx3rx5kyVLlvDFF1/Qt29f3n777RKpLH/ixAmWL1+Ooig899xzvP/++3m2LWyy5blz5zh27FiJTh4oyy5cuKAmtzdo0IBNmzY9dYV7U1NTNm/ezKBBgwgKCuLKlStcuHCBjh076jjq8ik2NhZA54neFhYW2frXh6CgIFxcXPDw8CA9PV29P6/PXWJiIr6+vvj6+rJv3z4qVapE3759mTp1Kg0bNtRbnCDnvZJSEcbIT548YeHCheqqKdOmTePNN99k3bp16qRgPz8/4uPjCQ4OxsvLi127duHn54eJiQlLliyhf//+JRqzEEIIIYQQQuRGEtyFEEIIIYT4f48ePcLJyYmTJ0/muEhUs2ZNhg0bxrhx46RyoihVUVFR7N27l8OHD3Pp0qVsF2DzUqlSJezt7enVqxeDBg1SLxKXBRqNhsOHD3Py5Elu3brFkydPMDY2pnbt2nTq1Im+ffsWq4p6cWO7fv06169fx8XFBRsbG3r37k2vXr2ws7PLd9uzZ8/i4eGBoijUrFmzhCIuX6KjowkODiY9PZ169eo91et08uRJrly5AsDkyZN1HWK5dunSJXx9fYmPj6dBgwZ07doVMzOzHO3c3d3ZvHkzN27cICMjA8isrNqnTx/ef/99vVYjPHnyJL6+viiKgoWFBWvWrFETytLT01m/fj3r1q0jJiaG+fPnExMTQ506ddi+fXu25BEbGxteeOEFBgwYwJgxY4iNjeX8+fP4+fnRokULvcUP5Wc/DgoKwtnZmePHj+f6eLt27Vi2bFm2qvdpaWl89913bN68mYSEhByJ7SNGjGDcuHF6iVfoV/369QkODkZRFNasWYOtra1O+h08eDB+fn466as8u3TpEjExMQC89NJL+Sa3A0yfPp2wsDAURVGT1XJLWPv777/55ptvmD17tt5iL0/i4uJYunQp8E+SX4sWLbC3t6d69erExMTw999/c/PmTfXxpUuX0qtXrxKv0l3RaDQaPvjgAy5cuJBtX61fvz62trY8//zztGzZktTUVNzd3Tl27BiJiYkoikJQUBBvvPEGS5cuLfGky2rVqjFs2DCGDRuGn58fu3bt4s8//1Q/r0lJSezdu5e9e/diY2PDkCFDGDx4MJaWlnqJ59tvv1VvL126lMqV879cV9iqwps3b5YE9/+Xddwzd+7cp05u1zIxMWHOnDlMmjQJgGPHjkmC+/8zMTEhNjaWuLg4nfYbHx8P6G9S5d69e5k/fz6pqalFqtqdtW1aWhr79+/H09OTJUuWMGjQIH2EWi7Oe2vXrgXAzs6Obt26lcjf1KWKNEb+9ddf1XPv9OnTee+993JtV61aNZo1a0azZs0YPnw4Gzdu5Ouvv+aTTz4hISGBIUOGlGjcQgghhBBCCPFvkuAuhBBCCCFyNWfOHAC6dOnC66+/XsrRPL2HDx9y6tQp7t27R3x8PDVq1KBu3bq89NJL2ZLjQkNDGTZsGKGhoble1Hr8+DHr1q3D09OTTZs28cwzz5Tk0xCCjIwMvv32WzZv3qxe5C3sBdi0tDS8vb3x9vZmzZo1jBs3jg8++AADAwOdxxkaGgpkXiQr6CLqpUuX+Oyzz7hz506Ox27cuMGJEydYtWoVY8eOZdq0aSVeCX306NF4enry6NEjAO7cucPGjRvZuHEjderUoVevXvTq1YsXXniBR48e4e/vj7+/P97e3pw+fVp9f/R1gbu8OnXqFOvWrePKlSvZ9uGmTZvy7rvv8vbbb1OpUqVC9XXixAm1+pgkuGfy8/Nj1qxZ+Pv7Z7vf2NiYOXPmZLtAPX/+fH777Tcg+/HkwYMHbN68mT179rB+/XratWunl1g9PDzU28uWLctWLbVSpUp8/PHH+Pn5ceTIEY4cOYKiKMyfPz/PyoitWrVi2rRpLFmyBIADBw7oLcG9PO3HgYGBODo6EhkZmaM6NGS+9xcvXmT06NFs27YNGxsbHjx4oL7+WRPbTUxMGDlyJGPHjtXr5AehX61btyY4OBiAq1ev6ix5R2T6+++/gczPWUHfo7QTFrWfsVq1ajF79my6du1K1apVuXHjBmvWrFHHFdu3b+f999+nVq1axY6zvH/fc3NzIy4uTl3ZY+XKlXTv3j1Hu+PHj/Ppp58SExNDfHw8bm5uvPvuu6UQcdEtWbKEnTt3oigKvr6+pR2OytXVlfPnz6MoCpUqVWL06NG8/fbbua4G0qtXL5KSkvjzzz/ZsmULgYGBpKWlMXfuXAwNDXnttddK4RlAixYtWLBgAbNnz+bAgQP89ttveHl5qefJu3fvsnLlSlatWkXPnj15++23eemll3T290NCQtTPfufOnWndunWhtjty5Eiejy1YsIDTp09z8eJFHjx4UODkmv8CLy8vACwtLXn55Zd10ufLL79MzZo1iYyMxNvbWyd9FtW9e/d4/PixelwzNTXF3NycWrVq6b2CeF5q1KhBbGys+nuArmj708e409XVlblz5wL/fBd69tln6dSpEy1btqRevXo888wzVK1aFUNDQ1JSUkhOTiY8PJyQkBB8fX25cOECd+/eRaPRkJKSwuzZs9FoNHqZwFMezntr165FURRGjhyZb4K7l5cXN27cADJ/dykrKtIY+ezZs0Dm6hOjRo0q1DaKojBhwgQSExPZsGEDy5Yto1OnTlhbW+szVCGEEEIIIYTIlyS4CyGEEEKIXLm6uqIoCtWqVcs34eHQoUN4e3ujKEqZqiaYlpaGs7Mzu3btyrPCdZcuXXBycqJhw4YsXLhQTWI1MDCgXbt21K1bl7i4OK5fv054eDgajQZ/f3+mT5/OTz/9VJJPR/zHxcfHM3Xq1GxJ01lZWlpSq1YtjIyM1AuvSUlJPH78mMjISOCfC7ZxcXGsXr2aixcv4uLiQrVq1XQaa/fu3dULmvPmzcuz3bFjx5g2bRopKSl5JuorikJKSgrff/89t27dUquBlZS5c+cyd+5cfHx88PDw4ODBg4SEhACZKz7s2LGDHTt2YGBgoFa+1tI+p3bt2jFlypQSjbssW7VqFd9//z2Qc4JGYGAgTk5ObN++na+//ppmzZqVRojlmr+/P46OjsTExOR4fRMSEli4cCHVq1enT58+/Pjjj+zevTvfaqBRUVGMHz+ePXv2ZKvsrSvXrl0DoE6dOvTo0SPXNkOHDuXIkSNoNBpq165Nr1698u3zrbfe4ssvvyQpKUntX9fK036s0Wj45JNPiIiIyJHU/m9hYWEsWbKEzz//nFGjRqnjIsictPTuu+8yduxYzM3NSyT2opo/fz7z588v7TDKBVtbWw4ePAhkJu8MHz68lCOqWK5fvw5kTtQpKKEy6yQjY2Njfvrpp2zH27Zt27Jx40bGjx/P6dOnSU9PZ//+/Tg6OhY7zvL+fe/MmTPqbWdn51yT/CAzGdXZ2VmdQHTmzJlyk+AOhZ/QWpL++OMP9baLi0uB52YjIyPefvttBg8ezOLFi9m1axcZGRn88MMPpZbgrmVoaMigQYMYNGgQ9+7dY9euXezdu5fHjx8DkJqaysGDBzl48CD16tXjzTffzDdxvLBJrVkT1UeOHFnoeK2srPJ8bMKECer3xePHj5er/VxfwsPDURQFOzs7nU2WNjAwwM7OjmPHjhEWFqaTPgui0Wg4cOAA+/fv5+LFi0RHR+fZ1tLSkvbt2zNgwABeffXVEokPMitf37t3jytXrpCUlKSTiutJSUlcuXIFRVGoX</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAC7gAAAcICAYAAACsf4x4AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdd5RV1aEG8O/QERVFLGCMCg8jttjFroi47ID4SKKJsZcYY4wldp8klmCwRH3GRH021Ggc1FiiAnZBjRFUqoIGAVEEBkE69/3hYiJRkDLDXOD3W8vlnXv22fPdO8PMnpnv7lOUSqVSAAAAAAAAAAAAAACgltWp7QAAAAAAAAAAAAAAAJAouAMAAAAAAAAAAAAAUCYU3AEAAAAAAAAAAAAAKAsK7gAAAAAAAAAAAAAAlAUFdwAAAAAAAAAAAAAAyoKCOwAAAAAAAAAAAAAAZUHBHQAAAAAAAAAAAACAsqDgDgAAAAAAAAAAAABAWVBwBwAAAAAAAAAAAACgLCi4AwAAAAAAAAAAAABQFhTcAQAAAAAAAAAAAAAoCwruAAAAAAAAAAAAAACUBQV3AAAAAAAAAAAAAADKgoI7AAAAAAAAAAAAAABlQcEdAAAAAAAAAAAAAICyoOAOAAAAAAAAAAAAAEBZUHAHAAAAAAAAAAAAAKAsKLgDAAAAAAAAAAAAAFAWFNwBAAAAAAAAAAAAACgLCu4AAAAAAAAAAAAAAJQFBXcAAAAAAAAAAAAAAMqCgjsAAAAAAAAAAAAAAGVBwR0AAAAAAAAAAAAAgLKg4A4AAAAAAAAAAAAAQFlQcAcAAAAAAAAAAAAAoCwouAMAAAAAAAAAAAAAUBYU3AEAAAAAAAAAAAAAKAsK7gAAAAAAAAAAAAAAlAUFdwAAAAAAAAAAAAAAyoKCOwAAAAAAAAAAAAAAZUHBHQAAAAAAAAAAAACAsqDgDgAAAAAAAAAAAABAWVBwBwAAAAAAAAAAAACgLCi4AwAAAAAAAAAAAABQFhTcAQAAAAAAAAAAAAAoCwruAAAAAAAAAAAAAACUBQV3AAAAAAAAAAAAAADKgoI7AAAAAAAAAAAAAABlQcEdAAAAAAAAAAAAAICyoOAOAAAAAAAAAAAAAEBZUHAHAAAAAAAAAAAAAKAsKLgDAAAAAAAAAAAAAFAWFNwBAAAAAAAAAAAAACgLCu4AAAAAAAAAAAAAAJQFBXcAAAAAAAAAAAAAAMqCgjsAAAAAAAAAAAAAAGVBwR0AAAAAAAAAAAAAgLKg4A4AAAAAAAAAAAAAQFlQcAcAAAAAAAAAAAAAoCwouAMAAAAAAAAAAAAAUBYU3AEAAAAAAAAAAAAAKAsK7gAAAAAAAAAAAAAAlAUFdwAAAAAAAAAAAAAAyoKCOwAAAAAAAAAAAAAAZUHBHQAAAAAAAAAAAACAsqDgDgAAAAAAAAAAAABAWVBwBwAAAAAAAAAAAACgLCi4AwAAAAAAAAAAAABQFhTcAQAAAAAAAAAAAAAoCwruAAAAAAAAAAAAAACUBQV3AAAAAAAAAAAAAADKgoI7AAAAAAAAAAAAAABlQcEdAAAAAAAAAAAAAICyoOAOAAAAAAAAAAAAAEBZUHAHAAAAAAAAAAAAAKAsKLgDAAAAAAAAAAAAAFAWFNwBAAAAAAAAAAAAACgLCu4AAAAAAAAAAAAAAJQFBXcAAAAAAAAAAAAAAMpCvdoOAAAAAAAAS6KysjJjx47N3Llz06JFi6yzzjpLPMcLL7yQQYMGJUlOP/306o4IAAAAAAAspaJUKpVqOwQAAAAAAHybF198MTfddFMGDRqUr/5q+7/+679y9NFHp2vXrqlbt+5izdW9e/fce++9KYoiQ4YMqanIAAAAAADAEqpT2wEAAAAAAODbXHvttTnppJMycODAzJs3L6VSqeq/9957L5dddlk6deqUESNG1HZUAAAAAABgGSi4AwAAAABQ1u6777788Y9/rCq0/6f5940YMSJdu3ZN7969l3dEAAAAAACgmii4AwAAAABQtiorK/O73/0uRVEkSbbeeuvceuuteeONN/KPf/wj9913X4488sjUqVMnRVFk5syZOf/883P77bfXcnIAAAAAAGBp1KvtAAAAAAAAsDAPP/xwpk+fnqIosttuu+WWW25JgwYNqo5vt9122W677fKjH/0o5557bkaMGJFSqZQePXqksrIyv/zlL2sxPQAAAAAAsKTs4A4AAAAAQNl65ZVXkiT16tXLFVdcsUC5/avatm2bv/zlLznggAOSJKVSKbfeemu6d+++3LICAAAAAADLTsEdAAAAAICyNXz48BRFkW233TYbbLDBIsc2btw4119/fY4//viq+3r16pXzzz8/pVKppqMCAAAAAADVQMEdAAAAAICyNXny5CTJJptsstjnnHPOOfnVr35VVWrv3bt3zjzzzMyZM6cmIgIAAAAAANVIwR0AAAAAgLI3e/bsJRp/4okn5rLLLqt6++mnn87pp5+eWbNmVXMyAAAAAACgOim4AwAAAABQttZee+0kyfjx45f43B/84Ae56qqrUqfOl78Kf/7553PiiSdm+vTp1ZoRAAAAAACoPgruAAAAAACUrVatWqVUKmXgwIGZN2/eEp9/+OGHp2fPnqlbt26S5LXXXsuxxx6bKVOmVHdUAAAAAACgGii4AwAAAABQtrbaaqskyfTp0zNgwIClmuOAAw7IjTfemAYNGiRJBg4cmL/97W/VlhEAAAAAAKg+Cu4AAAAAAJStXXfdter2Qw89tNTz7LPPPrnlllvSqFGjJEmpVFrmbAAAAAAAQPVTcAcAAAAAoGztuOOOWXPNNVMqlfL3v/89H3300VLPteuuu+a2227L6quvnqIoqjElAAAAAABQXRTcAQAAAAAoW/Xr10/Xrl2z6aabZqONNkrv3r2Xab7tt98+d955Z9Zaa61qSggAAAAAAFSnouQ6rAAAAAAAAAAAAAAAlAE7uAMAAAAAAAAAAAAAUBYU3AEAAAAAAAAAAAAAKAsK7gAAAAAAAAAAAAAAlAUFdwAAAAAAAAAAAAAAykK92g4AAMDKadKkSamsrMwXX3yRGTNmpFGjRllttdXStGnTrL322rUdDwBgpWc9xqqmVCrlvffey5AhQzJp0qRMmzYt8+bNW6xzTz/99BpOBwAAAAAALK6iVCqVajsEAAArvqFDh+aZZ55J//798/7776eysnKhY5s2bZrWrVunXbt26dChQ9q2bbsckwIArJysx1hVzZ49O7fddlt69eqVTz/9dKnmGDJkSDWnAgAAAAAAlpaCOwAAy+SNN97I73//+7z11ltV9y3OErMoiqrb2223Xc4666zsuOOONZIRAGBlZj3Gqmzy5Mk57rjjMmTIkMX+vP/PcUVRKLgDACxH7777br744oskyU477VTLaQAAAChHCu4AACy1m2++OTfeeGNKpdJilUkWpSiKnHHGGTn11FOrKR0AwMrPeoxV3U9/+tP0798/SdK8efPsv//+eeedd/L222+nKIr87Gc/y7Rp0zJmzJi8+eabmTBhQoqiSOPGjXPUUUelYcOGSZLTTz+9Nh8GAMAqpVOnThk2bFiKosjgwYNrOw4AAABlqF5tBwAAYMV066235oYbbqjaAbFOnTpp165ddtlll2yxxRZp2bJlmjdvnkaNGqVBgwaZNWtWZsyYkQkTJmTs2LEZPHhwXnvttfTv3z9z585NqVTKDTfckLp16+akk06q7YcHAFD2rMdY1b300kvp379/iqLIVlttlTvuuCOrr756unfvnrfffjvJgsX1efPm5ZlnnslVV12Vjz/+OC+99FL++Mc/Zr311quthwAAsMqyDx8AAACLYgd3AACW2MiRI3PYYYdlzpw5SZKDDjoo55xzTlq0aLHEc3388cfp0aNHHn/88SRJ/fr188gjj6RVq1bVmhkAYGViPQbJ+eefn4qKihRFkUceeSSbbbZZkqR79+659957UxRFhgwZ8rXzJk6cmKOPPjqjRo3KDjvskLvvvjtFUSzv+AAAq6xOnTpl6NChC12vAQAAQJ3aDgAAwIrnoYceypw5c1IURU444YT07NlzqcpUSbLBBhvk97//fU444YQkyZw5c/LQQw9VZ1wAgJWO9Rgkb731VpLkv/7rv6rK7YujWbNm6dGjR0qlUv7xj3/kySefrKmIAAAAAADAUlBwBwBgib300ktJknXXXTdnnnlmtcx55plnZt11111gfgAAvpn1GCQTJkxIURRfK7d/dTf2WbNmfeO5W265ZbbaaqskyWOPPVZzIQEAAAAAgCWm4A4AwBIbP358iqLIjjvumHr16lXLnPXq1ctOO+2UUqmUjz/+uFrmBABYWVmPQTJ9+vQkyZprrrnA/Y0bN666PWXKlIWe36ZNm5RKpQwfPrxmAgIAAAAAAEtFwR0AgCU2fxfEhg0bVuu88+ebPXt2tc4LALCysR6DpEmTJkmSmTNnLnD/Vwvvo0ePXuj58/8dTZgwoQbSAQAAAAAAS0vBHQCAJbbeeuulVCrl3XffrdZ558+33nrrVeu8AAArG+sxSFq2bJkkmThx4gL3t27duur2G2+8sdDzhw4dmiSpX79+DaQDAAAAAACWloI7AABLbNttt02SjBgxIk8++WS1zPnkk09m+PDhKYqian4AAL6Z9Rgk3/ve91IqlTJy5MgF7t92221Tt27dJMn999+fadOmfe3cRx99NO+//36Kosimm266XPICAAAAAACLR8EdAIAl1qlTp6rb559/fh588MFlmu+hhx7KBRdc8I3zAwDwddZjkOy8885JktGjR+eTTz6pur9Zs2bZc889UyqVMnbs2Bx99NF5+umn88EHH2To0KG56aabcvHFF1eN33///Zd7dgAAAAAAYOGKUqlUqu0QAACseH75y1/mySefTFEUSZJNNtkknTt3zi677JK2bdumQYMGCz131qxZGTp0aAYMGJCKioqMGjUqpVIpRVHkwAMPTM+ePZfXwwAAWGFZjy0/vXv3TpK0atUq22yzTS2nYb6JEydmzz33zLx583LRRRflqKOOqjr23nvvpUuXLpk9e/ZCzy+VSvnud7+bioqKNGnSZHlEBgAgX76gdujQoSmKIkOGDKntOAAAAJQhBXcAAJbK1KlT87Of/SwDBgyoKlXNVxRFmjVrlubNm6dRo0apX79+Zs+enRkzZmTChAmZOHFivroMnX+7Xbt2ufHGG7P66qsv18cCALAish5bfjbffPMURZGjjjoqF1100ULHDR8+PKNHj06S7Lfffssr3irt7rvvzieffJJNN900Xbp0WeDYiy++mLPOOiuff/75N567ySab5JZbbskmm2yyHJICAKx45r/Qs7pdf/31GTdunII7AAAAC6XgDgDAUpszZ05uuumm/N///V+mT5/+teP/WbRKkm9afjZu3DjHHntsTjvttNSrV69GsgIArIysx5aPxS24d+/ePb169UpRFBk8ePByTMjCTJw4MQ8++GBeffXVfPLJJ6lTp06+853vpH379unUqdMir3QAALCqm78OrgnzryCl4A4AAMA3UXAHAGCZTZw4MRUVFXn22WczcODAzJs371vPqVOnTr7//e+nQ4cO6dy5c5o1a7YckgIArJysx2rWkhTc7733XkUdAABWCvPXwdVdKZg/p3UzAAAAC2M7JgAAllmzZs1y/PHH5/jjj8+sWbMycuTIjBo1KpMnT84XX3yRmTNnpmHDhllttdWy1lprZdNNN02rVq3slggAUE2sxwAAgOrWsmXL2o4AAADAKkrBHQCAatWgQYNsvvnm2XzzzWs7CgDAKsl6DBbfhx9+mFtuuSVXXnllbUcBACg7ffv2re0IAAAArKLq1HYAAAAAAABYnt5///2cffbZOeigg9K7d+/ajgMAAAAAAHyFHdwBAAAAAFglDBs2LP/7v/+bp59+OqVSKaVSKUVR1HYsAAAAAADgKxTcAQAAAGAV8/zzz2fSpElJkk6dOtVyGlgyb731Vl5//fV88sknmTlzZpo3b57vf//72WOPPVK3bt1vPGfEiBG5/vrr07dv368V29dff/3lGR8AYJGmTZuWsWPHZurUqZkzZ85in7fTTjvVYCoAAABYvhTcAQBYYr17907z5s2z2267pU6dOrUdBwCAJXTzzTdn0KBBSRTcWXEMGjQol1xySYYNG/aNxzfccMNcc8012XbbbavumzJlSq666qo88sgjmTdvXkqlUtWxDTbYICeeeGK6du1a49kBABZl6tSpueuuu/L4449n1KhRC6xZFkdRFBk8eHANpVty//rXvzJ+/PgkivcAAAAsHQV3AACW2K9//esURZF11lknhx12WDp16pTNNtustmMBALAEvrqDNZS7N954IyeeeGJmzJjxjZ+7pVIpH330UY4//vjccccd2WabbfL222/n5z//ecaPH79ASaxly5Y5+eST06VLl9SvX395PxQAgAW8++67OfXUU/Ppp58myRKX28vRnXfemV69epVd8R4AAIAVh4I7AABLbcKECbnjjjtyxx13pG3btunSpUsOPvjgrL322rUdDQAAqt2rr76a888/f6HH5++Kn2SR4/5TURS54oorlinbymz27Nk577zzMn369Kpie6lUStOmTdOwYcNMmjQps2fPTpJMmzYtv/nNb9KjR48cd9xxmTp1atU83/nOd3LyySenc+fOqVfPr8YBgNo3adKkHH/88Zk8eXLVffXq1ctGG22UtdZaa4Ves6wMRX0AAABqT1HykyUAAEto8803T1EUC/yRYn7RpF69etl7773TqVOn7LPPPiv0H2EAAMrVfvvtt0znf/rpp5k1a1aKokjLli2/drwoijz77LPL9D5WJvPXvzVpyJAhNTr/iuyJJ57IWWedVfUxOOaYY/KTn/yk6nN3zpw56d+/f6655poMHTo0RVFkk002yahRo5Ikq622Ws4444wcddRRdmwHAMpKz549c+utt6YoijRp0iS//OUv06lTpzRp0qS2oy2T7t275957701RFNa5AAAALBVtIwAAltrGG2+cadOmZcKECSmVSimKIrNnz06fPn3Sp0+frLXWWjn00EPTqVOnbLHFFrUdFwBgpTFmzJgFXnC4pOXr+eeVSqWMHTv2a8dqusy9IqrJfUI834vWt2/fqtu/+tWvcsIJJyxwvF69etljjz2yww475IgjjsjIkSPzwQcfJEk23HDD/PnPf86mm266PCMDACyW559/PsmX68FbbrklO+64Yy0nAgAAgPKg4A4AwFLbc889c8EFF+TFF19M796907dv38ycObOq/DNp0qTcfffdufvuu9OmTZt06dIlhxxySJo3b17LyQEAVg7zS+7LUr52gcdv17lz59qOsEqbv+tns2bN8tOf/nSh4xo3bpyTTz455513XtULNX73u98ptwMAZeujjz5KURTZfvvtldsBAADgKxTcAQBYJnXq1Mnee++dvffeO59//nmeeOKJ9O7dO//85z+T/LswNWLEiFx99dW55pprsvvuu6dLly7Zd99906BBg9qMDwCwwjv00EOz2267LdE5N998c0aPHp2iKHLFFVfUULKVx5VXXlnbEVZpEyZMqCp+1au36F9p77rrrkm+fPFHmzZtssMOOyyPiAAAS2XevHlJklatWtVyEgAAACgvCu4AAFSbNdZYI926dUu3bt3y4YcfpqKiIo899ljGjBlTtYPinDlz8sILL+SFF17ImmuumYMOOiidO3fONttsU9vxAQBWGMccc0zuvvvuzJs3L3/7299Sp06dnHfeeWnWrNlinX///fdn9OjRSexOTvmbOnVqkmSdddb51rFfvVqUohgAUO5atGiRUaNGZcaMGbUdBQAAAMpKndoOAADAymnjjTfOmWeemT59+uSuu+5K586ds9pqqyX5967ulZWVuf/++9OtW7cceOCBufXWWzN+/PjajA0AsEI4//zzc//996dNmzYplUp59NFHc+CBB+bhhx+u7WhQ7ebOnZsk37p7e/LlFabmW5xCPABAbdp9991TKpXyzjvv1HYUAAAAKCsK7gAA1Lidd945V155ZV5++eVcffXV2W233VIURZIvy+6lUikffPBBrr322rRv3z7HH398LScGACh/22yzTSoqKnLGGWekfv36qayszIUXXpgf//jHGTVqVG3Hg1o3/2cOAIBy9aMf/SgNGjTIqFGj8vLLL9d2nGqz11575fTTT8/Pfvaz2o4CAADACkrBHQCA5aZRo0Y5/PDDc/vtt6dfv34566yz0qpVqyT/3tV97ty5eeWVV2ozJgDACqNevXo57bTTUlFRke222y6lUilvvPFGDj/88Nx4442ZPXt2bUckyccff5xBgwZl6NChmTx5cm3HAQCgTGy66aY5//zzUyqVcu6552bEiBG1Hala7L333jn99NNz+umn13YUAAAAVlDffk1XAACoAeuvv35OOumknHTSSRk0aFAqKiryxBNPpLKysrajAQCscFq3bp377rsv9957b3r27Jlp06blpptuyhNPPJH/+Z//yU477VTbEVc58+bNy1133ZW77ror48aNq7q/KIpsvfXWOemkk7LffvvVYsIVz7Rp0zJ27NgaGd+yZculjQUAsEx++MMfplGjRrn00kvTtWvXdOvWLQcccEC+973vZfXVV6/teAAAAFAritL8rTIBAGAxbb755imKIkcddVQuuuiiapt39uzZ6devX3r37p2bb7652uYFAFiVfPzxx7nsssvy3HPPpSiKJEnnzp1z7rnnZq211kqSdOvWLQMHDkxRFBkyZEhtxl1hnHLKKfn888+TJFdddVU22mijhY6dNWtWTj755PTv3z8L+/VrURT58Y9/nAsuuKBG8q5M5v/8sbjmP+eLe05RFBk8ePBSZQMAWBZt27Zd4O1SqbRE6575rGcAAABY2djBHQCAslG/fv107NgxHTt2rO0oAAArrA022CC33HJLHn/88fz2t7/NxIkTU1FRkX79+uXXv/51Dj/88NqOuMJ57733ql4w0LZt20WW25Pk8ssvz6uvvprky7LRf5bc59939913p3Xr1unWrVuNZV/ZLM5+LV8thdnfBQAoZ/ML7fP/vyKtY0aPHp33338/I0eOTGVlZaZNm5aZM2emYcOGadKkSZo2bZpWrVqldevW37p+BgAAgP+k4A4AAAAAK6GDDz44u+++e6644oo8+uijmTRpUn7961+noqIikyZNqu14K5TXXnut6naXLl0WOXbw4MH561//WlVOqlu3brp06ZK99torDRo0yNChQ3PXXXfls88+S6lUSs+ePXP44YenUaNGNfoYVnRLUvAq9zIYAMBXzV+7rAhrmJEjR+b+++/Ps88+m3Hjxi32eS1atEiHDh3SrVu3tG7dugYTAgAAsLJQcAcAYKmsCH9wAQBY1a211lr53e9+l8MOOyyXXnppxowZkwEDBtR2rBXO22+/XXV7//33X+TYXr16Va2V69Spk+uuuy4dOnSoOr7XXnvliCOOyI9+9KN8+OGHmTJlSp599tkccsghNRN+JdCnT5/ajgAAUCOGDh1a2xEWy/Tp0/Ob3/wmjzzySObOnZtkyX4/PG7cuNx9993p1atXOnXqlAsuuCCrrbZaTcUFAABgJVCUNJMAAFhC83ewXH/99bPxxhvXchoAABbH9OnT07Nnz9x7772ZN29ekqQoigwZMqSWk5W/bt26ZeDAgdlwww0XWbYulUpp165dpkyZkiTp2LFjrr/++m8c+9JLL+WEE05IURTp1KlTrrzyyhrJDgAAy2LChAk54YQTMmzYsK+V2ps3b54WLVqkefPmadSoURo0aJBZs2ZlxowZmTBhQsaNG5cJEyYscE5RFNl8883zpz/9Kc2bN1+eDwUAAIAViB3cAQBYYjvvvHNtRwAAYAk1btw4F154YTp37pxhw4bVdpwVypgxY6qKOIsyfPjwVFZWJvmyuNOtW7eFjt1jjz2y3nrr5dNPP/XxAACgbJ177rkL7DS/2267pXPnztlll12y3nrrfev5n3zySV5//fU8/PDDefnll5N8uXP9eeedl9tuu63GcgMAALBiU3AHAAAAgFXIFltskS222KK2Y6xQpk6dmiRZe+21FznurbfeqrrdsGHD7LTTToscv+WWW6Zfv375+OOPlz3kSuzWW2/Nfvvtl9atW9d2FACAVcqzzz6bV155JUVRZM0110yPHj2y1157LdEc6623Xg4++OAcfPDBeemll3L22Wdn8uTJeeWVV9KnT5/st99+NZQeAACAFVmd2g4AAAAAAFDO5syZkySpU2fRv0595513kqRqt/f69esvcnzz5s2T/LtAzzfr2bNnDjnkkHTs2DFXXnllBgwYkLlz59Z2LACAld6jjz5adfuGG25Y4nL7f9pjjz1y3XXXVb39yCOPLNN8AAAArLzs4A4AwDKZMWNGHnvssbzyyisZPXp0pk6dmjXWWCPf+c53suuuu+bQQw9N48aNazsmAMBKy3qs5jVp0iRTpkzJxIkTFzlu0KBBVbe33HLLxZ6/VCotdbZVRalUyr/+9a/cddddueuuu7Lmmmtmjz32SPv27bP33ntn9dVXr+2IAAArnSFDhqQoimy99dbZZZddqmXOdu3a5fvf/34GDhyYwYMHV8ucAAAArHwU3AEAWGovvPBCLrjggnz22WdV95VKpRRFkXfeeSdPPfVUrr/++lxxxRXZe++9azEpAMDKyXps+Vh//fVTWVm5yALO5MmTM2LEiBRFkST5/ve//63zTp48OUmUs7/FTTfdlH79+uW5557LhAkTkiSVlZV54okn8sQTT6Ru3brZcccds++++6Z9+/bZaKONajkxALAiGT58eEaPHp0k2W+//ap9/q/OWRRFnn322W88tiz+c97q8sknnyRJ2rRpU63ztm7dOgMHDsynn35arfMCAACw8lBwBwBgqbz44os57bTTMmfOnCRf/hFl/s6T80tVSfLZZ5/ltNNOy//+7/8u8yVsAQD4N+ux5WerrbbK8OHDM27cuLzxxhvZcccdvzbm73//e+bNm5fky4/F4uxwOWrUqCTJBhtsUL2BVzL77bdfVflr0KBB6Y6wUYUAACAASURBVNOnT/r165fhw4cnSebMmZMBAwZkwIABueqqq9K6deu0b98+++67b7bbbrvajA4ALAc33XRTOnbsuNQl7AceeCC9evVKURQ1sqP4mDFjqtbq89fo/3lsWXzTvNVltdVWy6xZs/L5559X67xTp06tmh8AAAC+SVFy/VsAAJbQzJkzs99++2XChAlVf5xZe+21s/XWW2fNNdfMlClTMmjQoEyePLnq+Lrrrps+ffqkQYMGtR0fAGCFZz22fPXr1y+nnnpqiqJI69atc++996Zp06ZVxydOnJiuXbtm3LhxSb7cvf3+++9f5Jyff/55dt555yTJgQcemJ49e9bcA1hJjR07Nn379k2/fv3y2muvZfbs2UmyQMGrWbNm2XvvvdO+ffvsvvvuady4cW3FZQUwfvz4VFRU5N13380XX3yRNdZYIxtttFF22mmn7LnnnjVWHgRg2Wy++eYpiiLf/e5306FDh3Ts2HGxrqYz309/+tP0798/9erVyzvvvFMj+eYriiJDhgz5xmPL4j/nrS5dunTJ4MGD07Rp0zz//PNp1KjRMs85ffr07LPPPpkyZUratm2bhx9+uBqSAgAAsLKxgzsAAEvs8ccfrypT1a9fP+edd15+8IMfpG7dulVj5syZkwceeCBXX311Zs2alQkTJuRvf/tbunTpUovJAQBWDtZjy9fee++dTTfdNB988EHef//9HHzwwTniiCPSsmXLfPTRR6moqMhnn31WtXvmT37yk2+ds0+fPlXjt9lmm+XwKFY+LVu2zNFHH52jjz46U6dOzUsvvZS+ffvm+eefT2VlZZIvr2BQUVGRioqKNGjQILvsskvV7u7rr79+LT8Cyslf//rXdO/ePTNnzvzasT//+c/ZaKONcvnll6ddu3a1kA6Ab1MqlfLhhx/m9ttvz+2335511103++23X/bff//ssssuC6yT55swYUJ+//vfp3///imKYql3gP82ffr0Wapj5WDffffN4MGDM2XKlFx66aW5+uqrl3nOyy67LJWVlSmKIu3bt6+GlAAAAKyM7OAOAMASO/PMM/PUU0+lKIpcfvnlOfLIIxc69i9/+UsuueSSFEWRAw44INddd91yTAoAsHKyHlv+/vnPf+aYY47J7Nmzq4rp881/u1QqZccdd8w999zzrfMdc8wxGTBgQIqiyIMPPpitttqqJuOvUubNm5c333yzanf3UaNGVR376setbdu2ad++fdq3b58tttiiNqJSgz7//PPcc889ee655/LBBx/kiy++yFprrZUWLVpk9913T5cuXbLRRhslSfr27ZvTTjut6t/xwtSrVy833nhj9tlnn+X0KABYHEOHDs1TTz2Vp556Kh988EHV/fO/76+55prZZ599svPOO2fcuHEZPnx4hg0bltGjR6dUKlWt5f7whz+kQ4cOtfQoytO4ceNy0EEHZcaMGUmSHXbYIeecc84S7ZA/36BBg9KjR4+88cYbKZVKWW211fLEE09kgw02qO7YAAAArAQU3AEAWGIdO3bMv/71r7Ro0SL9+vVb5NhSqZT27dtn3Lhx2XjjjfP3v/99OaUEAFh5WY/VjhdffDHnnntuJk2a9I3Ht9hii/z5z39Os2bNFjnPO++8k65duyZJ1l133bz44ovVnpV/+/DDD9O3b9/07ds3b775ZubOnZtkwbL7+uuvn3322Sft27fPXnvtVVtRqSZDhw7NySefnE8++SRJqkrrX/2YN2jQIOecc05+8IMfpGPHjhk7dmySZLvttkvXrl3TokWLfP7553nnnXdSUVGRCRMmJEmaNm2aPn36ZPXVV1/OjwqAxTFo0KD85je/yaBBgxa4/6vfA5Is8IKmxo0b59xzz80Pf/jD5ZJxRfPggw/m4osvXuA53GSTTbLzzjtnyy23TMuWLdO8efM0bNgw9evXz+zZszNz5sxMmDAhY8eOzeDBg/Paa69Vvehw/nP/m9/8pmpNDAAAAP+pXm0HAABgxTNx4sQURZHtttvuW8fOHzdu3LhMnDhxOaQDAFj5WY/Vjj333DNPPfVUHnzwwbzyyisZP3586tSpk4022igdOnTIYYcdlnr1vv1Xrv369ava9XLvvfeu6dirvI033jjHHntsjj322FRWVuaFF15I37598+KLL2bq1KlJko8//jgPPPBA/vKXv2Tw4ME1nmnKlCmZO3du1l577aU6f9CgQRk5cmSSpFOnTtUZbYU3ffr0/PznP8/48eOr7mvQoEHWXHPNTJ48OXPmzEmSzJw5M7/97W/zz3/+M2PHjk1RFOncuXN++9vfLlDgO+CAA3LyySfn1FNPzeuvv54pU6bk4Ycfzk9+8pPl/tgAWLhSqZQ//elPue222zJlypSvXW3nq4X2oiiqjm+00Ua57bbbqq7qwdcdeeSRKYoil112WdX30Q8++GCB3fIXx/yPQb169XLZZZcptwMAALBICu4AACuZTz/9NLNnz06StGzZskbex7Rp05Ika6211mKNnz9u/nkAACwb67Ha07Rp05xwwgk54YQTlnqOn//85/n5z39ejamW3Msvv5znnnsuY8aMybx587LBBhtkt912y7777pv69esv9jzdu3dPr169UhTFcimGL6umTZvm0EMPzaGHHpo5c+bk9ddfT9++fdOvX7989NFHNfq+R4wYkVtuuSUvvPBCVbG+UaNGadeuXY466qjsscceiz3XI488knvvvTd16tRRcP8Pjz76aEaPHp2iKLLZZpvl8ssvzzbbbJOiKDJr1qy88sorue666zJ06NCUSqU88cQTSZJmzZrlsssu+9oOv0my+uqr55prrkmHDh0yZ86cvPTSSwruAGXm7LPPrvqaPr9IXb9+/bRp0yZbbLFFtthii8yePTtPPPFEBg4cmOTLovvo0aPTtWvXXHvttdltt92We+7PP/88a6yxxjLP89xzz2WfffZZ9kAL0bVr1+ywww657rrr8swzz2TevHlLPEedOnWy//775xe/+EVatWpVAykBAABYmSi4AwCsZE488cQMGzasRgsmpVIpRVGkTp06izV+fkHgqzslAQCw9KzHWFofffRRzj777Kpi11c98MADadGiRc4+++wcdNBBiz3nivp5Va9evey6667Zddddc+GFF2bEiBHp169fjbyvBx54IN27d8/cuXMXeL6mT5+e5557Ls8991x23333XHnllVl33XUXe94V9bmvSX379k3yZanxpptuyne+852qYw0aNMg+++yTdu3a5cc//nHeeeedqq+nhx12WBo0aLDQeddff/1sv/32GTBgQIYNG1bjjwOAxffMM8/k8ccfr3q7Y8eO6dq1a9q1a/e1r+3HHHNMxowZk4ceeigPPPBAJk6cmMrKypx66qm55ZZbsuuuuy7X7Icddlh69OiRHXfccanOnzVrVq688srcf//9GTJkSDWnW9Cmm26a66+/Pp999ln69u2b/v37Z+TIkRk1alRmzJjxtfGNGjXKpptumlatWqVdu3Zp37591llnnRrNCAAAwMpDwR0AYCWk5AAAAPyncePG5aijjsonn3zyjT8zFEWRsWPH5le/+lX69euXyy67LE2aNKmFpLWjTZs2adOmTbXP+8wzz+TSSy9d6PH5H4uXX345hx12WHr27Lncy3Urk6FDh6Yoimy//fYLlNu/qlGjRrnkkkty5JFHVt23yy67fOvc3/3udzNgwIBUVlZWW14Alt1DDz2U5Mu1zIUXXpijjz56keM33HDD/OIXv8hxxx2Xc845J88991xmzpyZP/zhD8v9e/C4ceNyzDHH5IQTTsgZZ5yRunXrLva5Q4cOzdlnn5333nvvG69AUlPWWWedHHnkkQt8H505c2amTZuWWbNmpUGDBmnSpEkaNmy43DIBAACw8lFwBwAAAABq1fTp0zNt2rQ0a9ZsobvST5s2Lb17986bb76ZyZMnZ6211kqrVq3SsWPHGiklf5NPP/00s2fPTpI0adIkTZs2XeI5KisrM23atCRf7ibdvHnzas24KOedd17Gjx9fVYDaZpttsv3226coigwfPjz9+/ev2mH8b3/7W95777386U9/Wq4ZVzbTp0/PJZdckuTL0l2LFi1y4oknLvC8V1RU5OWXX06STJo0KSeddFKuvvrqJdpFn3+bPHlykiy03D7f1ltvnY033jgffvhhki93pf02s2bNSpLMnTt3GVPCqmvs2LFJktVXXz1rrrlmLadhZfHuu++mKIpsvvnm31pu/6o11lgj119/fQ488MCMHTs2I0aMqMGUCzdv3rzceuutefXVV3PNNdfku9/97reec8cdd+Taa6+tWpsu7pWdakrDhg0V2mEl9e677+aLL75Ikuy00061nAYAgFWJgjsAAEtt5MiR6d2792KNm29xxidJp06dljoXAMCqYkVej82bNy933nln7r///vzrX/9K8uWuyvvvv39+9atfZf31168a++qrr+bss8/OxIkTvzbPjTfemMMPPzyXXHJJVltttRrLO3LkyBx22GGZO3duGjZsmPvuu2+pCu5jxozJD3/4w6rdLR9//PFvLeJWh9dffz2vvfZaiqJIo0aN0qNHj3To0GGBMePGjcuVV16Zp59+OkkyZMiQHHXUUbnjjjvSsmXLGs9YHaZNm5ahQ4dm0qRJmTZt2mJf3aqmPt8fffTRTJo0KUVRpG3btvm///u/BQqdm222WQ455JD069cvl1xySSZMmJDZs2fnnHPOydSpU/Pf//3fNZJrVTBjxoxvHbP55ptXFdzXXXfdbx0/atSoJFHK/Qbnn39+kmS33XbLoYceWstpatesWbOqXgyx+uqr13Ka8tO+ffsURZGjjjoqF1100ULHeR6Xj3HjxqVFixZLfX6PHj3y4IMPpiiKDBgwoBqTLZn5L25q27btEp/bsGHD7LLLLqmoqKgqcC5PP/rRj9KrV68URZFBgwalU6dOufDCC3PEEUd84/hPP/005513Xl599dWqdU7Lli3zu9/9bnnGBlYhF154YYYNG5aiKDJ48ODajgMAwCpEwR0AgKX26quv5tVXX12ssfN3iZz/R+9vo+AOAPDtVtT12KxZs3LKKadUZZ9fzpk+fXoee+yx9O/fPw8++GDWX3/9vP322znllFMya9ashZaVH3nkkXz00Ue5/fbb06BBgxrJfO2112bOnDkpiiIXXHDBUhWokmSLLbbIhRdemEsuuSSzZs3KDTfcsFwKSY899ljV7Ysvvvhr5fYkadGiRW644YZUVFTksssuy6xZs/Lhhx/mhz/8Ye644460atWqxnMurcceeyz33HNP3n777cUutc9XFEWNfb6/8MILVe+jR48eCy1G77vvvvnrX/+aM844I2+99Vbmzp2bSy+9NFOnTs1xxx1XI9lWVs2aNcu4cePy5ptvplQqVX3t+yZt2rSpegFQ48aNFznvBx98kEGDBqUoiuV21YgVSUVFRYqiSJMmTRZZcH/mmWfyxhtvpCiK/PrXv16OCRffG2+8kR122GGRnzuLcvXVV1eVVZXAlp7ncflo3759ttxyy3To0CH7779/WrduvUTnT5w4MVOmTFnqfy/VpWnTppk4cWI+//zzpTq/srIySe28mOKSSy7JXnvtlQsuuCATJ07MF198kYsuuigvvPBCunfvvsDaoU+fPrnooosyefLkqvXOQQcdlP/5n//JGmussdyzA6uOJf0ZCwAAqkPtXqsMAIAVWqlUWuz/luQcgCX15ptv5u67784f//jH9OrVKy+++GKmTp1a27EAatyKuh67+uqr88orr1Tl+c/H9Mknn+QXv/hFkuTSSy/NzJkzUyqVsvHGG+cHP/hBTj755HTu3Dnrrbde1Tn/+Mc/cvPNN9dI3k8//TR9+/ZNURTZbLPNlnlX7f/+7//O9773vZRKpTz55JNVpaqa9NZbbyVJNthgg3Tp0mWRYzt37px77rkn66yzToqiyPjx43P00UdnyJAhNZ5zSc2YMSOnnHJKzj333AwaNCjz5s1b5Of18v6cHzJkSIqiyDbbbPOtpcH11lsvd999dw466KCqrD169Mgf/vCHGsu3Mtp6662TfLkr8Z///OdFjj399NPz2GOP5bHHHltkOXPevHm5+OKLq95u37599YRdBfXv3z933nln7rzzztqOslBHH3109thjj1x88cV5/vnnM3v27CU6f37x1O83lp3nseaVSqW8++67uf7663PIIYfkwAMPTM+ePTNo0KBvPffVV1/NU089laIoss466yyHtAvXpk2blEqlvPzyy994xZ9F+fjjj/Pyyy+nKIpsuOGGNZRw0fbZZ588+uij2X333avue/rpp3PYYYfltddey4wZM3LJJZfk9NNPr/oa06RJk1x11VXp2bNnWZfbL7/88vzkJz/JMcccU9tRAAAAWMHYwR0AgCXWsmXL2o4AkCQZOnRozj333IwYMeJrx+rWrZtDDz00Z511VtZdd91aSAdQc1bk9diHH36Y++67L0VRpFQqpUuXLjniiCPSrFmzvPfee7nxxhszbNiwDBw4MPfcc08GDx6cOnXq5Nxzz80xxxyzQAl19uzZue6663LbbbelVCrl9ttvz7HHHpumTZtWa+annnoqc+fOTVEUOeWUU6plzpNPPjlnnXVW5syZk6eeeirdunWrlnkXZvz48SmKItttt91ijd96661z33335bjjjstHH32UiRMn5phjjsmtt96abbfdtkazLokLL7wwzz33XJKkYcOG2WWXXfLRRx9l5MiRVTuzT5s2LWPGjMmwYcOqduFv3LhxOnbsWOM7zk6aNClJFnv3+/r166dnz55p2rRp7rvvvpRKpdx8882ZNm1a2e52XW4OPvjgPP3000mSnj17ZsiQITnyyCPTtm3brPX/7N15eEzXG8Dx7w0iG4lQW0hjKyVCUEKL1lKUoovaaqtSVcWPqqWWKKKqrcbaVimKtrZEVUTs1JpoYotIYg2JhJB9T+b3R565TZpdZjIR7+d5+nTMnHvyTjL3zrn3vuc9VlZF7i8hIYHPP/8cb29vFEXBzs6OAQMG6DpsUcpERkayY8cOduzYgbm5OZ07d6Zbt2507twZMzOzPLfbtWuXmvBbq1atEoxYiCczfPhwvLy8uH//PgA3b95k7dq1rF27lho1atCtWze6devGSy+9xP379wkMDCQwMBAfHx9OnjypTkDo16+fId8GvXr14syZMyQmJjJu3DiWLVtWqGT1yMhIPvnkE5KTk1EUhY4dO5ZAtLmrVq0a69atY8OGDXz33XekpKRw//59Ro4cyXPPPUdERIT6+27ZsiVLly6lbt26Bou3sK5cucKFCxcMXuVfCCGEEEIIIcTTRxLchRBCCCFEkR0+fNjQIQghyrDz589z9OhRbt++TXx8PFZWVtSqVYuXX36Ztm3bUq5cOQCuX7/O+++/T3x8fK5V/dLS0nB3d+fkyZNs2rQJOzu7En4nQgihP0/zeMzNzY2MjAwURWHUqFFMnz5dfa1evXq0b9+et956i7t37/Ltt9+iKAqjR49m5MiROfqqUKEC06ZNIyIigj179pCamoqHhweDBw/Wacy+vr7qz+vcubNO+nz11VepUKECaWlp+Pj46D3BPT4+HqBIFT7r1q3Lli1b+OCDDwgODiYmJoZRo0axZs0anJyc9BVqoV24cIG9e/eiKAq2trasX78eGxsbFixYwI0bNwBYvHix2j4uLo5t27axatUqEhISiIyMZNmyZVhYWOgtxrS0NIAiJ3XNmzcPCwsL1q5dC8DGjRtJSEjgyy+/1HmMZU2PHj1o164dZ8+eRVEU9u3bx759+3TSt0aj4datW7Rq1SrPNoqi4O/vr5OfJwxj5syZ7N+/H19fXzQaDXFxcXh4eODh4YGxsTHt27ene/futG3blrCwsGwJvzdv3kSj0aAoCoMGDTL0WxGiQLNmzWLWrFn4+fnh6enJ/v37CQsLAzIrm2/ZsoUtW7ZgZGRERkZGtm215+GtWrVi4sSJJR57Vu+88w4bNmzg1q1bXLp0iZ49e9K7d2969uyJg4MD1tbWatukpCQCAwM5dOgQv/32G7GxsQCYmJjofAz5JEaOHImTkxOfffYZwcHBZGRkEB4eDkD58uUZN24c48ePx8hIFmoXQgghhBBCCFG2SYK7EEIIIYQQQohSIS4ujqlTp3L8+PFcX1+3bh0NGjTAxcUFBwcHvvjiC+Li4oDMZL0uXbpQs2ZN4uLiuHz5MhcuXECj0RAREcHEiRNxd3eXG8BCCFEKnD9/Hsistj1hwoQcr1tYWDB69GicnZ1JTEzExMSEMWPG5NvnxIkT2bNnDwDe3t46T066evUqiqJgb2+fb+XeojAzM6N58+b8888/XL16VSd9FvTzYmNj1YrihVW9enU2b97MBx98gL+/P4mJiXz00Ue4urry6quv6ifYQnJzc1Mfu7i4FFip1cLCgg8++IAuXbowfPhw/v77b2bNmsXy5cv1FqOlpSWRkZFEREQUedupU6diZmaGq6sriqKwfft2EhMTWbJkiR4iLVtWrlzJZ599xrFjx3TSn6Io2SYp5Da5UpQdI0aMYMSIEYSHh+Pl5YWbm5s6aSE5OZljx47l+tnK+rno1atXgd9dQpQmVatWJTExkdTU1ByTsjQaDenp6Tm2sbW1Zfz48bz55pvqRHRDKV++PCtWrGDo0KHExMSQmprK7t272b17N5CZvG5mZkZSUhKJiYnq/qr9v6IozJ07l5o1axrsPWRlbW1N1apVCQ4OVv8eGo0GGxsbevfuXaLXNry9vYu1vfa6DYCPj0+u36EvvfRSsX6GECJT165d9dLvk5zLCCGEEEIIoQuS4C6EEEIIIYQQolT49NNPOX36dL5tgoODGTlyJFOnTsXPz09NNvzxxx+zVWSDzKqukyZN4v79+wQFBbF//3569eqlz7cghBCiEG7evImiKLRo0QJzc/Nc23To0AHITDZq3rw5lStXzrfPunXr0qhRI4KCgggICNB5zI8ePQKgRo0aOu1X29/Dhw912m9uatWqRUxMDEFBQUXe1srKik2bNjFmzBh8fX1JTk5mwoQJfP3113qItPC0kyVsbW1p3bp1obezs7NjyZIljBo1igMHDnD06FG9JevXq1ePhw8fcvHixSfa/uOPP8bU1JSvvvoKRVH466+/SExMzDHuEdlVqlSJH3/8kTNnzvDnn39y8eJFwsPDiY+Pz1GBuDAkof3ZdO/ePY4fP05QUFChJzjY2tqyYMEC2rVrVxIhCqETBw4c4PPPPycpKQnI/hmvWLEiL7zwAqmpqeoYS7s/hISEcOLECbp27VqkFWL0pWHDhmzcuJEpU6Zw48aNbO8jMTGRxMTEXLd77rnnmDdvHt26dSupUPN18OBBZs+eTXR0NIqiZEvCv3PnDm+//TYzZszQ++o/WsOGDSvySjS50Wg0DBs2LMfzsvKJELpz7969HMcNIYQQQgghnmaS4C6EEEIIIYQQwuCOHDnC6dOnURQFU1NTxo0bR5s2bahSpQrh4eEcO3aMP/74g8TERBISEli4cCEAxsbGrFixItckrxYtWvD9998zaNAgIPMmsSS4CyGE4cXExABQp06dPNtkrZ6ZX7usGjZsSFBQEJGRkcULMBfx8fEABSbaF5U2GSxrZUt9eeGFF7h27Rq3bt0iIiKC6tWrF2l7CwsL1q9fz7hx4zh79ixpaWlMmzaNunXr6inigkVERKAoCi+++GK257MmcqSkpGBsbJxj2/bt29OoUSOCg4P5888/9Zbg3rRpU7y9vYmJicHPz4+WLVsWuY+RI0diamqKs7MzAIcOHTJ4pdynhZOTE05OToYOQzyFNm/ejIuLS65Vnm1tbWnatCmpqamcOHGClJQU9bWQkBC+//57vv/+e51PihJCH27fvs1nn31GcnIykLniS+fOnenUqRPNmjWjQYMG6nfOjRs38PDwwM3NTU2i9PDw4NatW6xbtw4rKytDvhUAmjRpgru7O3v37mX37t1cvHiRhISEHO1MTU2xt7fnjTfeoG/fvnlOuixJSUlJuLi4sH37diDzuGNhYcG8efOwtrZm+vTpPHz4kMTERJydnTl+/DgLFy6kSpUqJRJf1gkDukqalQlkQuiHNsld9jEhhBBCCPG0kwR3IYQQQggDKe7yrnnJ7aZNaXHnzh3Cw8MBWXpWCJHdX3/9pT7+8ccfsx0j6tWrh5OTE++99x7Dhw/n4cOHaDQaFEWhR48e+S4h3rJlS5o2bYq/vz+XL1/W63sQQoinQWkYj2mrJ1eoUCHPNlkTkgubcKRNPtcmo+uSubk5MTExREdH67RfbbJ/SSRVtW3blj179gCwZ88eRo8eXeQ+TE1NWbt2LRMmTOD48eOkp6dz+/ZtXYdaaNq/9X8T6ipWrKg+jouLy7PaedOmTQkKCuLKlSt6i7F9+/Zs3LgRgF27dj1RgjvAwIEDMTExYdasWWRkZJCWlqbLMIUQWVy5cgUXFxf1+6pWrVr07t2bTp060bRpUywsLNS2cXFxHDhwgJ07d+Lj44OiKPj6+jJkyBA2btxY6ElaQhjKhg0bSE5ORlEUnJycWLJkSZ6T4OrXr8+ECRMYP348f/31F4sWLSI6Ohp/f39cXFwMvrKLlrGxMW+99RZvvfUWGo2G0NBQYmJiSEhIwNTUlMqVK2NjY1OqKhv7+/szdepUbt26pSakOjo6snTpUvU4smfPHr744gsOHz4MwOHDh+nbty9fffUVL7/8st5jzFoV+kmTZiXZVgj9MjExUScsTZ06lWrVqumk3+XLlxMWFqaTvoQQQgghhCgKSXAXQgghhDAQXS3v+jTZuHEjW7dulaVnhRA5XL58GUVRsLe3zzPhsl69esyePZtJkyapx89OnToV2Hfjxo3x9/fn4cOHOo1ZCCGeRqVhPKZNFtd11XJtwq8+KltbumDh2AAAIABJREFUW1sTExOj85v62v5KovJmhw4d1Mfbtm3jgw8+eKLzEWNjY1avXs2UKVPw8vLSZYhFZmJiQnx8fI5k76yV9kNDQ/NMcNcmWUVEROgtxnbt2mFqakpSUhJ79uxh8uTJecZTkH79+mFqasrUqVNJS0uTJDEh9OTXX38lIyMDRVHo06cPX375Jaamprm2tbCwUBNpz58/z4wZMwgJCSE0NJTFixezatWqEo5eiKI5ffo0kDnWWb58ubq6TH6MjIzo27cvjRs3ZsCAAaSkpHDmzBl9h/pEFEXBxsYGGxsbQ4eSp59//hlXV1f1u71cuXKMGzeOTz75BCMjI7VdlSpVWL16Nb///jtLliwhKSmJBw8eMGbMGIYNG8bUqVNzXbWmuIyMjNQxx5tvvsnMmTOLNJYZOHAgFy5cQFEUrl69qvP4hBD/atKkCX5+fiiKQv369enatatO+t24caMkuAshhBBCCIOQBHchhBBCCFGiJAlDCJGbBw8eAJlJ7Pnp3r07VatWJTIyEkVReOGFFwrsW5voqK1gJIQQzzpDj8dq1qxJdHQ0d+/eLbBtUWLVVlcvTGJWUdna2nLz5k2uXLlCbGysTn5GbGysOsHL1tZWB1Hmz8bGhubNm3Pp0iXu3LnD7t276d+//xP1Vb58eb7//ntmzZqFu7u7jiMtvFq1ahEcHExUVFS25+3s7NTHfn5+2Nvb57p9cHCwPsMDMqved+3aFS8vL9LT01m3bh3Tpk174v5ef/11Vq1axcSJE0lKStJhpEIILe2Ke7Vq1WLRokWFThht3bo1GzdupG/fvsTFxeHn56fPMJ96N27cyPc75MaNG+rjon7XPOn327Po/v37KIpC69atizy+ady4MZ06deLgwYM8evRITxGWfd98841aHb127dosXbqU1q1b59l+0KBBtG3bls8++wx/f38yMjLYtGkTZ86cYffu3TqPb/v27cyePZurV6/y119/ceLECaZNm8Y777yj858lhCie5s2bq+OPS5cu6SzBXQghhBBCCEORBHchhBBCCAMydHKREEKUFikpKUBmwlx+jIyMaN68OUePHgUyk04KEhoaCmRWDBZCCGF4zz//PNeuXcuWuJabY8eOAWBmZlaofoODg1EUhTp16hQ7xv9q3749x44dIz09HTc3N4YPH17sPt3c3EhPT0dRlGzV1fXpyy+/5ObNmwA899xzxerLyMiIr776CgcHB4Mltb3wwgsEBQWp70nLwcFBrU7/xx9/MGjQoBxjjL///ht/f38URaFu3bp6jfObb77RaX+dOnXiyJEjJCQk6LRfIXTB3d2dI0eO5Pm6djISUKSkK0VROHjwYLFiK6wHDx6gKAqOjo5FroZcu3ZtOnbsyL59+7K9V5HT6dOn1erhedEey2fOnFmkviXBvfC0FcKf9HzZwsICgAoVKugspmeRRqOhd+/ezJ8/X/2d5qd+/fr88ccfLFu2jA0bNpCRkUFgYKBeYmvWrBk7duxg3bp1rFq1iqioKGbPno27uztffvllgYUKhBAlp3nz5urjS5cuGTASIYQQQgghdEMS3IUQQgghDCQgIMDQIQghRKlhZWVFZGRkoY6N1apVUx+bmprm2zY6OhofH58SSV4TQghROC+88AJeXl7ExsZy/fp1GjRokGu7GjVqFLrPR48ecefOHbV/XevcuTNLliwBYM2aNfTp0wdra+sn7u/Ro0f88MMP2fovCS+++CIvvviiTvscMmSITvsrijZt2rB3715u3rxJVFQUVlZWQOYEuNatW+Pj40NwcDDjx49n8uTJNGrUiKSkJA4dOsRXX32l9vPaa68Z6i08sSpVqlClShVDhyFEDvHx8cTHx+fbRpu0rJ2IWhCNRqNuUxIqVqxIamqqmvhbVNoVpCpWrKjLsMqcwhR90P7di1IgoiQ/K2WBjY0NQUFB/PPPP0XeNiMjg3PnzgFQtWpVXYf2zDA3N2fevHn07du3SNtVqFCBzz//nI4dOzJ9+nR1ZTx9KFeuHGPHjuX1119nzpw5eHt74+PjQ79+/Rg7diwfffSRTHIQohTImuB++fJlA0YihBBCCCGEbkiCuxBCCCGEEEIIg2vYsCEPHz7k6tWr/P3337zyyit5tv3iiy+YOnUqUHDF9+XLl5OSkoKiKLRv316nMQshhHgyLVq0UB///fffeSa4F8X+/fvJyMhAURRatmxZ7P7+q169enTv3h0vLy+ioqL48MMP2bRpU6EqbP5XXFwcY8aM4dGjRyiKQvfu3aXy5RPq3LkziqKg0Wg4evRotoq9U6dOVZPvT5w4wYkTJ3Lto0qVKowYMaJE4hVPvzlz5nD79m0URWHjxo2GDqfUKSur1NWtWxd/f3/OnTtHenq6mrBeGMnJyZw+fRpFUbJNzBX/ql27tqFDEFl07NiRoKAg7ty5w8qVK5kwYUKht3V1dSU0NFRd8eBpZsjju7u7e7Em5Ldv354///yTuXPn6jCq3NnZ2fHrr7/yxx9/8M033xAbG8uqVavYu3cv8+fPp23btnqPQQiRt3r16mFubk58fDwxMTGEhITopOCHvb09lSpV0kGEQgghhBBCFI0kuAshhBBCCCGEMLjXXnuNM2fOADBp0iSmTZtG//79MTExydHW1NS0wMrtAOvXr2fLli1A5rLpQ4cO1W3QQgghnoijo6N6TNbFTfKMjAw2bdqk/vvll18udp+5mTRpEseOHSMlJQV/f3/69OnD/Pnzi1R9/dixYzg7O3P//n0AjI2NmTRpkl7ifRbUrl2bkSNHEh4ezqNHj7K95ujoyIIFC3B2diYtLS3X7a2trVm9enWxqvGLZ8ulS5cICAiQCtG5WLx4saFD0JkuXbrg7+9PREQEzs7OODs7FyrJXaPR4OzsTGRkJIqi0K5duxKI9ulz+PBhQ4cgsnj//ffZunUrycnJrFq1Cl9fX8aOHZvv5/f27du4urqyb98+9bl+/fqVRLh6Y8jjuy6ST62srFi+fLkOoimcgQMH8tprrzF//nwOHTrEzZs3GTFiBP3792f69OnqqjpCf1JTU7l8+TL37t0jOjqauLg4LCwssLS0xMbGBnt7e4NX1Q8PD6dnz54kJSVhZGTE2rVr6dChQ5H7OXnyJGPGjEGj0WBubo6Xl5eM3/OxceNGEhISAHS2Ly5cuFAn/QghhBBCCFFUiqaslNQQQgghhBCl3oIFC9iyZQuKonD16lVDhyOEKEWSkpLo1auXmvAHmdXZ7ezssLKyKvJN5vj4ePz9/dFoNGr1xPyq40oVTiHEs6Isjsfi4uLUSVLGxsZ06tRJbz9r7969TJ06Va0arigKdnZ29O7dGwcHBxo1akSlSpXUqnmxsbEEBwdz4cIFPDw8uHnzplrhWFEUli5dSp8+ffQWb0nw9vZWP0vDhw83cDQ5Xb9+nQ0bNnDmzBkiIiIwMjKiTp06dOnShREjRpTa5JhNmzZx8OBBGaOUMv3791cTIMvKMVTk9PjxY3r27ElMTAwA9evXZ/To0XTv3j3XiVkZGRmcOXOGFStW4Ofnp34//PHHHzg4OJR0+EIU2ZYtW1iwYEG2825ra2vs7e2pU6cOpqamJCUlERkZybVr17h58ybw76oNr7/+eokmV+uDHN+fnKenJwsXLuThw4coioKVlRXTp09XV9YZOHAgFy5ckN+tDmg0Gvbv389vv/2Gn58fKSkpebY1NjbG0dGRwYMH8/rrrxtk8sasWbPYtWsXiqIwceJEPv744yfua82aNbi6uqIoCkOHDmX27Nk6jFQIIYQQQghRWkmCuxBCCCGEKDFlMaFKCKE7165dY+zYsYSHh6vPlcQNOG0CihyXhBDPAhmPFd/WrVtxcXEhPT09W7J6QbJehi1fvjwzZ84sFauLzJo1ix49etC+fXuMjY2LvL18pvRDfq+lkyRAPjv279/P//73v2zH7nLlymFnZ5cj4ff69etqpVRt+yFDhjB37lyDxC7Ek1i9ejUrV64kIyNDfS6v8U3W/aJbt2589913TzSGKE3k+F48sbGxLF68mF27dgGZnx0nJyecnZ35/PPPJcFdB3x8fJg5cyZ3794FyPc85L+v2dra4uLiQuvWrUsoWoiJieGVV14hNTWVOnXq4OnpWajVUPKSlpZGz549uXv3Lqamppw6dapQqzsKIYQQQgghnm5Ghg5ACCGEEEI8mZSUFB48eJBvpZbSplOnTkyYMIFPPvnE0KEIIUqhxo0bs2fPHj7++GPq1KkDZN6U0/d/QgjxLJHxWPENGTKEzZs3Y2trm+35wn7XPP/88/z666+lIrkdYNeuXYwbNw4nJycmT56Mh4cH8fHxhdo2LS2NCxcuAJlJ+0IIUVb06NEDFxcXKlasqB7H09LSuH79OseOHcPT05OjR49y6dIl4uPj1eO9oiiMGDGCOXPmGPgdgIuLC9evXzd0GOIpMX78eDZs2MBLL72kPpffuMbBwQFXV1dWrlz51Ce3i+KrVKkSLi4u/PLLL9ja2qLRaDhz5gx9+/blxo0bhg7vqbd27VpGjhzJ3bt3c5xbFHTuodFouH37NiNGjGDt2rUlFvP+/fvV+xYfffRRsZLbIfNc46OPPgIyV4H08vIqdoxCCCGEEEKI0k8quAshhBBClBK+vr74+/sTHx9PnTp16NixY65LX3t4eLB+/XquXr2qVlWysbGhR48efPjhh1SpUqWkQxdCCL149OgRERERxMXFZasipy9t27bV+88QQghRdmg0Gvbv38/vv/+Or68vycnJebY1NjbG0dGRwYMH06NHjxJZoaSwmjVrRnp6OvBvlccKFSrg5ORE9+7d6dq1K9bW1tm20Wg0XLp0iWXLlnHmzBkAHB0d2bp1a8kGrwOxsbFs3LiRCRMmGDqUbKSCe/G4u7vrpV9XV1fCwsLk7/IMuXnzJj/99BP79u0jKSkpz3YVK1akS5cujBo1CgcHhxKMMG9NmjRBURRatGjBe++9R69evaTarSiUsLAw/Pz8uH79OtHR0SQmJmJiYoKlpSUNGjSgRYsW2NjYGCS2sn58T0xMZPfu3Zw6dYqAgAAeP36sTqIpiKIo+Pv7l0CU+UtOTub7779n06ZNpKenoyiKrJxXDL/++iuLFi0CUH+XdevWpXfv3rRo0YJGjRphaWmJmZkZCQkJREdHExQUxIULF9i7dy8hISHZ/gZffPEF77//vt7jnjFjBu7u7pQvX56TJ09iaWlZ7D6jo6Pp0KEDGRkZvP322+rvRQghhBBCCFF2SYK7EEIIIYSBBQQEMH36dAIDA7M9b2pqysyZMxkwYID63Jw5c9ixYwdAjhsbiqJgaWnJ6tWradWqlf4DF0IIIYQQopjCw8PZunUrp0+fJiQkhLi4OCpVqkSdOnVo3749Q4YMoUaNGoYOs0ApKSlcunSJe/fuER0dTXx8PObm5lhaWmJjY0Pz5s1LbXXTqKgoDhw4gKenJ2fPniUtLQ34N9ndyMgIR0dH2rZtS1hYGNeuXePGjRtqQr9Go6F8+fJs2LCBNm3aGOx9FFVUVBS//PILW7ZsIT4+vtQlXEmCe/FoE3v1QZL0dO/evXv4+Pjw4MEDjI2NqV27Nk5OTlhYWBg6NFVKSgoBAQHZEn5NTU2pXLkyDRs2pHHjxlSsWNHQYWbz3/3AzMyMPn368O6779K8eXMDRlZ4MTExxMXFFaqtlZUVZmZmeo5IGFpZPr7v27cPZ2dnYmJi1HiKorR9N12+fJnZs2cTEBAAlL74ngbnz59n2LBhamX2mjVrMnv2bLp161boPg4cOMCiRYsIDw9Ho9FgZGTE5s2b9X7/4M033yQoKAgHBwe2bdums34HDBjApUuXaNKkid4mvBRWamoqCQkJJCUlYWJigpmZGRUqVDBoTFmVlXNtIYQQQgjxbJMEdyGEEEIIAwoMDGTYsGHExMTketPCyMiIZcuW0aNHD3755ReWLFmiVlz5L+3z5ubm7Ny5Ezs7uxJ4B0IIIQorLCyMWrVqPfH2S5cuZfv27SiKwtmzZ3UYmRBCGMb27dtZuHChunR91jGuNnHJ2NiYmTNnMmjQIIPE+KwJCAhg7ty5XLx4Mdt5R9ZEsv+ei9jY2DB79mxee+21Eo31ST169Ih169bx22+/kZiYaPBktrxIgnvxaBMgdX37Q6rQ5k+bgAeZ1zMKEhERgbOzM0eOHMnxWvny5RkyZAiTJ0+WquNPaObMmXh6epKYmKg+pz2eN27cmPfee4++ffsabCLBxo0b1di6d+9OgwYNcrRZsGBBoVcHcXJy4pdfftFpjKL0KavH9z///JPp06cDuY+Jcyt0kltb+W4qW9577z11XN6yZUvWrl37RMfsuLg4PvzwQ/z8/ABo0aIFf/zxh67DzaZ9+/ZERUXRvXt3li9frrN+J06ciJeXF9bW1pw6dUpn/RYkKiqKw4cPc+bMGa5fv86NGzdyXdnFxMSE+vXr06BBA5ycnHjttdcMsuKunGsLIYQQQoiyoryhAxBCCCGEeFZpNBpmzJhBdHS0elHR1tYWa2trbt26RVRUFBkZGcydO5e2bduyZs0aFEWhUqVKjBo1ipdffpnKlSvz4MEDDh8+zNatW0lJSSE+Ph5nZ2c2bNhg2DcoSp2UlBSio6OxtLQstRVEcxMeHs6VK1dISEigUqVK1K1bl/r16xs6LCGKrEuXLjRr1oxu3brlmcCRn0ePHhETE6O3anVCiOxSU1O5desWN27cIDo6OkdlNktLS+rXr4+dnV2pqtL2tHB3d2fOnDkAuSYpaROMkpOTmT9/PiYmJvTv398QoT4TkpKScHFxYdeuXaSnp+f4rsktIQKgbt26rFq1ikaNGpVYrAAPHjzA29ubiIgIUlJSqFq1Ki1btsz3u/XRo0f8+OOPbNu2jaSkJPUzBpmJKKJsUhSFmjVr6mz8FBERoa5yILJLT0+nffv2xMbGUq5cOTw9PalTp06e7cPCwhg4cCAPHjzIMZlGo9GQmprKpk2buHz5MuvWrZP99AksXryY2bNns2fPHnbs2MHly5fV3/W1a9dYsGABX3/9NT179uTdd98t0VU4jh07xuLFi1EUhRdeeIEPP/wwz7aFTWQ+c+YMR44ceWomXIniKUvH98ePHzNv3jx1VZzJkyfz9ttvs2rVKnWyW0BAAPHx8YSGhuLt7c22bdsICAjAzMyMBQsW0Lt3b4PELvTn3LlzanJ7nTp1WLdu3ROvUmFhYcH69evp168fISEhXLx4kXPnztG2bVsdR/2v2NhYAJ0nd1tZWWXrX99CQkJwdXXF09OT9PR09fm8vpsSExPx9/fH39+fPXv2UK5cOXr27MmkSZOoW7duicQs59pCCCGEEKIskQR3IYQQQggDOX78OP7+/iiKgpWVFStWrFBvJqanp7N69WpWrVpFTEwMc+bMISYmhho1arB58+ZsF0Pt7Ox46aWX6NOnDyNHjiQ2NpazZ88SEBBAkyZNSuz9REdHExoaSnp6OrVq1aJq1apF7uP48eNcvHgRgAkTJug6xDLH19cXf39/4uPjqVOnDh07dqRSpUo52nl4eLB+/XquXr1KRkYGkFlps0ePHnz44YcGqSJTGPfv38fZ2Znjx4/nuBBftWpVBg0axOjRo6Wan3hqaDQarly5wpUrV3B1dcXOzo7u3bvTrVs3HBwc8t329OnTeHp6oijKEx1fRe40Gg0HDx7k+PHjXL9+ncePH2Nqakr16tVp164dPXv2LFbVffH0iYqKYvfu3Rw8eBBfX99sN7DzUq5cORwdHenWrRv9+vVTb7gbwtMyHouLi2PhwoXAvzfcmzRpgqOjI5UrVyYmJoZ//vmHa9euqa8vXLiQbt26GazKbFmm0Wj46KOPOHfuXLYxV+3atbG3t+fFF1+kadOmpKam4uHhwZEjR0hMTERRFEJCQnjrrbdYuHBhiSRFhISE4OLiwtGjR3N9vVWrVixatCjbalZpaWn8+OOPrF+/noSEhByJ7UOGDGH06NF6j12UrNq1axMaGoqiKKxYsQJ7e3ud9Nu/f38CAgJ00ldZ4+vrS0xMDACvvPJKvsntAFOmTCEiIgJFUdRjfW4JWP/88w/ff/89M2bM0FvsZZm5uTmDBg1i0KBBBAQEsG3bNv766y/1b5WUlMTu3bvZvXs3dnZ2DBgwgP79+2Ntba3XuH744Qf18cKFCylfPv/blYWt2L1+/XpJcM/DypUrAXBwcKBTp04GjubJlcXj+x9//KGOraZMmcIHH3yQaztzc3MaNWpEo0aNGDx4MGvXruW7777js88+IyEhgQEDBpRw5EKfso53Z82a9cTJ7VpmZmbMnDmT8ePHA3DkyBG9JribmZkRGxtLXFycTvuNj48HSmaC6u7du5kzZw6pqalFWjUia9u0tDT27t2Ll5cXCxYsoF+/fvoIVSXn2kIIIYQQoqyRBHchhBBCCAPx9PRUHy9atChbpaxy5crx6aefEhAQwKFDhzh06BCKojBnzpw8K300a9aMyZMns2DBAgD27dtXIgnuJ06cYNWqVVy8eDHbxduGDRvy/vvv8+6771KuXLlC9XXs2DG1MpEkuOctICCA6dOnExgYmO15U1NTZs6cme2G1pw5c9ixYweQ/eL63bt3Wb9+PTt37mT16tW0atWqRGK/d+8eJ06c4Pbt28THx1OlShVq1qzJK6+8ku2zHR4ezqBBgwgPD8/1BsLDhw9ZtWoVXl5erFu3jueee65E4hf6NXPmTAA6dOjAm2++aeBodG/48OF4eXlx//59AG7evMnatWtZu3YtNWrUoFu3bnTr1o2XXnqJ+/fvExgYSGBgID4+Ppw8eVLdF/R9M+xpFh4eDmTe+C/oxpyvry9ffPEFN2/ezPHa1atXOXbsGMuWLWPUqFFMnjxZKueXcRkZGfzwww+sX79evWFe2BvYaWlp+Pj44OPjw4oVKxg9ejQfffQRRkZG+gw5m6dtPObu7k5cXJy6OtHSpUvp3LlzjnZHjx7l888/JyYmhvj4eNzd3Xn//ff1EpO+LFiwgK1bt6IoCv7+/oYOJ1dubm6cPXsWRVEoV64cw4cP59133821Gnq3bt1ISkrir7/+YsOGDQQHB5OWlsasWbMwNjbmjTfe0FucwcHBjBgxgkePHuWo9gyZ++z58+cZPnw4mzZtws7Ojrt376rnVVkT283MzBg6dCijRo0qtZM9RfE0b96c0NBQAC5duqSzBEiRt3/++QfI3C8LGstrJ5Jp98lq1aoxY8YMOnbsSMWKFbl69SorVqxQx8CbN2/mww8/pFq1ajqNuayff/xXkyZNmDt3LjNmzGDfvn3s2LEDb29v9Zh669Ytli5dyrJly+jatSvvvvsur7zyis7jCAsLU//+7du3p3nz5oXa7tChQ3m+NnfuXE6ePMn58+e5e/dugRMsnkUrV65EURSGDh2ab4K7t7c3V69eBTLPYUubsnh8P336NJBZZXvYsGGF2kZRFMaOHUtiYiJr1qxh0aJFtGvXDltbW32Gmqfbt2/z8OFDddxuYWGBpaUl1apVK7Gq1WWNt7c3ANbW1rz66qs66fPVV1+latWqPHr0CB8fH530mZcqVaoQGxurXqfRFW1/+h7Du7m5MWvWLODfawPPP/887dq1o2nTptSqVYvnnnuOihUrYmxsTEpKCsnJyTx48ICwsDD8/f05d+4ct27dQqPRkJKSwowZM9BoNHqdGPwsnWsLIYQQQohngyS4CyGEEEIYyOXLlwGoUaMGXbp0ybXNwIEDOXToEBqNhurVq9OtW7d8+3znnXf45ptvSEpKUvvXp2XLlvHTTz8BOZPAgoODcXZ2ZvPmzXz33Xc0atRI7/E8CwIDAxkxYgQxMTE5fucJCQnMmzePypUr06NHD3755Re2b9+eb6WzqKgoxowZw86dO7NVutS1tLQ0XFxc2LZtW57VcDt06ICzszN169Zl3rx5ahKwkZERrVq1ombNmsTFxXHlyhV1GfvAwECmTJnCr7/+qrfYRclxc3NDURTMzc3zTTA5cOAAPj4+KIryVFVynDVrFrNmzcLPzw9PT0/2799PWFgYkLliwZYtW9iyZQtGRkbqagta2n24VatWTJw4scRjf1p07txZTdqYPXt2nu2OHDnC5MmTSUlJyfP4qCgKKSkp/PTTT1y/fl2teCjKnvj4eCZNmpRtIklW1tbWVKtWDRMTE/XGdVJSEg8fPuTRo0fAv/toXFwcy5cv5/z587i6umJubq73+J/G8dipU6fUxy4uLrnecIfMBAwXFxc10f7UqVNP5U33olT7M4Q///xTfezq6lrgOYeJiQnvvvsu/fv358svv2Tbtm1kZGTw888/6y3BXaPR8NlnnxEZGZkjqf2/IiIiWLBgAV999RXDhg1Tx5SQOQHq/fffZ9SoUVhaWuolVl2ZM2cOc+bMMXQYTy17e3v2798PZCZADh482MARlX1XrlwBMifsF5SIl3UStqmpKb/++mu289GWLVuydu1axowZw8mTJ0lPT2fv3r2MGDFCpzGX9fOPvBgbG9OvXz/69evH7du32bZtG7t37+bhw4cApKamsn//fvbv30+tWrV4++23800YL2qiXtZE9aFDhxZ6OxsbmzxfGzt2rDqWO3r06FM5XigtPD091cmOpTHBvSwe369fv46iKLRo0YIKFSrk2iY9PT3XCasff/wxW7duJSYmhp07d/K///1P3+ECmcfvffv2sXfvX</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAA4QAAAOECAYAAAD5Tv87AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdeVzVVf7H8TdcZBUUcAEXELfMbMwNrdTQVjPTGmdqTEdHTc20dEZzKaff1ExTWjlmaWVNNpVjY6m4tC+uuWumorkhCogsomwKXC6/P8xSg7vIXeB+X8/Hw4c9/J57zgc92vfN+X7P8SkvLy8XAAAAAMBwfD1dAAAAAADAMwiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoPw8XQCqn/Ly8st+AAAAAFfy8fG57AdqJgKhwZWWlqqgoEAlJSU//ygtLSUIAgAAwG61atWSv7//zz8HBQUpKCiIoFgD+JRz5284ZrNZeXl5ysvL07lz5zxdDgAAALyQn5+fateurdDQUIWEhBAOqykCoYFYLBadPn1a2dnZl60AXng0VJIu/iwxKwAAAGCPiznvws8+8vHRr8JfYGCgGjZsqODgYLfXB+sIhAZRWFiojIwMlZSUSLr0PUHCHwAAAJzvYjD09f0lHIaGhqphw4aqVauWByvDpQiEBpCXl6e0tDRJ+ikAWmSx/HLd19dXgYGB8vOr9dMPP/n6mn76zg5L+wAAAKjIhQUGi8Uis9mssrJSmc1mlZQUq7S09OdWVwbDWrVqKSYmRv7+/p4qHJcgEHq5y8NguSyWC6uCPj5SUFCIgoNDFBDAC78AAABwHrO5VOfOFamwMF9ms1nShftPX98LO5KaTCbFxsYqICDAw5WCQOjFCgsLdfz4cUmSxXIhDEqSv7+/6taNlL8/fwEBAADgOuXl5SoszFde3hlZLJZfhcK4uDgeH/UwDqb3UhaLRRkZGZJ+WRmUpNq1Q1W/fjRhEAAAAC7n4+Oj2rXD1LBhY/n7+6u8XD89sVausrIyZWRkcNyZhxEIvdTp06dVUlLy81866UIYrFMngsdDAQAA4FYmk0n16kUpICDgsvvTgoIC5efne7g6YyMQeiGz2azs7GxJFzaQKS+/8JgoYRAAAACe4uvrq8jIBjKZTJeFwoyMDFku3fEQbkUg9EJ5eXk/HythsVx4gbdu3UjCIAAAADzK19ekunUjJF3+6CirhJ5DIPRCeXl5kvTz89hBQSG8MwgAAIBqITAwWAEBgZJ+OQ/74v0r3I9A6GVKS0t17tw5Sb/8BQsODvFgRQAAAMAvfHx8FBJSW9IvCxgFBQUqKyvzZFmGRSD0MgUFBZL00yOjF57VDggI8nBVAAAAwC8CA4Pl4+Oj8vLLQyHcj0DoZUpKSiT9sjoYGBjIu4MAAACoVi4sWlz+2GhxcbEHKzIuAqGXuRgIpQt/s/z8OOgTAAAA1c8vB9JfuG/95T4W7kQg9DJXrhASCAEAAFAdXbxPvXjfSiD0DAKhFykvL1dpaellv+bn5+ehagAAAIDKXblwUVJS8vP7hHAfAqEXuXj24IX/vvBrvr4mD1YEAAAAVMxkuvw+9dJ7WbgPgdCLVPQXiA1lAAAAUB1dvE+99BaWQOh+BEIvUvFfIAIhAAAAqqNf36cSCN2PQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABkUgBAAAAACDIhACAAAAgEERCAEAAADAoAiEAAAAAGBQBEIAAAAAMCgCIQAAAAAYFIEQAAAAAAyKQAgAAAAABuXn6QLg3SwWi06fzvF0GYBbREREyteX77MBAICag0AIlzp9OketW8d5ugzALQ4eTFa9evU9XUaNM2BAX2VknHTpGL6+vvL19ZXJ5KeAAH8FBgYpKChIdevWVXh4hKKiotW0aYxatWqta65po4CAAJfUYetrXbp0lRo1auSSsQHUHJMmTdCGDesu+7UOHTpp/vwFHqoI3oxACADwehaLRRaLRWazWcXF55WXlydJSkn5dVuTyU9t216nhIRe6t37NkVHE9AAuM+WLZt/FQYBV+LZJgAALlFWZtaePbs1d+6/NHBgf02bNlk//njA02UBMICioiK9+OLzni4DBkMgBACgEmVlZfr226/1pz8N1syZ/1RRUZGnSwLgxWbOfE4nThz3dBkwGB4Zhds9kfhfhdSt4+kygCopPHNWM/v/wdNlwE0sFouWLl2iXbt26IUXXlZMTIynSwLgZT7+eIk+++wTT5cBAyIQwu1C6tZR7YhwT5cBAA5LTj6q0aOH6/XX31JsbDNPlwPAS6xbt0YvvzzT02XAoHhkFAAAB+Tmnta4cWOUk8OROgCq7vvvd2rGjOkqKyvzdCkwKAIhAAAOysrK1LPP/lXl5eWeLgVADbZly2ZNmDBOxcXnPV0KDIxHRgEA1Zqzzt4qKytTWVmZzGazzp0rUmFhkU6fztGpUxk6ePBHrV37jVJTU+3ub/PmTVq1KlH9+g2ocm0AjGf9+rV68skpKikp8XQpMDgCIQDAEEwmk0wmk/z9/RUcHKzISP28Ocydd/bR+PETtGXLJr3yymwdOXLYrj7feGOebrvtTgUFBbmydABe5r//fV+vvjqHx0RRLfDIKAAAP+na9Ua9++4H6t//PrvaZ2dnKzFxqYurAuAtSktL9Y9//E1z5rxMGES1QSAEAOASfn61NG3aDA0c+Hu72n/88RLeJQRg07FjyRo5cqhWrkz0dCnAZQiEAABUYOLEyWrf/gab7U6cOK49e35wQ0UAaqqlSz/SsGEP6ccfD3i6FOBXCIQAAFTAZDLpiSemy2Sy/br9pk0b3VARgJomOfmoxo4dpZkzn9P58+wkiuqJQAgAQCVatGip7t172Gy3ffs2N1QDoKYoLCzU3Ln/0pAhD2rnzu12faZevXourgqoGIEQAAAr+va912ab5OQjbqgEQHV3/vw5vf/+u/rtb/vpgw/+I7PZbNfnevW6VU8++bSLqwMqxrETAABYccMNHeTj42N145iCggLl5GQrMpLv8ANGtWfPbk2ZMkmnT+fY/RlfX18NH/6wRowYpZ07d7iwOqByBEIAAKwICwtTw4YNlZGRYbXd2bNnq30gPH36tA4cSNKBA/uVknJMmZmnlJmZqcLCAhUXF6u4uPinsxoDFBgYqIiICNWrV1+NGzdW69ZtdO21bdWqVWuP1X/mTK6SkvZp7949Skrap5ycbOXn5ykvL1/FxecVEBCggIAA1a0brqioaDVu3Fht2rTVdde1U1xcc4/Vbcvx4yn68ccDSk4+qtzcXBUWFsrHRwoJqa3Q0FDFxTVXy5at1KJFS/n4+FR5vJycHCUl7dWRI4eVnZ2lgoICSVKdOnVUp05d1a9fX+3bd/z5nE5PqklzNiUlxaEwWL9+fT311N/UtWs3F1YF2EYgBADAhrCwujYDYVFRoZuqcUxKyjF98cVn2rBhnV07HFosFpWWlqqw8MKq56FDBy+73rBhlHr2TND99w90S8gqLCzUp5+u1ueff6q9e3+wulJbVFSkoqIi5ebmKjn56GXXoqKilZDQW3379nNqQHjmmaf1yScrK7w2ZMgwPfroYxVeO3UqQ0uWfKg1a75WamqqXWPVr99AvXrdqgce+IMaN27iUJ3nz5/XqlUr7Pp9/GW8+urRI0GDB/9RjRo1dmi8qqjpc9Yed9xxlyZNmqqwsDBPlwIQCAEAsCUgwN9mG4ulep1FuH37Vr333kJt3brFqeckXggyi7VkyWLdfHN3jRs3wSU32cXFxXr//Xe1aNH7KiwsqHJ/GRkntXjxB1q8+APFx3fTqFGPqF27651QqWNyc3M1b94r+vTT1Xa/X3ZRVlam/ve//+rjj5dowID7NG7cBAUFBVn9jMVi0Ucf/U///vebOnPmjIPjZWnp0iVKTFymPn3u1uOP/0WhoaEO9eGImj5n7dG4cRNNnjxV3brd5JHxgYoQCAEAsCE3N9dmG1s35u6SkXFSL788S+vWrXH5WBs3btDmzZs0cuRoDRs2wimPM0rS4cOHNH36Ezp+PMUp/V1p69bN2rZti+69d4AmTpyswMBAl4xzpS+//FyzZj2vvLyzVeqnrMysjz9eou3bt2nWrNmKiYmtsF16epqeemqakpL2Vnm8VatWaPfu7zVz5stOD1PeMGdtCQoK0pAhw/TQQ39UQECAW8YE7MUuowAA2HDmjO1AWKdOXTdUYt2WLZs1dOhDbrmxvqisrExvvDFPzz77tCwWS5X727p1ix5+eJjLwuBF5eXlSkxcpjFjRignJ9vlY73yymzNmDGtymHwUikpx/Too6OVlvbrR0537tyhP/1pSJXD4KVOnDiukSOHOfVwdW+Ys9aYTH7q3/8+LVmyXMOHP0wYRLVEIAQAwIoTJ47/vOlGZWrVqqX69eu7qaKKrV37rf785/E6e9axxwKd5ZNPVuntt9+sUh/79u3V5MkTde7cOSdVZduBA/s1ceJjKioqckn/5eXlev75v2vRovdc0n9WVqamTp0ks7n051/bsWObJk4c55K5UFhYoMmTJyo/P7/KfXnDnK2Mn5+f7r67nz788GNNmzZD9ep59t8HwBoeGQUAwIpNm76z2SYurrnbHj2ryJ49uzVjxjSVlZXZ/RlfX19FRzdSRESkgoODFBgYpKKiIhUWFig3N1cnT6Y7XMfChW8rIaH3VW3akp+fr+nTn1Bx8Xm7PxMREano6GgFBQUrODhYJSUlKiws0MmT6crOtn/V7+DBA5o9+0U9+eRfHa7blgULXldi4jKn93upQ4cO6t1339GIEaO0f3+SJk2aoOLiYpeNl5l5SvPmvaIpU5686j68Yc5WpG7duurbt58eeGCQGjRo6JQ+AVcjEAIAYMVnn31is81117l/c5KLzp07p7/9bYZKSkpstm3QoKFuv/1OJST0UqtW11h9d+7s2bM6cCBJ33zzlb788nO7VtDKysr05pvzNWvWbIe+Bkl6443XdOqU9Z1cTSaTbr31dvXufZs6depidYOTnJxsbdiwXomJS5WUtM/m+KtWJap///ucutHMjh3bdeBAUqXXQ0NDdeuttys+vpuuuaaNwsMj5OfnpzNncpWamqotW77T6tUr7Qq3ixd/oD597tG0aZMqXWEND49Q9+49ddNNNysurrnCwyMUEhKs/PwCHT16WBs3btDq1SvtWrFbsSJRQ4YMu6rdR71lzl7p5pt76M47+6hWrVpV7gtwJwIhAACV+OqrL+x6B6tbtxvdUE3FFi582+axBSaTSSNGjHJoQ4s6deqoa9cb1bXrjXrssT9rwYLX9eGHi2zu/rhx43plZp5yaHUkM/OUli9farVNy5at9PTTz9q9khMZWU/9+9+n/v3v0+rVK/Xyy7Os7lZaXl6u995bqBdeeMnuum2pbO4EB4foj38cpgcfHKTAwF9vRtSgQUM1aNBQHTt20tChIzR37r+0bNlHVsfKz8/X8OGDK9xJtHbt2ho8eGil44WHh6tTpy7q1KmLRox4WK++OkfLln1sdbyyMrMSE5fpkUfGWW1XEW+YsxUJDw+v0ucBT+EdQgAAKpCZmalXXrG9ahAUFKSuXT0TCM+ePaMlSxZbbVOrVi0999zMKm1oERISogkT/qI5c+bJ39/6ERwWi0Vr1nzrUP/Lly+1egRD69bXaP78t676sb6+fftp7tz5No9MWL9+rbKzs65qDHu1atVa7777gYYNG1FhOLtScHCwpkyZrvvv/53NthWFwdjYZnrnnfftHi8kpLamTHmy0vMTL/X111/YbHMlb5mzgDchEAIAcIW8vDxNmPCoMjNP2Wzbp889bju24ErLly+1+Vjc6NFjdcstvZwyXnx8V02aNNVmu+3btzrU79q1ld+M+/r66m9/+0eVz79r2/Y6TZs2w2obi8WidevWVmkca1q1aq158xaoadMYhz/72GMTFRUV5fB4b7317lWNN2TIMJvzJjU1Venpjr235y1zFvAmBEIAAC6xd+8PGj58iI4ePWKzrclk0oMPDnJDVRX75JNVVq9fe21bDRo0xKlj3nPPvTYDxrFjyXb3d+7cOSUnH630epcu8U47965379sUH9/NapvNm21vInQ1goNDNGvW7KsOtoGBgRo8eJhD4/3jHzOrFKTHjHnUZhtr70hWxBvmLOBtCIQAAMOzWCzavn2rpk6dpIcf/pNSU0/Y9bl77x1Q6aHgrnb48CGlpByz2mbYsBHy9XXu/+p9fX3Vp09fq20c2eEzPT3N6llwLVu2srsvewwc+IDV6/v3296A5mqMGfOooqKiq9RH7963yWQy2dV27NhxiolxfGXwUnFxzW2GcXu+cXKRt8xZwNuwqQwAwBDMZrPM5lLl5xfozJlcnTx5Uikpydq/P0k7d26v8P0rayIiIjV69FgXVWvbtm1brF5v1KixevZMcMnY7dr9xur1oqJCmc2l8vOzvduirTMe8/OtX3dUfHy8TCY/lZX98s5ieHi4GjduosaNm6hJkyZ2126v8PAI9e9/X5X7iYiIUIsWrXTwoPWD4UNDQ9W3771VHk+S2rW73uoKblZWpt19ecucBbwNgRAAUK3t2rVD3bp19HQZl/Hx8dH06TNUt67ndhUsL7/weF1aWqry8vJ+dT0hobfLzkaMjbW9KlpcXGzXzbWtDT92794li8XitFWjwMAgTZ06XSEhoWrS5EIIDAkJcUrflbnrrruvenOUKzVv3txmILz77nsUFGR7Axl7NG1q/c86NzfX7r68Zc4C3oZACACAg0aOHK3u3Xt6tIZBgwZr0KDBki5sgpOWlqrU1BNKS0tVWlqq7rjjLpeNXbt2bZttzp8vVkiI7XZ169a1ej0l5ZhWrFiuAQPut7s+W/r1G+C0vuzRvXsPp/XVpElTm21svSfpiIgI69/0KC4+b3df3jJnAW9DIAQAwAEDBz6gESNGebqMy4SFhSksrK2uvbatW8az56a5rKzMrr6ioxspNDRU+fn5lbZ5+eWZPx/iXtOYTCabjys6wp7VzLZt2zltvLCwOlavl5ZWflyI9X5r7pwFvA2bygAAYAeTyaRRo8Zq0qQpni6lRrBY7L+57tixs9XrJSUlevLJKZoy5S8O72rpaU2aNHXa46LShd1DrYmKinLqAem1all/hNLWoe81iSNzFvAmrBACAGBDixYtNW3aDLVrd72nS/G4zMxMrVu3xmY7R4LCnXfebfUswovWrv1Wa9d+q5iYWHXv3lM33XSzbrihQ7V+7ys2tplT+7O1y2hkZD2njmfrHc+awBVzFvAmBEIAACpxzTVtNHjwUN166+1O3wq/JigvL1dq6gklJe3TDz98r127dtp9zIAj99YJCb3UrFmc3WfBHT+eokWL3tOiRe8pODhYnTp1Udeu3RQff2OVj1pwNmcHNFuqcu5gxVyzyYuruGvOAt6EQAgAwE9MJj+1adNG8fHddMcddzntQPTqzmw26+TJdJ04cUInTqQoOfmojh49qsOHD6moqNDl4/v6+mrixEmaMGGcw6s0RUVFWr9+rdavXyvpwjuJ8fFd1a3bTYqP7+rxTUIiIiLcOp6nv1538fScBbwJgRAAYAh+fn7y9/dXrVr+CgkJUUREhMLDIxQVFa1mzeIUF9dcbdpcq+DgYE+X6hJmc6mSk5OVknJMx4+nKD09Tenp6UpPT1NWVqbHN9To2vVGDRkyTP/5zztV6ufkyXQlJi5TYuIymUx+at/+Bt18cw/16HGLR1YPnb9iZ11AQKBbx3Ol6j5nAW9BIAQAVGsdOnTS/PkLPF1GjbR/f5K+/PJz7dq1Q4cPH1JpaamnS7Jq7NjxKioq0kcffeiU/srKzNq5c7t27tyuuXNnq3nzFurd+zbdfvudTn+3rzLV+f3G6qimzVnAGxAIAQDwIufPn9OSJR9q9eqVdr+TV51MmjRFLVu21OzZLzl0xp09jh49oqNHj+itt95Q27btdP/9A3XXXXfLz891t0PesCmLq9X0OQvUdARCAAC8QHl5uT77bLXmzXtVWVmZLh0rMrKecnKyXdb/gAG/1Y033qzXX39NX3zxmUseDUxK2qukpL165523NH78BCUk9Hb6GJIMuRmRvbxpzgI1GYEQAIAaLicnRzNmTNPOndtdNkbDhlG68cablJDQW507x6t793iXjXVxvKefflajR4/VypXL9cknq3XyZLrTx0lLS9XUqZPUr19/TZkynUc83cQb5yxQUxEIAQCowdLT0zR27ChlZJx0Wp9+fn6Ki2uua6+9Ttdff73at+/oseMcoqKi9fDDj2jkyDHat2+Pvv32G61bt0YnThx36jgrVyYqJydHM2e+RCh0MW+fs0BNQyAEAKCGOnv2rMaNG3PVN9b+/v6KiYlVbGwzxcTEqlmzODVv3kLNmsWpVq3qFYp8fHzUrt1v1K7dbzR+/ASlpBzTpk0btXnzd9q1a5dT3jf87rsNmj37RU2ePM0JFaMiRpqzQE1BIAQAoIZ65pkZSk9Ps7t9y5at1LlzF7Vt205t2rRVkyZNruodt5KSEoc/42yxsc0UG9tMDz74kEpKSrRnz25t375N27dvVVJSksrKzFfV78cfL1GvXreqc2ceL3QFI89ZoLoiEAIAUAN99dUX2rhxg812JpNJ9903UA8+OEhNmjR1ytjFxcVO6cdZ/P391alTF3Xq1EWjR49VYWGhduzYpu++26CNGzc4vGHJq6/O0cKFH7ioWuNizgLVE4EQAIAaxmKxaMGC1222a9y4iZ5//kW1atXaqeMXFhY4tT9nCwkJUc+eCerZM0Hl5eXat2+PPv10tT777FO7aj9wYL8OHTro9N83I2POAtUXeyEDAFDDbN68SSkpx6y2CQ8P17/+9apLQs2pU6fsaFXu9HGvxsV3DydPnqbExNW655577frcd9/ZXsmC/ZizQPVFIAQAoIZZs+Ybm20mTZqqpk1ds8tienqqzTauODuwqmrXDtVTT/2ffv/7P9hse+DAfjdUZBzMWaD6IhACAFDD7N69y+r1hg2j1Lv3bS4bf9++vTbblJc7vtpSUlKiI0cO65tvvtK//71AO3fuuJrybBo/foLq129gtc2pUxkuGduovHXOAt6AdwgBAKhBzOZSpaaesNqmU6fO8vHxcVkN27ZttdnGntWW77/fqQ0b1uvYsWSlpBxTenraZZ/77W9/p44dO1Wp1orUqlVLvXrdqv/977+Vtiko4J0zZ/GmOQt4IwIhAAA1SF5evmFzH4EAACAASURBVM0bV1urX1WxZ89um++CSZLZbPvYh8OHD+v999+1MtYeR0pzSKNGjaxe50w75/GmOQt4Ix4ZBQCgBjGbS222OX/+nMvGnz//Nbva2XNz3alTZ6vXDx48oOTko3aN5yhbK4BhYXVcMq4RedOcBbwRgRAAgBokMDDIZpsTJ6w/nne1Vq1aoZ07t9vV1p5z3+Limis8PMJqm6VLP7JrPEcdPPij1evNmzd3ybhG5E1zFvBGBEIAAGqQsLAwBQcHW22zY8c2p5+7lpS0T7Nm/dPu9vbeXPfocYvV68uWfaTDhw/ZPa49cnKytWnTRqtt2rfv4NQxjczb5izgbQiEAADUMC1atLJ6vbi4WP/+91tOG+/773dpwoRHHbphtvcRwN/97gGr181ms5555q9ODQuzZj2v0tLKH2MMCgrSzTf3cNp48K45C3gbAiEAADVM585dbLZZvHiR1q1bW6VxLBaL/vvf9/X442OVl5fn0Gft3aWzVavW6tCho9U2Bw/+qAkTxis/P9+hGiry6qtzbJ6Jd/vtdykkJKTKY+EX3jRnAW9DIAQAoIa5884+NtuUlZn11FNTtGTJ4qs6X+277zZq5MhhmjPn5at6lO7s2bN2tx02bKTNNnv27NagQb/Thg3rHK5FknJycjRt2mSru5pKUkBAoIYPt10PHONtcxbwJhw7AQBADdOsWZy6d+9pMxyVlJTopZdmatWqFfrtb3+vm2/uocjIyArbms2lOnz4sDZsWKdvvvlKR48eqVKN2dlZdrft2rWb+vUboJUrl1ttl5WVqUmTJqhly1bq3/8+denSVbGxzSo9v66wsFD79+/T559/pq+//lJFRYU2axk69E+Kioq2u3bYx9vmLOBNCIQAANRA48Y9rq1bN6ukpMRm2x9/PKDnnntGkhQVFaUGDaIUGlpbvr4mFRYW6syZXB0/nmL3tvuxsc00aNAQ/fOfz1baxtYunleaMOHP2rp1s06dyrDZ9vDhQ3rppZmSpJCQ2mrcuIlCQ2srJKS2SkpKVFhYqNzcHKWlpTm00tSlS1cNGzbCobphP2+bs4C3IBACAFADNWsWp8cem6gXX3zBoc9lZGQoI8N26KpMjx636P/+71lJPnr++b9XGrj27PlBJSUl8vf3t6vfkJDamj17rh59dLRyc0/bXU9hYYEOHjxgd/vKtG7dRn//+z/l68vbNK7ibXMW8Bb8qwcAQA01cOAD+sMfBrtlrODgYE2d+qRmzZqtkJDaCgkJUaNGjSttX1x8Xnv27HZojObNW2jevDdVr169qpbrkA4dOmnevDdUp05dt45rRN42ZwFvwAoh3K7wDC9to+ZjHqO6ePzxP6t+/QaaP3+u1aMUquKWW3rp8cf//Kub6U6duigtLbXSz3355efq1Mn27pKXiotrrgULFurpp5/SDz98f1X12stk8tOIEaM0dOifZDKZXDoWfuFtcxao6QiEcLuZ/f/g6RIAwKsMGjRYHTt20v/931M6dizZaf127NhZI0aMUqdOnSu8fvfd92jFimWVfv7TT1dr9OhHFR4e7tC40dGN9Prrb2nlykS9/fabysw85dDnbfH19dVtt92hkSPHKCYmxql9wz7eNmeBmoxACACAF2jT5lotWrREGzeu14cf/lfbt2+9qn4iI+spIaGX+vUboDZtrrXa9oYbOuj669srKyuz0jZff/2lBg78vcN1+Pr6qn//+9S3bz99++3X+uyz1dq2batdG5JUJjq6ke6662717dtPTZo0vep+4BzeNmeBmsqn/GoOekG1ZDabdejQoZ/+2yJJio5u6tHHYLKzs9S6dZzHxgfc6eDBZNWrV9/TZQCSLvz7+8MPu7Vnzw86cGC/zpzJVUFBvvLy8mU2mxUQEKDatWurYcMoNW3aVNdcc63at2+v1q3bVNuNVc6fP6d9+/Zq3769OnYsWampqTp9Oltnz55VcXGxSktL5e/vr8DAIIWG1lajRk3UpElTXXNNG3Xs2ElNm7IaWJ1545yFdWVlZTp58oQkyc/vwp9hq1at5OfHmpU7EQi9CIEQ8CwCIQAA9iMQVg/8bsOlIiIidfCg894NAKqziIiKD08GAACorgiEcClfX19WTAAAAIBqigeuAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFAEQgAAAAAwKAIhAAAAABgUgRAAAAAADIpACAAAAAAGRSAEAAAAAIMiEAIAAACAQREIAQAAAMCgCIQAAAAAYFB+ni4A3s1isej06RxPlwG4RUREpHx9+T4bAACoOQiEcKnTp3PUunWcp8sA3OLgwWTVq1ff02UAAKqxkyfTdejQIaWnpyorK1N5efkqLi6WxVKmgIAABQUFq379+mrYMEqtWrVWs2ZxMplMni4bXoxACADwqAED+ioj46RLx/D19ZWvr69MJj8FBPgrMDBIQUFBqlu3rsLDIxQVFa2mTWPUqlVrXXNNGwUEBLikDltf69Klq9SoUSOXjA3AM8zmUq1fv07r1q3Rli2bHX5yKigoSJ06dVGPHrfottvuUEhIiIsqhVERCAEAXs9ischischsNqu4+Lzy8vIkSSkpv25rMvmpbdvrlJDQS71736boaAIaAMcVFORr8eJF+uijD3XmzJmr7ufcuXPasGGdNmxYpzlzXlLfvvdq2LARioyMdGK1MDJedgEA4BJlZWbt2bNbc+f+SwMH9te0aZP1448HPF0WgBqivLxcK1Ys1/3336u33nqjSmHwSkVFRVqyZLEGDrxXH3zwniwWi9P6hnGxQgi3S0qap3r1wjxdBlAl2dl5att2rKfLgIuVlZXp22+/1tq132rAgN9q3LjHFRwc7OmyAFRTBQX5evrpp7Rx43qXjnPu3DnNnTtbGzeu13PPvaC6dcNdOh68G4EQblevXpjq16/j6TIAwG4Wi0VLly7Rrl079MILLysmJsbTJQGoZjIzMzV+/BilpBxz25g7d27XyJFDNWfOPDVu3MRt48K78MgoAAB2Sk4+qtGjh7v1hg9A9Xf69GmNHTvSI/82pKamaty4McrMPOX2seEdWCEEAMABubmnNW7cGC1c+AGbOgCQ2VyqadMmKTU11a72QUFB6tw5Xl26dFW7dtcrPDxcdeuGy8dHys3N1enTp7Vnz25t27ZF27ZtVUlJic0+T55M16RJE7VgwTsu2yUZ3otACACAg7KyMvXss3/V7NmvysfHx9PlAPCgt99eoN27v7fZLigoSAMHPqDBg/+oOnXqVtgmOjpI0dGNdN117fTggw8pM/OU3n3331qxYrlKS0ut9n/w4AH9618vasqUJ6/q64BxEQgBANVahw6dNH/+gir3U1ZWprKyMpnNZp07V6TCwiKdPp2jU6cydPDgj1q79hu7v8MvSZs3b9KqVYnq129AlWsDUDMlJx/Ve+8ttNmuefMWmjnzZTVp0tSh/hs0aKjJk6epT5++mjZtsrKysqy2X758qe68827dcEMHh8aBsfEOIQDAEEwmk/z9/RUcHKzIyHqKiYnRDTd00J139tH48RP00UcrNGfOa2rRoqXdfb7xxjydO3fOhVUDqM7efHO+zGaz1TadO8drwYKFDofBS7Vr9xstXLhIMTGxVtuVl5frtdfmXPU4MCYCIQAAP+na9Ua9++4H6t//PrvaZ2dnKzFxqYurAlAdHT+eojVrvrHaplGjxnruuZkKCQmp8niRkZF66aU5lT5uetGePT9o584dVR4PxkEgBADgEn5+tTRt2gwNHPh7u9p//PESlZeXu7gqANVNYuJSq3/3fXx89NxzLygszHlnLzdtGqPJk6fabLdq1QqnjQnvRyAEAKACEydOVvv2N9hsd+LEce3Z84MbKgJQnXz55RdWr/fsmaA2bdo6fdzbbrtD113Xzmqbdeu+lcVicfrY8E4EQgAAKmAymfTEE9NlMtnef23Tpo1uqAhAdXHo0EGb5/4NHTrcZeM/8MAgq9cLCgp08OCPLhsf3oVACABAJVq0aKnu3XvYbLd9+zY3VAOguti5c7vV6/Xr11fbtte5bPxu3W6y+c0qAiHsRSAEAMCKvn3vtdkmOfmIGyoBUF0kJe2zer1Dh84uHT8sLExxcXFW26SlnXBpDfAeBEIAAKy44YYONg+fLygoUE5OtpsqAuBpR44ctnrd1jt+zhAZGWn1+tmzZ11eA7wDB9MDAGBFWFiYGjZsqIyMDKvtzp49q8jIem6q6uqcPn1aBw4k6cCB/UpJOabMzFPKzMxUYWGBiouLVVxc/NN5jQEKDAxURESE6tWrr8aNG6t16za69tq2atWqtcfqP3MmV0lJ+7R37x4lJe1TTk628vPzlJeXr+Li8woICFBAQIDq1g1XVFS0GjdurDZt2uq669opLq65x+q25fjxFP344wElJx9Vbm6uCgsL5eMjhYTUVmhoqOLimqtly1Zq0aKlzW9O2CMnJ0dJSXt15MhhZWdnqaCgQJJUp04d1alTV/Xr11f79h0VExNT5bGqqrrO2ZMnT1q9Hh4e7vQxr2Tr+AnOSIW9CIQAANgQFlbXZiAsKip0UzWOSUk5pi+++EwbNqzTjz8esNneYrGotLRUhYUXVj0PHTp42fWGDaPUs2eC7r9/oFtCVmFhoT79dLU+//xT7d37g9Vt/ouKilRUVKTc3FwlJx+97FpUVLQSEnqrb99+Tg0IzzzztD75ZGWF14YMGaZHH32swmunTmVoyZIPtWbN10pNTbVrrPr1G6hXr1v1wAN/UOPGTRyq8/z581q1aoVdv4+/jFdfPXokaPDgP6pRo8YOjVcV1X3Oms1m/eEPDykrK1PZ2VnKyrrw48yZ3J9/X+vUqVPlcWw5e/aM1ev+/v4urwHegUAIAIANAQG2b6wslup1FuH27Vv13nsLtXXrFqeek3ghyCzWkiWLdfPN3TVu3ASXBMPi4mK9//67WrTofRUWFlS5v4yMk1q8+AMtXvyB4uO7adSoR9Su3fVOqNQxubm5mjfvFX366WqZzWaHPpuVlan//e+/+vjjJRow4D6NGzdBQUFBVj9jsVj00Uf/07///abOnLEeIH49XpaWLl2ixMRl6tPnbj3++F8UGhrqUB+OqClz1s/PTyNHjv7Vr5vNpcrKylJ2dpaaNXP9N0uys60/ph4SEuLyGuAdCIQAANiQm5trs42tG3N3ycg4qZdfnqV169a4fKyNGzdo8+ZNGjlytIYNG+GUxxkl6fDhQ5o+/QkdP57ilP6utHXrZm3btkX33jtAEydOVmBgoEvGudKXX36uWbOeV15e1d7tKisz6+OPl2j79m2aNWu2YmJiK2yXnp6mp56apqSkvVUeb9WqFdq9+3vNnPmy078B4A1zVpL8/GopOrqRoqMbOa3PyhQU5OvYsWNW20RHu29VFzUbm8oAAGDDmTO2A6Gt93ncYcuWzRo69CG33FhfVFZWpjfemKdnn33aKQdhb926RQ8/PMxlYfCi8vJyJSYu05gxI1y+IVB5ebleeWW2ZsyYVuUweKmUlGN69NHRSkv79SOnO3fu0J/+NKTKYfBSJ04c18iRw+x6jNNe3jBnPWHLls0qK7O+wtysmfVdSIGLCIQAAFhx4sTxnzfdqEytWrVUv359N1VUsbVrv9Wf/zze5ntFrvLJJ6v09ttvVqmPffv2avLkiW7dDOPAgf2aOPExFRUVuaT/8vJyPf/837Vo0Xsu6T8rK1NTp06S2Vz686/t2LFNEyeOc8lcKCws0OTJE5Wfn1/lvrxhznrK119/afW6yeTnkUeiUTPxyCgAAFZs2vSdzTZxcc2d+uiZo/bs2a0ZM6aprKzM7s/4+voqOrqRIiIiFRwcpMDAIBUVFamwsEC5ubk6eTLd4ToWLnxbCQm9r2rTlvz8fE2f/oSKi8/b/ZmIiEhFR0crKChYwcHBKikpUWFhgU6eTLf5ftWlDh48oNmzX9STT/7V4bptWbDgdSUmLnN6v5c6dOig3n33HY0YMUr79ydp0qQJKi4udtl4mZmnNG/eK5oy5cmr7sMb5qynnDhxXGvWfGO1zXXXteMdQtiNQAgAgBWfffaJzTbXXee578SfO3dOf/vbDJWUlNhs26BBQ91++51KSOilVq2usfru3NmzZ3XgQJK++eYrffnl53atoJWVlenNN+dr1qzZDn0NkvTGG6/p1CnrO7maTCbdeuvt6t37NnXq1MXqBic5OdnasGG9EhOX2jxEXJJWrUpU//73OXVVZceO7TpwIKnS66Ghobr11tsVH99N11zTRuHhEfLz89OZM7lKTU3Vli3fafXqlXaF28WLP1CfPvdo2rRJla6whodHqHv3nrrpppsVF9dc4eERCgkJVn5+gY4ePayNGzdo9eqVdq3YrViRqCFDhl3V7qPeMmc95b333rX5qOvtt9/hpmrgDQiEAABU4quvvrDrHaxu3W50QzUVW7jwbZvHFphMJo0YMUoPPfRHBQQE2NVvnTp11LXrjera9UY99tiftWDB6/rww0U2d3/cuHG9MjNPqUGDhnZ/DZmZp7R8+VKrbVq2bKWnn37W7pWcyMh66t//PvXvf59Wr16pl1+eZXW30vLycr333kK98MJLdtdtS2VzJzg4RH/84zA9+OAgBQb+ejOiBg0aqkGDhurYsZOGDh2huXP/pWXLPrI6Vn5+voYPH1zhTqK1a9fW4MFDKx0vPDxcnTp1UadOXTRixMN69dU5WrbsY6vjlZWZlZi4TI88Ms5qu4p4w5z1lKSkfVq9eoXVNgEBAbrjjrvcVBG8Ae8QAgBQgczMTL3yiu1Vg6CgIHXt6plAePbsGS1Zsthqm1q1aum552Zq+PCH7b6xvlJISIgmTPiL5syZZ/NsM4vFojVrvnWo/+XLl1o9gqF162s0f/5bV/1YX9++/TR37nybRyasX79W2dlZVzWGvVq1aq133/1Aw4aNqDCcXSk4OFhTpkzX/ff/zmbbisJgbGwzvfPO+3aPFxJSW1OmPFnp+YmX+vrrL2y2uZK3zFlPMJvNeu65Z2w+ZtuvX/9qsckVag4CIQAAV8jLy9OECY8qM/OUzbZ9+tzjtmMLrrR8+VKbj8WNHj1Wt9zSyynjxcd31aRJU2222759q0P9rl1b+c24r6+v/va3f1T5/Lu2ba/TtGkzrLaxWCxat25tlcaxplWr1po3b4GaNo1x+LOPPTZRUVFRDo/31lvvXtV4Q4YMszlvUlNTlZ7u2Ht73jJnPeGddxbo8OFDVtsEBARqyJBh7ikIXoNACADAJfbu/UHDhw/R0aNHbLY1mUx68MFBbqiqYp98ssrq9WuvbatBg4Y4dcx77rnXZsA4dizZ7v7OnTun5OSjlV7v0iXeaefe9e59m+Lju1lts3mz7U2ErkZwcIhmzZp91cE2MDBQgwcPc2i8f/xjZpWC9Jgxj9psY+0dyYp4w5z1hM2bv9M777xts93QocPVsKFj3zgACIQAAMOzWCzavn2rpk6dpIcf/pNSU0/Y9bl77x1Q6aHgrnb48CGlpByz2mbYsBHy9XXu/+p9fX3Vp09fq20c2eEzPT3N6gYZLVu2srsvewwc+IDV6/v3296A5mqMGfOooqKiq9RH7963yWQy2dV27NhxiolxfGXwUnFxzW2GcXu+cXKRt8xZdzt69IieemqqzY1kmjWL0+DBf3RTVfAmbCoDADAEs9kss7lU+fkFOnMmVydPnlRKSrL270/Szp3bK3z/ypqIiEiNHj3WRdXatm3bFqvXGzVqrJ49E1wydrt2v7F6vaioUGZzqfz8atnsy9YZj/n51q87Kj4+XiaT32WHeoeHh6tx4yZq3LiJmjRpYnft9goPj1D//vdVuZ+IiAi1aNFKBw9aPxg+NDRUffveW+XxJKldu+utruBmZWXa3Ze3zFl3ysw8pT//ebxdZ6E+88xzNt+XBCpCIAQAVGu7du1Qt24dPV3GZXx8fDR9+gzVrRvusRrKyy88XpeWlqq8vLxfXU9I6O2ysxFjY22vihYXF9t1c23rBnb37l2yWCxOWzUKDAzS1KnTFRISqiZNLoRAV5/Xdtddd1/15ihXat68uc1AePfd9ygoyPYGMvZo2tT6n3Vubq7dfXnLnHWX3NxcjR//iDIyrB/HIknjxk1Q69bXuKEqeCMCIQAADho5crS6d+/p0RoGDRqsQYMGS7qwCU5aWqpSU08oLS1VaWmpLt12vnbt2jbbnD9frJAQ2+3q1rW+G2JKyjGtWLFcAwbcb3d9tvTrN8Bpfdmje/ceTuurSZOmNtvYek/SERER1r/pUVx83u6+vGXOusOZM7kaN260zUdspQu7ij7wwB9cXxS8FoEQAAAHDBz4gEaMGOXpMi4TFhamsLC2uvbatm4Zz56bZltb418UHd1IoaGhys/Pr7TNyy/P/PkQ95rGZDLZfFzREfasZrZt285p44WF1bF6vbS08uNCrPdbc+esq50+fVrjx4/RkSOHbba94YYOeuKJ6W6oCt6MTWUAALCDyWTSqFFjNWnSFE+XUiNYLPbfXHfs2Nnq9ZKSEj355BRNmfIXh3e19LQmTZo67XFR6cLuodZERUUpPNx5jzLXqmX9EUpbh77XJI7MWVfJzDylRx4ZaVcYbNGipWbOnG3zzwiwhRVCAABsaNGipaZNm6F27a73dCkel5mZqXXr1ths50hQuPPOu62eRXjR2rXfau3abxUTE6vu3Xvqpptu1g03dKhW731dKTa2mVP7s7XLaGRkPaeO5w2blLhizrrC8ePH9fjjY3XypO2zHWNiYvXKK/MVFhbmhsrg7QiEAABU4ppr2mjw4KG69dbbnb4Vfk1QXl6u1NQTSkrapx9++F67du20+5gBR+6tExJ6qVmzOLvPgjt+PEWLFr2nRYveU3BwsDp16qKuXbspPv7GKh+14GzODmi2VOXcwYq5ZpMXV3HXnHW2AweSNHHiY8rNPW2zbUxMrF577U1FRka6oTIYAYEQAICfmEx+atOmjeLju+mOO+5y2oHo1Z3ZbNbJk+k6ceKETpxIUXLyUR09elSHDx9SUVGhy8f39fXVxImTNGHCOIdXaYqKirR+/VqtX79W0oV3EuPju6pbt5sUH9/V45uEREREuHU8T3+97uLpOetMW7Zs0rRpT9hVd1xcc82dO1/16tV3Q2UwCgIhAMAQ/Pz85O/vr1q1/BUSEqKIiAiFh0coKipazZrFKS6uudq0uVbBwcGeLtUlzOZSJScnKyXlmI4fT1F6eprS09OVnp6mrKxMj2+o0bXrjRoyZJj+8593qtTPyZPpSkxcpsTEZTKZ/NS+/Q26+eYe6tHjFo+sHjp/xc66gIBAt47nStV9zjrDypXL9fzzz112LmZlWrduo1deec2jx93AOxEIAQDVWocOnTR//gJPl1Ej7d+fpC+//Fy7du3Q4cOHVFpa6umSrBo7dryKior00UcfOqW/sjKzdu7crp07t2vu3Nlq3ryFeve+TbfffqfT3+2rTHV+v7E6qmlz9mqVl5frjTfmaeHCt+1q36FDR7344r8MswIM9yIQAgDgRc6fP6clSz7U6tUr7X4nrzqZNGmKWrZsqdmzX3LojDt7HD16REePHtFbb72htm3b6f77B+quu+6Wn5/rboe8YVMWV6vpc9ZR58+f17PPPq2vv/7SrvY9eybo2Wf/6dTdaoFLEQgBAPAC5eXl+uyz1Zo371VlZWW6dKzIyHrKycl2Wf8DBvxWN954s15//TV98cVnLnk0MClpr5KS9uqdd97S+PETlJDQ2+ljSDLkZkT28qY5a6+cnGxNnjxRSUn77Go/YMD9mjx5ms3dZYGqIBACAFDD5eTkaMaMadq5c7vLxmjYMEo33niTEhJ6q3PneHXvHu+ysS6O9/TTz2r06LFauXK5PvlktV3b8TsqLS1VU6dOUr9+/TVlynQe8XQTb5yzthw5clh/+ctjysjIsKv9qFFjNXz4SBdXBRAIAQCo0dLT0zR27ChlZJx0Wp9+fn6Ki2uua6+9Ttdff73at+/oseMcoqKi9fDDj2jkyDHat2+Pvv32G61bt0YnThx36jgrVyYqJydHM2e+RCh0MW+fsxXZsmWTpk+fosLCAptt/fz8NH36X3X33fe4oTKAQAgAQI119uxZjRs35qpvrP39/RUTE6vY2GaKiYlVs2Zxat68hZo1i1OtWtUrFPn4+Khdu9+oXbvfaPz4CUpJOaZNmzZq8+bvtGvXLqe8b/jddxs0e/aLmjx5mhMqRkWMNGcvWrVqhf75z7/btZNoWFiY/vnPF9WpU2c3VAZcQCAEAKCGeuaZGUpPT7O7fcuWrdS5cxe1bdtObdq0VZMmTa7qHbeSkhKHP+NssbHNFBvbTA8++JBKSkq0Z89ubd++Tdu3b1VSUpJdN98V+fjjJerV61Z17uzZxwu9ldHm7Acf/EevvjrHrvM1GzduopdemqNmzeLcUBnwCwIhAAA10FdffaGNGzfYbGcyxAoDBwAAIABJREFUmfT/7N15eEz3/gfwt0z2jSRCEpFICKE0CAm1NKjaqmj1tj+l9lK7Vq+9FG2VFkWp0pZWVUtp7K2ittqCEiIiJJFVIrKZyCQzk98frntVM+ecSWbJzHm/nuc+T5+ez3y/n/B9euedc873O2DAQLz22iD4+9c3yNwqlcog4xiKvb09wsPbIjy8LcaMGQelUonz58/hzz9P4OTJE3pvWLJ69WfYuPF7I3UrX3Jbs59/vhLffbdRUm2LFmFYunQZzxgks2AgJCIisjBarRbr138hWlevnj8WL/4EISGNDTq/lPegzMnFxQWdO0ehc+colJeX4+rVWOzfvxcHDuyX1Ht8/DXcuJFg8D83OZPbml2x4hNs3bpFUm337j0wd+77PKKEzIZ7IRMREVmY06dPISUlWbDGw8MDK1asNkqouXPnjoQq8UfkTOHRu4fvvjsT0dF78cILL0r63J9/it/JIunktGb1CYNDhgzDggUfMgySWfEOIRERkYX544/DojXTps1A/frG2WUxIyNNtMYYZwdWlaurG+bMmQ9nZxf89NMPgrXx8ddM1JU8yGXNrl27SlIYVCgUmDZtOgYMGFjlOYmqioGQiIjIwly6dFHwet26Puja9TmjzX/16hXRGimbaDyptLQUqam3kZKSjOTkJLRs2RqtW4dXpkVBEydOwZEjhwTfLbxzR9pZcSSNta7Zx23f/iM2bfpGtM7BwRELF36Ezp2frdJ8RIbCQEhERGRB1OoypKWlCtaEh7dBjRo1jNbDuXNnRWuk3G35668LOHHiOJKTk5CSkoyMjPS/fe7ll18xSiC0s7NDly7dBO8S3r9fvd+TtCTWtGZ1OXbsKJYtWypa5+bmhk8++QxhYS0rPReRoTEQEhERWZDCwiLRL67e3nWMNn9s7CXRd8EAQK0WP/YhMTERmzdvEpgrVp/W9OLn5yd4vbqeaWeJrGnNVuT27dt4//250Gq1gnUeHh5YuXItNyuiaoebyhAREVkQtbpMtKak5IHR5l+79nNJdVK+XIsdvp2QEI+kpFuS5tOX2B1Ad/eaRplXjqxpzT5JpVJh5sxporuYurvXxOrV6xgGqVpiICQiIrIgjo5OojWpqcKP51XWnj27cOFCjKRaKee+BQUFw8PDU7Bmx47tkubTV0LCdcHrwcHBRplXjqxpzT7pyy/X4ObNRMEaOzs7LF78CRo2bKT3+ESmwEBIRERkQdzd3eHs7CxYc/78OYOfuxYXdxVLl34kuV7ql+tOnYQ31ti5czsSE29InleK3Ny7OHXqpGBNWFgrg84pZ9a2Zh8fX8qOojNmzDHKu7BEhsJASEREZGEaNgwRvK5SqfD11xsMNt9ff13ElCnj9frCLPURwFdeeVXwulqtxoIF7xk0LCxduhhlZbofY3RyckKHDp0MNh9Z15p9ZNmyJaLvRvbu3Rd9+vTVa1wiU2MgJCIisjBt2rQVrdm6dQuOHTtapXm0Wi1++GEzJk8eh8LCQr0+K3WXzpCQxmjVqrVgTULCdUyZMhFFRUV69VCR1as/Ez0Tr3v3nnBxcanyXPQ/1rRmAeDw4UO4ckV40yMfHx+88867evVAZA7cZZSIiMjC9OjRC998I3w3RaNRY86c6Zg4cQoGDnxV7y39//zzJDZsWIe4OPHz2ypSUFAguXbYsFG4eHGcYE1s7CUMGvQKpk+fhY4dO+vdT25uLj75ZDGOHDkkWOfg4IgRI0bpPT4Js7Y1+80360VrsrKy0K2b/mvVUFq1CsfateJ9EjEQEhERWZgGDYLQsWNnnDhxTLCutLQUn366BHv27MLLL/8LHTp0gpeXV4W1anUZEhMTceLEMRw+/Dtu3bpZpR7v3s2RXBsZ2Q59+/bH7t2/CNbl5GRj2rQpaNQoBP36DUDbtpEIDGygMzgolUpcu3YVv/56AIcOHURxsVK0l6FDh8PHx1dy7ySNNa3ZixfP48aNhCrNRVSdMBASERFZoAkTJuPs2dMoLS0Vrb1+PR4ffrgAwMPH2OrU8YGbmytsbBRQKpXIz8/D7dspkrfdDwxsgEGDhuCjjxbqrBHbxfNJU6a8jbNnT+POnSzR2sTEG/j00yUAABcXV9Sr5w83N1e4uLiitLQUSqUSeXm5SE9PR3l5ueQe2raNxLBhI/Xqm6SzljW7c+cOSXVEloKBkIiIyAI1aBCESZOm4pNPPtbrc1lZWcjKEg9dunTq9Czmz18IoAYWL16kM3DFxl5GaWkp7O3tJY3r4uKK5ctXYfz4McjLuye5H6XyPhIS4iXX69K4cSgWLfoINjbcXsFYrGHNlpaWit7lJLI0/K8eERGRhRo48FX83/8NNslczs7OmDFjNpYuXQ4XF1e4uLjAz6+eznqVqgSxsZf0miM4uCHWrPkStWvXrmq7emnVKhxr1qxDzZq1TDqvHFn6mr12LU7So8dEloR3CMnk7t7Vb9cvouqI65iqi8mT34a3dx2sXbtK8CiFqnj22S6YPPntf3yZDg9vi/T0NJ2fO3jwV4SHi+8u+bigoGCsX78R8+bNweXLf1WqX6kUCluMHPkmhg4dDoVCYdS56H8sec3euKHfo9BEloCBkEyuWTPhneSIiEg/gwYNRuvW4Zg/fw6Sk5MMNm7r1m0wcuSbCA9vU+H13r1fwK5dO3V+fv/+vRgzZjw8PDz0mtfX1w9ffLEBu3dH46uvvkR29h29Pi/GxsYGzz33PEaNGouAgACDjk3SWOqazcjIMEifRNUJAyEREZEVCA1tii1btuHkyeP48ccfEBNztlLjeHnVRlRUF/Tt2x+hoU0Fa1u2bIUWLcKQk5Ots+bQoYMYOPBfevdhY2ODfv0GoE+fvjhy5BAOHNiLc+fOStqQRBdfXz/07Nkbffr0hb9//UqPQ4ZhiWtWn7MKiSxFjXJ9tt+iak2tVuPGjRv/+WctAMDXt75ZH4O5ezcHjRsHmW1+IlNKSEhC7dre5m6DCMDD//5evnwJsbGXER9/Dfn5ebh/vwiFhUVQq9VwcHCAq6sr6tb1Qf369dGkSVOEhYWhcePQaruxSknJA1y9egVXr15BcnIS0tLScO/eXRQUFEClUqGsrAz29vZwdHSCm5sr/Pz84e9fH02ahKJ163DUr8+7gdWZNa5ZEqbRaJCZmQoAsLV9+HcYEhICW1veszIlBkIrwkBIZF4MhERERNIxEFYP/NMmo/L09EJCguHeDSCqzjw9Kz48mYiIiKi6YiAko7KxseEdEyIiIiKiaooPXBMREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTDEQEhERERERyRQDIRERERERkUwxEBIREREREckUAyEREREREZFMMRASERERERHJFAMhERERERGRTNmauwGyblqtFvfu5Zq7DSKT8PT0go0Nf89GREQVUyqVSEiIx82bicjKykJ+fh5UKhUUCgVcXFzg5uaOwMBABAc3QsOGDWFra2fulkkGGAjJqO7dy0XjxkHmboPIJBISklC7tre527A4/fv3QVZWplHnsLGxgY2NDRQKWzg42MPR0QlOTk6oVasWPDw84ePji/r1AxAS0hhNmoTCwcHBKH2I/aw7duyBn5+fUeYmIvMoKirCgQN7cfjwIVy+fAkajVrS51xcXNGuXXtERXVFly5dGQ7JaBgIiYjI6mm1Wmi1WqjVaqhUJSgsLAQApKT8s1ahsEWzZk8hKqoLunZ9Dr6+DGhEpL/8/Dx8++1G/PzzNqhUJXp/Xqm8j0OHDuLQoYPw9vbGyy//C6++OghOTk5G6JbkjM82ERERPUajUSM29hJWrVqBgQP7YebMd3H9ery52yIiC7Jv3x78618vYcuW7yoVBp+Uk5ODL774HK+++hIOHTpogA6J/oeBkIiISAeNRoMjRw5h+PDBWLLkIxQXF5u7JSKqxkpLS7FgwTwsWPAeCgsLDD5+dvYdzJ49HQsWzINKpTL4+CRPfGSUTO6bDftQ093T3G0QVUlB4T0MH9Xb3G2QiWi1WuzYsQ0XL57Hxx8vQ0BAgLlbIqJqRq0uw8yZ03Dy5Amjz7Vv324kJd3EZ5+tgbu7u9HnI+vGQEgmV9PdE7VqMRASkeVJSrqFMWNG4IsvNiAwsIG52yGiakKj0WDu3FkmCYOPXLsWh7ffnoiVK9fC2dnZZPOS9WEgJCIi0kNe3j1MmDAWGzd+Dy8vL3O3Q0TVwIoVn+LIkUOSauvW9UFUVBdERLRDYGADeHh4wM7OHvn5ecjKysL58+dw/PgxxMVdER3rypVYLFw4Dx99tLSqPwLJGAMhERGRnnJysrFw4XtYvnw1atSoYe52iMiMLl48j+3bfxStq1WrFt58cxz69u0HO7t/HiFRp05d1KlTF08/HYbhw0fhzJnTWL16BW7cSBAc98iRQ9i3bw96936h0j8DyRsDIRERVWutWoVj7dr1VR5Ho9FAo9FArVbjwYNiKJXFuHcvF3fuZCEh4TqOHj2MtLQ0yeOdPn0Ke/ZEo2/f/lXujYgsU0lJCT78cCHKy8sF65o1a46PPlqCunV9JI8dGdkOYWEbsXjxIhw4sE+wdsWKT/Hss1FwcXGVPD7RI9xllIiIZEGhUMDe3h7Ozs7w8qqNgIAAtGzZCj169MLEiVOwffsufPbZ52jYsJHkMdetW4MHDx4YsWsiqs5+/HELUlNvC9aEhjbFmjXr9AqDjzg6OmL+/EV4/vmegnWFhQXYunWL3uMTAQyERERE/xUZ2R6bNn2Pfv0GSKq/e/cuoqN3GLkrIqqO1Go1fv55m2CNp6cXli5dAUfHqh0mP3v2PDRqFCJY89NPW6FWl1VpHpInBkIiIqLH2NraYebMuRg48F+S6n/+eZvo42JEZH2OHfsD2dl3BGvGjh0Pb2/vKs/l4OCAiROnCNYUFOTj1Kk/qzwXyQ8DIRERUQWmTn0XYWEtRetSU28jNvayCToioupkxw7hu4PBwQ3xwgsvGmy+yMj2aNw4VLDm2LGjBpuP5IOBkIiIqAIKhQL//vcsKBTi+6+dOnXSBB0RUXXx4MED/PXXRcGafv0GwMbGsF+1O3ToKHhdylEVRE9iICQiItKhYcNG6Nixk2hdTMw5E3RDRNXFpUsXoVardV5XKBTo3l14I5jKaNEiTPB6cnISNBqNwecl68ZASEREJKBPH/FHvpKSbpqgEyKqLs6fjxG83rRpM3h6ehp8Xk9PD8HrGo0GRUWFBp+XrBsDIRERkYCWLVuJHj5///595ObeNVFHRGRuwcHB6NatOwIDG0ChUPzjerNmzY0yr5RzBu/fv2+Uucl68WB6IiIiAe7u7qhbty6ysrIE6woKCuDlVdtEXVXOvXv3EB8fh/j4a0hJSUZ29h1kZ2dDqbwPlUoFlUr1n/MaHeDo6AhPT0/Uru2NevXqoXHjUDRt2gwhIY3N1n9+fh7i4q7iypVYxMVdRW7uXRQVFaKwsAgqVQkcHBzg4OCAWrU84OPji3r16iE0tBmeeqo5goKCzda3mNu3U3D9ejySkm4hLy8PSqUSNWo8/PLv5uaGoKBgNGoUgoYNG4n+ckKK3NxcxMVdwc2bibh7N+e/AaJmzZqoWbMWvL29ERbWGgEBAVWeq6qq65rt1esF9Or1AgBApVIhKekmEhNv/Pd/rVuHG3xOAJLOPXVyqtoRFyQ/DIREREQi3N1riQbC4mKlibrRT0pKMn777QBOnDiG69fjReu1Wi3KysqgVD6863njRsLfrtet64POnaPw0ksDTRKylEol9u/fi19/3Y8rVy4LHvFRXFyM4uJi5OXlISnp1t+u+fj4IiqqK/r06WvQgLBgwTzs27e7wmtDhgzD+PGTKrx2504Wtm37EX/8cQhpaWmS5vL2roMuXbrh1Vf/D/Xq+evVZ0lJCfbs2SXpz/F/83mjU6coDB78Bvz86uk1X1VY2pp1cHBAaGgzhIY2M/jYT8rISBe8XqNGDbi71zR6H2RdGAiJiIhEODjYi9ZotdXrLMKYmLP47ruNOHv2jEHPSXwYZLZi27at6NChIyZMmGKUL9kqlQqbN2/Cli2boVRW/RG4rKxMbN36PbZu/R4REe3w5ptvoXnzFgboVD95eXlYs2Yl9u/fK7gpSUVycrLx008/4Oeft6F//wGYMGGK6N0grVaL7dt/wtdff4n8/Hw958vBjh3bEB29E7169cbkye/Azc1NrzH0Yelr1hSuXIkVvB4QEAg7OzsTdUPWgoGQiIhIRF5enmhNdXlMKysrE8uWLcWxY38Yfa6TJ0/g9OlTGDVqDIYNG2mQxxkBIDHxBmbN+jdu304xyHhPOnv2NM6dO4MXX+yPqVPfhaOjo1HmedLBg79i6dLFKCwsqNI4Go0aP/+8DTEx57B06XIEBARWWJeRkY45c2ZW+SgCjUaNPXt24dKlv7BkyTKDhylrWLOmUF5ejj/+OCxY89RTpv8lB1k+bipDREQkIj9fPBDWrFnLBJ0IO3PmNIYOfd0kX6wf0Wg0WLduDRYunAetVlvl8c6ePYPRo4cZLQw+Ul5ejujonRg7dqTRNwQqLy/HypXLMXfuzCqHwcelpCRj/PgxSE//5yOnFy6cx/DhQwx6Ll1q6m2MGjVM0mOcUlnDmjWVI0cOIS0tVbCmW7fnTNQNWRMGQiIiIgGpqbdFd+2zs7ODt7e3iTqq2NGjR/D22xNRUKDfY4GGsm/fHnz11ZdVGuPq1St4992pkjbOMJT4+GuYOnUSiouLjTJ+eXk5Fi9ehC1bvjPK+Dk52ZgxYxrU6rL//rvz589h6tQJRlkLSuV9vPvuVBQVFVV5LGtYs6aSl5eHFSs+Fazx9vZGZGR7E3VE1oSPjBIREQk4depP0ZqgoGCzPnoWG3sJc+fO1OtAahsbG/j6+sHT0wvOzk5wdHRCcXExlMr7yMvLQ2Zmht59bNz4FaKiulZq05aioiLMmvVvqFQlkj/j6ekFX19fODk5w9nZGaWlpVAq7yMzMwN370q/65eQEI/lyz/B7Nnv6d23mPXrv0B09E6Dj/u4GzcSsGnTNxg58k1cuxaHadOmQKVSGW2+7Ow7WLNmJaZPn13pMaxhzZpKUVER3nlnMrKz7wjWjRw5Bra2/GpP+uOqISIiEnDgwD7RGnO+t/PgwQO8//5clJaWitbWqVMX3bv3QFRUF4SENBF8d66goADx8XE4fPh3HDz4q6Q7aBqNBl9+uRZLly7X62cAgHXrPsedO8I7uSoUCnTr1h1duz6H8PC2ghuc5ObexYkTxxEdvQNxcVdF59+zJxr9+g0w6EYz58/HID4+Tud1Nzc3dOvWHRER7dCkSSg8PDxha2uL/Pw8pKWl4cyZP7F3725J4Xbr1u/Rq9cLmDlzms47rB4enujYsTOeeaYDgoKC4eHhCRcXZxQV3cetW4k4efIE9u7dLemO3a5d0RgyZFildh+1ljVrCpcvX8KCBXNFd6Jt0iQUffv2M1FXZG0YCImIiHT4/fffJL2D1a6d+R7T2rjxK9EviwqFAiNHvonXX38DDg4OksatWbMmIiPbIzKyPSZNehvr13+BH3/cIrr748mTx5GdfQd16tSV/DNkZ9/BL7/sEKxp1CgE8+YtlHwnx8urNvr1G4B+/QZg797dWLZsqeBupeXl5fjuu434+GPhx/L0oWvtODu74I03huG11wbB0fGfmxHVqVMXderURevW4Rg6dCRWrVqBnTu3C85VVFSEESMGV7iTqKurKwYPHqpzPg8PD4SHt0V4eFuMHDkaq1d/hp07fxacT6NRIzp6J956a4JgXUWsYc0a2+3bKVi3bg0OHTooWuvq6ooPP1wChUJhgs7IGvEdQiIiogpkZ2dj5UrxuwZOTk5me2+noCAf27ZtFayxs7PDhx8uwYgRoyV/sX6Si4sLpkx5B599tgb29sJHcGi1WvzxxxG9xv/llx2CRzA0btwEa9duqPRjfX369MWqVWtFj0w4fvwo7t7NqdQcUoWENMamTd9j2LCRFYazJzk7O2P69Fl46aVXRGsrCoOBgQ3wzTebJc/n4uKK6dNn6zw/8XGHDv0mWvMka1mzhlZeXo7k5CT88svPGDt2JP71rwGSwqCTkxM+/niZ3udSEj2OgZCIiOgJhYWFmDJlvOg7OwDQq9cLJju24Em//LJD9LG4MWPG4dlnuxhkvoiISEybNkO0LibmrF7jHj2q+8u4jY0N3n//gyqff9es2VOYOXOuYI1Wq8WxY0erNI+QkJDGWLNmPerXD9D7s5MmTYWPj4/e823YsKlS8w0ZMkx03aSlpSEjQ7/39qxlzVbVBx+8j+nT38GECWMxdOggdO/+LF577WUsXvwB/vrroqQxPDw88NlnaxAe3sbI3ZK1YyAkIiJ6zJUrlzFixBDcunVTtFahUOC11waZoKuK7du3R/B606bNMGjQEIPO+cILL4oGjOTkJMnjPXjwAElJt3Reb9s2wmDn3nXt+hwiItoJ1pw+Lb6JUGU4O7tg6dLllQ62jo6OGDx4mF7zffDBkioF6bFjx4vWCL0jWRFrWLOGcPjwIRw9egQxMWdx/Xq86E7GT4qIaIfNm3/E00+HGalDkhMGQiIikj2tVouYmLOYMWMaRo8eLnrW1yMvvthf56HgxpaYeAMpKcmCNcOGjYSNjWH/r97Gxga9evURrNFnh8+MjHTBs+AaNQqRPJYUAwe+Knj92jXxDWgqY+zY8fDx8a3SGF27Pif5PbFx4yYgIED/O4OPCwoKFg3jUn5x8oi1rNmqKioqEnyfVUhAQCA+/HAJVq5cAy+v2gbujOSKm8oQEZEsqNVqqNVlKCq6j/z8PGRmZiIlJQnXrsXhwoWYCt+/EuLp6YUxY8YZqVtx586dEbzu51cPnTtHGWXu5s2fFrxeXKyEWl0GW1s70bHE7owUFVXui7MuERERUChsodH8751FDw8P1Kvnj3r1/OHv7y+5d6k8PDzRr9+AKo/j6emJhg1DkJAgfDC8m5sb+vR5scrzAUDz5i0E7+Dm5GRLHsta1mxVZWVlVvqzjo6OSE5Oxq1bNxEc3NCAXZGcMRASEVG1dvHiebRr19rcbfxNjRo1MGvWXNSq5WG2HsrLHz5el56ehsLCwn9cj4rqarSzEQMDxe+KqlQqSV+uxTb8uHTpIrRarcHuGjk6OmHGjFlwcXGDv//DEOji4mKQsXXp2bN3pTdHeVJwcLBoIOzd+wU4OYlvICNF/frCf9d5eXmSx7KWNVtVUt5N1iUh4ToSEq7jyy/XoG3bSIwaNQZhYS0N2B3JEQMhERGRnkaNGoOOHTubtYdBgwZj0KDBAB5ugpOenoa0tFSkp6chPT0Nzz/f02hzu7q6itaUlKjg4iJeV6tWLcHrKSnJ2LXrF/Tv/5Lk/sT07dvfYGNJ0bFjJ4ON5e9fX7RG7D1JfXh6Cv/SQ6UqkTyWtazZqsrKEj5vU6pz587g3Lkz6NatO2bNmmuS3sk6MRASERHpYeDAVzFy5JvmbuNv3N3d4e7eDE2bNjPJfFK+eGo0Gklj+fr6wc3NDUVFRTprli1b8t9D3C2NQqEQfVxRH1LuZjZr1txg87m71xS8Xlam+7gQ4XEtd81W1Z07hgmEjxw6dBDXr1/DRx99UumjWUjeGAiJiIgkeHhQ9hiMGDHK3K1YBK1W+pfr1q3bCB49UVpaitmzp+O33w5g+PCRCA01TYgwBH//+gZ7XBR4uHuoEB8fH3h4GO5RZjs74UcoxQ59tyT6rNmqUCgU6Nu3P5o1a4ZGjULg51cP7u41oVarkZd3D/fu5eLSpb9w+vQpXLx4XvCMzkfS0tIwadJbWLfua7NtdEWWi4GQiIhIRMOGjTBz5lw0b97C3K2YXXZ2No4d+0O0Tp+g0KNHb8FA+MjRo0dw9OgRBAQEomPHznjmmQ5o2bKVSd77qqzAwAYGHU9sl1FD7zwp9o6nJTDGmq0KXZtR2dnZwcmpHvz86qF586fx+utvIDMzA1999SX2798regczLy8PkyaNw1dffQsvLy9jtE5WioGQiIhIhyZNQjF48FB069bd4FvhW4Ly8nKkpaUiLu4qLl/+CxcvXpB8zIA+362jorqgQYMgyWfB3b6dgi1bvsOWLd/B2dkZ4eFtE</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzOu2qUaxTH4XdW9kVEKy9AQS30Ejw2QgpbwaBg7C3ETrSwMxcg1gG7yReMokHBQjCJIMRKhahpIiEhIRGZXe2DxBk8znozeZ7y+7+L79fqdDqdAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPANkR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1Ouv7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIBaXblypdy7d++H7w4cOFAmJib+QNHvMzMzU0ZHR3/o5syZM+XmzZt/qOjn3b17t1y/fn3b97GxsXL58uWEIgAAAAAAAAAAAAAAAAAAAAAAAAAAgMES2QEAAAAAAAAAAAAAAAAAAAAAAAAAAACD5uXLl2VxcTE7o6d2u52d8Ft8+vSpjI+PZ2cAAAAAAAAAAAAAAAAAAAAAAAAAAAAMtMgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGERTU1PZCV1tbW2V6enp7Izf4tatW2VlZSU7AwAAAAAAAAAAAAAAAAAAAAAAAAAAYKBFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMAgapomO6GrmZmZsrq6mp3xy9rtdpmYmMjOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGHiRHQAAAAAAAAAAAAAAAAAAAAAAAAAAADCI5ufny/v377MzvmlycjI74Ze9e/euXLt2LTsDAAAAAAAAAAAAAAAAAAAAAAAAAABgV4jsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEHU6XTK1NRUdsY2Gxsb5eHDh9kZv2R5ebmMjo6W1dXV7BQAAAAAAAAAAAAAAAAAAAAAAAAAAIBdIbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAABlXTNNkJ2zx69Kisr69nZ/y0jY2NcvHixfLmzZvsFAAAAAAAAAAAAAAAAAAAAAAAAAAAgF0jsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAG1dzcXPnw4UN2xlfa7XZ2wk/b2Ngoly5dKnNzc9kpAAAAAAAAAAAAAAAAAAAAAAAAAAAAu0pkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyqTqdTpqamsjP+tba2Vh4/fpyd8VPW1tbK+fPny9OnT7NTAAAAAAAAAAAAAAAAAAAAAAAAAAAAdp3IDgAAAAAAAAAAAAAAAAAAAAAAAAAAABhkTdNkJ/zrwYMHZXNzMzvjhy0vL5dz586V58+fZ6cAAAAAAAAAAAAAAAAAAAAAAAAAAADsSpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAsJMNDQ313GdnZ8vHjx/7VNPb5ORkdsIPW1hYKCMjI2V+fj47BQAAAAAAAAAAAAAAAAAAAAAAAAAAYNeK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICd7OjRoz33TqdTmqbpU013Kysr5cmTJ133oaGhPtZ8n+np6XL27NmyuLiYnQIAAAAAAAAAAAAAAAAAAAAAAAAAALCrRXYAAAAAAAAAAAAAAAAAAAAAAAAAAADATnbo0KEyPDzc803TNH2q6e7+/fvl8+fPXfcjR470saa3ra2tcuPGjTI2NlbW19ezcwAAAAAAAAAAAAAAAAAAAAAAAAAAAHa9yA4AAAAAAAAAAAAAAAAAAAAAAAAAAADYyVqtVjl27FjPN7Ozs2VpaalPRd/Wbre7bnv27CmHDx/uY013r1+/LiMjI+XOnTul0+lk5wAAAAAAAAAAAAAAAAAAAAAAAAAAAFBKiewAAAAAAAAAAAAAAAAAAAAAAAAAAACAne7kyZM9906nU5qm6VPNdsvLy+XZs2dd9xMnTpRWq9XHou22trbK+Ph4GRkZKQsLC6ktAAAAAAAAAAAAAAAAAAAAAAAAAAAAfC2yAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHa6gwcPlr179/Z80zRNn2q+/e8vX7503U+dOtXHmu1mZmbK6dOny+3bt8vm5uZ33bRarT9cBQAAAAAAAAAAAAAAAAAAAAAAAAAAwD8iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGAQHD9+vOf+4sWLsrS01Kear01OTnbd9u3bV/bv39/Hmv+8evWqXLhwoYyOjpa3b99+993w8HC5evXqHywDAAAAAAAAAAAAAAAAAAAAAAAAAADg/yI74G927qY3qvL/4/iX01KhYAigKQQbIQLRQNAIiWCQm4amnDlxo4krH4JsjFtXJq5cGROfgq5Nh+kwaSCCIAK6YcWGDQsgFpGAgd79F/y9+SlnaMtMr8nM67WCfq5zXe9HMAAAAAAAAAAAAAAAAAAAAAAAAAAAAN0gz/Om+/z8fExMTCxTzd9u3rwZly5dKt0rlcoy1jx27dq1OHHiRLz33ntx+vTpRX27a9eu+Pbbb2PHjh3tiQMAAAAAAAAAAAAAAAAAAAAAAAAAAOA/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAA3WDPnj3x0ksvNT1Tq9WWqeZ/35ybmyvdi6JYxprHPvnkk6jX6zE/P7+o7z744IP45ptvYtOmTW0qAwAAAAAAAAAAAAAAAAAAAAAAAAAA4Emy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAADdIs/zpvuVK1fi5s2by1TzWLVaLd127twZ27dvX8aapVm/fn18+eWX8dlnn8XAwEDqHAAAAAAAAAAAAAAAAAAAAAAAAAAAgJ6TpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoFnmeN93n5+ejXq8vU03EjRs34pdffindi6JYtpalGh0dje+++y7GxsZSpwAAAAAAAAAAAAAAAAAAAAAAAAAAAPSsLHUAAAAAAAAAAAAAAAAAAAAAAAAAAABAt9i1a1e8/PLLTc/UarVlqomoVqtN96Iolqlk8bZs2RJff/11fPXVV/Hiiy+mzgEAAAAAAAAAAAAAAAAAAAAAAAAAAOhpWeoAAAAAAAAAAAAAAAAAAAAAAAAAAACAbpLnedP9ypUrcevWrWVpOXnyZOm2Z8+eGB4eXpaOxRgcHIwTJ05EtVqNkZGR1DkAAAAAAAAAAAAAAAAAAAAAAAAAAABERJY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJvked50n5ubi3q93vaO69evx9WrV0v3oija3rAYfX198f7770etVouPPvooVq1alToJAAAAAAAAAAAAAAAAAAAAAAAAAACA/5elDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOgmr776amzbtq3pmVqt1vaOarVaumVZFnmet71hIfr6+uLdd9+N8fHx+Pzzz2NoaCh1EgAAAAAAAAAAAAAAAAAAAAAAAAAAAP+SpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoNnmeN90vX74ct2/fbmtDtVot3fbt2xdDQ0Ntff9p1qxZEx9++GFMTEzEF198Edu2bUvaAwAAAAAAAAAAAAAAAAAAAAAAAAAAQLksdQAAAAAAAAAAAAAAAAAAAAAAAAAAAEC3qVQqTfe5ubmo1+tte//atWtx7dq10v1pfe328ccfx9mzZ+PTTz+N4eHhpC0AAAAAAAAAAAAAAAAAAAAAAAAAAAA8XZY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoNvs2LEjtm/f3vRMrVZr2/vj4+OlW39/f4yNjbXt7YU4fPhwDA4OJm0AAAAAAAAAAAAAAAAAAAAAAAAAAABg4bLUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAN0oz/Om+6VLl+L27dttefvkyZOl24EDB2LDhg1teRcAAAAAAAAAAAAAAAAAAAAAAAAAAIDulKUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6EZ5njfd5+bmol6vt/zdq1evxvXr10v3oiha/iYAAAAAAAAAAAAAAAAAAAAAAAAAAADdLUsdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0I1eeeWV2LlzZ9MztVqt5e9Wq9XSbWBgIEZHR1v+JgAAAAAAAAAAAAAAAAAAAAAAAAAAAN0tSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQrSqVStP98uXL8euvv7b0zZMnT5Zuhw4dirVr17b0PQAAAAAAAAAAAAAAAAAAAAAAAAAAALpfljoAAAAAAAAAAAAAAAAAAAAAAAAAAACgW+V53nSfnZ2Ner3esvd+/vnnuHHjRuleFEXL3gIAAAAAAAAAAAAAAAAAAAAAAAAAAKB3ZKkDAAAAAAAAAAAAAAAAAAAAAAAAAAAAutXWrVvjtddea3qmVqu17L1qtVq6DQ4OxtGjR1v2FgAAAAAAAAAAAAAAAAAAAAAAAAAAAL0jSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQzSqVStP9p59+iqmpqWd+Z25uLmq1Wuk+MjISq1evfuZ3AAAAAAAAAAAAAAAAAAAAAAAAAAAA6D1Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAIBulud50312djbq9fozv3Pp0qW4detW6V4UxTO/AQAAAAAAAAAAAAAAAAAAAAAAAAAAQG/KUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAB0s+Hh4di9e3fTM7Va7ZnfGR8fL93WrVsXBw8efOY3AAAAAAAAAAAAAAAAAAAAAAAAAAAA6E1Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAIBul+d50/3ixYsxNTW15PtnZ2ejXq+X7seOHYuBgYEl3w8AAAAAAAAAAAAAAAAAAAAAAAAAAEBvy1IHAAAAAAAAAAAAAAAAAAAAAAAAAAAAdLs8z5vus7OzcerUqSXff/78+Ziamirdi6JY8t0AAAAAAAAAAAAAAAAAAAAAAAAAAACQpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADodlu2bInXX3+96Zlarbbk+6vVaum2cePG2L9//5LvBgAAAAAAAAAAAAAAAAAAAAAAAAAAgCx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQC/I87zpfvHixZiamlr0vY8ePYpGo1G6Hz9+PPr6+hZ9LwAAAAAAAAAAAAAAAAAAAAAAAAAAAPwpSx0AAAAAAAAAAAAAAAAAAAAAAAAAAADQC/I8jxUrVpTuMzMz0Wg0Fn3vuXPn4u7du6V7pVJZ9J0AAAAAAAAAAAAAAAAAAAAAAAAAAADwT1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF6wadOmeOONN5qeqdVqi753fHy8dNu8eXPs3bt30XcCAAAAAAAAAAAAAAAAAAAAAAAAAADAP2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHpFnudN9x9//DHu3Lmz4PsePnwYk5OTTd9bsWLFgu8DAAAAAAAAAAAAAAAAAAAAAAAAAACAJ8lSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAPSK48ePR5aV/yzszMxMNBqNBd93+vTpuH//fuleFMWi+gAAAAAAAAAAAAAAAAAAAAAAAAAAAOBJyn9ZFwAAAAAAAAAAAAAAAAAAAAAAAAAAgJYaGhqKN998s+mZWq224Puq1WrptnXr1ti9e/eC7wIAAAAAAAAAAAAAAAAAAAAAAAAAAIAyWeoAAAAAAAAAAAAAAAAAAAAAAAAAAACAXlKpVJruFy5ciDt37jz1ngcPHsSZM2eW/A4AAAAAAAAAAAAAAAAAAAAAAAAAAAAsVJY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJeMjY1FlpX/NOzMzEw0Go2n3jM5ORl//PFH6V4UxZL6AAAAAAAAAAAAAAAAAAAAAAAAAAAA4N/Kf1UXAAAAAAAAAAAAAAAAAAAAAAAAAACAlnvhhRdi3759Tc/UarWn3jM+Pl667dy5M7Zv377oNgAAAAAAAAAAAAAAAAAAAAAAAAAAAHiSLHUAAAAAAAAAAAAAAAAAAAAAAAAAAABAr6lUKk33CxcuxG+//Va637t3L86ePVu6F0Wx5DYAAAAAAAAAAAAAAAAAAAAAAAAAAAD4tyx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQK8ZGxuLvr6+0n1mZiYajUbp3mg04tGjR6V7URTP1AcAAAAAAAAAAAAAAAAAAAAAAAAAAAD/lKUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6DUbNmyIt956q+mZiYmJ0q1arZZue/bsieHh4SW3AQAAAAAAAAAAAAAAAAAAAAAAAAAAwL9lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAB6UZ7nTffz58/H77///p+/3717N86fP1/6XVEUz9wGAAAAAAAAAAAAAAAAAAAAAAAAAAAA/5SlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhFo6Oj0d/fX7pPT0/H5OTkf/5+6tSpmJ6efuI3WZZFnuctawQAAAAAAAAAAAAAAAAAAAAAAAAAAICIiCx1AAAAAAAAAAAAAAAAAAAAALBb+acAACAASURBVAAAAAAAQC9av3597N+/v+mZiYmJ//ytVquVnt+3b18MDQ09cxsAAAAAAAAAAAAAAAAAAAAAAAAAAAD8U5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoFfled50P3fuXNy/f/+v/9+9ezcuXLhQer5SqbSsDQAAAAAAAAAAAAAAAAAAAAAAAAAAAP6UpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAADoVaOjo7Fy5crS/eHDh3HmzJm//t9oNGJ6evqJZ/v7+2NsbKzljQAAAAAAAAAAAAAAAAAAAAAAAAAAAJClDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhV69ati7fffrvpmXq9/te/JyYmSs8dOHAgNmzY0LI2AAAAAAAAAAAAAAAAAAAAAAAAAAAA+FOWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKCX5XnedD9z5kw8evQo7t27Fz/88EPpuaIoWp0GAAAAAAAAAAAAAAAAAAAAAAAAAAAAERHRnzoAAAAAAAAAAAAAAAAAAAAAAAAAAACglx07dixWrlwZ09PTT9wfPHgQ586di3v37pWeGRgYiNHR0XZmAgAAAAAAAAAAAAAAAAAAAAAAAAAA0MOy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAC97Pnnn4+DBw82PdNoNKLRaJTuhw4dirVr17Y6DQAAAAAAAAAAAAAAAAAAAAAAAAAAACIiIksdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0OsqlUrTfXJyMr7//vvSvSiKVicBAAAAAAAAAAAAAAAAAAAAAAAAAADAX/pTBwAAAAAAAAAAAAAAAAAAAAAAAAAAAPS6kZGReO655+Lhw4dP3Kempkq/HRwcjKNHj7YrDQAAAAAAAAAAAAAAAAAAAAAAAAAAACJLHQAAAAAAAAAAAAAAAAAAAAAAAAAAANDr1q5dG++8886Svh0ZGYnVq1e3uAgAAAAAAAAAAAAAAAAAAAAAAAAAAAD+lqUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAIKJSqSzpu6IoWlwCAAAAAAAAAAAAAAAAAAAAAAAAAAAA/ytLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAEDE0aNHY9WqVYv6Zt26dXHw4ME2FQEAAAAAAAAAAAAAAAAAAAAAAAAAAMBjWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIgYHB+Pw4cOL+ubYsWMxMDDQpiIAAAAAAAAAAAAAAAAAAAAAAAAAAAB4LEsdAAAAAAAAAAAAAAAAAAAAAAAAAAAAwGN5ni/qfFEUbSoBAAAAAAAAAAAAAAAAAAAAAAAAAACAv2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAHjsyJEjMTg4uKCzGzdujP3797e5CAAAAAAAAAAAAAAAAAAAAAAAAAAAACKy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAA8tnr16jhy5MiCzh4/fjz6+vraGwQAAAAAAAAAAAAAAAAAAAAAAAAAAAARkaUOAAAAAAAAAAAAAAAAAAAAAAAAAAAA4G95ni/oXKVSaXMJAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJalDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOBvhw8fjjVr1jQ9s3nz5ti7d+8yFQEAAAAAAAAAAAAAAAAAAAAAAAAAANDrVszPz8+njgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6U5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHNlqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAzpWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6V5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOhcWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPg/dueYBgAAAAHQZv/QxtADEgAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlD16C+26/h84/trHw+aBfoqUisMFHvBKMDJZXVRmYrogOzjISKxFBFZIFl1EKB2lLEkC8SJMO1FY6kwyXZKdF6iZkZqVpNEgy2Zjptv8/q7+F/9+7buDm+9P+nhc+n59X6/nZwIAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwdpvmQAAIABJREFUAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/OqbOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDe09zcHF999VXs378/jh07Fo2NjXH8+PHo379/DB48OIYNGxbjxo2L8ePHx+jRo1PnFnX8+PHYtWtXHDx4MBobG+OPP/6IpqamKC0tjcGDB8dFF10U48aNiwkTJsSIESNS5wIAAJwz+qYOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6Envv/9+3Hvvvf/z73V1dVFeXp6g6Oz7888/Y926dVFbWxv79u2L1tbWTv2uoqIipk6dGrfcckuMGTOmlys75+jRo/HGG2/Eli1b4uDBg3H69OlO/W78+PExbdq0mDNnTowcObKXKwEAAM5tJYVCoZA6AgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoCecOnUqZs6cGYcPH/6ft7q6uigvL09QdfY0NjbGihUrYt26ddHc3NztPSUlJXHVVVfFokWLYuzYsT1Y2HkNDQ3x3HPPxebNm6OlpaXbe/r27RszZ86MBx54IEaMGNGDhQAAAOePLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAT1mxYkUcPnw4dUYSH374YVRVVcXatWujubn5jHYVCoXYvn173HDDDbF8+fJobW3tocrOeeedd6Kqqio2bNgQLS0tZ7SrtbU1Nm7cGNddd12sXbu2hwoBAADOLyWFQqGQOgIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOBMffLJJ3HnnXdGoVD4x/e6urooLy8/y1Vnx7Jly2LVqlW9tr+ysjKWL18eQ4YM6bUbERFtbW3x8MMPx8aNG3vtRlVVVTz55JNRWlraazcAAADONVnqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgDN15MiReOihh6JQKKROOeueeOKJWLVqVa/e+Oyzz2Lu3Llx7NixXrvR0tISCxcujI0bN/bajYiITZs2RU1NTZw8ebJX7wAAAJxLstQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZ+LYsWNRU1MTR48eTZ1y1i1dujTWrFlzVm4dPHgw7rrrrmhubu6V/YsWLYotW7b0yu6/q6+vj/vvvz/a2trOyj0AAIB/u76pAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALqrqakp7rnnnvjxxx9Tp5x127Zti5deeqlTs5MmTYpZs2bFpEmTYvTo0TFw4MA4ceJE/PTTT7Fz58549913Y9euXR3u+frrr2PJkiWxdOnSM83/f1avXh3vvfdeh3MlJSVxxRVXxIwZM2LixIkxatSoKCsri6ampjh06FDU19dHbW1tHDhwoMNd27dvjxdffDHuu+++nvgEAACAc1pJoVAopI4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADoqsbGxqipqYk9e/Z0ar6uri7Ky8t7uersOHLkSMyePTuOHz9edG7MmDGxZMmSmDx5coc76+vrY/HixfH99993OLts2bKoqqrqdG8xe/bsiVtvvTVaWlqKzk2aNCkWL14cEyZM6HDntm3b4rHHHouGhoaic3369Ik1a9bEpZde2qVmAACA802WOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKCrfvvtt5g3b17s2bMndUoSjz/+eBw/frzozPTp02PdunUxefLkTu287LLLYv369XH99dd3OPv0009HU1NTp/YWc/r06XjkkUeipaWl6NzcuXPjlVdeiQkTJnRq77Rp06K2tjYuv/zyonNtbW2xZMmSaGtr63QzAADA+ShLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANAV+/bti1tuuSW+/fbb1ClJfPHFF7F9+/aiM9dcc00sX748BgwY0KXd/fv3j2effTaqq6uLzv3666+xcuXKLu3+J+vXr4/9+/cXnZk7d248+uij0bdv3y7tvuCCC2LVqlVx5ZVXFp07cOBAvPnmm13aDQAAcL4pKRQKhdQRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAnbFt27Z48MEHo7m5ucu/rauri/Ly8l6oOnsKhULcfPPNsXfv3nZnLr744nj77bdj0KBB3b5z+vTpuPvuu2PHjh3tzgwYMCC2b98eQ4cO7daNkydPxvTp06OhoaHdmcmTJ8fLL78cffr06daNiIi//vorqqurY9++fe3OjBw5MrZu3Rr9+vXr9h0AAIBzWZY6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoCOnTp2Kp556KhYsWBDNzc2pc5L5/PPPY+/evUVnFi9eHIMGDTqjO1mWxTPPPBPDhg1rd+bEiRPx6quvdvtGbW1tNDQ0tPver1+/WLJkSfTp06fbNyIiysrK4oUXXojS0tJ2Z3755ZfYtGnTGd0BAAA4l2WpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIo5cOBA3HTTTbF69eooFAqpc5J66623ir5fffXVUVlZ2SO3hgwZEgsXLiw68/rrr0dra2u39nf0LdXV1TFmzJhu7f67ioqKuOOOO4rOrF27tkduAQAAnIuy1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/5MSJE/H888/HjTfeGAcOHEidk9zvv/8eW7duLTozb968Hr05e/bsGD58eLvvR48ejY8//rjLe/fv3x+7d+9u972kpCRuv/32Lu8tZv78+VFWVtbu+zfffBPfffddj94EAAA4V2SpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP5u69atMWvWrFi5cmW0tLR0OD9o0KAYOHDgWShLZ/PmzXHq1Kl23ysqKqKysrJHb/bt2zfmzJlTdGbDhg1d3rt+/fqi75WVlVFRUdHlvcX85z//iZkzZxad6c63AAAAnA+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/59NPP43q6upYsGBB/Pzzz536zYUXXhivvfZaDB06tJfr0vrggw+Kvl977bW9cnfGjBlF33fs2BEtLS1d2pnXb6mrq+uVuwAAAP92WeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAiIjbbrst5s+fH7t37+70by655JJYt25dTJgwoRfL0jt58mTU19cXnZk6dWqv3B47dmyMGjWq3fempqbYuXNnp/cdPnw4Dh06VHSmt75lypQpUVZW1u77Dz/8EEeOHOmV2wAAAP9mWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAiIgvv/yy07NZlkVNTU2sWbMmhg8f3otV+bB79+5oaWlp9720tDQmTpzYa/enTJlS9P2jjz7q9K6O/p9Hjx4dI0aM6PS+rigrK+vw79SVbwEAADhfZKkDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP7L3t3FWH2Q+QN/5nfODGVmKDM4U15CGRkI4B8otmyjNuKK8cKk7qIt0UEjSVOiaZR4YSq4N15Ul6aJ1dSXEF0QbGwCpGh3U/PXVNT0ov6T1YBI40v6p9PC8DZQqMzAzJw5Zy82u3Hrnt8583Lmd5jz+SRzw/Oc5/k+czGZw+EcAAAmoqenJ55++ul49NFHo7m5Oes4M+L48eOp9bVr19b0e7Fu3brU+okTJ6qeVemWDRs2VD1rMtavX59a/93vflfT/QAAALeifNYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqtHc3Bw7duyIRx55JObMmZN1nBl16tSp1Pr69etrur/S/JdffjlKpVI0NTVVnFXvt/z+97+v6X4AAIBbUT7rAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVs3rw5du3aFcuXL886Sib++Mc/ptZXrFhR0/2Vvu/Xr1+P06dPR29vb2pfsViMP//5z6k9Wd/yyiuvxI0bN2Lu3Lk1zQEAAHArSbIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUM66deviwIEDsXfv3li+fHnWcTJRKBTizJkzqT29vb01zTBv3rzo7OxM7env768459y5czEyMpLaU+tbli1bllofHx+P119/vaYZAAAAbjVJ1gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADeau3atfHtb387nn322XjPe96TdZxMDQwMRKFQSO1ZtmxZzXNU2nHmzJmKM1577bXUektLSyxevHhCuSaqtbU1urq6UnuquQUAAKCR5LMOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBGRy+Xife97X2zfvj3uu+++rOPUjYGBgdR6LpeL7u7umufo6upKrZ89e7bijEq3dHd3R1NT04RyTUZXV1cMDg6WrVdzCwAAQCPJZx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgIuLYsWOxaNGirGPUnfPnz6fWFyxYEEmS1DxHV1dXav3cuXMVZ1S65Y477phQpsmajlsAAAAaSe2fdQIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFRh0aJFWUeoS1euXEmtd3d3z0iOrq6u1Pq1a9cqzqh0S6Ud02U6bgEAAGgkSdYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKO/q1aup9dtvv31GcrS3t6fW33zzzYozZtMtAAAAjSTJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADlXbt2LbXe1tY2Izkq7amUs5qeW+kWAACARpJkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDyhoaGUuvt7e0zkqOtrS21/pe//KXijNl0CwAAQCPJZx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACYuqGhoRgeHo6IiGKxWJMdbW1t0d7eXpPZlHfz5s3Uemtr64zkuO2221LrY2NjFWfMplsAAAAaST7rAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwNS1tbVFW1tbRERs2rQpLl68OO07Pve5z8XOnTunfS7pbt68mVrP5/MzkqPSnrGxsYozZtMtAAAAjSTJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADljY+Pp9ZzudyM5Ki0p1AoVJwxm24BAABoJEnWAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChvfHw8tZ7L5WYkRz6fT62XSqUoFAqpPfVyS6U9Y2NjM5IDAADgVpFkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDJa2pqqps9xWKx5jumQ5IkqfWp3gEAADDbpD+LAgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIFPNzc2p9fHx8RnJUSgUKvbkcrnUej6fT63Xyy2V7gAAAGg06c/mAADqyBtvDEWxWMo6BgAwSyVJU3R2tk1pRuFSf0RxZl4cBwAaTJKLfHfPlEYULr7qdxUAoHaSXOTvePuURoz8v3+NGL0xPXkAAN6qZW7Medc/TmlE8bXfRYyPTVMgAIC3yDVHsuyuST987NSvIsZGpjEQAMBfaZ4TzWv/fkojiq//3t+tAAC1k2uO5M51UxpROP9KRLHyB3MCAExKko/8ohWTfnjh5RcjCl4LAgBqJD8n8v9n05RGXB26ESUfEQcA1EhTU0RH29wpzbh5w3uYAYDaum3u5H9f8ZkrAEBNTcNnroyf/q33BQEAtZNrjtzye6Y0Yvz//3tEYXSaAgEAvEW+JXK9fzelEeMDf/Q+ZgCgNpJ85JasntKIG//3X6J0c2iaAgEA/E9Nt7XF3A/tyDoG0AD++e/+Id48dzHrGAB15fbFd8Q//fu//c2fHz16NIrF4rTva2trm/aZVNbc3JxaHx8fn5Ec1ezJ5XKp9ZaWlinvmA6FQvpru5XuAAAAaDT5rAMAAFSrWCxFsejT9AGAOlYc/88vAIB6VBz34SkAQH0bvRExMpx1CgCA8sbH/Oc/AED9GhuJGLuZdQoAgPL83QoAUO+KBf/WFgCoX4WR/3w9CACgTpVKEaWSz4gDAGqlKesAAAC15TNXAIB6Nz4WURjNOgUAQHmFUb+vAAD1rViIGPc+ZgCgPpVuDkXpxl+yjgEAADAlb567GFcHLmQdA+CW0N3dnXUEplE+n0+tj4+Pz0iOQiH99dDm5uaKM+rllkp7qrkFAACgkSRZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKC8lpaW1PrIyMiM5BgdHU2tt7a2Vpwxm24BAABoJEnWAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACivvb09tT48PDwjOYaGhlLrc+fOrThjNt0CAADQSJKsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFBeZ2dnan1oaGhGclTac/vtt1ec0dHRMaUd02U6bgEAAGgkSdYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKG/+/Pmp9aGhoRnJUWlPR0dHxRmVem6lWwAAABpJknUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyuvo6EitX7lyZUZyVNrT2dlZcUa93HL58uXUejW3AAAANJIk6wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUt2jRotT65cuXZyTH4OBgan3hwoUVZ9TLLZX2VHMLAABAI0myDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB5S5cuTa1fu3YtRkdHa57j8uXLqfWFCxdWnFHplsHBwQllmqzpuAUAAKCRJFkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoLwlS5ZELpdL7RkYGKh5jrNnz6bWly1bVnHG0qVLU+uDg4MxOjo6oVwTVSgU4sKFC6k91dwCAADQSJKsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFBePp+PxYsXp/b09/fXNMPo6GicO3cutaenp6finCVLlkRzc3PZerFYjNdee23C+SbizJkzUSgUUnuquQUAAKCRJFkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIN3q1atT66+++mpN97/++utRLBbL1pubm2P58uUV5+RyuVixYkVqT61v6e/vT60vWbIk2tvba5oBAADgVpNkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB069atS63/4Q9/qOn+U6dOpdZ7e</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzRX2jV9R/H8ff5KEjDiwoJx7pITChCLC/ywrtglIWQFxJdBBJYRJYX3QRddaGEoEJh4UUXRVeZiEXbGZnVEIqgsEKRPFldlC5iIeqWtu387oQfuj/Wtvdnx8fj9vP+ntdzrNFut9sBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcB0lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACo1+LsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFq9/PLLcejQoRv+bvXq1fHBBx/MQdHsGRwcjK1bt97QN5s2bYrXXnttjor+3/DwcHz77bdx8uTJaLVace7cuRgaGopLly7F33//HRMTE7FkyZLo6uqKZcuWRXd3d6xYsSLuu+++uP/+++POO++cl04AAAAAAAAAAAAAAAAAAAAAAAAAAICbweLsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgE7zww8/xG+//RY9PT3ZKZPq6+vLTrjGH3/8EYcPH45msxknTpyIdrs95f3IyEiMjIzEn3/+GadOnYrPPvvs6tvdd98dvb29sXnz5qr/DwAAAAAAAAAAAAAAAAAAAAAAAAAAAAvB4uwAAAAAAAAAAAAAAAAAAAAAAAAAAACATjQwMBBPP/10dsZ1XblyJY4cOZKdcdUvv/wSb775Znz88ccxNjY2K7/ZarWi1WrF/v37o7e3N7Zv3x4rV66cld8GAAAAAAAAAAAAAAAAAAAAAAAAAAC42ZTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgE7UbDazEyY1ODgYFy5cyM6I0dHR2LVrVzz22GNx+PDhGBsbm/WNiYmJGBgYiI0bN8bOnTvj8uXLs74BAAAAAAAAAAAAAAAAAAAAAAAAAADQ6Up2AAAAAAAAAAAAAAAAAAAAAAAAAAAAQCf6/vvv4/fff8/OuK7+/v7shGi1WrFp06Z4++23Y2xsbM73xsfH45133onHH388fvrppznfAwAAAAAAAAAAAAAAAAAAAAAAAAAA6CQlOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKATtdvtGBgYyM64xujoaBw9ejS14dixY7F58+b4+eef5337zJkz8eSTT8bXX38979sAAAAAAAAAAAAAAAAAAAAAAAAAAAALVckOAAAAAAAAAAAAAAAAAAAAAAAAAAAA6FTNZjM74Rqff/55jIyMpO0PDg7Gc889l9pw/vz5eOaZZ+Kbb75JawAAAAAAAAAAAAAAAAAAAAAAAAAAAFhIFmcHAAAAAAAAAAAAAAAAAAAAAAAAAAAAdKrvvvsuzp49G93d3dkpV/X19aVt//jjj7F9+/a4cuXKDX131113xfr162PlypVx2223xe233x7tdjv++uuvGB4ejhMnTsSXX34ZZ8+enfFvjo6OxrPPPhsHDhyIFStW3OifAgAAAAAAAAAAAAAAAAAAAAAAAAAAcFNZnB0AAAAAAAAAAAAAAAAAAAAAAAAAAADQqdrtdgwMDMSWLVuyUyIi4uLFi/HFF1+kbI+Ojsa2bdtiZGRkRvdLliyJJ554IrZs2RI9PT0z+ubUqVOxf//+aDabMTExMe39hQsX4oUXXogDBw7ELbfcMqMNAAAAAAAAAAAAAAAAAAAAAAAAAACAm1HJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAOhkzWYzO+GqTz/9NC5fvpyyvXfv3vj1119ndNvb2xtHjhyJV155JXp6ema8cc8998TevXvjww8/jFWrVs3om9OnT8frr78+4w0AAAAAAAAAAAAAAAAAAAAAAAAAAICbUckOAAAAAAAAAAAAAAAAAAAAAAAAAAAAWMgWLVo05fvx48fj3Llz81Qztf7+/pTdM2fOxHvvvTftXaPRiOeffz7eeOONuOOOO/713qpVq+L999+PDRs2zOj+3XffjVar9a/3AAAAAAAAAAAAAAAAAAAAAAAAAAAAOl3JDgAAAAAAAAAAAAAAAAAAAAAAAAAAAFjI1q1bN+V7u92OZrM5TzWTO3/+fBw7dmzS90WLFs3Z9r59+2J8fHzau5deeilefPHFaDQa/3mzq6sr9uzZEw899NC0t2NjY/HWW2/9500AAAAAAAAAAAAAAAAAAAAAAAAAAIBOVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAFrIHHnggli9fPuVNs9mcp5rJffLJJ/HPP/9M+v7ggw/Oye7Q0FD09/dPe/fII4/E1q1bZ3W7lBK7d++Oe++9d9rb/v7+GBoamtV9AAAAAAAAAAAAAAAAAAAAAAAAAACATlGyAwAAAAAAAAAAAAAAAAAAAAAAAAAAABayRqMRDz/88JQ3x48fj6GhoXkqur6+vr5J37q7u2Pt2rVzsnvw4MEYHx+f8ubWW2+NHTt2zMl+V1dXvPrqq9PejY+Px0cffTQnDQAAAAAAAAAAAAAAAAAAAAAAAAAAAAtdyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAABY6B599NEp39vtdjSbzXmqudbw8HB89dVXk75v2LAhGo3GnGzP5O9+6qmnYunSpXOyHxGxZs2aaf9HERFHjx6dswYAAAAAAAAAAAAAAAAAAAAA+B87dxcj5V02cPjmYaEsUKhLZYuVuA0fbQNFQmmlFaEQCMxMDzSm2qSpSWMTQaNooonVRE8a1DQeEL/aRFNaqpXExJ6wzC4TIikURApa0wO6HEArIiAUinws+/UeNK/W2pkdlnn2mZ29rhMK9/1/7l/S8wEAAACAkSzJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAGCkW7hwYXzkIx+puFMsFoep5oNv9/X1lZ0XCoVU7p44cSIOHz5ccae5uTkeffTRVO6/10MPPTTozmuvvRZXrlxJvQUAAAAAAAAAAAAAAAAAAAAAAAAAAGCkSbIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAaARr166tOD906FCcPHlymGr+2/bt28vO2traYv78+anc3b9//6A7ixYtiqlTp6Zy/73uueeemDx5csWdnp6eOHLkSOotAAAAAAAAAAAAAAAAAAAAAAAAAAAAI02SdQAAAAAAAAAAAAAAAAAAAAAAAAAAAEAjyOVyFecDAwPR0dExTDX/cfLkyThw4EDZeT6fT+32X//610F37r333tTuv9e4cePirrvuGnTvzTffHIYaAAAAAAAAAAAAAAAAAAAAAAAAAACAkSXJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKARLFiwID760Y9W3CkWi8NU8983+/v7y84LhUJqtw8fPjzozqJFi1K7/34333zzoDtnzpwZhhIAAAAAAAAAAAAAAAAAAAAAAAAAAICRJck6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoFHkcrmK84MHD8bJkyeHqeZd7e3tZWdz586N2bNnp3b7rbfeGnRn+vTpqd1/v2nTpg26c+nSpWEoAQAAAAAAAAAAAAAAAAAAAAAAAAAAGFmSrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAaRS6XqzgfGBiIzs7OYaqJOH78ePz5z38uOy8UCqnd7u/vjwkTJkRzc3PFvZtuuim1hvfr7e0dtlsAAAAAAAAAAAAAAAAAAAAAAAAAAACNpCnrAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEYxb968+NjHPhbHjh0ru1MsFuPRRx8dlp729vaK80KhkNrtJEmiWCxGRMQ777wTJ0+ejFOnTv3Xn6dPn44pU6ak1vB+J06cGHRn0qRJw1ACAAAAAAAAAAAAAAAAAAAAAAAAAAAwsjRlHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBIcrlcPP3002XnBw8ejFOnTsX06dNTb9m+fXvZ2YIFC2LmzJmpN0RETJkyJaZMmRJz5swZlnvlvPHGG4PutLS0DEMJAAAAAAAAAAAAAAAAAAAAAAAAAADAyJJkHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBIcrlcxXl/f390dnam3nH06NF4/fXXy84LhULqDfXk+PHj8dZbbw26d9tttw1DDQAAAAAAAAAAAAAAAAAAAAAAAAAAwMiSZB0AAAAAAAAAAAAAAAAAAAAAAAAAAADQSO6444647bbbKu4Ui8XUO9rb28vOkiSJXC6XekM96ejoGHRn3Lhxg/6/AwAAAAAAAAAAAAAAAAAAAAAAAAAAGI2SrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAaTS6Xqzh/9dVX4/Tp06k2tLe3l50tXrw4WltbU71fTwYGBmLr1q2D7i1cuDAmTJgwDEUAAAAAAAAAAAAAAAAAAAAAAAAAAAAjS5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAQKPJ5/MV5/39/dHZ2Zna/a6urujq6io7H6yv0ZRKpTh69Oige5/85CfTjwEAAAAAAAAAAAAAAAAAAAAAAAAAABiBkqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAGs2cOXNi9uzZFXeKxWJq97dt21Z21tTUFGvWrEntdr3p7e2NTZs2Dbo3ZsyYePDBB4ehCAAAAAAAAAAAAAAAAAAAAAAAAAAAYORJsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoRLlcruL8wIEDcfr06VRub9++vezsvvvui5aWllTu1qMXXnghurq6Bt275557YubMmcNQBAAAAAAAAAAAAAAAAAAAAAAAAAAAMPIkWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAA0olwuV3He398fnZ2dNb/7+uuvx9GjR8vOC4VCzW/Wq2PHjsWmTZuq2n388cdTrgEAAAAAAAAAAAAAAAAAAAAAAAAAABi5kqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAGtGsWbNi7ty5FXeKxWLN77a3t5edjR8/PlavXl3zm/Xo6tWr8c1vfjMuXbo06O68efNi+fLlw1AFAAAAAAAAAAAAAAAAAAAAAAAAAAAwMiVZBwAAAAAAAAAAAAAAAAAAAAAAAAAAADSqfD5fcf7qq6/GmTNnanpz+/btZWfLli2LyZMn1/RevXryySfjtddeG3RvzJgx8Z3vfGcYigAAAAAAAAAAAAAAAAAAAAAAAAAAAEauJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACARpXL5SrO+/r6orOzs2b3Dh06FMePHy87LxQKNbtVzzZv3hxbt26tavfTn/50LF68OOUiAAAAAAAAAAAAAAAAAAAAAAAAAACAkS3JOgAAAAAAAAAAAAAAAAAAAAAAAAAAAKBRtbW1xZ133llxp1gs1uxee3t72dnEiRNjxYoVNbtVr7Zv3x4/+tGPqtq95ZZb4oknnki5CAAAAAAAAAAAAAAAAAAAAAAAAAAAYORLsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoZPl8vuL8T3/6U5w9e/a67/T390exWCw7X7lyZTQ3N1/3nXq2a9eu+Na3vhX9/f2D7iZJEk899VRMnTp1GMoAAAAAAAAAAAAAAAAAAAAAAAAAAABGtiTrAAAAAAAAAAAAAAAAAAAAAAAAAAAAgEaWy+Uqzvv6+qKzs/O67xw4cCBOnTpVdl4oFK77Rj3bvXt3fPWrX42enp6q9jds2BD33ntvylUAAAAAAAAAAAAAAAAAAAAAAAAAAACNIck6AAAAAAAAAAAAAAAAAAAAAAAAAAAAoJHNnDkz5s+fX3GnWCxe951t27aVnU2dOjWWLl163Tfq1csvvxxf/vKXo7u7u6r9Bx98MNatW5dyFQAAAAAAAAAAAAAAAAAAAAAAAAAAQONIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAABodLlcruJ8//79cfbs2SF/v6+vLzo7O8vOV61aFePHjx/y9+vZjh07Yv369dHd3V3V/sKFC2Pjxo0pVwEAAAAAAAAAAAAAAAAAAAAAAAAAADSWJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACARpfL5SrO+/r6YseOHUP+/t69e+Ps2bNl54VCYcjfrme///3vY8OGDdHT01PV/pw5c+KZZ56JG264IeUyAAAAAAAAAAAAAAAAAAAAAAAAAACAxpJkHQAAAAAAAAAAAAAAAAAAAAAAAAAAANDobr311vj4xz9ecadYLA75++3t7WVn06ZNiyVLlgz52/Xql7/8ZTzxxBPR19dX1X5bW1s8++yzcdNNN6VcBgAAAAAAAAAAAAAAAAAAAAAAAAAA0HiSrAMAAAAAAAAAAAAAAAAAAAAAAAAAAABGg1wuV3G+f//+OHv27DV/9+rVq1EqlcrO165dG2PHjr3m79argYGB2LhxYzz11FMxMDBQ1Zu2trZ4/vnn48Mf/nDKdQAAAAAAAAAAAAAAAAAAAAAAAAAAAI0pyToAAAAAAAAAAAAAAAAAAAAAAAAAAABgNMjlcjFmzAriR70AACAASURBVJiy897e3iiVStf83T179sT58+fLzvP5/DV/s15duXIlNmzYEM8991zVb2bNmhVbtmyJ1tbWFMsAAAAAAAAAAAAAAAAAAAAAAAAAAAAaW5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGhwyy23xMKFCyvuFIvFa/7utm3bys5mzJgRd9999zV/sx6dOXMmvvCFL0RHR0fVb+6888544YUXYvr06SmWAQAAAAAAAAAAAAAAAAAAAAAAAAAANL4k6wAAAAAAAAAAAAAAAAAAAAAAAAAAAIDRIpfLVZz/8Y9/jLfffrvq73V3d8fOnTsr3hszZkzV36tXXV1d8bnPfS7+8pe/VP1m8eLFsWXLlmhpaUmxDAAAAAAAAAAAAAAAAAAAAAAAAAAAYHRIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYLdauXRtJUv5nYXt7e6NUKlX9vT/84Q9x8eLFsvNCoXBNffVo165d8fnPfz7+9re/Vf1mxYoV8atf/SpuvPHGFMsAAAAAAAAAAAAAAAAAAAAAAAAAAABGj/K/rAsAAAAAAAAAAAAAAAAAAAAAAAAAAEBNtba2xqJFiyruFIvFqr/X3t5edtbW1hbz58+v+lv1aPPmzbFu3bq4ePFi1W8++9nPxs9+9rOYMGFCimUAAAAAAAAAAAAAAAAAAAAAAAAAAACjS5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiSz+crzvft2xdvv/32oN+5dOlS7Nq1a8h36llvb298//vfjx/84AfR399f9bv169fHxo0bY+zYsSnWAQAAAAAAAAAAAAAAAAAAAAAAAAAAjD5J1gEAAAAAAAAAAAAAAAAAAAAAAAAAAACjyZo1ayJJyv80bG9vb5RKpUG/s3Pnzrh8+XLZeaFQGFJf1v71r3/Fl770pfjtb39b9ZumpqZ48skn4+tf/3qKZQAAAAAAAAAAAAAAAAAAAAAAAAAAAKNX+V/VBQAAAAAAAAAAAAAAAAAAAAAAAAAAoOZuvvnmWLx4ccWdYrE46He2bdtWdjZ37tyYPXv2Nbdl7cSJE/Hwww/H7t27q34zadKk+MUvfhEPPfRQimUAAAAAAAAAAAAAAAAAAAAAAAAAAACjW5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiTz+crzvft2xfnzp0rO79w4ULs3r277LxQKAy5LStHjhyJhx9+OLq6uqp+M2PGjPjNb34Ty5YtS7EMAAAAAAAAAAAAAAAAAAAAAAAAAACAJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACA0WbNmjUxduzYsvPe3t4olUpl56VSKa5evVp2XigUrqtvuB06dCgeeeSR+Mc//lH1m3nz5sXWrVvjjjvuSLEMAAAAAAAAAAAAAAAAAAAAAAAAAACAiIgk6wAAAAAAAAAAAAAAAAAAAAAAAAAAAIDRpqWlJT7xiU9U3Ono6Cg7a29vLztbsGBBzJw5c8htw+2VV16Jxx57LM6dO1f1m1WrVsWvf/3raG1tTbEMAAAAAAAAAAAAAAAAAAAAAAAAAACA/5dkHQAAAAAAAAAAAAAAAAAAAAAAAAAAADAa5XK5ivO9e/fGO++88z//fv78+di7d2/Zd4VC4brbhsuePXti/fr1cfny5arfPPbYY/GTn/wkmpubUywDAAAAAAAAAAAAAAAAAAAAAAAAAADgvZKsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAEaj1atXR1NTU9l5T09P7Ny583/+fceOHdHT0/OBb5IkiVwuV7PGNO3evTvWr18fV65cqWp/7Nix8b3vfS++/e1vR5L4aV0AAAAAAAAAAAAAAAAAAAAAAAAAAIDh5FdhAQAAAAAAAAAAAAAAAAAAAAAAAAAAMvChD30olixZUnGno6Pjf/6tWCyW3V+8eHG0trZed1vaDh48GF/5yleiu7u7qv3m5ub46U9/Go888kjKZQAAAAAAAAAAAAAAAAAAAAAAAAAAAHyQJOsAAAAAAAAAAAAAAAAAAAAAAAAAAACA0SqXy1Wc79mzJy5evPjvv58/fz727dtXdj+fz9esLS1HjhyJdevWxZUrV6rab2lpieeffz5WrlyZchkAAAAAAAAAAAAAAAAAAAAAAAAAAADlJFkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAjFarV6+OcePGlZ13d3fHrl27/v33UqkUPT09H7jb1NQUa9asqXljLf3zn/+Mxx9/PM6fP1/V/q233hovvvhiLFiwIOUyAAAAAAAAAAAAAAAAAAAAAAAAAAAAKkmyDgAAAAAAAAAAAAAAAAAAAAAAAAAAABitpk6dGvfff3/Fnc7Ozn//d0dHR9m9++67L1paWmrWVmu9vb3xjW98I06cOFHV/uzZs+PFF1+Mtra2dMMAAAAAAAAAAAAAAAAAAAAAAAAAAAAYVJJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAwGiWy+Uqznft2hVXr16NCxcuxCuvvFJ2r1Ao1Dqtpn784x/H/v37q9q9/fbbY8uWLdHa2ppyFQAAAAAAAAAAAAAAAAAAAAAAAAAAANVoyjoAAAAAAAAAAAAAAAAAAAAAAAAAAABgNFu1alWMGzcuenp6PnB+6dKl2LNnT1y4cKHszvjx42P16tVpZl6X/fv3x7PPPlvV7syZM2Pz5s3R0tKSchUAAAAAAAAAAAAAAAAAAAAAAAAAAADVSrIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGM1uvPHGWLp0acWdUqkUpVKp7HzZsmUxefLkWqfVxOXLl+O73/1uDAwMDLo7ZcqUeOaZZ6KlpWUYygAAAAAAAAAAAAAAAAAAAAAAAAAAAKhWknUAAAAAAAAAAAAAAAAAAAAAAAAAAADAaJfP5yvOd+7cGS+//HLZeaFQqHVSzTz99NPx5ptvDrqXJEls2rQpZs2aNQxVAAAAAAAAAAAAAAAAAAAAAAAAAAAAXIumrAMAAAAAAAAAAAAAAAAAAAAAAAAAAABGu5UrV8YNN9wQ3d3dHzg/e/Zs2bcTJ06MFStWpJV2XU6ePBnPPfdcVbtf/OIX4/7770+5CAAAAAAAAAAAAAAAAAAAAAAAAAAAgKFIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAY7SZPnhyf+tSnhvR25cqV0dzcXOOi2vj5z38ely9fHnTv9ttvj6997WvDUAQAAAAAAAAAAAAAAAAAAAAAAAAAAMBQNGUdAAAAAAAAAAAAAAAAAAAAAAAAAAAAQEQ+n49SqXTN7wqFQgo11+/cuXPx0ksvVbV7+PDhuOuuu1Iuqs5nPvOZ+OEPf5h1BgAAAAAAAAAAAAAAAAAAAAAAAAAAQF1Jsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAgYsWKFTFhwoRrejN16tRYunRpSkXX53e/+11cuXIl6wwAAAAAAAAAAAAAAAAAAAAAAAAAAABqIMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgIiJEyfG8uXLr+nNqlWrYvz48SkVXZ+XXnop6wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqJMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgHflcrlr2i8UCimVXJ9jx45FV1dX1hkAAAAAAAAAAAAAAAAAAAAAAAAAAADUSJJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAO964IEHYuLEiVXtTps2LZYsWZJy0dAcOHAg6wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqKMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgHc1NzfHAw88UNXu2rVrY+zYsekGDdEbb7yRdQIAAAAAAAAAAAAAAAAAAAAAAAAAAAA1lGQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAwH/kcrmq9vL5fMolQ/f3v/896wQAAAAAAAAAAAAAAAAAAAAAAAAAAABqKMk6AAAAAAAAAAAAAAAAAAAAAAAAAAAAgP9Yvnx5TJo0qeLOjBkz4u677x6momt38eLFrBMAAAAAAAAAAAAAAAAAAAAAAAAAAACooTEDAwMDWUcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9SnJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoX0nWAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAED9SrIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpXknUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUL+SrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA+pVkHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUryTrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKB+JVkHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPUryToAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqF9J1gEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA/UqyDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqV5J1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFC/kqwDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPqVZB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1K8k6wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgfiVZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1K8k6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhfSdYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQP1Ksg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6leSdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQv5KsAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID6lWQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANSvJOsAAAAAAAAAAACA/2N3jmkAAAAQAG32D20MPSABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sLGRm+gAAIABJREFUAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMCvrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAr6wDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwK+sAwAAAAAAAAAAAAAAAAAAAEDZn7vQrss2gOPX7s23lDCEUBoamLKjQMjAOuhNpGxBUSa0g6CMCHpBsuggYqNXKWMkQewgTIuisMxZZDlGQVQ7SFpCcyyKFBpkrK0x0738n+PnxW3Obff96Odz+L+v33V9/wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOWqyR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAzBkaGooffvghjh49Gn19fdHf3x8DAwMxd+7cWLRoUSxZsiRWrVoVq1evjuXLl+fOHdfAwEAcPnw4enp6or+/P/76668YHByMefPmxaJFi+LSSy+NVatWRV1dXSxdujR3LgAAwHmjJncAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAdPr888/jkUce+a/f29raora2NkPR7Pv7779j79690draGl1dXTEyMjKp71asWBE33nhjbNq0KVauXDnDlZNz4sSJeO+99+LgwYPR09MTY2Njk/pu9erVsX79+rj77rtj2bJlM1wJAABwfquqVCqV3BEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADT4fTp07Fx48Y4duzYf721tbVFbW1thqrZ09/fHzt37oy9e/fG0NDQlPdUVVXF9ddfH9u2bYsrrrhiGgsnr7e3N1599dX49NNPY3h4eMp7ampqYuPGjfH444/H0qVLp7EQAADgwpFyBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEyXnTt3xrFjx3JnZPHll19GfX197NmzJ4aGhs5pV6VSifb29rj99tujubk5RkZGpqlycj766KOor6+Pjz/+OIaHh89p18jISOzfvz9uueWW2LNnzzQVAgAAXFiqKpVKJXcEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAufr666/j/vvvj0ql8j/f29raora2dparZseOHTuipaVlxvavW7cumpubY/HixTN2IyJidHQ0nnrqqdi/f/+M3aivr48XXngh5s2bN2M3AAAAzjcpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMC5On78eDz55JNRqVRyp8y6559/PlpaWmb0xjfffBMNDQ3R19c3YzeGh4dj69atsX///hm7ERFx4MCB2LJlS5w6dWpG7wAAAJxPUu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAc9HX1xdbtmyJEydO5E6Zddu3b4/du3fPyq2enp544IEHYmhoaEb2b9u2LQ4ePDgju/9TR0dHPPbYYzE6Ojor9wAAAP7f1eQOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAmKrBwcF46KGH4pdffsmdMusOHToUb7755qRm16xZE7feemusWbMmli9fHhdddFGcPHkyfvvtt/j+++/jk08+icOHD0+458cff4ympqbYvn37ueb/m127dsVnn3024VxVVVVce+21cfPNN8eVV14Zl112WcyfPz8GBwfj119/jY6OjmhtbY3u7u4Jd7W3t8frr78ejz766HT8BQAAgPNaVaVSqeSOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOFv9/f2xZcuW6OzsnNR8W1tb1NbWznDV7Dh+/HjccccdMTAwMO7cypUro6mpKdauXTvhzo6OjmhsbIyff/55wtkdO3ZEfX39pHvH09nZGffcc08MDw+PO7dmzZpobGyMurq6CXceOnQonn322ejt7R13rrq6Onbv3h1XXXXVWTUDAABcaFLuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgLP1559/xr333hudnZ25U7J47rnnYmBgYNyZDRs2xN69e2Pt2rWT2nn11VfHvn374rbbbptw9qWXXorBwcFJ7R3P2NhYPP300zE8PDzuXENDQ7z99ttRV1c3qb3r16+P1tbWuOaaa8adGx0djaamphgdHZ10MwAAwIUo5Q4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4G11dXbFp06b46aefcqdk8d1330V7e/u4MzfddFM0NzfHggULzmr33Llz45VXXonNmzePO/fHH3/EG2+8cVa7/5d9+/bF0aNHx51paGiIZ555Jmpqas5q98UXXxwtLS1x3XXXjTvX3d0d77///lntBgAAuNBUVSqVSu4IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAyTh06FA88cQTMTQ0dNbftrW1RW1t7QxUzZ5KpRJ33XVXHDly5Iwzl19+eXz44YexcOHCKd8ZGxuLBx98ML766qszzixYsCDa29vjkksumdKNU6dOxYYNG6K3t/eMM2vXro233norqqurp3QjIuKff/6JzZs3R1dX1xlnli1bFl988UXMmTNnyncAAADOZyl3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwEROnz4dL774Yjz88MMxNDSUOyebb7/9No4cOTLuTGNjYyxcuPCc7qSU4uWXX44lS5accebkyZPxzjvvTPlGa2tr9Pb2nvF9zpw50dTUFNXV1VO+ERExf/78eO2112LevHlnnPn999/jwIED53QHAADgfJZyBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIynu7s77rzzzti1a1dUKpXcOVl98MEH477fcMMNsW7dumm5tXjx4ti6deu4M++++26MjIxMaf9E/2Xz5s2xcuXKKe3+TytWrIj77rtv3Jk9e/ZMyy0AAIDzUcodAAAAAAAAAAAAAAAAAPyLvbuPkbow9wX+zG9mF9hdZBd3u0CRLSsBGkArXkM1pammTUztjVWJ0jcaomnjraR/NBZ7cpP+YXvIMak29iWkjRQ0NVGj1dxo0vrSF5va096atRRT9VpYgUVkQVB2cd9m7x8n5yXtmd/MLjvzG3Y+n2T/4Xnmeb7PkBAmmZkFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOC/c+bMmbjnnnvi+uuvj1dffTXrOJk7ceJEPP3006k9X/ziF2d053XXXRfd3d0l64ODg/Hb3/52ynNfeeWV6OvrK1nP5XKxZcuWKc9Ns3Xr1pg7d27J+r59++K1116b0Z0AAACzRZJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgL/39NNPxzXXXBM7d+6MsbGxsv2tra3R0tJSg2TZeeqpp2J0dLRkvaenJy6//PIZ3VkoFOLGG29M7XniiSemPPfxxx9PrV9++eXR09Mz5blpFixYEJ/85CdTe6ZzCwAAQCNIsg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADw7373u9/FTTfdFLfddlscPny4osd0dXXFgw8+GB0dHVVOl63nnnsutf6JT3yiKnuvvvrq1PpvfvObGBsbm9LMer3l2WefrcpeAACAc12SdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICIiM9//vOxdevW6Ovrq/gx69evj0cffTRWr15dxWTZGxkZiT/84Q+pPVdddVVVdq9YsSLe//73l6yfPn06XnzxxYrnHTx4MA4cOJDaU61bNmzYEHPnzi1Z/9vf/haHDh2qym4AAIBzWZJ1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgIiIP/7xjxX3JkkSt9xyS9x///3R3d1dxVT1oa+vL8bGxkrW58yZExdddFHV9m/YsCG1/vzzz1c8q9zf87Jly2LRokUVz5uKuXPnln2epnILAABAo0iyDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAVPT098cADD8Ttt98eTU1NWcepib6+vtT6mjVrqvpcrF27NrX+0ksvVTyr3C0XX3xxxbOmY926dan1P//5z1XdDwAAcC4qZB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgEk1NTXHLLbfErbfeGnPmzMk6Tk3t27cvtb5u3bqq7i83/+WXX47JycnI5XJlZ9X7LX/5y1+quh8AAOBcVMg6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQDlXXnllbN++PZYvX551lEy88sorqfULL7ywqvvLPe+nT5+O/fv3R29vb2pfsViM1157LbUn61tef/31OHPmTMybN6+qOQAAAM4lSdYBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASlm7dm3s3r07du7cGcuXL886TibGx8fj0KFDqT29vb1VzTB//vzo6OhI7env7y8758iRIzEyMpLaU+1bli1bllqfmJiIgwcPVjUDAADAuSbJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDfW7NmTfzgBz+IRx99NC6//PKs42RqYGAgxsfHU3uWLVtW9Rzldhw6dKjsjDfeeCO13tzcHIsXL55SrqlqaWmJzs7O1J5KbgEAAGgkhawDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARETk8/n46Ec/Glu2bIkrrrgi6zh1Y2BgILWez+ejq6ur6jk6OztT64cPHy47o9wtXV1dkcvlppRrOjo7O2NwcLBkvZJbAAAAGkkh6wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAREc8991wsWrQo6xh1580330ytL1y4MJIkqXqOzs7O1PqRI0fKzih3y/ve974pZZqumbgFAACgkVT/VScAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAFFi1alHWEunTixInUeldXV01ydHZ2ptZPnTpVdka5W8rtmCkzcQsAAEAjSbIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQGknT55MrZ933nk1ydHW1pZaf+edd8rOmE23AAAANJIk6wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACUdurUqdR6a2trTXKU21MuZyU959ItAAAAjSTJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAClDQ0Npdbb2tpqkqO1tTW1/u6775adMZtuAQAAaCSFrAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABnb2hoKIaHhyMiolgsVmVHa2trtLW1VWU2pb333nup9ZaWlprkmDt3bmp9bGys7IzZdAsAAEAjKWQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOHutra3R2toaEREbN26Mt956a8Z33HbbbbFt27YZn0u69957L7VeKBRqkqPcnrGxsbIzZtMtAAAAjSTJOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzPX2jV9R/H8fc+GynolVeOLroJBCGkIIsguhSlQHGIkNAutou6CsSISKKgSC/sPvBGwQstFJHtzMxSCypCZzLCrhr2x4XMP0dyK9n53fm7sP2xtr0/nj0et5/3+b6ep6PVarUCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4B+U7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXiU7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXyQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6lWyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6lewAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF4lOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOpVsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAepXsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBeJTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFfJDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqVbIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHqV7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXl3ZAQAAAAAAAAAAAAAAAAAAAAAAAAAAALV688034+jRow/8uyeeeCI++eSTBSiaP2fPno3+/v4H+s2WLVviww8/XKCi/5uamopLly7F+fPnY2RkJK5cuRJXr16NZrMZk5OT0dXVFStXroyVK1fGY489Fo8//nisXbs2nnvuuVi1atWC9wEAAAAAAAAAAAAAAAAAAAAAAAAAACw1XdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAA7ebSpUvx66+/xqOPPpqdMq2BgYHshPv8+OOPcfjw4RgcHIzr169Pe3f37t2YmJiIa9euxc8//xxnzpyJiIhSSqxbty5eeuml2Lx5c6xYsWKx0gEAAAAAAAAAAAAAAAAAAAAAAAAAANpayQ4AAAAAAAAAAAAAAAAAAAAAAAAAAABoR0NDQ9kJ0/rrr7/i1KlT2Rn3jIyMRF9fX2zevDkOHToU169f/1ffmZqaigsXLsR7770XL7zwQuzduzdu3bo1z7UAAAAAAAAAAAAAAAAAAAAAAAAAAABLT8kOAAAAAAAAAAAAAAAAAAAAAAAAAAAAaEeNRiM7YVpnz56NZrOZnRETExPx/vvvR09PT5w7d25ev91sNmP//v2xYcOGOHLkSLRarXn9PgAAAAAAAAAAAAAAAAAAAAAAAAAAwFJSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAADa0Q8//BC//fZbdsY/GhwczE6I0dHR2LZtWxw4cCCmpqYWbGd8fDzefvvteO2116LZbC7YDgAAAAAAAAAAAAAAAAAAAAAAAAAAQDsr2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADtqNVqxdDQUHbGfe7cuROnT59ObRgZGYnt27fH5cuXF23z9OnTsXXr1vjll18WbRMAAAAAAAAAAAAAAAAAAAAAAAAAAKBdlOwAAAAAAAAAAAAAAAAAAAAAAAAAAACAdtVoNLIT7vPll1/Gn3/+mbZ/+fLleOWVV2J8fHzRt0dHR6O3tzfGxsYWfRsAAAAAAAAAAAAAAAAAAAAAAAAAAOBh1pUdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0K4uXrwYv//+e3R3d2en3DMwMJC2fe3atejv749msznn36xYsSKefvrpWL9+faxevTpWrVoVHR0dMT4+Hn/88Ud8//338d1338XNmzfn9L0rV65EX19fHDlyJJYvX/5v/woAAAAAAAAAAAAAAAAAAAAAAAAAAMCS0pUdAAAAAAAAAAAAAAAAAAAAAAAAAAAA0K5arVYMDQ1Fb29vdkpERNy+fTvOnDmTst1qteKNN96IsbGxOd13d3dHf39/9PT0xLJly6a96+3tjbt378axY8fi448/jtHR0Vm//dNPP8WePXvinXfemXM/AAAAAAAAAAAAAAAAAAAAAAAAAADAUlayAwAAAAAAAAAAAAAAAAAAAAAAAAAAANpZo9HITrjn888/j8nJyZTtw4cPx9dffz2n261bt0aj0YiXX345li1bNut9V1dX9PT0xIkTJ2L79u1z2jh06FB8++23c7oFAAAAAAAAAAAAAAAAAAAAAAAAAABY6kp2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwMOss7Nzxvfh4eG4evXqItXMbHBwMGX31q1bsW/fvjnd7t69Oz744INYvnz5A+888sgj8e6778bu3bvndP/RRx898AYAAAAAAAAAAAAAAAAAAAAAAAAAAMBSVLIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAHmbPPPPMjO+tVisajcYi1Uzv5s2b8dVXX0373tnZuWDbBw4ciBs3bsx69+qrr8aOHTv+896OHTuir69v1rsLFy7EuXPn/vMeAAAAAAAAAAAAAAAAAAAAAAAAAABAuyvZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA+zJ598MlavXj3jTaPRWKSa6X322Wfx999/T/u+fv36BdmdnJyMgwcPznr37LPPxuuvvz5vuzt37ow1a9bMevfpp5/O2yYAAAAAAAAAAAAAAAAAAAAAAAAAAEC7KtkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAD7OOjo7YsGHDjDfDw8MxNja2SEX/bGBgYNq37u7ueOqppxZk9+TJk3Hjxo0Zbzo7O+Ott96a191SSuzatWvWuy+++CJu3749r9sAAAAAAAAAAAAAAAAAAAAAAAAAAADtpmQHAAAAAAAAAAAAAAAAAAAAAAAAAAAAPOw2bdo043ur1YpGo7FINfcbHx+Pb775Ztr3jRs3RkdHx4JsHz9+fNabF198MdasWTPv288//3x0d3fPeDMxMRHDw8Pzvg0AAAAAAAAAAAAAAAAAAAAAAAAAAPyPnbuNrbo+Hz9+9WtbSnGChQUUEZxAZJICihE3BTXcnZ5I0N3FmUUzF7fEJYvL5pIl2zQxJob5wJDFTXeT7cEMZCzLWMuhNKiZoAiCQ4kElg2ngIhWuSlyU9r/g2Xuv/w855Ryzvn2nL5ej4Dr+n6uN/C81JIk7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIBqN3v27Lj00ksL7uRyuQrVfPLts2fP5p1ns9my3D1x4kRs2bKl6N4dd9xRlvsREQsWLCi6s3PnzrLdBwAAAAAAAAAAAAAAAAAAAAAAAAAAqAVJ2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1YOnSpQXnO3bsiEOHDlWo5n+tW7cu72zKlCkxc+bMstzdunVrnDp1quDOpZdeGtdff31Z7kdEXHXVVUV3/vGPf5TtPgAAAAAAAAAAAAAAAAAAAAAAAAAAQC1I0g4AAAAAAAAAAAAAAAAAAAAAAAAAAACoBZlMpuC8v78/1q9fX6Ga/zp06FBs27Yt77ytra1st3fs2FF05/Of/3zU1dWVrWHcuHFFd44ePVq2+wAAAAAAAAAAAAAAAAAAAAAAAAAAALUgSTsAAAAAAAAAAAAAAAAAAAAAAAAAAACgFrS2tsZll11WcCeXy1Wo5n9v9vX15Z1ns9my3Z4zZ07ceeedMXfu3Bg9evQn7syaNats9yMiRo0aVXTn+PHjZW0AAAAAAAAAAAAAAAAAAAAAAAAAAACodvVpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSKTCYTTz/9dN759u3b49ChQzF+/PiKNXV0dOSdTZ8+PaZOnVq22wsWLIgFCxZ8/Pt33nkn9uzZE3v27Im9e/fGnj17Yvbs2WW7HxHR09NTdGfUqFFlbQAAAAAAAAAAAAAAAAAAAAAAAAAAAKh29WkHAAAAAAAAAAAAAAAAAAAAAAAAAAAA1IpMJhNPP/103nl/f390dnbG1772tYr07N+/P1599dW882w2W5GO/5gwYUJMmDAh5s+fX7Gbb731VtGdMWPGVKAEAAAAAAAAAAAAAAAAAAAAAAAAAACgeiVpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSKq6++OiZPnlxwJ5fLVagmoqOjo+A8m81WqCQ9O3fuLLozbdq0CpQAAAAAAAAAAAAAAAAAAAAAAAAAAABUryTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAgFqSyWQKzrdv3x7vvvtuRVrWrVuXd9ba2hqTJk2qSEdaTp48GZs2bSq6N2vWrArUAAAAAAAAAAAAAAAAAAAAAAAAAAAAVK8k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIBakslkCs77+vqis7Oz7B379u2LXbt25Z1ns9myN6RtzZo1cfTo0YI7F198cVxzzTUVKgIAAAAAAAAAAAAAAAAAAAAAAAAAAKhOSdoBAAAAAAAAAAAAAAAAAAAAAAAAAAAAteSqq66KK664ouBOLpcre0dHR0feWZIkkclkyt6Qpvfeey9WrlxZdG/ZsmXR0NBQgSIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqlaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAUGsymUzB+SuvvBKHDx8ua0NHR0fe2dy5c2P8+PFlvZ+mnp6e+Pa3vx0ffPBBwb0RI0bEPffcU5koAAAAAAAAAAAAAAAAAAAAAAAAAACAKpakHQAAAAAAAAAAAAAAAAAAAAAAAAAAAFBr2traCs77+vqis7OzbPf37t0be/fuzTsv1lfNDhw4EHfffXfs2LGj6O4999wTl156aQWqAAAAAAAAAAAAAAAAAAAAAAAAAAAAqluSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAECtmTZtWkydOrXgTi6XK9v99vb2vLP6+vpYsmRJ2W6n5dSpU/HUU0/FsmXL4rXXXiu6P2PGjLj//vsrUAYAAAAAAAAAAAAAAAAAAAAAAAAAAFD9krQDAAAAAAAAAAAAAAAAAAAAAAAAAAAAalEmkyk437ZtWxw+fLgst9etW5d3dsMNN0RLS0tZ7qbh0KFD8ctf/jIWL14cjz/+eBw7dqzoN2PGjImVK1fGiBEjKlAIAAAAAAAAAAAAAAAAAAAAAAAAAABQ/erTDgAAAAAAAAAAAAAAAAAAAAAAAAAAAKhFmUwmVq5cmXfe19cXnZ2dcdddd5X07q5du2Lfvn1559lstqT3yu3MmTPR398fdXV1cfTo0Thy5Ej885//jNdeey22b98eW7dujb6+vgG/N27cuPj1r38dkyZNKmM1AAAAAAAAAAAAAAAAAAAAAAAAAABAbalPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKAWXXnllTF9+vTYs2dP3p1cLhd33XVXSe92dHTknTU2NsaiRYtKeq/cNmzYEA888EBJ3poxY0Y88cQTMXny5JK8BwAAAAAAAAAAAAAAAAAAAAAAAAAAMFwkaQcAAAAAAAAAAAAAAAAAAAAAAAAAAADUqra2toLzV155Jd5///2S3ly3bl3e2fz58+PCCy8s6b1yO3jw4Hm/UV9fH/fee2+sXr06Jk+eXIIqAAAAAAAAAAAAAAAAAAAAAAAAAACA4SVJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKBWZTKZgvOzZ89GZ2dnye7t2LEj9u/fn3eezWZLdqtSDh48eF7fL126NNrb2+PBBx+MxsbGElUBAAAAAAAAAAAAAAAAAAAAAAAAAAAML0naAQAAAAAAAAAAAAAAAAAAAAAAAAAAALVqypQpMWPGjII7uVyuZPc6Ojryzpqbm+OWW24p2a1KOXDgwHl9v3v37li9enVs3749+vv7S1QFAAAAAAAAAAAAAAAAAAAAAAAAAAAwvCRpBwAAAAAAAAAAAAAAAAAAAAAAAAAAANSytra2gvOtW7dGd3f3ed/p6+uLXC6Xd37rrbfGyJEjz/tOpR08ePC8vt+3b1/86le/ijvvvDNuv/326Orqiv7+/hLVAQAAAAAAAAAAAAAAAAAAAAAAAAAADA9J2gEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1LJPJFJyfPXs2Ojs7z/vOtm3b4t133807z2az530jDQcOHCjZW2+88Ubcf//98cUvfjHefPPNkr0LAAAAAAAAAAAAAAAAAAAAAAAAAABQ65K0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAGrZpEmTYubMmQV3crnced9pb2/POxs9enTceOON532j0j766KP48MMPS/7u66+/Hrfffnt0dHSU/G0AAAAAAAAAAAAAAAAAAAAAAAAAAIBaVJ92AAAAAAAAAAAAAAAAAAAAAAAAAAAAQK3LZDLx+uuv552//PLL0d3dHS0tLYN6/+zZs9HZ2Zl3vnDhwmhsbBzU22k6cOBANDQ0xNVXXx0zZsyIqVOnxiWXXBKjR4+O06dPR3d3d7z//vuxa9eu2Lx5cxw+fHjAb/f09MQDDzwQx48fjy9/+ctl/FsAAAAAAAAAAAAAAAAAAAAAAAAAAABUv/q0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAGpdJpOJFStW5J2fPXs2NmzYEF/5ylcG9f6LL74Y3d3deefZbHZQ76Zt4sSJsW3btmhqahrQ/s6dO+MXv/hFdHV1DfjGT37yk7joooti6dKlg80EAAAAAAAAAAAAAAAAAAAAAAAAAACoeUnaAQAAAAAAAAAAAAAAAAAAAAAAAAAAALVu4sSJMWvWrII7uVxu0O93dHTknY0dOzbmzZs36LfT1NTUFE1NTQPeb21tjZ/97GexZs2amDZt2oC+6evriwcffDD27ds3yEoAANXR5CwAACAASURBVAAAAAAAAAAAAAAAAAAAAAAAAIDal6QdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBxkMpmC85dffjm6u7vP+d3Tp09HV1dX3vnSpUvjggsuOOd3q9nMmTNj1apVsWjRogHtnzp1Kn784x+XuQoAAAAAAAAAAAAAAAAAAAAAAAAAAKB6JWkHAAAAAAAAAAAAAAAAAAAAAAAAAAAADAeZTCbq6uryznt7e6Orq+uc3920aVMcOXIk77ytre2c36wFo0aNipUrV8Ztt902oP0tW7bEX/7ylzJXAQAAAAAAAAAAAAAAAAAAAAAAAAAAVKck7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDhYMKECTF79uyCO7lc7pzfbW9vzzu75JJL4tprrz3nN2tFXV1dPProo0X/3f/jd7/7XZmLAAAAAAAAAAAAAAAAAAAAAAAAAAAAqlOSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBwkclkCs63bNkSH3zwwYDfO3XqVGzcuLHgvbq6ugG/V4saGxvjiSeeiKampqK7f/vb3+KNN96oQBUAAAAAAAAAAAAAAAAAAAAAAAAAAEB1SdIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGC6WLl0aSZL/x8L29vZGV1fXgN977rnnoqenJ+88m82eU1+tmjBhQtx1110D2l27dm2ZawAAAAAAAAAAAAAAAAAAAAAAAAAAAKpP/p+sCwAAAAAAAAAAAAAAAAAAAAAAAAAAQEmNHz8+rrnmmoI7uVxuwO91dHTknU2ZMiVmzpw54Ldq3Te/+c1oamoquvfqq69WoAYAAAAAAAAAAAAAAAAAAAAAAAAAAKC6JGkHAAAAAAAAAAAAAAAAAAAAAAAAAAAADCdtbW0F5y+99FJ88MEHRd85ceJEPP/884O+M9yMHj06rrvuuqJ7u3btit7e3goUAQAAAAAAAAAAAAAAAAAAAAAAAAAAVI8k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDhZMmSJZEk+X80bG9vb3R1dRV9Z+PGjfHRRx/lnWez2UH11bL58+cX3Tl58mS8+eabFagBAAAAAAAAAAAAAAAAAAAAAAAAAACoHvl/qi4AAAAAAAAAAAAAAAAAAAAAAAAAAAAlN27cuJg7d27BnVwuV/Sd9vb2vLPp06fH1KlTz7mt1rW2tg5o78MPPyxzCQAAAAAAAAAAAAAAAAAAAAAAAAAAQHVJ0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYbtra2grOX3rppfjwww/zzo8dOxYvvPBC3nk2mx10Wy0bO3bsgPaOHj1a5hIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkqQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMNwsWbIkLrjggrzz3t7e6Orqyjvv6uqK06dP551ns9nz6qtVY8eOHdDesWPHylwCAAAAAAAAAAAAAAAAAAAAAAAAAABQXZK0AwAAAAAAAAAAAAAAAAAAAAAAAAAAAIablpaWuP766wvurF+/Pu+so6Mj76y1tTUmTZo06LZKOXHiRJw+fbqiN+vr6we019jYWOYSAAAAAAAAAAAAAAAAAAAAAAAAAACA6jKwn+4KAAAAAAAAAAAAAAAAAAAAAAAAAABASWUymdi8eXPe+YsvvhhHjx6Niy666H/+/MiRI/Hiiy/m/S6bzZas8XycPXs2Dh48GG+//Xa89dZb8fbbb3/867feeiu6u7vjsccei+XLl1es6fjx4wPaa25uLnMJAAAAAAAAAAAAAAAAAAAAAAAAAABAdalPOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGA4WrRoUTz88MPR29v7ifMzZ87Exo0bY/ny5f/z5xs2bIgzZ8584jdJkkQmkyl562CsXLkynnzyyYI727dv/z9/v3Lav3//gPbGjx9f5hIAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkqQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBxdfPHFMW/evII769ev/z9/lsvl8u7PnTs3xo8ff95tpXD55ZcX3XnhhRcqUPJfu3fvLrpTV1cXkydPrkANAAAAAAAAAAAAAAAAAAAAAAAAAABA9UjSDgAAAAAAAAAAAAAAAAAAAAAAAAAAABiuMplMwfmmTZuip6fn498fOXIkXnrppbz7bW1tJWs7X9OmTSu6s3///ti9e3cFav6t0L/df1xxxRXR1NRUgRoAAAAAAAAAAAAAAAAAAAAAAAAAAIDqkaQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMFwtWrQoGhoa8s5PnToVzz///Me/7+rqijNnznzibn19fSxZsqTkjYM1Y8aMaGpqKrq3du3aCtREnDx5Mp599tmie9dff30FagAAAAAAAAAAAAAAAAAAAAAAAAAAAKpLknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAcDV69Oj43Oc+V3Cns7Pz41+vX78+794NN9wQLS0tJWs7X/X19TF37tyie3/84x/j1KlTZe9Zs2ZN9PT0FN2bP39+2VsAAAAAAAAAAAAAAAAAAAAAAAAAAACqTZJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwHCWyWQKzp9//vk4ffp0HDt2LDZv3px3L5vNljrtvC1evLjoTnd3d/zhD38oa0dPT0/8/Oc/L7rX0tISN910U1lbAAAAAAAAAAAAAAAAAAAAAAAAAAAAqlGSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBwtnDhwmhoaMg7P3HiRGzatCmeffbZOHPmzCfuNDY2xqJFi8qVOGiLFy+OpqamontPPvlkHD9+vGwdK1asiHfffbfo3he+8IWC/xcAAAAAAAAAAAAAAAAAAAAAAAAAAADDVZJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwHD2qU99Km688caCO11dXdHV1ZV3Pn/+/LjwwgtLnXbeLr744rjtttuK7h0+fDgeffTRsjT8+c9/jmeeeaboXnNzc3z9618vSwMAAAAAAAAAAAAAAAAAAAAAAAAAAEC1S9IOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGO7a2toKzjdu3Bh//etf886z2Wypk0rmvvvui4aGhqJ7a9asiVWrVpX09nPPPRc//OEPB7R77733RktLS0nvAwAAAAAAAAAAAAAAAAAAAAAAAAAA1Iok7QAAAAAAAAAAAAAAAAAAAAAAAAAAAIDh7tZbb40RI0bknXd3d8eJEyc+cdbc3By33HJLudLO2+WXXx5f/epXB7T70EMPxTPPPFOSu6tXr477778/zpw5U3T3yiuvjPvuu68kdwEAAAAAAAAAAAAAAAAAAAAAAAAAAGpRknYAAAAAAAAAAAAAAAAAAAAAAAAAAADAcHfhhRfGTTfdNKhvb7311hg5cmSJi0rrO9/5TkyaNKnoXl9fXzz00EPxve99L3p6egZ167333ovvfve78aMf/Sh6e3uL7jc1NcVPf/rTaGxsHNQ9AAAAAAAAAAAAAAAAAAAAAAAAAACA4SBJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAICItra2QX2XzWZLXFJ6o0aNihUrVkRDQ8OA9teuXRsLFy6Mp556Ko4fPz6gb/bv3x+PP/54LFmyJNrb2wfc9vDDD8dnP/vZAe8DAAAAAAAAAAAAAAAAAAAAAAAAAAAMR/VpBwAAAAAAAAAAAAAAAAAAAAAAAAAAABBxyy23RFNTU5w8eXLA34wePTpuvPHGMlaVzpw5c+KRRx6JH/zgBwPa7+7ujscffzxWrlwZc+bMiXnz5sVll10WLS0tMXLkyPjoo4/inXfeib///e+xdevW2LVrV/T3959T0/e///1Yvnz5YP46AAAAAAAAAAAAAAAAAAAAAAAAAAAAw0p92gEAAAAAAAAAAAAAAAAAAAAAAAAAAABENDc3x4IFC2L9+vUD/mbhwoXR2NhYxqrSWr58eRw5ciQeffTRAX9z+vTp2LJlS2zZsqWkLQ888EB84xvfKOmbAAAAAAAAAAAAAAAAAAAAAAAAAAAAtSpJOwAAAAAAAAAAAAAAAAAAAAAAAAAAAIB/y2Qy57SfzWbLVFI+d999dzzyyCPR0NCQyv2GhoZ47LHH4lvf+lYq9wEAAAAAAAAAAAAAAAAAAAAAAAAAAKpRknYAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/3bzzTdHc3PzgHbHjh0b8+bNK3NReXzpS1+K3/zmNzFu3LiK3p0yZUr8/ve/j+XLl1f0LgAAAAAAAAAAAAAAAAAAAAAAAAAAQLVL0g4AAAAAAAAAAAAAAAAAAAAAAAAAAADg30aOHBk333zzgHaXLl0aF1xwQXmDyui6666L9vb2WLZsWdlvNTY2xr333ht/+tOforW1tez3AAAAAAAAAAAAAAAAAAAAAAAAAAAAak2SdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAD/lclkBrTX1tZW5pLyGzNmTKxYsSJWrVoV8+bNK/n7I0aMiDvuuCM6OjriwQcfjJEjR5b8BgAAAAAAAAAAAAAAAAAAAAAAAAAAwHBQn3YAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/7VgwYIYNWpU9PT05N255JJL4tprr61gVXnNnj07fvvb38aePXti9erV0dnZGYcOHRrUW3V1dTFr1qxYvHhx3H777dHS0lLiWgAAAAAAAAAAAAAAAAAAAAAAAAAAgOGnrr+/vz/tCAAAAAAAAAAAAAAAAAAAAAAAAAAAAPj/vfHGG7Fjx47YtWtX/Otf/4oDBw7EkSNH4uTJk9HX1xcjRoyI5ubm+PSnPx0TJ06Mz3zmM9Ha2hpz5syJcePGpZ0PAAAAAAAAAAAAAAAAAAAAAAAAAABQU+r6+/v7044AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhqYk7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABg6ErSDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACGriTtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGDoStIOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIauJO0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYOhK0g4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhq4k7QAAAAAAAAAAAAAAAAAAAAAAAADg/7E7xzQAAAAIgDb7hzaGHpAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyYwkbAAAIABJREFUAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgF9ZBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBfWQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAX1kHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKDsz19o1fUbwPFnH5dmSRRBKB0sMGVXwaAF1UVRImULCjKhXXTRIrqoiCy6iHD0h4SMgQSxiyjtIoKVbRVZO4yCiHaRtIKmLIr0YpCxtsYpO9vO7/r3K+emO/t8fvp6XZ7v83me9wEAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlCvlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADKlXIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOVKuQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAcqXcAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC5Uu4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoFwpdwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQrpQ7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAChXyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlKs1dwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADNU6vV4ttvv40jR47E5ORkTE1NxfT0dKxevTrWrVsXl19+eWzevDm2bNkSGzduzJ27oOnp6Th8+HCMj4/H1NRU/P777zEzMxNr1qyJdevWxRVXXBGbN2+Otra2WL9+fe5cAACAc0Zr7gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDl9Omnn8ajjz76j9+r1WpUKpUMRSvvjz/+iP7+/hgcHIyxsbGYnZ1d1Lurrroqbr311tixY0ds2rSpyZWLc+LEiXjnnXfi0KFDMT4+HvPz84t6t2XLlti6dWvcd999sWHDhiZXAgAAnNtaGo1GI3cEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADAcvj7779j+/btcezYsX98q1arUalUMlStnKmpqdi3b1/09/dHrVY74z0tLS1xyy23xK5du+Kaa65ZxsLFm5iYiFdffTU+/vjjqNfrZ7yntbU1tm/fHk8++WSsX79+GQsBAADOHyl3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwHLZt29fHDt2LHdGFp9//nl0dnbGgQMHolarndWuRqMRw8PDcffdd0dvb2/Mzs4uU+XivP/++9HZ2RkffPBB1Ov1s9o1OzsbAwMDcccdd8SBAweWqRAAAOD80tJoNBq5IwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAM7Wl19+GQ8++GA0Go1//V6tVqNSqaxw1crYu3dv9PX1NW3/DTfcEL29vXHppZc27UZExNzcXDzzzDMxMDDQtBudnZ3x0ksvxZo1a5p2AwAA4FyTcgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACcrePHj8fTTz8djUYjd8qKe/HFF6Ovr6+pN7766qvo6uqKycnJpt2o1+vxxBNPxMDAQNNuRER8+OGH0d3dHSdPnmzqHQAAgHNJyh0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABwNiYnJ6O7uztOnDiRO2XF7dmzJ/bv378it8bHx+Ohhx6KWq3WlP27du2KQ4cONWX3/xoZGYnHH3885ubmVuQeAADA/7vW3AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABnamZmJh555JH46aefcqesuKGhoXjjjTcWNdve3h533nlntLe3x8aNG+Oiiy6KP//8M3755Zf45ptv4qOPPorDhw+fds93330XPT09sWfPnrPN/y9vvvlmfPLJJ6eda2lpiZtuuiluv/32uPbaa+PKK6+MCy+8MGZmZuLnn3+OkZGRGBwcjKNHj5521/DwcLz22mvx2GOPLcdfAAAAOKe1NBqNRu4IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACApZqamoru7u4YHR1d1Hy1Wo1KpdLkqpVx/PjxuOeee2J6enrBuU2bNkVPT090dHScdufIyEjs3r07fvzxx9PO7t27Nzo7Oxfdu5DR0dG4//77o16vLzjX3t4eu3fvjra2ttPuHBoaiueffz4mJiYWnFu1alXs378/rrvuuiU1AwAAnG9S7gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICl+u233+KBBx6I0dHR3ClZvPDCCzE9Pb3gzLZt26K/vz86OjoWtfP666+PgwcPxl133XXa2ZdffjlmZmYWtXch8/Pz8eyzz0a9Xl9wrqurK95+++1oa2tb1N6tW7fG4OBg3HjjjQvOzc3NRU9PT8zNzS26GQAA4HyUcgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAsxdjYWOzYsSN++OGH3ClZfP311zE8PLzgzG233Ra9vb2xdu3aJe1evXp1vPLKK7Fz584F53799dd4/fXXl7T73xw8eDCOHDmy4ExXV1c899xz0drauqTdl1xySfT19cXNN9+84NzRo0fj3XffXdJuAACA801Lo9Fo5I4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABYjKGhoXjqqaeiVqst+W21Wo1KpdKEqpXTaDTi3nvvje+///6UM1dffXW89957cfHFF5/xnfn5+Xj44Yfjiy++OOXM2rVrY3h4OC677LIzunHy5MnYtm1bTExMnHKmo6Mj3nrrrVi1atUZ3YiI+Ouvv2Lnzp0xNjZ2ypkNGzbEZ599FhdccMEZ3wEAADiXpdwBAAAAAAAAAAAAAAAAAAAAAAAAAP9h715jrKzPfgHf86w1A8wMMoMzHaDIlIEIDYhVtqGY0hTTJqZ2hypG6YmG6m5jKmmaxmrfL21j+5LYVBt7CLsNFHVrAwSraTW79dCDTXW3uwaLmKqxOgoD6HCyzABzWLM/vTtv9F3PWnNY8yxmXVfiF3/3uu/ff5kQ5wMZAAAAAAAAAAAAAAAAAAAAAAAAAIBSBgYGYsuWLXHzzTdHf39/1nUy88wzz8Tzzz+fOvOtb30rmpqaxnUnSZL43ve+F+eff37RmdOnT8f9998/5hu/+tWv4vDhw0Xz+vr6+Pa3vx25XG7MNyIipk+fHnfffXdMmzat6MyhQ4fi17/+9bjuAAAATGVJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADSvPTSS7F+/frYsWNHjIyMZF0nU7t3707N165dG6tXr56QWy0tLfHVr341deYXv/hFDA0NjWl/qbdcf/31sWjRojHtfqfOzs74whe+kDpz3333TcgtAACAqSjJugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMB/5fTp03HXXXfFNddcEy+99FLWdTJ37NixeOyxx1JnPv/5z0/ozauvvjo6OjqK5r29vfGnP/1p1HtffPHF2Lt3b9G8rq4uNm7cOOq9aTZt2hTTp08vmu/fvz9efvnlCb0JAAAwVSRZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHinxx57LK666qrYunVrDA4OlpxvamqKxsbGSWiWnUcffTQGBgaK5p2dnbF69eoJvZnP5+O6665LnXn44YdHvfehhx5KzVevXh2dnZ2j3ptm1qxZ8fGPfzx1ZixvAQAAqAVJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD+w5///Oe4/vrr4+abb46DBw+W9Zn29vZ44IEHorW1tcLtsvXkk0+m5h/72McqcvfKK69Mzf/4xz/G4ODgqHZW61ueeOKJitwFAAA41yVZFwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIiI+OxnPxubNm2KvXv3lv2ZSy+9NPbs2RNLly6tYLPsnT17Nv7yl7+kzlxxxRUVub148eJ473vfWzQ/depUPPvss2Xve+ONN+K1115LnanUW1atWhXTp08vmv/zn/+MAwcOVOQ2AADAuSzJugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBExF//+teyZ5MkiRtvvDHuvffe6OjoqGCr6rB3794YHBwsmk+bNi1WrFhRsfurVq1KzZ966qmyd5X677xgwYKYM2dO2ftGY/r06SW/p9G8BQAAoFYkWRcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYjc7Ozrjvvvvilltuifr6+qzrTIq9e/em5suWLavod7F8+fLU/Lnnnit7V6m3XHzxxWXvGouLLrooNf/73/9e0fsAAADnonzWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMpRX18fN954Y9x0000xbdq0rOtMqv3796fmF110UUXvl9r/wgsvxMjISNTV1ZXcVe1vef755yt6HwAA4FyUz7oAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAKWvXro1bb701Fi5cmHWVTLz44oup+aJFiyp6v9T3furUqXj11Vejq6srda5QKMTLL7+cOpP1W1555ZU4ffp0zJgxo6I9AAAAziVJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACKWb58eezYsSO2bt0aCxcuzLpOJoaGhuLAgQOpM11dXRXtMHPmzGhtbU2d6e7uLrnn0KFDcfbs2dSZSr9lwYIFqfnw8HC88cYbFe0AAABwrkmyLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPBOy5Ytix//+MexZ8+eWL16ddZ1MtXT0xNDQ0OpMwsWLKh4j1I3Dhw4UHLH66+/npo3NDTE3LlzR9VrtBobG6OtrS11ppy3AAAA1JJ81gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiInK5XHz4wx+OjRs3xuWXX551narR09OTmudyuWhvb694j7a2ttT84MGDJXeUekt7e3vU1dWNqtdYtLW1RW9vb9G8nLcAAADUknzWBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACIinnzyyZgzZ07WNarO4cOHU</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAK1wAABznCAYAAACWIc/HAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAuIwAALiMBeKU/dgAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzOu2rUWxjG4ZVvduMdqJWNneKh0EvwVJkbsPISEgSx1Qh2YiGWVkLALvMPRolB0ErHA1YiiHgISEDUhBjj7G7DxkwgOs63MvM87fst1m+s2+12CwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAGIjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqFdkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1iuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoF6RHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADUK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHpFdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQr8gOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOoV2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAvSI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKhXZAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA9YrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKBekR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1CuyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIB6RXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUK/IDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADqFdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQL0iOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACoV2QHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPWK7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgXpEdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANQrsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAekV2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFCvyA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA6hXZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEC9IjsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqNc/2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAC1OnfuXLl9+/aW3+3fv79MT0//haL+WVhYKGfPnt3Sm9OnT5epqam/VPTnXr9+XcbHx8vKysqG+6VLl8r4+PiAqwAAAAAAAAAAAAAAAAAAAAAAAAAAALa/yA4AAAAAAAAAAAAAAAAAAAAAAAAAAAAYNs+fPy/v3r3LztjUzMxMdkJf/fjxo0xMTJSVlZXsFAAAAAAAAAAAAAAAAAAAAAAAAAAAgKET2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADDaHZ2Njuhp+/fv5e5ubnsjL66du1aefHiRXYGAAAAAAAAAAAAAAAAAAAAAAAAAADAUIrsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgGHUNE12Qk8LCwvly5cv2Rl90+l0yvXr17MzAAAAAAAAAAAAAAAAAAAAAAAAAAAAhlZkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyjZ8+elffv32dnbKjdbmcn9M3y8nKZnJws6+vr2SkAAAAAAAAAAAAAAAAAAAAAAAAAAABDK7IDAAAAAAAAAAAAAAAAAAAAAAAAAAAAhlG32y2zs7PZGb9YWVkp9+7dy87om6mpqfLmzZvsDAAAAAAAAAAAAAAAAAAAAAAAAAAAgKEW2QEAAAAAAAAAAAAAAAAAAAAAAAAAAADDqmma7IRfzM/Pl+Xl5eyMvpifny+3bt3KzgAAAAAAAAAAAAAAAAAAAAAAAAAAABh6kR0AAAAAAAAAAAAAAAAAAAAAAAAAAAAwrJ4+fVo+fPiQnfE/MzMz2Ql9sbS0VM6fP5+dAQAAAAAAAAAAAAAAAAAAAAAAAAAAMBIiOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGBYdbvdMjs7m53xn69fv5b79+9nZ/TFhQsXyqdPn7IzAAAAAAAAAAAAAAAAAAAAAAAAAAAARkJkBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAyzpmmyE/5z9+7dsrq6mp3xx6anp8vc3Fx2BgAAAAAAAAAAAAAAAAAAAAAAAAAAwMiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIDtrNVqbbp3Op3y8ePHAdVsrt1uZyf8sbdv35aLFy9mZwAAAAAAAAAAAAAAAAAAAAAAAAAAAIyUyA4AAAAAAAAAAAAAAAAAAAAAAAAAAADYzo4ePbrp3u12S9M0A6rp7fPnz+XBgwc991arNcCa3/Pz588yOTlZvn37lp0CAAAAAAAAAAAAAAAAAAAAAAAAAAAwUiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAYDs7dOhQ2blz56Y3TdMMqKa3O3fulLW1tZ77kSNHBljze27cuFEeP36cnQEAAAAAAAAAAAAAAAAAAAAAAAAAADByIjsAAAAAAAAAAAAAAAAAAAAAAAAAAABgOxsbGyvHjh3b9KbT6ZTFxcUBFW1sZmam57Zr165y+PDhAdZs3cuXL8vVq1ezMwAAAAAAAAAAAAAAAAAAAAAAAAAAAEZSZAcAAAAAAAAAAAAAAAAAAAAAAAAAAABsdydPntx073a7pWmaAdX8amlpqTx69KjnfuLEiTI2NjbAoq1ZXV0tExMTZW1trefN3r17B1gEAAAAAAAAAAAAAAAAAAAAAAAAAAAwWiI7AAAAAAAAAAAAAAAAAAAAAAAAAAAAYLs7ePBg2b1796Y3TdMMqGbjv9fX13vup06dGmDN1l25cqW8evWq537gwIFy5syZARYBAAAAAAAAAAAAAAAAAAAAAAAAAACMlsgOAAAAAAAAAAAAAAAAAAAAAAAAAAAAGAbHjx/fdH/y5ElZXFwcUM3/tdvtntuePXvKvn37BlizNQ8fPiw3b97sue/YsaNcvny5tFqtAVYBAAAAAAAAAAAAAAAAAAAAAAAAAACMlsgOAAAAAAAAAAAAAIB/2bmbFyvr/4/j77kcNW36SmNgYtKdSZFZlJSG3SiaXudaFEWrqLa1aBHdaTeE3WC5CKpFmwjaRKto0RzPjAdJyjSzW4iKggoSKmtssgydu99Cuu+6dGbOnOv85jweq5rX+1yf518gAAAAAAAAAAAAAEwFaZoW7qOjo9Hb29ukmj999913sXfv3ty9Uqk0sWZsBgYGYsOGDTE6Opp7c/fdd8eZZ57ZxCoAAAAAAAAAAAAAAAAAAAAAAAAAAID2k5QdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUsXbo0TjvttMKbWq3WpJq/vzkyMpK7Z1nWxJqx2bRpU3z77be5++WXXx433XRTE4sAAAAAAAAAAAAAAAAAAAAAAAAAAADaU1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFSRpmnh/t5778V3333XpJqjqtVq7rZ48eJYtGhRE2uO32uvvRY9PT25+//+97/YvHlzdHR0NLEKAAAAAAAAAAAAAAAAAAAAAAAAAACgPSVlBwAAAAAAAAAAAAAAAAAAAAAAAAAAAEwVaZoW7qOjo9HX19ekmoh9+/bFBx98kLtnWda0lrH49ttv45FHHim8efDBB+PUU09tUhEAAAAAAAAAAAAAAAAAAAAAAAAAAEB7S8oOAAAAAAAAAAAAAAAAAAAAAAAAAAAAmCrOP//8OP300wtvarVak2oiqtVq4Z5lWZNKjt/o6Ghs2LAhBgYGcm+uueaauPbaa5tYBQAAAAAAAAAAAAAAAAAAAAAAAAAA0N6SsgMAAAAAAAAAAAAAAAAAAAAAAAAAAACmkjRNC/f33nsvvv/++6a0bN26NXdbunRpLFy4sCkdY/Hiiy/Grl27cvdTTjklNm3a1MQiAAAAAAAAAAAAAAAAAAAAAAAAAAAAkrIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAppI0TQv3kZGR6Ovrm/SOr776Kj7++OPcPcuySW8Yqy+++CKeeuqpwptHH300uru7m1QEAAAAAAAAAAAAAAAAAAAAAAAAAABARERSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUcu6558aZZ55ZeFOr1Sa9o1qt5m5JkkSappPeMBaDg4Nx9913x+HDh3Nvbrjhhli9enUTqwAAAAAAAAAAAAAAAAAAAAAAAAAAAIiISMoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAmGrSNC3c33333di/f/+kNlSr1dxt2bJlMW/evEl9f6yeeeaZ+OSTT3L3BQsWxP3339/EIgAAAAAAAAAAAAAAAAAAAAAAAAAAAH6XlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAw1VQqlcJ9ZGQk+vr6Ju39zz//PD7//PPc/Vh9zbZ37954/vnnc/ckSeKJJ56Irq6uJlYBAAAAAAAAAAAAAAAAAAAAAAAAAADwu6TsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgKnmnHPOiUWLFhXe1Gq1SXu/p6cnd+vs7Ix169ZN2ttj9csvv8R9990XIyMjuTe33nprXHrppU2sAgAAAAAAAAAAAAAAAAAAAAAAAAAA4K+SsgMAAAAAAAAAAAAAAAAAAAAAAAAAAACmojRNC/e9e/fG/v37J+XtrVu35m4rVqyI7u7uSXl3PB5//PH45ptvcvdFixbFnXfe2cQiAAAAAAAAAAAAAAAAAAAAAAAAAAAA/ikpOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGAqStO0cB8ZGYm+vr6Gv/vxxx/HV199lbtnWdbwN8erXq/HK6+8krtPnz49tmzZEjNnzmxiFQAAAAAAAAAAAAAAAAAAAAAAAAAAAP+UlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFZ199tmxePHiwptardbwd6vVau42Y8aMWLt2bcPfHI8ffvghHnroocKb2267Lc4///wmFQEAAAAAAAAAAAAAAAAAAAAAAAAAAJAnKTsAAAAAAAAAAAAAAAAAAAAAAAAAAABgqqpUKoX7u+++Gz/++GND39y6dWvuduWVV0ZXV1dD3xuvBx54IPr7+3P3Cy64IG677bYmFgEAAAAAAAAAAAAAAAAAAAAAAAAAAJAnKTsAAAAAAAAAAAAAAAAAAAAAAAAAAABgqkrTtHAfHh6Ovr6+hr33/vvvx759+3L3LMsa9tZEvPzyy/H666/n7ieccEJs2bIlOjs7mxcFAAAAAAAAAAAAAAAAAAAAAAAAAABArqTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgKnqjDPOiPPOO6/wplarNey9arWau82ePTtWrVrVsLfG6+uvv44nn3yy8Oauu+6Ks846q0lFAAAAAAAAAAAAAAAAAAAAAAAAAAAAHEtSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAMBUVqlUCvd33nkn+vv7J/zOyMhI1Gq13H316tUxa9asCb8zEcPDw3HPPffEoUOHcm9WrFgRN998cxOrAAAAAAAAAAAAAAAAAAAAAAAAAAAAOJak7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICpLE3Twn14eDj6+vom/M7evXvj+++/z92zLJvwGxP13HPPxYcffpi7n3TSSbF58+bo6OhoYhUAAAAAAAAAAAAAAAAAAAAAAAAAAADHkpQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAMJUtXLgwlixZUnhTq9Um/E5PT0/uNmfOnFi5cuWE35iIjz76KJ577rnCmwcffDDmz5/fpCIAAAAAAAAAAAAAAAAAAAAAAAAAAACOV1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAwFSXpmnhvmfPnujv7x/394eHh6Ovry93X7NmTcyYMWPc35+o3377Le69994YGhrKvbnmmmviuuuua2IVAAAAAAAAAAAAAAAAAAAAAAAAAAAAxyspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAGCqS9O0cB8eHo5t27aN+/u7du2K/v7+3D3LsnF/uxG2bNkSX375Ze4+d+7c2LRpUxOLAAAAAAAAAAAAAAAAAAAAAAAAAAAAGIuk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAICpbsGCBXHhhRcW3tRqtXF/v1qt5m5z586N5cuXj/vbE/XGG2/ESy+9VHjzyCOPRHd3d5OKAAAAAAAAAAAAAAAAAAAAAAAAAAAAGKuk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIB2kKZp4b5nz57o7+8f83ePHDkS9Xo9d1+/fn1MmzZtzN9thAMHDsTGjRsLb66//vpYs2ZNk4oAAAAAAAAAAAAAAAAAAAAAAAAAAAAYj6TsAAAAAAAAAAAAAAAAAAAAAAAAAAAAgHaQpml0dHTk7kNDQ1Gv18f83Z07d8bAwEDuXqlUxvzNRnn44Ydj//79ufuCBQvigQceaGIRAAAAAAAAAAAAAAAAAAAAAAAAAAAA45GUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANAOTj311LjooosKb2q12pi/29PTk7vNnz8/LrnkkjF/sxFeffXV6O3tzd07Ojpi8+bN0dXV1cQqAAAAAAAAAAAAAAAAAAAAAAAAAAAAxiMpOwAAAAAAAAAAAAAAAAAAAAAAAAAAAKBdpGlauL/99ttx4MCB4/7e4cOHY/v27YXvdXR0HPf3GmXfvn3x6KOPFt7ccsstcdlllzWpCAAAAAAAAAAAAAAAAAAAAAAAAAAAgIlIyg4AAAAAAAAAAAAAAAAAAAAAAAAAAABoF+vXr48kyf9nYYeGhqJerx/3915//fX49ddfc/csy8bU1wgjIyOxYcOG+OWXX3Jvzj777LjrrruaWAUAAAAAAAAAAAAAAAAAAAAAAAAAAMBE5P/LugAAAAAAAAAAAAAAAAAAAAAAAAAAADTUvHnz4uKLLy68qdVqx/29arWau51xxhmxZMmS4/5Wo7zwwguxZ8+e3L2zszO2bNkSM2fObGIVAAAAAAAAAAAAAAAAAAAAAAAAAAAAE5GUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBOKpVK4b579+44cODAMb9z6NCh2LFjx7jfmQyffvppPP3004U3t99+eyxZsqRJRQAAAAAAAAAAAAAAAAAAAAAAAAAAADRCZ9kBAAAAAAAAAAAAAAAAAAAAAAAAAAAA7WTdunXx2GOPxcjIyH/uQ0NDUa/X48Ybbyz8zvbt2+O3337L3bMsm1DneGzbti2OHDlSePPss8/Gs88+26Siv9u4cWNs3LjxmHefffZZE2oAAAAAAAAAAAAAAAAAAAAAAFC+iE0AACAASURBVAAAAAD+/0jKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAGgnp5xySixbtqzwplarHfM7PT09udvixYtj0aJFY24DAAAAAAAAAAAAAAAAAAAAAAAAAACA/5KUHQAAAAAAAAAAAAAAAAAAAAAAAAAAANBuKpVK4b579+746aefcveDBw/Gm2++mbtnWTbuNgAAAAAAAAAAAAAAAAAAAAAAAAAAAPinpOwAAAAAAAAAAAAAAAAAAAAAAAAAAACAdrNu3bqYNm1a7j40NBT1ej13r9frceTIkdw9y7IJ9QEAAAAAAAAAAAAAAAAAAAAAAAAAAMBfJWUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAtJvu7u647LLLCm96e3tzt2q1mrstXbo0Fi5cOO42AAAAAAAAAAAAAAAAAAAAAAAAAAAA+Kek7AAAAAAAAAAAAAAAAAAAAAAAAAAAAIB2lKZp4b5r1674+eef//X3gYGB2LVrV+7vsiybcBsAAAAAAAAAAAAAAAAAAAAAAAAAAAD8VVJ2AAAAAAAAAAAAAAAAAAAAAAAAAAAAQDtau3ZtdHZ25u6Dg4Oxffv2f/1927ZtMTg4+J+/SZIk0jRtWCMAAAAAAAAAAAAAAAAAAAAAAAAAAABERCRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSjk08+OZYvX15409vb+6+/1Wq13Ptly5bFvHnzJtwGAAAAAAAAAAAAAAAAAAAAAAAAAAAAf9VZdgAAAAAAAAAAAAAAAAAAAAAAAAAAAEC7StM03nzzzdx9586d8euvv8aJJ54YEREDAwOxe/fu3PtKpdLwxrG444474o477ijl7VdeeSU2btxYeLN58+a4/vrrm1QEAAAAAAAAAAAAAAAAAAAAAAAAAAAwdSRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSrtWvXxvTp03P3w4cPx44dO/74/3q9HoODg/9529nZGevWrWt4IwAAAAAAAAAAAAAAAAAAAAAAAAAAACRlBwAAAAAAAAAAAAAAAAAAAAAAAAAAALSrOXPmxOWXX15409fX98d/9/b25t6tWLEiuru7G9YGAAAAAAAAAAAAAAAAAAAAAAAAAAAAv0vKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAGhnaZoW7jt27IgjR47EwYMH46233sq9y7Ks0WkAAAAAAAAAAAAAAAAAAAAAAAAAAAAQERGdZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAC0szVr1sT06dNjcHDwP/dDhw7Fzp074+DBg7k3M2bMiLVr105mJgAAAAAAAAAAAAAAAAAAAAAAAAAAAG0sKTsAAAAAAAAAAAAAAAAAAAAAAAAAAACgnZ100kmxcuXKwpt6vR71ej13v/LKK6Orq6vRaQAAAAAAAAAAAAAAAAAAAAAAAAAAABAREUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAO2uUqkU7tu3b4833ngjd8+yrNFJAAAAAAAAAAAAAAAAAAAAAAAAAAAA8IfOsgMAAAAAAAAAAAAAAAAAAAAAAAAAAADa3erVq2PmzJlx+PDh/9z7+/tzfzt79uxYtWrVZKUBAAAAAAAAAAAAAAAAAAAAAAAAAABAJGUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAtLuurq644oorxvXb1atXx6xZsxpcBAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9Kyg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAgolKpjOt3WZY1uAQAAAAAAAAAAAAAAAAAAAAAAAAAAAD+Lik7AAAAAAAAAAAAAAAAAAAAAAAAAAAAgIhVq1bFCSecMKbfzJkzJ1auXDlJRQAAAAAAAAAAAAAAAAAAAAAAAAAAAHBUUnYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEbNnz46rrrpqTL9Zs2ZNzJgxY5KKAAAAAAAAAAAAAAAAAAAAAAAAAAAA4Kik7AAAAAAAAAAAAAAAAAAAAAAAAAAAAACOStN0TPdZlk1SCQAAAAAAAAAAAAAAAAAAAAAAAAAAAPwpKTsAAAAAAAAAAAAAAAAAAAAAAAAAAACAo66++uqYPXv2cd3OnTs3li9fPslFAAAAAAAAAAAAAAAAAAAAAAAAAAAAEJGUHQAAAAAAAAAAAAAAAAAAAAAAAAAAAMBRs2bNiquvvvq4btevXx/Tpk2b3CAAAAAAAAAAAAAAAAAAAAAAAAAAAACIiKTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP6Upulx3VUqlUkuAQAAAAAAAAAAAAAAAAAAAAAAAAAAgKOSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAD401VXXRUnnnhi4c38+fPjkksuaVIRAAAAAAAAAAAAAAAAAAAAAAAAAAAA7a5jdHR0tOwIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoDUlZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAArSspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABoXUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEDrSsoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFpXUnYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0LqSsgMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA1pWUHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAC0rqTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKB1JWUHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAK0rKTsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaF1J2QEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA60rKDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABaV1J2AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANC6krIDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgNaVlB0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAtK6k7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgdSVlBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACtKyk7AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGhdSdkBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQOtKyg4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWldSdgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADQupKyAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIDWlZQdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALSupOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoHUlZQcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAArSspOwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABoXUnZAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEDrSsoOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD+j905pgEAAEAAtNk/tDH0gAQAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8yjoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/Mo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzKOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGV/7kKzrt8Hjl/7OnU+0E+RSnG4wAd2FBhZrA4qMzFdkJUKGYllRGCFZNFBhKNHKUuSQDwI054oVj4lma6R9LgDNTPSZSVpNMiyrTHTbd6/o//Bv1+73XTb55u+Xof357qv6/0FAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAeUcbiQAAIABJREFUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5laUOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPIrSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5FeWOgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIryx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJBfWeoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIL+y1AEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAfmWpAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAID8ylIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPmVpQ4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8itLHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkV5Y6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMivLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkF9Z6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgv7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEB+ZakDAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgPzKUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+ZWlDgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADyK0sdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAORXljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyK8sdQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQX1nqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACC/stQBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQH5lqQMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACA/MpSBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD5VZo6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAgL7T1tYWX331VRw4cCCOHTsWzc3N0dLSEoMGDYrhw4fHqFGjYuLEiTFp0qQYN25c6tyiWlpaYvfu3XHw4MFobm6OP/74I1pbW2Pw4MExfPjwuOiii2LixIlRWVkZo0ePTp0LAABwzihNHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANCbPvzww7j//vv/5/e6urooLy9PUNT//vzzz6itrY3NmzfH/v37o6Ojo1v/q6ioiKlTp8acOXNi/PjxfVzZPUePHo233nortm3bFgcPHoxTp05163+TJk2KadOmxdy5c2PMmDF9XAkAAHBuKykUCoXUEQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAL3h5MmTMXPmzDh8+PD/vNXV1UV5eXmCqv7T3Nwcq1atitra2mhrazvjPSUlJXHttdfG0qVLY8KECb1Y2H1NTU3xwgsvxNatW6O9vf2M95SWlsbMmTPjoYceitGjR/diIQAAwPkjSx0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADQW1atWhWHDx9OnZHExx9/HNXV1bF+/fpoa2s7q12FQiHq6+vj5ptvjpUrV0ZHR0cvVXbPe++9F9XV1bFx48Zob28/q10dHR2xadOmuPHGG2P9+vW9VAgAAHB+KSkUCoXUEQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGfr008/jbvvvjsKhcI/vtfV1UV5eXk/V/WPFStWxJo1a/psf1VVVaxcuTJGjBjRZzciIjo7O+PRRx+NTZs29dmN6urqePrpp2Pw4MF9dgMAAOBck6UOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOFtHjhyJRx55JAqFQuqUfvfUU0/FmjVr+vTG559/HvPnz49jx4712Y329vZYsmRJbNq0qc9uRERs2bIlFi1aFCdOnOjTOwAAAOeSLHUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADA2Th27FgsWrQojh49mjql3y1fvjzWrVvXL7cOHjwY99xzT7S1tfXJ/qVLl8a2bdv6ZPffNTQ0xIMPPhidnZ39cg8AAODfrjR1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwJlqbW2N++67L3788cfUKf1ux44d8corr3RrdvLkyTFr1qyYPHlyjBs3LoYOHRrHjx+Pn376KXbt2hXvv/9+7N69+7R7vv7666ipqYnly5efbf7/s3bt2vjggw9OO1dSUhJXX311zJgxIy699NIYO3ZslJWVRWtraxw6dCgaGhpi8+bN0djYeNpd9fX18fLLL8cDDzzQG58AAABwTispFAqF1BEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA91dzcHIsWLYq9e/d2a76uri7Ky8v7uKp/HDlyJGbPnh0tLS1F58aPHx81NTUxZcqU0+5saGiIZcuWxffff3/a2RUrVkR1dXW3e4vZu3dv3H777dHe3l50bvLkybFs2bKorKw87c4dO3bEE088EU1NTUXnBgwYEOvWrYvLL7+8R80AAADnmyx1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQE/99ttvsWDBgti7d2/qlCSefPLJaGlpKTozffr0qK2tjSlTpnRr5xVXXBEbNmyIm2666bSzzz77bLS2tnZrbzGnTp2Kxx57LNrb24vOzZ8/P1577bWorKzs1t5p06bF5s2b46qrrio619nZGTU1NdHZ2dntZgAAgPNRljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACgJ/bv3x9z5syJb7/9NnVKEl9++WXU19cXnbn++utj5cqVMWTIkB7tHjRoUDz//PMxb968onO//vprrF69uke7/8mGDRviwIEDRWfmz58fjz/+eJSWlvZo9wUXXBBr1qyJa665puhcY2NjvP322z3aDQAAcL4pKRQKhdQRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA3bFjx454+OGHo62trcf/rauri/Ly8j6o6j+FQiFuu+222LdvX5czl1xySbz77rsxbNiwM75z6tSpuPfee2Pnzp1dzgwZMiTq6+tj5MiRZ3TjxIkTMX369GhqaupyZsqUKfHqq6/GgAEDzuhGRMRff/0V8+bNi/3793c5M2bMmNi+fXsMHDjwjO8AAACcy7LUAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAKdz8uTJeOaZZ2Lx4sXR1taWOieZL774Ivbt21d0ZtmyZTFs2LCzupNlWTz33HMxatSoLmeOHz8er7/++hnf2Lx5czQ1NXX5PnDgwKipqYkBAwac8Y2IiLKysnjppZdi8ODBXc788ssvsWXLlrO6AwAAcC7LUgcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU09jYGLfeemusXbs2CoVC6pyk3nnnnaLv1113XVRVVfXKrREjRsSSJUuKzrz55pvR0dFxRvtP9y3z5s2L8ePHn9Huv6uoqIi77rqr6Mz69et75RYAAMC5KEsdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA8E+OHz8eL774Ytxyyy3R2NiYOie533//PbZv3150ZsGCBb16c/bs2XHxxRd3+X706NH45JNPerz3wIEDsWfPni7fS0pK4s477+zx3mIWLlwYZWVlXb5/88038d133/XqTQAAgHNFljoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADg77Zv3x6zZs2K1atXR3t7+2nnhw0bFkOHDu2HsnS2bt0aJ0+e7PK9oqIiqqqqevVmaWlpzJ07t+jMxo0be7x3w4YNRd+rqqqioqKix3uL+c9//hMzZ84sOnMm3wIAAHA+yFIHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/J/PPvss5s2bF4sXL46ff/65W/+58MIL44033oiRI0f2cV1aH330UdH3G264oU/uzpgxo+j7zp07o729vUc78/otdXV1fXIXAADg3y5LHQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABARcccdd8TChQtjz5493f7PZZddFrW1tVFZWdmHZemdOHEiGhoais5MnTq1T25PmDAhxo4d2+V7a2tr7Nq1q9v7Dh8+HIcOHSo601ffcuWVV0ZZWVmX7z/88EMcOXKkT24DAAD8m2WpA/7L3v3GZn3X/QL/9Ner7WjLaLGVQlgrhQAe/rlx70wXMWI8icm8g25Ei0aSZdyaRYkPzATPeeCD6WHZidMz/4SjB4QtLgEydLkzEz0TNTyYOd4aEFn8c++wblBgtPzZaEfbq1fPg5P75I6uv+tqua7+Lnq9XglP9vn2/Xl/uoTQphsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAREb/97W9LfpskSezYsSOeeuqpWLRoUQVbVYcTJ07E+Pj4lPOmpqZYv359xfbfc889qfPjx4+XnFXs33N3d3d0dXWVnDcdt912W9HP03RuAQAAqBVJ1gUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmo6enJ55++ul45JFHoqGhIes6s+LEiROp8zVr1lT0c7F27drU+cmTJ0vOKnbLhg0bSs6aiXXr1qXO//CHP1R0PwAAwK0ol3UBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACAUjQ0NMSOHTvi4YcfjqampqzrzKrTp0+nztetW1fR/cXyX3rppZicnIy6urqiWdV+yx//+MeK7gcAALgV5bIuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUMzmzZtj165dsWzZsqyrZOLPf/5z6nz58uUV3V/s8379+vU4c+ZM9Pb2pr4rFArx17/+NfVN1re8/PLL8dZbb8W8efMq2gMAAOBWkmRdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYCpr166NAwcOxN69e2PZsmVZ18lEPp+Ps2fPpr7p7e2taIf58+dHe3t76pv+/v6iOefPn4/R0dHUN5W+pbu7O3U+MTERr732WkU7AAAA3GqSrAsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8rTVr1sR3v/vdePbZZ+N973tf1nUyNTAwEPl8PvVNd3d3xXsU23H27NmiGa+++mrqvLGxMRYvXjytXtPV3NwcHR0dqW9KuQUAAKCW5LIuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBFRX18fH/jAB2L79u1x7733Zl2nagwMDKTO6+vro7Ozs+I9Ojo6Uufnzp0rmlHsls7Ozqirq5tWr5no6OiIwcHBKeel3AIAAFBLclkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiIg4duxYdHV1ZV2j6ly4cCF1vnDhwkiSpOI9Ojo6Uufnz58vmlHslne+853T6jRT5bgFAACgllT+q04AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIASdHV1ZV2hKl2+fDl13tnZOSs9Ojo6UufXrl0rmlHslmI7yqUctwAAANSSJOsCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAATO3q1aup89tvv31WerS2tqbO33jjjaIZc+kWAACAWpJkXQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICpXbt2LXXe0tIyKz2K7SnWs5Q3t9ItAAAAtSTJugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTGx4eTp23trbOSo+WlpbU+Ztvvlk0Yy7dAgAAUEtyWRcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABu3vDwcIyMjERERKFQqMiOlpaWaG1trUg2U7tx40bqvLm5eVZ63Hbbbanz8fHxohlz6RYAAIBaksu6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcPNaWlqipaUlIiI2bdoUr7/+etl3fOELX4idO3eWPZd0N27cSJ3ncrlZ6VFsz/j4eNGMuXQLAABALUmyLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDUJiYmUuf19fWz0qPYnnw+XzRjLt0CAABQS5KsCwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADC1iYmJ1Hl9ff2s9MjlcqnzycnJyOfzqW+q5ZZie8bHx2elBwAAwK0iyboAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAM1dXV1c1ewqFQsV3lEOSJKnzm70DAABgrkn/KgoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIBMNTQ0pM4nJiZmpUc+ny/6pr6+PnWey+VS59VyS7E7AAAAak36V3MAAFXkypXhKBQms64BAMAckiR10d7eUpast44fjhgdKUsWAABERERTc8zb9ImyRP3xC5+L8StXypIFAAAREQ3t7bH2O/+jLFljVy5ETBbKkgUAABERUZdEY3tXWaLyLx2PyI+WJQsAACIiItcUuf+wqWxxl5/+b1EYfrNseQAA1LakZX4s/MwjZcsb/d//HDF2o2x5AADUuMbbouk//mPZ4sZO/K+IcX9eBQCgTBpui8b3/Keyxfn+KgAAZVfG77H+63/5YuSv+X9aAQBQPrkF7bHi6/+9LFkT/+dfIvJjZckCAICIiMg1Rn3vP5Qlys8DAABQdmX8eYCT/7Qjxi9fLksWAABERDQsXBgbfvA/s64B1ID/+g//GG+cfz3rGgBV5fbF74z//C///Hf//OjRo1EolP/vDm1paSl7JsU1NDSkzicmJmalRyl76uvrU+eNjY03vaMc8vl86rzYHQAAALUml3UBAIBSFQqTUShMZl0DAADe3uhIxI3hrFsAAMDbGr9yJcaHBrOuAQAAb2+yEFGB/2gSAIAalpQxKz8aMT5axkAAACivwvCbUbh+LesaAADw9sZuRIy9lXULAAB4e+P+vAoAQBXz/VUAAKpY/tqVyF8ZyroGAAC8vfzY//sFAADVyM8DAABQxcYvX46xQX/HFQAAALeeN86/HlcHLmZdA+CW0NnZmXUFyiiXy6XOJyYmZqVHPp9PnTc0NBTNqJZbiu0p5RYAAIBaUs6/QhoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIAya2xsTJ2Pjo7OSo+xsbHUeXNzc9GMuXQLAABALUmyLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMDUWltbU+cjIyOz0mN4eDh1Pm/evKIZc+kWAACAWpJkXQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAICptbe3p86Hh4dnpUexPbfffnvRjLa2tpvaUS7luAUAAKCWJFkXAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYGoLFixInQ8PD89Kj2J72traimYUe3Mr3QIAAFBLkqwLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMLW2trbU+eXLl2elR7E97e3tRTOq5ZahoaHUeSm3AAAA1JIk6wIAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>b'iVBORw0KGgoAAAANSUhEUgAAAlgAAAOECAYAAAB97U88AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAPYQAAD2EBqD+naQAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjEsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy+j8jraAAAgAElEQVR4nOzdeVxU5eIG8GcGmAEEQRBEwRVz14Rccgm9uOSSuJU31DFTwd2i1MZdUTH3DVPABUW95m6WqagV6Zjp1ZJccMMFiWERMlzYZn5/+HPu5Q4qwmHODOf5fj58PvCeOXMevOV9es8775Hp9Xo9iIiIiEgwcrEDEBEREZU3LFhEREREAmPBIiIiIhIYCxYRERGRwFiwiIiIiATGgkVEREQkMBYsIiIiIoGxYBEREREJjAWLiIiISGAsWEREREQCY8EiIiIiEhgLFhEREZHAWLCIiIiIBMaCRURERCQwFiwiIiIigbFgEREREQmMBYuIiIhIYNZiBzA1XUE+nqTfEzuGSdhVrg65Vcn/J960aRP27NkDAGjatCnmzJkDhUJhOP7zzz9j4sSJ8PDwAAA0atQICxYsKF1oIiKickCm1+v1Yocwpcepifjps4ZixzCJDsuuwN69donOvXjxIqZNm4avv/4adnZ2mDx5Mho3boyhQ4caXrNmzRpUqFCh0BgRERFJcAYLAKytZWJHMHsVK1bEjBkzYG9vDwBo0KABkpOTC70mPj4eT58+xf79+1G1alXMmjXLMJtFREQkZZIrWDIZYCWXRsGSyYDk5GSoVKoXvub48eNFjteqVQu1atUCAGRkZGDbtm1Gt/+cnJwwcOBA+Pn5Yfv27fj888+xbds2wfITERFZKskVLIAzWK8jKSkJI0eOxAcffIDWrVsXOrZw4ULD9wMHDsSyZcvw999/w9HR0dQxiYiIzIrkCpZMBlhZSaNgyWRAtWrVXjhL9SpXrlxBcHAwgoODjWbBcnJyEB0djZEjRxrG9Ho9rK0l948UERGREUn+v6G1NXeneJUHDx5gxIgRmDVrFrp27Wp0XKlUYu/evXjjjTfg7++PPXv2oHnz5rCzsxMhLRERkXmR3KcIczJu4495b4odwySaTP8dStdaJTp3+fLliI6ONqzDAoCOHTsiPT0d/v7+6NSpEy5duoTZs2fj8ePHcHV1xcKFC1G1alVhwhMREVkwSRasK2HNxY5hEg2n/lbigkVEREQlJ7lbhDJIZ5G7NH5LIiIi8yO5ggUJLXJnwyIiIhKH5AqWDIANZ7CK5VWPyiEiIqKiSa5gQSahTxGWomFdvHgRe/fuxc6dOw2Pytm+fTsfi0NERFQMkitYMsggt7ISO4ZJyErRsIrzqBwiIiIqmuQKFmQyWNkoxU5hGjJZmT4qh4iIiIomvYIFQG5lI3YEi/GyR+UQERFR0aRXsGQyyG1sxU5hGjJZmT0qh4iIiF5McgVLBhnk1tKYwSrNGqxXPSqHiIiIXkxyBUtqa7BKavPmzcjOzsaaNWuwZs0aAM8elRMSEiJUOiIionJLco/K0f2djL/3BIodwyQc+/8LcsdqYscoMb1ejwcPHqBixYqwsZHGrCMREZUP0pvBggwyySxyt8wNVR89eoR58+bh22+/RV5eHmxsbNClSxeEhobCwcFB7HhERESvJL2CJZPBSkKL3C3RwoULkZmZiW+++Qaenp64d+8eFi9ejLCwMISFhYkdj4iI6JWkV7AAySxyt1QnTpzA4cOHDbNV3t7eWLRoEbp06SJyMiIiouKRXMGSSWiRu8xCZ7BkMhlycnIK3Q7MycnhcxCJiMhiSK5gSW0fLEvUq1cvjB07Fp988gmqVq2K5ORkrFq1Cu+9957Y0YiIiIpFcp8i1D9Og/7nqWLHMAnZO2GQ2buV+Pzs7GwEBgZi7dq18PLyKnRsx44dCA8Ph6urKwBht3DIy8vDihUr8O233+LBgwfw8PBAQEAARo4cyVksIiKyCJKcwYK1NG4RlmYG68KFC5g5cyYSExOLPH7x4kXMmjWrTNZF2djYYNKkSZg0aZLg701ERGQK0itYkAFWUpkFKXnB2rlzJ2bNmoXJkycXeTw+Ph7p6elYvXo1GjRogOnTp6NixYolvh4ABAcHIzIyEiqV6oXrx7Zs2VKqaxAREZmCRAuWRGawIENycvJLnyP4oucULliw4IXn6HQ6VK1aFZ988gkaNWqEpUuXYt68eVi0aFGp0vbq1QsA0K9fv1K9DxERkdikV7BkkM4MVhmtcZfL5YiMjDT8HBQUJMitwucF68GDBxg+fLjR8ZUrV5b6GkRERKYgvYIFGWAtkU8RQoZq1aq9cJaqpDIyMnD48GEMGjQIwLMZLSsrq1K9Z2pqKjQaDQBg1apVhsXzz2VnZ2Pz5s345JNPSnUdIiIiU5BewZLJIJPKLcIy2qbB3t4eq1evhq+vLxo2bIiYmJhSz2C5uLjgxIkTyMzMRF5eHvbs2VPouEKhwIwZM0p1DSIiIlORXsHiIvcSCwoKwoQJE9C0aVMsXboUarUaOTk5qFOnDhYuXFiq97a2tsaqVasAAMuXLxdsywciIiIxSG8frNyHwLWvxY5hGvX+CZmidJ/sE4NOp8Pp06eRlpZmGMvLy8OtW7fwxRdfiJiMiAj46aefsH79eiQmJuLrr7/G3r17UaNGDfTu3VvsaGRGpDmDJecMljmbPn06fvjhBzg5OSEvLw+Ojo5ISEhA9+7dxY5GRBJ36tQpjBs3Dj179sTvv/8OnU6H/Px8TJkyBXq9Hn369BE7IpkJaRYsqWw0aqEFKzY2Fvv27UN6ejo2btyIVatWYdeuXThx4oTY0YhI4lavXo3PP/8cQ4cOxZEjRwAAISEhcHBwwIYNG1iwyEB6BUsmoU8RWuizCK2treHl5QVnZ2f88ccfAJ7tjbVs2TKRkxGR1CUkJBS551+3bt0QHh4uQiIyV9IrWJABchuxQ5iIZRasunXr4uDBg+jVqxesrKxw8+ZNKBQK6HQ6saMRkcQ5OjoiNTUVNWrUKDR+48YNODk5iZSKzJH0CpYM0EtkmwYLncDCpEmTEBISgubNm2Ps2LHo168f5HI5hgwZInY0IpK4Xr16ISwsDGFhYZDJZHj06BHi4uIwd+5c9OjRQ+x4ZEak9ynC/CfQp5wRO4ZJyDxaQ2ZtJ3aMUtNqtcjOzoa3t7fYUYhI4vLy8qBWq/Hdd98BAGQyGfR6PTp27IiVK1dCqZTGf8DTq0mwYD2FLvW82DFMQu7uC5mFrTe7efMmbty4gebNm6NKlSqFxqdNm4YdO3aImI6I6Jk7d+7gypUr0Ol0qFevHurWrSt2JDIz0rtFyG0azNa//vUvhIaGwtHREXl5edi8eTOaNWuGdevWITw8HG3bthU7IhFJ3KBBg9CvXz9069YN3bp1EzsOmTHpzWAV5KAg44rYMUzCyrWhRT0WqEuXLggJCUGPHj2wbds2nDx5EhUrVsTJkycxffp07oNFRKKbMmUKYmNjUVBQgC5duqBfv354++23xY5FZkiCBSsXBZk3xI5hElaV6kJmQY8F8vHxwYULFwAA+fn5aN68OXx8fLBy5Uq4uLiInI6I6Jnc3FwcP34cBw8eRFxcHNzd3dGnTx/07dsX1atXFzsemQlJFqz8v26LHcMkrJ1qWVTB8vX1xfnz/1kf17x5c5w4cYLliojM1l9//YV9+/Zh9erVePz4Ma5ckcYdEno1ia7BspzbZqVjWWuw/pdCoWC5IiKzlJOTg+PHj+Obb77BqVOnULVqVYwYMULsWGRGpFewZDLoZRL5tUu5EVZ2djYCAwOxdu1aeHl5CRTqxfLz87F//37Dz3l5eYV+BsDHUBCRqH7++Wd8++23OHbsGPR6Pbp164ZNmzahRYsWYkcjMyO9W4S6AuQ+eiB2DJNQVHCBTG5VonMvXLiAmTNnIjExEYcPHzZJwVKpVC89LpPJsGXLljLPQUT0Ig0bNkTLli3Rr18/vPvuu7Czs/y9BqlsSLBg6ZD75G+xY5iEws4RMrm8ROdOmTIF/fv3x+TJk7FlyxaTFCwiInOXlJTEvw+pWCRyr+w/9AD0cmn82noAfyYnv3Rm6Pjx40WOL1iwoIxSERFZlvDwcAwfPhx2dnZGyxb+17hx40yUisydNJrG/9CjZLM6REQkPXv37sWgQYNgZ2eHvXv3vvB1MpmMBYsMJHeLUKfT4cmTHLFjmISdnRLyEt4ifM7f35+3CImIikGn05X671wqPyT5T0JBgV4SX+XF9evXodVqxY5BRIROnTohKyvLaFyr1aJNmzYiJCJzJblbhHo9UFCgEzuGSVjq3OSpU6cQGhqKI0eOYP369Vi9ejXkcjlmz56N3r17ix2PiCTm0KFD+PnnnwEA9+/fR2hoKJTKwvsp3r9/H7JSbo1D5YvkChYA6Cy0eIjhxIkTJr/m0qVLMXbsWBQUFCAqKgpr166Fq6srxowZw4JFRCbn4+ODHTt24PmKmuTkZNjY2BiOy2Qy2NvbY+HChWJFJDMkyYJVnm6flUdJSUkICAjAuXPnAABt27YFAGRmZooZi4gkqmrVqoY9+FQqFcLDw+Hk5CRyKjJ3kitYej2gk8gUlqXeIvTw8MCJEyfw7bffokOHDgCAXbt2oVatWuIGIyLJi4mJETsCWQjJFSyAM1jmbsaMGZgzZw4cHBywYsUKnD59GmvWrMGKFSvEjkZEEtSwYUOcPHkSrq6uaNCgwUvXWvFhz/Sc5LZpyM8vwJ8p0tjJvaqHI6ytS/aoHHPCjz4TkZj27duHnj17QqFQYO/evS8tWH379jVhMjJnkitYefkFuJ/8UOwYJuFZrSJsLKhgTZky5ZWv4Q7zRERkCaQ3LaCX0D5YFladPT094enpiby8PJw4cQJOTk5o2LAhKleujJ9//hnW1pK8o01EZiQ3Nxfr1q3DnTt3AADTpk2Dj48Phg8fzg/iUCHSm8HKK8Dtu8abxJVHtWo4w8bGcmawnuvTpw8WLlyI+vXrG8Zu3ryJ8ePH49ChQyImIyKpCwsLw4EDB7Bx40ZkZGRg1KhRmDBhAn788UfUrl2bs+xkILkpAb1eOovcLbU637t3D9WrVy805ubmhtTUVJESERE9c/jwYSxbtgyNGzfGrFmz0KpVK4waNQrt27dHUFCQ2PHIjEiuYAGATiI7uVuqjh07Yvz48Rg1ahTc3d2RnJyMr776Ct26dRM7GhFJXFZWFry9vQE8e+rEP//5TwCAs7Mznj59KmY0MjOSK1h66JGfL42Cpbe0RVj/b968eVi6dCkmTZqE9PR0uLm54b333sP48ePFjkZEElejRg3Ex8cjIyMDSUlJeOeddwAAx44dg5eXl8jpyJxIbg1WTk4+Ll+SxoODGzWuAqVSch2aiKjM7N+/HzNmzIBcLoePjw+io6OxZs0arFmzBmFhYejTp4/YEclMSK9gPc1HfHyK2DFMomlTDyhtS16wsrOzERgYiLVr1xr+y2zUqFEICwuDi4sLAECtVqNVq1bo16+f0fm3bt3C+++/b1hPVblyZWzYsOGF11OpVK98WOrzx1UQEYnl6tWrSEpKgp+fHxQKBeLi4mBjY4M2bdqIHY3MiOSmN/TQoyC/QOwYJlGaW4QXLlzAzJkzkZiYaBjLycnBo0eP4OLiAq1Wi1mzZuH06dNo1apVke9x8eJF9OvXD9OnTy/WNZ+XtN9//x0ajQYqlQrVqlVDamoqtm7dinbt2pX49yEiEkqDBg3g5eWFq1evwsbGBr6+vnBwcBA7FpkZyRUsQDqfIiyNnTt3YtasWZg8ebJh7JdffkHr1q0BAAcOHECnTp3g7Oz8wvf4448/cPnyZfTr1w+Ojo6YPn063njjjRe+/vkOyGvXrsXmzZtRtWpVwzF/f38EBgZi6tSppf3ViIhKTKfTYeHChdi+fTvy8/Oh1+uhUCjwz3/+E1OnTn3lLDxJh+QKll4P6cxg6YHk5GSoVKoXvub48eNFjhe1l0tcXBx69+4NAAgODgYA/Pvf/37he9va2uL9999Hv3798NNPP2HMmDE4dOgQbGxsXpo7MzMTSqXSaPzRo0cvPY+IqKxFRERgz549mDRpElq1agWdToezZ89izZo1qFKlCkaMGCF2RDITkitY0AP5edL4FKHQHyK8dOlSsW/3AcDEiRMN33fo0AFLly7FzZs30aBBg5ee17t3bwwbNgwfffQRqlSpguTkZGzatAkffvhhibMTEQlh165dmDVrFnr16mUYa9SoEVxcXLB69WoWLDKQXsGCXkL7YOlRrVq1F85SvY5bt26hZs2arzX9vX79enz44YeGtQl6vb5Yj7uZMmUKYmJisHv3bsM2DSqVyrDfDBGRWDIyMvDmm28ajb/55pv4888/RUhE5kpyBUuvh3T2wRJwBisuLg4dOnR4rXNOnz4NpVIJlUqF06dPo6CgAHXq1HnleVZWVujatSt8fX3h4uLCvWWIyGzUqlULGo0GNWrUKDR+6tQpeHp6ipSKzJHkChYA6LjI/bWdPHkSy5Yte+XrVq5cCXd3dwQGBmL27NmYOnUqvv76a9ja2mL58uWQy1/+fPFz585hzpw5uHHjhmGsbt26mDlzJlq2bFnq34OIqDQ+/vhjzJw5E/fu3YOvry+AZ2tRt23bVuhDQUSS2wfrUXYuThxOEDuGSfh3q48KDgqxYxTbpUuXMGTIEIwYMQIBAQFwc3NDcnIyDhw4gM2bN2PLli1o0qSJ2DGJSOKio6Oxfv16pKenA3i2x9/w4cPx8ccfi5yMzIkEC1YOYr+7KnYMk+jSswEqOBh/Gs9cjRkzBu3atcOgQYOMjm3evBmnT5/GunXrREhGRGTswYMH0Ov1cHV1FTsKmSHJ3SLU64H8vHyxY5iEpVXnCxcuYPny5UUe69+/P7766isTJyIieubo0aM4ePAgFAoFunfvjs6dOxueaEFUFMkVLECPvFxp7IMl+D4NZezp06d40YSqlZUVdDppfDiBiMzLrl27MGPGDNSsWRPW1tY4dOgQJk2ahGHDhokdjcyY5AqWXg8UFEijYFnaDFbDhg1x7NgxvPfee0bHjh8//sr9s4iIysKWLVswevRofPLJJwCAyMhIbNy4kQWLXkpyBQt6IC9PGgXLwiawMHLkSKjVatjb26Njx46Qy+UoKCjAoUOHMG/evGJ9ipGISGj37t1D//79DT8PGjQIy5Ytw4MHD3ibkF5IcgWLD3suvuzsbAQGBmLt2rWGvahGjRqFsLAwXLlyBUuXLkV+fj4qVaqEsLCwUu8B06FDB0yePBlTpkxBTk4OnJyckJGRgQoVKmDatGl82DMRieLp06ews7Mz/FyhQgXY2dnh8ePHLFj0QpIrWJzBKp4LFy5g5syZSExMNIzl5OTg0aNHcHBwwOTJk7F161bUrl0bO3fuxLx587B27dpSR+7bty+6d++OCxcuICMjA66urnjrrbegUFjOdhNEJA0S+xA+vSbJFSw99MiTyqcIS9Gwdu7ciVmzZhXaOO+XX35B69atkZubi2nTpqF27doAnq2d2r59e6nzPmdra4s2bdoI9n5ERKUhk8le6zFhRIAECxb0QIFEHpUDPZCcnAyVSvXCl7zoOYULFiwwGouLi0Pv3r3h4OCAHj16AHj2gYHw8HB07txZmMxERGZGr9dj7NixsLGxMYzl5ORg4sSJUCoL7zW4ZcsWU8cjMyW5gqXX6yW0D5aw09eXLl3C9OnTDT8/ffoUkyZNgk6nw8iRIwW9FhGRuejbt6/RGJ87SK8ivYIFCT3sGUC1atVeOEv1Om7duoWaNWsapsn/+usvjBw5El5eXli2bFmh/7IjIipPiprRJ3oVyRUsSGgndyG3aYiLi0OHDh2eva1ej3HjxqFZs2aYOnWqcBchIjJzycnJLz1erVo1EyUhcye9ggW9dNZgCdiwTp48adiHSqPR4Ndff0VWVhZ69+4N4NnDTjds2CDY9YiIzJG/v/9LF7xfuXLFhGnInEmuYOn1QH6ONLZpEGIJ1okTJwAA69evN4y1a9cOCQkJpX9zIiIL87+L2AsKCpCYmIjo6Gio1WqRUpE5kmDB0iM/Rxq3CLlHCxGRsFq1amU01qZNG1SvXh2rV6+Gv7+/CKnIHEmuYEEPFORJ5BYh+xURkUnUqlULV69eFTsGmRFJFiyp3CIsbcEq7aNynjx5grZt26JGjRqGsb1798LKyqp0wYiIRFLUIvfs7GxEREQY/p4kAiRYsPTQo0Aij8opzU7uQjwq59KlS3j77bcFeYQOEZE5KGqRu16vh729PRYvXixSKjJHkitYnMEqHiEelRMfHw+tVosPPvgAVlZWmDhxIlq0aFHyUEREItu8ebNRwbKxsUG9evVQoUIFkVKROZJcwZLapwjFfFSOTCZDt27dEBQUhMuXL2PkyJE4ePAgKlWqVMLfiIhIXK1btxY7AlkIyRUs6KVzi1CQfRr+y+s+Kmfo0KGG7xs3boymTZvi/Pnz6NSpk6C5iIjK0pQpU4r9Wu76Ts9JrmBJbQarmqd4j8rZtWsX2rdvj6pVq/5/Hj2srSX3jxwRWbikpCSxI5AFkt7/23GbhhIpyaNy4uPjcevWLXzxxRe4ceMGLl++jLfeeku4UEREJtC0aVOMHTuWa6zotcj0EtuNsiBfh/SUh2LHMInKHhVhZS0v1Xv4+/tjy5YtmD17NpYtW4aKFSvi1KlTGDZsGOrVqwe5/Nn7P39Uzr/+9S+kpqbik08+QWZmJqZMmYJ79+5BLpdj2rRpePvtt4X41YiITKZhw4Y4efIkXF1dDWPBwcGYN28e3N3dRUxG5kxyBYuIiOh1NGjQAKdOnSpUsHx8fPDNN9+gevXqIiYjc1a66Q0iIiIiMsKCRURERCQwFiwiIqJX+N/NRYleRXqfIiQiInpN8+bNg1KpNPycl5eHxYsXG32ykPtg0XMsWERERC/RsmVLpKWlFRrz8fFBZmYmMjMzRUpF5o6fIiQiIiISGNdgEREREQmMBYuIiIhIYCxYRERERAJjwSIiIiqBTp06oVOnTmLHIDPFgkVEREQkMBYsIiIiIoGxYBEREREJjAWLiIiISGAsWEREREQCY8EiIiIiEhgflUNERFQCycnJAIBq1aqJnITMEQsWEVmM/Px8pKenix1DUJUrV4a1tXWRx/R6PfhXNFHJyWQyyGQyUa5d9L/VRERmKD09HUFBQWLHEFRUVBQ8PDyKPKbX65Gbm2PiRETlh0KhFK1gcQ0WERERkcBYsIjMiL+/P+rXr2/4atCgAXx9fTF48GCcPXvW8JrVq1eLnLT4IiIioFKpxI5BRGRSLFhEZmbYsGE4efIkTp48ibi4OOzYsQMODg4YMWKEYVGtpdi2bRtWrFghdgwiIpPjGiwiM2Nvbw83NzfDz+7u7pgzZw78/PwQGxsrYrLi02q1mDVrFs6cOYNatWqJHYeIyOQ4g0VkAZ5/ykyhUBgd27VrF3r16oVmzZqhefPmGDhwIOLj4w3HL168iIEDB8LHxwctW7bE+PHjDTNhSUlJqF+/Pr777jv06dMHTZs2Rb9+/XDz5k2sWbMGbdu2RatWrTBnzhzDp9l0Oh0iIiLw7rvvokmTJvD19cWIESNw9+5dwzUvXboEGxsbfPPNN3jzzTfL8o+GiMgssWARmTmtVovQ0FDY29ujQ4cOhY7FxsYiNDQUI0aMwPfff4/o6Gjk5ORg+vTpAICCggKMHDkSLVu2xDfffIPo6GgkJydj6tSphd5n+fLlmDp1Knbt2oWHDx8iMDAQt2/fRkxMDEJCQrB9+3b88MMPAIAtW7Zgw4YNUKvVOHLkCNasWYPbt2/jyy+/NLzf83Vi1atXL+M/HSIi88RbhERmJiIiAhs3bgTwbN+n3NxceHt7Y8WKFUYbGjo7O2P+/PkICAgAAHh6euL9999HaGgoACA7OxuZmZlwd3eHp6cnqlevjhUrViAjI6PQ+wwbNgytWrUCAHTp0gUxMTEIDQ2FnZ0dvL29sXr1aly/fh3+/v6oUaMGFi5ciH/84x+Ga3br1g2HDx8u0z8XIiJLwoJFZGY+/PBDw6fu5HI5nJ2d4ejoWORrW7Zsabidd+vWLdy5cwcJCQnQ6XQAACcnJ4wYMQJz587FqlWr8Pbbb6NDhw7o3r17ofepWbOm4Xt7e3tUrlwZdnZ2hjFbW1vk5uYCeDY79fvvv2PlypVITExEYmIibty4gSpVqgj650BEZMl4i5DIzDg5OaFmzZqoWbMmqlev/sJyBQAHDx5EQEAA7t27B19fX3zxxRdQq9WFXjNx4kScOHECn376KfR6PebOnYv+/fsbChMAo53E5fIX/9UQGRmJIUOGIDMzE23atMGcOXMwbNiwEv62RETlE2ewiCxYZGQk3n//fcyZM8cwdvz4cQDPdgFPTEzE5s2bMXXqVAQGBiIwMBD//ve/MXDgQFy9ehUuLi6vfc1169Zh7NixCA4ONoxt2LCBj3QhIvovLFhEFqxq1ao4f/48Ll26BEdHR5w4cQJbt24FAOTm5qJSpUr47rvv8PTpUwQHB0Mul2Pfvn1wcnJCnTp1kJWVVaJrnjp1Cv7+/pDL5Thw4ACOHj2KypUrC/3rERFZLN4iJLJgM2bMQOXKlTF48GB88MEH+OGHH7Bo0SIAQHx8PCpVqoSoqCjcv38fAwYMQN++fZGUlIRNmzbBwcGhRNdctGgRnj59iv79+2Pw4MG4du0a5syZg4yMDIvbCJWIqKzI9JzXJyILkZKSIqmHPet0Oj7smagUFArlS9eUliXOYBEREREJjAWLiIiISGAsWEREREQCY8EiIiIiEhgLFhEREZHAWLCIiIiIBMaNRonKGZVKhV9//bXIY8OGDUNmZibu37+PmJiYQseSkpLQqVOnl773uHHjMH78eFy6dAmLFi3CxYsXoVQq0bVrV0yaNMnwWB+1Wl3kNYiIpIIFi6gc6t69O6ZNm2Y0bmdnh3nz5hV5TtWqVXHy5EnDzxs3bsShQ4ewe/duw5i9vT3S09Px8ccfo3Pnzpg9ezYyMzMxY8YMqNVqrFmzRvhfhojIArFgEZVDtra2cHNze61zrKysCp1jb29vNAYAN27cQPv27REaGgpra2vUroZFT/8AACAASURBVF0bAwYMwPLlywXJTkRUHrBgEdFrefPNN7Fs2TLDzzdv3sSBAwfQrl07EVMREZkXFiwiKrF3330Xt2/fhqenJ8LDw8WOQ0RkNvgpQqJy6ODBg/Dx8Sn0NWLECMGvs2TJEsTExMDV1RVDhgzBo0ePBL8GEZEl4gwWUTnk7++PiRMnFhqztbUV/DpNmzYFAISHh6NDhw6IjY1Fnz59BL8OEZGlYcEiKocqVKiAmjVrlsl737p1C3fv3kXHjh0NY1WqVIGzszO0Wm2ZXJOIyNLwFiERvRaNRoMJEybg4cOHhrG7d+8iMzMT3t7eIiYjIjIfnMEikqCsrCzExcUZjbdq1eqVtxLfe+89REZGYtKkSZg4cSL++usvzJs3D82aNcM//vEPQa5BRGTpWLCIJOjatWsICgoyGj9+/Di8vLxeeq6zszM2b96ML7/8EoGBgbCyskKnTp2gVqthZWUlyDWIiCydTK/X68UOQURUHCkpKUWWNksWFRUFDw+PIo/pdDrk5uaYOBFR+aFQKCGXi7MaimuwiIiIiATGgkVEREQkMK7BIiIyV49ToTsULHYKIsvVIxJwKPoWfFnjDBYRERGRwFiwiIiIiATGgkVEAAC1Wg2VSgUAUKlUUKvVxTovMzMT7du3x5kzZwqN63Q6rFq1Cu+88w6aN2+OoKAg3Lt3T/DcRETmiAWLiEpMq9Vi+PDhSEtLMzr21VdfYfv27Zg7dy527NgBnU6HESNGIDc3V4SkRESmxYJFRCWye/duBAQEFHksNzcXGzduxIQJE9CxY0c0aNAAy5cvR0pKCo4ePWripEREpseCRUQlEhsbi5CQEKxcudLo2NWrV/Ho0SO0adPGMFaxYkU0atQIZ8+eNWVMIiJRcJsGIiqRiIgIAEBSUpLRsZSUFABA1apVC427u7sbjhERlWecwSIiwT158gQAoFAoCo0rlUrk5PDRL0RU/rFgEZHgbG1tAcBoQXtOTg7s7OzEiEREZFIsWEQkuOe3BlNTUwuNp6amokqVKmJEIiIyKRYsIhJcgwYN4ODgUGhvrIcPH+Ly5cto2bKliMmIiEyDi9yJqEharRZxcXFG435+fq88V6FQYPDgwViyZAlcXFzg6emJxYsXw8PDA127di2LuEREZoUFi4iKpNFooNFojMYTEhKKdf6ECROQn5+P6dOn4+nTp2jZsiU2bNgAGxsboaMSEZkdmV6v14sdgoioOFJSUhAUFCR2DEFFRUXBw8OjyGO67BQ8PRRs4kRE5Ydtj0jIHYr+96uscQ0WERERkcBYsIiIiIgExjVYRERmSmathG2tNq9+IREVSWatFO3anMEiIiIiEhgLFhEREZHAWLCIiIiIBMaCRWQm1Go1VCoVAEClUkGtVhfrvMzMTLRv377QrukAkJWVhZkzZ8LPzw++vr4IDAzEuXPnXvpee/fuRf369Qt9NWnSBP7+/li4cOELH9S8du1a1K9f32h827Zt6NSpE5o1a4aBAwfi8uXLxfqdiIgsHRe5E1kwrVaL0aNHIy0tzejYZ599hrS0NCxbtgyurq6IiYnB8OHDsW/fPtSpU+el73vy5EnD93l5ebhw4QKmTp2KnJwczJw5s9BrL168iPDwcKP32LdvHxYtWoS5c+eiUaNGiIyMxMcff4zvv/8eLi4uJfyNiYgsA2ewiCzU7t27ERAQUOSxO3fu4NSpU5g9ezZatGiB2rVrY8aMGXB3d8fBgwdf+d5ubm6Gr2rVqqFnz54ICAgwOvfx48eYNGkSWrRoYfQe69atw+DBgxEQEIC6desiLCwMdnZ22LVrV8l+YSIiC8KCRWShYmNjERISgpUrVxodq1SpEiIjI9G0aVPDmEwmg0wmw8OHD0t0PSsrKygUikJj8+fPR7169dC7d+9C4xkZGbh9+zbatPnPFgPW1tZo0aIFzp49W6LrExFZEhYsIgsVERGBDz/8EDKZzOhYxYoV0aFDh0KF6MiRI7hz5w7eeeed17pObm4ufvzxRxw4cADdu3c3jB89ehQ//fQTQkNDjc5JSUkBAFStWrXQuLu7u+EYEVF5xjVYRBJw/vx5TJkyBV27dkXHjh1f+XofHx/D90+ePIFSqUSPHj3w2WefAXi29mvmzJlYtGgRKlWqZHT+kydPAMBoxkupVL5woTwRUXnCgkVUzh07dgwTJ06Er68vlixZAgBITk5Gz549C73uwoULhu/3798P4NltRaVSicqVK8PKygoAoNfroVar0b17d/j5+RV5TVtbWwDPZr/+W05ODuzs7IT5xYiIzBgLFlE5tnXrVsyfPx/dunXDwoULDTNK7u7uhhJVlJo1a77wWHJyMjQaDc6fP294j/z8fADPZr7mzJmDdu3aAQBSU1Ph7e1tODc1NRVVqlQp9e9FRGTuWLCIyqnt27dj7ty5UKlUmDZtWqG1WtbW1i8tUS9TpUoVHD16tNDY0aNHsWTJEuzfvx+urq5wcHBA7dq1cebMGcNC9/z8fJw7dw4DBw4s+S9FRGQhWLCIzJRWq0VcXJzR+Ituy/23xMREhIWFoUuXLhg5ciTS09MNx2xtbeHo6FjiXEWVM1dXVwCFZ76GDRuG+fPno2bNmmjatCkiIyPx9OlTvP/++yW+NhGRpWDBIjJTGo0GGo3GaDwhIeGV5x45cgR5eXmIjY1FbGxsoWN9+/bFl19+KVjOFxkwYAD+/vtvrFixAllZWWjSpAk2bdrETUaJSBJker1eL3YIIqLiSElJQVBQkNgxBBUVFQUPD48ij+mfZkJ/cZ2JExGVH7JmoyCzNf6ksylwHywiIiIigbFgEREREQmMa7CIiMyUXuGE3Gafih2DyGIpFEoYP+vCNDiDRURERCQwFiwiIiIigbFgEREREQmMBYvIDKjVaqhUKgCASqWCWq0u1nmZmZlo3749zpw5U2g8KysLM2fOhJ+fH3x9fREYGIhz58699L327t2L+vXrF/pq0qQJ/P39sXDhQsNDmtVqtdHrnn+Fh4cb3u/7779Hjx490KxZM/Tp0wenT59+nT8SIiKLxkXuRBZKq9Vi9OjRSEtLMzr22WefIS0tDcuWLYOrqytiYmIwfPhw7Nu3D3Xq1Hnp+548edLwfV5eHi5cuICpU6ciJycHM2fOxLRp0/D5558XOmfBggX49ddf8cEHHwAAfvnlF0yaNAmTJ09Gu3btsHv3bgQHB2P//v2Fnk1IRFRecQaLyALt3r0bAQEBRR67c+cOTp06hdmzZ6NFixaoXbs2ZsyYAXd3dxw8ePCV7+3m5mb4qlatGnr27ImAgADDuY6OjoVeEx8fj0OHDmHp0qWGBzlHRUWhc+fOGDJkCLy9vfHFF1+gcePG2Lx5s3B/CEREZowFi8gCxcbGIiQkBCtXrjQ6VqlSJURGRqJp06aGMZlMBplMhocPH5boelZWVlAoFEbjOTk5mD9/Pvr374/WrVsDAHQ6Hc6fP294yPNzrVu3xtmzZ0t0fSIiS8NbhEQWKCIiAgCQlJRkdKxixYro0KFDobEjR47gzp07mDp16mtdJzc3FxqNBgcOHED//v2Nju/atQvp6en49NP/7NX08OFDPH782OjxL+7u7khJSXmt6xMRWSoWLKJy7vz585gyZQq6du2Kjh07vvL1Pj4+hu+fPHkCpVKJHj164LPPPiv0Op1Oh82bN+ODDz6Am5ubYfzp06cAYDTjpVQqDQvliYjKOxYsonLs2LFjmDhxInx9fbFkyRIAQHJyMnr27FnodRcuXDB8v3//fgDPbisqlUpUrlwZVlZWRu99/vx53L17F4GBgYXGlUolgGezX/8tJycHdnZ2pf+liIgsAAsWUTm1detWzJ8/H926dcPChQsNM0ru7u6GElWUmjVrFuv9Y2Nj0ahRI6NPBTo7O8Pe3h6pqamFxlNTUw2L4ImIyjsWLKJyaPv27Zg7dy5UKhWmTZsGmew/T+OytrYudol6mbNnzxotZAeezXz5+voW2rYBAM6cOYMWLVqU+rpERJaABYvIDGm1WsTFxRmN+/n5vfLcxMREhIWFoUuXLhg5ciTS09MNx2xtbeHo6FjqfAUFBbh27RqGDh1a5PGPP/4YwcHBaNSoEfz8/LBnzx5cuXIF8+fPL/W1iYgsAQsWkRnSaDTQaDRG4wkJCa8898iRI8jLy0NsbCxiY2MLHevbty++/PLLUufLyspCXl4enJ2dizzevn17hIWF4auvvsLy5ctRt25drFu3jpuMEpFkyPR6vV7sEERExZGSkoKgoCCxYwgqKirKaEuL53Q6HXJz+clLopJSKJSQy8XZ8pMbjRIREREJjAWLiIiISGAsWEREREQCY8EiIiIiEhgLFhEREZHAWLCICACgVquhUqkAACqVCmq1uljnZWZmon379jhz5kyh8YyMDEyaNAlvv/02fHx8EBwcjJs3bwqem4jIHLFgEVGJabVaDB8+HGlpaUbHxo4dizt37iAyMhK7d++Gra0thg4diidPnoiQlIjItFiwiKhEdu/ejYCAgCKP/fXXX/D09MS8efPQrFkzeHt7Y8yYMUhNTcX169dNnJSIyPS4kzsRlUhsbCxCQkLQrl07dO7cudAxJycnLF261PDzgwcPEB0dDQ8PD9StW9fUUYmITI4Fi4hKJCIiAgCQlJT00tfNmDEDO3fuhEKhwNq1a2Fvb2+KeEREouItQiIqUx999BH27NmD9957D2PHjsWlS5fEjkREVOZYsIioTNWtWxdNmjTB/Pnz4enpia1bt4odiYiozLFgEZHgHjx4gO+++w75+fmGMblcjrp16yI1NVXEZEREpsGCRUSCS09Px2effYbTp08bxvLy8nD58mV4e3uLmIyIyDS4yJ2IiqTVahEXF2c07ufn98pz69WrBz8/P8ybNw/z5s2Dk5MTIiIi8PDhQwwdOrQM0hIRmRcWLCIqkkajgUajMRpPSEgo1vnLli3D0qVLERISgr///hstWrTAtm3bUK1aNaGjEhGZHZler9eLHYKIqDhSUlIQFBQkdgxBRUVFwcPDo8hjOp0Oubk5Jk5EVH4oFErI5eKshuIaLCIiIiKBsWARERERCYxrsIhIsubPn4/XWSUxffr0MkxDROUJZ7CISLJu3ryJpk2bok6dOpDJZK/8IiIqLs5gEZFkbdy4EQ8ePMCQIUOwbds2XL58WexIRFROcAaLiCRt//79OHv2LEaNGiV2FCIqR1iwiAgAoFaroVKpAAAqlQpqtbpY52VmZqJ9+/Y4c+ZMoXGtVov69esbfe3du1fw7KW1YcMGpKSkoHr16mJHIaJygrcIiajEtFotRo8ejbS0NKNjV69ehVKpxLFjxwqtX3J0dDRlxGJJTU1FWFiY2DGIqBxhwSKiEtm9ezcWL14MT0/PIo9fu3YNtWrVgru7u4mTERGJjwWLiEokNjYWISEhaNeuHTp37mx0PCEhweIe7Ozi4oJGjRrBxsbGMCaXy6FUKtG4cWMsXrxYxHREZElYsIioRCIiIgAASUlJRR6/du0aKlWqhEGDBiExMRE1a9bE6NGji/WwaDG0bdsWEydOhJWVlWFvLJlMZvj+/v37YsYjIgvDRe5EJLj8/HzcunULf/31F8aPH4/IyEg0b94cwcHBOH36tNjxijRgwADcvHkTISEhOH78OH788UeMHTsW0dHR0Ol0iIqKEjsiEVkQzmARkeCsra1x5swZWFlZwdbWFgDQpEkTXL9+HRs2bECbNm1ETmjMy8sLS5Yswa1bt3Dx4kX07dsXSUlJSEpKgrOzMwYMGIDffvtN7JhEZCE4g0VEZaJChQqGcvXcG2+8Aa1WK1Kil9PpdPj7778BAH/++Se8vLwMn37897//zS0ciOi1sGARkeCuX78OX19fo72x/vjjD9StW1ekVC+XlJSEhg0bGr63sbFB7dq1AQAODg6FFr4TEb0KbxESUZG0Wi3i4uKMxouzSN3b2xt16tRBaGgo5syZg0qVKmHnzp347bffsGfPnrKIW2qHDx/GmDFjYGdnh5iYGFy8eBGffPIJYmNj0bNnT9y4cUPsiERkQViwiKhIGo0GGo3GaDwhIeGV58rlcqxbtw5Lly7Fp59+iocPH6JRo0bYtGkT6tWrVxZxS+3o0aOwtraGh4cHAGDNmjWYNWsWgoKCkJqaykXuRPRaZPrnn0EmIjJzKSkpCAoKMuk1K1asiIcPH5bZ+0dFRRlK3f/S6XTIzc0ps2sTlXcKhRJyuTiroTiDRUT0X+zs7ODg4FBozM3NDQCKfCQQEVFRWLCIiADUqlULn3/++Us/LdinTx8TJgJkuVlQ/HuZSa9JVJ7I3voMsHUR5dosWEREAMaOHQtHR0ds2rTJsF0DEVFJsWAREeHZDNaiRYtw9uxZsaMQUTnAfbCIiPBsc1GlUil2DCIqJ1iwiAhqtRoqlQoAoFKpoFari3VeZmYm2rdvb7ShqCWKiYnBoEGD0KRJEygUCrHjEJGF4y1CIioRrVaL0aNHl5tP1iUlJUEul2PevHkvfI2pF7kTkeViwSKi17Z7924sXrwYnp6eYkcRzKeffgpHR0ccOXIEmZmZYschIgvHgkVEry02NhYhISFo164dOnfubHT83r17mDNnDn799Vc4Ojpi6NChqF27NiZMmIBffvkFFStWFCH1y3l7e2PFihU4efKk2FGIqBxgwSKi1xYREQHg2W21/1VQUIDRo0dDp9Nh06ZNsLOzw9y5c6HVatG0aVOzLFcAkJGRgZwc7ppORMLgInciEtSpU6dw/fp1zJgxA2+99RYaNWqERYsW4f79+/D19RU73gvt2bMHgwcPRtWqVcWOQkTlAGewiEhQiYmJAICmTZsaxqpXrw5nZ+dCY+ambdu2qFKlCtauXYtHjx7h8ePHhY7r9XoEBweLlI6ILA0LFhEJSiaTFTmel5cHKysrE6cpvszMTJw+fVrsGERUTrBgEZGgvL29AQDx8fFo06YNAODq1at49OgRLl++jHfffVfMeC+0cuVKsSMQUTnCgkVERrRaLeLi4ozG/fz8Xnlu27Zt0bBhQ4SFhWH+/PnQ6/WYNWsWatWqhQsXLpRFXMHY2dnBzs4ODx48gJWVFXr16gV3d3ecOnUKly5dEjseEVkQFiwiMqLRaKDRaIzGExISXnmuTCZDeHg4Zs+ejcGDB8PBwQEDBw5EkyZNMH78eGRnZ8PBwaEsYpdKvXr1MGfOHHz//ffYsmULgoOD0a1bNzx69Ag9evRAWFgYfv31V7FjEpGFYMEiInz55ZeG72NiYop9npeXV5Gly8vLC+vXrzcaj4+PL1lAExg8eDDu3buHI0eOQKlUwt/fH4cOHUJERATGjh2LAQMGsGARUbFxmwYiIgD169fH119/Da1WCx8fH9jY2OCHH34AAMTFxaFmzZoiJyQiS8KCRUQEQKfTITc3FwDg4+ODR48e4dq1awAAe3t7bkJKRK+FtwiJiADcuHED7777LnJzc9G+fXucPXsWAODk5IT3338fN27cMHkmvcIZuW9NM/l1icoLhUKJojeOKXucwSIiAhAdHY0333wTixYtQkFBAb7++msAQHh4OKpVq/Zaa9OIiDiDRUQE4ObNmwgODkb16tVx584dwy3BtWvX4vLly8jKyhI5IRFZEs5gERH9vydPnuDatWuF1ltpNBpkZWXB09NTxGREZGk4g0VEUKvVuH//PmJiYqBSqeDp6Vlo64YXyczMRK9evbB06VK0bt3aMJ6fn4+IiAjs2bMHmZmZaNSoEWbOnIn69euX5a9RKhUqVMCQIUPQpEkT2NjYGB75I5PJYGtrCwcHB/Tp00fklERkKTiDRUQlotVqMXz4cKSlpRkdW7JkCf71r39h9uzZ2LdvH2rUqIGgoCCjByibk6CgIHTp0gXJycnQ6XR49OgRrl+/Dmtrazg4OGDNmjViRyQiC8KCRUSvbffu3QgICHjh8W+//RZDhw6Fn58fatWqhdDQUPz999+GT+aZI19fX2zfvh3z58/H4cOHkZ6ejkWLFmHUqFG4ffs2atSoIXZEIrIgLFhE9NpiY2MREhLywgckZ2RkoFKlSoaf5XI59Hq9qeKViIODA65evQoAuHfvHurWrQsAePr0Kfbt24eWLVuKGY+ILAzXYBHRa4uIiAAAJCUlFXlcp9MZ1jBlZmZi1apV8PLyQps2bUyW8XU9fPgQ9vb2AIDk5GQ4OzvDwcEB2dnZyMjIgKurq8gJiciScAaLiMpMdHQ03n77bfz8888ICwuDQqEQO9IL/f777xgwYADc3Nzw559/Ijs7G506dQIAtGrVCg8fPhQ5IRFZEhYsIioz/fr1w969e/Hhhx/io48+wjfffCN2pBfaunUrnJ2d8dlnnwEAdu3ahWHDhmHbtm0ICAhAbGysyAmJyJLwFiERlYknT56gYsWKaNy4MRo3boysrCwsX778pYvjxZSWloYxY8agWrVqAIADBw4gKysLDRs2xLVr13DixAmRExKRJWHBIqIy8ccffxT62dnZGU+ePBEpTfHk5ubi9u3bhp9/+ukn/PTTT+IFIiKLxYJFREa0Wi3i4uKMxv38/Ir9HocOHULt2rXRvXt33Lx5E5s2bUKvXr2EjFlqEyZMKPZr9Xo9Vq9eXYZpiKg8YcEiIiMajQYajcZoPCEhodjvMXbsWPz2229Ys2YNnJyc0KtXL4SEhAgZs9SaNWtW7Nea+zYTRGReWLCIqNBjcWJiYop9npeX1wtLV+XKlfHVV1+VOltZGjFiBACgXr16cHNzQ0pKCm7evClyKiIqD1iwiEiy7O3tMWvWrELPSLx69SoWL16MjIwMEZMRkaXjNg1EJFkqlQre3t7Yvn07QkNDsXHjRnh5eWHcuHFiRyMiC8cZLCIS3Ous1RJTq1atsHnzZhw8eBAAcP78eWRkZGDixIlQKpXIyckROSERWSrOYBGRZFWqVMlozVV8fDzkcjnc3NxESkVE5QELFhFJlpWVFfLy8gqNZWdnA4BZP9aHiMwfCxYRFYtarYZKpQLwbO2SWq1+6etPnDiB/v37w8fHB/7+/li4cCGePn1qiqiCeP6waiKikuAaLCIS3Llz5zBu3DhMmDAB3bp1w507dzBz5kxkZWVhwYIFYscrFu57RUSlwYJFRILbsWMHWrdujVGjRgEAatWqhZCQEEyfPh1z5swxq9tvo0ePxuPHjw0/P5+5GjduXKFxAJg+fbpJsxGR5WLBIiLBDRs2DHJ54RUIcrkceXl5yM7OhouLi0jJCrt06RL0er3R7cDnz1HkbUIiKikWLCISXKNGjQr9nJeXh+joaDRp0sRsyhUATJ06VewIRFROsWARUZnKz8/H5MmTcf36dWzbtk3sOEREJsGCRURlJjs7G59++il+/fVXhIeHv9bDlYmILBkLFhGVidTUVAQFBeH+/fvYsGEDWrZsKXYkIiKTYcEiIsH99ddf+Oijj5CdnY1t27YVepgyEZEUsGARUYlotVrExcUZjfv5+WHBggW4d+8e1q9fDxcXF6SlpRmOu7i4wMrKypRRiYhMjgWLiEpEo9FAo9EYjV++fBmHDh1CXl4ePvroI6Pjx48fh5eXlykiEhGJhgWLiIrlyy+/NHwfExPz0tdevHixrOMQEZk1PouQiIiISGAsWEREREQCY8EiIiIiEhgLFhEREZHAWLCIiIiIBMaCRURERCQwFiwiKha1Wg2VSgUAUKlUUKvVL339oUOH0KtXLzRr1gydO3dGVFQU9Hq9KaISEYmO+2ARkeB+/vlnTJw4EVOmTEHHjh1x5coVfPHFF1AoFEVuPkpEVN5wBouIBJeWlobg4GCoVCpUr14dXbt2Rdu2bXHq1CmxoxERmQRnsIhIcP369TN8r9Pp8Msvv+Ds2bMYO3asiKmIiEyHBYuIykxycjK6dOmC/Px8tG/fHoGBgWJHIiIyCd4iJKIyU7FiRezatQsrVqzA1atXMXnyZLEjERGZBAsWEZUZBwcHNGrUCN27d8eUKVPw/fff4/79+2LHIiIqcyxYRCS4c+fO4eLFi4XG6tevDwBITU0VIxIRkUlxDRYRCW7Lli1ITU3Fjh07DGO///47rK2tUatWLfGCERGZCAsWEZWIVqtFXFyc0bifnx+GDh2KwYMHY/ny5ejXrx8uX76MxYsXY8iQIahUqZIIaYmITIsFi4hKRKPRQKPRGI0nJCTA19cXERERWLFiBaKjo+Hi4oJhw4YhKChIhKRERKYn0/PZFURkIVJSUspdSYuKioKHh0eRx3Q6HXJzc0yciKj8UCiUkMvFWW7ORe5EREREAmPBIiIiIhIY12AREZmpJ4/zEPvdNbFjEFmsLj0boIKDUpRrcwaLiIiISGAsWEREREQCY8EiomJRq9VQqVQAAJVKBbVaXexzp0+fDn9//7KKRkRkdliwiKhMHTt2DLt27RI7BhGRSbFgEVGZSU1NxYwZM9CqVSuxoxAJ6uHfmfhi5gDs/SZS7ChkpliwiKhM6PV6qNVq9O7dmwWLyo30jD9x/rc42CrtIJPJ4FTRFU+ePsbv8cZPNSBp4zYNRFQmoqOjkZaWhnXr1iEiIkLsOESCOHfhR/wQtw/HfqwCKytr/HHlV/zw837k5+fCu04TOFSoKHZEMhMsWEQkuKtXryI8PBzbtm2DQqEQOw6RYDq2742a1etDc+Z7ZDzQIkV7F5069kd1z7pQKmzFjkdmhLcIiUhQOTk5mDhxIkaPHo0GDRqIHYdIULa29lDYKJB45yrq1X0TMhmQor2LN7ybwcaG/zFB/8GCRUSC+v3333H9+nWEh4fDx8cHPj4+iIiIQHJyMnx8fHDu3DmxIxKVStypg1AqbRH4wSfo+E5fJFy/gHtJN8SORWaGtwiJSFDNmjXD0aNHC43FxMTg6NGjiImJQZUqVURKRiSMjwZ9gbT0ZNjbOcDfrx9a+vqjknNlsWORmWHBIqIS0Wq1iIuLMxr38/NDQtYC4wAAIABJREFUzZo1C405OTnB2traaJzIEsnlclRx9wIAWFtbs1xRkViwiKhENBoNNBrjj6YnJCSIkIaIyLzI9Hq9XuwQRETFkZKSgqCgILFjCCoqKgoeHh5FHnuUnYPY766aOBFR+dGlZwNUcFCKcm0uciciIiISGAsWERERkcC4BouIyEzZ2dugW+96YscgslgKhY1o1+YMFhEREZHAWLCIiIiIBMaCRURERCQwFiwiKha1Wg2VSgUAUKlUUKvVL3399OnTUb9+/UJf/v7+pohKRCQ6LnInojKRkJCAUaNGYfDgwYYxKysrERMREZkOCxYRCU6v1+PGjRsIDg6Gm5ub2HGIiEyOtwiJSHB3797F48ePUadOHbGjEBGJgjNYRCS4a9euAQBiYmIQFxcHuVwOPz8/hISEwNHRUeR0RERljwWLiAR37do1yOVyuLu7Y926dbh79y4WLVqE69evY/PmzZDLOXlOROUbCxYRCW706NEYOHAgKlWqBACoV68e3NzcMGDAAMTHx+PNN98UOSERUdnif0YSkeDkcrmhXD33xhtvAABSUlLEiEREZFIsWEQkuMmTJ2Po0KGFxuLj4wEAdevWFSEREZFp8RYhEZWIVqtFXFyc0bifnx/effddjBkzBuHh4QgICEBiYiJCQ0Px3nvvwdvbW4S0RESmxYJFRCWi0Wig0WiMxhMSEtCpUyesWLECkZGRiIqKgqOjI3r16oVPP/1UhKRERP/H3p1HVV3t/x9/HmYZFWVUwzFwInE2zYEmsa5plqWJds0xzDQ1cQ6H1NKyMDWRNIeumWbO4oA3w8qxclZSI8FZQQREQM7vD3+eb+eC5YAcwNdjrbMWZ+/92Z/3Pute17v92Z+9C5/BaDQaLR2EiMidOHv2LL169bJ0GAUqKioKb2/vfOtyc3PJyrpeyBGJlBx2dvYWe2tZa7BERERECpgSLBEREZECpgRLREREpIApwRIREREpYEqwRERERAqYEiwRERGRAqZ9sETkjoSHh5OUlMTChQsJDQ2lfPnyTJ48Od+2oaGh7Ny5M9+6KVOm0L59+wcZqoiIxSnBEpECFxkZSXZ2tum70Whk0KBBXLlyhaefftqCkYmIFA4lWCJS4EqXLm32fdGiRezbt4+VK1fi5ORkoahERAqP1mCJyAN1+fJlpk+fTr9+/ahSpYqlwxERKRRKsETkgYqKisLBwYE33njD0qGIiBQaJVgi8sCkpaWxdOlS3njjDezt7S0djohIoVGCJSIPzObNm8nKyqJjx46WDkVEpFApwRKRB2bz5s20bNkSV1dXS4ciIlKolGCJyAOze/dumjZtaukwREQKnbZpEJF7cu7cObZt25anvEWLFgCcOXOG5ORkAgICCjs0ERGLU4IlIvfkxx9/5Mcff8xTfvToUQAuXLgA5N0TS0TkYWAwGo1GSwchInInzp49S69evSwdRoGKiorC29s737rc3Fyysq4XckQiJYednT1WVpZZDaU1WCIiIiIFTAmWiIiISAFTgiUiIiJSwJRgiYiIiBQwJVgiIiIiBUwJlojckfDwcEJDQwEIDQ0lPDz8b9v/8MMPdOzYkaCgIP71r3+xZs2awghTRKRIUIIlIgVuz5499OrVi7p167Js2TL69u3LmDFj+O677ywdmohIodBGoyJS4KKjowkMDGT06NEAVK1alT///JNPP/2U9u3bWzg6EZEHTzNYIlLgEhISqF+/vllZzZo1SUpK4vTp0xaKSkSk8CjBEpEC5+npyZkzZ8zKEhMTAbh06ZIlQhIRKVRKsESkwL3wwgts3LiRVatWkZOTw+HDh/niiy8AyM7OtnB0IiIPnhIsESlw7du3JywsjNGjR1OnTh3CwsLo2bMnAC4uLhaOTkTkwdMidxF5IMLCwujbty8XL17Ew8ODH374AWtra3x9fS0dmojIA6cZLBEpcIsWLWL8+PFYW1vj5eWFlZUVMTExBAUF4eTkZOnwREQeOM1gicg9OXfuHNu2bctT3qJFC6pWrcqkSZOoU6cODRo0YN26daxatcq0DktEpKRTgiUi9+THH3/kxx9/zFN+9OhRmjZtSkREBDNnzuTcuXNUq1aNWbNm0ahRIwtEKiJS+AxGo9Fo6SBERO7E2bNn6dWrl6XDKFBRUVF4e3vnW5ebm0tW1vVCjkik5LCzs8fKyjKrobQGS0RERKSAKcESERERKWBKsEREREQKmBIsERERkQKmBEtERESkgCnBEhERESlg2gdLpIQLDw9nxYoVf9umQ4cOrF69mqVLl1KrVi2zum+//Zbhw4dz9OhRACIjI5kxY0a+/dSqVYtvv/0WgEOHDjF16lR++eUXSpcuTYcOHQgLC8Pa2roARiUiUrQpwRIp4UaOHMngwYNN35s3b86IESNo27atqWzatGnk5OQQHh7O8uXLsbOz+9s+vb29WbZsWZ5yG5ub/6ScO3eO0NBQnn/+ecaMGUNCQgLDhg3D1dWV119/vWAGJiJShCnBEinhXFxccHFxyVPm4eFhVubt7c3JkyeZOXMmAwcO/Ns+ra2t81z/V//9738xGo2MHTsWKysrKlWqxL///W/WrFmjBEtEHgpagyUiADzyyCP069ePqKgoDhw4cF99Xbx4ETc3N7MdlA0GAwaD4X7DFBEpFpRgiYhJnz598Pf3Z/jw4WRlZd1zP7m5uaZkKicnh927d7NgwQK6du1aUKGKiBRpekQoIiY2NjZMmjSJjh078tlnnzFo0KB8250+fZqgoKA85b/88kuessaNG5ORkUFoaCghISEFHrOISFGkBEtEzPj7+xMWFsaMGTN46qmn8m3j6enJwoUL76i/ZcuWkZiYyKxZs3j11Vf56quvcHBwKMiQRUSKHD0iFJE8evXqRUBAwG0fFdrY2ODn55fn81cZGRkAVK5cmSeeeILZs2cTHx/P2rVrC2UMIiKWpARLRPKwsbFh8uTJ/PHHH0RHR99TH8nJySQmJpq+Ozk5YWdnR2ZmZkGFKSJSZCnBEpF8Va9enbfeeos///zznq63tbVlwIAB7NmzhxMnTjB27Fhyc3MJDg4u4EhFRIoeJVgicls9e/akTp0693Stp6cnXbt2ZejQobz44ovEx8cTHR2Nj49PAUcpIlL0GIxGo9HSQYhIyRIZGcmKFSuIjY0t0H7Pnj1Lr169CrRPS4uKisLb2zvfutzcXLKyrhdyRCIlh52dvdl+fIVJM1giIiIiBUzbNIiIFFGGnAzsE1ZZOgyR4qtyO7Bztsit9YhQRIqN9PT0An/saGnBwcE4OTnlW2fMSoOTSrBE7lnldhgslGDpEaGIiIhIAVOCJSIiIlLAtAZLpIgJDg4mKSnJ9N1gMODo6EjNmjV5++23adiwIcHBwXTo0IG33nrLgpH+vZSUFD766CP++9//kpaWhr+/P4MHD6ZBgwaWDk1E5IHTDJZIEdSjRw/i4uKIi4tj27ZtLFmyBGdnZ3r27Mnp06ctHd4deeedd/jll1/46KOPWL58OTVq1OCNN97gxIkTlg5NROSBU4IlUgQ5Ojri4eGBh4cHnp6ePProo0RERJCZmcmmTZssHd4/SkhIYPv27bz33ns0aNCAypUrM3r0aDw9PVm9erWlwxMReeCUYIkUEzY2N5/o29nZ5an75ptv+Ne//kVgYCB169alS5cu7N+/31S/b98+unTpQlBQEA0bNuStt94yzYQlJibi7+/P2rVrad++PXXq1OHFF1/k+PHjfPbZZzz++OM0atSIiIgIbr10nJuby+eff86zzz5L7dq1qVevHj179jQdq1OmTBnmzJljtgu8wWDAYDCQmpr6wH4jEZGiQgmWSDFw7tw5xo0bh6OjIy1btjSr27RpE+PGjaNnz56sX7+e+fPnc/36dUaNGgXAjRs36NOnDw0bNmTVqlXMnz+f06dPM2LECLN+Pv74Y0aMGME333xDamoqnTt35o8//mDhwoUMGjSIr776iq1btwKwYMECoqOjCQ8PJyYmhs8++4w//viDyZMnA+Dq6krLli3NksGYmBgSEhJ44oknHuRPJSJSJGiRu0gR9Pnnn/PFF18AkJOTQ1ZWFlWrVmX69On4+vqatS1dujQTJ06kXbt2AJQvX56XXnqJcePGAZCWlkZycjKenp6UL1+eihUrMn36dC5dumTWT48ePWjUqBEATz/9NAsXLmTcuHGUKlWKqlWrEhkZSXx8PMHBwTzyyCNMmTKF1q1bm+7Zpk0bNmzYkO949u7dy/Dhw3nmmWdo1apVgf1OIiJFlRIskSLo1VdfJTQ0FAArKytKly6Ni4tLvm0bNmxoepx34sQJEhISOHr0KLm5uQC4ubnRs2dPxo8fz6effkqTJk1o2bIlISEhZv34+fmZ/nZ0dKRcuXKUKlXKVObg4EBWVhZw803H3377jU8++YSTJ09y8uRJfv/9d7y8vPLEt3nzZoYMGUK9evWYOnXq/f0wIiLFhB4RihRBbm5u+Pn54efnR8WKFW+bXAGsXr2adu3acerUKerVq8ewYcMIDw83azNkyBBiY2MZOHAgRqOR8ePH07FjR1PCBP+3xuuWvzsgdc6cOXTr1o3k5GSaNm1KREQEPXr0yNNu0aJFvPXWW7Ru3ZrZs2djb29/pz+BiEixphkskWJuzpw5vPTSS0RERJjKtmzZAoDRaOTkyZN8+eWXjBgxgs6dO9O5c2f27NlDly5dOHLkCO7u7nd9z9mzZxMWFkbv3r1NZdHR0fz15K2vvvqK8ePHExoaysiRIzEYDPcxShGR4kUJlkgx5+Pjw969ezl48CAuLi7ExsayaNEiALKysihTpgxr164lMzOT3r17Y2VlxYoVK3Bzc6NKlSqkpKTc0z23b99OcHAwVlZWrFy5ko0bN1KuXDkATp48yfvvv8/TTz9Nnz59uHjxoulaBweHv52RExEpCfSIUKSYGz16NOXKlaNr1668/PLLbN26lQ8++ACA/fv3U6ZMGaKiokhKSqJTp0506NCBxMRE5s2bh7PzvR2C+sEHH5CZmUnHjh3p2rUrx44dIyIigkuXLnH69GliYmLIzs5m06ZNNG/e3OwzceLEghy+iEiRZDD+dU5fRKQIS09PJzY21tJhFKjg4GCcnJzyrTNmpcHJVYUckUgJUrkdBrt7+w/J+6UZLBEREZECpgRLREREpIBpkbuISBFltHEky6+DpcMQKbbsbOyx1PvLmsESERERKWBKsEREREQKmBIsERERkQKmNVgiJUhoaCg7d+7Mt65Hjx4MGzYMgJ07d7Jo0SJ+/fVXLl++TOnSpWnYsCE9e/akVq1apmvCw8NZsWJFvv09++yzfPrpp7eNJTY21nQ+YpkyZXj22Wd5++23cXBwuI8RiogUD0qwREqYkJAQRo4cmaf81sHN0dHRfPTRR3Tp0oXIyEg8PT05e/YsS5cu5ZVXXmHu3Lk0adLEdF1QUBCRkZF5+vu7cwV3795N//79GTBgAG3atCEhIYExY8aQkpLCpEmTCmCUIiJFmxIskRLGwcEBDw+PfOv27dvHtGnTGD58OKGhoaZyHx8fgoKCuH79OlOnTmXZsmWmOltb29v2dztLliyhcePG9O3bF4BKlSoxaNAgRo0aRUREBHZ2dvcwMhGR4kMJlshDZNGiRZQvX56uXbvmWz9q1Cisra3v+z49evTAysp8iaeVlRXZ2dmkpaXd0wHTIiLFiRIskYfIzp07eeKJJzAY8t8ZpqASn5o1a5p9z87OZv78+dSuXVvJlYg8FJRgiZQwq1evJiYmxqysfv36zJ07l4sXL+ZJcKKiopg5c6ZZ2dq1a/H19QVurqcKCgoyq/f19WXt2rV3FE9OTg7vvvsu8fHxLF68+G6HIyJSLCnBEilhgoODGTJkiFnZrTf3ypQpQ0pKilldp06deOaZZwD47bffGDp0KLm5uab62rVrM3XqVLNrbGxu/tNx+vRpnnvuObO6X375xfR3WloaAwcOZOfOncyYMYPAwMD7HJ2ISPGgBEukhHFycsLPzy/fuvr16+fZxsHNzQ03NzcAzp49m+caBweH2/bn6enJd999l2/d+fPn6dWrF0lJSURHR9OwYcO7GYaISLGmjUZFHiLdunXjjz/+YOnSpfnWnzlz5q76s7Gxwc/Pz+wDcOXKFbp3787ly5dZvHixkisReehoBkvkIVKvXj3Cw8MZN24cBw4coF27dvj4+HDmzBlWrVrFsmXLqFmzJqVLl76v+0yaNIlTp04xd+5c3N3duXDhgqnO3d29QN5UFBEpypRgiTxkunfvTlBQEIsWLWLo0KFcuHABZ2dnateuzeTJk2nbtq1pjdW9uHHjBuvWrSM7O5vu3bvnqd+yZQsVKlS4nyGIiBR5BqPRaLR0ECIidyI9PZ3Y2FhLh1GggoODcXJyyrcuNzeXrKzrhRyRSMlhZ2efZ0++wqIZLBF5qLm7u1O1alWcnJxITU3l+PHjXLlyxayNq6srDRo0KHHJnYg8OFrkLiIPrbJly9K0aVMcHR1JS0vDw8OD5s2b53lr0srKCkdHRwtFKSLFkWawROSh5e/vz9mzZ9mzZw9w863Ixx57jDp16gCQkJBgyfBEpBjTDJaIPLRcXV35888/Td9zcnLYs2cPSUlJ1K5dG29vbwtGJyLFmRIsEXlo5eTk5PvG5K+//srly5epV68eZcqUsUBkIlLcKcESEUJDQ/H398/3M2XKFMLDwwkNDc1z3bp166hZsyajR48mNzeXyMhI/P39810MvmPHDvz9/UlMTCyMId2R5ORkqlevjr29vVm50Whk165dZGRk0KhRIzw8PCwUoYgUV0qwRASAkJAQ4uLi8nzCwsLybb9u3TqGDh1K586dGTdunNmr0GPGjMnzJl5RdPjwYezs7HjyyScJCAgwq8vJyeHnn38mKysLf39/C0UoIsWVEiwRAW6eOejh4ZHn4+zsnKfthg0bGDp0KKGhoYwePRqDwWCqc3NzIysriwkTJhRm+PckIyOD77//niNHjuSbEGZmZrJt2zZOnjzJtWvXLBChiBRXSrBE5K7ExMQwePBg3njjDcLDw/PUOzs7M2LECFatWsWWLVssEOHdyc7O5sSJE7c9h/HGjRscPHiwWIxFRIoObdMgInds48aNvPPOO9StW5d33nnntu3at29PTEwMY8eOpX79+vd9tmFhsbe3z/esRBsbG9zd3dm7d6+FIhOR4kYJlogAsHr1amJiYszK6tevz9y5cwGIj4/nnXfeoXHjxmzfvp3Nmzfz1FNP3ba/cePG8fzzzzN+/HimTZv2QGMvCD4+PgQFBd32WI20tLRCjkhEijMlWCIC3DwTb8iQIWZlDg4Opr+Tk5MZOnQoPXv2pFevXowcOfJv94ry8PBg5MiRDB06lJCQEFxcXB5o/PerevXqXLlyhf3791OpUiWsrKz4/fff8fT0JCAggAMHDlg6RBEpRrQGS0QAcHJyws/Pz+zj5eVlqq9Xrx49e/YE4P333wdgyJAh3Lhx47Z9tmvXjqeeeoqxY8eSkpLyYAdwn5ydnTl+/DipqalcunQJV1dX0tLSOHHiBCdPnqR69eqWDlFEihElWCJyR/66IaeHhwfjx49n165dzJw582+vi4iIICcnh6lTpz7oEO+L0WgkKysLgPT0dLO3J8+fP1/kZ+BEpGhRgiUi9+SZZ56hQ4cOzJo1i127dt22Xbly5Rg9erTZkTRFUVpaGu7u7qa/rayscHV1BcDW1va2a7NERPKjfzFE5J6NGjUKb29vhgwZ8rePAJ9//nmeeeaZQozs7iUkJODv709AQAA5OTlcvHiRunXrUqlSJWrUqFEsNk4VkaLDYDQajZYOQkTkTqSnp+d7DE9BqVSpEo6Ojhw6dAhHR0caN26Mk5MTGRkZ7Nq1i6tXrxb4PYODg3Fycsq3Ljc3l6ys6wV+T5GHhZ2dvcVmn/UWoYjI//fHH3+Y/s7IyGDr1q3Y2dmZ1maJiNwpJVgiIn9hY2ODra2tWVmpUqUAdFyOiNwxJVgiIoCrqytBQUF/+7bgmjVrCjEiESnOlGCJiACBgYHY2dlx6NAhPRIUkfumBEtEBHBxcWHPnj2cP3/e0qGISAmgbRpERLi5qP1/D3kWEblXmsESKYKMRiMrVqxgxYoVxMfHk5aWho+PD61ataJ37954eHgA4O/vD0BkZGS++0y98cYbxMXFMWnSJF588cW/veepU6eYO3cuP/zwAxcuXMDDw4PWrVvTt29f0/0AUlNTmTlzJhs3buT8+fM4OzvToEED3nzzTWrWrGlqdyu2/MyePZvWrVvf1W/yoB0+fJhatWqRlZVFcnIyubm5lg5JRIoxJVgiRUxubi79+/dn9+7d9O3blzFjxuDk5ER8fDyzZs2iY8eOrFixgrJlywI3dxmPiYnJk2AlJyezY8eOO7rnnj176NOnDw0bNmTSpEmUL1+ehIQEpk2bRufOnfnqq6/w9PQEoF+/fuTk5PD+++9TsWJFLl26RFRUFK+99hrLli2jatWqpn5HjBhB27Zt89zPzc3tXn+eByY9PR2Apk2b5ltvNBpZu3ZtYYYkIsWYEiyRImb+/Pl8//33LF26lFq1apnKfX19ady4Mc899xzR0dG8++67wM2EYOvWrVy/fh17e3tT+40bN1K3bt2/PcYGICsri8GDB9OkSRMiIyMxGAwAVKhQgdq1a/PMM88wY8YMxo0bx7Fjx9i9ezcrVqwwzVaVL1+ejz76iKeeeoqlS5cyfPhwU98uLi5ms19FWd26dbGzsyMhIYHr17W5p4jcHyVYIkWI0Whk0aJFtGvXziy5usXBwYEFCxaYJS2tWrVi165d/PDDDzz11FOm8nXr1tG2bdt/TLC2bt3KmTNnmDVrlim5usXNzY2oqCjT/W7tiPz9999To0YNU3tbW1sWLVqEo6PjvQ28CHBzc+OXX37hzJkzlg5FREoALXIXKUISExNJSkri8ccfv22b8uXLY2dnZ/peqlQpWrVqxfr1601lFy9eZO/evbRp0+Yf73ngwAEcHR0JCAjItz4wMBAfHx8AqlWrRnBwMNOnT6d169aMGDGCb7/9lnPnzlGxYkXTY8viKDMzkxs3blg6DBEpIZRgiRQhFy9eBMDd3d2svG/fvgQFBZk+zz33nFl9SEgIW7duNe3ftGHDBho1apSnn/xcuXIFFxeXPLNXtzNjxgzGjh2Lj48PK1euZPjw4bRs2ZJBgwaRlpZm1nbs2LFmcQcFBTF79uw7uk9h+/333wkICLjtuYAiIndDjwhFipAyZcoAN5Oev4qIiCAzMxOAhQsX5jnwuGXLlhiNRn744QeefPJJ1q1bx0svvZSn/6CgILPva9eupUyZMly5cgWj0XhHSZa1tTVdunShS5cupKWlsXv3btavX8/KlSsxGo1Mnz7d1HbAgAF5Ft8XxQXuAD4+Pjg6OtK6dWuys7PJzs7O0+ZBHjQtIiWLEiyRIqRixYp4eHiwY8cOs7fvvLy8TH/nl6A4ODgQHBzMhg0bqFWrFgcPHuTzzz/P0+67774z++7p6Um9evWYPXs2hw4dynfdV1RUFImJiURERLBx40Z+//133nzzTQCcnZ1p1aoVrVq1wt3dnSVLlphdW7ZsWfz8/O7uR7CQzMxMrb8SkQKjBEukCLG2tqZbt2589tlndO7cOd91UbdLAkJCQhg2bBiPPvoozZo1y/dMvfySnaZNm1KhQgVmzZpl9hYhwKVLl5g/f75pz6qzZ88yc+ZMOnToYFqXdYurq2uxXoP122+/WToEESlBtAZLpIjp2bMnrVu3pkuXLsyePZsjR46QmJhIbGwsPXr0YPny5TRp0iTPdU888QRGo5HZs2fnWaP1d+zs7Jg4cSJxcXGEhYWxa9cuTp06xebNm+nWrRtOTk4MGjQIgBdffJFHHnmE0NBQVq1axalTpzhy5AiLFy9mzpw5hIWFFdjvYAnW1tamrS4MBgNVqlShVq1ad7SWTUTkrzSDJVLEWFlZMX36dNavX8/y5ctZsGABqamplCtXjgYNGrBo0SIaNmyY5zp7e3uefPJJNm3adNe7pDdp0oQlS5YwZ84cBg8eTHJyMl5eXqad3G/NTDk7O/PVV18xa9YsPvvsM86cOYO1tTU1atTgww8/NNsmorgpXbo0jRs3JiEhgSNHjlC7dm38/PzIzs6mUqVK7N69m3Pnzlk6TBEpJgxGo9Fo6SBERO5Eenr6A1to3qRJE6ytrdm7dy9ZWVk888wznDp1igMHDhAYGIirqytxcXEFft/g4ODbvrmYm5tLVpY2PRW5V3Z29qb9+wqbHhGKiHBzBis+Pp5r167h4eGBtbU1iYmJACQlJeW7pk1E5HaUYImI/H+3Nhr18PAgOzublJQUAGxsbLQJqYjcFa3BEhEBUlJSeOSRR7hx4wa+vr6m9VZ2dnZUq1Ytz95khcGQfRX7w/ML/b4iJUbN18HeMnvvaQZLRAQ4fPgwHh4eNG/eHKPRSHx8PHDzrEdnZ2eOHDli4QhFpDjRDJaICDd3z9+yZQsuLi5cvXrV9Ehw//79XL58mevXtdhcRO6cZrBESqjw8HBCQ0NNf/v7++f7GTBgAACRkZH4+/vn+5bejh078Pf3Ny36vhOZmZlMmzaN4OBggoKCePHFF9myZUvBDO4BuXHjBikpKWbrrc6cOcP169d1RqGI3BXNYIk8JIKCgoiMjMxTfmtjzVvGjBlD/fr17/vMwAkTJ</t>
+    <t>app/static/Flu09/overview/Flu09_Plasma_absolute__cy_mean_correlation.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_abs/Flu09_Plasma_absolute__hierchical_clust_heatmap.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_abs/Flu09_Plasma_absolute__reliability.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_abs/Flu09_Plasma_absolute__color_label_legend.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_abs/Flu09_Plasma_absolute__modules_correlations_1.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_abs/Flu09_Plasma_absolute__modules_correlations_2.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_abs/Flu09_Plasma_absolute__modules_correlations_3.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_abs/Flu09_Plasma_absolute__modules_correlations_4.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_abs/Flu09_Plasma_absolute__modules_correlations_5.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/outcome_abs/associations_abs.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_adj/Flu09_Plasma_adjusted__hierchical_clust_heatmap.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_adj/Flu09_Plasma_adjusted__reliability.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/clustering_adj/Flu09_Plasma_adjusted__color_label_legend.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_adj/Flu09_Plasma_adjusted__modules_correlations_1.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_adj/Flu09_Plasma_adjusted__modules_correlations_2.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_adj/Flu09_Plasma_adjusted__modules_correlations_3.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/correlation_figures_adj/Flu09_Plasma_adjusted__modules_correlations_4.png</t>
+  </si>
+  <si>
+    <t>app/static/Flu09/outcome_adj/associations_adj.png</t>
+  </si>
+  <si>
+    <t>not</t>
   </si>
   <si>
     <t>1000</t>
@@ -660,16 +663,16 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -686,16 +689,16 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -712,16 +715,16 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -738,16 +741,16 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -764,16 +767,16 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -790,16 +793,16 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -816,16 +819,16 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -842,16 +845,16 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -868,16 +871,16 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -894,16 +897,16 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -920,16 +923,16 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -946,16 +949,16 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,16 +975,16 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -998,16 +1001,16 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1024,16 +1027,16 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,16 +1053,16 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1076,16 +1079,16 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1102,16 +1105,16 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1124,11 +1127,14 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1141,11 +1147,14 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/Flu09/all_results.xlsx
+++ b/app/static/Flu09/all_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>index</t>
   </si>
@@ -37,6 +37,9 @@
     <t>location</t>
   </si>
   <si>
+    <t>explanation</t>
+  </si>
+  <si>
     <t>absolute</t>
   </si>
   <si>
@@ -253,10 +256,19 @@
     <t>outcome_adj</t>
   </si>
   <si>
-    <t>{'headline': 'Absolute Modules:', 1: ['GCSF', 'IL6', 'IL8', 'MIP1α', 'TGFα', 'TNFα'], 2: ['FGF-2', 'FKN', 'GM-CSF', 'IFNα2', 'IFNγ', 'IL1Ra/Ra2', 'MCP3', 'MIP1β', 'VEGF'], 3: ['EGF', 'Eotaxin', 'GRO', 'IP10', 'MCP1', 'MDC', 'sCD40-L'], 4: ['FLT3L', 'IL4', 'IL12-P70', 'IL13'], 5: ['IL1α', 'IL1β', 'IL2', 'IL3', 'IL5', 'IL7', 'IL9', 'IL10', 'IL12-P40', 'IL15', 'TNFβ']}</t>
-  </si>
-  <si>
-    <t>{'headline': 'Adjusted Modules:', 1: ['FLT3L', 'IL1α', 'IL1β', 'IL2', 'IL3', 'IL4', 'IL5', 'IL7', 'IL9', 'IL10', 'IL12-P40', 'IL12-P70', 'IL13', 'IL15', 'TNFβ'], 2: ['FGF-2', 'FKN', 'GM-CSF', 'IFNα2', 'IL1Ra/Ra2', 'MCP3', 'MIP1β'], 3: ['GCSF', 'IL6', 'TNFα'], 4: ['EGF', 'Eotaxin', 'GRO', 'IFNγ', 'IL8', 'IP10', 'MCP1', 'MDC', 'MIP1α', 'sCD40-L', 'TGFα', 'VEGF']}</t>
+    <t>here will put explanation</t>
+  </si>
+  <si>
+    <t>this is the absolute cytokines moduls</t>
+  </si>
+  <si>
+    <t>this is the adjusted cytokines moduls</t>
+  </si>
+  <si>
+    <t>[['GCSF, IL6, IL8, MIP1α, TGFα, TNFα'], ['FGF-2, FKN, GM-CSF, IFNα2, IFNγ, IL1Ra/Ra2, MCP3, MIP1β, VEGF'], ['EGF, Eotaxin, GRO, IP10, MCP1, MDC, sCD40-L'], ['FLT3L, IL4, IL12-P70, IL13'], ['IL1α, IL1β, IL2, IL3, IL5, IL7, IL9, IL10, IL12-P40, IL15, TNFβ']]</t>
+  </si>
+  <si>
+    <t>[['FLT3L, IL1α, IL1β, IL2, IL3, IL4, IL5, IL7, IL9, IL10, IL12-P40, IL12-P70, IL13, IL15, TNFβ'], ['FGF-2, FKN, GM-CSF, IFNα2, IL1Ra/Ra2, MCP3, MIP1β'], ['GCSF, IL6, TNFα'], ['EGF, Eotaxin, GRO, IFNγ, IL8, IP10, MCP1, MDC, MIP1α, sCD40-L, TGFα, VEGF']]</t>
   </si>
 </sst>
 </file>
@@ -614,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,513 +660,576 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/Flu09/all_results.xlsx
+++ b/app/static/Flu09/all_results.xlsx
@@ -241,7 +241,7 @@
     <t>clustering_abs</t>
   </si>
   <si>
-    <t>correlation_figures_Flu09_Plasma_absolute_</t>
+    <t>correlation_abs</t>
   </si>
   <si>
     <t>outcome_abs</t>
@@ -250,7 +250,7 @@
     <t>clustering_adj</t>
   </si>
   <si>
-    <t>correlation_figures_Flu09_Plasma_adjusted_</t>
+    <t>correlation_adj</t>
   </si>
   <si>
     <t>outcome_adj</t>
